--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="4637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="4639">
   <si>
     <t>1. open</t>
   </si>
@@ -12016,6 +12016,9 @@
     <t>3.90680</t>
   </si>
   <si>
+    <t>3.92170</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -13571,6 +13574,9 @@
   </si>
   <si>
     <t>3.87850</t>
+  </si>
+  <si>
+    <t>3.88660</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14350,7 +14356,7 @@
         <v>2012</v>
       </c>
       <c r="D4" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="E4" t="s">
         <v>2013</v>
@@ -14605,7 +14611,7 @@
         <v>2025</v>
       </c>
       <c r="D19" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="E19" t="s">
         <v>2026</v>
@@ -14622,7 +14628,7 @@
         <v>2026</v>
       </c>
       <c r="D20" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="E20" t="s">
         <v>2027</v>
@@ -14724,7 +14730,7 @@
         <v>2031</v>
       </c>
       <c r="D26" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="E26" t="s">
         <v>2031</v>
@@ -14775,7 +14781,7 @@
         <v>2033</v>
       </c>
       <c r="D29" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="E29" t="s">
         <v>2033</v>
@@ -14826,7 +14832,7 @@
         <v>3320</v>
       </c>
       <c r="D32" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="E32" t="s">
         <v>2034</v>
@@ -14928,7 +14934,7 @@
         <v>2039</v>
       </c>
       <c r="D38" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="E38" t="s">
         <v>2040</v>
@@ -15030,7 +15036,7 @@
         <v>2045</v>
       </c>
       <c r="D44" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="E44" t="s">
         <v>2046</v>
@@ -15047,7 +15053,7 @@
         <v>2046</v>
       </c>
       <c r="D45" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="E45" t="s">
         <v>2043</v>
@@ -15064,7 +15070,7 @@
         <v>3323</v>
       </c>
       <c r="D46" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="E46" t="s">
         <v>2047</v>
@@ -15115,7 +15121,7 @@
         <v>2048</v>
       </c>
       <c r="D49" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="E49" t="s">
         <v>2049</v>
@@ -15132,7 +15138,7 @@
         <v>2050</v>
       </c>
       <c r="D50" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="E50" t="s">
         <v>2050</v>
@@ -15166,7 +15172,7 @@
         <v>2052</v>
       </c>
       <c r="D52" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="E52" t="s">
         <v>2052</v>
@@ -15183,7 +15189,7 @@
         <v>3324</v>
       </c>
       <c r="D53" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="E53" t="s">
         <v>2053</v>
@@ -15200,7 +15206,7 @@
         <v>2052</v>
       </c>
       <c r="D54" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="E54" t="s">
         <v>2054</v>
@@ -15353,7 +15359,7 @@
         <v>2063</v>
       </c>
       <c r="D63" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="E63" t="s">
         <v>2063</v>
@@ -15523,7 +15529,7 @@
         <v>2070</v>
       </c>
       <c r="D73" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="E73" t="s">
         <v>2071</v>
@@ -15625,7 +15631,7 @@
         <v>2075</v>
       </c>
       <c r="D79" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="E79" t="s">
         <v>2073</v>
@@ -15642,7 +15648,7 @@
         <v>2073</v>
       </c>
       <c r="D80" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="E80" t="s">
         <v>2076</v>
@@ -15931,7 +15937,7 @@
         <v>3335</v>
       </c>
       <c r="D97" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="E97" t="s">
         <v>2077</v>
@@ -16424,10 +16430,10 @@
         <v>2113</v>
       </c>
       <c r="D126" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="E126" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16509,7 +16515,7 @@
         <v>3350</v>
       </c>
       <c r="D131" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="E131" t="s">
         <v>2118</v>
@@ -16628,7 +16634,7 @@
         <v>3349</v>
       </c>
       <c r="D138" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="E138" t="s">
         <v>2124</v>
@@ -16662,7 +16668,7 @@
         <v>3350</v>
       </c>
       <c r="D140" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="E140" t="s">
         <v>2106</v>
@@ -16679,7 +16685,7 @@
         <v>2125</v>
       </c>
       <c r="D141" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="E141" t="s">
         <v>2125</v>
@@ -16696,7 +16702,7 @@
         <v>3355</v>
       </c>
       <c r="D142" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="E142" t="s">
         <v>2112</v>
@@ -16781,7 +16787,7 @@
         <v>3341</v>
       </c>
       <c r="D147" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="E147" t="s">
         <v>2129</v>
@@ -17087,7 +17093,7 @@
         <v>2143</v>
       </c>
       <c r="D165" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="E165" t="s">
         <v>2144</v>
@@ -17325,10 +17331,10 @@
         <v>2154</v>
       </c>
       <c r="D179" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="E179" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17464,7 +17470,7 @@
         <v>2161</v>
       </c>
       <c r="E187" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -17886,7 +17892,7 @@
         <v>3373</v>
       </c>
       <c r="D212" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="E212" t="s">
         <v>3373</v>
@@ -17920,7 +17926,7 @@
         <v>2184</v>
       </c>
       <c r="D214" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="E214" t="s">
         <v>2184</v>
@@ -18209,10 +18215,10 @@
         <v>2200</v>
       </c>
       <c r="D231" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="E231" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19555,7 +19561,7 @@
         <v>2265</v>
       </c>
       <c r="E310" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19654,7 +19660,7 @@
         <v>3408</v>
       </c>
       <c r="D316" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="E316" t="s">
         <v>2272</v>
@@ -19892,7 +19898,7 @@
         <v>2281</v>
       </c>
       <c r="D330" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="E330" t="s">
         <v>2282</v>
@@ -19909,7 +19915,7 @@
         <v>2282</v>
       </c>
       <c r="D331" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="E331" t="s">
         <v>2283</v>
@@ -19994,7 +20000,7 @@
         <v>2286</v>
       </c>
       <c r="D336" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="E336" t="s">
         <v>2287</v>
@@ -20249,7 +20255,7 @@
         <v>2448</v>
       </c>
       <c r="D351" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E351" t="s">
         <v>2233</v>
@@ -20266,7 +20272,7 @@
         <v>3388</v>
       </c>
       <c r="D352" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="E352" t="s">
         <v>2299</v>
@@ -20470,10 +20476,10 @@
         <v>2309</v>
       </c>
       <c r="D364" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="E364" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20487,7 +20493,7 @@
         <v>2355</v>
       </c>
       <c r="D365" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="E365" t="s">
         <v>2310</v>
@@ -21235,7 +21241,7 @@
         <v>2344</v>
       </c>
       <c r="D409" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="E409" t="s">
         <v>2344</v>
@@ -21796,7 +21802,7 @@
         <v>2366</v>
       </c>
       <c r="D442" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="E442" t="s">
         <v>2367</v>
@@ -21983,7 +21989,7 @@
         <v>3429</v>
       </c>
       <c r="D453" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="E453" t="s">
         <v>2328</v>
@@ -22255,7 +22261,7 @@
         <v>2388</v>
       </c>
       <c r="D469" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="E469" t="s">
         <v>2389</v>
@@ -22323,7 +22329,7 @@
         <v>3434</v>
       </c>
       <c r="D473" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="E473" t="s">
         <v>3393</v>
@@ -22510,7 +22516,7 @@
         <v>3388</v>
       </c>
       <c r="D484" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E484" t="s">
         <v>2400</v>
@@ -23275,7 +23281,7 @@
         <v>2428</v>
       </c>
       <c r="D529" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="E529" t="s">
         <v>2429</v>
@@ -23411,7 +23417,7 @@
         <v>2431</v>
       </c>
       <c r="D537" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="E537" t="s">
         <v>2435</v>
@@ -23462,7 +23468,7 @@
         <v>3442</v>
       </c>
       <c r="D540" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="E540" t="s">
         <v>2438</v>
@@ -23479,7 +23485,7 @@
         <v>2290</v>
       </c>
       <c r="D541" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E541" t="s">
         <v>2408</v>
@@ -23530,7 +23536,7 @@
         <v>3443</v>
       </c>
       <c r="D544" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="E544" t="s">
         <v>2441</v>
@@ -23547,7 +23553,7 @@
         <v>3444</v>
       </c>
       <c r="D545" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="E545" t="s">
         <v>2442</v>
@@ -23564,7 +23570,7 @@
         <v>2406</v>
       </c>
       <c r="D546" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E546" t="s">
         <v>2296</v>
@@ -23615,7 +23621,7 @@
         <v>2421</v>
       </c>
       <c r="D549" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E549" t="s">
         <v>2443</v>
@@ -23649,7 +23655,7 @@
         <v>2230</v>
       </c>
       <c r="D551" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="E551" t="s">
         <v>2444</v>
@@ -23751,7 +23757,7 @@
         <v>2394</v>
       </c>
       <c r="D557" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="E557" t="s">
         <v>2449</v>
@@ -23785,7 +23791,7 @@
         <v>2875</v>
       </c>
       <c r="D559" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="E559" t="s">
         <v>2450</v>
@@ -23802,7 +23808,7 @@
         <v>2450</v>
       </c>
       <c r="D560" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E560" t="s">
         <v>2380</v>
@@ -23836,7 +23842,7 @@
         <v>3450</v>
       </c>
       <c r="D562" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="E562" t="s">
         <v>2451</v>
@@ -23870,10 +23876,10 @@
         <v>2291</v>
       </c>
       <c r="D564" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E564" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -23921,7 +23927,7 @@
         <v>3451</v>
       </c>
       <c r="D567" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="E567" t="s">
         <v>2455</v>
@@ -23989,7 +23995,7 @@
         <v>3452</v>
       </c>
       <c r="D571" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="E571" t="s">
         <v>2459</v>
@@ -24040,7 +24046,7 @@
         <v>2353</v>
       </c>
       <c r="D574" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="E574" t="s">
         <v>2211</v>
@@ -24074,7 +24080,7 @@
         <v>3453</v>
       </c>
       <c r="D576" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E576" t="s">
         <v>2463</v>
@@ -24091,7 +24097,7 @@
         <v>2763</v>
       </c>
       <c r="D577" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="E577" t="s">
         <v>2464</v>
@@ -24108,7 +24114,7 @@
         <v>2760</v>
       </c>
       <c r="D578" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="E578" t="s">
         <v>2465</v>
@@ -24142,7 +24148,7 @@
         <v>2466</v>
       </c>
       <c r="D580" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E580" t="s">
         <v>2467</v>
@@ -24210,7 +24216,7 @@
         <v>2310</v>
       </c>
       <c r="D584" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E584" t="s">
         <v>2471</v>
@@ -24295,7 +24301,7 @@
         <v>2208</v>
       </c>
       <c r="D589" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E589" t="s">
         <v>2474</v>
@@ -24346,7 +24352,7 @@
         <v>2556</v>
       </c>
       <c r="D592" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E592" t="s">
         <v>2476</v>
@@ -24567,10 +24573,10 @@
         <v>2513</v>
       </c>
       <c r="D605" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="E605" t="s">
-        <v>4521</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24618,7 +24624,7 @@
         <v>2469</v>
       </c>
       <c r="D608" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E608" t="s">
         <v>2483</v>
@@ -24720,7 +24726,7 @@
         <v>3460</v>
       </c>
       <c r="D614" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E614" t="s">
         <v>2488</v>
@@ -24961,7 +24967,7 @@
         <v>2474</v>
       </c>
       <c r="E628" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25026,7 +25032,7 @@
         <v>2207</v>
       </c>
       <c r="D632" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E632" t="s">
         <v>2496</v>
@@ -25301,7 +25307,7 @@
         <v>2482</v>
       </c>
       <c r="E648" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25434,7 +25440,7 @@
         <v>2481</v>
       </c>
       <c r="D656" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E656" t="s">
         <v>2355</v>
@@ -25485,7 +25491,7 @@
         <v>2502</v>
       </c>
       <c r="D659" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E659" t="s">
         <v>2515</v>
@@ -25621,7 +25627,7 @@
         <v>2502</v>
       </c>
       <c r="D667" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E667" t="s">
         <v>2511</v>
@@ -25706,7 +25712,7 @@
         <v>3456</v>
       </c>
       <c r="D672" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E672" t="s">
         <v>2467</v>
@@ -25726,7 +25732,7 @@
         <v>2310</v>
       </c>
       <c r="E673" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -25757,7 +25763,7 @@
         <v>2662</v>
       </c>
       <c r="D675" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E675" t="s">
         <v>2519</v>
@@ -25927,7 +25933,7 @@
         <v>2171</v>
       </c>
       <c r="D685" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E685" t="s">
         <v>2494</v>
@@ -26114,7 +26120,7 @@
         <v>3466</v>
       </c>
       <c r="D696" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E696" t="s">
         <v>2529</v>
@@ -26522,7 +26528,7 @@
         <v>2474</v>
       </c>
       <c r="D720" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E720" t="s">
         <v>2474</v>
@@ -26539,7 +26545,7 @@
         <v>2474</v>
       </c>
       <c r="D721" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E721" t="s">
         <v>2534</v>
@@ -26556,7 +26562,7 @@
         <v>2474</v>
       </c>
       <c r="D722" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E722" t="s">
         <v>2544</v>
@@ -26658,7 +26664,7 @@
         <v>2500</v>
       </c>
       <c r="D728" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E728" t="s">
         <v>2548</v>
@@ -26675,7 +26681,7 @@
         <v>2544</v>
       </c>
       <c r="D729" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E729" t="s">
         <v>2543</v>
@@ -26709,7 +26715,7 @@
         <v>2543</v>
       </c>
       <c r="D731" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E731" t="s">
         <v>2550</v>
@@ -26743,7 +26749,7 @@
         <v>2573</v>
       </c>
       <c r="D733" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E733" t="s">
         <v>2552</v>
@@ -26879,7 +26885,7 @@
         <v>2529</v>
       </c>
       <c r="D741" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E741" t="s">
         <v>2555</v>
@@ -26947,7 +26953,7 @@
         <v>2662</v>
       </c>
       <c r="D745" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E745" t="s">
         <v>2557</v>
@@ -27100,7 +27106,7 @@
         <v>2513</v>
       </c>
       <c r="D754" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E754" t="s">
         <v>2556</v>
@@ -27236,7 +27242,7 @@
         <v>2499</v>
       </c>
       <c r="D762" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E762" t="s">
         <v>2568</v>
@@ -27253,7 +27259,7 @@
         <v>2207</v>
       </c>
       <c r="D763" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E763" t="s">
         <v>2569</v>
@@ -27270,7 +27276,7 @@
         <v>2177</v>
       </c>
       <c r="D764" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E764" t="s">
         <v>2570</v>
@@ -27321,7 +27327,7 @@
         <v>2170</v>
       </c>
       <c r="D767" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E767" t="s">
         <v>2564</v>
@@ -27355,7 +27361,7 @@
         <v>2515</v>
       </c>
       <c r="D769" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E769" t="s">
         <v>2210</v>
@@ -27457,7 +27463,7 @@
         <v>2476</v>
       </c>
       <c r="D775" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E775" t="s">
         <v>2571</v>
@@ -27474,7 +27480,7 @@
         <v>2178</v>
       </c>
       <c r="D776" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E776" t="s">
         <v>2483</v>
@@ -27610,10 +27616,10 @@
         <v>2207</v>
       </c>
       <c r="D784" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E784" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27627,7 +27633,7 @@
         <v>2491</v>
       </c>
       <c r="D785" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E785" t="s">
         <v>2544</v>
@@ -27678,10 +27684,10 @@
         <v>2491</v>
       </c>
       <c r="D788" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E788" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -27916,10 +27922,10 @@
         <v>2779</v>
       </c>
       <c r="D802" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E802" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28035,7 +28041,7 @@
         <v>2207</v>
       </c>
       <c r="D809" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E809" t="s">
         <v>2474</v>
@@ -28137,7 +28143,7 @@
         <v>3481</v>
       </c>
       <c r="D815" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E815" t="s">
         <v>2591</v>
@@ -28154,7 +28160,7 @@
         <v>2618</v>
       </c>
       <c r="D816" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E816" t="s">
         <v>2198</v>
@@ -28358,7 +28364,7 @@
         <v>3482</v>
       </c>
       <c r="D828" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E828" t="s">
         <v>2601</v>
@@ -28392,7 +28398,7 @@
         <v>2618</v>
       </c>
       <c r="D830" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E830" t="s">
         <v>2199</v>
@@ -28426,7 +28432,7 @@
         <v>3482</v>
       </c>
       <c r="D832" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E832" t="s">
         <v>2603</v>
@@ -28477,7 +28483,7 @@
         <v>3373</v>
       </c>
       <c r="D835" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E835" t="s">
         <v>2605</v>
@@ -28511,7 +28517,7 @@
         <v>2534</v>
       </c>
       <c r="D837" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E837" t="s">
         <v>2534</v>
@@ -28562,7 +28568,7 @@
         <v>3485</v>
       </c>
       <c r="D840" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E840" t="s">
         <v>2477</v>
@@ -28582,7 +28588,7 @@
         <v>2524</v>
       </c>
       <c r="E841" t="s">
-        <v>4524</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -28919,7 +28925,7 @@
         <v>2209</v>
       </c>
       <c r="D861" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E861" t="s">
         <v>2615</v>
@@ -29089,7 +29095,7 @@
         <v>2178</v>
       </c>
       <c r="D871" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E871" t="s">
         <v>2203</v>
@@ -29123,7 +29129,7 @@
         <v>3489</v>
       </c>
       <c r="D873" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E873" t="s">
         <v>2619</v>
@@ -29242,7 +29248,7 @@
         <v>3493</v>
       </c>
       <c r="D880" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E880" t="s">
         <v>2624</v>
@@ -29310,7 +29316,7 @@
         <v>2497</v>
       </c>
       <c r="D884" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E884" t="s">
         <v>2589</v>
@@ -29480,7 +29486,7 @@
         <v>2208</v>
       </c>
       <c r="D894" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E894" t="s">
         <v>2633</v>
@@ -29599,7 +29605,7 @@
         <v>3422</v>
       </c>
       <c r="D901" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E901" t="s">
         <v>2637</v>
@@ -29667,7 +29673,7 @@
         <v>2479</v>
       </c>
       <c r="D905" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E905" t="s">
         <v>2641</v>
@@ -29820,7 +29826,7 @@
         <v>2653</v>
       </c>
       <c r="D914" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E914" t="s">
         <v>2477</v>
@@ -30024,7 +30030,7 @@
         <v>2310</v>
       </c>
       <c r="D926" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E926" t="s">
         <v>2649</v>
@@ -30109,7 +30115,7 @@
         <v>2464</v>
       </c>
       <c r="D931" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E931" t="s">
         <v>2653</v>
@@ -30194,7 +30200,7 @@
         <v>3456</v>
       </c>
       <c r="D936" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E936" t="s">
         <v>2311</v>
@@ -30279,7 +30285,7 @@
         <v>2799</v>
       </c>
       <c r="D941" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E941" t="s">
         <v>2658</v>
@@ -30381,7 +30387,7 @@
         <v>2639</v>
       </c>
       <c r="D947" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E947" t="s">
         <v>2353</v>
@@ -30398,7 +30404,7 @@
         <v>3501</v>
       </c>
       <c r="D948" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E948" t="s">
         <v>2660</v>
@@ -30466,7 +30472,7 @@
         <v>2354</v>
       </c>
       <c r="D952" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E952" t="s">
         <v>2661</v>
@@ -30721,7 +30727,7 @@
         <v>2505</v>
       </c>
       <c r="D967" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E967" t="s">
         <v>2467</v>
@@ -30806,7 +30812,7 @@
         <v>2659</v>
       </c>
       <c r="D972" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E972" t="s">
         <v>2668</v>
@@ -30857,7 +30863,7 @@
         <v>2221</v>
       </c>
       <c r="D975" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E975" t="s">
         <v>2348</v>
@@ -30891,7 +30897,7 @@
         <v>2782</v>
       </c>
       <c r="D977" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E977" t="s">
         <v>2670</v>
@@ -31248,7 +31254,7 @@
         <v>2323</v>
       </c>
       <c r="D998" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E998" t="s">
         <v>2684</v>
@@ -31265,7 +31271,7 @@
         <v>3510</v>
       </c>
       <c r="D999" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E999" t="s">
         <v>2685</v>
@@ -31350,7 +31356,7 @@
         <v>2328</v>
       </c>
       <c r="D1004" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E1004" t="s">
         <v>2376</v>
@@ -31520,7 +31526,7 @@
         <v>2790</v>
       </c>
       <c r="D1014" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E1014" t="s">
         <v>2378</v>
@@ -31537,7 +31543,7 @@
         <v>2790</v>
       </c>
       <c r="D1015" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E1015" t="s">
         <v>2378</v>
@@ -31571,7 +31577,7 @@
         <v>2811</v>
       </c>
       <c r="D1017" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E1017" t="s">
         <v>2682</v>
@@ -31639,7 +31645,7 @@
         <v>2344</v>
       </c>
       <c r="D1021" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E1021" t="s">
         <v>2696</v>
@@ -31656,7 +31662,7 @@
         <v>2344</v>
       </c>
       <c r="D1022" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E1022" t="s">
         <v>2697</v>
@@ -31724,7 +31730,7 @@
         <v>2813</v>
       </c>
       <c r="D1026" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E1026" t="s">
         <v>2700</v>
@@ -31826,7 +31832,7 @@
         <v>2299</v>
       </c>
       <c r="D1032" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E1032" t="s">
         <v>2705</v>
@@ -31877,7 +31883,7 @@
         <v>3450</v>
       </c>
       <c r="D1035" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E1035" t="s">
         <v>2237</v>
@@ -31979,7 +31985,7 @@
         <v>2403</v>
       </c>
       <c r="D1041" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E1041" t="s">
         <v>2713</v>
@@ -32081,7 +32087,7 @@
         <v>2712</v>
       </c>
       <c r="D1047" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E1047" t="s">
         <v>2716</v>
@@ -32152,7 +32158,7 @@
         <v>2228</v>
       </c>
       <c r="E1051" t="s">
-        <v>4525</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32407,7 +32413,7 @@
         <v>2727</v>
       </c>
       <c r="E1066" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32489,7 +32495,7 @@
         <v>3512</v>
       </c>
       <c r="D1071" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E1071" t="s">
         <v>2302</v>
@@ -32710,7 +32716,7 @@
         <v>2344</v>
       </c>
       <c r="D1084" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E1084" t="s">
         <v>2738</v>
@@ -32744,7 +32750,7 @@
         <v>2363</v>
       </c>
       <c r="D1086" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E1086" t="s">
         <v>2221</v>
@@ -32778,7 +32784,7 @@
         <v>2811</v>
       </c>
       <c r="D1088" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E1088" t="s">
         <v>2740</v>
@@ -32795,7 +32801,7 @@
         <v>2789</v>
       </c>
       <c r="D1089" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E1089" t="s">
         <v>2741</v>
@@ -32863,7 +32869,7 @@
         <v>2703</v>
       </c>
       <c r="D1093" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E1093" t="s">
         <v>2743</v>
@@ -32948,10 +32954,10 @@
         <v>2754</v>
       </c>
       <c r="D1098" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E1098" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -32965,10 +32971,10 @@
         <v>2292</v>
       </c>
       <c r="D1099" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E1099" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -32999,7 +33005,7 @@
         <v>2812</v>
       </c>
       <c r="D1101" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E1101" t="s">
         <v>2756</v>
@@ -33016,7 +33022,7 @@
         <v>2754</v>
       </c>
       <c r="D1102" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E1102" t="s">
         <v>2751</v>
@@ -33169,7 +33175,7 @@
         <v>2756</v>
       </c>
       <c r="D1111" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E1111" t="s">
         <v>2757</v>
@@ -33203,7 +33209,7 @@
         <v>3514</v>
       </c>
       <c r="D1113" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E1113" t="s">
         <v>2758</v>
@@ -33220,7 +33226,7 @@
         <v>3515</v>
       </c>
       <c r="D1114" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E1114" t="s">
         <v>2686</v>
@@ -33237,7 +33243,7 @@
         <v>3516</v>
       </c>
       <c r="D1115" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E1115" t="s">
         <v>2758</v>
@@ -33254,7 +33260,7 @@
         <v>3517</v>
       </c>
       <c r="D1116" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E1116" t="s">
         <v>2759</v>
@@ -33373,7 +33379,7 @@
         <v>2323</v>
       </c>
       <c r="D1123" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E1123" t="s">
         <v>2762</v>
@@ -33407,7 +33413,7 @@
         <v>3520</v>
       </c>
       <c r="D1125" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E1125" t="s">
         <v>2763</v>
@@ -33441,7 +33447,7 @@
         <v>2676</v>
       </c>
       <c r="D1127" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E1127" t="s">
         <v>2479</v>
@@ -33577,7 +33583,7 @@
         <v>2748</v>
       </c>
       <c r="D1135" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E1135" t="s">
         <v>2769</v>
@@ -33611,7 +33617,7 @@
         <v>2829</v>
       </c>
       <c r="D1137" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E1137" t="s">
         <v>2670</v>
@@ -33662,7 +33668,7 @@
         <v>3525</v>
       </c>
       <c r="D1140" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E1140" t="s">
         <v>2772</v>
@@ -33679,7 +33685,7 @@
         <v>3451</v>
       </c>
       <c r="D1141" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E1141" t="s">
         <v>3507</v>
@@ -33696,7 +33702,7 @@
         <v>2772</v>
       </c>
       <c r="D1142" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E1142" t="s">
         <v>2773</v>
@@ -33764,7 +33770,7 @@
         <v>2319</v>
       </c>
       <c r="D1146" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E1146" t="s">
         <v>2775</v>
@@ -33815,7 +33821,7 @@
         <v>3451</v>
       </c>
       <c r="D1149" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E1149" t="s">
         <v>2775</v>
@@ -33866,7 +33872,7 @@
         <v>3510</v>
       </c>
       <c r="D1152" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E1152" t="s">
         <v>2778</v>
@@ -33934,7 +33940,7 @@
         <v>2754</v>
       </c>
       <c r="D1156" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E1156" t="s">
         <v>2746</v>
@@ -33951,7 +33957,7 @@
         <v>2746</v>
       </c>
       <c r="D1157" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E1157" t="s">
         <v>2220</v>
@@ -33968,7 +33974,7 @@
         <v>2220</v>
       </c>
       <c r="D1158" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E1158" t="s">
         <v>2757</v>
@@ -33985,7 +33991,7 @@
         <v>2757</v>
       </c>
       <c r="D1159" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E1159" t="s">
         <v>2779</v>
@@ -34002,7 +34008,7 @@
         <v>2782</v>
       </c>
       <c r="D1160" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E1160" t="s">
         <v>2217</v>
@@ -34019,7 +34025,7 @@
         <v>2217</v>
       </c>
       <c r="D1161" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E1161" t="s">
         <v>2779</v>
@@ -34036,7 +34042,7 @@
         <v>3514</v>
       </c>
       <c r="D1162" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E1162" t="s">
         <v>2323</v>
@@ -34070,7 +34076,7 @@
         <v>2217</v>
       </c>
       <c r="D1164" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1164" t="s">
         <v>2341</v>
@@ -34121,7 +34127,7 @@
         <v>2344</v>
       </c>
       <c r="D1167" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E1167" t="s">
         <v>2781</v>
@@ -34172,7 +34178,7 @@
         <v>3529</v>
       </c>
       <c r="D1170" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E1170" t="s">
         <v>2453</v>
@@ -34189,7 +34195,7 @@
         <v>2693</v>
       </c>
       <c r="D1171" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E1171" t="s">
         <v>2737</v>
@@ -34206,7 +34212,7 @@
         <v>2788</v>
       </c>
       <c r="D1172" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E1172" t="s">
         <v>2783</v>
@@ -34223,7 +34229,7 @@
         <v>3530</v>
       </c>
       <c r="D1173" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E1173" t="s">
         <v>2784</v>
@@ -34342,7 +34348,7 @@
         <v>2229</v>
       </c>
       <c r="D1180" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E1180" t="s">
         <v>2787</v>
@@ -34461,7 +34467,7 @@
         <v>2753</v>
       </c>
       <c r="D1187" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E1187" t="s">
         <v>2693</v>
@@ -34495,7 +34501,7 @@
         <v>3534</v>
       </c>
       <c r="D1189" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E1189" t="s">
         <v>2696</v>
@@ -34512,7 +34518,7 @@
         <v>2344</v>
       </c>
       <c r="D1190" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E1190" t="s">
         <v>2790</v>
@@ -34563,7 +34569,7 @@
         <v>2792</v>
       </c>
       <c r="D1193" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E1193" t="s">
         <v>2698</v>
@@ -34597,7 +34603,7 @@
         <v>2793</v>
       </c>
       <c r="D1195" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E1195" t="s">
         <v>2219</v>
@@ -34614,7 +34620,7 @@
         <v>2348</v>
       </c>
       <c r="D1196" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E1196" t="s">
         <v>2677</v>
@@ -34631,7 +34637,7 @@
         <v>2779</v>
       </c>
       <c r="D1197" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E1197" t="s">
         <v>2795</v>
@@ -34682,7 +34688,7 @@
         <v>2796</v>
       </c>
       <c r="D1200" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E1200" t="s">
         <v>2480</v>
@@ -34699,7 +34705,7 @@
         <v>2688</v>
       </c>
       <c r="D1201" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E1201" t="s">
         <v>2639</v>
@@ -34716,7 +34722,7 @@
         <v>2175</v>
       </c>
       <c r="D1202" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E1202" t="s">
         <v>2459</v>
@@ -34818,7 +34824,7 @@
         <v>2768</v>
       </c>
       <c r="D1208" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E1208" t="s">
         <v>2777</v>
@@ -34835,7 +34841,7 @@
         <v>2686</v>
       </c>
       <c r="D1209" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E1209" t="s">
         <v>2799</v>
@@ -34852,7 +34858,7 @@
         <v>2466</v>
       </c>
       <c r="D1210" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1210" t="s">
         <v>2800</v>
@@ -34903,7 +34909,7 @@
         <v>3385</v>
       </c>
       <c r="D1213" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E1213" t="s">
         <v>2801</v>
@@ -34920,7 +34926,7 @@
         <v>3385</v>
       </c>
       <c r="D1214" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1214" t="s">
         <v>3385</v>
@@ -34937,7 +34943,7 @@
         <v>2459</v>
       </c>
       <c r="D1215" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E1215" t="s">
         <v>2800</v>
@@ -34954,7 +34960,7 @@
         <v>2466</v>
       </c>
       <c r="D1216" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E1216" t="s">
         <v>2214</v>
@@ -35005,7 +35011,7 @@
         <v>2479</v>
       </c>
       <c r="D1219" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E1219" t="s">
         <v>2457</v>
@@ -35039,10 +35045,10 @@
         <v>2760</v>
       </c>
       <c r="D1221" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E1221" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35056,7 +35062,7 @@
         <v>3451</v>
       </c>
       <c r="D1222" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1222" t="s">
         <v>2319</v>
@@ -35226,7 +35232,7 @@
         <v>2806</v>
       </c>
       <c r="D1232" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E1232" t="s">
         <v>2712</v>
@@ -35243,7 +35249,7 @@
         <v>2394</v>
       </c>
       <c r="D1233" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E1233" t="s">
         <v>2394</v>
@@ -35294,7 +35300,7 @@
         <v>2441</v>
       </c>
       <c r="D1236" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E1236" t="s">
         <v>2710</v>
@@ -35328,7 +35334,7 @@
         <v>2807</v>
       </c>
       <c r="D1238" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E1238" t="s">
         <v>2403</v>
@@ -35345,7 +35351,7 @@
         <v>2403</v>
       </c>
       <c r="D1239" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E1239" t="s">
         <v>2228</v>
@@ -35379,7 +35385,7 @@
         <v>3539</v>
       </c>
       <c r="D1241" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1241" t="s">
         <v>2716</v>
@@ -35447,7 +35453,7 @@
         <v>2248</v>
       </c>
       <c r="D1245" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1245" t="s">
         <v>2406</v>
@@ -35532,7 +35538,7 @@
         <v>2710</v>
       </c>
       <c r="D1250" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1250" t="s">
         <v>2418</v>
@@ -35583,7 +35589,7 @@
         <v>2383</v>
       </c>
       <c r="D1253" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1253" t="s">
         <v>2785</v>
@@ -35617,7 +35623,7 @@
         <v>2811</v>
       </c>
       <c r="D1255" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E1255" t="s">
         <v>2812</v>
@@ -35634,7 +35640,7 @@
         <v>3386</v>
       </c>
       <c r="D1256" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1256" t="s">
         <v>2756</v>
@@ -35855,7 +35861,7 @@
         <v>3547</v>
       </c>
       <c r="D1269" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1269" t="s">
         <v>2817</v>
@@ -35872,7 +35878,7 @@
         <v>2817</v>
       </c>
       <c r="D1270" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1270" t="s">
         <v>2709</v>
@@ -35889,7 +35895,7 @@
         <v>3548</v>
       </c>
       <c r="D1271" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1271" t="s">
         <v>2448</v>
@@ -35974,7 +35980,7 @@
         <v>2229</v>
       </c>
       <c r="D1276" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1276" t="s">
         <v>2815</v>
@@ -35991,7 +35997,7 @@
         <v>2874</v>
       </c>
       <c r="D1277" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E1277" t="s">
         <v>2299</v>
@@ -36178,7 +36184,7 @@
         <v>2734</v>
       </c>
       <c r="D1288" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1288" t="s">
         <v>2819</v>
@@ -36399,7 +36405,7 @@
         <v>2821</v>
       </c>
       <c r="D1301" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1301" t="s">
         <v>2234</v>
@@ -36416,7 +36422,7 @@
         <v>3550</v>
       </c>
       <c r="D1302" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1302" t="s">
         <v>2236</v>
@@ -36518,7 +36524,7 @@
         <v>2877</v>
       </c>
       <c r="D1308" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1308" t="s">
         <v>2714</v>
@@ -36569,7 +36575,7 @@
         <v>3557</v>
       </c>
       <c r="D1311" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1311" t="s">
         <v>2822</v>
@@ -36586,7 +36592,7 @@
         <v>3557</v>
       </c>
       <c r="D1312" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1312" t="s">
         <v>2442</v>
@@ -36603,7 +36609,7 @@
         <v>2875</v>
       </c>
       <c r="D1313" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1313" t="s">
         <v>2402</v>
@@ -36637,7 +36643,7 @@
         <v>2296</v>
       </c>
       <c r="D1315" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1315" t="s">
         <v>2294</v>
@@ -36739,7 +36745,7 @@
         <v>3561</v>
       </c>
       <c r="D1321" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1321" t="s">
         <v>2825</v>
@@ -36756,7 +36762,7 @@
         <v>3562</v>
       </c>
       <c r="D1322" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1322" t="s">
         <v>2826</v>
@@ -36790,7 +36796,7 @@
         <v>3563</v>
       </c>
       <c r="D1324" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1324" t="s">
         <v>2333</v>
@@ -36807,7 +36813,7 @@
         <v>3564</v>
       </c>
       <c r="D1325" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1325" t="s">
         <v>2682</v>
@@ -36824,7 +36830,7 @@
         <v>3565</v>
       </c>
       <c r="D1326" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1326" t="s">
         <v>2339</v>
@@ -36841,7 +36847,7 @@
         <v>3566</v>
       </c>
       <c r="D1327" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1327" t="s">
         <v>2221</v>
@@ -36892,7 +36898,7 @@
         <v>3567</v>
       </c>
       <c r="D1330" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1330" t="s">
         <v>2349</v>
@@ -36926,7 +36932,7 @@
         <v>3568</v>
       </c>
       <c r="D1332" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1332" t="s">
         <v>2453</v>
@@ -36943,7 +36949,7 @@
         <v>3519</v>
       </c>
       <c r="D1333" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1333" t="s">
         <v>2755</v>
@@ -37045,7 +37051,7 @@
         <v>2746</v>
       </c>
       <c r="D1339" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1339" t="s">
         <v>2339</v>
@@ -37065,7 +37071,7 @@
         <v>2683</v>
       </c>
       <c r="E1340" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37079,7 +37085,7 @@
         <v>3571</v>
       </c>
       <c r="D1341" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1341" t="s">
         <v>2693</v>
@@ -37130,7 +37136,7 @@
         <v>2292</v>
       </c>
       <c r="D1344" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1344" t="s">
         <v>2324</v>
@@ -37147,7 +37153,7 @@
         <v>3572</v>
       </c>
       <c r="D1345" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1345" t="s">
         <v>2363</v>
@@ -37164,7 +37170,7 @@
         <v>3567</v>
       </c>
       <c r="D1346" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1346" t="s">
         <v>2748</v>
@@ -37198,7 +37204,7 @@
         <v>2756</v>
       </c>
       <c r="D1348" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1348" t="s">
         <v>2770</v>
@@ -37215,7 +37221,7 @@
         <v>2769</v>
       </c>
       <c r="D1349" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1349" t="s">
         <v>2828</v>
@@ -37232,7 +37238,7 @@
         <v>3566</v>
       </c>
       <c r="D1350" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1350" t="s">
         <v>2829</v>
@@ -37351,7 +37357,7 @@
         <v>2714</v>
       </c>
       <c r="D1357" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1357" t="s">
         <v>2830</v>
@@ -37385,7 +37391,7 @@
         <v>2242</v>
       </c>
       <c r="D1359" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1359" t="s">
         <v>2832</v>
@@ -37589,7 +37595,7 @@
         <v>3560</v>
       </c>
       <c r="D1371" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1371" t="s">
         <v>2437</v>
@@ -37657,7 +37663,7 @@
         <v>3577</v>
       </c>
       <c r="D1375" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1375" t="s">
         <v>2839</v>
@@ -37691,7 +37697,7 @@
         <v>3579</v>
       </c>
       <c r="D1377" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1377" t="s">
         <v>2841</v>
@@ -37708,10 +37714,10 @@
         <v>3580</v>
       </c>
       <c r="D1378" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1378" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37725,10 +37731,10 @@
         <v>2893</v>
       </c>
       <c r="D1379" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1379" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37742,7 +37748,7 @@
         <v>3581</v>
       </c>
       <c r="D1380" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1380" t="s">
         <v>3578</v>
@@ -37793,10 +37799,10 @@
         <v>3584</v>
       </c>
       <c r="D1383" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1383" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -37810,10 +37816,10 @@
         <v>3585</v>
       </c>
       <c r="D1384" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1384" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -37827,10 +37833,10 @@
         <v>3586</v>
       </c>
       <c r="D1385" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1385" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37844,7 +37850,7 @@
         <v>3587</v>
       </c>
       <c r="D1386" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1386" t="s">
         <v>2850</v>
@@ -37861,10 +37867,10 @@
         <v>3588</v>
       </c>
       <c r="D1387" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1387" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -37881,7 +37887,7 @@
         <v>2282</v>
       </c>
       <c r="E1388" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -37895,10 +37901,10 @@
         <v>3590</v>
       </c>
       <c r="D1389" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1389" t="s">
-        <v>4529</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -37912,10 +37918,10 @@
         <v>2998</v>
       </c>
       <c r="D1390" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1390" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -37929,7 +37935,7 @@
         <v>3588</v>
       </c>
       <c r="D1391" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1391" t="s">
         <v>2855</v>
@@ -37949,7 +37955,7 @@
         <v>2276</v>
       </c>
       <c r="E1392" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -37966,7 +37972,7 @@
         <v>3409</v>
       </c>
       <c r="E1393" t="s">
-        <v>4532</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -37980,10 +37986,10 @@
         <v>2928</v>
       </c>
       <c r="D1394" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1394" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38000,7 +38006,7 @@
         <v>2710</v>
       </c>
       <c r="E1395" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38014,7 +38020,7 @@
         <v>3593</v>
       </c>
       <c r="D1396" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1396" t="s">
         <v>2838</v>
@@ -38051,7 +38057,7 @@
         <v>2253</v>
       </c>
       <c r="E1398" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38065,10 +38071,10 @@
         <v>3595</v>
       </c>
       <c r="D1399" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1399" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38099,7 +38105,7 @@
         <v>3596</v>
       </c>
       <c r="D1401" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1401" t="s">
         <v>2864</v>
@@ -38133,7 +38139,7 @@
         <v>2865</v>
       </c>
       <c r="D1403" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1403" t="s">
         <v>3543</v>
@@ -38201,10 +38207,10 @@
         <v>3598</v>
       </c>
       <c r="D1407" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1407" t="s">
-        <v>4535</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38235,10 +38241,10 @@
         <v>3600</v>
       </c>
       <c r="D1409" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1409" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38303,7 +38309,7 @@
         <v>3603</v>
       </c>
       <c r="D1413" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1413" t="s">
         <v>2873</v>
@@ -38323,7 +38329,7 @@
         <v>2814</v>
       </c>
       <c r="E1414" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38340,7 +38346,7 @@
         <v>2811</v>
       </c>
       <c r="E1415" t="s">
-        <v>4537</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38354,7 +38360,7 @@
         <v>2392</v>
       </c>
       <c r="D1416" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1416" t="s">
         <v>2875</v>
@@ -38374,7 +38380,7 @@
         <v>2394</v>
       </c>
       <c r="E1417" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38388,10 +38394,10 @@
         <v>2440</v>
       </c>
       <c r="D1418" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1418" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38408,7 +38414,7 @@
         <v>2447</v>
       </c>
       <c r="E1419" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38459,7 +38465,7 @@
         <v>2879</v>
       </c>
       <c r="E1422" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38473,7 +38479,7 @@
         <v>3560</v>
       </c>
       <c r="D1423" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1423" t="s">
         <v>2308</v>
@@ -38493,7 +38499,7 @@
         <v>2437</v>
       </c>
       <c r="E1424" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38544,7 +38550,7 @@
         <v>3436</v>
       </c>
       <c r="E1427" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38575,7 +38581,7 @@
         <v>3607</v>
       </c>
       <c r="D1429" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1429" t="s">
         <v>2886</v>
@@ -38592,10 +38598,10 @@
         <v>3608</v>
       </c>
       <c r="D1430" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1430" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38626,7 +38632,7 @@
         <v>2888</v>
       </c>
       <c r="D1432" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1432" t="s">
         <v>2254</v>
@@ -38711,7 +38717,7 @@
         <v>3611</v>
       </c>
       <c r="D1437" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1437" t="s">
         <v>2892</v>
@@ -38728,7 +38734,7 @@
         <v>3612</v>
       </c>
       <c r="D1438" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1438" t="s">
         <v>2893</v>
@@ -38762,7 +38768,7 @@
         <v>3614</v>
       </c>
       <c r="D1440" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1440" t="s">
         <v>2895</v>
@@ -38796,7 +38802,7 @@
         <v>3615</v>
       </c>
       <c r="D1442" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1442" t="s">
         <v>2897</v>
@@ -38813,7 +38819,7 @@
         <v>2897</v>
       </c>
       <c r="D1443" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1443" t="s">
         <v>2898</v>
@@ -38830,7 +38836,7 @@
         <v>2409</v>
       </c>
       <c r="D1444" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1444" t="s">
         <v>2872</v>
@@ -38847,7 +38853,7 @@
         <v>3396</v>
       </c>
       <c r="D1445" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1445" t="s">
         <v>2899</v>
@@ -38881,10 +38887,10 @@
         <v>3617</v>
       </c>
       <c r="D1447" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1447" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -38898,10 +38904,10 @@
         <v>3618</v>
       </c>
       <c r="D1448" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1448" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -38915,7 +38921,7 @@
         <v>3619</v>
       </c>
       <c r="D1449" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1449" t="s">
         <v>2254</v>
@@ -38935,7 +38941,7 @@
         <v>2902</v>
       </c>
       <c r="E1450" t="s">
-        <v>4545</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -38983,10 +38989,10 @@
         <v>3623</v>
       </c>
       <c r="D1453" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1453" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39000,10 +39006,10 @@
         <v>3624</v>
       </c>
       <c r="D1454" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1454" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39017,7 +39023,7 @@
         <v>3625</v>
       </c>
       <c r="D1455" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1455" t="s">
         <v>3625</v>
@@ -39051,7 +39057,7 @@
         <v>3627</v>
       </c>
       <c r="D1457" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1457" t="s">
         <v>2908</v>
@@ -39068,7 +39074,7 @@
         <v>3628</v>
       </c>
       <c r="D1458" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1458" t="s">
         <v>2908</v>
@@ -39102,10 +39108,10 @@
         <v>2929</v>
       </c>
       <c r="D1460" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1460" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39119,10 +39125,10 @@
         <v>3630</v>
       </c>
       <c r="D1461" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1461" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39136,7 +39142,7 @@
         <v>2281</v>
       </c>
       <c r="D1462" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="E1462" t="s">
         <v>2911</v>
@@ -39153,7 +39159,7 @@
         <v>3631</v>
       </c>
       <c r="D1463" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1463" t="s">
         <v>2931</v>
@@ -39170,10 +39176,10 @@
         <v>3632</v>
       </c>
       <c r="D1464" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1464" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39187,10 +39193,10 @@
         <v>2910</v>
       </c>
       <c r="D1465" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1465" t="s">
-        <v>4549</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39221,10 +39227,10 @@
         <v>3634</v>
       </c>
       <c r="D1467" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1467" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39238,10 +39244,10 @@
         <v>3635</v>
       </c>
       <c r="D1468" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1468" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39258,7 +39264,7 @@
         <v>2917</v>
       </c>
       <c r="E1469" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39289,7 +39295,7 @@
         <v>3638</v>
       </c>
       <c r="D1471" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1471" t="s">
         <v>2908</v>
@@ -39306,10 +39312,10 @@
         <v>3409</v>
       </c>
       <c r="D1472" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1472" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39326,7 +39332,7 @@
         <v>2919</v>
       </c>
       <c r="E1473" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39340,10 +39346,10 @@
         <v>2908</v>
       </c>
       <c r="D1474" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1474" t="s">
-        <v>4554</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39357,10 +39363,10 @@
         <v>2274</v>
       </c>
       <c r="D1475" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1475" t="s">
-        <v>4555</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39374,7 +39380,7 @@
         <v>3639</v>
       </c>
       <c r="D1476" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1476" t="s">
         <v>2923</v>
@@ -39391,7 +39397,7 @@
         <v>3628</v>
       </c>
       <c r="D1477" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1477" t="s">
         <v>2924</v>
@@ -39442,7 +39448,7 @@
         <v>3640</v>
       </c>
       <c r="D1480" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1480" t="s">
         <v>2927</v>
@@ -39476,7 +39482,7 @@
         <v>3641</v>
       </c>
       <c r="D1482" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1482" t="s">
         <v>2929</v>
@@ -39493,7 +39499,7 @@
         <v>2929</v>
       </c>
       <c r="D1483" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1483" t="s">
         <v>2929</v>
@@ -39527,7 +39533,7 @@
         <v>2913</v>
       </c>
       <c r="D1485" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1485" t="s">
         <v>2280</v>
@@ -39544,7 +39550,7 @@
         <v>3643</v>
       </c>
       <c r="D1486" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1486" t="s">
         <v>2930</v>
@@ -39561,7 +39567,7 @@
         <v>3644</v>
       </c>
       <c r="D1487" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1487" t="s">
         <v>2912</v>
@@ -39578,10 +39584,10 @@
         <v>3634</v>
       </c>
       <c r="D1488" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1488" t="s">
-        <v>4556</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39595,10 +39601,10 @@
         <v>3645</v>
       </c>
       <c r="D1489" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1489" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39615,7 +39621,7 @@
         <v>3660</v>
       </c>
       <c r="E1490" t="s">
-        <v>4558</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39663,7 +39669,7 @@
         <v>3647</v>
       </c>
       <c r="D1493" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1493" t="s">
         <v>2957</v>
@@ -39697,7 +39703,7 @@
         <v>3649</v>
       </c>
       <c r="D1495" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1495" t="s">
         <v>2997</v>
@@ -39714,7 +39720,7 @@
         <v>3650</v>
       </c>
       <c r="D1496" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1496" t="s">
         <v>2939</v>
@@ -39734,7 +39740,7 @@
         <v>2938</v>
       </c>
       <c r="E1497" t="s">
-        <v>4559</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39748,10 +39754,10 @@
         <v>3651</v>
       </c>
       <c r="D1498" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1498" t="s">
-        <v>4560</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39782,10 +39788,10 @@
         <v>3653</v>
       </c>
       <c r="D1500" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1500" t="s">
-        <v>4561</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39799,7 +39805,7 @@
         <v>3014</v>
       </c>
       <c r="D1501" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1501" t="s">
         <v>2944</v>
@@ -39819,7 +39825,7 @@
         <v>3652</v>
       </c>
       <c r="E1502" t="s">
-        <v>4562</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39836,7 +39842,7 @@
         <v>2956</v>
       </c>
       <c r="E1503" t="s">
-        <v>4563</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39850,7 +39856,7 @@
         <v>3656</v>
       </c>
       <c r="D1504" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1504" t="s">
         <v>2997</v>
@@ -39867,7 +39873,7 @@
         <v>3657</v>
       </c>
       <c r="D1505" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1505" t="s">
         <v>2947</v>
@@ -39904,7 +39910,7 @@
         <v>2948</v>
       </c>
       <c r="E1507" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39921,7 +39927,7 @@
         <v>2857</v>
       </c>
       <c r="E1508" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -39935,10 +39941,10 @@
         <v>3660</v>
       </c>
       <c r="D1509" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1509" t="s">
-        <v>4565</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -39952,10 +39958,10 @@
         <v>2951</v>
       </c>
       <c r="D1510" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1510" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -39969,7 +39975,7 @@
         <v>3661</v>
       </c>
       <c r="D1511" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1511" t="s">
         <v>2952</v>
@@ -39989,7 +39995,7 @@
         <v>2952</v>
       </c>
       <c r="E1512" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40003,10 +40009,10 @@
         <v>2935</v>
       </c>
       <c r="D1513" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1513" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40020,10 +40026,10 @@
         <v>3662</v>
       </c>
       <c r="D1514" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1514" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40037,7 +40043,7 @@
         <v>3663</v>
       </c>
       <c r="D1515" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1515" t="s">
         <v>2933</v>
@@ -40071,10 +40077,10 @@
         <v>2956</v>
       </c>
       <c r="D1517" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1517" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40088,10 +40094,10 @@
         <v>2957</v>
       </c>
       <c r="D1518" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1518" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40105,7 +40111,7 @@
         <v>3665</v>
       </c>
       <c r="D1519" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1519" t="s">
         <v>2952</v>
@@ -40122,10 +40128,10 @@
         <v>3633</v>
       </c>
       <c r="D1520" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1520" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40139,10 +40145,10 @@
         <v>3666</v>
       </c>
       <c r="D1521" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1521" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40156,10 +40162,10 @@
         <v>2935</v>
       </c>
       <c r="D1522" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1522" t="s">
-        <v>4573</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40173,7 +40179,7 @@
         <v>3667</v>
       </c>
       <c r="D1523" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1523" t="s">
         <v>2963</v>
@@ -40227,7 +40233,7 @@
         <v>2963</v>
       </c>
       <c r="E1526" t="s">
-        <v>4574</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40258,10 +40264,10 @@
         <v>3672</v>
       </c>
       <c r="D1528" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1528" t="s">
-        <v>4575</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40292,7 +40298,7 @@
         <v>3674</v>
       </c>
       <c r="D1530" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1530" t="s">
         <v>3004</v>
@@ -40309,7 +40315,7 @@
         <v>3675</v>
       </c>
       <c r="D1531" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1531" t="s">
         <v>2969</v>
@@ -40343,10 +40349,10 @@
         <v>2969</v>
       </c>
       <c r="D1533" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1533" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40360,10 +40366,10 @@
         <v>3677</v>
       </c>
       <c r="D1534" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1534" t="s">
-        <v>4576</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40377,10 +40383,10 @@
         <v>3678</v>
       </c>
       <c r="D1535" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1535" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40428,7 +40434,7 @@
         <v>3680</v>
       </c>
       <c r="D1538" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1538" t="s">
         <v>2974</v>
@@ -40445,7 +40451,7 @@
         <v>3681</v>
       </c>
       <c r="D1539" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1539" t="s">
         <v>2975</v>
@@ -40462,10 +40468,10 @@
         <v>3682</v>
       </c>
       <c r="D1540" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1540" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40479,7 +40485,7 @@
         <v>3683</v>
       </c>
       <c r="D1541" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1541" t="s">
         <v>2977</v>
@@ -40496,7 +40502,7 @@
         <v>3684</v>
       </c>
       <c r="D1542" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1542" t="s">
         <v>2978</v>
@@ -40530,7 +40536,7 @@
         <v>3686</v>
       </c>
       <c r="D1544" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1544" t="s">
         <v>2980</v>
@@ -40547,10 +40553,10 @@
         <v>3687</v>
       </c>
       <c r="D1545" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1545" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40581,7 +40587,7 @@
         <v>3689</v>
       </c>
       <c r="D1547" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1547" t="s">
         <v>3696</v>
@@ -40598,10 +40604,10 @@
         <v>3690</v>
       </c>
       <c r="D1548" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1548" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40618,7 +40624,7 @@
         <v>3010</v>
       </c>
       <c r="E1549" t="s">
-        <v>4578</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40632,10 +40638,10 @@
         <v>3692</v>
       </c>
       <c r="D1550" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1550" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40649,7 +40655,7 @@
         <v>3693</v>
       </c>
       <c r="D1551" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1551" t="s">
         <v>2986</v>
@@ -40666,10 +40672,10 @@
         <v>3693</v>
       </c>
       <c r="D1552" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1552" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40683,10 +40689,10 @@
         <v>2987</v>
       </c>
       <c r="D1553" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1553" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40700,7 +40706,7 @@
         <v>3694</v>
       </c>
       <c r="D1554" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1554" t="s">
         <v>3018</v>
@@ -40720,7 +40726,7 @@
         <v>3649</v>
       </c>
       <c r="E1555" t="s">
-        <v>4582</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40734,7 +40740,7 @@
         <v>3696</v>
       </c>
       <c r="D1556" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1556" t="s">
         <v>2991</v>
@@ -40751,7 +40757,7 @@
         <v>2991</v>
       </c>
       <c r="D1557" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1557" t="s">
         <v>2976</v>
@@ -40771,7 +40777,7 @@
         <v>2997</v>
       </c>
       <c r="E1558" t="s">
-        <v>4583</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40785,7 +40791,7 @@
         <v>3698</v>
       </c>
       <c r="D1559" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1559" t="s">
         <v>2993</v>
@@ -40802,10 +40808,10 @@
         <v>3699</v>
       </c>
       <c r="D1560" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1560" t="s">
-        <v>4584</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40819,10 +40825,10 @@
         <v>3028</v>
       </c>
       <c r="D1561" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1561" t="s">
-        <v>4585</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40836,10 +40842,10 @@
         <v>3700</v>
       </c>
       <c r="D1562" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1562" t="s">
-        <v>4586</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40853,7 +40859,7 @@
         <v>2996</v>
       </c>
       <c r="D1563" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1563" t="s">
         <v>2981</v>
@@ -40870,7 +40876,7 @@
         <v>3701</v>
       </c>
       <c r="D1564" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1564" t="s">
         <v>2938</v>
@@ -40887,10 +40893,10 @@
         <v>2940</v>
       </c>
       <c r="D1565" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1565" t="s">
-        <v>4587</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -40904,7 +40910,7 @@
         <v>3671</v>
       </c>
       <c r="D1566" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1566" t="s">
         <v>2999</v>
@@ -40921,7 +40927,7 @@
         <v>3702</v>
       </c>
       <c r="D1567" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1567" t="s">
         <v>3000</v>
@@ -40938,7 +40944,7 @@
         <v>3703</v>
       </c>
       <c r="D1568" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1568" t="s">
         <v>3001</v>
@@ -40955,7 +40961,7 @@
         <v>3704</v>
       </c>
       <c r="D1569" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1569" t="s">
         <v>3000</v>
@@ -41006,7 +41012,7 @@
         <v>3707</v>
       </c>
       <c r="D1572" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1572" t="s">
         <v>2968</v>
@@ -41023,7 +41029,7 @@
         <v>3005</v>
       </c>
       <c r="D1573" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1573" t="s">
         <v>3006</v>
@@ -41057,10 +41063,10 @@
         <v>3690</v>
       </c>
       <c r="D1575" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1575" t="s">
-        <v>4588</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41074,7 +41080,7 @@
         <v>3708</v>
       </c>
       <c r="D1576" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1576" t="s">
         <v>3007</v>
@@ -41125,7 +41131,7 @@
         <v>3711</v>
       </c>
       <c r="D1579" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1579" t="s">
         <v>3010</v>
@@ -41142,10 +41148,10 @@
         <v>3712</v>
       </c>
       <c r="D1580" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1580" t="s">
-        <v>4589</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41159,7 +41165,7 @@
         <v>3713</v>
       </c>
       <c r="D1581" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1581" t="s">
         <v>3012</v>
@@ -41176,7 +41182,7 @@
         <v>3012</v>
       </c>
       <c r="D1582" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1582" t="s">
         <v>2975</v>
@@ -41193,10 +41199,10 @@
         <v>3655</v>
       </c>
       <c r="D1583" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1583" t="s">
-        <v>4562</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41213,7 +41219,7 @@
         <v>3653</v>
       </c>
       <c r="E1584" t="s">
-        <v>4590</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41278,10 +41284,10 @@
         <v>3718</v>
       </c>
       <c r="D1588" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1588" t="s">
-        <v>4591</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41295,7 +41301,7 @@
         <v>3719</v>
       </c>
       <c r="D1589" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1589" t="s">
         <v>3706</v>
@@ -41519,7 +41525,7 @@
         <v>3018</v>
       </c>
       <c r="E1602" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41706,7 +41712,7 @@
         <v>3018</v>
       </c>
       <c r="E1613" t="s">
-        <v>4593</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41876,7 +41882,7 @@
         <v>3018</v>
       </c>
       <c r="E1623" t="s">
-        <v>4594</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -41890,10 +41896,10 @@
         <v>3739</v>
       </c>
       <c r="D1624" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1624" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -41907,10 +41913,10 @@
         <v>3740</v>
       </c>
       <c r="D1625" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1625" t="s">
-        <v>4596</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -41924,10 +41930,10 @@
         <v>3741</v>
       </c>
       <c r="D1626" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1626" t="s">
-        <v>4597</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -41941,7 +41947,7 @@
         <v>3742</v>
       </c>
       <c r="D1627" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1627" t="s">
         <v>3031</v>
@@ -41958,10 +41964,10 @@
         <v>3743</v>
       </c>
       <c r="D1628" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1628" t="s">
-        <v>4598</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -41975,10 +41981,10 @@
         <v>3744</v>
       </c>
       <c r="D1629" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1629" t="s">
-        <v>4599</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -41992,7 +41998,7 @@
         <v>3745</v>
       </c>
       <c r="D1630" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1630" t="s">
         <v>3027</v>
@@ -42009,7 +42015,7 @@
         <v>3746</v>
       </c>
       <c r="D1631" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1631" t="s">
         <v>3027</v>
@@ -42026,7 +42032,7 @@
         <v>3747</v>
       </c>
       <c r="D1632" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1632" t="s">
         <v>3026</v>
@@ -42043,7 +42049,7 @@
         <v>3748</v>
       </c>
       <c r="D1633" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1633" t="s">
         <v>3026</v>
@@ -42060,7 +42066,7 @@
         <v>3748</v>
       </c>
       <c r="D1634" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1634" t="s">
         <v>3025</v>
@@ -42077,7 +42083,7 @@
         <v>3749</v>
       </c>
       <c r="D1635" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1635" t="s">
         <v>3033</v>
@@ -42094,7 +42100,7 @@
         <v>3732</v>
       </c>
       <c r="D1636" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1636" t="s">
         <v>3033</v>
@@ -42216,7 +42222,7 @@
         <v>3033</v>
       </c>
       <c r="E1643" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42301,7 +42307,7 @@
         <v>3033</v>
       </c>
       <c r="E1648" t="s">
-        <v>4601</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42621,7 +42627,7 @@
         <v>3772</v>
       </c>
       <c r="D1667" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1667" t="s">
         <v>3033</v>
@@ -42638,7 +42644,7 @@
         <v>3033</v>
       </c>
       <c r="D1668" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1668" t="s">
         <v>3033</v>
@@ -42655,7 +42661,7 @@
         <v>3033</v>
       </c>
       <c r="D1669" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1669" t="s">
         <v>3033</v>
@@ -42675,7 +42681,7 @@
         <v>3726</v>
       </c>
       <c r="E1670" t="s">
-        <v>4602</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42706,10 +42712,10 @@
         <v>3774</v>
       </c>
       <c r="D1672" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1672" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42723,10 +42729,10 @@
         <v>3775</v>
       </c>
       <c r="D1673" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1673" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42740,10 +42746,10 @@
         <v>3285</v>
       </c>
       <c r="D1674" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1674" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42757,7 +42763,7 @@
         <v>3776</v>
       </c>
       <c r="D1675" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1675" t="s">
         <v>3936</v>
@@ -42774,10 +42780,10 @@
         <v>3777</v>
       </c>
       <c r="D1676" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1676" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42791,10 +42797,10 @@
         <v>3778</v>
       </c>
       <c r="D1677" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1677" t="s">
-        <v>4607</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42808,10 +42814,10 @@
         <v>3779</v>
       </c>
       <c r="D1678" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1678" t="s">
-        <v>4608</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42825,10 +42831,10 @@
         <v>3780</v>
       </c>
       <c r="D1679" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1679" t="s">
-        <v>4609</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42842,10 +42848,10 @@
         <v>3781</v>
       </c>
       <c r="D1680" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1680" t="s">
-        <v>4610</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -42859,7 +42865,7 @@
         <v>3782</v>
       </c>
       <c r="D1681" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1681" t="s">
         <v>3048</v>
@@ -42961,7 +42967,7 @@
         <v>3049</v>
       </c>
       <c r="D1687" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1687" t="s">
         <v>3049</v>
@@ -42978,10 +42984,10 @@
         <v>3049</v>
       </c>
       <c r="D1688" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1688" t="s">
-        <v>4611</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -42995,7 +43001,7 @@
         <v>3049</v>
       </c>
       <c r="D1689" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1689" t="s">
         <v>3049</v>
@@ -43012,7 +43018,7 @@
         <v>3049</v>
       </c>
       <c r="D1690" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1690" t="s">
         <v>3049</v>
@@ -43063,7 +43069,7 @@
         <v>3049</v>
       </c>
       <c r="D1693" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1693" t="s">
         <v>3049</v>
@@ -43080,10 +43086,10 @@
         <v>3049</v>
       </c>
       <c r="D1694" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1694" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43097,7 +43103,7 @@
         <v>3049</v>
       </c>
       <c r="D1695" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1695" t="s">
         <v>3049</v>
@@ -43114,7 +43120,7 @@
         <v>3049</v>
       </c>
       <c r="D1696" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1696" t="s">
         <v>3049</v>
@@ -43287,7 +43293,7 @@
         <v>3049</v>
       </c>
       <c r="E1706" t="s">
-        <v>4612</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43338,7 +43344,7 @@
         <v>3049</v>
       </c>
       <c r="E1709" t="s">
-        <v>4613</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43420,10 +43426,10 @@
         <v>3800</v>
       </c>
       <c r="D1714" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1714" t="s">
-        <v>4614</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43437,10 +43443,10 @@
         <v>3801</v>
       </c>
       <c r="D1715" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1715" t="s">
-        <v>4615</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43454,10 +43460,10 @@
         <v>3802</v>
       </c>
       <c r="D1716" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1716" t="s">
-        <v>4616</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43474,7 +43480,7 @@
         <v>3068</v>
       </c>
       <c r="E1717" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43488,7 +43494,7 @@
         <v>3804</v>
       </c>
       <c r="D1718" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1718" t="s">
         <v>3059</v>
@@ -43505,7 +43511,7 @@
         <v>3805</v>
       </c>
       <c r="D1719" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1719" t="s">
         <v>3058</v>
@@ -43522,10 +43528,10 @@
         <v>3806</v>
       </c>
       <c r="D1720" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1720" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43539,7 +43545,7 @@
         <v>3807</v>
       </c>
       <c r="D1721" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1721" t="s">
         <v>3061</v>
@@ -43556,10 +43562,10 @@
         <v>3808</v>
       </c>
       <c r="D1722" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1722" t="s">
-        <v>4618</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43573,7 +43579,7 @@
         <v>3809</v>
       </c>
       <c r="D1723" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1723" t="s">
         <v>3063</v>
@@ -43590,10 +43596,10 @@
         <v>3810</v>
       </c>
       <c r="D1724" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1724" t="s">
-        <v>4619</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43607,7 +43613,7 @@
         <v>3811</v>
       </c>
       <c r="D1725" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1725" t="s">
         <v>3065</v>
@@ -43641,7 +43647,7 @@
         <v>3813</v>
       </c>
       <c r="D1727" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1727" t="s">
         <v>3067</v>
@@ -43743,7 +43749,7 @@
         <v>3817</v>
       </c>
       <c r="D1733" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1733" t="s">
         <v>3068</v>
@@ -43811,7 +43817,7 @@
         <v>3820</v>
       </c>
       <c r="D1737" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1737" t="s">
         <v>3069</v>
@@ -43828,7 +43834,7 @@
         <v>3821</v>
       </c>
       <c r="D1738" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1738" t="s">
         <v>3070</v>
@@ -43862,7 +43868,7 @@
         <v>3073</v>
       </c>
       <c r="D1740" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1740" t="s">
         <v>3812</v>
@@ -43882,7 +43888,7 @@
         <v>3072</v>
       </c>
       <c r="E1741" t="s">
-        <v>4620</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -43947,10 +43953,10 @@
         <v>3075</v>
       </c>
       <c r="D1745" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1745" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -43964,10 +43970,10 @@
         <v>3824</v>
       </c>
       <c r="D1746" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1746" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44117,7 +44123,7 @@
         <v>3827</v>
       </c>
       <c r="D1755" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1755" t="s">
         <v>3086</v>
@@ -44168,7 +44174,7 @@
         <v>3830</v>
       </c>
       <c r="D1758" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1758" t="s">
         <v>3089</v>
@@ -44219,7 +44225,7 @@
         <v>3832</v>
       </c>
       <c r="D1761" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1761" t="s">
         <v>3092</v>
@@ -44253,7 +44259,7 @@
         <v>3834</v>
       </c>
       <c r="D1763" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1763" t="s">
         <v>3094</v>
@@ -44270,7 +44276,7 @@
         <v>3835</v>
       </c>
       <c r="D1764" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1764" t="s">
         <v>3095</v>
@@ -44338,7 +44344,7 @@
         <v>3839</v>
       </c>
       <c r="D1768" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1768" t="s">
         <v>3099</v>
@@ -44355,7 +44361,7 @@
         <v>3840</v>
       </c>
       <c r="D1769" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1769" t="s">
         <v>3100</v>
@@ -44375,7 +44381,7 @@
         <v>3100</v>
       </c>
       <c r="E1770" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44389,7 +44395,7 @@
         <v>3842</v>
       </c>
       <c r="D1771" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1771" t="s">
         <v>3102</v>
@@ -44406,7 +44412,7 @@
         <v>3843</v>
       </c>
       <c r="D1772" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1772" t="s">
         <v>3103</v>
@@ -44423,7 +44429,7 @@
         <v>3844</v>
       </c>
       <c r="D1773" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1773" t="s">
         <v>3104</v>
@@ -44440,7 +44446,7 @@
         <v>3845</v>
       </c>
       <c r="D1774" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1774" t="s">
         <v>3105</v>
@@ -44508,7 +44514,7 @@
         <v>3849</v>
       </c>
       <c r="D1778" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1778" t="s">
         <v>3109</v>
@@ -44525,10 +44531,10 @@
         <v>3850</v>
       </c>
       <c r="D1779" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1779" t="s">
-        <v>4622</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44542,7 +44548,7 @@
         <v>3851</v>
       </c>
       <c r="D1780" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1780" t="s">
         <v>3103</v>
@@ -44559,7 +44565,7 @@
         <v>3852</v>
       </c>
       <c r="D1781" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1781" t="s">
         <v>3110</v>
@@ -44593,7 +44599,7 @@
         <v>3854</v>
       </c>
       <c r="D1783" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1783" t="s">
         <v>3112</v>
@@ -44729,7 +44735,7 @@
         <v>3113</v>
       </c>
       <c r="D1791" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1791" t="s">
         <v>3113</v>
@@ -44797,10 +44803,10 @@
         <v>3113</v>
       </c>
       <c r="D1795" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1795" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -44814,10 +44820,10 @@
         <v>3113</v>
       </c>
       <c r="D1796" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1796" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -44831,10 +44837,10 @@
         <v>3113</v>
       </c>
       <c r="D1797" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1797" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -44848,10 +44854,10 @@
         <v>3113</v>
       </c>
       <c r="D1798" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1798" t="s">
-        <v>4623</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -44865,7 +44871,7 @@
         <v>3858</v>
       </c>
       <c r="D1799" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1799" t="s">
         <v>3115</v>
@@ -44882,10 +44888,10 @@
         <v>3859</v>
       </c>
       <c r="D1800" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1800" t="s">
-        <v>4624</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -44899,7 +44905,7 @@
         <v>3113</v>
       </c>
       <c r="D1801" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1801" t="s">
         <v>3171</v>
@@ -44916,7 +44922,7 @@
         <v>3860</v>
       </c>
       <c r="D1802" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1802" t="s">
         <v>3118</v>
@@ -44933,7 +44939,7 @@
         <v>3161</v>
       </c>
       <c r="D1803" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1803" t="s">
         <v>3119</v>
@@ -44967,7 +44973,7 @@
         <v>3862</v>
       </c>
       <c r="D1805" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1805" t="s">
         <v>3121</v>
@@ -45001,7 +45007,7 @@
         <v>3864</v>
       </c>
       <c r="D1807" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1807" t="s">
         <v>3123</v>
@@ -45035,7 +45041,7 @@
         <v>3866</v>
       </c>
       <c r="D1809" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1809" t="s">
         <v>3125</v>
@@ -45052,7 +45058,7 @@
         <v>3866</v>
       </c>
       <c r="D1810" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1810" t="s">
         <v>3126</v>
@@ -45069,7 +45075,7 @@
         <v>3867</v>
       </c>
       <c r="D1811" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1811" t="s">
         <v>3127</v>
@@ -45086,7 +45092,7 @@
         <v>3868</v>
       </c>
       <c r="D1812" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1812" t="s">
         <v>3128</v>
@@ -45103,7 +45109,7 @@
         <v>3869</v>
       </c>
       <c r="D1813" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1813" t="s">
         <v>3129</v>
@@ -45120,7 +45126,7 @@
         <v>3870</v>
       </c>
       <c r="D1814" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1814" t="s">
         <v>3130</v>
@@ -45137,7 +45143,7 @@
         <v>3870</v>
       </c>
       <c r="D1815" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1815" t="s">
         <v>3131</v>
@@ -45154,7 +45160,7 @@
         <v>3871</v>
       </c>
       <c r="D1816" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1816" t="s">
         <v>3132</v>
@@ -45171,7 +45177,7 @@
         <v>3872</v>
       </c>
       <c r="D1817" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1817" t="s">
         <v>3133</v>
@@ -45205,7 +45211,7 @@
         <v>3131</v>
       </c>
       <c r="D1819" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1819" t="s">
         <v>3135</v>
@@ -45222,7 +45228,7 @@
         <v>3874</v>
       </c>
       <c r="D1820" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1820" t="s">
         <v>3136</v>
@@ -45273,7 +45279,7 @@
         <v>3877</v>
       </c>
       <c r="D1823" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1823" t="s">
         <v>3139</v>
@@ -45293,7 +45299,7 @@
         <v>3139</v>
       </c>
       <c r="E1824" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45310,7 +45316,7 @@
         <v>3129</v>
       </c>
       <c r="E1825" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45324,10 +45330,10 @@
         <v>3880</v>
       </c>
       <c r="D1826" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1826" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45341,7 +45347,7 @@
         <v>3881</v>
       </c>
       <c r="D1827" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1827" t="s">
         <v>3143</v>
@@ -45358,7 +45364,7 @@
         <v>3882</v>
       </c>
       <c r="D1828" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1828" t="s">
         <v>3144</v>
@@ -45375,7 +45381,7 @@
         <v>3824</v>
       </c>
       <c r="D1829" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1829" t="s">
         <v>3145</v>
@@ -45409,7 +45415,7 @@
         <v>3884</v>
       </c>
       <c r="D1831" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1831" t="s">
         <v>3147</v>
@@ -45443,7 +45449,7 @@
         <v>3886</v>
       </c>
       <c r="D1833" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1833" t="s">
         <v>3884</v>
@@ -45477,7 +45483,7 @@
         <v>3888</v>
       </c>
       <c r="D1835" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1835" t="s">
         <v>3889</v>
@@ -45494,7 +45500,7 @@
         <v>3889</v>
       </c>
       <c r="D1836" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1836" t="s">
         <v>3152</v>
@@ -45511,7 +45517,7 @@
         <v>3890</v>
       </c>
       <c r="D1837" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1837" t="s">
         <v>3153</v>
@@ -45528,10 +45534,10 @@
         <v>3891</v>
       </c>
       <c r="D1838" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1838" t="s">
-        <v>4627</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45545,7 +45551,7 @@
         <v>3892</v>
       </c>
       <c r="D1839" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1839" t="s">
         <v>3155</v>
@@ -45562,7 +45568,7 @@
         <v>3893</v>
       </c>
       <c r="D1840" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1840" t="s">
         <v>3156</v>
@@ -45579,7 +45585,7 @@
         <v>3894</v>
       </c>
       <c r="D1841" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1841" t="s">
         <v>3157</v>
@@ -45613,7 +45619,7 @@
         <v>3892</v>
       </c>
       <c r="D1843" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1843" t="s">
         <v>3159</v>
@@ -45630,10 +45636,10 @@
         <v>3895</v>
       </c>
       <c r="D1844" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1844" t="s">
-        <v>4628</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45664,7 +45670,7 @@
         <v>3124</v>
       </c>
       <c r="D1846" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1846" t="s">
         <v>3124</v>
@@ -45681,7 +45687,7 @@
         <v>3162</v>
       </c>
       <c r="D1847" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1847" t="s">
         <v>3163</v>
@@ -45701,7 +45707,7 @@
         <v>3164</v>
       </c>
       <c r="E1848" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45715,7 +45721,7 @@
         <v>3898</v>
       </c>
       <c r="D1849" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1849" t="s">
         <v>3165</v>
@@ -45735,7 +45741,7 @@
         <v>3165</v>
       </c>
       <c r="E1850" t="s">
-        <v>4629</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45749,7 +45755,7 @@
         <v>3900</v>
       </c>
       <c r="D1851" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1851" t="s">
         <v>3167</v>
@@ -45783,7 +45789,7 @@
         <v>3121</v>
       </c>
       <c r="D1853" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1853" t="s">
         <v>3169</v>
@@ -45800,10 +45806,10 @@
         <v>3902</v>
       </c>
       <c r="D1854" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1854" t="s">
-        <v>4630</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -45817,7 +45823,7 @@
         <v>3903</v>
       </c>
       <c r="D1855" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1855" t="s">
         <v>3171</v>
@@ -45851,7 +45857,7 @@
         <v>3904</v>
       </c>
       <c r="D1857" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1857" t="s">
         <v>3173</v>
@@ -45885,7 +45891,7 @@
         <v>3906</v>
       </c>
       <c r="D1859" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1859" t="s">
         <v>3175</v>
@@ -45902,7 +45908,7 @@
         <v>3907</v>
       </c>
       <c r="D1860" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1860" t="s">
         <v>3176</v>
@@ -45919,10 +45925,10 @@
         <v>3176</v>
       </c>
       <c r="D1861" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1861" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -45956,7 +45962,7 @@
         <v>3957</v>
       </c>
       <c r="E1863" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -45970,7 +45976,7 @@
         <v>3908</v>
       </c>
       <c r="D1864" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1864" t="s">
         <v>3179</v>
@@ -45987,7 +45993,7 @@
         <v>3909</v>
       </c>
       <c r="D1865" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1865" t="s">
         <v>3180</v>
@@ -46024,7 +46030,7 @@
         <v>3930</v>
       </c>
       <c r="E1867" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46038,10 +46044,10 @@
         <v>3182</v>
       </c>
       <c r="D1868" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1868" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46092,7 +46098,7 @@
         <v>3185</v>
       </c>
       <c r="E1871" t="s">
-        <v>4633</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46106,7 +46112,7 @@
         <v>3915</v>
       </c>
       <c r="D1872" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1872" t="s">
         <v>3187</v>
@@ -46126,7 +46132,7 @@
         <v>3187</v>
       </c>
       <c r="E1873" t="s">
-        <v>4634</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46140,7 +46146,7 @@
         <v>3917</v>
       </c>
       <c r="D1874" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1874" t="s">
         <v>3189</v>
@@ -46174,10 +46180,10 @@
         <v>3919</v>
       </c>
       <c r="D1876" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1876" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46191,10 +46197,10 @@
         <v>3920</v>
       </c>
       <c r="D1877" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1877" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46259,7 +46265,7 @@
         <v>3770</v>
       </c>
       <c r="D1881" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1881" t="s">
         <v>3770</v>
@@ -46344,7 +46350,7 @@
         <v>3926</v>
       </c>
       <c r="D1886" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1886" t="s">
         <v>3759</v>
@@ -46378,10 +46384,10 @@
         <v>3928</v>
       </c>
       <c r="D1888" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1888" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46395,7 +46401,7 @@
         <v>3929</v>
       </c>
       <c r="D1889" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1889" t="s">
         <v>3203</v>
@@ -46446,7 +46452,7 @@
         <v>3205</v>
       </c>
       <c r="D1892" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1892" t="s">
         <v>3206</v>
@@ -46463,7 +46469,7 @@
         <v>3932</v>
       </c>
       <c r="D1893" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1893" t="s">
         <v>3207</v>
@@ -46480,7 +46486,7 @@
         <v>3933</v>
       </c>
       <c r="D1894" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1894" t="s">
         <v>3208</v>
@@ -46497,7 +46503,7 @@
         <v>3934</v>
       </c>
       <c r="D1895" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1895" t="s">
         <v>3209</v>
@@ -46565,7 +46571,7 @@
         <v>3938</v>
       </c>
       <c r="D1899" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1899" t="s">
         <v>3213</v>
@@ -46599,7 +46605,7 @@
         <v>3939</v>
       </c>
       <c r="D1901" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1901" t="s">
         <v>3215</v>
@@ -46633,7 +46639,7 @@
         <v>3940</v>
       </c>
       <c r="D1903" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1903" t="s">
         <v>3217</v>
@@ -46667,7 +46673,7 @@
         <v>3219</v>
       </c>
       <c r="D1905" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1905" t="s">
         <v>3219</v>
@@ -46701,7 +46707,7 @@
         <v>3942</v>
       </c>
       <c r="D1907" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1907" t="s">
         <v>3221</v>
@@ -46718,7 +46724,7 @@
         <v>3933</v>
       </c>
       <c r="D1908" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1908" t="s">
         <v>3222</v>
@@ -46735,7 +46741,7 @@
         <v>3049</v>
       </c>
       <c r="D1909" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1909" t="s">
         <v>3223</v>
@@ -46752,7 +46758,7 @@
         <v>3223</v>
       </c>
       <c r="D1910" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1910" t="s">
         <v>3224</v>
@@ -46803,7 +46809,7 @@
         <v>3943</v>
       </c>
       <c r="D1913" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1913" t="s">
         <v>3227</v>
@@ -46820,10 +46826,10 @@
         <v>3944</v>
       </c>
       <c r="D1914" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1914" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -46871,7 +46877,7 @@
         <v>3230</v>
       </c>
       <c r="D1917" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1917" t="s">
         <v>3231</v>
@@ -46905,10 +46911,10 @@
         <v>3947</v>
       </c>
       <c r="D1919" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1919" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -46939,7 +46945,7 @@
         <v>3949</v>
       </c>
       <c r="D1921" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1921" t="s">
         <v>3235</v>
@@ -46956,7 +46962,7 @@
         <v>3950</v>
       </c>
       <c r="D1922" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1922" t="s">
         <v>3236</v>
@@ -46973,7 +46979,7 @@
         <v>3237</v>
       </c>
       <c r="D1923" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1923" t="s">
         <v>3237</v>
@@ -46990,7 +46996,7 @@
         <v>3951</v>
       </c>
       <c r="D1924" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1924" t="s">
         <v>3238</v>
@@ -47058,7 +47064,7 @@
         <v>3212</v>
       </c>
       <c r="D1928" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1928" t="s">
         <v>3242</v>
@@ -47109,7 +47115,7 @@
         <v>3953</v>
       </c>
       <c r="D1931" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1931" t="s">
         <v>3245</v>
@@ -47126,7 +47132,7 @@
         <v>3256</v>
       </c>
       <c r="D1932" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1932" t="s">
         <v>3246</v>
@@ -47143,7 +47149,7 @@
         <v>3247</v>
       </c>
       <c r="D1933" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1933" t="s">
         <v>3247</v>
@@ -47160,7 +47166,7 @@
         <v>3954</v>
       </c>
       <c r="D1934" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1934" t="s">
         <v>3248</v>
@@ -47177,7 +47183,7 @@
         <v>3955</v>
       </c>
       <c r="D1935" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1935" t="s">
         <v>3249</v>
@@ -47211,7 +47217,7 @@
         <v>3956</v>
       </c>
       <c r="D1937" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1937" t="s">
         <v>3251</v>
@@ -47228,7 +47234,7 @@
         <v>3957</v>
       </c>
       <c r="D1938" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1938" t="s">
         <v>3252</v>
@@ -47262,7 +47268,7 @@
         <v>3942</v>
       </c>
       <c r="D1940" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1940" t="s">
         <v>3254</v>
@@ -47279,7 +47285,7 @@
         <v>3959</v>
       </c>
       <c r="D1941" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1941" t="s">
         <v>3255</v>
@@ -47330,7 +47336,7 @@
         <v>3962</v>
       </c>
       <c r="D1944" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1944" t="s">
         <v>3258</v>
@@ -47415,7 +47421,7 @@
         <v>3965</v>
       </c>
       <c r="D1949" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1949" t="s">
         <v>3263</v>
@@ -47466,7 +47472,7 @@
         <v>3967</v>
       </c>
       <c r="D1952" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1952" t="s">
         <v>3265</v>
@@ -47483,7 +47489,7 @@
         <v>3968</v>
       </c>
       <c r="D1953" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1953" t="s">
         <v>3266</v>
@@ -47500,7 +47506,7 @@
         <v>3969</v>
       </c>
       <c r="D1954" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1954" t="s">
         <v>3267</v>
@@ -47517,7 +47523,7 @@
         <v>3970</v>
       </c>
       <c r="D1955" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1955" t="s">
         <v>3268</v>
@@ -47534,7 +47540,7 @@
         <v>3269</v>
       </c>
       <c r="D1956" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1956" t="s">
         <v>3269</v>
@@ -47551,7 +47557,7 @@
         <v>3270</v>
       </c>
       <c r="D1957" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1957" t="s">
         <v>3270</v>
@@ -47568,7 +47574,7 @@
         <v>3243</v>
       </c>
       <c r="D1958" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1958" t="s">
         <v>3271</v>
@@ -47585,7 +47591,7 @@
         <v>3971</v>
       </c>
       <c r="D1959" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1959" t="s">
         <v>3194</v>
@@ -47619,7 +47625,7 @@
         <v>3214</v>
       </c>
       <c r="D1961" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1961" t="s">
         <v>3273</v>
@@ -47653,7 +47659,7 @@
         <v>3259</v>
       </c>
       <c r="D1963" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1963" t="s">
         <v>3275</v>
@@ -47670,7 +47676,7 @@
         <v>3972</v>
       </c>
       <c r="D1964" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1964" t="s">
         <v>3276</v>
@@ -47687,7 +47693,7 @@
         <v>3973</v>
       </c>
       <c r="D1965" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1965" t="s">
         <v>3277</v>
@@ -47704,7 +47710,7 @@
         <v>3258</v>
       </c>
       <c r="D1966" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1966" t="s">
         <v>3278</v>
@@ -47721,7 +47727,7 @@
         <v>3781</v>
       </c>
       <c r="D1967" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1967" t="s">
         <v>3279</v>
@@ -47789,7 +47795,7 @@
         <v>3976</v>
       </c>
       <c r="D1971" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1971" t="s">
         <v>3283</v>
@@ -47806,7 +47812,7 @@
         <v>3977</v>
       </c>
       <c r="D1972" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1972" t="s">
         <v>3284</v>
@@ -47823,7 +47829,7 @@
         <v>3227</v>
       </c>
       <c r="D1973" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1973" t="s">
         <v>3285</v>
@@ -47857,7 +47863,7 @@
         <v>3259</v>
       </c>
       <c r="D1975" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1975" t="s">
         <v>3287</v>
@@ -47891,7 +47897,7 @@
         <v>3979</v>
       </c>
       <c r="D1977" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1977" t="s">
         <v>3289</v>
@@ -47959,7 +47965,7 @@
         <v>3982</v>
       </c>
       <c r="D1981" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1981" t="s">
         <v>3292</v>
@@ -47976,7 +47982,7 @@
         <v>3292</v>
       </c>
       <c r="D1982" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1982" t="s">
         <v>3252</v>
@@ -47993,7 +47999,7 @@
         <v>3983</v>
       </c>
       <c r="D1983" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1983" t="s">
         <v>3293</v>
@@ -48013,7 +48019,7 @@
         <v>3293</v>
       </c>
       <c r="E1984" t="s">
-        <v>4636</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48044,7 +48050,7 @@
         <v>3985</v>
       </c>
       <c r="D1986" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1986" t="s">
         <v>3296</v>
@@ -48061,7 +48067,7 @@
         <v>3986</v>
       </c>
       <c r="D1987" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1987" t="s">
         <v>3297</v>
@@ -48095,7 +48101,7 @@
         <v>3297</v>
       </c>
       <c r="D1989" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1989" t="s">
         <v>3298</v>
@@ -48112,7 +48118,7 @@
         <v>3987</v>
       </c>
       <c r="D1990" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1990" t="s">
         <v>3299</v>
@@ -48129,7 +48135,7 @@
         <v>3988</v>
       </c>
       <c r="D1991" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1991" t="s">
         <v>3300</v>
@@ -48146,7 +48152,7 @@
         <v>3989</v>
       </c>
       <c r="D1992" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1992" t="s">
         <v>3301</v>
@@ -48163,7 +48169,7 @@
         <v>3066</v>
       </c>
       <c r="D1993" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1993" t="s">
         <v>3302</v>
@@ -48180,7 +48186,7 @@
         <v>3990</v>
       </c>
       <c r="D1994" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1994" t="s">
         <v>3303</v>
@@ -48197,7 +48203,7 @@
         <v>3991</v>
       </c>
       <c r="D1995" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1995" t="s">
         <v>3304</v>
@@ -48214,7 +48220,7 @@
         <v>3992</v>
       </c>
       <c r="D1996" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1996" t="s">
         <v>3305</v>
@@ -48248,7 +48254,7 @@
         <v>3994</v>
       </c>
       <c r="D1998" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1998" t="s">
         <v>3307</v>
@@ -48367,7 +48373,7 @@
         <v>3999</v>
       </c>
       <c r="D2005" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E2005" t="s">
         <v>3314</v>
@@ -48381,13 +48387,13 @@
         <v>3314</v>
       </c>
       <c r="C2006" t="s">
-        <v>3314</v>
+        <v>4000</v>
       </c>
       <c r="D2006" t="s">
-        <v>3314</v>
+        <v>4520</v>
       </c>
       <c r="E2006" t="s">
-        <v>3314</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="4653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="4654">
   <si>
     <t>1. open</t>
   </si>
@@ -9982,3639 +9982,3642 @@
     <t>3.87580</t>
   </si>
   <si>
+    <t>3.86090</t>
+  </si>
+  <si>
+    <t>2.92000</t>
+  </si>
+  <si>
+    <t>2.92500</t>
+  </si>
+  <si>
+    <t>2.94800</t>
+  </si>
+  <si>
+    <t>2.95700</t>
+  </si>
+  <si>
+    <t>2.97600</t>
+  </si>
+  <si>
+    <t>2.99100</t>
+  </si>
+  <si>
+    <t>2.98900</t>
+  </si>
+  <si>
+    <t>2.99800</t>
+  </si>
+  <si>
+    <t>3.01550</t>
+  </si>
+  <si>
+    <t>3.06250</t>
+  </si>
+  <si>
+    <t>3.07050</t>
+  </si>
+  <si>
+    <t>3.08350</t>
+  </si>
+  <si>
+    <t>3.08450</t>
+  </si>
+  <si>
+    <t>3.08550</t>
+  </si>
+  <si>
+    <t>3.08800</t>
+  </si>
+  <si>
+    <t>3.09750</t>
+  </si>
+  <si>
+    <t>3.09600</t>
+  </si>
+  <si>
+    <t>3.09950</t>
+  </si>
+  <si>
+    <t>3.09800</t>
+  </si>
+  <si>
+    <t>3.07600</t>
+  </si>
+  <si>
+    <t>3.08900</t>
+  </si>
+  <si>
+    <t>3.10250</t>
+  </si>
+  <si>
+    <t>3.12700</t>
+  </si>
+  <si>
+    <t>3.12250</t>
+  </si>
+  <si>
+    <t>3.12500</t>
+  </si>
+  <si>
+    <t>3.12400</t>
+  </si>
+  <si>
+    <t>3.16000</t>
+  </si>
+  <si>
+    <t>3.13400</t>
+  </si>
+  <si>
+    <t>3.12750</t>
+  </si>
+  <si>
+    <t>3.14000</t>
+  </si>
+  <si>
+    <t>3.15300</t>
+  </si>
+  <si>
+    <t>3.15000</t>
+  </si>
+  <si>
+    <t>3.14900</t>
+  </si>
+  <si>
+    <t>3.14300</t>
+  </si>
+  <si>
+    <t>3.14800</t>
+  </si>
+  <si>
+    <t>3.17000</t>
+  </si>
+  <si>
+    <t>3.15250</t>
+  </si>
+  <si>
+    <t>3.15650</t>
+  </si>
+  <si>
+    <t>3.15500</t>
+  </si>
+  <si>
+    <t>3.14500</t>
+  </si>
+  <si>
+    <t>3.15450</t>
+  </si>
+  <si>
+    <t>3.16050</t>
+  </si>
+  <si>
+    <t>3.16450</t>
+  </si>
+  <si>
+    <t>3.15850</t>
+  </si>
+  <si>
+    <t>3.17200</t>
+  </si>
+  <si>
+    <t>3.17950</t>
+  </si>
+  <si>
+    <t>3.17300</t>
+  </si>
+  <si>
+    <t>3.17800</t>
+  </si>
+  <si>
+    <t>3.18200</t>
+  </si>
+  <si>
+    <t>3.18600</t>
+  </si>
+  <si>
+    <t>3.17700</t>
+  </si>
+  <si>
+    <t>3.18400</t>
+  </si>
+  <si>
+    <t>3.19000</t>
+  </si>
+  <si>
+    <t>3.19400</t>
+  </si>
+  <si>
+    <t>3.20300</t>
+  </si>
+  <si>
+    <t>3.21800</t>
+  </si>
+  <si>
+    <t>3.22000</t>
+  </si>
+  <si>
+    <t>3.21900</t>
+  </si>
+  <si>
+    <t>3.21450</t>
+  </si>
+  <si>
+    <t>3.19500</t>
+  </si>
+  <si>
+    <t>3.21600</t>
+  </si>
+  <si>
+    <t>3.23900</t>
+  </si>
+  <si>
+    <t>3.22200</t>
+  </si>
+  <si>
+    <t>3.21700</t>
+  </si>
+  <si>
+    <t>3.24210</t>
+  </si>
+  <si>
+    <t>3.23400</t>
+  </si>
+  <si>
+    <t>3.24100</t>
+  </si>
+  <si>
+    <t>3.25600</t>
+  </si>
+  <si>
+    <t>3.25900</t>
+  </si>
+  <si>
+    <t>3.28600</t>
+  </si>
+  <si>
+    <t>3.28900</t>
+  </si>
+  <si>
+    <t>3.32400</t>
+  </si>
+  <si>
+    <t>3.34500</t>
+  </si>
+  <si>
+    <t>3.37500</t>
+  </si>
+  <si>
+    <t>3.37700</t>
+  </si>
+  <si>
+    <t>3.37600</t>
+  </si>
+  <si>
+    <t>3.37900</t>
+  </si>
+  <si>
+    <t>3.38200</t>
+  </si>
+  <si>
+    <t>3.40800</t>
+  </si>
+  <si>
+    <t>3.40900</t>
+  </si>
+  <si>
+    <t>3.41250</t>
+  </si>
+  <si>
+    <t>3.43500</t>
+  </si>
+  <si>
+    <t>3.41700</t>
+  </si>
+  <si>
+    <t>3.43300</t>
+  </si>
+  <si>
+    <t>3.44500</t>
+  </si>
+  <si>
+    <t>3.44690</t>
+  </si>
+  <si>
+    <t>3.46500</t>
+  </si>
+  <si>
+    <t>3.46850</t>
+  </si>
+  <si>
+    <t>3.46550</t>
+  </si>
+  <si>
+    <t>3.47300</t>
+  </si>
+  <si>
+    <t>3.48550</t>
+  </si>
+  <si>
+    <t>3.49300</t>
+  </si>
+  <si>
+    <t>3.49350</t>
+  </si>
+  <si>
+    <t>3.48100</t>
+  </si>
+  <si>
+    <t>3.50200</t>
+  </si>
+  <si>
+    <t>3.51500</t>
+  </si>
+  <si>
+    <t>3.51100</t>
+  </si>
+  <si>
+    <t>3.51900</t>
+  </si>
+  <si>
+    <t>3.53000</t>
+  </si>
+  <si>
+    <t>3.52950</t>
+  </si>
+  <si>
+    <t>3.46010</t>
+  </si>
+  <si>
+    <t>3.46300</t>
+  </si>
+  <si>
+    <t>3.46130</t>
+  </si>
+  <si>
+    <t>3.42300</t>
+  </si>
+  <si>
+    <t>3.36700</t>
+  </si>
+  <si>
+    <t>3.39100</t>
+  </si>
+  <si>
+    <t>3.26500</t>
+  </si>
+  <si>
+    <t>3.27600</t>
+  </si>
+  <si>
+    <t>3.33370</t>
+  </si>
+  <si>
+    <t>3.33800</t>
+  </si>
+  <si>
+    <t>3.34400</t>
+  </si>
+  <si>
+    <t>3.34200</t>
+  </si>
+  <si>
+    <t>3.34750</t>
+  </si>
+  <si>
+    <t>3.31400</t>
+  </si>
+  <si>
+    <t>3.31000</t>
+  </si>
+  <si>
+    <t>3.35200</t>
+  </si>
+  <si>
+    <t>3.39300</t>
+  </si>
+  <si>
+    <t>3.39400</t>
+  </si>
+  <si>
+    <t>3.40200</t>
+  </si>
+  <si>
+    <t>3.41400</t>
+  </si>
+  <si>
+    <t>3.39200</t>
+  </si>
+  <si>
+    <t>3.40250</t>
+  </si>
+  <si>
+    <t>3.40600</t>
+  </si>
+  <si>
+    <t>3.38500</t>
+  </si>
+  <si>
+    <t>3.38800</t>
+  </si>
+  <si>
+    <t>3.41680</t>
+  </si>
+  <si>
+    <t>3.42000</t>
+  </si>
+  <si>
+    <t>3.41070</t>
+  </si>
+  <si>
+    <t>3.40310</t>
+  </si>
+  <si>
+    <t>3.40620</t>
+  </si>
+  <si>
+    <t>3.38830</t>
+  </si>
+  <si>
+    <t>3.36140</t>
+  </si>
+  <si>
+    <t>3.38410</t>
+  </si>
+  <si>
+    <t>3.37680</t>
+  </si>
+  <si>
+    <t>3.39150</t>
+  </si>
+  <si>
+    <t>3.37050</t>
+  </si>
+  <si>
+    <t>3.29750</t>
+  </si>
+  <si>
+    <t>3.29910</t>
+  </si>
+  <si>
+    <t>3.25800</t>
+  </si>
+  <si>
+    <t>3.24500</t>
+  </si>
+  <si>
+    <t>3.25280</t>
+  </si>
+  <si>
+    <t>3.27250</t>
+  </si>
+  <si>
+    <t>3.30090</t>
+  </si>
+  <si>
+    <t>3.30380</t>
+  </si>
+  <si>
+    <t>3.25250</t>
+  </si>
+  <si>
+    <t>3.24560</t>
+  </si>
+  <si>
+    <t>3.24790</t>
+  </si>
+  <si>
+    <t>3.25050</t>
+  </si>
+  <si>
+    <t>3.25450</t>
+  </si>
+  <si>
+    <t>3.25400</t>
+  </si>
+  <si>
+    <t>3.25570</t>
+  </si>
+  <si>
+    <t>3.25080</t>
+  </si>
+  <si>
+    <t>3.25330</t>
+  </si>
+  <si>
+    <t>3.25070</t>
+  </si>
+  <si>
+    <t>3.24440</t>
+  </si>
+  <si>
+    <t>3.27380</t>
+  </si>
+  <si>
+    <t>3.26100</t>
+  </si>
+  <si>
+    <t>3.24800</t>
+  </si>
+  <si>
+    <t>3.24090</t>
+  </si>
+  <si>
+    <t>3.24060</t>
+  </si>
+  <si>
+    <t>3.26730</t>
+  </si>
+  <si>
+    <t>3.26010</t>
+  </si>
+  <si>
+    <t>3.24270</t>
+  </si>
+  <si>
+    <t>3.24570</t>
+  </si>
+  <si>
+    <t>3.25510</t>
+  </si>
+  <si>
+    <t>3.23730</t>
+  </si>
+  <si>
+    <t>3.21750</t>
+  </si>
+  <si>
+    <t>3.21850</t>
+  </si>
+  <si>
+    <t>3.22350</t>
+  </si>
+  <si>
+    <t>3.21060</t>
+  </si>
+  <si>
+    <t>3.26930</t>
+  </si>
+  <si>
+    <t>3.28100</t>
+  </si>
+  <si>
+    <t>3.26830</t>
+  </si>
+  <si>
+    <t>3.27130</t>
+  </si>
+  <si>
+    <t>3.22590</t>
+  </si>
+  <si>
+    <t>3.22600</t>
+  </si>
+  <si>
+    <t>3.22580</t>
+  </si>
+  <si>
+    <t>3.23050</t>
+  </si>
+  <si>
+    <t>3.22850</t>
+  </si>
+  <si>
+    <t>3.22360</t>
+  </si>
+  <si>
+    <t>3.22100</t>
+  </si>
+  <si>
+    <t>3.26200</t>
+  </si>
+  <si>
+    <t>3.28070</t>
+  </si>
+  <si>
+    <t>3.27470</t>
+  </si>
+  <si>
+    <t>3.27690</t>
+  </si>
+  <si>
+    <t>3.29160</t>
+  </si>
+  <si>
+    <t>3.27710</t>
+  </si>
+  <si>
+    <t>3.27490</t>
+  </si>
+  <si>
+    <t>3.27460</t>
+  </si>
+  <si>
+    <t>3.27240</t>
+  </si>
+  <si>
+    <t>3.32570</t>
+  </si>
+  <si>
+    <t>3.30730</t>
+  </si>
+  <si>
+    <t>3.29270</t>
+  </si>
+  <si>
+    <t>3.30430</t>
+  </si>
+  <si>
+    <t>3.30190</t>
+  </si>
+  <si>
+    <t>3.30550</t>
+  </si>
+  <si>
+    <t>3.33630</t>
+  </si>
+  <si>
+    <t>3.37760</t>
+  </si>
+  <si>
+    <t>3.34050</t>
+  </si>
+  <si>
+    <t>3.31180</t>
+  </si>
+  <si>
+    <t>3.30720</t>
+  </si>
+  <si>
+    <t>3.30540</t>
+  </si>
+  <si>
+    <t>3.30920</t>
+  </si>
+  <si>
+    <t>3.31020</t>
+  </si>
+  <si>
+    <t>3.31630</t>
+  </si>
+  <si>
+    <t>3.30340</t>
+  </si>
+  <si>
+    <t>3.29770</t>
+  </si>
+  <si>
+    <t>3.30180</t>
+  </si>
+  <si>
+    <t>3.29980</t>
+  </si>
+  <si>
+    <t>3.31240</t>
+  </si>
+  <si>
+    <t>3.30210</t>
+  </si>
+  <si>
+    <t>3.29440</t>
+  </si>
+  <si>
+    <t>3.33320</t>
+  </si>
+  <si>
+    <t>3.32590</t>
+  </si>
+  <si>
+    <t>3.31880</t>
+  </si>
+  <si>
+    <t>3.35190</t>
+  </si>
+  <si>
+    <t>3.38070</t>
+  </si>
+  <si>
+    <t>3.37920</t>
+  </si>
+  <si>
+    <t>3.35460</t>
+  </si>
+  <si>
+    <t>3.33170</t>
+  </si>
+  <si>
+    <t>3.39190</t>
+  </si>
+  <si>
+    <t>3.38460</t>
+  </si>
+  <si>
+    <t>3.39780</t>
+  </si>
+  <si>
+    <t>3.38160</t>
+  </si>
+  <si>
+    <t>3.37830</t>
+  </si>
+  <si>
+    <t>3.38430</t>
+  </si>
+  <si>
+    <t>3.34930</t>
+  </si>
+  <si>
+    <t>3.35630</t>
+  </si>
+  <si>
+    <t>3.36230</t>
+  </si>
+  <si>
+    <t>3.36830</t>
+  </si>
+  <si>
+    <t>3.39030</t>
+  </si>
+  <si>
+    <t>3.39830</t>
+  </si>
+  <si>
+    <t>3.39230</t>
+  </si>
+  <si>
+    <t>3.38130</t>
+  </si>
+  <si>
+    <t>3.37260</t>
+  </si>
+  <si>
+    <t>3.37330</t>
+  </si>
+  <si>
+    <t>3.35230</t>
+  </si>
+  <si>
+    <t>3.35330</t>
+  </si>
+  <si>
+    <t>3.34630</t>
+  </si>
+  <si>
+    <t>3.39730</t>
+  </si>
+  <si>
+    <t>3.38230</t>
+  </si>
+  <si>
+    <t>3.39430</t>
+  </si>
+  <si>
+    <t>3.40530</t>
+  </si>
+  <si>
+    <t>3.37930</t>
+  </si>
+  <si>
+    <t>3.38030</t>
+  </si>
+  <si>
+    <t>3.39930</t>
+  </si>
+  <si>
+    <t>3.37730</t>
+  </si>
+  <si>
+    <t>3.36160</t>
+  </si>
+  <si>
+    <t>3.34430</t>
+  </si>
+  <si>
+    <t>3.34230</t>
+  </si>
+  <si>
+    <t>3.33430</t>
+  </si>
+  <si>
+    <t>3.32530</t>
+  </si>
+  <si>
+    <t>3.32230</t>
+  </si>
+  <si>
+    <t>3.31830</t>
+  </si>
+  <si>
+    <t>3.32830</t>
+  </si>
+  <si>
+    <t>3.33330</t>
+  </si>
+  <si>
+    <t>3.36000</t>
+  </si>
+  <si>
+    <t>3.32630</t>
+  </si>
+  <si>
+    <t>3.32330</t>
+  </si>
+  <si>
+    <t>3.33830</t>
+  </si>
+  <si>
+    <t>3.34830</t>
+  </si>
+  <si>
+    <t>3.41530</t>
+  </si>
+  <si>
+    <t>3.43630</t>
+  </si>
+  <si>
+    <t>3.45830</t>
+  </si>
+  <si>
+    <t>3.47000</t>
+  </si>
+  <si>
+    <t>3.44530</t>
+  </si>
+  <si>
+    <t>3.46000</t>
+  </si>
+  <si>
+    <t>3.48330</t>
+  </si>
+  <si>
+    <t>3.51160</t>
+  </si>
+  <si>
+    <t>3.50430</t>
+  </si>
+  <si>
+    <t>3.51650</t>
+  </si>
+  <si>
+    <t>3.55830</t>
+  </si>
+  <si>
+    <t>3.53730</t>
+  </si>
+  <si>
+    <t>3.55930</t>
+  </si>
+  <si>
+    <t>3.55710</t>
+  </si>
+  <si>
+    <t>3.57330</t>
+  </si>
+  <si>
+    <t>3.54430</t>
+  </si>
+  <si>
+    <t>3.47720</t>
+  </si>
+  <si>
+    <t>3.43930</t>
+  </si>
+  <si>
+    <t>3.44130</t>
+  </si>
+  <si>
+    <t>3.47430</t>
+  </si>
+  <si>
+    <t>3.46120</t>
+  </si>
+  <si>
+    <t>3.45800</t>
+  </si>
+  <si>
+    <t>3.39010</t>
+  </si>
+  <si>
+    <t>3.40820</t>
+  </si>
+  <si>
+    <t>3.42630</t>
+  </si>
+  <si>
+    <t>3.41230</t>
+  </si>
+  <si>
+    <t>3.41150</t>
+  </si>
+  <si>
+    <t>3.42030</t>
+  </si>
+  <si>
+    <t>3.41450</t>
+  </si>
+  <si>
+    <t>3.40650</t>
+  </si>
+  <si>
+    <t>3.43700</t>
+  </si>
+  <si>
+    <t>3.44030</t>
+  </si>
+  <si>
+    <t>3.45720</t>
+  </si>
+  <si>
+    <t>3.41260</t>
+  </si>
+  <si>
+    <t>3.43360</t>
+  </si>
+  <si>
+    <t>3.43080</t>
+  </si>
+  <si>
+    <t>3.43430</t>
+  </si>
+  <si>
+    <t>3.45620</t>
+  </si>
+  <si>
+    <t>3.44970</t>
+  </si>
+  <si>
+    <t>3.42850</t>
+  </si>
+  <si>
+    <t>3.43760</t>
+  </si>
+  <si>
+    <t>3.44600</t>
+  </si>
+  <si>
+    <t>3.45130</t>
+  </si>
+  <si>
+    <t>3.44250</t>
+  </si>
+  <si>
+    <t>3.46370</t>
+  </si>
+  <si>
+    <t>3.46400</t>
+  </si>
+  <si>
+    <t>3.48750</t>
+  </si>
+  <si>
+    <t>3.47750</t>
+  </si>
+  <si>
+    <t>3.49950</t>
+  </si>
+  <si>
+    <t>3.52030</t>
+  </si>
+  <si>
+    <t>3.52210</t>
+  </si>
+  <si>
+    <t>3.50480</t>
+  </si>
+  <si>
+    <t>3.52180</t>
+  </si>
+  <si>
+    <t>3.53400</t>
+  </si>
+  <si>
+    <t>3.52880</t>
+  </si>
+  <si>
+    <t>3.54870</t>
+  </si>
+  <si>
+    <t>3.54330</t>
+  </si>
+  <si>
+    <t>3.53900</t>
+  </si>
+  <si>
+    <t>3.55280</t>
+  </si>
+  <si>
+    <t>3.54980</t>
+  </si>
+  <si>
+    <t>3.54470</t>
+  </si>
+  <si>
+    <t>3.53080</t>
+  </si>
+  <si>
+    <t>3.50980</t>
+  </si>
+  <si>
+    <t>3.51870</t>
+  </si>
+  <si>
+    <t>3.52400</t>
+  </si>
+  <si>
+    <t>3.53300</t>
+  </si>
+  <si>
+    <t>3.51860</t>
+  </si>
+  <si>
+    <t>3.53280</t>
+  </si>
+  <si>
+    <t>3.54680</t>
+  </si>
+  <si>
+    <t>3.55100</t>
+  </si>
+  <si>
+    <t>3.56100</t>
+  </si>
+  <si>
+    <t>3.56360</t>
+  </si>
+  <si>
+    <t>3.57180</t>
+  </si>
+  <si>
+    <t>3.57430</t>
+  </si>
+  <si>
+    <t>3.57920</t>
+  </si>
+  <si>
+    <t>3.57960</t>
+  </si>
+  <si>
+    <t>3.57440</t>
+  </si>
+  <si>
+    <t>3.57750</t>
+  </si>
+  <si>
+    <t>3.58470</t>
+  </si>
+  <si>
+    <t>3.59470</t>
+  </si>
+  <si>
+    <t>3.59090</t>
+  </si>
+  <si>
+    <t>3.57910</t>
+  </si>
+  <si>
+    <t>3.56230</t>
+  </si>
+  <si>
+    <t>3.54930</t>
+  </si>
+  <si>
+    <t>3.53450</t>
+  </si>
+  <si>
+    <t>3.55650</t>
+  </si>
+  <si>
+    <t>3.54340</t>
+  </si>
+  <si>
+    <t>3.54750</t>
+  </si>
+  <si>
+    <t>3.57550</t>
+  </si>
+  <si>
+    <t>3.54700</t>
+  </si>
+  <si>
+    <t>3.52750</t>
+  </si>
+  <si>
+    <t>3.55860</t>
+  </si>
+  <si>
+    <t>3.56900</t>
+  </si>
+  <si>
+    <t>3.57900</t>
+  </si>
+  <si>
+    <t>3.59500</t>
+  </si>
+  <si>
+    <t>3.59460</t>
+  </si>
+  <si>
+    <t>3.59760</t>
+  </si>
+  <si>
+    <t>3.60230</t>
+  </si>
+  <si>
+    <t>3.60860</t>
+  </si>
+  <si>
+    <t>3.62660</t>
+  </si>
+  <si>
+    <t>3.62150</t>
+  </si>
+  <si>
+    <t>3.59200</t>
+  </si>
+  <si>
+    <t>3.58340</t>
+  </si>
+  <si>
+    <t>3.59820</t>
+  </si>
+  <si>
+    <t>3.60460</t>
+  </si>
+  <si>
+    <t>3.59240</t>
+  </si>
+  <si>
+    <t>3.59150</t>
+  </si>
+  <si>
+    <t>3.58520</t>
+  </si>
+  <si>
+    <t>3.59220</t>
+  </si>
+  <si>
+    <t>3.59850</t>
+  </si>
+  <si>
+    <t>3.60030</t>
+  </si>
+  <si>
+    <t>3.60410</t>
+  </si>
+  <si>
+    <t>3.60720</t>
+  </si>
+  <si>
+    <t>3.60430</t>
+  </si>
+  <si>
+    <t>3.60850</t>
+  </si>
+  <si>
+    <t>3.61750</t>
+  </si>
+  <si>
+    <t>3.61250</t>
+  </si>
+  <si>
+    <t>3.61450</t>
+  </si>
+  <si>
+    <t>3.60280</t>
+  </si>
+  <si>
+    <t>3.60040</t>
+  </si>
+  <si>
+    <t>3.60330</t>
+  </si>
+  <si>
+    <t>3.63030</t>
+  </si>
+  <si>
+    <t>3.62960</t>
+  </si>
+  <si>
+    <t>3.64100</t>
+  </si>
+  <si>
+    <t>3.66730</t>
+  </si>
+  <si>
+    <t>3.61150</t>
+  </si>
+  <si>
+    <t>3.60360</t>
+  </si>
+  <si>
+    <t>3.60960</t>
+  </si>
+  <si>
+    <t>3.61040</t>
+  </si>
+  <si>
+    <t>3.60560</t>
+  </si>
+  <si>
+    <t>3.60660</t>
+  </si>
+  <si>
+    <t>3.60880</t>
+  </si>
+  <si>
+    <t>3.59530</t>
+  </si>
+  <si>
+    <t>3.60370</t>
+  </si>
+  <si>
+    <t>3.60250</t>
+  </si>
+  <si>
+    <t>3.60550</t>
+  </si>
+  <si>
+    <t>3.60670</t>
+  </si>
+  <si>
+    <t>3.60350</t>
+  </si>
+  <si>
+    <t>3.59400</t>
+  </si>
+  <si>
+    <t>3.58980</t>
+  </si>
+  <si>
+    <t>3.59880</t>
+  </si>
+  <si>
+    <t>3.60740</t>
+  </si>
+  <si>
+    <t>3.61940</t>
+  </si>
+  <si>
+    <t>3.61660</t>
+  </si>
+  <si>
+    <t>3.61260</t>
+  </si>
+  <si>
+    <t>3.61400</t>
+  </si>
+  <si>
+    <t>3.61900</t>
+  </si>
+  <si>
+    <t>3.62700</t>
+  </si>
+  <si>
+    <t>3.62600</t>
+  </si>
+  <si>
+    <t>3.62400</t>
+  </si>
+  <si>
+    <t>3.62000</t>
+  </si>
+  <si>
+    <t>3.61600</t>
+  </si>
+  <si>
+    <t>3.60900</t>
+  </si>
+  <si>
+    <t>3.63350</t>
+  </si>
+  <si>
+    <t>3.64500</t>
+  </si>
+  <si>
+    <t>3.64450</t>
+  </si>
+  <si>
+    <t>3.65100</t>
+  </si>
+  <si>
+    <t>3.64200</t>
+  </si>
+  <si>
+    <t>3.63600</t>
+  </si>
+  <si>
+    <t>3.63900</t>
+  </si>
+  <si>
+    <t>3.63500</t>
+  </si>
+  <si>
+    <t>3.64000</t>
+  </si>
+  <si>
+    <t>3.64300</t>
+  </si>
+  <si>
+    <t>3.63860</t>
+  </si>
+  <si>
+    <t>3.63980</t>
+  </si>
+  <si>
+    <t>3.64660</t>
+  </si>
+  <si>
+    <t>3.64470</t>
+  </si>
+  <si>
+    <t>3.65200</t>
+  </si>
+  <si>
+    <t>3.65660</t>
+  </si>
+  <si>
+    <t>3.65070</t>
+  </si>
+  <si>
+    <t>3.65450</t>
+  </si>
+  <si>
+    <t>3.65560</t>
+  </si>
+  <si>
+    <t>3.65280</t>
+  </si>
+  <si>
+    <t>3.64840</t>
+  </si>
+  <si>
+    <t>3.65500</t>
+  </si>
+  <si>
+    <t>3.66500</t>
+  </si>
+  <si>
+    <t>3.67700</t>
+  </si>
+  <si>
+    <t>3.68100</t>
+  </si>
+  <si>
+    <t>3.68950</t>
+  </si>
+  <si>
+    <t>3.70300</t>
+  </si>
+  <si>
+    <t>3.69200</t>
+  </si>
+  <si>
+    <t>3.69300</t>
+  </si>
+  <si>
+    <t>3.70800</t>
+  </si>
+  <si>
+    <t>3.72100</t>
+  </si>
+  <si>
+    <t>3.70400</t>
+  </si>
+  <si>
+    <t>3.70500</t>
+  </si>
+  <si>
+    <t>3.70700</t>
+  </si>
+  <si>
+    <t>3.72300</t>
+  </si>
+  <si>
+    <t>3.71900</t>
+  </si>
+  <si>
+    <t>3.72400</t>
+  </si>
+  <si>
+    <t>3.73500</t>
+  </si>
+  <si>
+    <t>3.73900</t>
+  </si>
+  <si>
+    <t>3.74900</t>
+  </si>
+  <si>
+    <t>3.76380</t>
+  </si>
+  <si>
+    <t>3.77000</t>
+  </si>
+  <si>
+    <t>3.74100</t>
+  </si>
+  <si>
+    <t>3.65400</t>
+  </si>
+  <si>
+    <t>3.63570</t>
+  </si>
+  <si>
+    <t>3.68790</t>
+  </si>
+  <si>
+    <t>3.68990</t>
+  </si>
+  <si>
+    <t>3.77060</t>
+  </si>
+  <si>
+    <t>3.77880</t>
+  </si>
+  <si>
+    <t>3.84260</t>
+  </si>
+  <si>
+    <t>3.84490</t>
+  </si>
+  <si>
+    <t>3.83960</t>
+  </si>
+  <si>
+    <t>3.79480</t>
+  </si>
+  <si>
+    <t>3.79740</t>
+  </si>
+  <si>
+    <t>3.83000</t>
+  </si>
+  <si>
+    <t>3.82200</t>
+  </si>
+  <si>
+    <t>3.81600</t>
+  </si>
+  <si>
+    <t>3.80950</t>
+  </si>
+  <si>
+    <t>3.82900</t>
+  </si>
+  <si>
+    <t>3.85200</t>
+  </si>
+  <si>
+    <t>3.86300</t>
+  </si>
+  <si>
+    <t>3.80900</t>
+  </si>
+  <si>
+    <t>3.86100</t>
+  </si>
+  <si>
+    <t>3.86800</t>
+  </si>
+  <si>
+    <t>3.84100</t>
+  </si>
+  <si>
+    <t>3.91150</t>
+  </si>
+  <si>
+    <t>3.93900</t>
+  </si>
+  <si>
+    <t>3.89250</t>
+  </si>
+  <si>
+    <t>3.90400</t>
+  </si>
+  <si>
+    <t>3.90900</t>
+  </si>
+  <si>
+    <t>3.93200</t>
+  </si>
+  <si>
+    <t>3.90780</t>
+  </si>
+  <si>
+    <t>3.92070</t>
+  </si>
+  <si>
+    <t>3.95260</t>
+  </si>
+  <si>
+    <t>3.96600</t>
+  </si>
+  <si>
+    <t>3.97880</t>
+  </si>
+  <si>
+    <t>3.97960</t>
+  </si>
+  <si>
+    <t>3.98680</t>
+  </si>
+  <si>
+    <t>3.98480</t>
+  </si>
+  <si>
+    <t>3.97520</t>
+  </si>
+  <si>
+    <t>3.97510</t>
+  </si>
+  <si>
+    <t>3.88400</t>
+  </si>
+  <si>
+    <t>3.87480</t>
+  </si>
+  <si>
+    <t>3.90580</t>
+  </si>
+  <si>
+    <t>3.92870</t>
+  </si>
+  <si>
+    <t>3.95480</t>
+  </si>
+  <si>
+    <t>3.97500</t>
+  </si>
+  <si>
+    <t>3.96350</t>
+  </si>
+  <si>
+    <t>3.96000</t>
+  </si>
+  <si>
+    <t>3.94100</t>
+  </si>
+  <si>
+    <t>3.94900</t>
+  </si>
+  <si>
+    <t>3.95470</t>
+  </si>
+  <si>
+    <t>3.95180</t>
+  </si>
+  <si>
+    <t>3.92910</t>
+  </si>
+  <si>
+    <t>3.92500</t>
+  </si>
+  <si>
+    <t>4.07000</t>
+  </si>
+  <si>
+    <t>4.09000</t>
+  </si>
+  <si>
+    <t>4.09400</t>
+  </si>
+  <si>
+    <t>4.11180</t>
+  </si>
+  <si>
+    <t>4.11300</t>
+  </si>
+  <si>
+    <t>4.11580</t>
+  </si>
+  <si>
+    <t>4.09980</t>
+  </si>
+  <si>
+    <t>4.09770</t>
+  </si>
+  <si>
+    <t>4.07970</t>
+  </si>
+  <si>
+    <t>4.07120</t>
+  </si>
+  <si>
+    <t>4.08780</t>
+  </si>
+  <si>
+    <t>4.08680</t>
+  </si>
+  <si>
+    <t>4.10080</t>
+  </si>
+  <si>
+    <t>4.10070</t>
+  </si>
+  <si>
+    <t>4.10270</t>
+  </si>
+  <si>
+    <t>4.10680</t>
+  </si>
+  <si>
+    <t>4.09510</t>
+  </si>
+  <si>
+    <t>4.10280</t>
+  </si>
+  <si>
+    <t>4.10170</t>
+  </si>
+  <si>
+    <t>4.10530</t>
+  </si>
+  <si>
+    <t>4.10470</t>
+  </si>
+  <si>
+    <t>4.10880</t>
+  </si>
+  <si>
+    <t>4.11380</t>
+  </si>
+  <si>
+    <t>4.11090</t>
+  </si>
+  <si>
+    <t>4.11880</t>
+  </si>
+  <si>
+    <t>4.11770</t>
+  </si>
+  <si>
+    <t>4.11170</t>
+  </si>
+  <si>
+    <t>4.11280</t>
+  </si>
+  <si>
+    <t>4.10870</t>
+  </si>
+  <si>
+    <t>4.12570</t>
+  </si>
+  <si>
+    <t>4.12680</t>
+  </si>
+  <si>
+    <t>4.13600</t>
+  </si>
+  <si>
+    <t>4.13000</t>
+  </si>
+  <si>
+    <t>4.13100</t>
+  </si>
+  <si>
+    <t>3.94750</t>
+  </si>
+  <si>
+    <t>3.95200</t>
+  </si>
+  <si>
+    <t>3.97270</t>
+  </si>
+  <si>
+    <t>3.99160</t>
+  </si>
+  <si>
+    <t>3.98070</t>
+  </si>
+  <si>
+    <t>3.99080</t>
+  </si>
+  <si>
+    <t>3.99150</t>
+  </si>
+  <si>
+    <t>4.00770</t>
+  </si>
+  <si>
+    <t>4.01280</t>
+  </si>
+  <si>
+    <t>4.01500</t>
+  </si>
+  <si>
+    <t>4.01370</t>
+  </si>
+  <si>
+    <t>4.01670</t>
+  </si>
+  <si>
+    <t>4.02560</t>
+  </si>
+  <si>
+    <t>4.02550</t>
+  </si>
+  <si>
+    <t>4.01870</t>
+  </si>
+  <si>
+    <t>4.00180</t>
+  </si>
+  <si>
+    <t>4.02070</t>
+  </si>
+  <si>
+    <t>4.02580</t>
+  </si>
+  <si>
+    <t>4.02270</t>
+  </si>
+  <si>
+    <t>4.01080</t>
+  </si>
+  <si>
+    <t>4.02280</t>
+  </si>
+  <si>
+    <t>4.03070</t>
+  </si>
+  <si>
+    <t>4.04280</t>
+  </si>
+  <si>
+    <t>4.06070</t>
+  </si>
+  <si>
+    <t>4.06890</t>
+  </si>
+  <si>
+    <t>4.07360</t>
+  </si>
+  <si>
+    <t>4.07670</t>
+  </si>
+  <si>
+    <t>4.08480</t>
+  </si>
+  <si>
+    <t>4.08470</t>
+  </si>
+  <si>
+    <t>4.07550</t>
+  </si>
+  <si>
+    <t>4.08370</t>
+  </si>
+  <si>
+    <t>4.07870</t>
+  </si>
+  <si>
+    <t>4.06470</t>
+  </si>
+  <si>
+    <t>4.05680</t>
+  </si>
+  <si>
+    <t>4.05570</t>
+  </si>
+  <si>
+    <t>4.05160</t>
+  </si>
+  <si>
+    <t>4.03670</t>
+  </si>
+  <si>
+    <t>4.04980</t>
+  </si>
+  <si>
+    <t>4.03280</t>
+  </si>
+  <si>
+    <t>3.98950</t>
+  </si>
+  <si>
+    <t>3.97580</t>
+  </si>
+  <si>
+    <t>3.98700</t>
+  </si>
+  <si>
+    <t>3.98980</t>
+  </si>
+  <si>
+    <t>3.99670</t>
+  </si>
+  <si>
+    <t>3.95980</t>
+  </si>
+  <si>
+    <t>3.97070</t>
+  </si>
+  <si>
+    <t>3.93270</t>
+  </si>
+  <si>
+    <t>3.93280</t>
+  </si>
+  <si>
+    <t>3.90650</t>
+  </si>
+  <si>
+    <t>3.89870</t>
+  </si>
+  <si>
+    <t>3.86680</t>
+  </si>
+  <si>
+    <t>3.86000</t>
+  </si>
+  <si>
+    <t>3.83550</t>
+  </si>
+  <si>
+    <t>3.84770</t>
+  </si>
+  <si>
+    <t>3.84670</t>
+  </si>
+  <si>
+    <t>3.84060</t>
+  </si>
+  <si>
+    <t>3.84970</t>
+  </si>
+  <si>
+    <t>3.84840</t>
+  </si>
+  <si>
+    <t>3.88280</t>
+  </si>
+  <si>
+    <t>3.88070</t>
+  </si>
+  <si>
+    <t>3.86280</t>
+  </si>
+  <si>
+    <t>3.87500</t>
+  </si>
+  <si>
+    <t>3.85030</t>
+  </si>
+  <si>
+    <t>3.84380</t>
+  </si>
+  <si>
+    <t>3.79380</t>
+  </si>
+  <si>
+    <t>3.80470</t>
+  </si>
+  <si>
+    <t>3.79770</t>
+  </si>
+  <si>
+    <t>3.75250</t>
+  </si>
+  <si>
+    <t>3.74750</t>
+  </si>
+  <si>
+    <t>3.75320</t>
+  </si>
+  <si>
+    <t>3.75880</t>
+  </si>
+  <si>
+    <t>3.73000</t>
+  </si>
+  <si>
+    <t>3.79980</t>
+  </si>
+  <si>
+    <t>3.79970</t>
+  </si>
+  <si>
+    <t>3.78570</t>
+  </si>
+  <si>
+    <t>3.78580</t>
+  </si>
+  <si>
+    <t>3.74880</t>
+  </si>
+  <si>
+    <t>3.75480</t>
+  </si>
+  <si>
+    <t>3.75470</t>
+  </si>
+  <si>
+    <t>3.73880</t>
+  </si>
+  <si>
+    <t>3.73890</t>
+  </si>
+  <si>
+    <t>3.70900</t>
+  </si>
+  <si>
+    <t>3.74470</t>
+  </si>
+  <si>
+    <t>3.73580</t>
+  </si>
+  <si>
+    <t>3.79170</t>
+  </si>
+  <si>
+    <t>3.72880</t>
+  </si>
+  <si>
+    <t>3.73170</t>
+  </si>
+  <si>
+    <t>3.67590</t>
+  </si>
+  <si>
+    <t>3.70170</t>
+  </si>
+  <si>
+    <t>3.72000</t>
+  </si>
+  <si>
+    <t>3.71460</t>
+  </si>
+  <si>
+    <t>3.71380</t>
+  </si>
+  <si>
+    <t>3.74250</t>
+  </si>
+  <si>
+    <t>3.73970</t>
+  </si>
+  <si>
+    <t>3.73670</t>
+  </si>
+  <si>
+    <t>3.76970</t>
+  </si>
+  <si>
+    <t>3.83370</t>
+  </si>
+  <si>
+    <t>3.85180</t>
+  </si>
+  <si>
+    <t>3.84480</t>
+  </si>
+  <si>
+    <t>3.83320</t>
+  </si>
+  <si>
+    <t>3.81580</t>
+  </si>
+  <si>
+    <t>3.81480</t>
+  </si>
+  <si>
+    <t>3.82970</t>
+  </si>
+  <si>
+    <t>3.81980</t>
+  </si>
+  <si>
+    <t>3.78800</t>
+  </si>
+  <si>
+    <t>3.80480</t>
+  </si>
+  <si>
+    <t>3.78690</t>
+  </si>
+  <si>
+    <t>3.77480</t>
+  </si>
+  <si>
+    <t>3.73380</t>
+  </si>
+  <si>
+    <t>3.72930</t>
+  </si>
+  <si>
+    <t>3.72480</t>
+  </si>
+  <si>
+    <t>3.69970</t>
+  </si>
+  <si>
+    <t>3.68580</t>
+  </si>
+  <si>
+    <t>3.72980</t>
+  </si>
+  <si>
+    <t>3.76470</t>
+  </si>
+  <si>
+    <t>3.76480</t>
+  </si>
+  <si>
+    <t>3.75570</t>
+  </si>
+  <si>
+    <t>3.75200</t>
+  </si>
+  <si>
+    <t>3.72470</t>
+  </si>
+  <si>
+    <t>3.72270</t>
+  </si>
+  <si>
+    <t>3.78970</t>
+  </si>
+  <si>
+    <t>3.79080</t>
+  </si>
+  <si>
+    <t>3.78670</t>
+  </si>
+  <si>
+    <t>3.77980</t>
+  </si>
+  <si>
+    <t>3.84980</t>
+  </si>
+  <si>
+    <t>3.86380</t>
+  </si>
+  <si>
+    <t>3.85240</t>
+  </si>
+  <si>
+    <t>3.95780</t>
+  </si>
+  <si>
+    <t>3.97970</t>
+  </si>
+  <si>
+    <t>3.90070</t>
+  </si>
+  <si>
+    <t>3.90310</t>
+  </si>
+  <si>
+    <t>3.89100</t>
+  </si>
+  <si>
+    <t>3.91370</t>
+  </si>
+  <si>
+    <t>3.91760</t>
+  </si>
+  <si>
+    <t>3.91560</t>
+  </si>
+  <si>
+    <t>3.91960</t>
+  </si>
+  <si>
+    <t>3.92270</t>
+  </si>
+  <si>
+    <t>3.93100</t>
+  </si>
+  <si>
+    <t>3.92350</t>
+  </si>
+  <si>
+    <t>3.92280</t>
+  </si>
+  <si>
+    <t>3.90870</t>
+  </si>
+  <si>
+    <t>3.90680</t>
+  </si>
+  <si>
+    <t>3.92170</t>
+  </si>
+  <si>
+    <t>3.93380</t>
+  </si>
+  <si>
+    <t>3.93070</t>
+  </si>
+  <si>
+    <t>3.88060</t>
+  </si>
+  <si>
+    <t>2.91000</t>
+  </si>
+  <si>
+    <t>2.95200</t>
+  </si>
+  <si>
+    <t>2.93800</t>
+  </si>
+  <si>
+    <t>2.97400</t>
+  </si>
+  <si>
+    <t>2.97500</t>
+  </si>
+  <si>
+    <t>2.96290</t>
+  </si>
+  <si>
+    <t>2.98050</t>
+  </si>
+  <si>
+    <t>3.00400</t>
+  </si>
+  <si>
+    <t>2.99500</t>
+  </si>
+  <si>
+    <t>3.02100</t>
+  </si>
+  <si>
+    <t>3.02900</t>
+  </si>
+  <si>
+    <t>3.05100</t>
+  </si>
+  <si>
+    <t>3.05300</t>
+  </si>
+  <si>
+    <t>3.07700</t>
+  </si>
+  <si>
+    <t>3.09050</t>
+  </si>
+  <si>
+    <t>3.09350</t>
+  </si>
+  <si>
+    <t>3.06000</t>
+  </si>
+  <si>
+    <t>3.07650</t>
+  </si>
+  <si>
+    <t>3.13850</t>
+  </si>
+  <si>
+    <t>3.10450</t>
+  </si>
+  <si>
+    <t>3.13000</t>
+  </si>
+  <si>
+    <t>3.13500</t>
+  </si>
+  <si>
+    <t>3.12780</t>
+  </si>
+  <si>
+    <t>3.14230</t>
+  </si>
+  <si>
+    <t>3.13900</t>
+  </si>
+  <si>
+    <t>3.16100</t>
+  </si>
+  <si>
+    <t>3.17490</t>
+  </si>
+  <si>
+    <t>3.19900</t>
+  </si>
+  <si>
+    <t>3.19700</t>
+  </si>
+  <si>
+    <t>3.20700</t>
+  </si>
+  <si>
+    <t>3.47550</t>
+  </si>
+  <si>
+    <t>3.52500</t>
+  </si>
+  <si>
+    <t>3.52000</t>
+  </si>
+  <si>
+    <t>3.43900</t>
+  </si>
+  <si>
+    <t>3.35760</t>
+  </si>
+  <si>
+    <t>3.35100</t>
+  </si>
+  <si>
+    <t>3.25390</t>
+  </si>
+  <si>
+    <t>3.30300</t>
+  </si>
+  <si>
+    <t>3.33740</t>
+  </si>
+  <si>
+    <t>3.35700</t>
+  </si>
+  <si>
+    <t>3.39600</t>
+  </si>
+  <si>
+    <t>3.35800</t>
+  </si>
+  <si>
+    <t>3.41200</t>
+  </si>
+  <si>
+    <t>3.39240</t>
+  </si>
+  <si>
+    <t>3.38290</t>
+  </si>
+  <si>
+    <t>3.39160</t>
+  </si>
+  <si>
+    <t>3.38220</t>
+  </si>
+  <si>
+    <t>3.38790</t>
+  </si>
+  <si>
+    <t>3.37520</t>
+  </si>
+  <si>
+    <t>3.35120</t>
+  </si>
+  <si>
+    <t>3.34590</t>
+  </si>
+  <si>
+    <t>3.37110</t>
+  </si>
+  <si>
+    <t>3.37360</t>
+  </si>
+  <si>
+    <t>3.35430</t>
+  </si>
+  <si>
+    <t>3.35440</t>
+  </si>
+  <si>
+    <t>3.33420</t>
+  </si>
+  <si>
+    <t>3.27980</t>
+  </si>
+  <si>
+    <t>3.27660</t>
+  </si>
+  <si>
+    <t>3.25790</t>
+  </si>
+  <si>
+    <t>3.22890</t>
+  </si>
+  <si>
+    <t>3.25040</t>
+  </si>
+  <si>
+    <t>3.27590</t>
+  </si>
+  <si>
+    <t>3.26000</t>
+  </si>
+  <si>
+    <t>3.23780</t>
+  </si>
+  <si>
+    <t>3.23720</t>
+  </si>
+  <si>
+    <t>3.24680</t>
+  </si>
+  <si>
+    <t>3.23960</t>
+  </si>
+  <si>
+    <t>3.22970</t>
+  </si>
+  <si>
+    <t>3.23340</t>
+  </si>
+  <si>
+    <t>3.22750</t>
+  </si>
+  <si>
+    <t>3.25850</t>
+  </si>
+  <si>
+    <t>3.26380</t>
+  </si>
+  <si>
+    <t>3.26260</t>
+  </si>
+  <si>
+    <t>3.26440</t>
+  </si>
+  <si>
+    <t>3.25700</t>
+  </si>
+  <si>
+    <t>3.24300</t>
+  </si>
+  <si>
+    <t>3.23670</t>
+  </si>
+  <si>
+    <t>3.23230</t>
+  </si>
+  <si>
+    <t>3.23320</t>
+  </si>
+  <si>
+    <t>3.23170</t>
+  </si>
+  <si>
+    <t>3.23130</t>
+  </si>
+  <si>
+    <t>3.22610</t>
+  </si>
+  <si>
+    <t>3.22730</t>
+  </si>
+  <si>
+    <t>3.23640</t>
+  </si>
+  <si>
+    <t>3.26170</t>
+  </si>
+  <si>
+    <t>3.25470</t>
+  </si>
+  <si>
+    <t>3.23240</t>
+  </si>
+  <si>
+    <t>3.23020</t>
+  </si>
+  <si>
+    <t>3.22420</t>
+  </si>
+  <si>
+    <t>3.23570</t>
+  </si>
+  <si>
+    <t>3.23660</t>
+  </si>
+  <si>
+    <t>3.23820</t>
+  </si>
+  <si>
+    <t>3.22870</t>
+  </si>
+  <si>
+    <t>3.27620</t>
+  </si>
+  <si>
+    <t>3.19670</t>
+  </si>
+  <si>
+    <t>3.20130</t>
+  </si>
+  <si>
+    <t>3.20810</t>
+  </si>
+  <si>
+    <t>3.20230</t>
+  </si>
+  <si>
+    <t>3.21010</t>
+  </si>
+  <si>
+    <t>3.20570</t>
+  </si>
+  <si>
+    <t>3.21430</t>
+  </si>
+  <si>
+    <t>3.25500</t>
+  </si>
+  <si>
+    <t>3.21730</t>
+  </si>
+  <si>
+    <t>3.21130</t>
+  </si>
+  <si>
+    <t>3.21950</t>
+  </si>
+  <si>
+    <t>3.22690</t>
+  </si>
+  <si>
+    <t>3.22400</t>
+  </si>
+  <si>
+    <t>3.26330</t>
+  </si>
+  <si>
+    <t>3.26140</t>
+  </si>
+  <si>
+    <t>3.26030</t>
+  </si>
+  <si>
+    <t>3.25370</t>
+  </si>
+  <si>
+    <t>3.27220</t>
+  </si>
+  <si>
+    <t>3.26220</t>
+  </si>
+  <si>
+    <t>3.26940</t>
+  </si>
+  <si>
+    <t>3.27230</t>
+  </si>
+  <si>
+    <t>3.26600</t>
+  </si>
+  <si>
+    <t>3.26230</t>
+  </si>
+  <si>
+    <t>3.27420</t>
+  </si>
+  <si>
+    <t>3.30070</t>
+  </si>
+  <si>
+    <t>3.30420</t>
+  </si>
+  <si>
+    <t>3.29920</t>
+  </si>
+  <si>
+    <t>3.29520</t>
+  </si>
+  <si>
+    <t>3.29810</t>
+  </si>
+  <si>
+    <t>3.32120</t>
+  </si>
+  <si>
+    <t>3.31890</t>
+  </si>
+  <si>
+    <t>3.32920</t>
+  </si>
+  <si>
+    <t>3.32420</t>
+  </si>
+  <si>
+    <t>3.32670</t>
+  </si>
+  <si>
+    <t>3.33710</t>
+  </si>
+  <si>
+    <t>3.34710</t>
+  </si>
+  <si>
+    <t>3.36660</t>
+  </si>
+  <si>
+    <t>3.37320</t>
+  </si>
+  <si>
+    <t>3.36110</t>
+  </si>
+  <si>
+    <t>3.32560</t>
+  </si>
+  <si>
+    <t>3.30810</t>
+  </si>
+  <si>
+    <t>3.32270</t>
+  </si>
+  <si>
+    <t>3.32970</t>
+  </si>
+  <si>
+    <t>3.35060</t>
+  </si>
+  <si>
+    <t>3.32070</t>
+  </si>
+  <si>
+    <t>3.31870</t>
+  </si>
+  <si>
+    <t>3.31800</t>
+  </si>
+  <si>
+    <t>3.31220</t>
+  </si>
+  <si>
+    <t>3.30320</t>
+  </si>
+  <si>
+    <t>3.29890</t>
+  </si>
+  <si>
+    <t>3.29200</t>
+  </si>
+  <si>
+    <t>3.29180</t>
+  </si>
+  <si>
+    <t>3.29720</t>
+  </si>
+  <si>
+    <t>3.28880</t>
+  </si>
+  <si>
+    <t>3.30640</t>
+  </si>
+  <si>
+    <t>3.29040</t>
+  </si>
+  <si>
+    <t>3.28840</t>
+  </si>
+  <si>
+    <t>3.28420</t>
+  </si>
+  <si>
+    <t>3.28810</t>
+  </si>
+  <si>
+    <t>3.28620</t>
+  </si>
+  <si>
+    <t>3.28780</t>
+  </si>
+  <si>
+    <t>3.31120</t>
+  </si>
+  <si>
+    <t>3.30620</t>
+  </si>
+  <si>
+    <t>3.30040</t>
+  </si>
+  <si>
+    <t>3.29380</t>
+  </si>
+  <si>
+    <t>3.29640</t>
+  </si>
+  <si>
+    <t>3.30770</t>
+  </si>
+  <si>
+    <t>3.31010</t>
+  </si>
+  <si>
+    <t>3.31060</t>
+  </si>
+  <si>
+    <t>3.32550</t>
+  </si>
+  <si>
+    <t>3.33490</t>
+  </si>
+  <si>
+    <t>3.35070</t>
+  </si>
+  <si>
+    <t>3.32370</t>
+  </si>
+  <si>
+    <t>3.32510</t>
+  </si>
+  <si>
+    <t>3.32380</t>
+  </si>
+  <si>
+    <t>3.33120</t>
+  </si>
+  <si>
+    <t>3.30490</t>
+  </si>
+  <si>
+    <t>3.29570</t>
+  </si>
+  <si>
+    <t>3.28520</t>
+  </si>
+  <si>
+    <t>3.28190</t>
+  </si>
+  <si>
+    <t>3.28310</t>
+  </si>
+  <si>
+    <t>3.28330</t>
+  </si>
+  <si>
+    <t>3.27920</t>
+  </si>
+  <si>
+    <t>3.28080</t>
+  </si>
+  <si>
+    <t>3.28040</t>
+  </si>
+  <si>
+    <t>3.28130</t>
+  </si>
+  <si>
+    <t>3.27510</t>
+  </si>
+  <si>
+    <t>3.27030</t>
+  </si>
+  <si>
+    <t>3.28260</t>
+  </si>
+  <si>
+    <t>3.28610</t>
+  </si>
+  <si>
+    <t>3.28660</t>
+  </si>
+  <si>
+    <t>3.37480</t>
+  </si>
+  <si>
+    <t>3.37040</t>
+  </si>
+  <si>
+    <t>3.37580</t>
+  </si>
+  <si>
+    <t>3.37020</t>
+  </si>
+  <si>
+    <t>3.36690</t>
+  </si>
+  <si>
+    <t>3.29930</t>
+  </si>
+  <si>
+    <t>3.35530</t>
+  </si>
+  <si>
+    <t>3.33770</t>
+  </si>
+  <si>
+    <t>3.30780</t>
+  </si>
+  <si>
+    <t>3.37530</t>
+  </si>
+  <si>
+    <t>3.36510</t>
+  </si>
+  <si>
+    <t>3.36430</t>
+  </si>
+  <si>
+    <t>3.34790</t>
+  </si>
+  <si>
+    <t>3.32430</t>
+  </si>
+  <si>
+    <t>3.35930</t>
+  </si>
+  <si>
+    <t>3.36130</t>
+  </si>
+  <si>
+    <t>3.37630</t>
+  </si>
+  <si>
+    <t>3.38840</t>
+  </si>
+  <si>
+    <t>3.38930</t>
+  </si>
+  <si>
+    <t>3.38020</t>
+  </si>
+  <si>
+    <t>3.35840</t>
+  </si>
+  <si>
+    <t>3.34890</t>
+  </si>
+  <si>
+    <t>3.32740</t>
+  </si>
+  <si>
+    <t>3.32640</t>
+  </si>
+  <si>
+    <t>3.30530</t>
+  </si>
+  <si>
+    <t>3.31280</t>
+  </si>
+  <si>
+    <t>3.31090</t>
+  </si>
+  <si>
+    <t>3.31390</t>
+  </si>
+  <si>
+    <t>3.31730</t>
+  </si>
+  <si>
+    <t>3.31430</t>
+  </si>
+  <si>
+    <t>3.31190</t>
+  </si>
+  <si>
+    <t>3.30940</t>
+  </si>
+  <si>
+    <t>3.36490</t>
+  </si>
+  <si>
+    <t>3.37890</t>
+  </si>
+  <si>
+    <t>3.40510</t>
+  </si>
+  <si>
+    <t>3.43030</t>
+  </si>
+  <si>
+    <t>3.41130</t>
+  </si>
+  <si>
+    <t>3.41020</t>
+  </si>
+  <si>
+    <t>3.41720</t>
+  </si>
+  <si>
+    <t>3.48520</t>
+  </si>
+  <si>
+    <t>3.49620</t>
+  </si>
+  <si>
+    <t>3.51550</t>
+  </si>
+  <si>
+    <t>3.51620</t>
+  </si>
+  <si>
+    <t>3.51850</t>
+  </si>
+  <si>
+    <t>3.54000</t>
+  </si>
+  <si>
+    <t>3.55120</t>
+  </si>
+  <si>
+    <t>3.49420</t>
+  </si>
+  <si>
+    <t>3.45430</t>
+  </si>
+  <si>
+    <t>3.39520</t>
+  </si>
+  <si>
+    <t>3.42480</t>
+  </si>
+  <si>
+    <t>3.43640</t>
+  </si>
+  <si>
+    <t>3.35420</t>
+  </si>
+  <si>
+    <t>3.34100</t>
+  </si>
+  <si>
+    <t>3.39120</t>
+  </si>
+  <si>
+    <t>3.36420</t>
+  </si>
+  <si>
+    <t>3.36920</t>
+  </si>
+  <si>
+    <t>3.36570</t>
+  </si>
+  <si>
+    <t>3.42420</t>
+  </si>
+  <si>
+    <t>3.43750</t>
+  </si>
+  <si>
+    <t>3.41430</t>
+  </si>
+  <si>
+    <t>3.41950</t>
+  </si>
+  <si>
+    <t>3.40920</t>
+  </si>
+  <si>
+    <t>3.42840</t>
+  </si>
+  <si>
+    <t>3.39130</t>
+  </si>
+  <si>
+    <t>3.39980</t>
+  </si>
+  <si>
+    <t>3.42280</t>
+  </si>
+  <si>
+    <t>3.42920</t>
+  </si>
+  <si>
+    <t>3.41770</t>
+  </si>
+  <si>
+    <t>3.43940</t>
+  </si>
+  <si>
+    <t>3.46770</t>
+  </si>
+  <si>
+    <t>3.49640</t>
+  </si>
+  <si>
+    <t>3.48060</t>
+  </si>
+  <si>
+    <t>3.50030</t>
+  </si>
+  <si>
+    <t>3.49970</t>
+  </si>
+  <si>
+    <t>3.50160</t>
+  </si>
+  <si>
+    <t>3.51170</t>
+  </si>
+  <si>
+    <t>3.51980</t>
+  </si>
+  <si>
+    <t>3.49800</t>
+  </si>
+  <si>
+    <t>3.53470</t>
+  </si>
+  <si>
+    <t>3.53580</t>
+  </si>
+  <si>
+    <t>3.49470</t>
+  </si>
+  <si>
+    <t>3.49170</t>
+  </si>
+  <si>
+    <t>3.47470</t>
+  </si>
+  <si>
+    <t>3.48970</t>
+  </si>
+  <si>
+    <t>3.47970</t>
+  </si>
+  <si>
+    <t>3.50070</t>
+  </si>
+  <si>
+    <t>3.49940</t>
+  </si>
+  <si>
+    <t>3.50780</t>
+  </si>
+  <si>
+    <t>3.51350</t>
+  </si>
+  <si>
+    <t>3.51070</t>
+  </si>
+  <si>
+    <t>3.52470</t>
+  </si>
+  <si>
+    <t>3.53970</t>
+  </si>
+  <si>
+    <t>3.53460</t>
+  </si>
+  <si>
+    <t>3.55920</t>
+  </si>
+  <si>
+    <t>3.56420</t>
+  </si>
+  <si>
+    <t>3.56120</t>
+  </si>
+  <si>
+    <t>3.56940</t>
+  </si>
+  <si>
+    <t>3.56440</t>
+  </si>
+  <si>
+    <t>3.55720</t>
+  </si>
+  <si>
+    <t>3.52420</t>
+  </si>
+  <si>
+    <t>3.52440</t>
+  </si>
+  <si>
+    <t>3.52940</t>
+  </si>
+  <si>
+    <t>3.51940</t>
+  </si>
+  <si>
+    <t>3.55750</t>
+  </si>
+  <si>
+    <t>3.53940</t>
+  </si>
+  <si>
+    <t>3.52450</t>
+  </si>
+  <si>
+    <t>3.51440</t>
+  </si>
+  <si>
+    <t>3.52360</t>
+  </si>
+  <si>
+    <t>3.54760</t>
+  </si>
+  <si>
+    <t>3.57840</t>
+  </si>
+  <si>
+    <t>3.58430</t>
+  </si>
+  <si>
+    <t>3.59810</t>
+  </si>
+  <si>
+    <t>3.56210</t>
+  </si>
+  <si>
+    <t>3.55940</t>
+  </si>
+  <si>
+    <t>3.56240</t>
+  </si>
+  <si>
+    <t>3.57770</t>
+  </si>
+  <si>
+    <t>3.57800</t>
+  </si>
+  <si>
+    <t>3.57470</t>
+  </si>
+  <si>
+    <t>3.56500</t>
+  </si>
+  <si>
+    <t>3.58930</t>
+  </si>
+  <si>
+    <t>3.58890</t>
+  </si>
+  <si>
+    <t>3.58920</t>
+  </si>
+  <si>
+    <t>3.60310</t>
+  </si>
+  <si>
+    <t>3.59920</t>
+  </si>
+  <si>
+    <t>3.60210</t>
+  </si>
+  <si>
+    <t>3.58730</t>
+  </si>
+  <si>
+    <t>3.58320</t>
+  </si>
+  <si>
+    <t>3.58620</t>
+  </si>
+  <si>
+    <t>3.57340</t>
+  </si>
+  <si>
+    <t>3.60300</t>
+  </si>
+  <si>
+    <t>3.60930</t>
+  </si>
+  <si>
+    <t>3.62930</t>
+  </si>
+  <si>
+    <t>3.63400</t>
+  </si>
+  <si>
+    <t>3.58710</t>
+  </si>
+  <si>
+    <t>3.59590</t>
+  </si>
+  <si>
+    <t>3.60120</t>
+  </si>
+  <si>
+    <t>3.59410</t>
+  </si>
+  <si>
+    <t>3.58020</t>
+  </si>
+  <si>
+    <t>3.58230</t>
+  </si>
+  <si>
+    <t>3.58670</t>
+  </si>
+  <si>
+    <t>3.58950</t>
+  </si>
+  <si>
+    <t>3.58420</t>
+  </si>
+  <si>
+    <t>3.57940</t>
+  </si>
+  <si>
+    <t>3.57710</t>
+  </si>
+  <si>
+    <t>3.59710</t>
+  </si>
+  <si>
+    <t>3.60420</t>
+  </si>
+  <si>
+    <t>3.63360</t>
+  </si>
+  <si>
+    <t>3.62830</t>
+  </si>
+  <si>
+    <t>3.63220</t>
+  </si>
+  <si>
+    <t>3.63440</t>
+  </si>
+  <si>
+    <t>3.63450</t>
+  </si>
+  <si>
+    <t>3.64440</t>
+  </si>
+  <si>
+    <t>3.64330</t>
+  </si>
+  <si>
+    <t>3.64420</t>
+  </si>
+  <si>
+    <t>3.64080</t>
+  </si>
+  <si>
+    <t>3.64040</t>
+  </si>
+  <si>
+    <t>3.64130</t>
+  </si>
+  <si>
+    <t>3.64190</t>
+  </si>
+  <si>
+    <t>3.61800</t>
+  </si>
+  <si>
+    <t>3.61100</t>
+  </si>
+  <si>
+    <t>3.62650</t>
+  </si>
+  <si>
+    <t>3.62490</t>
+  </si>
+  <si>
+    <t>3.65960</t>
+  </si>
+  <si>
+    <t>3.68220</t>
+  </si>
+  <si>
+    <t>3.70130</t>
+  </si>
+  <si>
+    <t>3.73950</t>
+  </si>
+  <si>
+    <t>3.77780</t>
+  </si>
+  <si>
+    <t>3.82370</t>
+  </si>
+  <si>
+    <t>3.76760</t>
+  </si>
+  <si>
+    <t>3.75960</t>
+  </si>
+  <si>
+    <t>3.77080</t>
+  </si>
+  <si>
+    <t>3.71700</t>
+  </si>
+  <si>
+    <t>3.67600</t>
+  </si>
+  <si>
+    <t>3.67400</t>
+  </si>
+  <si>
+    <t>3.67300</t>
+  </si>
+  <si>
+    <t>3.71340</t>
+  </si>
+  <si>
+    <t>3.74300</t>
+  </si>
+  <si>
+    <t>3.73800</t>
+  </si>
+  <si>
+    <t>3.86960</t>
+  </si>
+  <si>
+    <t>3.88940</t>
+  </si>
+  <si>
+    <t>3.90950</t>
+  </si>
+  <si>
+    <t>3.95140</t>
+  </si>
+  <si>
+    <t>3.95950</t>
+  </si>
+  <si>
+    <t>3.95440</t>
+  </si>
+  <si>
+    <t>3.96380</t>
+  </si>
+  <si>
+    <t>3.87570</t>
+  </si>
+  <si>
+    <t>3.87540</t>
+  </si>
+  <si>
+    <t>3.81940</t>
+  </si>
+  <si>
+    <t>3.83360</t>
+  </si>
+  <si>
+    <t>3.88220</t>
+  </si>
+  <si>
+    <t>3.93650</t>
+  </si>
+  <si>
+    <t>3.93300</t>
+  </si>
+  <si>
+    <t>3.91320</t>
+  </si>
+  <si>
+    <t>3.90200</t>
+  </si>
+  <si>
+    <t>4.05350</t>
+  </si>
+  <si>
+    <t>4.06500</t>
+  </si>
+  <si>
+    <t>4.08410</t>
+  </si>
+  <si>
+    <t>4.07710</t>
+  </si>
+  <si>
+    <t>4.04730</t>
+  </si>
+  <si>
+    <t>4.06760</t>
+  </si>
+  <si>
+    <t>4.06300</t>
+  </si>
+  <si>
+    <t>4.07900</t>
+  </si>
+  <si>
+    <t>4.07760</t>
+  </si>
+  <si>
+    <t>4.08440</t>
+  </si>
+  <si>
+    <t>4.08900</t>
+  </si>
+  <si>
+    <t>4.09180</t>
+  </si>
+  <si>
+    <t>4.08650</t>
+  </si>
+  <si>
+    <t>4.09720</t>
+  </si>
+  <si>
+    <t>4.09420</t>
+  </si>
+  <si>
+    <t>4.09430</t>
+  </si>
+  <si>
+    <t>4.09570</t>
+  </si>
+  <si>
+    <t>4.11000</t>
+  </si>
+  <si>
+    <t>4.08600</t>
+  </si>
+  <si>
+    <t>3.91700</t>
+  </si>
+  <si>
+    <t>3.93000</t>
+  </si>
+  <si>
+    <t>3.94700</t>
+  </si>
+  <si>
+    <t>3.94200</t>
+  </si>
+  <si>
+    <t>3.93550</t>
+  </si>
+  <si>
+    <t>3.94080</t>
+  </si>
+  <si>
+    <t>3.95580</t>
+  </si>
+  <si>
+    <t>3.96160</t>
+  </si>
+  <si>
+    <t>3.96320</t>
+  </si>
+  <si>
+    <t>3.97630</t>
+  </si>
+  <si>
+    <t>3.99960</t>
+  </si>
+  <si>
+    <t>3.99500</t>
+  </si>
+  <si>
+    <t>3.99950</t>
+  </si>
+  <si>
+    <t>4.00010</t>
+  </si>
+  <si>
+    <t>4.00120</t>
+  </si>
+  <si>
+    <t>4.00370</t>
+  </si>
+  <si>
+    <t>4.00540</t>
+  </si>
+  <si>
+    <t>4.00520</t>
+  </si>
+  <si>
+    <t>3.98050</t>
+  </si>
+  <si>
+    <t>3.98470</t>
+  </si>
+  <si>
+    <t>3.97790</t>
+  </si>
+  <si>
+    <t>4.01100</t>
+  </si>
+  <si>
+    <t>4.02970</t>
+  </si>
+  <si>
+    <t>4.04690</t>
+  </si>
+  <si>
+    <t>4.04970</t>
+  </si>
+  <si>
+    <t>4.05430</t>
+  </si>
+  <si>
+    <t>4.06220</t>
+  </si>
+  <si>
+    <t>4.05970</t>
+  </si>
+  <si>
+    <t>4.05000</t>
+  </si>
+  <si>
+    <t>4.03850</t>
+  </si>
+  <si>
+    <t>4.03980</t>
+  </si>
+  <si>
+    <t>4.04010</t>
+  </si>
+  <si>
+    <t>4.02590</t>
+  </si>
+  <si>
+    <t>4.02390</t>
+  </si>
+  <si>
+    <t>4.03750</t>
+  </si>
+  <si>
+    <t>4.02260</t>
+  </si>
+  <si>
+    <t>3.98120</t>
+  </si>
+  <si>
+    <t>3.97000</t>
+  </si>
+  <si>
+    <t>3.94400</t>
+  </si>
+  <si>
+    <t>3.97640</t>
+  </si>
+  <si>
+    <t>3.94030</t>
+  </si>
+  <si>
+    <t>3.94890</t>
+  </si>
+  <si>
+    <t>3.90850</t>
+  </si>
+  <si>
+    <t>3.87610</t>
+  </si>
+  <si>
+    <t>3.87790</t>
+  </si>
+  <si>
+    <t>3.86570</t>
+  </si>
+  <si>
+    <t>3.85140</t>
+  </si>
+  <si>
+    <t>3.82360</t>
+  </si>
+  <si>
+    <t>3.83650</t>
+  </si>
+  <si>
+    <t>3.82830</t>
+  </si>
+  <si>
+    <t>3.84170</t>
+  </si>
+  <si>
+    <t>3.83150</t>
+  </si>
+  <si>
+    <t>3.82440</t>
+  </si>
+  <si>
+    <t>3.71760</t>
+  </si>
+  <si>
+    <t>3.69430</t>
+  </si>
+  <si>
+    <t>3.70360</t>
+  </si>
+  <si>
+    <t>3.76940</t>
+  </si>
+  <si>
+    <t>3.77070</t>
+  </si>
+  <si>
+    <t>3.74480</t>
+  </si>
+  <si>
+    <t>3.70600</t>
+  </si>
+  <si>
+    <t>3.71020</t>
+  </si>
+  <si>
+    <t>3.69600</t>
+  </si>
+  <si>
+    <t>3.71770</t>
+  </si>
+  <si>
+    <t>3.70470</t>
+  </si>
+  <si>
+    <t>3.77970</t>
+  </si>
+  <si>
+    <t>3.76280</t>
+  </si>
+  <si>
+    <t>3.76290</t>
+  </si>
+  <si>
+    <t>3.71480</t>
+  </si>
+  <si>
+    <t>3.70750</t>
+  </si>
+  <si>
+    <t>3.61720</t>
+  </si>
+  <si>
+    <t>3.69180</t>
+  </si>
+  <si>
+    <t>3.69580</t>
+  </si>
+  <si>
+    <t>3.70580</t>
+  </si>
+  <si>
+    <t>3.70180</t>
+  </si>
+  <si>
+    <t>3.72050</t>
+  </si>
+  <si>
+    <t>3.70280</t>
+  </si>
+  <si>
+    <t>3.73160</t>
+  </si>
+  <si>
+    <t>3.76340</t>
+  </si>
+  <si>
+    <t>3.79890</t>
+  </si>
+  <si>
+    <t>3.81890</t>
+  </si>
+  <si>
+    <t>3.82190</t>
+  </si>
+  <si>
+    <t>3.83080</t>
+  </si>
+  <si>
+    <t>3.81400</t>
+  </si>
+  <si>
+    <t>3.75800</t>
+  </si>
+  <si>
+    <t>3.78420</t>
+  </si>
+  <si>
+    <t>3.76700</t>
+  </si>
+  <si>
+    <t>3.75620</t>
+  </si>
+  <si>
+    <t>3.70670</t>
+  </si>
+  <si>
+    <t>3.67980</t>
+  </si>
+  <si>
+    <t>3.66970</t>
+  </si>
+  <si>
+    <t>3.64180</t>
+  </si>
+  <si>
+    <t>3.65250</t>
+  </si>
+  <si>
+    <t>3.65970</t>
+  </si>
+  <si>
+    <t>3.67440</t>
+  </si>
+  <si>
+    <t>3.70080</t>
+  </si>
+  <si>
+    <t>3.68470</t>
+  </si>
+  <si>
+    <t>3.72220</t>
+  </si>
+  <si>
+    <t>3.72730</t>
+  </si>
+  <si>
+    <t>3.73840</t>
+  </si>
+  <si>
+    <t>3.74000</t>
+  </si>
+  <si>
+    <t>3.74980</t>
+  </si>
+  <si>
+    <t>3.69640</t>
+  </si>
+  <si>
+    <t>3.70560</t>
+  </si>
+  <si>
+    <t>3.70760</t>
+  </si>
+  <si>
+    <t>3.71220</t>
+  </si>
+  <si>
+    <t>3.76210</t>
+  </si>
+  <si>
+    <t>3.81180</t>
+  </si>
+  <si>
+    <t>3.81490</t>
+  </si>
+  <si>
+    <t>3.89660</t>
+  </si>
+  <si>
+    <t>3.94690</t>
+  </si>
+  <si>
+    <t>3.87890</t>
+  </si>
+  <si>
+    <t>3.86910</t>
+  </si>
+  <si>
+    <t>3.87160</t>
+  </si>
+  <si>
+    <t>3.85450</t>
+  </si>
+  <si>
+    <t>3.85480</t>
+  </si>
+  <si>
+    <t>3.87700</t>
+  </si>
+  <si>
+    <t>3.90020</t>
+  </si>
+  <si>
+    <t>3.89630</t>
+  </si>
+  <si>
+    <t>3.89850</t>
+  </si>
+  <si>
+    <t>3.87850</t>
+  </si>
+  <si>
+    <t>3.88660</t>
+  </si>
+  <si>
+    <t>3.90810</t>
+  </si>
+  <si>
+    <t>3.87190</t>
+  </si>
+  <si>
     <t>3.86070</t>
   </si>
   <si>
-    <t>2.92000</t>
-  </si>
-  <si>
-    <t>2.92500</t>
-  </si>
-  <si>
-    <t>2.94800</t>
-  </si>
-  <si>
-    <t>2.95700</t>
-  </si>
-  <si>
-    <t>2.97600</t>
-  </si>
-  <si>
-    <t>2.99100</t>
-  </si>
-  <si>
-    <t>2.98900</t>
-  </si>
-  <si>
-    <t>2.99800</t>
-  </si>
-  <si>
-    <t>3.01550</t>
-  </si>
-  <si>
-    <t>3.06250</t>
-  </si>
-  <si>
-    <t>3.07050</t>
-  </si>
-  <si>
-    <t>3.08350</t>
-  </si>
-  <si>
-    <t>3.08450</t>
-  </si>
-  <si>
-    <t>3.08550</t>
-  </si>
-  <si>
-    <t>3.08800</t>
-  </si>
-  <si>
-    <t>3.09750</t>
-  </si>
-  <si>
-    <t>3.09600</t>
-  </si>
-  <si>
-    <t>3.09950</t>
-  </si>
-  <si>
-    <t>3.09800</t>
-  </si>
-  <si>
-    <t>3.07600</t>
-  </si>
-  <si>
-    <t>3.08900</t>
-  </si>
-  <si>
-    <t>3.10250</t>
-  </si>
-  <si>
-    <t>3.12700</t>
-  </si>
-  <si>
-    <t>3.12250</t>
-  </si>
-  <si>
-    <t>3.12500</t>
-  </si>
-  <si>
-    <t>3.12400</t>
-  </si>
-  <si>
-    <t>3.16000</t>
-  </si>
-  <si>
-    <t>3.13400</t>
-  </si>
-  <si>
-    <t>3.12750</t>
-  </si>
-  <si>
-    <t>3.14000</t>
-  </si>
-  <si>
-    <t>3.15300</t>
-  </si>
-  <si>
-    <t>3.15000</t>
-  </si>
-  <si>
-    <t>3.14900</t>
-  </si>
-  <si>
-    <t>3.14300</t>
-  </si>
-  <si>
-    <t>3.14800</t>
-  </si>
-  <si>
-    <t>3.17000</t>
-  </si>
-  <si>
-    <t>3.15250</t>
-  </si>
-  <si>
-    <t>3.15650</t>
-  </si>
-  <si>
-    <t>3.15500</t>
-  </si>
-  <si>
-    <t>3.14500</t>
-  </si>
-  <si>
-    <t>3.15450</t>
-  </si>
-  <si>
-    <t>3.16050</t>
-  </si>
-  <si>
-    <t>3.16450</t>
-  </si>
-  <si>
-    <t>3.15850</t>
-  </si>
-  <si>
-    <t>3.17200</t>
-  </si>
-  <si>
-    <t>3.17950</t>
-  </si>
-  <si>
-    <t>3.17300</t>
-  </si>
-  <si>
-    <t>3.17800</t>
-  </si>
-  <si>
-    <t>3.18200</t>
-  </si>
-  <si>
-    <t>3.18600</t>
-  </si>
-  <si>
-    <t>3.17700</t>
-  </si>
-  <si>
-    <t>3.18400</t>
-  </si>
-  <si>
-    <t>3.19000</t>
-  </si>
-  <si>
-    <t>3.19400</t>
-  </si>
-  <si>
-    <t>3.20300</t>
-  </si>
-  <si>
-    <t>3.21800</t>
-  </si>
-  <si>
-    <t>3.22000</t>
-  </si>
-  <si>
-    <t>3.21900</t>
-  </si>
-  <si>
-    <t>3.21450</t>
-  </si>
-  <si>
-    <t>3.19500</t>
-  </si>
-  <si>
-    <t>3.21600</t>
-  </si>
-  <si>
-    <t>3.23900</t>
-  </si>
-  <si>
-    <t>3.22200</t>
-  </si>
-  <si>
-    <t>3.21700</t>
-  </si>
-  <si>
-    <t>3.24210</t>
-  </si>
-  <si>
-    <t>3.23400</t>
-  </si>
-  <si>
-    <t>3.24100</t>
-  </si>
-  <si>
-    <t>3.25600</t>
-  </si>
-  <si>
-    <t>3.25900</t>
-  </si>
-  <si>
-    <t>3.28600</t>
-  </si>
-  <si>
-    <t>3.28900</t>
-  </si>
-  <si>
-    <t>3.32400</t>
-  </si>
-  <si>
-    <t>3.34500</t>
-  </si>
-  <si>
-    <t>3.37500</t>
-  </si>
-  <si>
-    <t>3.37700</t>
-  </si>
-  <si>
-    <t>3.37600</t>
-  </si>
-  <si>
-    <t>3.37900</t>
-  </si>
-  <si>
-    <t>3.38200</t>
-  </si>
-  <si>
-    <t>3.40800</t>
-  </si>
-  <si>
-    <t>3.40900</t>
-  </si>
-  <si>
-    <t>3.41250</t>
-  </si>
-  <si>
-    <t>3.43500</t>
-  </si>
-  <si>
-    <t>3.41700</t>
-  </si>
-  <si>
-    <t>3.43300</t>
-  </si>
-  <si>
-    <t>3.44500</t>
-  </si>
-  <si>
-    <t>3.44690</t>
-  </si>
-  <si>
-    <t>3.46500</t>
-  </si>
-  <si>
-    <t>3.46850</t>
-  </si>
-  <si>
-    <t>3.46550</t>
-  </si>
-  <si>
-    <t>3.47300</t>
-  </si>
-  <si>
-    <t>3.48550</t>
-  </si>
-  <si>
-    <t>3.49300</t>
-  </si>
-  <si>
-    <t>3.49350</t>
-  </si>
-  <si>
-    <t>3.48100</t>
-  </si>
-  <si>
-    <t>3.50200</t>
-  </si>
-  <si>
-    <t>3.51500</t>
-  </si>
-  <si>
-    <t>3.51100</t>
-  </si>
-  <si>
-    <t>3.51900</t>
-  </si>
-  <si>
-    <t>3.53000</t>
-  </si>
-  <si>
-    <t>3.52950</t>
-  </si>
-  <si>
-    <t>3.46010</t>
-  </si>
-  <si>
-    <t>3.46300</t>
-  </si>
-  <si>
-    <t>3.46130</t>
-  </si>
-  <si>
-    <t>3.42300</t>
-  </si>
-  <si>
-    <t>3.36700</t>
-  </si>
-  <si>
-    <t>3.39100</t>
-  </si>
-  <si>
-    <t>3.26500</t>
-  </si>
-  <si>
-    <t>3.27600</t>
-  </si>
-  <si>
-    <t>3.33370</t>
-  </si>
-  <si>
-    <t>3.33800</t>
-  </si>
-  <si>
-    <t>3.34400</t>
-  </si>
-  <si>
-    <t>3.34200</t>
-  </si>
-  <si>
-    <t>3.34750</t>
-  </si>
-  <si>
-    <t>3.31400</t>
-  </si>
-  <si>
-    <t>3.31000</t>
-  </si>
-  <si>
-    <t>3.35200</t>
-  </si>
-  <si>
-    <t>3.39300</t>
-  </si>
-  <si>
-    <t>3.39400</t>
-  </si>
-  <si>
-    <t>3.40200</t>
-  </si>
-  <si>
-    <t>3.41400</t>
-  </si>
-  <si>
-    <t>3.39200</t>
-  </si>
-  <si>
-    <t>3.40250</t>
-  </si>
-  <si>
-    <t>3.40600</t>
-  </si>
-  <si>
-    <t>3.38500</t>
-  </si>
-  <si>
-    <t>3.38800</t>
-  </si>
-  <si>
-    <t>3.41680</t>
-  </si>
-  <si>
-    <t>3.42000</t>
-  </si>
-  <si>
-    <t>3.41070</t>
-  </si>
-  <si>
-    <t>3.40310</t>
-  </si>
-  <si>
-    <t>3.40620</t>
-  </si>
-  <si>
-    <t>3.38830</t>
-  </si>
-  <si>
-    <t>3.36140</t>
-  </si>
-  <si>
-    <t>3.38410</t>
-  </si>
-  <si>
-    <t>3.37680</t>
-  </si>
-  <si>
-    <t>3.39150</t>
-  </si>
-  <si>
-    <t>3.37050</t>
-  </si>
-  <si>
-    <t>3.29750</t>
-  </si>
-  <si>
-    <t>3.29910</t>
-  </si>
-  <si>
-    <t>3.25800</t>
-  </si>
-  <si>
-    <t>3.24500</t>
-  </si>
-  <si>
-    <t>3.25280</t>
-  </si>
-  <si>
-    <t>3.27250</t>
-  </si>
-  <si>
-    <t>3.30090</t>
-  </si>
-  <si>
-    <t>3.30380</t>
-  </si>
-  <si>
-    <t>3.25250</t>
-  </si>
-  <si>
-    <t>3.24560</t>
-  </si>
-  <si>
-    <t>3.24790</t>
-  </si>
-  <si>
-    <t>3.25050</t>
-  </si>
-  <si>
-    <t>3.25450</t>
-  </si>
-  <si>
-    <t>3.25400</t>
-  </si>
-  <si>
-    <t>3.25570</t>
-  </si>
-  <si>
-    <t>3.25080</t>
-  </si>
-  <si>
-    <t>3.25330</t>
-  </si>
-  <si>
-    <t>3.25070</t>
-  </si>
-  <si>
-    <t>3.24440</t>
-  </si>
-  <si>
-    <t>3.27380</t>
-  </si>
-  <si>
-    <t>3.26100</t>
-  </si>
-  <si>
-    <t>3.24800</t>
-  </si>
-  <si>
-    <t>3.24090</t>
-  </si>
-  <si>
-    <t>3.24060</t>
-  </si>
-  <si>
-    <t>3.26730</t>
-  </si>
-  <si>
-    <t>3.26010</t>
-  </si>
-  <si>
-    <t>3.24270</t>
-  </si>
-  <si>
-    <t>3.24570</t>
-  </si>
-  <si>
-    <t>3.25510</t>
-  </si>
-  <si>
-    <t>3.23730</t>
-  </si>
-  <si>
-    <t>3.21750</t>
-  </si>
-  <si>
-    <t>3.21850</t>
-  </si>
-  <si>
-    <t>3.22350</t>
-  </si>
-  <si>
-    <t>3.21060</t>
-  </si>
-  <si>
-    <t>3.26930</t>
-  </si>
-  <si>
-    <t>3.28100</t>
-  </si>
-  <si>
-    <t>3.26830</t>
-  </si>
-  <si>
-    <t>3.27130</t>
-  </si>
-  <si>
-    <t>3.22590</t>
-  </si>
-  <si>
-    <t>3.22600</t>
-  </si>
-  <si>
-    <t>3.22580</t>
-  </si>
-  <si>
-    <t>3.23050</t>
-  </si>
-  <si>
-    <t>3.22850</t>
-  </si>
-  <si>
-    <t>3.22360</t>
-  </si>
-  <si>
-    <t>3.22100</t>
-  </si>
-  <si>
-    <t>3.26200</t>
-  </si>
-  <si>
-    <t>3.28070</t>
-  </si>
-  <si>
-    <t>3.27470</t>
-  </si>
-  <si>
-    <t>3.27690</t>
-  </si>
-  <si>
-    <t>3.29160</t>
-  </si>
-  <si>
-    <t>3.27710</t>
-  </si>
-  <si>
-    <t>3.27490</t>
-  </si>
-  <si>
-    <t>3.27460</t>
-  </si>
-  <si>
-    <t>3.27240</t>
-  </si>
-  <si>
-    <t>3.32570</t>
-  </si>
-  <si>
-    <t>3.30730</t>
-  </si>
-  <si>
-    <t>3.29270</t>
-  </si>
-  <si>
-    <t>3.30430</t>
-  </si>
-  <si>
-    <t>3.30190</t>
-  </si>
-  <si>
-    <t>3.30550</t>
-  </si>
-  <si>
-    <t>3.33630</t>
-  </si>
-  <si>
-    <t>3.37760</t>
-  </si>
-  <si>
-    <t>3.34050</t>
-  </si>
-  <si>
-    <t>3.31180</t>
-  </si>
-  <si>
-    <t>3.30720</t>
-  </si>
-  <si>
-    <t>3.30540</t>
-  </si>
-  <si>
-    <t>3.30920</t>
-  </si>
-  <si>
-    <t>3.31020</t>
-  </si>
-  <si>
-    <t>3.31630</t>
-  </si>
-  <si>
-    <t>3.30340</t>
-  </si>
-  <si>
-    <t>3.29770</t>
-  </si>
-  <si>
-    <t>3.30180</t>
-  </si>
-  <si>
-    <t>3.29980</t>
-  </si>
-  <si>
-    <t>3.31240</t>
-  </si>
-  <si>
-    <t>3.30210</t>
-  </si>
-  <si>
-    <t>3.29440</t>
-  </si>
-  <si>
-    <t>3.33320</t>
-  </si>
-  <si>
-    <t>3.32590</t>
-  </si>
-  <si>
-    <t>3.31880</t>
-  </si>
-  <si>
-    <t>3.35190</t>
-  </si>
-  <si>
-    <t>3.38070</t>
-  </si>
-  <si>
-    <t>3.37920</t>
-  </si>
-  <si>
-    <t>3.35460</t>
-  </si>
-  <si>
-    <t>3.33170</t>
-  </si>
-  <si>
-    <t>3.39190</t>
-  </si>
-  <si>
-    <t>3.38460</t>
-  </si>
-  <si>
-    <t>3.39780</t>
-  </si>
-  <si>
-    <t>3.38160</t>
-  </si>
-  <si>
-    <t>3.37830</t>
-  </si>
-  <si>
-    <t>3.38430</t>
-  </si>
-  <si>
-    <t>3.34930</t>
-  </si>
-  <si>
-    <t>3.35630</t>
-  </si>
-  <si>
-    <t>3.36230</t>
-  </si>
-  <si>
-    <t>3.36830</t>
-  </si>
-  <si>
-    <t>3.39030</t>
-  </si>
-  <si>
-    <t>3.39830</t>
-  </si>
-  <si>
-    <t>3.39230</t>
-  </si>
-  <si>
-    <t>3.38130</t>
-  </si>
-  <si>
-    <t>3.37260</t>
-  </si>
-  <si>
-    <t>3.37330</t>
-  </si>
-  <si>
-    <t>3.35230</t>
-  </si>
-  <si>
-    <t>3.35330</t>
-  </si>
-  <si>
-    <t>3.34630</t>
-  </si>
-  <si>
-    <t>3.39730</t>
-  </si>
-  <si>
-    <t>3.38230</t>
-  </si>
-  <si>
-    <t>3.39430</t>
-  </si>
-  <si>
-    <t>3.40530</t>
-  </si>
-  <si>
-    <t>3.37930</t>
-  </si>
-  <si>
-    <t>3.38030</t>
-  </si>
-  <si>
-    <t>3.39930</t>
-  </si>
-  <si>
-    <t>3.37730</t>
-  </si>
-  <si>
-    <t>3.36160</t>
-  </si>
-  <si>
-    <t>3.34430</t>
-  </si>
-  <si>
-    <t>3.34230</t>
-  </si>
-  <si>
-    <t>3.33430</t>
-  </si>
-  <si>
-    <t>3.32530</t>
-  </si>
-  <si>
-    <t>3.32230</t>
-  </si>
-  <si>
-    <t>3.31830</t>
-  </si>
-  <si>
-    <t>3.32830</t>
-  </si>
-  <si>
-    <t>3.33330</t>
-  </si>
-  <si>
-    <t>3.36000</t>
-  </si>
-  <si>
-    <t>3.32630</t>
-  </si>
-  <si>
-    <t>3.32330</t>
-  </si>
-  <si>
-    <t>3.33830</t>
-  </si>
-  <si>
-    <t>3.34830</t>
-  </si>
-  <si>
-    <t>3.41530</t>
-  </si>
-  <si>
-    <t>3.43630</t>
-  </si>
-  <si>
-    <t>3.45830</t>
-  </si>
-  <si>
-    <t>3.47000</t>
-  </si>
-  <si>
-    <t>3.44530</t>
-  </si>
-  <si>
-    <t>3.46000</t>
-  </si>
-  <si>
-    <t>3.48330</t>
-  </si>
-  <si>
-    <t>3.51160</t>
-  </si>
-  <si>
-    <t>3.50430</t>
-  </si>
-  <si>
-    <t>3.51650</t>
-  </si>
-  <si>
-    <t>3.55830</t>
-  </si>
-  <si>
-    <t>3.53730</t>
-  </si>
-  <si>
-    <t>3.55930</t>
-  </si>
-  <si>
-    <t>3.55710</t>
-  </si>
-  <si>
-    <t>3.57330</t>
-  </si>
-  <si>
-    <t>3.54430</t>
-  </si>
-  <si>
-    <t>3.47720</t>
-  </si>
-  <si>
-    <t>3.43930</t>
-  </si>
-  <si>
-    <t>3.44130</t>
-  </si>
-  <si>
-    <t>3.47430</t>
-  </si>
-  <si>
-    <t>3.46120</t>
-  </si>
-  <si>
-    <t>3.45800</t>
-  </si>
-  <si>
-    <t>3.39010</t>
-  </si>
-  <si>
-    <t>3.40820</t>
-  </si>
-  <si>
-    <t>3.42630</t>
-  </si>
-  <si>
-    <t>3.41230</t>
-  </si>
-  <si>
-    <t>3.41150</t>
-  </si>
-  <si>
-    <t>3.42030</t>
-  </si>
-  <si>
-    <t>3.41450</t>
-  </si>
-  <si>
-    <t>3.40650</t>
-  </si>
-  <si>
-    <t>3.43700</t>
-  </si>
-  <si>
-    <t>3.44030</t>
-  </si>
-  <si>
-    <t>3.45720</t>
-  </si>
-  <si>
-    <t>3.41260</t>
-  </si>
-  <si>
-    <t>3.43360</t>
-  </si>
-  <si>
-    <t>3.43080</t>
-  </si>
-  <si>
-    <t>3.43430</t>
-  </si>
-  <si>
-    <t>3.45620</t>
-  </si>
-  <si>
-    <t>3.44970</t>
-  </si>
-  <si>
-    <t>3.42850</t>
-  </si>
-  <si>
-    <t>3.43760</t>
-  </si>
-  <si>
-    <t>3.44600</t>
-  </si>
-  <si>
-    <t>3.45130</t>
-  </si>
-  <si>
-    <t>3.44250</t>
-  </si>
-  <si>
-    <t>3.46370</t>
-  </si>
-  <si>
-    <t>3.46400</t>
-  </si>
-  <si>
-    <t>3.48750</t>
-  </si>
-  <si>
-    <t>3.47750</t>
-  </si>
-  <si>
-    <t>3.49950</t>
-  </si>
-  <si>
-    <t>3.52030</t>
-  </si>
-  <si>
-    <t>3.52210</t>
-  </si>
-  <si>
-    <t>3.50480</t>
-  </si>
-  <si>
-    <t>3.52180</t>
-  </si>
-  <si>
-    <t>3.53400</t>
-  </si>
-  <si>
-    <t>3.52880</t>
-  </si>
-  <si>
-    <t>3.54870</t>
-  </si>
-  <si>
-    <t>3.54330</t>
-  </si>
-  <si>
-    <t>3.53900</t>
-  </si>
-  <si>
-    <t>3.55280</t>
-  </si>
-  <si>
-    <t>3.54980</t>
-  </si>
-  <si>
-    <t>3.54470</t>
-  </si>
-  <si>
-    <t>3.53080</t>
-  </si>
-  <si>
-    <t>3.50980</t>
-  </si>
-  <si>
-    <t>3.51870</t>
-  </si>
-  <si>
-    <t>3.52400</t>
-  </si>
-  <si>
-    <t>3.53300</t>
-  </si>
-  <si>
-    <t>3.51860</t>
-  </si>
-  <si>
-    <t>3.53280</t>
-  </si>
-  <si>
-    <t>3.54680</t>
-  </si>
-  <si>
-    <t>3.55100</t>
-  </si>
-  <si>
-    <t>3.56100</t>
-  </si>
-  <si>
-    <t>3.56360</t>
-  </si>
-  <si>
-    <t>3.57180</t>
-  </si>
-  <si>
-    <t>3.57430</t>
-  </si>
-  <si>
-    <t>3.57920</t>
-  </si>
-  <si>
-    <t>3.57960</t>
-  </si>
-  <si>
-    <t>3.57440</t>
-  </si>
-  <si>
-    <t>3.57750</t>
-  </si>
-  <si>
-    <t>3.58470</t>
-  </si>
-  <si>
-    <t>3.59470</t>
-  </si>
-  <si>
-    <t>3.59090</t>
-  </si>
-  <si>
-    <t>3.57910</t>
-  </si>
-  <si>
-    <t>3.56230</t>
-  </si>
-  <si>
-    <t>3.54930</t>
-  </si>
-  <si>
-    <t>3.53450</t>
-  </si>
-  <si>
-    <t>3.55650</t>
-  </si>
-  <si>
-    <t>3.54340</t>
-  </si>
-  <si>
-    <t>3.54750</t>
-  </si>
-  <si>
-    <t>3.57550</t>
-  </si>
-  <si>
-    <t>3.54700</t>
-  </si>
-  <si>
-    <t>3.52750</t>
-  </si>
-  <si>
-    <t>3.55860</t>
-  </si>
-  <si>
-    <t>3.56900</t>
-  </si>
-  <si>
-    <t>3.57900</t>
-  </si>
-  <si>
-    <t>3.59500</t>
-  </si>
-  <si>
-    <t>3.59460</t>
-  </si>
-  <si>
-    <t>3.59760</t>
-  </si>
-  <si>
-    <t>3.60230</t>
-  </si>
-  <si>
-    <t>3.60860</t>
-  </si>
-  <si>
-    <t>3.62660</t>
-  </si>
-  <si>
-    <t>3.62150</t>
-  </si>
-  <si>
-    <t>3.59200</t>
-  </si>
-  <si>
-    <t>3.58340</t>
-  </si>
-  <si>
-    <t>3.59820</t>
-  </si>
-  <si>
-    <t>3.60460</t>
-  </si>
-  <si>
-    <t>3.59240</t>
-  </si>
-  <si>
-    <t>3.59150</t>
-  </si>
-  <si>
-    <t>3.58520</t>
-  </si>
-  <si>
-    <t>3.59220</t>
-  </si>
-  <si>
-    <t>3.59850</t>
-  </si>
-  <si>
-    <t>3.60030</t>
-  </si>
-  <si>
-    <t>3.60410</t>
-  </si>
-  <si>
-    <t>3.60720</t>
-  </si>
-  <si>
-    <t>3.60430</t>
-  </si>
-  <si>
-    <t>3.60850</t>
-  </si>
-  <si>
-    <t>3.61750</t>
-  </si>
-  <si>
-    <t>3.61250</t>
-  </si>
-  <si>
-    <t>3.61450</t>
-  </si>
-  <si>
-    <t>3.60280</t>
-  </si>
-  <si>
-    <t>3.60040</t>
-  </si>
-  <si>
-    <t>3.60330</t>
-  </si>
-  <si>
-    <t>3.63030</t>
-  </si>
-  <si>
-    <t>3.62960</t>
-  </si>
-  <si>
-    <t>3.64100</t>
-  </si>
-  <si>
-    <t>3.66730</t>
-  </si>
-  <si>
-    <t>3.61150</t>
-  </si>
-  <si>
-    <t>3.60360</t>
-  </si>
-  <si>
-    <t>3.60960</t>
-  </si>
-  <si>
-    <t>3.61040</t>
-  </si>
-  <si>
-    <t>3.60560</t>
-  </si>
-  <si>
-    <t>3.60660</t>
-  </si>
-  <si>
-    <t>3.60880</t>
-  </si>
-  <si>
-    <t>3.59530</t>
-  </si>
-  <si>
-    <t>3.60370</t>
-  </si>
-  <si>
-    <t>3.60250</t>
-  </si>
-  <si>
-    <t>3.60550</t>
-  </si>
-  <si>
-    <t>3.60670</t>
-  </si>
-  <si>
-    <t>3.60350</t>
-  </si>
-  <si>
-    <t>3.59400</t>
-  </si>
-  <si>
-    <t>3.58980</t>
-  </si>
-  <si>
-    <t>3.59880</t>
-  </si>
-  <si>
-    <t>3.60740</t>
-  </si>
-  <si>
-    <t>3.61940</t>
-  </si>
-  <si>
-    <t>3.61660</t>
-  </si>
-  <si>
-    <t>3.61260</t>
-  </si>
-  <si>
-    <t>3.61400</t>
-  </si>
-  <si>
-    <t>3.61900</t>
-  </si>
-  <si>
-    <t>3.62700</t>
-  </si>
-  <si>
-    <t>3.62600</t>
-  </si>
-  <si>
-    <t>3.62400</t>
-  </si>
-  <si>
-    <t>3.62000</t>
-  </si>
-  <si>
-    <t>3.61600</t>
-  </si>
-  <si>
-    <t>3.60900</t>
-  </si>
-  <si>
-    <t>3.63350</t>
-  </si>
-  <si>
-    <t>3.64500</t>
-  </si>
-  <si>
-    <t>3.64450</t>
-  </si>
-  <si>
-    <t>3.65100</t>
-  </si>
-  <si>
-    <t>3.64200</t>
-  </si>
-  <si>
-    <t>3.63600</t>
-  </si>
-  <si>
-    <t>3.63900</t>
-  </si>
-  <si>
-    <t>3.63500</t>
-  </si>
-  <si>
-    <t>3.64000</t>
-  </si>
-  <si>
-    <t>3.64300</t>
-  </si>
-  <si>
-    <t>3.63860</t>
-  </si>
-  <si>
-    <t>3.63980</t>
-  </si>
-  <si>
-    <t>3.64660</t>
-  </si>
-  <si>
-    <t>3.64470</t>
-  </si>
-  <si>
-    <t>3.65200</t>
-  </si>
-  <si>
-    <t>3.65660</t>
-  </si>
-  <si>
-    <t>3.65070</t>
-  </si>
-  <si>
-    <t>3.65450</t>
-  </si>
-  <si>
-    <t>3.65560</t>
-  </si>
-  <si>
-    <t>3.65280</t>
-  </si>
-  <si>
-    <t>3.64840</t>
-  </si>
-  <si>
-    <t>3.65500</t>
-  </si>
-  <si>
-    <t>3.66500</t>
-  </si>
-  <si>
-    <t>3.67700</t>
-  </si>
-  <si>
-    <t>3.68100</t>
-  </si>
-  <si>
-    <t>3.68950</t>
-  </si>
-  <si>
-    <t>3.70300</t>
-  </si>
-  <si>
-    <t>3.69200</t>
-  </si>
-  <si>
-    <t>3.69300</t>
-  </si>
-  <si>
-    <t>3.70800</t>
-  </si>
-  <si>
-    <t>3.72100</t>
-  </si>
-  <si>
-    <t>3.70400</t>
-  </si>
-  <si>
-    <t>3.70500</t>
-  </si>
-  <si>
-    <t>3.70700</t>
-  </si>
-  <si>
-    <t>3.72300</t>
-  </si>
-  <si>
-    <t>3.71900</t>
-  </si>
-  <si>
-    <t>3.72400</t>
-  </si>
-  <si>
-    <t>3.73500</t>
-  </si>
-  <si>
-    <t>3.73900</t>
-  </si>
-  <si>
-    <t>3.74900</t>
-  </si>
-  <si>
-    <t>3.76380</t>
-  </si>
-  <si>
-    <t>3.77000</t>
-  </si>
-  <si>
-    <t>3.74100</t>
-  </si>
-  <si>
-    <t>3.65400</t>
-  </si>
-  <si>
-    <t>3.63570</t>
-  </si>
-  <si>
-    <t>3.68790</t>
-  </si>
-  <si>
-    <t>3.68990</t>
-  </si>
-  <si>
-    <t>3.77060</t>
-  </si>
-  <si>
-    <t>3.77880</t>
-  </si>
-  <si>
-    <t>3.84260</t>
-  </si>
-  <si>
-    <t>3.84490</t>
-  </si>
-  <si>
-    <t>3.83960</t>
-  </si>
-  <si>
-    <t>3.79480</t>
-  </si>
-  <si>
-    <t>3.79740</t>
-  </si>
-  <si>
-    <t>3.83000</t>
-  </si>
-  <si>
-    <t>3.82200</t>
-  </si>
-  <si>
-    <t>3.81600</t>
-  </si>
-  <si>
-    <t>3.80950</t>
-  </si>
-  <si>
-    <t>3.82900</t>
-  </si>
-  <si>
-    <t>3.85200</t>
-  </si>
-  <si>
-    <t>3.86300</t>
-  </si>
-  <si>
-    <t>3.80900</t>
-  </si>
-  <si>
-    <t>3.86100</t>
-  </si>
-  <si>
-    <t>3.86800</t>
-  </si>
-  <si>
-    <t>3.84100</t>
-  </si>
-  <si>
-    <t>3.91150</t>
-  </si>
-  <si>
-    <t>3.93900</t>
-  </si>
-  <si>
-    <t>3.89250</t>
-  </si>
-  <si>
-    <t>3.90400</t>
-  </si>
-  <si>
-    <t>3.90900</t>
-  </si>
-  <si>
-    <t>3.93200</t>
-  </si>
-  <si>
-    <t>3.90780</t>
-  </si>
-  <si>
-    <t>3.92070</t>
-  </si>
-  <si>
-    <t>3.95260</t>
-  </si>
-  <si>
-    <t>3.96600</t>
-  </si>
-  <si>
-    <t>3.97880</t>
-  </si>
-  <si>
-    <t>3.97960</t>
-  </si>
-  <si>
-    <t>3.98680</t>
-  </si>
-  <si>
-    <t>3.98480</t>
-  </si>
-  <si>
-    <t>3.97520</t>
-  </si>
-  <si>
-    <t>3.97510</t>
-  </si>
-  <si>
-    <t>3.88400</t>
-  </si>
-  <si>
-    <t>3.87480</t>
-  </si>
-  <si>
-    <t>3.90580</t>
-  </si>
-  <si>
-    <t>3.92870</t>
-  </si>
-  <si>
-    <t>3.95480</t>
-  </si>
-  <si>
-    <t>3.97500</t>
-  </si>
-  <si>
-    <t>3.96350</t>
-  </si>
-  <si>
-    <t>3.96000</t>
-  </si>
-  <si>
-    <t>3.94100</t>
-  </si>
-  <si>
-    <t>3.94900</t>
-  </si>
-  <si>
-    <t>3.95470</t>
-  </si>
-  <si>
-    <t>3.95180</t>
-  </si>
-  <si>
-    <t>3.92910</t>
-  </si>
-  <si>
-    <t>3.92500</t>
-  </si>
-  <si>
-    <t>4.07000</t>
-  </si>
-  <si>
-    <t>4.09000</t>
-  </si>
-  <si>
-    <t>4.09400</t>
-  </si>
-  <si>
-    <t>4.11180</t>
-  </si>
-  <si>
-    <t>4.11300</t>
-  </si>
-  <si>
-    <t>4.11580</t>
-  </si>
-  <si>
-    <t>4.09980</t>
-  </si>
-  <si>
-    <t>4.09770</t>
-  </si>
-  <si>
-    <t>4.07970</t>
-  </si>
-  <si>
-    <t>4.07120</t>
-  </si>
-  <si>
-    <t>4.08780</t>
-  </si>
-  <si>
-    <t>4.08680</t>
-  </si>
-  <si>
-    <t>4.10080</t>
-  </si>
-  <si>
-    <t>4.10070</t>
-  </si>
-  <si>
-    <t>4.10270</t>
-  </si>
-  <si>
-    <t>4.10680</t>
-  </si>
-  <si>
-    <t>4.09510</t>
-  </si>
-  <si>
-    <t>4.10280</t>
-  </si>
-  <si>
-    <t>4.10170</t>
-  </si>
-  <si>
-    <t>4.10530</t>
-  </si>
-  <si>
-    <t>4.10470</t>
-  </si>
-  <si>
-    <t>4.10880</t>
-  </si>
-  <si>
-    <t>4.11380</t>
-  </si>
-  <si>
-    <t>4.11090</t>
-  </si>
-  <si>
-    <t>4.11880</t>
-  </si>
-  <si>
-    <t>4.11770</t>
-  </si>
-  <si>
-    <t>4.11170</t>
-  </si>
-  <si>
-    <t>4.11280</t>
-  </si>
-  <si>
-    <t>4.10870</t>
-  </si>
-  <si>
-    <t>4.12570</t>
-  </si>
-  <si>
-    <t>4.12680</t>
-  </si>
-  <si>
-    <t>4.13600</t>
-  </si>
-  <si>
-    <t>4.13000</t>
-  </si>
-  <si>
-    <t>4.13100</t>
-  </si>
-  <si>
-    <t>3.94750</t>
-  </si>
-  <si>
-    <t>3.95200</t>
-  </si>
-  <si>
-    <t>3.97270</t>
-  </si>
-  <si>
-    <t>3.99160</t>
-  </si>
-  <si>
-    <t>3.98070</t>
-  </si>
-  <si>
-    <t>3.99080</t>
-  </si>
-  <si>
-    <t>3.99150</t>
-  </si>
-  <si>
-    <t>4.00770</t>
-  </si>
-  <si>
-    <t>4.01280</t>
-  </si>
-  <si>
-    <t>4.01500</t>
-  </si>
-  <si>
-    <t>4.01370</t>
-  </si>
-  <si>
-    <t>4.01670</t>
-  </si>
-  <si>
-    <t>4.02560</t>
-  </si>
-  <si>
-    <t>4.02550</t>
-  </si>
-  <si>
-    <t>4.01870</t>
-  </si>
-  <si>
-    <t>4.00180</t>
-  </si>
-  <si>
-    <t>4.02070</t>
-  </si>
-  <si>
-    <t>4.02580</t>
-  </si>
-  <si>
-    <t>4.02270</t>
-  </si>
-  <si>
-    <t>4.01080</t>
-  </si>
-  <si>
-    <t>4.02280</t>
-  </si>
-  <si>
-    <t>4.03070</t>
-  </si>
-  <si>
-    <t>4.04280</t>
-  </si>
-  <si>
-    <t>4.06070</t>
-  </si>
-  <si>
-    <t>4.06890</t>
-  </si>
-  <si>
-    <t>4.07360</t>
-  </si>
-  <si>
-    <t>4.07670</t>
-  </si>
-  <si>
-    <t>4.08480</t>
-  </si>
-  <si>
-    <t>4.08470</t>
-  </si>
-  <si>
-    <t>4.07550</t>
-  </si>
-  <si>
-    <t>4.08370</t>
-  </si>
-  <si>
-    <t>4.07870</t>
-  </si>
-  <si>
-    <t>4.06470</t>
-  </si>
-  <si>
-    <t>4.05680</t>
-  </si>
-  <si>
-    <t>4.05570</t>
-  </si>
-  <si>
-    <t>4.05160</t>
-  </si>
-  <si>
-    <t>4.03670</t>
-  </si>
-  <si>
-    <t>4.04980</t>
-  </si>
-  <si>
-    <t>4.03280</t>
-  </si>
-  <si>
-    <t>3.98950</t>
-  </si>
-  <si>
-    <t>3.97580</t>
-  </si>
-  <si>
-    <t>3.98700</t>
-  </si>
-  <si>
-    <t>3.98980</t>
-  </si>
-  <si>
-    <t>3.99670</t>
-  </si>
-  <si>
-    <t>3.95980</t>
-  </si>
-  <si>
-    <t>3.97070</t>
-  </si>
-  <si>
-    <t>3.93270</t>
-  </si>
-  <si>
-    <t>3.93280</t>
-  </si>
-  <si>
-    <t>3.90650</t>
-  </si>
-  <si>
-    <t>3.89870</t>
-  </si>
-  <si>
-    <t>3.86680</t>
-  </si>
-  <si>
-    <t>3.86000</t>
-  </si>
-  <si>
-    <t>3.83550</t>
-  </si>
-  <si>
-    <t>3.84770</t>
-  </si>
-  <si>
-    <t>3.84670</t>
-  </si>
-  <si>
-    <t>3.84060</t>
-  </si>
-  <si>
-    <t>3.84970</t>
-  </si>
-  <si>
-    <t>3.84840</t>
-  </si>
-  <si>
-    <t>3.88280</t>
-  </si>
-  <si>
-    <t>3.88070</t>
-  </si>
-  <si>
-    <t>3.86280</t>
-  </si>
-  <si>
-    <t>3.87500</t>
-  </si>
-  <si>
-    <t>3.85030</t>
-  </si>
-  <si>
-    <t>3.84380</t>
-  </si>
-  <si>
-    <t>3.79380</t>
-  </si>
-  <si>
-    <t>3.80470</t>
-  </si>
-  <si>
-    <t>3.79770</t>
-  </si>
-  <si>
-    <t>3.75250</t>
-  </si>
-  <si>
-    <t>3.74750</t>
-  </si>
-  <si>
-    <t>3.75320</t>
-  </si>
-  <si>
-    <t>3.75880</t>
-  </si>
-  <si>
-    <t>3.73000</t>
-  </si>
-  <si>
-    <t>3.79980</t>
-  </si>
-  <si>
-    <t>3.79970</t>
-  </si>
-  <si>
-    <t>3.78570</t>
-  </si>
-  <si>
-    <t>3.78580</t>
-  </si>
-  <si>
-    <t>3.74880</t>
-  </si>
-  <si>
-    <t>3.75480</t>
-  </si>
-  <si>
-    <t>3.75470</t>
-  </si>
-  <si>
-    <t>3.73880</t>
-  </si>
-  <si>
-    <t>3.73890</t>
-  </si>
-  <si>
-    <t>3.70900</t>
-  </si>
-  <si>
-    <t>3.74470</t>
-  </si>
-  <si>
-    <t>3.73580</t>
-  </si>
-  <si>
-    <t>3.79170</t>
-  </si>
-  <si>
-    <t>3.72880</t>
-  </si>
-  <si>
-    <t>3.73170</t>
-  </si>
-  <si>
-    <t>3.67590</t>
-  </si>
-  <si>
-    <t>3.70170</t>
-  </si>
-  <si>
-    <t>3.72000</t>
-  </si>
-  <si>
-    <t>3.71460</t>
-  </si>
-  <si>
-    <t>3.71380</t>
-  </si>
-  <si>
-    <t>3.74250</t>
-  </si>
-  <si>
-    <t>3.73970</t>
-  </si>
-  <si>
-    <t>3.73670</t>
-  </si>
-  <si>
-    <t>3.76970</t>
-  </si>
-  <si>
-    <t>3.83370</t>
-  </si>
-  <si>
-    <t>3.85180</t>
-  </si>
-  <si>
-    <t>3.84480</t>
-  </si>
-  <si>
-    <t>3.83320</t>
-  </si>
-  <si>
-    <t>3.81580</t>
-  </si>
-  <si>
-    <t>3.81480</t>
-  </si>
-  <si>
-    <t>3.82970</t>
-  </si>
-  <si>
-    <t>3.81980</t>
-  </si>
-  <si>
-    <t>3.78800</t>
-  </si>
-  <si>
-    <t>3.80480</t>
-  </si>
-  <si>
-    <t>3.78690</t>
-  </si>
-  <si>
-    <t>3.77480</t>
-  </si>
-  <si>
-    <t>3.73380</t>
-  </si>
-  <si>
-    <t>3.72930</t>
-  </si>
-  <si>
-    <t>3.72480</t>
-  </si>
-  <si>
-    <t>3.69970</t>
-  </si>
-  <si>
-    <t>3.68580</t>
-  </si>
-  <si>
-    <t>3.72980</t>
-  </si>
-  <si>
-    <t>3.76470</t>
-  </si>
-  <si>
-    <t>3.76480</t>
-  </si>
-  <si>
-    <t>3.75570</t>
-  </si>
-  <si>
-    <t>3.75200</t>
-  </si>
-  <si>
-    <t>3.72470</t>
-  </si>
-  <si>
-    <t>3.72270</t>
-  </si>
-  <si>
-    <t>3.78970</t>
-  </si>
-  <si>
-    <t>3.79080</t>
-  </si>
-  <si>
-    <t>3.78670</t>
-  </si>
-  <si>
-    <t>3.77980</t>
-  </si>
-  <si>
-    <t>3.84980</t>
-  </si>
-  <si>
-    <t>3.86380</t>
-  </si>
-  <si>
-    <t>3.85240</t>
-  </si>
-  <si>
-    <t>3.95780</t>
-  </si>
-  <si>
-    <t>3.97970</t>
-  </si>
-  <si>
-    <t>3.90070</t>
-  </si>
-  <si>
-    <t>3.90310</t>
-  </si>
-  <si>
-    <t>3.89100</t>
-  </si>
-  <si>
-    <t>3.91370</t>
-  </si>
-  <si>
-    <t>3.91760</t>
-  </si>
-  <si>
-    <t>3.91560</t>
-  </si>
-  <si>
-    <t>3.91960</t>
-  </si>
-  <si>
-    <t>3.92270</t>
-  </si>
-  <si>
-    <t>3.93100</t>
-  </si>
-  <si>
-    <t>3.92350</t>
-  </si>
-  <si>
-    <t>3.92280</t>
-  </si>
-  <si>
-    <t>3.90870</t>
-  </si>
-  <si>
-    <t>3.90680</t>
-  </si>
-  <si>
-    <t>3.92170</t>
-  </si>
-  <si>
-    <t>3.93380</t>
-  </si>
-  <si>
-    <t>3.93070</t>
-  </si>
-  <si>
-    <t>3.87170</t>
-  </si>
-  <si>
-    <t>2.91000</t>
-  </si>
-  <si>
-    <t>2.95200</t>
-  </si>
-  <si>
-    <t>2.93800</t>
-  </si>
-  <si>
-    <t>2.97400</t>
-  </si>
-  <si>
-    <t>2.97500</t>
-  </si>
-  <si>
-    <t>2.96290</t>
-  </si>
-  <si>
-    <t>2.98050</t>
-  </si>
-  <si>
-    <t>3.00400</t>
-  </si>
-  <si>
-    <t>2.99500</t>
-  </si>
-  <si>
-    <t>3.02100</t>
-  </si>
-  <si>
-    <t>3.02900</t>
-  </si>
-  <si>
-    <t>3.05100</t>
-  </si>
-  <si>
-    <t>3.05300</t>
-  </si>
-  <si>
-    <t>3.07700</t>
-  </si>
-  <si>
-    <t>3.09050</t>
-  </si>
-  <si>
-    <t>3.09350</t>
-  </si>
-  <si>
-    <t>3.06000</t>
-  </si>
-  <si>
-    <t>3.07650</t>
-  </si>
-  <si>
-    <t>3.13850</t>
-  </si>
-  <si>
-    <t>3.10450</t>
-  </si>
-  <si>
-    <t>3.13000</t>
-  </si>
-  <si>
-    <t>3.13500</t>
-  </si>
-  <si>
-    <t>3.12780</t>
-  </si>
-  <si>
-    <t>3.14230</t>
-  </si>
-  <si>
-    <t>3.13900</t>
-  </si>
-  <si>
-    <t>3.16100</t>
-  </si>
-  <si>
-    <t>3.17490</t>
-  </si>
-  <si>
-    <t>3.19900</t>
-  </si>
-  <si>
-    <t>3.19700</t>
-  </si>
-  <si>
-    <t>3.20700</t>
-  </si>
-  <si>
-    <t>3.47550</t>
-  </si>
-  <si>
-    <t>3.52500</t>
-  </si>
-  <si>
-    <t>3.52000</t>
-  </si>
-  <si>
-    <t>3.43900</t>
-  </si>
-  <si>
-    <t>3.35760</t>
-  </si>
-  <si>
-    <t>3.35100</t>
-  </si>
-  <si>
-    <t>3.25390</t>
-  </si>
-  <si>
-    <t>3.30300</t>
-  </si>
-  <si>
-    <t>3.33740</t>
-  </si>
-  <si>
-    <t>3.35700</t>
-  </si>
-  <si>
-    <t>3.39600</t>
-  </si>
-  <si>
-    <t>3.35800</t>
-  </si>
-  <si>
-    <t>3.41200</t>
-  </si>
-  <si>
-    <t>3.39240</t>
-  </si>
-  <si>
-    <t>3.38290</t>
-  </si>
-  <si>
-    <t>3.39160</t>
-  </si>
-  <si>
-    <t>3.38220</t>
-  </si>
-  <si>
-    <t>3.38790</t>
-  </si>
-  <si>
-    <t>3.37520</t>
-  </si>
-  <si>
-    <t>3.35120</t>
-  </si>
-  <si>
-    <t>3.34590</t>
-  </si>
-  <si>
-    <t>3.37110</t>
-  </si>
-  <si>
-    <t>3.37360</t>
-  </si>
-  <si>
-    <t>3.35430</t>
-  </si>
-  <si>
-    <t>3.35440</t>
-  </si>
-  <si>
-    <t>3.33420</t>
-  </si>
-  <si>
-    <t>3.27980</t>
-  </si>
-  <si>
-    <t>3.27660</t>
-  </si>
-  <si>
-    <t>3.25790</t>
-  </si>
-  <si>
-    <t>3.22890</t>
-  </si>
-  <si>
-    <t>3.25040</t>
-  </si>
-  <si>
-    <t>3.27590</t>
-  </si>
-  <si>
-    <t>3.26000</t>
-  </si>
-  <si>
-    <t>3.23780</t>
-  </si>
-  <si>
-    <t>3.23720</t>
-  </si>
-  <si>
-    <t>3.24680</t>
-  </si>
-  <si>
-    <t>3.23960</t>
-  </si>
-  <si>
-    <t>3.22970</t>
-  </si>
-  <si>
-    <t>3.23340</t>
-  </si>
-  <si>
-    <t>3.22750</t>
-  </si>
-  <si>
-    <t>3.25850</t>
-  </si>
-  <si>
-    <t>3.26380</t>
-  </si>
-  <si>
-    <t>3.26260</t>
-  </si>
-  <si>
-    <t>3.26440</t>
-  </si>
-  <si>
-    <t>3.25700</t>
-  </si>
-  <si>
-    <t>3.24300</t>
-  </si>
-  <si>
-    <t>3.23670</t>
-  </si>
-  <si>
-    <t>3.23230</t>
-  </si>
-  <si>
-    <t>3.23320</t>
-  </si>
-  <si>
-    <t>3.23170</t>
-  </si>
-  <si>
-    <t>3.23130</t>
-  </si>
-  <si>
-    <t>3.22610</t>
-  </si>
-  <si>
-    <t>3.22730</t>
-  </si>
-  <si>
-    <t>3.23640</t>
-  </si>
-  <si>
-    <t>3.26170</t>
-  </si>
-  <si>
-    <t>3.25470</t>
-  </si>
-  <si>
-    <t>3.23240</t>
-  </si>
-  <si>
-    <t>3.23020</t>
-  </si>
-  <si>
-    <t>3.22420</t>
-  </si>
-  <si>
-    <t>3.23570</t>
-  </si>
-  <si>
-    <t>3.23660</t>
-  </si>
-  <si>
-    <t>3.23820</t>
-  </si>
-  <si>
-    <t>3.22870</t>
-  </si>
-  <si>
-    <t>3.27620</t>
-  </si>
-  <si>
-    <t>3.19670</t>
-  </si>
-  <si>
-    <t>3.20130</t>
-  </si>
-  <si>
-    <t>3.20810</t>
-  </si>
-  <si>
-    <t>3.20230</t>
-  </si>
-  <si>
-    <t>3.21010</t>
-  </si>
-  <si>
-    <t>3.20570</t>
-  </si>
-  <si>
-    <t>3.21430</t>
-  </si>
-  <si>
-    <t>3.25500</t>
-  </si>
-  <si>
-    <t>3.21730</t>
-  </si>
-  <si>
-    <t>3.21130</t>
-  </si>
-  <si>
-    <t>3.21950</t>
-  </si>
-  <si>
-    <t>3.22690</t>
-  </si>
-  <si>
-    <t>3.22400</t>
-  </si>
-  <si>
-    <t>3.26330</t>
-  </si>
-  <si>
-    <t>3.26140</t>
-  </si>
-  <si>
-    <t>3.26030</t>
-  </si>
-  <si>
-    <t>3.25370</t>
-  </si>
-  <si>
-    <t>3.27220</t>
-  </si>
-  <si>
-    <t>3.26220</t>
-  </si>
-  <si>
-    <t>3.26940</t>
-  </si>
-  <si>
-    <t>3.27230</t>
-  </si>
-  <si>
-    <t>3.26600</t>
-  </si>
-  <si>
-    <t>3.26230</t>
-  </si>
-  <si>
-    <t>3.27420</t>
-  </si>
-  <si>
-    <t>3.30070</t>
-  </si>
-  <si>
-    <t>3.30420</t>
-  </si>
-  <si>
-    <t>3.29920</t>
-  </si>
-  <si>
-    <t>3.29520</t>
-  </si>
-  <si>
-    <t>3.29810</t>
-  </si>
-  <si>
-    <t>3.32120</t>
-  </si>
-  <si>
-    <t>3.31890</t>
-  </si>
-  <si>
-    <t>3.32920</t>
-  </si>
-  <si>
-    <t>3.32420</t>
-  </si>
-  <si>
-    <t>3.32670</t>
-  </si>
-  <si>
-    <t>3.33710</t>
-  </si>
-  <si>
-    <t>3.34710</t>
-  </si>
-  <si>
-    <t>3.36660</t>
-  </si>
-  <si>
-    <t>3.37320</t>
-  </si>
-  <si>
-    <t>3.36110</t>
-  </si>
-  <si>
-    <t>3.32560</t>
-  </si>
-  <si>
-    <t>3.30810</t>
-  </si>
-  <si>
-    <t>3.32270</t>
-  </si>
-  <si>
-    <t>3.32970</t>
-  </si>
-  <si>
-    <t>3.35060</t>
-  </si>
-  <si>
-    <t>3.32070</t>
-  </si>
-  <si>
-    <t>3.31870</t>
-  </si>
-  <si>
-    <t>3.31800</t>
-  </si>
-  <si>
-    <t>3.31220</t>
-  </si>
-  <si>
-    <t>3.30320</t>
-  </si>
-  <si>
-    <t>3.29890</t>
-  </si>
-  <si>
-    <t>3.29200</t>
-  </si>
-  <si>
-    <t>3.29180</t>
-  </si>
-  <si>
-    <t>3.29720</t>
-  </si>
-  <si>
-    <t>3.28880</t>
-  </si>
-  <si>
-    <t>3.30640</t>
-  </si>
-  <si>
-    <t>3.29040</t>
-  </si>
-  <si>
-    <t>3.28840</t>
-  </si>
-  <si>
-    <t>3.28420</t>
-  </si>
-  <si>
-    <t>3.28810</t>
-  </si>
-  <si>
-    <t>3.28620</t>
-  </si>
-  <si>
-    <t>3.28780</t>
-  </si>
-  <si>
-    <t>3.31120</t>
-  </si>
-  <si>
-    <t>3.30620</t>
-  </si>
-  <si>
-    <t>3.30040</t>
-  </si>
-  <si>
-    <t>3.29380</t>
-  </si>
-  <si>
-    <t>3.29640</t>
-  </si>
-  <si>
-    <t>3.30770</t>
-  </si>
-  <si>
-    <t>3.31010</t>
-  </si>
-  <si>
-    <t>3.31060</t>
-  </si>
-  <si>
-    <t>3.32550</t>
-  </si>
-  <si>
-    <t>3.33490</t>
-  </si>
-  <si>
-    <t>3.35070</t>
-  </si>
-  <si>
-    <t>3.32370</t>
-  </si>
-  <si>
-    <t>3.32510</t>
-  </si>
-  <si>
-    <t>3.32380</t>
-  </si>
-  <si>
-    <t>3.33120</t>
-  </si>
-  <si>
-    <t>3.30490</t>
-  </si>
-  <si>
-    <t>3.29570</t>
-  </si>
-  <si>
-    <t>3.28520</t>
-  </si>
-  <si>
-    <t>3.28190</t>
-  </si>
-  <si>
-    <t>3.28310</t>
-  </si>
-  <si>
-    <t>3.28330</t>
-  </si>
-  <si>
-    <t>3.27920</t>
-  </si>
-  <si>
-    <t>3.28080</t>
-  </si>
-  <si>
-    <t>3.28040</t>
-  </si>
-  <si>
-    <t>3.28130</t>
-  </si>
-  <si>
-    <t>3.27510</t>
-  </si>
-  <si>
-    <t>3.27030</t>
-  </si>
-  <si>
-    <t>3.28260</t>
-  </si>
-  <si>
-    <t>3.28610</t>
-  </si>
-  <si>
-    <t>3.28660</t>
-  </si>
-  <si>
-    <t>3.37480</t>
-  </si>
-  <si>
-    <t>3.37040</t>
-  </si>
-  <si>
-    <t>3.37580</t>
-  </si>
-  <si>
-    <t>3.37020</t>
-  </si>
-  <si>
-    <t>3.36690</t>
-  </si>
-  <si>
-    <t>3.29930</t>
-  </si>
-  <si>
-    <t>3.35530</t>
-  </si>
-  <si>
-    <t>3.33770</t>
-  </si>
-  <si>
-    <t>3.30780</t>
-  </si>
-  <si>
-    <t>3.37530</t>
-  </si>
-  <si>
-    <t>3.36510</t>
-  </si>
-  <si>
-    <t>3.36430</t>
-  </si>
-  <si>
-    <t>3.34790</t>
-  </si>
-  <si>
-    <t>3.32430</t>
-  </si>
-  <si>
-    <t>3.35930</t>
-  </si>
-  <si>
-    <t>3.36130</t>
-  </si>
-  <si>
-    <t>3.37630</t>
-  </si>
-  <si>
-    <t>3.38840</t>
-  </si>
-  <si>
-    <t>3.38930</t>
-  </si>
-  <si>
-    <t>3.38020</t>
-  </si>
-  <si>
-    <t>3.35840</t>
-  </si>
-  <si>
-    <t>3.34890</t>
-  </si>
-  <si>
-    <t>3.32740</t>
-  </si>
-  <si>
-    <t>3.32640</t>
-  </si>
-  <si>
-    <t>3.30530</t>
-  </si>
-  <si>
-    <t>3.31280</t>
-  </si>
-  <si>
-    <t>3.31090</t>
-  </si>
-  <si>
-    <t>3.31390</t>
-  </si>
-  <si>
-    <t>3.31730</t>
-  </si>
-  <si>
-    <t>3.31430</t>
-  </si>
-  <si>
-    <t>3.31190</t>
-  </si>
-  <si>
-    <t>3.30940</t>
-  </si>
-  <si>
-    <t>3.36490</t>
-  </si>
-  <si>
-    <t>3.37890</t>
-  </si>
-  <si>
-    <t>3.40510</t>
-  </si>
-  <si>
-    <t>3.43030</t>
-  </si>
-  <si>
-    <t>3.41130</t>
-  </si>
-  <si>
-    <t>3.41020</t>
-  </si>
-  <si>
-    <t>3.41720</t>
-  </si>
-  <si>
-    <t>3.48520</t>
-  </si>
-  <si>
-    <t>3.49620</t>
-  </si>
-  <si>
-    <t>3.51550</t>
-  </si>
-  <si>
-    <t>3.51620</t>
-  </si>
-  <si>
-    <t>3.51850</t>
-  </si>
-  <si>
-    <t>3.54000</t>
-  </si>
-  <si>
-    <t>3.55120</t>
-  </si>
-  <si>
-    <t>3.49420</t>
-  </si>
-  <si>
-    <t>3.45430</t>
-  </si>
-  <si>
-    <t>3.39520</t>
-  </si>
-  <si>
-    <t>3.42480</t>
-  </si>
-  <si>
-    <t>3.43640</t>
-  </si>
-  <si>
-    <t>3.35420</t>
-  </si>
-  <si>
-    <t>3.34100</t>
-  </si>
-  <si>
-    <t>3.39120</t>
-  </si>
-  <si>
-    <t>3.36420</t>
-  </si>
-  <si>
-    <t>3.36920</t>
-  </si>
-  <si>
-    <t>3.36570</t>
-  </si>
-  <si>
-    <t>3.42420</t>
-  </si>
-  <si>
-    <t>3.43750</t>
-  </si>
-  <si>
-    <t>3.41430</t>
-  </si>
-  <si>
-    <t>3.41950</t>
-  </si>
-  <si>
-    <t>3.40920</t>
-  </si>
-  <si>
-    <t>3.42840</t>
-  </si>
-  <si>
-    <t>3.39130</t>
-  </si>
-  <si>
-    <t>3.39980</t>
-  </si>
-  <si>
-    <t>3.42280</t>
-  </si>
-  <si>
-    <t>3.42920</t>
-  </si>
-  <si>
-    <t>3.41770</t>
-  </si>
-  <si>
-    <t>3.43940</t>
-  </si>
-  <si>
-    <t>3.46770</t>
-  </si>
-  <si>
-    <t>3.49640</t>
-  </si>
-  <si>
-    <t>3.48060</t>
-  </si>
-  <si>
-    <t>3.50030</t>
-  </si>
-  <si>
-    <t>3.49970</t>
-  </si>
-  <si>
-    <t>3.50160</t>
-  </si>
-  <si>
-    <t>3.51170</t>
-  </si>
-  <si>
-    <t>3.51980</t>
-  </si>
-  <si>
-    <t>3.49800</t>
-  </si>
-  <si>
-    <t>3.53470</t>
-  </si>
-  <si>
-    <t>3.53580</t>
-  </si>
-  <si>
-    <t>3.49470</t>
-  </si>
-  <si>
-    <t>3.49170</t>
-  </si>
-  <si>
-    <t>3.47470</t>
-  </si>
-  <si>
-    <t>3.48970</t>
-  </si>
-  <si>
-    <t>3.47970</t>
-  </si>
-  <si>
-    <t>3.50070</t>
-  </si>
-  <si>
-    <t>3.49940</t>
-  </si>
-  <si>
-    <t>3.50780</t>
-  </si>
-  <si>
-    <t>3.51350</t>
-  </si>
-  <si>
-    <t>3.51070</t>
-  </si>
-  <si>
-    <t>3.52470</t>
-  </si>
-  <si>
-    <t>3.53970</t>
-  </si>
-  <si>
-    <t>3.53460</t>
-  </si>
-  <si>
-    <t>3.55920</t>
-  </si>
-  <si>
-    <t>3.56420</t>
-  </si>
-  <si>
-    <t>3.56120</t>
-  </si>
-  <si>
-    <t>3.56940</t>
-  </si>
-  <si>
-    <t>3.56440</t>
-  </si>
-  <si>
-    <t>3.55720</t>
-  </si>
-  <si>
-    <t>3.52420</t>
-  </si>
-  <si>
-    <t>3.52440</t>
-  </si>
-  <si>
-    <t>3.52940</t>
-  </si>
-  <si>
-    <t>3.51940</t>
-  </si>
-  <si>
-    <t>3.55750</t>
-  </si>
-  <si>
-    <t>3.53940</t>
-  </si>
-  <si>
-    <t>3.52450</t>
-  </si>
-  <si>
-    <t>3.51440</t>
-  </si>
-  <si>
-    <t>3.52360</t>
-  </si>
-  <si>
-    <t>3.54760</t>
-  </si>
-  <si>
-    <t>3.57840</t>
-  </si>
-  <si>
-    <t>3.58430</t>
-  </si>
-  <si>
-    <t>3.59810</t>
-  </si>
-  <si>
-    <t>3.56210</t>
-  </si>
-  <si>
-    <t>3.55940</t>
-  </si>
-  <si>
-    <t>3.56240</t>
-  </si>
-  <si>
-    <t>3.57770</t>
-  </si>
-  <si>
-    <t>3.57800</t>
-  </si>
-  <si>
-    <t>3.57470</t>
-  </si>
-  <si>
-    <t>3.56500</t>
-  </si>
-  <si>
-    <t>3.58930</t>
-  </si>
-  <si>
-    <t>3.58890</t>
-  </si>
-  <si>
-    <t>3.58920</t>
-  </si>
-  <si>
-    <t>3.60310</t>
-  </si>
-  <si>
-    <t>3.59920</t>
-  </si>
-  <si>
-    <t>3.60210</t>
-  </si>
-  <si>
-    <t>3.58730</t>
-  </si>
-  <si>
-    <t>3.58320</t>
-  </si>
-  <si>
-    <t>3.58620</t>
-  </si>
-  <si>
-    <t>3.57340</t>
-  </si>
-  <si>
-    <t>3.60300</t>
-  </si>
-  <si>
-    <t>3.60930</t>
-  </si>
-  <si>
-    <t>3.62930</t>
-  </si>
-  <si>
-    <t>3.63400</t>
-  </si>
-  <si>
-    <t>3.58710</t>
-  </si>
-  <si>
-    <t>3.59590</t>
-  </si>
-  <si>
-    <t>3.60120</t>
-  </si>
-  <si>
-    <t>3.59410</t>
-  </si>
-  <si>
-    <t>3.58020</t>
-  </si>
-  <si>
-    <t>3.58230</t>
-  </si>
-  <si>
-    <t>3.58670</t>
-  </si>
-  <si>
-    <t>3.58950</t>
-  </si>
-  <si>
-    <t>3.58420</t>
-  </si>
-  <si>
-    <t>3.57940</t>
-  </si>
-  <si>
-    <t>3.57710</t>
-  </si>
-  <si>
-    <t>3.59710</t>
-  </si>
-  <si>
-    <t>3.60420</t>
-  </si>
-  <si>
-    <t>3.63360</t>
-  </si>
-  <si>
-    <t>3.62830</t>
-  </si>
-  <si>
-    <t>3.63220</t>
-  </si>
-  <si>
-    <t>3.63440</t>
-  </si>
-  <si>
-    <t>3.63450</t>
-  </si>
-  <si>
-    <t>3.64440</t>
-  </si>
-  <si>
-    <t>3.64330</t>
-  </si>
-  <si>
-    <t>3.64420</t>
-  </si>
-  <si>
-    <t>3.64080</t>
-  </si>
-  <si>
-    <t>3.64040</t>
-  </si>
-  <si>
-    <t>3.64130</t>
-  </si>
-  <si>
-    <t>3.64190</t>
-  </si>
-  <si>
-    <t>3.61800</t>
-  </si>
-  <si>
-    <t>3.61100</t>
-  </si>
-  <si>
-    <t>3.62650</t>
-  </si>
-  <si>
-    <t>3.62490</t>
-  </si>
-  <si>
-    <t>3.65960</t>
-  </si>
-  <si>
-    <t>3.68220</t>
-  </si>
-  <si>
-    <t>3.70130</t>
-  </si>
-  <si>
-    <t>3.73950</t>
-  </si>
-  <si>
-    <t>3.77780</t>
-  </si>
-  <si>
-    <t>3.82370</t>
-  </si>
-  <si>
-    <t>3.76760</t>
-  </si>
-  <si>
-    <t>3.75960</t>
-  </si>
-  <si>
-    <t>3.77080</t>
-  </si>
-  <si>
-    <t>3.71700</t>
-  </si>
-  <si>
-    <t>3.67600</t>
-  </si>
-  <si>
-    <t>3.67400</t>
-  </si>
-  <si>
-    <t>3.67300</t>
-  </si>
-  <si>
-    <t>3.71340</t>
-  </si>
-  <si>
-    <t>3.74300</t>
-  </si>
-  <si>
-    <t>3.73800</t>
-  </si>
-  <si>
-    <t>3.86960</t>
-  </si>
-  <si>
-    <t>3.88940</t>
-  </si>
-  <si>
-    <t>3.90950</t>
-  </si>
-  <si>
-    <t>3.95140</t>
-  </si>
-  <si>
-    <t>3.95950</t>
-  </si>
-  <si>
-    <t>3.95440</t>
-  </si>
-  <si>
-    <t>3.96380</t>
-  </si>
-  <si>
-    <t>3.87570</t>
-  </si>
-  <si>
-    <t>3.87540</t>
-  </si>
-  <si>
-    <t>3.81940</t>
-  </si>
-  <si>
-    <t>3.83360</t>
-  </si>
-  <si>
-    <t>3.88220</t>
-  </si>
-  <si>
-    <t>3.93650</t>
-  </si>
-  <si>
-    <t>3.93300</t>
-  </si>
-  <si>
-    <t>3.91320</t>
-  </si>
-  <si>
-    <t>3.90200</t>
-  </si>
-  <si>
-    <t>4.05350</t>
-  </si>
-  <si>
-    <t>4.06500</t>
-  </si>
-  <si>
-    <t>4.08410</t>
-  </si>
-  <si>
-    <t>4.07710</t>
-  </si>
-  <si>
-    <t>4.04730</t>
-  </si>
-  <si>
-    <t>4.06760</t>
-  </si>
-  <si>
-    <t>4.06300</t>
-  </si>
-  <si>
-    <t>4.07900</t>
-  </si>
-  <si>
-    <t>4.07760</t>
-  </si>
-  <si>
-    <t>4.08440</t>
-  </si>
-  <si>
-    <t>4.08900</t>
-  </si>
-  <si>
-    <t>4.09180</t>
-  </si>
-  <si>
-    <t>4.08650</t>
-  </si>
-  <si>
-    <t>4.09720</t>
-  </si>
-  <si>
-    <t>4.09420</t>
-  </si>
-  <si>
-    <t>4.09430</t>
-  </si>
-  <si>
-    <t>4.09570</t>
-  </si>
-  <si>
-    <t>4.11000</t>
-  </si>
-  <si>
-    <t>4.08600</t>
-  </si>
-  <si>
-    <t>3.91700</t>
-  </si>
-  <si>
-    <t>3.93000</t>
-  </si>
-  <si>
-    <t>3.94700</t>
-  </si>
-  <si>
-    <t>3.94200</t>
-  </si>
-  <si>
-    <t>3.93550</t>
-  </si>
-  <si>
-    <t>3.94080</t>
-  </si>
-  <si>
-    <t>3.95580</t>
-  </si>
-  <si>
-    <t>3.96160</t>
-  </si>
-  <si>
-    <t>3.96320</t>
-  </si>
-  <si>
-    <t>3.97630</t>
-  </si>
-  <si>
-    <t>3.99960</t>
-  </si>
-  <si>
-    <t>3.99500</t>
-  </si>
-  <si>
-    <t>3.99950</t>
-  </si>
-  <si>
-    <t>4.00010</t>
-  </si>
-  <si>
-    <t>4.00120</t>
-  </si>
-  <si>
-    <t>4.00370</t>
-  </si>
-  <si>
-    <t>4.00540</t>
-  </si>
-  <si>
-    <t>4.00520</t>
-  </si>
-  <si>
-    <t>3.98050</t>
-  </si>
-  <si>
-    <t>3.98470</t>
-  </si>
-  <si>
-    <t>3.97790</t>
-  </si>
-  <si>
-    <t>4.01100</t>
-  </si>
-  <si>
-    <t>4.02970</t>
-  </si>
-  <si>
-    <t>4.04690</t>
-  </si>
-  <si>
-    <t>4.04970</t>
-  </si>
-  <si>
-    <t>4.05430</t>
-  </si>
-  <si>
-    <t>4.06220</t>
-  </si>
-  <si>
-    <t>4.05970</t>
-  </si>
-  <si>
-    <t>4.05000</t>
-  </si>
-  <si>
-    <t>4.03850</t>
-  </si>
-  <si>
-    <t>4.03980</t>
-  </si>
-  <si>
-    <t>4.04010</t>
-  </si>
-  <si>
-    <t>4.02590</t>
-  </si>
-  <si>
-    <t>4.02390</t>
-  </si>
-  <si>
-    <t>4.03750</t>
-  </si>
-  <si>
-    <t>4.02260</t>
-  </si>
-  <si>
-    <t>3.98120</t>
-  </si>
-  <si>
-    <t>3.97000</t>
-  </si>
-  <si>
-    <t>3.94400</t>
-  </si>
-  <si>
-    <t>3.97640</t>
-  </si>
-  <si>
-    <t>3.94030</t>
-  </si>
-  <si>
-    <t>3.94890</t>
-  </si>
-  <si>
-    <t>3.90850</t>
-  </si>
-  <si>
-    <t>3.87610</t>
-  </si>
-  <si>
-    <t>3.87790</t>
-  </si>
-  <si>
-    <t>3.86570</t>
-  </si>
-  <si>
-    <t>3.85140</t>
-  </si>
-  <si>
-    <t>3.82360</t>
-  </si>
-  <si>
-    <t>3.83650</t>
-  </si>
-  <si>
-    <t>3.82830</t>
-  </si>
-  <si>
-    <t>3.84170</t>
-  </si>
-  <si>
-    <t>3.83150</t>
-  </si>
-  <si>
-    <t>3.82440</t>
-  </si>
-  <si>
-    <t>3.71760</t>
-  </si>
-  <si>
-    <t>3.69430</t>
-  </si>
-  <si>
-    <t>3.70360</t>
-  </si>
-  <si>
-    <t>3.76940</t>
-  </si>
-  <si>
-    <t>3.77070</t>
-  </si>
-  <si>
-    <t>3.74480</t>
-  </si>
-  <si>
-    <t>3.70600</t>
-  </si>
-  <si>
-    <t>3.71020</t>
-  </si>
-  <si>
-    <t>3.69600</t>
-  </si>
-  <si>
-    <t>3.71770</t>
-  </si>
-  <si>
-    <t>3.70470</t>
-  </si>
-  <si>
-    <t>3.77970</t>
-  </si>
-  <si>
-    <t>3.76280</t>
-  </si>
-  <si>
-    <t>3.76290</t>
-  </si>
-  <si>
-    <t>3.71480</t>
-  </si>
-  <si>
-    <t>3.70750</t>
-  </si>
-  <si>
-    <t>3.61720</t>
-  </si>
-  <si>
-    <t>3.69180</t>
-  </si>
-  <si>
-    <t>3.69580</t>
-  </si>
-  <si>
-    <t>3.70580</t>
-  </si>
-  <si>
-    <t>3.70180</t>
-  </si>
-  <si>
-    <t>3.72050</t>
-  </si>
-  <si>
-    <t>3.70280</t>
-  </si>
-  <si>
-    <t>3.73160</t>
-  </si>
-  <si>
-    <t>3.76340</t>
-  </si>
-  <si>
-    <t>3.79890</t>
-  </si>
-  <si>
-    <t>3.81890</t>
-  </si>
-  <si>
-    <t>3.82190</t>
-  </si>
-  <si>
-    <t>3.83080</t>
-  </si>
-  <si>
-    <t>3.81400</t>
-  </si>
-  <si>
-    <t>3.75800</t>
-  </si>
-  <si>
-    <t>3.78420</t>
-  </si>
-  <si>
-    <t>3.76700</t>
-  </si>
-  <si>
-    <t>3.75620</t>
-  </si>
-  <si>
-    <t>3.70670</t>
-  </si>
-  <si>
-    <t>3.67980</t>
-  </si>
-  <si>
-    <t>3.66970</t>
-  </si>
-  <si>
-    <t>3.64180</t>
-  </si>
-  <si>
-    <t>3.65250</t>
-  </si>
-  <si>
-    <t>3.65970</t>
-  </si>
-  <si>
-    <t>3.67440</t>
-  </si>
-  <si>
-    <t>3.70080</t>
-  </si>
-  <si>
-    <t>3.68470</t>
-  </si>
-  <si>
-    <t>3.72220</t>
-  </si>
-  <si>
-    <t>3.72730</t>
-  </si>
-  <si>
-    <t>3.73840</t>
-  </si>
-  <si>
-    <t>3.74000</t>
-  </si>
-  <si>
-    <t>3.74980</t>
-  </si>
-  <si>
-    <t>3.69640</t>
-  </si>
-  <si>
-    <t>3.70560</t>
-  </si>
-  <si>
-    <t>3.70760</t>
-  </si>
-  <si>
-    <t>3.71220</t>
-  </si>
-  <si>
-    <t>3.76210</t>
-  </si>
-  <si>
-    <t>3.81180</t>
-  </si>
-  <si>
-    <t>3.81490</t>
-  </si>
-  <si>
-    <t>3.89660</t>
-  </si>
-  <si>
-    <t>3.94690</t>
-  </si>
-  <si>
-    <t>3.87890</t>
-  </si>
-  <si>
-    <t>3.86910</t>
-  </si>
-  <si>
-    <t>3.87160</t>
-  </si>
-  <si>
-    <t>3.85450</t>
-  </si>
-  <si>
-    <t>3.85480</t>
-  </si>
-  <si>
-    <t>3.87700</t>
-  </si>
-  <si>
-    <t>3.90020</t>
-  </si>
-  <si>
-    <t>3.89630</t>
-  </si>
-  <si>
-    <t>3.89850</t>
-  </si>
-  <si>
-    <t>3.87850</t>
-  </si>
-  <si>
-    <t>3.88660</t>
-  </si>
-  <si>
-    <t>3.90810</t>
-  </si>
-  <si>
-    <t>3.87190</t>
-  </si>
-  <si>
     <t>3.19450</t>
   </si>
   <si>
@@ -13972,7 +13975,7 @@
     <t>3.87600</t>
   </si>
   <si>
-    <t>3.86090</t>
+    <t>3.86400</t>
   </si>
 </sst>
 </file>
@@ -17512,7 +17515,7 @@
         <v>2165</v>
       </c>
       <c r="E187" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19603,7 +19606,7 @@
         <v>2269</v>
       </c>
       <c r="E310" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -24618,7 +24621,7 @@
         <v>4078</v>
       </c>
       <c r="E605" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25009,7 +25012,7 @@
         <v>2478</v>
       </c>
       <c r="E628" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25774,7 +25777,7 @@
         <v>2314</v>
       </c>
       <c r="E673" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -28630,7 +28633,7 @@
         <v>2528</v>
       </c>
       <c r="E841" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -32200,7 +32203,7 @@
         <v>2232</v>
       </c>
       <c r="E1051" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -37759,7 +37762,7 @@
         <v>4233</v>
       </c>
       <c r="E1378" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37878,7 +37881,7 @@
         <v>4238</v>
       </c>
       <c r="E1385" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37929,7 +37932,7 @@
         <v>2286</v>
       </c>
       <c r="E1388" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -37946,7 +37949,7 @@
         <v>4241</v>
       </c>
       <c r="E1389" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -37963,7 +37966,7 @@
         <v>4242</v>
       </c>
       <c r="E1390" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -37997,7 +38000,7 @@
         <v>2280</v>
       </c>
       <c r="E1392" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38014,7 +38017,7 @@
         <v>3417</v>
       </c>
       <c r="E1393" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38031,7 +38034,7 @@
         <v>4244</v>
       </c>
       <c r="E1394" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38116,7 +38119,7 @@
         <v>4246</v>
       </c>
       <c r="E1399" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38252,7 +38255,7 @@
         <v>4249</v>
       </c>
       <c r="E1407" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38286,7 +38289,7 @@
         <v>4250</v>
       </c>
       <c r="E1409" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38388,7 +38391,7 @@
         <v>2815</v>
       </c>
       <c r="E1415" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38422,7 +38425,7 @@
         <v>2398</v>
       </c>
       <c r="E1417" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38439,7 +38442,7 @@
         <v>4252</v>
       </c>
       <c r="E1418" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38456,7 +38459,7 @@
         <v>2451</v>
       </c>
       <c r="E1419" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38507,7 +38510,7 @@
         <v>2883</v>
       </c>
       <c r="E1422" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38643,7 +38646,7 @@
         <v>4255</v>
       </c>
       <c r="E1430" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38932,7 +38935,7 @@
         <v>4262</v>
       </c>
       <c r="E1447" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -38949,7 +38952,7 @@
         <v>4263</v>
       </c>
       <c r="E1448" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -38983,7 +38986,7 @@
         <v>2906</v>
       </c>
       <c r="E1450" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39034,7 +39037,7 @@
         <v>4265</v>
       </c>
       <c r="E1453" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39153,7 +39156,7 @@
         <v>4270</v>
       </c>
       <c r="E1460" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39170,7 +39173,7 @@
         <v>4271</v>
       </c>
       <c r="E1461" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39221,7 +39224,7 @@
         <v>4273</v>
       </c>
       <c r="E1464" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39238,7 +39241,7 @@
         <v>4274</v>
       </c>
       <c r="E1465" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39272,7 +39275,7 @@
         <v>4275</v>
       </c>
       <c r="E1467" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39289,7 +39292,7 @@
         <v>4276</v>
       </c>
       <c r="E1468" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39357,7 +39360,7 @@
         <v>4278</v>
       </c>
       <c r="E1472" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39374,7 +39377,7 @@
         <v>2923</v>
       </c>
       <c r="E1473" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39391,7 +39394,7 @@
         <v>4279</v>
       </c>
       <c r="E1474" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39408,7 +39411,7 @@
         <v>4280</v>
       </c>
       <c r="E1475" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39629,7 +39632,7 @@
         <v>4275</v>
       </c>
       <c r="E1488" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39646,7 +39649,7 @@
         <v>4288</v>
       </c>
       <c r="E1489" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39663,7 +39666,7 @@
         <v>3668</v>
       </c>
       <c r="E1490" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39782,7 +39785,7 @@
         <v>2942</v>
       </c>
       <c r="E1497" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39799,7 +39802,7 @@
         <v>4291</v>
       </c>
       <c r="E1498" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39833,7 +39836,7 @@
         <v>4292</v>
       </c>
       <c r="E1500" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39867,7 +39870,7 @@
         <v>3660</v>
       </c>
       <c r="E1502" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39884,7 +39887,7 @@
         <v>2960</v>
       </c>
       <c r="E1503" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39952,7 +39955,7 @@
         <v>2952</v>
       </c>
       <c r="E1507" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39969,7 +39972,7 @@
         <v>2861</v>
       </c>
       <c r="E1508" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -39986,7 +39989,7 @@
         <v>4296</v>
       </c>
       <c r="E1509" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40003,7 +40006,7 @@
         <v>4297</v>
       </c>
       <c r="E1510" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40037,7 +40040,7 @@
         <v>2956</v>
       </c>
       <c r="E1512" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40054,7 +40057,7 @@
         <v>4298</v>
       </c>
       <c r="E1513" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40071,7 +40074,7 @@
         <v>4299</v>
       </c>
       <c r="E1514" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40139,7 +40142,7 @@
         <v>4301</v>
       </c>
       <c r="E1518" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40173,7 +40176,7 @@
         <v>4299</v>
       </c>
       <c r="E1520" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40190,7 +40193,7 @@
         <v>4303</v>
       </c>
       <c r="E1521" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40207,7 +40210,7 @@
         <v>4304</v>
       </c>
       <c r="E1522" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40275,7 +40278,7 @@
         <v>2967</v>
       </c>
       <c r="E1526" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40309,7 +40312,7 @@
         <v>4306</v>
       </c>
       <c r="E1528" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40411,7 +40414,7 @@
         <v>4310</v>
       </c>
       <c r="E1534" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40649,7 +40652,7 @@
         <v>4318</v>
       </c>
       <c r="E1548" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40666,7 +40669,7 @@
         <v>3014</v>
       </c>
       <c r="E1549" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40683,7 +40686,7 @@
         <v>4319</v>
       </c>
       <c r="E1550" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40717,7 +40720,7 @@
         <v>4321</v>
       </c>
       <c r="E1552" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40734,7 +40737,7 @@
         <v>4322</v>
       </c>
       <c r="E1553" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40768,7 +40771,7 @@
         <v>3657</v>
       </c>
       <c r="E1555" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40819,7 +40822,7 @@
         <v>3001</v>
       </c>
       <c r="E1558" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40853,7 +40856,7 @@
         <v>4327</v>
       </c>
       <c r="E1560" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40870,7 +40873,7 @@
         <v>4328</v>
       </c>
       <c r="E1561" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40887,7 +40890,7 @@
         <v>4329</v>
       </c>
       <c r="E1562" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40938,7 +40941,7 @@
         <v>4292</v>
       </c>
       <c r="E1565" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41108,7 +41111,7 @@
         <v>4334</v>
       </c>
       <c r="E1575" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41193,7 +41196,7 @@
         <v>4337</v>
       </c>
       <c r="E1580" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41244,7 +41247,7 @@
         <v>4340</v>
       </c>
       <c r="E1583" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41261,7 +41264,7 @@
         <v>3661</v>
       </c>
       <c r="E1584" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41329,7 +41332,7 @@
         <v>4341</v>
       </c>
       <c r="E1588" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41567,7 +41570,7 @@
         <v>3022</v>
       </c>
       <c r="E1602" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41754,7 +41757,7 @@
         <v>3022</v>
       </c>
       <c r="E1613" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41924,7 +41927,7 @@
         <v>3022</v>
       </c>
       <c r="E1623" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -41941,7 +41944,7 @@
         <v>4343</v>
       </c>
       <c r="E1624" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -41958,7 +41961,7 @@
         <v>4344</v>
       </c>
       <c r="E1625" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -41975,7 +41978,7 @@
         <v>4345</v>
       </c>
       <c r="E1626" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42009,7 +42012,7 @@
         <v>4347</v>
       </c>
       <c r="E1628" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42026,7 +42029,7 @@
         <v>4348</v>
       </c>
       <c r="E1629" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42264,7 +42267,7 @@
         <v>3037</v>
       </c>
       <c r="E1643" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42349,7 +42352,7 @@
         <v>3037</v>
       </c>
       <c r="E1648" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42723,7 +42726,7 @@
         <v>3734</v>
       </c>
       <c r="E1670" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42757,7 +42760,7 @@
         <v>4358</v>
       </c>
       <c r="E1672" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42774,7 +42777,7 @@
         <v>4359</v>
       </c>
       <c r="E1673" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42791,7 +42794,7 @@
         <v>4360</v>
       </c>
       <c r="E1674" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42825,7 +42828,7 @@
         <v>4362</v>
       </c>
       <c r="E1676" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42842,7 +42845,7 @@
         <v>4363</v>
       </c>
       <c r="E1677" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42859,7 +42862,7 @@
         <v>4364</v>
       </c>
       <c r="E1678" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42876,7 +42879,7 @@
         <v>4365</v>
       </c>
       <c r="E1679" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42893,7 +42896,7 @@
         <v>4366</v>
       </c>
       <c r="E1680" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43029,7 +43032,7 @@
         <v>4369</v>
       </c>
       <c r="E1688" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43335,7 +43338,7 @@
         <v>3053</v>
       </c>
       <c r="E1706" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43386,7 +43389,7 @@
         <v>3053</v>
       </c>
       <c r="E1709" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43471,7 +43474,7 @@
         <v>4375</v>
       </c>
       <c r="E1714" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43488,7 +43491,7 @@
         <v>4376</v>
       </c>
       <c r="E1715" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43505,7 +43508,7 @@
         <v>4377</v>
       </c>
       <c r="E1716" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43573,7 +43576,7 @@
         <v>4380</v>
       </c>
       <c r="E1720" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43607,7 +43610,7 @@
         <v>4382</v>
       </c>
       <c r="E1722" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43641,7 +43644,7 @@
         <v>4384</v>
       </c>
       <c r="E1724" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43930,7 +43933,7 @@
         <v>3076</v>
       </c>
       <c r="E1741" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44423,7 +44426,7 @@
         <v>3104</v>
       </c>
       <c r="E1770" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44576,7 +44579,7 @@
         <v>4405</v>
       </c>
       <c r="E1779" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44899,7 +44902,7 @@
         <v>4413</v>
       </c>
       <c r="E1798" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -44933,7 +44936,7 @@
         <v>4414</v>
       </c>
       <c r="E1800" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45341,7 +45344,7 @@
         <v>3143</v>
       </c>
       <c r="E1824" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45358,7 +45361,7 @@
         <v>3133</v>
       </c>
       <c r="E1825" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45579,7 +45582,7 @@
         <v>4440</v>
       </c>
       <c r="E1838" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45681,7 +45684,7 @@
         <v>4445</v>
       </c>
       <c r="E1844" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45783,7 +45786,7 @@
         <v>3169</v>
       </c>
       <c r="E1850" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45851,7 +45854,7 @@
         <v>4010</v>
       </c>
       <c r="E1854" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46004,7 +46007,7 @@
         <v>3965</v>
       </c>
       <c r="E1863" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46072,7 +46075,7 @@
         <v>3938</v>
       </c>
       <c r="E1867" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46140,7 +46143,7 @@
         <v>3189</v>
       </c>
       <c r="E1871" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46174,7 +46177,7 @@
         <v>3191</v>
       </c>
       <c r="E1873" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46242,7 +46245,7 @@
         <v>4462</v>
       </c>
       <c r="E1877" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -48061,7 +48064,7 @@
         <v>3297</v>
       </c>
       <c r="E1984" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48469,7 +48472,7 @@
         <v>4532</v>
       </c>
       <c r="E2008" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48483,10 +48486,10 @@
         <v>3312</v>
       </c>
       <c r="D2009" t="s">
-        <v>3322</v>
+        <v>4533</v>
       </c>
       <c r="E2009" t="s">
-        <v>3322</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2010" spans="1:5">
@@ -48503,7 +48506,7 @@
         <v>3322</v>
       </c>
       <c r="E2010" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10055" uniqueCount="4657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10055" uniqueCount="4656">
   <si>
     <t>1. open</t>
   </si>
@@ -13624,9 +13624,6 @@
     <t>3.87190</t>
   </si>
   <si>
-    <t>3.84760</t>
-  </si>
-  <si>
     <t>3.19450</t>
   </si>
   <si>
@@ -13984,7 +13981,7 @@
     <t>3.87600</t>
   </si>
   <si>
-    <t>3.84920</t>
+    <t>3.84460</t>
   </si>
 </sst>
 </file>
@@ -17524,7 +17521,7 @@
         <v>2166</v>
       </c>
       <c r="E187" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19615,7 +19612,7 @@
         <v>2270</v>
       </c>
       <c r="E310" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -24630,7 +24627,7 @@
         <v>4081</v>
       </c>
       <c r="E605" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25021,7 +25018,7 @@
         <v>2479</v>
       </c>
       <c r="E628" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25786,7 +25783,7 @@
         <v>2315</v>
       </c>
       <c r="E673" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -28642,7 +28639,7 @@
         <v>2529</v>
       </c>
       <c r="E841" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -32212,7 +32209,7 @@
         <v>2233</v>
       </c>
       <c r="E1051" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -37771,7 +37768,7 @@
         <v>4236</v>
       </c>
       <c r="E1378" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37890,7 +37887,7 @@
         <v>4241</v>
       </c>
       <c r="E1385" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37941,7 +37938,7 @@
         <v>2287</v>
       </c>
       <c r="E1388" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -37958,7 +37955,7 @@
         <v>4244</v>
       </c>
       <c r="E1389" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -37975,7 +37972,7 @@
         <v>4245</v>
       </c>
       <c r="E1390" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38009,7 +38006,7 @@
         <v>2281</v>
       </c>
       <c r="E1392" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38026,7 +38023,7 @@
         <v>3419</v>
       </c>
       <c r="E1393" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38043,7 +38040,7 @@
         <v>4247</v>
       </c>
       <c r="E1394" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38128,7 +38125,7 @@
         <v>4249</v>
       </c>
       <c r="E1399" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38264,7 +38261,7 @@
         <v>4252</v>
       </c>
       <c r="E1407" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38298,7 +38295,7 @@
         <v>4253</v>
       </c>
       <c r="E1409" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38400,7 +38397,7 @@
         <v>2816</v>
       </c>
       <c r="E1415" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38434,7 +38431,7 @@
         <v>2399</v>
       </c>
       <c r="E1417" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38451,7 +38448,7 @@
         <v>4255</v>
       </c>
       <c r="E1418" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38468,7 +38465,7 @@
         <v>2452</v>
       </c>
       <c r="E1419" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38519,7 +38516,7 @@
         <v>2884</v>
       </c>
       <c r="E1422" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38655,7 +38652,7 @@
         <v>4258</v>
       </c>
       <c r="E1430" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38944,7 +38941,7 @@
         <v>4265</v>
       </c>
       <c r="E1447" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -38961,7 +38958,7 @@
         <v>4266</v>
       </c>
       <c r="E1448" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -38995,7 +38992,7 @@
         <v>2907</v>
       </c>
       <c r="E1450" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39046,7 +39043,7 @@
         <v>4268</v>
       </c>
       <c r="E1453" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39165,7 +39162,7 @@
         <v>4273</v>
       </c>
       <c r="E1460" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39182,7 +39179,7 @@
         <v>4274</v>
       </c>
       <c r="E1461" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39233,7 +39230,7 @@
         <v>4276</v>
       </c>
       <c r="E1464" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39250,7 +39247,7 @@
         <v>4277</v>
       </c>
       <c r="E1465" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39284,7 +39281,7 @@
         <v>4278</v>
       </c>
       <c r="E1467" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39301,7 +39298,7 @@
         <v>4279</v>
       </c>
       <c r="E1468" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39369,7 +39366,7 @@
         <v>4281</v>
       </c>
       <c r="E1472" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39386,7 +39383,7 @@
         <v>2924</v>
       </c>
       <c r="E1473" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39403,7 +39400,7 @@
         <v>4282</v>
       </c>
       <c r="E1474" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39420,7 +39417,7 @@
         <v>4283</v>
       </c>
       <c r="E1475" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39641,7 +39638,7 @@
         <v>4278</v>
       </c>
       <c r="E1488" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39658,7 +39655,7 @@
         <v>4291</v>
       </c>
       <c r="E1489" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39675,7 +39672,7 @@
         <v>3670</v>
       </c>
       <c r="E1490" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39794,7 +39791,7 @@
         <v>2943</v>
       </c>
       <c r="E1497" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39811,7 +39808,7 @@
         <v>4294</v>
       </c>
       <c r="E1498" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39845,7 +39842,7 @@
         <v>4295</v>
       </c>
       <c r="E1500" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39879,7 +39876,7 @@
         <v>3662</v>
       </c>
       <c r="E1502" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39896,7 +39893,7 @@
         <v>2961</v>
       </c>
       <c r="E1503" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39964,7 +39961,7 @@
         <v>2953</v>
       </c>
       <c r="E1507" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39981,7 +39978,7 @@
         <v>2862</v>
       </c>
       <c r="E1508" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -39998,7 +39995,7 @@
         <v>4299</v>
       </c>
       <c r="E1509" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40015,7 +40012,7 @@
         <v>4300</v>
       </c>
       <c r="E1510" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40049,7 +40046,7 @@
         <v>2957</v>
       </c>
       <c r="E1512" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40066,7 +40063,7 @@
         <v>4301</v>
       </c>
       <c r="E1513" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40083,7 +40080,7 @@
         <v>4302</v>
       </c>
       <c r="E1514" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40151,7 +40148,7 @@
         <v>4304</v>
       </c>
       <c r="E1518" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40185,7 +40182,7 @@
         <v>4302</v>
       </c>
       <c r="E1520" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40202,7 +40199,7 @@
         <v>4306</v>
       </c>
       <c r="E1521" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40219,7 +40216,7 @@
         <v>4307</v>
       </c>
       <c r="E1522" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40287,7 +40284,7 @@
         <v>2968</v>
       </c>
       <c r="E1526" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40321,7 +40318,7 @@
         <v>4309</v>
       </c>
       <c r="E1528" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40423,7 +40420,7 @@
         <v>4313</v>
       </c>
       <c r="E1534" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40661,7 +40658,7 @@
         <v>4321</v>
       </c>
       <c r="E1548" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40678,7 +40675,7 @@
         <v>3015</v>
       </c>
       <c r="E1549" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40695,7 +40692,7 @@
         <v>4322</v>
       </c>
       <c r="E1550" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40729,7 +40726,7 @@
         <v>4324</v>
       </c>
       <c r="E1552" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40746,7 +40743,7 @@
         <v>4325</v>
       </c>
       <c r="E1553" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40780,7 +40777,7 @@
         <v>3659</v>
       </c>
       <c r="E1555" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40831,7 +40828,7 @@
         <v>3002</v>
       </c>
       <c r="E1558" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40865,7 +40862,7 @@
         <v>4330</v>
       </c>
       <c r="E1560" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40882,7 +40879,7 @@
         <v>4331</v>
       </c>
       <c r="E1561" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40899,7 +40896,7 @@
         <v>4332</v>
       </c>
       <c r="E1562" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40950,7 +40947,7 @@
         <v>4295</v>
       </c>
       <c r="E1565" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41120,7 +41117,7 @@
         <v>4337</v>
       </c>
       <c r="E1575" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41205,7 +41202,7 @@
         <v>4340</v>
       </c>
       <c r="E1580" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41256,7 +41253,7 @@
         <v>4343</v>
       </c>
       <c r="E1583" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41273,7 +41270,7 @@
         <v>3663</v>
       </c>
       <c r="E1584" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41341,7 +41338,7 @@
         <v>4344</v>
       </c>
       <c r="E1588" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41579,7 +41576,7 @@
         <v>3023</v>
       </c>
       <c r="E1602" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41766,7 +41763,7 @@
         <v>3023</v>
       </c>
       <c r="E1613" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41936,7 +41933,7 @@
         <v>3023</v>
       </c>
       <c r="E1623" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -41953,7 +41950,7 @@
         <v>4346</v>
       </c>
       <c r="E1624" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -41970,7 +41967,7 @@
         <v>4347</v>
       </c>
       <c r="E1625" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -41987,7 +41984,7 @@
         <v>4348</v>
       </c>
       <c r="E1626" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42021,7 +42018,7 @@
         <v>4350</v>
       </c>
       <c r="E1628" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42038,7 +42035,7 @@
         <v>4351</v>
       </c>
       <c r="E1629" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42276,7 +42273,7 @@
         <v>3038</v>
       </c>
       <c r="E1643" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42361,7 +42358,7 @@
         <v>3038</v>
       </c>
       <c r="E1648" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42735,7 +42732,7 @@
         <v>3736</v>
       </c>
       <c r="E1670" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42769,7 +42766,7 @@
         <v>4361</v>
       </c>
       <c r="E1672" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42786,7 +42783,7 @@
         <v>4362</v>
       </c>
       <c r="E1673" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42803,7 +42800,7 @@
         <v>4363</v>
       </c>
       <c r="E1674" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42837,7 +42834,7 @@
         <v>4365</v>
       </c>
       <c r="E1676" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42854,7 +42851,7 @@
         <v>4366</v>
       </c>
       <c r="E1677" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42871,7 +42868,7 @@
         <v>4367</v>
       </c>
       <c r="E1678" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42888,7 +42885,7 @@
         <v>4368</v>
       </c>
       <c r="E1679" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42905,7 +42902,7 @@
         <v>4369</v>
       </c>
       <c r="E1680" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43041,7 +43038,7 @@
         <v>4372</v>
       </c>
       <c r="E1688" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43347,7 +43344,7 @@
         <v>3054</v>
       </c>
       <c r="E1706" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43398,7 +43395,7 @@
         <v>3054</v>
       </c>
       <c r="E1709" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43483,7 +43480,7 @@
         <v>4378</v>
       </c>
       <c r="E1714" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43500,7 +43497,7 @@
         <v>4379</v>
       </c>
       <c r="E1715" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43517,7 +43514,7 @@
         <v>4380</v>
       </c>
       <c r="E1716" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43585,7 +43582,7 @@
         <v>4383</v>
       </c>
       <c r="E1720" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43619,7 +43616,7 @@
         <v>4385</v>
       </c>
       <c r="E1722" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43653,7 +43650,7 @@
         <v>4387</v>
       </c>
       <c r="E1724" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43942,7 +43939,7 @@
         <v>3077</v>
       </c>
       <c r="E1741" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44435,7 +44432,7 @@
         <v>3105</v>
       </c>
       <c r="E1770" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44588,7 +44585,7 @@
         <v>4408</v>
       </c>
       <c r="E1779" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44911,7 +44908,7 @@
         <v>4416</v>
       </c>
       <c r="E1798" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -44945,7 +44942,7 @@
         <v>4417</v>
       </c>
       <c r="E1800" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45353,7 +45350,7 @@
         <v>3144</v>
       </c>
       <c r="E1824" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45370,7 +45367,7 @@
         <v>3134</v>
       </c>
       <c r="E1825" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45591,7 +45588,7 @@
         <v>4443</v>
       </c>
       <c r="E1838" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45693,7 +45690,7 @@
         <v>4448</v>
       </c>
       <c r="E1844" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45795,7 +45792,7 @@
         <v>3170</v>
       </c>
       <c r="E1850" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45863,7 +45860,7 @@
         <v>4012</v>
       </c>
       <c r="E1854" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46016,7 +46013,7 @@
         <v>3967</v>
       </c>
       <c r="E1863" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46084,7 +46081,7 @@
         <v>3940</v>
       </c>
       <c r="E1867" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46152,7 +46149,7 @@
         <v>3190</v>
       </c>
       <c r="E1871" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46186,7 +46183,7 @@
         <v>3192</v>
       </c>
       <c r="E1873" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46254,7 +46251,7 @@
         <v>4465</v>
       </c>
       <c r="E1877" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -48073,7 +48070,7 @@
         <v>3298</v>
       </c>
       <c r="E1984" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48481,7 +48478,7 @@
         <v>4535</v>
       </c>
       <c r="E2008" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48529,10 +48526,10 @@
         <v>4014</v>
       </c>
       <c r="D2011" t="s">
-        <v>4536</v>
+        <v>4387</v>
       </c>
       <c r="E2011" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10060" uniqueCount="4658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10060" uniqueCount="4657">
   <si>
     <t>1. open</t>
   </si>
@@ -13630,6 +13630,9 @@
     <t>3.87190</t>
   </si>
   <si>
+    <t>3.84040</t>
+  </si>
+  <si>
     <t>3.19450</t>
   </si>
   <si>
@@ -13969,9 +13972,6 @@
     <t>3.85940</t>
   </si>
   <si>
-    <t>3.84040</t>
-  </si>
-  <si>
     <t>3.83820</t>
   </si>
   <si>
@@ -13985,9 +13985,6 @@
   </si>
   <si>
     <t>3.87600</t>
-  </si>
-  <si>
-    <t>3.85850</t>
   </si>
 </sst>
 </file>
@@ -17527,7 +17524,7 @@
         <v>2167</v>
       </c>
       <c r="E187" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19618,7 +19615,7 @@
         <v>2271</v>
       </c>
       <c r="E310" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -24633,7 +24630,7 @@
         <v>4084</v>
       </c>
       <c r="E605" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25024,7 +25021,7 @@
         <v>2480</v>
       </c>
       <c r="E628" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25789,7 +25786,7 @@
         <v>2316</v>
       </c>
       <c r="E673" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -28645,7 +28642,7 @@
         <v>2530</v>
       </c>
       <c r="E841" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -32215,7 +32212,7 @@
         <v>2234</v>
       </c>
       <c r="E1051" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -37774,7 +37771,7 @@
         <v>4239</v>
       </c>
       <c r="E1378" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37893,7 +37890,7 @@
         <v>4244</v>
       </c>
       <c r="E1385" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37944,7 +37941,7 @@
         <v>2288</v>
       </c>
       <c r="E1388" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -37961,7 +37958,7 @@
         <v>4247</v>
       </c>
       <c r="E1389" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -37978,7 +37975,7 @@
         <v>4248</v>
       </c>
       <c r="E1390" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38012,7 +38009,7 @@
         <v>2282</v>
       </c>
       <c r="E1392" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38029,7 +38026,7 @@
         <v>3421</v>
       </c>
       <c r="E1393" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38046,7 +38043,7 @@
         <v>4250</v>
       </c>
       <c r="E1394" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38131,7 +38128,7 @@
         <v>4252</v>
       </c>
       <c r="E1399" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38267,7 +38264,7 @@
         <v>4255</v>
       </c>
       <c r="E1407" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38301,7 +38298,7 @@
         <v>4256</v>
       </c>
       <c r="E1409" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38403,7 +38400,7 @@
         <v>2817</v>
       </c>
       <c r="E1415" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38437,7 +38434,7 @@
         <v>2400</v>
       </c>
       <c r="E1417" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38454,7 +38451,7 @@
         <v>4258</v>
       </c>
       <c r="E1418" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38471,7 +38468,7 @@
         <v>2453</v>
       </c>
       <c r="E1419" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38522,7 +38519,7 @@
         <v>2885</v>
       </c>
       <c r="E1422" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38658,7 +38655,7 @@
         <v>4261</v>
       </c>
       <c r="E1430" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38947,7 +38944,7 @@
         <v>4268</v>
       </c>
       <c r="E1447" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -38964,7 +38961,7 @@
         <v>4269</v>
       </c>
       <c r="E1448" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -38998,7 +38995,7 @@
         <v>2908</v>
       </c>
       <c r="E1450" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39049,7 +39046,7 @@
         <v>4271</v>
       </c>
       <c r="E1453" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39168,7 +39165,7 @@
         <v>4276</v>
       </c>
       <c r="E1460" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39185,7 +39182,7 @@
         <v>4277</v>
       </c>
       <c r="E1461" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39236,7 +39233,7 @@
         <v>4279</v>
       </c>
       <c r="E1464" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39253,7 +39250,7 @@
         <v>4280</v>
       </c>
       <c r="E1465" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39287,7 +39284,7 @@
         <v>4281</v>
       </c>
       <c r="E1467" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39304,7 +39301,7 @@
         <v>4282</v>
       </c>
       <c r="E1468" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39372,7 +39369,7 @@
         <v>4284</v>
       </c>
       <c r="E1472" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39389,7 +39386,7 @@
         <v>2925</v>
       </c>
       <c r="E1473" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39406,7 +39403,7 @@
         <v>4285</v>
       </c>
       <c r="E1474" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39423,7 +39420,7 @@
         <v>4286</v>
       </c>
       <c r="E1475" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39644,7 +39641,7 @@
         <v>4281</v>
       </c>
       <c r="E1488" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39661,7 +39658,7 @@
         <v>4294</v>
       </c>
       <c r="E1489" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39678,7 +39675,7 @@
         <v>3672</v>
       </c>
       <c r="E1490" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39797,7 +39794,7 @@
         <v>2944</v>
       </c>
       <c r="E1497" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39814,7 +39811,7 @@
         <v>4297</v>
       </c>
       <c r="E1498" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39848,7 +39845,7 @@
         <v>4298</v>
       </c>
       <c r="E1500" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39882,7 +39879,7 @@
         <v>3664</v>
       </c>
       <c r="E1502" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39899,7 +39896,7 @@
         <v>2962</v>
       </c>
       <c r="E1503" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39967,7 +39964,7 @@
         <v>2954</v>
       </c>
       <c r="E1507" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39984,7 +39981,7 @@
         <v>2863</v>
       </c>
       <c r="E1508" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40001,7 +39998,7 @@
         <v>4302</v>
       </c>
       <c r="E1509" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40018,7 +40015,7 @@
         <v>4303</v>
       </c>
       <c r="E1510" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40052,7 +40049,7 @@
         <v>2958</v>
       </c>
       <c r="E1512" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40069,7 +40066,7 @@
         <v>4304</v>
       </c>
       <c r="E1513" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40086,7 +40083,7 @@
         <v>4305</v>
       </c>
       <c r="E1514" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40154,7 +40151,7 @@
         <v>4307</v>
       </c>
       <c r="E1518" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40188,7 +40185,7 @@
         <v>4305</v>
       </c>
       <c r="E1520" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40205,7 +40202,7 @@
         <v>4309</v>
       </c>
       <c r="E1521" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40222,7 +40219,7 @@
         <v>4310</v>
       </c>
       <c r="E1522" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40290,7 +40287,7 @@
         <v>2969</v>
       </c>
       <c r="E1526" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40324,7 +40321,7 @@
         <v>4312</v>
       </c>
       <c r="E1528" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40426,7 +40423,7 @@
         <v>4316</v>
       </c>
       <c r="E1534" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40664,7 +40661,7 @@
         <v>4324</v>
       </c>
       <c r="E1548" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40681,7 +40678,7 @@
         <v>3016</v>
       </c>
       <c r="E1549" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40698,7 +40695,7 @@
         <v>4325</v>
       </c>
       <c r="E1550" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40732,7 +40729,7 @@
         <v>4327</v>
       </c>
       <c r="E1552" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40749,7 +40746,7 @@
         <v>4328</v>
       </c>
       <c r="E1553" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40783,7 +40780,7 @@
         <v>3661</v>
       </c>
       <c r="E1555" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40834,7 +40831,7 @@
         <v>3003</v>
       </c>
       <c r="E1558" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40868,7 +40865,7 @@
         <v>4333</v>
       </c>
       <c r="E1560" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40885,7 +40882,7 @@
         <v>4334</v>
       </c>
       <c r="E1561" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40902,7 +40899,7 @@
         <v>4335</v>
       </c>
       <c r="E1562" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40953,7 +40950,7 @@
         <v>4298</v>
       </c>
       <c r="E1565" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41123,7 +41120,7 @@
         <v>4340</v>
       </c>
       <c r="E1575" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41208,7 +41205,7 @@
         <v>4343</v>
       </c>
       <c r="E1580" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41259,7 +41256,7 @@
         <v>4346</v>
       </c>
       <c r="E1583" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41276,7 +41273,7 @@
         <v>3665</v>
       </c>
       <c r="E1584" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41344,7 +41341,7 @@
         <v>4347</v>
       </c>
       <c r="E1588" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41582,7 +41579,7 @@
         <v>3024</v>
       </c>
       <c r="E1602" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41769,7 +41766,7 @@
         <v>3024</v>
       </c>
       <c r="E1613" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41939,7 +41936,7 @@
         <v>3024</v>
       </c>
       <c r="E1623" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -41956,7 +41953,7 @@
         <v>4349</v>
       </c>
       <c r="E1624" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -41973,7 +41970,7 @@
         <v>4350</v>
       </c>
       <c r="E1625" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -41990,7 +41987,7 @@
         <v>4351</v>
       </c>
       <c r="E1626" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42024,7 +42021,7 @@
         <v>4353</v>
       </c>
       <c r="E1628" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42041,7 +42038,7 @@
         <v>4354</v>
       </c>
       <c r="E1629" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42279,7 +42276,7 @@
         <v>3039</v>
       </c>
       <c r="E1643" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42364,7 +42361,7 @@
         <v>3039</v>
       </c>
       <c r="E1648" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42738,7 +42735,7 @@
         <v>3738</v>
       </c>
       <c r="E1670" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42772,7 +42769,7 @@
         <v>4364</v>
       </c>
       <c r="E1672" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42789,7 +42786,7 @@
         <v>4365</v>
       </c>
       <c r="E1673" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42806,7 +42803,7 @@
         <v>4366</v>
       </c>
       <c r="E1674" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42840,7 +42837,7 @@
         <v>4368</v>
       </c>
       <c r="E1676" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42857,7 +42854,7 @@
         <v>4369</v>
       </c>
       <c r="E1677" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42874,7 +42871,7 @@
         <v>4370</v>
       </c>
       <c r="E1678" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42891,7 +42888,7 @@
         <v>4371</v>
       </c>
       <c r="E1679" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42908,7 +42905,7 @@
         <v>4372</v>
       </c>
       <c r="E1680" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43044,7 +43041,7 @@
         <v>4375</v>
       </c>
       <c r="E1688" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43350,7 +43347,7 @@
         <v>3055</v>
       </c>
       <c r="E1706" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43401,7 +43398,7 @@
         <v>3055</v>
       </c>
       <c r="E1709" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43486,7 +43483,7 @@
         <v>4381</v>
       </c>
       <c r="E1714" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43503,7 +43500,7 @@
         <v>4382</v>
       </c>
       <c r="E1715" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43520,7 +43517,7 @@
         <v>4383</v>
       </c>
       <c r="E1716" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43588,7 +43585,7 @@
         <v>4386</v>
       </c>
       <c r="E1720" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43622,7 +43619,7 @@
         <v>4017</v>
       </c>
       <c r="E1722" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43656,7 +43653,7 @@
         <v>4389</v>
       </c>
       <c r="E1724" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43945,7 +43942,7 @@
         <v>3078</v>
       </c>
       <c r="E1741" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44438,7 +44435,7 @@
         <v>3106</v>
       </c>
       <c r="E1770" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44591,7 +44588,7 @@
         <v>4410</v>
       </c>
       <c r="E1779" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44914,7 +44911,7 @@
         <v>4418</v>
       </c>
       <c r="E1798" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -44948,7 +44945,7 @@
         <v>4419</v>
       </c>
       <c r="E1800" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45356,7 +45353,7 @@
         <v>3145</v>
       </c>
       <c r="E1824" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45373,7 +45370,7 @@
         <v>3135</v>
       </c>
       <c r="E1825" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45594,7 +45591,7 @@
         <v>4445</v>
       </c>
       <c r="E1838" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45696,7 +45693,7 @@
         <v>4450</v>
       </c>
       <c r="E1844" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45798,7 +45795,7 @@
         <v>3171</v>
       </c>
       <c r="E1850" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45866,7 +45863,7 @@
         <v>4014</v>
       </c>
       <c r="E1854" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46019,7 +46016,7 @@
         <v>3969</v>
       </c>
       <c r="E1863" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46087,7 +46084,7 @@
         <v>3942</v>
       </c>
       <c r="E1867" t="s">
-        <v>4651</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -48549,10 +48546,10 @@
         <v>4017</v>
       </c>
       <c r="D2012" t="s">
-        <v>3925</v>
+        <v>4538</v>
       </c>
       <c r="E2012" t="s">
-        <v>4657</v>
+        <v>4538</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10065" uniqueCount="4662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10065" uniqueCount="4661">
   <si>
     <t>1. open</t>
   </si>
@@ -13642,7 +13642,7 @@
     <t>3.84040</t>
   </si>
   <si>
-    <t>3.82590</t>
+    <t>3.82100</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -13997,9 +13997,6 @@
   </si>
   <si>
     <t>3.87600</t>
-  </si>
-  <si>
-    <t>3.84070</t>
   </si>
 </sst>
 </file>
@@ -48581,7 +48578,7 @@
         <v>4542</v>
       </c>
       <c r="E2013" t="s">
-        <v>4661</v>
+        <v>3192</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -22396,7 +22396,7 @@
     <t>3.77300</t>
   </si>
   <si>
-    <t>3.82550</t>
+    <t>3.83040</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12100,7 +12100,7 @@
     <t>3.86180</t>
   </si>
   <si>
-    <t>3.87880</t>
+    <t>3.87980</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14032,7 +14032,7 @@
     <t>3.83040</t>
   </si>
   <si>
-    <t>3.87840</t>
+    <t>3.86890</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="4676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="4675">
   <si>
     <t>1. open</t>
   </si>
@@ -13681,9 +13681,6 @@
     <t>3.83430</t>
   </si>
   <si>
-    <t>3.84520</t>
-  </si>
-  <si>
     <t>3.19450</t>
   </si>
   <si>
@@ -14041,7 +14038,7 @@
     <t>3.83040</t>
   </si>
   <si>
-    <t>3.85280</t>
+    <t>3.84900</t>
   </si>
 </sst>
 </file>
@@ -17581,7 +17578,7 @@
         <v>2172</v>
       </c>
       <c r="E187" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -19672,7 +19669,7 @@
         <v>2276</v>
       </c>
       <c r="E310" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -24687,7 +24684,7 @@
         <v>4097</v>
       </c>
       <c r="E605" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25078,7 +25075,7 @@
         <v>2485</v>
       </c>
       <c r="E628" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25843,7 +25840,7 @@
         <v>2321</v>
       </c>
       <c r="E673" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -28699,7 +28696,7 @@
         <v>2535</v>
       </c>
       <c r="E841" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -32269,7 +32266,7 @@
         <v>2239</v>
       </c>
       <c r="E1051" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -37828,7 +37825,7 @@
         <v>4252</v>
       </c>
       <c r="E1378" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37947,7 +37944,7 @@
         <v>4257</v>
       </c>
       <c r="E1385" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37998,7 +37995,7 @@
         <v>2293</v>
       </c>
       <c r="E1388" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38015,7 +38012,7 @@
         <v>4260</v>
       </c>
       <c r="E1389" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38032,7 +38029,7 @@
         <v>4261</v>
       </c>
       <c r="E1390" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38066,7 +38063,7 @@
         <v>2287</v>
       </c>
       <c r="E1392" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38083,7 +38080,7 @@
         <v>3430</v>
       </c>
       <c r="E1393" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38100,7 +38097,7 @@
         <v>4263</v>
       </c>
       <c r="E1394" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38185,7 +38182,7 @@
         <v>4265</v>
       </c>
       <c r="E1399" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38321,7 +38318,7 @@
         <v>4268</v>
       </c>
       <c r="E1407" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38355,7 +38352,7 @@
         <v>4269</v>
       </c>
       <c r="E1409" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38457,7 +38454,7 @@
         <v>2822</v>
       </c>
       <c r="E1415" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38491,7 +38488,7 @@
         <v>2405</v>
       </c>
       <c r="E1417" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38508,7 +38505,7 @@
         <v>4271</v>
       </c>
       <c r="E1418" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38525,7 +38522,7 @@
         <v>2458</v>
       </c>
       <c r="E1419" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38576,7 +38573,7 @@
         <v>2890</v>
       </c>
       <c r="E1422" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38712,7 +38709,7 @@
         <v>4274</v>
       </c>
       <c r="E1430" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -39001,7 +38998,7 @@
         <v>4281</v>
       </c>
       <c r="E1447" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39018,7 +39015,7 @@
         <v>4282</v>
       </c>
       <c r="E1448" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39052,7 +39049,7 @@
         <v>2913</v>
       </c>
       <c r="E1450" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39103,7 +39100,7 @@
         <v>4284</v>
       </c>
       <c r="E1453" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39222,7 +39219,7 @@
         <v>4289</v>
       </c>
       <c r="E1460" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39239,7 +39236,7 @@
         <v>4290</v>
       </c>
       <c r="E1461" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39290,7 +39287,7 @@
         <v>4292</v>
       </c>
       <c r="E1464" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39307,7 +39304,7 @@
         <v>4293</v>
       </c>
       <c r="E1465" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39341,7 +39338,7 @@
         <v>4294</v>
       </c>
       <c r="E1467" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39358,7 +39355,7 @@
         <v>4295</v>
       </c>
       <c r="E1468" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39426,7 +39423,7 @@
         <v>4297</v>
       </c>
       <c r="E1472" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39443,7 +39440,7 @@
         <v>2930</v>
       </c>
       <c r="E1473" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39460,7 +39457,7 @@
         <v>4298</v>
       </c>
       <c r="E1474" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39477,7 +39474,7 @@
         <v>4299</v>
       </c>
       <c r="E1475" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39698,7 +39695,7 @@
         <v>4294</v>
       </c>
       <c r="E1488" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39715,7 +39712,7 @@
         <v>4307</v>
       </c>
       <c r="E1489" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39732,7 +39729,7 @@
         <v>3681</v>
       </c>
       <c r="E1490" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39851,7 +39848,7 @@
         <v>2949</v>
       </c>
       <c r="E1497" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39868,7 +39865,7 @@
         <v>4310</v>
       </c>
       <c r="E1498" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39902,7 +39899,7 @@
         <v>4311</v>
       </c>
       <c r="E1500" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39936,7 +39933,7 @@
         <v>3673</v>
       </c>
       <c r="E1502" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39953,7 +39950,7 @@
         <v>2967</v>
       </c>
       <c r="E1503" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40021,7 +40018,7 @@
         <v>2959</v>
       </c>
       <c r="E1507" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40038,7 +40035,7 @@
         <v>2868</v>
       </c>
       <c r="E1508" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40055,7 +40052,7 @@
         <v>4315</v>
       </c>
       <c r="E1509" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40072,7 +40069,7 @@
         <v>4316</v>
       </c>
       <c r="E1510" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40106,7 +40103,7 @@
         <v>2963</v>
       </c>
       <c r="E1512" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40123,7 +40120,7 @@
         <v>4317</v>
       </c>
       <c r="E1513" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40140,7 +40137,7 @@
         <v>4318</v>
       </c>
       <c r="E1514" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40208,7 +40205,7 @@
         <v>4320</v>
       </c>
       <c r="E1518" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40242,7 +40239,7 @@
         <v>4318</v>
       </c>
       <c r="E1520" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40259,7 +40256,7 @@
         <v>4322</v>
       </c>
       <c r="E1521" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40276,7 +40273,7 @@
         <v>4323</v>
       </c>
       <c r="E1522" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40344,7 +40341,7 @@
         <v>2974</v>
       </c>
       <c r="E1526" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40378,7 +40375,7 @@
         <v>4325</v>
       </c>
       <c r="E1528" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40480,7 +40477,7 @@
         <v>4329</v>
       </c>
       <c r="E1534" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40718,7 +40715,7 @@
         <v>4337</v>
       </c>
       <c r="E1548" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40735,7 +40732,7 @@
         <v>3021</v>
       </c>
       <c r="E1549" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40752,7 +40749,7 @@
         <v>4338</v>
       </c>
       <c r="E1550" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40786,7 +40783,7 @@
         <v>4340</v>
       </c>
       <c r="E1552" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40803,7 +40800,7 @@
         <v>4341</v>
       </c>
       <c r="E1553" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40837,7 +40834,7 @@
         <v>3670</v>
       </c>
       <c r="E1555" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40888,7 +40885,7 @@
         <v>3008</v>
       </c>
       <c r="E1558" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40922,7 +40919,7 @@
         <v>4346</v>
       </c>
       <c r="E1560" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40939,7 +40936,7 @@
         <v>4347</v>
       </c>
       <c r="E1561" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40956,7 +40953,7 @@
         <v>4348</v>
       </c>
       <c r="E1562" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41007,7 +41004,7 @@
         <v>4311</v>
       </c>
       <c r="E1565" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41177,7 +41174,7 @@
         <v>4353</v>
       </c>
       <c r="E1575" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41262,7 +41259,7 @@
         <v>4356</v>
       </c>
       <c r="E1580" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41313,7 +41310,7 @@
         <v>4359</v>
       </c>
       <c r="E1583" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41330,7 +41327,7 @@
         <v>3674</v>
       </c>
       <c r="E1584" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41398,7 +41395,7 @@
         <v>4360</v>
       </c>
       <c r="E1588" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41636,7 +41633,7 @@
         <v>3029</v>
       </c>
       <c r="E1602" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41823,7 +41820,7 @@
         <v>3029</v>
       </c>
       <c r="E1613" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41993,7 +41990,7 @@
         <v>3029</v>
       </c>
       <c r="E1623" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42010,7 +42007,7 @@
         <v>4362</v>
       </c>
       <c r="E1624" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42027,7 +42024,7 @@
         <v>4363</v>
       </c>
       <c r="E1625" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42044,7 +42041,7 @@
         <v>4364</v>
       </c>
       <c r="E1626" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42078,7 +42075,7 @@
         <v>4366</v>
       </c>
       <c r="E1628" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42095,7 +42092,7 @@
         <v>4367</v>
       </c>
       <c r="E1629" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42333,7 +42330,7 @@
         <v>3044</v>
       </c>
       <c r="E1643" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42418,7 +42415,7 @@
         <v>3044</v>
       </c>
       <c r="E1648" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42792,7 +42789,7 @@
         <v>3747</v>
       </c>
       <c r="E1670" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42826,7 +42823,7 @@
         <v>4377</v>
       </c>
       <c r="E1672" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42843,7 +42840,7 @@
         <v>4378</v>
       </c>
       <c r="E1673" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42860,7 +42857,7 @@
         <v>4379</v>
       </c>
       <c r="E1674" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42894,7 +42891,7 @@
         <v>4381</v>
       </c>
       <c r="E1676" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42911,7 +42908,7 @@
         <v>4382</v>
       </c>
       <c r="E1677" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42928,7 +42925,7 @@
         <v>4383</v>
       </c>
       <c r="E1678" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42945,7 +42942,7 @@
         <v>4384</v>
       </c>
       <c r="E1679" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42962,7 +42959,7 @@
         <v>4385</v>
       </c>
       <c r="E1680" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43098,7 +43095,7 @@
         <v>4388</v>
       </c>
       <c r="E1688" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43404,7 +43401,7 @@
         <v>3060</v>
       </c>
       <c r="E1706" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43455,7 +43452,7 @@
         <v>3060</v>
       </c>
       <c r="E1709" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43540,7 +43537,7 @@
         <v>4394</v>
       </c>
       <c r="E1714" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43557,7 +43554,7 @@
         <v>4395</v>
       </c>
       <c r="E1715" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43574,7 +43571,7 @@
         <v>4396</v>
       </c>
       <c r="E1716" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43642,7 +43639,7 @@
         <v>4399</v>
       </c>
       <c r="E1720" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43676,7 +43673,7 @@
         <v>4026</v>
       </c>
       <c r="E1722" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43710,7 +43707,7 @@
         <v>4402</v>
       </c>
       <c r="E1724" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43999,7 +43996,7 @@
         <v>3083</v>
       </c>
       <c r="E1741" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44492,7 +44489,7 @@
         <v>3111</v>
       </c>
       <c r="E1770" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44645,7 +44642,7 @@
         <v>4423</v>
       </c>
       <c r="E1779" t="s">
-        <v>4659</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44968,7 +44965,7 @@
         <v>4431</v>
       </c>
       <c r="E1798" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45002,7 +44999,7 @@
         <v>4432</v>
       </c>
       <c r="E1800" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45410,7 +45407,7 @@
         <v>3150</v>
       </c>
       <c r="E1824" t="s">
-        <v>4662</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45427,7 +45424,7 @@
         <v>3140</v>
       </c>
       <c r="E1825" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45648,7 +45645,7 @@
         <v>4458</v>
       </c>
       <c r="E1838" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45750,7 +45747,7 @@
         <v>4463</v>
       </c>
       <c r="E1844" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45852,7 +45849,7 @@
         <v>3176</v>
       </c>
       <c r="E1850" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45920,7 +45917,7 @@
         <v>4023</v>
       </c>
       <c r="E1854" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46073,7 +46070,7 @@
         <v>3978</v>
       </c>
       <c r="E1863" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46209,7 +46206,7 @@
         <v>3196</v>
       </c>
       <c r="E1871" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46243,7 +46240,7 @@
         <v>3198</v>
       </c>
       <c r="E1873" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46311,7 +46308,7 @@
         <v>4480</v>
       </c>
       <c r="E1877" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -48130,7 +48127,7 @@
         <v>3304</v>
       </c>
       <c r="E1984" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48538,7 +48535,7 @@
         <v>4550</v>
       </c>
       <c r="E2008" t="s">
-        <v>4673</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48640,7 +48637,7 @@
         <v>4553</v>
       </c>
       <c r="E2014" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48688,10 +48685,10 @@
         <v>3335</v>
       </c>
       <c r="D2017" t="s">
-        <v>4555</v>
+        <v>4028</v>
       </c>
       <c r="E2017" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="4676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="4678">
   <si>
     <t>1. open</t>
   </si>
@@ -12115,6 +12115,9 @@
     <t>3.87980</t>
   </si>
   <si>
+    <t>3.86780</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -14042,6 +14045,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.85570</t>
   </si>
 </sst>
 </file>
@@ -14467,7 +14473,7 @@
         <v>2024</v>
       </c>
       <c r="D4" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="E4" t="s">
         <v>2025</v>
@@ -14722,7 +14728,7 @@
         <v>2037</v>
       </c>
       <c r="D19" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E19" t="s">
         <v>2038</v>
@@ -14739,7 +14745,7 @@
         <v>2038</v>
       </c>
       <c r="D20" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="E20" t="s">
         <v>2039</v>
@@ -14841,7 +14847,7 @@
         <v>2043</v>
       </c>
       <c r="D26" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="E26" t="s">
         <v>2043</v>
@@ -14892,7 +14898,7 @@
         <v>2045</v>
       </c>
       <c r="D29" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="E29" t="s">
         <v>2045</v>
@@ -14943,7 +14949,7 @@
         <v>3343</v>
       </c>
       <c r="D32" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="E32" t="s">
         <v>2046</v>
@@ -15045,7 +15051,7 @@
         <v>2051</v>
       </c>
       <c r="D38" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="E38" t="s">
         <v>2052</v>
@@ -15147,7 +15153,7 @@
         <v>2057</v>
       </c>
       <c r="D44" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="E44" t="s">
         <v>2058</v>
@@ -15164,7 +15170,7 @@
         <v>2058</v>
       </c>
       <c r="D45" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E45" t="s">
         <v>2055</v>
@@ -15181,7 +15187,7 @@
         <v>3346</v>
       </c>
       <c r="D46" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="E46" t="s">
         <v>2059</v>
@@ -15232,7 +15238,7 @@
         <v>2060</v>
       </c>
       <c r="D49" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="E49" t="s">
         <v>2061</v>
@@ -15249,7 +15255,7 @@
         <v>2062</v>
       </c>
       <c r="D50" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="E50" t="s">
         <v>2062</v>
@@ -15283,7 +15289,7 @@
         <v>2064</v>
       </c>
       <c r="D52" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="E52" t="s">
         <v>2064</v>
@@ -15300,7 +15306,7 @@
         <v>3347</v>
       </c>
       <c r="D53" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E53" t="s">
         <v>2065</v>
@@ -15317,7 +15323,7 @@
         <v>2064</v>
       </c>
       <c r="D54" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="E54" t="s">
         <v>2066</v>
@@ -15470,7 +15476,7 @@
         <v>2075</v>
       </c>
       <c r="D63" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="E63" t="s">
         <v>2075</v>
@@ -15640,7 +15646,7 @@
         <v>2082</v>
       </c>
       <c r="D73" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="E73" t="s">
         <v>2083</v>
@@ -15742,7 +15748,7 @@
         <v>2087</v>
       </c>
       <c r="D79" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E79" t="s">
         <v>2085</v>
@@ -15759,7 +15765,7 @@
         <v>2085</v>
       </c>
       <c r="D80" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E80" t="s">
         <v>2088</v>
@@ -16048,7 +16054,7 @@
         <v>3358</v>
       </c>
       <c r="D97" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="E97" t="s">
         <v>2089</v>
@@ -16541,10 +16547,10 @@
         <v>2125</v>
       </c>
       <c r="D126" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="E126" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16626,7 +16632,7 @@
         <v>3373</v>
       </c>
       <c r="D131" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="E131" t="s">
         <v>2130</v>
@@ -16745,7 +16751,7 @@
         <v>3372</v>
       </c>
       <c r="D138" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E138" t="s">
         <v>2136</v>
@@ -16779,7 +16785,7 @@
         <v>3373</v>
       </c>
       <c r="D140" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="E140" t="s">
         <v>2118</v>
@@ -16796,7 +16802,7 @@
         <v>2137</v>
       </c>
       <c r="D141" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E141" t="s">
         <v>2137</v>
@@ -16813,7 +16819,7 @@
         <v>3378</v>
       </c>
       <c r="D142" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="E142" t="s">
         <v>2124</v>
@@ -16898,7 +16904,7 @@
         <v>3364</v>
       </c>
       <c r="D147" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="E147" t="s">
         <v>2141</v>
@@ -17204,7 +17210,7 @@
         <v>2155</v>
       </c>
       <c r="D165" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="E165" t="s">
         <v>2156</v>
@@ -17442,10 +17448,10 @@
         <v>2166</v>
       </c>
       <c r="D179" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E179" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17581,7 +17587,7 @@
         <v>2173</v>
       </c>
       <c r="E187" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18003,7 +18009,7 @@
         <v>3396</v>
       </c>
       <c r="D212" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="E212" t="s">
         <v>3396</v>
@@ -18037,7 +18043,7 @@
         <v>2196</v>
       </c>
       <c r="D214" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="E214" t="s">
         <v>2196</v>
@@ -18326,10 +18332,10 @@
         <v>2212</v>
       </c>
       <c r="D231" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E231" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19672,7 +19678,7 @@
         <v>2277</v>
       </c>
       <c r="E310" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19771,7 +19777,7 @@
         <v>3431</v>
       </c>
       <c r="D316" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E316" t="s">
         <v>2284</v>
@@ -20009,7 +20015,7 @@
         <v>2293</v>
       </c>
       <c r="D330" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E330" t="s">
         <v>2294</v>
@@ -20026,7 +20032,7 @@
         <v>2294</v>
       </c>
       <c r="D331" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E331" t="s">
         <v>2295</v>
@@ -20111,7 +20117,7 @@
         <v>2298</v>
       </c>
       <c r="D336" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="E336" t="s">
         <v>2299</v>
@@ -20366,7 +20372,7 @@
         <v>2460</v>
       </c>
       <c r="D351" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E351" t="s">
         <v>2245</v>
@@ -20383,7 +20389,7 @@
         <v>3411</v>
       </c>
       <c r="D352" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E352" t="s">
         <v>2311</v>
@@ -20587,10 +20593,10 @@
         <v>2321</v>
       </c>
       <c r="D364" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E364" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20604,7 +20610,7 @@
         <v>2367</v>
       </c>
       <c r="D365" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E365" t="s">
         <v>2322</v>
@@ -21352,7 +21358,7 @@
         <v>2356</v>
       </c>
       <c r="D409" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E409" t="s">
         <v>2356</v>
@@ -21913,7 +21919,7 @@
         <v>2378</v>
       </c>
       <c r="D442" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E442" t="s">
         <v>2379</v>
@@ -22100,7 +22106,7 @@
         <v>3452</v>
       </c>
       <c r="D453" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E453" t="s">
         <v>2340</v>
@@ -22372,7 +22378,7 @@
         <v>2400</v>
       </c>
       <c r="D469" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E469" t="s">
         <v>2401</v>
@@ -22440,7 +22446,7 @@
         <v>3457</v>
       </c>
       <c r="D473" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E473" t="s">
         <v>3416</v>
@@ -22627,7 +22633,7 @@
         <v>3411</v>
       </c>
       <c r="D484" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E484" t="s">
         <v>2412</v>
@@ -23392,7 +23398,7 @@
         <v>2440</v>
       </c>
       <c r="D529" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E529" t="s">
         <v>2441</v>
@@ -23528,7 +23534,7 @@
         <v>2443</v>
       </c>
       <c r="D537" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E537" t="s">
         <v>2447</v>
@@ -23579,7 +23585,7 @@
         <v>3465</v>
       </c>
       <c r="D540" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E540" t="s">
         <v>2450</v>
@@ -23596,7 +23602,7 @@
         <v>2302</v>
       </c>
       <c r="D541" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E541" t="s">
         <v>2420</v>
@@ -23647,7 +23653,7 @@
         <v>3466</v>
       </c>
       <c r="D544" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E544" t="s">
         <v>2453</v>
@@ -23664,7 +23670,7 @@
         <v>3467</v>
       </c>
       <c r="D545" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E545" t="s">
         <v>2454</v>
@@ -23681,7 +23687,7 @@
         <v>2418</v>
       </c>
       <c r="D546" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E546" t="s">
         <v>2308</v>
@@ -23732,7 +23738,7 @@
         <v>2433</v>
       </c>
       <c r="D549" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E549" t="s">
         <v>2455</v>
@@ -23766,7 +23772,7 @@
         <v>2242</v>
       </c>
       <c r="D551" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E551" t="s">
         <v>2456</v>
@@ -23868,7 +23874,7 @@
         <v>2406</v>
       </c>
       <c r="D557" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E557" t="s">
         <v>2461</v>
@@ -23902,7 +23908,7 @@
         <v>2887</v>
       </c>
       <c r="D559" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E559" t="s">
         <v>2462</v>
@@ -23919,7 +23925,7 @@
         <v>2462</v>
       </c>
       <c r="D560" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E560" t="s">
         <v>2392</v>
@@ -23953,7 +23959,7 @@
         <v>3473</v>
       </c>
       <c r="D562" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E562" t="s">
         <v>2463</v>
@@ -23987,10 +23993,10 @@
         <v>2303</v>
       </c>
       <c r="D564" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E564" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24038,7 +24044,7 @@
         <v>3474</v>
       </c>
       <c r="D567" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E567" t="s">
         <v>2467</v>
@@ -24106,7 +24112,7 @@
         <v>3475</v>
       </c>
       <c r="D571" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E571" t="s">
         <v>2471</v>
@@ -24157,7 +24163,7 @@
         <v>2365</v>
       </c>
       <c r="D574" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E574" t="s">
         <v>2223</v>
@@ -24191,7 +24197,7 @@
         <v>3476</v>
       </c>
       <c r="D576" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E576" t="s">
         <v>2475</v>
@@ -24208,7 +24214,7 @@
         <v>2775</v>
       </c>
       <c r="D577" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E577" t="s">
         <v>2476</v>
@@ -24225,7 +24231,7 @@
         <v>2772</v>
       </c>
       <c r="D578" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E578" t="s">
         <v>2477</v>
@@ -24259,7 +24265,7 @@
         <v>2478</v>
       </c>
       <c r="D580" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E580" t="s">
         <v>2479</v>
@@ -24327,7 +24333,7 @@
         <v>2322</v>
       </c>
       <c r="D584" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E584" t="s">
         <v>2483</v>
@@ -24412,7 +24418,7 @@
         <v>2220</v>
       </c>
       <c r="D589" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E589" t="s">
         <v>2486</v>
@@ -24463,7 +24469,7 @@
         <v>2568</v>
       </c>
       <c r="D592" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E592" t="s">
         <v>2488</v>
@@ -24684,10 +24690,10 @@
         <v>2525</v>
       </c>
       <c r="D605" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E605" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24735,7 +24741,7 @@
         <v>2481</v>
       </c>
       <c r="D608" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E608" t="s">
         <v>2495</v>
@@ -24837,7 +24843,7 @@
         <v>3483</v>
       </c>
       <c r="D614" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E614" t="s">
         <v>2500</v>
@@ -25078,7 +25084,7 @@
         <v>2486</v>
       </c>
       <c r="E628" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25143,7 +25149,7 @@
         <v>2219</v>
       </c>
       <c r="D632" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E632" t="s">
         <v>2508</v>
@@ -25418,7 +25424,7 @@
         <v>2494</v>
       </c>
       <c r="E648" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25551,7 +25557,7 @@
         <v>2493</v>
       </c>
       <c r="D656" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E656" t="s">
         <v>2367</v>
@@ -25602,7 +25608,7 @@
         <v>2514</v>
       </c>
       <c r="D659" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E659" t="s">
         <v>2527</v>
@@ -25738,7 +25744,7 @@
         <v>2514</v>
       </c>
       <c r="D667" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E667" t="s">
         <v>2523</v>
@@ -25823,7 +25829,7 @@
         <v>3479</v>
       </c>
       <c r="D672" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E672" t="s">
         <v>2479</v>
@@ -25843,7 +25849,7 @@
         <v>2322</v>
       </c>
       <c r="E673" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -25874,7 +25880,7 @@
         <v>2674</v>
       </c>
       <c r="D675" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E675" t="s">
         <v>2531</v>
@@ -26044,7 +26050,7 @@
         <v>2183</v>
       </c>
       <c r="D685" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E685" t="s">
         <v>2506</v>
@@ -26231,7 +26237,7 @@
         <v>3489</v>
       </c>
       <c r="D696" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E696" t="s">
         <v>2541</v>
@@ -26639,7 +26645,7 @@
         <v>2486</v>
       </c>
       <c r="D720" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E720" t="s">
         <v>2486</v>
@@ -26656,7 +26662,7 @@
         <v>2486</v>
       </c>
       <c r="D721" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E721" t="s">
         <v>2546</v>
@@ -26673,7 +26679,7 @@
         <v>2486</v>
       </c>
       <c r="D722" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E722" t="s">
         <v>2556</v>
@@ -26775,7 +26781,7 @@
         <v>2512</v>
       </c>
       <c r="D728" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E728" t="s">
         <v>2560</v>
@@ -26792,7 +26798,7 @@
         <v>2556</v>
       </c>
       <c r="D729" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E729" t="s">
         <v>2555</v>
@@ -26826,7 +26832,7 @@
         <v>2555</v>
       </c>
       <c r="D731" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E731" t="s">
         <v>2562</v>
@@ -26860,7 +26866,7 @@
         <v>2585</v>
       </c>
       <c r="D733" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E733" t="s">
         <v>2564</v>
@@ -26996,7 +27002,7 @@
         <v>2541</v>
       </c>
       <c r="D741" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E741" t="s">
         <v>2567</v>
@@ -27064,7 +27070,7 @@
         <v>2674</v>
       </c>
       <c r="D745" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E745" t="s">
         <v>2569</v>
@@ -27217,7 +27223,7 @@
         <v>2525</v>
       </c>
       <c r="D754" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E754" t="s">
         <v>2568</v>
@@ -27353,7 +27359,7 @@
         <v>2511</v>
       </c>
       <c r="D762" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E762" t="s">
         <v>2580</v>
@@ -27370,7 +27376,7 @@
         <v>2219</v>
       </c>
       <c r="D763" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E763" t="s">
         <v>2581</v>
@@ -27387,7 +27393,7 @@
         <v>2189</v>
       </c>
       <c r="D764" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E764" t="s">
         <v>2582</v>
@@ -27438,7 +27444,7 @@
         <v>2182</v>
       </c>
       <c r="D767" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E767" t="s">
         <v>2576</v>
@@ -27472,7 +27478,7 @@
         <v>2527</v>
       </c>
       <c r="D769" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E769" t="s">
         <v>2222</v>
@@ -27574,7 +27580,7 @@
         <v>2488</v>
       </c>
       <c r="D775" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E775" t="s">
         <v>2583</v>
@@ -27591,7 +27597,7 @@
         <v>2190</v>
       </c>
       <c r="D776" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E776" t="s">
         <v>2495</v>
@@ -27727,10 +27733,10 @@
         <v>2219</v>
       </c>
       <c r="D784" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E784" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27744,7 +27750,7 @@
         <v>2503</v>
       </c>
       <c r="D785" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E785" t="s">
         <v>2556</v>
@@ -27795,10 +27801,10 @@
         <v>2503</v>
       </c>
       <c r="D788" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E788" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28033,10 +28039,10 @@
         <v>2791</v>
       </c>
       <c r="D802" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E802" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28152,7 +28158,7 @@
         <v>2219</v>
       </c>
       <c r="D809" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E809" t="s">
         <v>2486</v>
@@ -28254,7 +28260,7 @@
         <v>3504</v>
       </c>
       <c r="D815" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E815" t="s">
         <v>2603</v>
@@ -28271,7 +28277,7 @@
         <v>2630</v>
       </c>
       <c r="D816" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E816" t="s">
         <v>2210</v>
@@ -28475,7 +28481,7 @@
         <v>3505</v>
       </c>
       <c r="D828" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E828" t="s">
         <v>2613</v>
@@ -28509,7 +28515,7 @@
         <v>2630</v>
       </c>
       <c r="D830" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E830" t="s">
         <v>2211</v>
@@ -28543,7 +28549,7 @@
         <v>3505</v>
       </c>
       <c r="D832" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E832" t="s">
         <v>2615</v>
@@ -28594,7 +28600,7 @@
         <v>3396</v>
       </c>
       <c r="D835" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E835" t="s">
         <v>2617</v>
@@ -28628,7 +28634,7 @@
         <v>2546</v>
       </c>
       <c r="D837" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E837" t="s">
         <v>2546</v>
@@ -28679,7 +28685,7 @@
         <v>3508</v>
       </c>
       <c r="D840" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E840" t="s">
         <v>2489</v>
@@ -28699,7 +28705,7 @@
         <v>2536</v>
       </c>
       <c r="E841" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29036,7 +29042,7 @@
         <v>2221</v>
       </c>
       <c r="D861" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E861" t="s">
         <v>2627</v>
@@ -29206,7 +29212,7 @@
         <v>2190</v>
       </c>
       <c r="D871" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E871" t="s">
         <v>2215</v>
@@ -29240,7 +29246,7 @@
         <v>3512</v>
       </c>
       <c r="D873" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E873" t="s">
         <v>2631</v>
@@ -29359,7 +29365,7 @@
         <v>3516</v>
       </c>
       <c r="D880" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E880" t="s">
         <v>2636</v>
@@ -29427,7 +29433,7 @@
         <v>2509</v>
       </c>
       <c r="D884" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E884" t="s">
         <v>2601</v>
@@ -29597,7 +29603,7 @@
         <v>2220</v>
       </c>
       <c r="D894" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E894" t="s">
         <v>2645</v>
@@ -29716,7 +29722,7 @@
         <v>3445</v>
       </c>
       <c r="D901" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E901" t="s">
         <v>2649</v>
@@ -29784,7 +29790,7 @@
         <v>2491</v>
       </c>
       <c r="D905" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E905" t="s">
         <v>2653</v>
@@ -29937,7 +29943,7 @@
         <v>2665</v>
       </c>
       <c r="D914" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E914" t="s">
         <v>2489</v>
@@ -30141,7 +30147,7 @@
         <v>2322</v>
       </c>
       <c r="D926" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E926" t="s">
         <v>2661</v>
@@ -30226,7 +30232,7 @@
         <v>2476</v>
       </c>
       <c r="D931" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E931" t="s">
         <v>2665</v>
@@ -30311,7 +30317,7 @@
         <v>3479</v>
       </c>
       <c r="D936" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E936" t="s">
         <v>2323</v>
@@ -30396,7 +30402,7 @@
         <v>2811</v>
       </c>
       <c r="D941" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E941" t="s">
         <v>2670</v>
@@ -30498,7 +30504,7 @@
         <v>2651</v>
       </c>
       <c r="D947" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E947" t="s">
         <v>2365</v>
@@ -30515,7 +30521,7 @@
         <v>3524</v>
       </c>
       <c r="D948" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E948" t="s">
         <v>2672</v>
@@ -30583,7 +30589,7 @@
         <v>2366</v>
       </c>
       <c r="D952" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E952" t="s">
         <v>2673</v>
@@ -30838,7 +30844,7 @@
         <v>2517</v>
       </c>
       <c r="D967" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E967" t="s">
         <v>2479</v>
@@ -30923,7 +30929,7 @@
         <v>2671</v>
       </c>
       <c r="D972" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E972" t="s">
         <v>2680</v>
@@ -30974,7 +30980,7 @@
         <v>2233</v>
       </c>
       <c r="D975" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E975" t="s">
         <v>2360</v>
@@ -31008,7 +31014,7 @@
         <v>2794</v>
       </c>
       <c r="D977" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E977" t="s">
         <v>2682</v>
@@ -31365,7 +31371,7 @@
         <v>2335</v>
       </c>
       <c r="D998" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E998" t="s">
         <v>2696</v>
@@ -31382,7 +31388,7 @@
         <v>3533</v>
       </c>
       <c r="D999" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E999" t="s">
         <v>2697</v>
@@ -31467,7 +31473,7 @@
         <v>2340</v>
       </c>
       <c r="D1004" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E1004" t="s">
         <v>2388</v>
@@ -31637,7 +31643,7 @@
         <v>2802</v>
       </c>
       <c r="D1014" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E1014" t="s">
         <v>2390</v>
@@ -31654,7 +31660,7 @@
         <v>2802</v>
       </c>
       <c r="D1015" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E1015" t="s">
         <v>2390</v>
@@ -31688,7 +31694,7 @@
         <v>2823</v>
       </c>
       <c r="D1017" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E1017" t="s">
         <v>2694</v>
@@ -31756,7 +31762,7 @@
         <v>2356</v>
       </c>
       <c r="D1021" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E1021" t="s">
         <v>2708</v>
@@ -31773,7 +31779,7 @@
         <v>2356</v>
       </c>
       <c r="D1022" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1022" t="s">
         <v>2709</v>
@@ -31841,7 +31847,7 @@
         <v>2825</v>
       </c>
       <c r="D1026" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E1026" t="s">
         <v>2712</v>
@@ -31943,7 +31949,7 @@
         <v>2311</v>
       </c>
       <c r="D1032" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E1032" t="s">
         <v>2717</v>
@@ -31994,7 +32000,7 @@
         <v>3473</v>
       </c>
       <c r="D1035" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E1035" t="s">
         <v>2249</v>
@@ -32096,7 +32102,7 @@
         <v>2415</v>
       </c>
       <c r="D1041" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E1041" t="s">
         <v>2725</v>
@@ -32198,7 +32204,7 @@
         <v>2724</v>
       </c>
       <c r="D1047" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E1047" t="s">
         <v>2728</v>
@@ -32269,7 +32275,7 @@
         <v>2240</v>
       </c>
       <c r="E1051" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32524,7 +32530,7 @@
         <v>2739</v>
       </c>
       <c r="E1066" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32606,7 +32612,7 @@
         <v>3535</v>
       </c>
       <c r="D1071" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E1071" t="s">
         <v>2314</v>
@@ -32827,7 +32833,7 @@
         <v>2356</v>
       </c>
       <c r="D1084" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E1084" t="s">
         <v>2750</v>
@@ -32861,7 +32867,7 @@
         <v>2375</v>
       </c>
       <c r="D1086" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E1086" t="s">
         <v>2233</v>
@@ -32895,7 +32901,7 @@
         <v>2823</v>
       </c>
       <c r="D1088" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E1088" t="s">
         <v>2752</v>
@@ -32912,7 +32918,7 @@
         <v>2801</v>
       </c>
       <c r="D1089" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E1089" t="s">
         <v>2753</v>
@@ -32980,7 +32986,7 @@
         <v>2715</v>
       </c>
       <c r="D1093" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E1093" t="s">
         <v>2755</v>
@@ -33065,10 +33071,10 @@
         <v>2766</v>
       </c>
       <c r="D1098" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E1098" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33082,10 +33088,10 @@
         <v>2304</v>
       </c>
       <c r="D1099" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E1099" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33116,7 +33122,7 @@
         <v>2824</v>
       </c>
       <c r="D1101" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E1101" t="s">
         <v>2768</v>
@@ -33133,7 +33139,7 @@
         <v>2766</v>
       </c>
       <c r="D1102" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E1102" t="s">
         <v>2763</v>
@@ -33286,7 +33292,7 @@
         <v>2768</v>
       </c>
       <c r="D1111" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E1111" t="s">
         <v>2769</v>
@@ -33320,7 +33326,7 @@
         <v>3537</v>
       </c>
       <c r="D1113" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E1113" t="s">
         <v>2770</v>
@@ -33337,7 +33343,7 @@
         <v>3538</v>
       </c>
       <c r="D1114" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1114" t="s">
         <v>2698</v>
@@ -33354,7 +33360,7 @@
         <v>3539</v>
       </c>
       <c r="D1115" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E1115" t="s">
         <v>2770</v>
@@ -33371,7 +33377,7 @@
         <v>3540</v>
       </c>
       <c r="D1116" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1116" t="s">
         <v>2771</v>
@@ -33490,7 +33496,7 @@
         <v>2335</v>
       </c>
       <c r="D1123" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E1123" t="s">
         <v>2774</v>
@@ -33524,7 +33530,7 @@
         <v>3543</v>
       </c>
       <c r="D1125" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E1125" t="s">
         <v>2775</v>
@@ -33558,7 +33564,7 @@
         <v>2688</v>
       </c>
       <c r="D1127" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E1127" t="s">
         <v>2491</v>
@@ -33694,7 +33700,7 @@
         <v>2760</v>
       </c>
       <c r="D1135" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E1135" t="s">
         <v>2781</v>
@@ -33728,7 +33734,7 @@
         <v>2841</v>
       </c>
       <c r="D1137" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E1137" t="s">
         <v>2682</v>
@@ -33779,7 +33785,7 @@
         <v>3548</v>
       </c>
       <c r="D1140" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E1140" t="s">
         <v>2784</v>
@@ -33796,7 +33802,7 @@
         <v>3474</v>
       </c>
       <c r="D1141" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E1141" t="s">
         <v>3530</v>
@@ -33813,7 +33819,7 @@
         <v>2784</v>
       </c>
       <c r="D1142" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1142" t="s">
         <v>2785</v>
@@ -33881,7 +33887,7 @@
         <v>2331</v>
       </c>
       <c r="D1146" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E1146" t="s">
         <v>2787</v>
@@ -33932,7 +33938,7 @@
         <v>3474</v>
       </c>
       <c r="D1149" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E1149" t="s">
         <v>2787</v>
@@ -33983,7 +33989,7 @@
         <v>3533</v>
       </c>
       <c r="D1152" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E1152" t="s">
         <v>2790</v>
@@ -34051,7 +34057,7 @@
         <v>2766</v>
       </c>
       <c r="D1156" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E1156" t="s">
         <v>2758</v>
@@ -34068,7 +34074,7 @@
         <v>2758</v>
       </c>
       <c r="D1157" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1157" t="s">
         <v>2232</v>
@@ -34085,7 +34091,7 @@
         <v>2232</v>
       </c>
       <c r="D1158" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1158" t="s">
         <v>2769</v>
@@ -34102,7 +34108,7 @@
         <v>2769</v>
       </c>
       <c r="D1159" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1159" t="s">
         <v>2791</v>
@@ -34119,7 +34125,7 @@
         <v>2794</v>
       </c>
       <c r="D1160" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1160" t="s">
         <v>2229</v>
@@ -34136,7 +34142,7 @@
         <v>2229</v>
       </c>
       <c r="D1161" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1161" t="s">
         <v>2791</v>
@@ -34153,7 +34159,7 @@
         <v>3537</v>
       </c>
       <c r="D1162" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1162" t="s">
         <v>2335</v>
@@ -34187,7 +34193,7 @@
         <v>2229</v>
       </c>
       <c r="D1164" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1164" t="s">
         <v>2353</v>
@@ -34238,7 +34244,7 @@
         <v>2356</v>
       </c>
       <c r="D1167" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1167" t="s">
         <v>2793</v>
@@ -34289,7 +34295,7 @@
         <v>3552</v>
       </c>
       <c r="D1170" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1170" t="s">
         <v>2465</v>
@@ -34306,7 +34312,7 @@
         <v>2705</v>
       </c>
       <c r="D1171" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E1171" t="s">
         <v>2749</v>
@@ -34323,7 +34329,7 @@
         <v>2800</v>
       </c>
       <c r="D1172" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1172" t="s">
         <v>2795</v>
@@ -34340,7 +34346,7 @@
         <v>3553</v>
       </c>
       <c r="D1173" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1173" t="s">
         <v>2796</v>
@@ -34459,7 +34465,7 @@
         <v>2241</v>
       </c>
       <c r="D1180" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1180" t="s">
         <v>2799</v>
@@ -34578,7 +34584,7 @@
         <v>2765</v>
       </c>
       <c r="D1187" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1187" t="s">
         <v>2705</v>
@@ -34612,7 +34618,7 @@
         <v>3557</v>
       </c>
       <c r="D1189" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1189" t="s">
         <v>2708</v>
@@ -34629,7 +34635,7 @@
         <v>2356</v>
       </c>
       <c r="D1190" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1190" t="s">
         <v>2802</v>
@@ -34680,7 +34686,7 @@
         <v>2804</v>
       </c>
       <c r="D1193" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1193" t="s">
         <v>2710</v>
@@ -34714,7 +34720,7 @@
         <v>2805</v>
       </c>
       <c r="D1195" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1195" t="s">
         <v>2231</v>
@@ -34731,7 +34737,7 @@
         <v>2360</v>
       </c>
       <c r="D1196" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1196" t="s">
         <v>2689</v>
@@ -34748,7 +34754,7 @@
         <v>2791</v>
       </c>
       <c r="D1197" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1197" t="s">
         <v>2807</v>
@@ -34799,7 +34805,7 @@
         <v>2808</v>
       </c>
       <c r="D1200" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1200" t="s">
         <v>2492</v>
@@ -34816,7 +34822,7 @@
         <v>2700</v>
       </c>
       <c r="D1201" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1201" t="s">
         <v>2651</v>
@@ -34833,7 +34839,7 @@
         <v>2187</v>
       </c>
       <c r="D1202" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1202" t="s">
         <v>2471</v>
@@ -34935,7 +34941,7 @@
         <v>2780</v>
       </c>
       <c r="D1208" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1208" t="s">
         <v>2789</v>
@@ -34952,7 +34958,7 @@
         <v>2698</v>
       </c>
       <c r="D1209" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1209" t="s">
         <v>2811</v>
@@ -34969,7 +34975,7 @@
         <v>2478</v>
       </c>
       <c r="D1210" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1210" t="s">
         <v>2812</v>
@@ -35020,7 +35026,7 @@
         <v>3408</v>
       </c>
       <c r="D1213" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1213" t="s">
         <v>2813</v>
@@ -35037,7 +35043,7 @@
         <v>3408</v>
       </c>
       <c r="D1214" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1214" t="s">
         <v>3408</v>
@@ -35054,7 +35060,7 @@
         <v>2471</v>
       </c>
       <c r="D1215" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1215" t="s">
         <v>2812</v>
@@ -35071,7 +35077,7 @@
         <v>2478</v>
       </c>
       <c r="D1216" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1216" t="s">
         <v>2226</v>
@@ -35122,7 +35128,7 @@
         <v>2491</v>
       </c>
       <c r="D1219" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1219" t="s">
         <v>2469</v>
@@ -35156,10 +35162,10 @@
         <v>2772</v>
       </c>
       <c r="D1221" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1221" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35173,7 +35179,7 @@
         <v>3474</v>
       </c>
       <c r="D1222" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1222" t="s">
         <v>2331</v>
@@ -35343,7 +35349,7 @@
         <v>2818</v>
       </c>
       <c r="D1232" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1232" t="s">
         <v>2724</v>
@@ -35360,7 +35366,7 @@
         <v>2406</v>
       </c>
       <c r="D1233" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1233" t="s">
         <v>2406</v>
@@ -35411,7 +35417,7 @@
         <v>2453</v>
       </c>
       <c r="D1236" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E1236" t="s">
         <v>2722</v>
@@ -35445,7 +35451,7 @@
         <v>2819</v>
       </c>
       <c r="D1238" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1238" t="s">
         <v>2415</v>
@@ -35462,7 +35468,7 @@
         <v>2415</v>
       </c>
       <c r="D1239" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1239" t="s">
         <v>2240</v>
@@ -35496,7 +35502,7 @@
         <v>3562</v>
       </c>
       <c r="D1241" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1241" t="s">
         <v>2728</v>
@@ -35564,7 +35570,7 @@
         <v>2260</v>
       </c>
       <c r="D1245" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1245" t="s">
         <v>2418</v>
@@ -35649,7 +35655,7 @@
         <v>2722</v>
       </c>
       <c r="D1250" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1250" t="s">
         <v>2430</v>
@@ -35700,7 +35706,7 @@
         <v>2395</v>
       </c>
       <c r="D1253" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1253" t="s">
         <v>2797</v>
@@ -35734,7 +35740,7 @@
         <v>2823</v>
       </c>
       <c r="D1255" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E1255" t="s">
         <v>2824</v>
@@ -35751,7 +35757,7 @@
         <v>3409</v>
       </c>
       <c r="D1256" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1256" t="s">
         <v>2768</v>
@@ -35972,7 +35978,7 @@
         <v>3570</v>
       </c>
       <c r="D1269" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1269" t="s">
         <v>2829</v>
@@ -35989,7 +35995,7 @@
         <v>2829</v>
       </c>
       <c r="D1270" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1270" t="s">
         <v>2721</v>
@@ -36006,7 +36012,7 @@
         <v>3571</v>
       </c>
       <c r="D1271" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1271" t="s">
         <v>2460</v>
@@ -36091,7 +36097,7 @@
         <v>2241</v>
       </c>
       <c r="D1276" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1276" t="s">
         <v>2827</v>
@@ -36108,7 +36114,7 @@
         <v>2886</v>
       </c>
       <c r="D1277" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E1277" t="s">
         <v>2311</v>
@@ -36295,7 +36301,7 @@
         <v>2746</v>
       </c>
       <c r="D1288" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1288" t="s">
         <v>2831</v>
@@ -36516,7 +36522,7 @@
         <v>2833</v>
       </c>
       <c r="D1301" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1301" t="s">
         <v>2246</v>
@@ -36533,7 +36539,7 @@
         <v>3573</v>
       </c>
       <c r="D1302" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1302" t="s">
         <v>2248</v>
@@ -36635,7 +36641,7 @@
         <v>2889</v>
       </c>
       <c r="D1308" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1308" t="s">
         <v>2726</v>
@@ -36686,7 +36692,7 @@
         <v>3580</v>
       </c>
       <c r="D1311" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1311" t="s">
         <v>2834</v>
@@ -36703,7 +36709,7 @@
         <v>3580</v>
       </c>
       <c r="D1312" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1312" t="s">
         <v>2454</v>
@@ -36720,7 +36726,7 @@
         <v>2887</v>
       </c>
       <c r="D1313" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1313" t="s">
         <v>2414</v>
@@ -36754,7 +36760,7 @@
         <v>2308</v>
       </c>
       <c r="D1315" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1315" t="s">
         <v>2306</v>
@@ -36856,7 +36862,7 @@
         <v>3584</v>
       </c>
       <c r="D1321" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1321" t="s">
         <v>2837</v>
@@ -36873,7 +36879,7 @@
         <v>3585</v>
       </c>
       <c r="D1322" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1322" t="s">
         <v>2838</v>
@@ -36907,7 +36913,7 @@
         <v>3586</v>
       </c>
       <c r="D1324" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1324" t="s">
         <v>2345</v>
@@ -36924,7 +36930,7 @@
         <v>3587</v>
       </c>
       <c r="D1325" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1325" t="s">
         <v>2694</v>
@@ -36941,7 +36947,7 @@
         <v>3588</v>
       </c>
       <c r="D1326" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1326" t="s">
         <v>2351</v>
@@ -36958,7 +36964,7 @@
         <v>3589</v>
       </c>
       <c r="D1327" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1327" t="s">
         <v>2233</v>
@@ -37009,7 +37015,7 @@
         <v>3590</v>
       </c>
       <c r="D1330" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1330" t="s">
         <v>2361</v>
@@ -37043,7 +37049,7 @@
         <v>3591</v>
       </c>
       <c r="D1332" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1332" t="s">
         <v>2465</v>
@@ -37060,7 +37066,7 @@
         <v>3542</v>
       </c>
       <c r="D1333" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1333" t="s">
         <v>2767</v>
@@ -37162,7 +37168,7 @@
         <v>2758</v>
       </c>
       <c r="D1339" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1339" t="s">
         <v>2351</v>
@@ -37182,7 +37188,7 @@
         <v>2695</v>
       </c>
       <c r="E1340" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37196,7 +37202,7 @@
         <v>3594</v>
       </c>
       <c r="D1341" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1341" t="s">
         <v>2705</v>
@@ -37247,7 +37253,7 @@
         <v>2304</v>
       </c>
       <c r="D1344" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1344" t="s">
         <v>2336</v>
@@ -37264,7 +37270,7 @@
         <v>3595</v>
       </c>
       <c r="D1345" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1345" t="s">
         <v>2375</v>
@@ -37281,7 +37287,7 @@
         <v>3590</v>
       </c>
       <c r="D1346" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1346" t="s">
         <v>2760</v>
@@ -37315,7 +37321,7 @@
         <v>2768</v>
       </c>
       <c r="D1348" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1348" t="s">
         <v>2782</v>
@@ -37332,7 +37338,7 @@
         <v>2781</v>
       </c>
       <c r="D1349" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1349" t="s">
         <v>2840</v>
@@ -37349,7 +37355,7 @@
         <v>3589</v>
       </c>
       <c r="D1350" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1350" t="s">
         <v>2841</v>
@@ -37468,7 +37474,7 @@
         <v>2726</v>
       </c>
       <c r="D1357" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1357" t="s">
         <v>2842</v>
@@ -37502,7 +37508,7 @@
         <v>2254</v>
       </c>
       <c r="D1359" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1359" t="s">
         <v>2844</v>
@@ -37706,7 +37712,7 @@
         <v>3583</v>
       </c>
       <c r="D1371" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1371" t="s">
         <v>2449</v>
@@ -37774,7 +37780,7 @@
         <v>3600</v>
       </c>
       <c r="D1375" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1375" t="s">
         <v>2851</v>
@@ -37808,7 +37814,7 @@
         <v>3602</v>
       </c>
       <c r="D1377" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1377" t="s">
         <v>2853</v>
@@ -37825,10 +37831,10 @@
         <v>3603</v>
       </c>
       <c r="D1378" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1378" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37842,10 +37848,10 @@
         <v>2905</v>
       </c>
       <c r="D1379" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1379" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37859,7 +37865,7 @@
         <v>3604</v>
       </c>
       <c r="D1380" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1380" t="s">
         <v>3601</v>
@@ -37910,10 +37916,10 @@
         <v>3607</v>
       </c>
       <c r="D1383" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1383" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -37927,10 +37933,10 @@
         <v>3608</v>
       </c>
       <c r="D1384" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1384" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -37944,10 +37950,10 @@
         <v>3609</v>
       </c>
       <c r="D1385" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1385" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37961,7 +37967,7 @@
         <v>3610</v>
       </c>
       <c r="D1386" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1386" t="s">
         <v>2862</v>
@@ -37978,10 +37984,10 @@
         <v>3611</v>
       </c>
       <c r="D1387" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1387" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -37998,7 +38004,7 @@
         <v>2294</v>
       </c>
       <c r="E1388" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38012,10 +38018,10 @@
         <v>3613</v>
       </c>
       <c r="D1389" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1389" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38029,10 +38035,10 @@
         <v>3010</v>
       </c>
       <c r="D1390" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1390" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38046,7 +38052,7 @@
         <v>3611</v>
       </c>
       <c r="D1391" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1391" t="s">
         <v>2867</v>
@@ -38066,7 +38072,7 @@
         <v>2288</v>
       </c>
       <c r="E1392" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38083,7 +38089,7 @@
         <v>3432</v>
       </c>
       <c r="E1393" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38097,10 +38103,10 @@
         <v>2940</v>
       </c>
       <c r="D1394" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1394" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38117,7 +38123,7 @@
         <v>2722</v>
       </c>
       <c r="E1395" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38131,7 +38137,7 @@
         <v>3616</v>
       </c>
       <c r="D1396" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1396" t="s">
         <v>2850</v>
@@ -38168,7 +38174,7 @@
         <v>2265</v>
       </c>
       <c r="E1398" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38182,10 +38188,10 @@
         <v>3618</v>
       </c>
       <c r="D1399" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1399" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38216,7 +38222,7 @@
         <v>3619</v>
       </c>
       <c r="D1401" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1401" t="s">
         <v>2876</v>
@@ -38250,7 +38256,7 @@
         <v>2877</v>
       </c>
       <c r="D1403" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1403" t="s">
         <v>3566</v>
@@ -38318,10 +38324,10 @@
         <v>3621</v>
       </c>
       <c r="D1407" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1407" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38352,10 +38358,10 @@
         <v>3623</v>
       </c>
       <c r="D1409" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1409" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38420,7 +38426,7 @@
         <v>3626</v>
       </c>
       <c r="D1413" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1413" t="s">
         <v>2885</v>
@@ -38440,7 +38446,7 @@
         <v>2826</v>
       </c>
       <c r="E1414" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38457,7 +38463,7 @@
         <v>2823</v>
       </c>
       <c r="E1415" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38471,7 +38477,7 @@
         <v>2404</v>
       </c>
       <c r="D1416" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1416" t="s">
         <v>2887</v>
@@ -38491,7 +38497,7 @@
         <v>2406</v>
       </c>
       <c r="E1417" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38505,10 +38511,10 @@
         <v>2452</v>
       </c>
       <c r="D1418" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1418" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38525,7 +38531,7 @@
         <v>2459</v>
       </c>
       <c r="E1419" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38576,7 +38582,7 @@
         <v>2891</v>
       </c>
       <c r="E1422" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38590,7 +38596,7 @@
         <v>3583</v>
       </c>
       <c r="D1423" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1423" t="s">
         <v>2320</v>
@@ -38610,7 +38616,7 @@
         <v>2449</v>
       </c>
       <c r="E1424" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38661,7 +38667,7 @@
         <v>3459</v>
       </c>
       <c r="E1427" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38692,7 +38698,7 @@
         <v>3630</v>
       </c>
       <c r="D1429" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1429" t="s">
         <v>2898</v>
@@ -38709,10 +38715,10 @@
         <v>3631</v>
       </c>
       <c r="D1430" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1430" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38743,7 +38749,7 @@
         <v>2900</v>
       </c>
       <c r="D1432" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1432" t="s">
         <v>2266</v>
@@ -38828,7 +38834,7 @@
         <v>3634</v>
       </c>
       <c r="D1437" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1437" t="s">
         <v>2904</v>
@@ -38845,7 +38851,7 @@
         <v>3635</v>
       </c>
       <c r="D1438" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1438" t="s">
         <v>2905</v>
@@ -38879,7 +38885,7 @@
         <v>3637</v>
       </c>
       <c r="D1440" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1440" t="s">
         <v>2907</v>
@@ -38913,7 +38919,7 @@
         <v>3638</v>
       </c>
       <c r="D1442" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1442" t="s">
         <v>2909</v>
@@ -38930,7 +38936,7 @@
         <v>2909</v>
       </c>
       <c r="D1443" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1443" t="s">
         <v>2910</v>
@@ -38947,7 +38953,7 @@
         <v>2421</v>
       </c>
       <c r="D1444" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1444" t="s">
         <v>2884</v>
@@ -38964,7 +38970,7 @@
         <v>3419</v>
       </c>
       <c r="D1445" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1445" t="s">
         <v>2911</v>
@@ -38998,10 +39004,10 @@
         <v>3640</v>
       </c>
       <c r="D1447" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1447" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39015,10 +39021,10 @@
         <v>3641</v>
       </c>
       <c r="D1448" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1448" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39032,7 +39038,7 @@
         <v>3642</v>
       </c>
       <c r="D1449" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1449" t="s">
         <v>2266</v>
@@ -39052,7 +39058,7 @@
         <v>2914</v>
       </c>
       <c r="E1450" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39100,10 +39106,10 @@
         <v>3646</v>
       </c>
       <c r="D1453" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1453" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39117,10 +39123,10 @@
         <v>3647</v>
       </c>
       <c r="D1454" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1454" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39134,7 +39140,7 @@
         <v>3648</v>
       </c>
       <c r="D1455" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1455" t="s">
         <v>3648</v>
@@ -39168,7 +39174,7 @@
         <v>3650</v>
       </c>
       <c r="D1457" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1457" t="s">
         <v>2920</v>
@@ -39185,7 +39191,7 @@
         <v>3651</v>
       </c>
       <c r="D1458" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1458" t="s">
         <v>2920</v>
@@ -39219,10 +39225,10 @@
         <v>2941</v>
       </c>
       <c r="D1460" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1460" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39236,10 +39242,10 @@
         <v>3653</v>
       </c>
       <c r="D1461" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1461" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39253,7 +39259,7 @@
         <v>2293</v>
       </c>
       <c r="D1462" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E1462" t="s">
         <v>2923</v>
@@ -39270,7 +39276,7 @@
         <v>3654</v>
       </c>
       <c r="D1463" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1463" t="s">
         <v>2943</v>
@@ -39287,10 +39293,10 @@
         <v>3655</v>
       </c>
       <c r="D1464" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1464" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39304,10 +39310,10 @@
         <v>2922</v>
       </c>
       <c r="D1465" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1465" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39338,10 +39344,10 @@
         <v>3657</v>
       </c>
       <c r="D1467" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1467" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39355,10 +39361,10 @@
         <v>3658</v>
       </c>
       <c r="D1468" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1468" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39375,7 +39381,7 @@
         <v>2929</v>
       </c>
       <c r="E1469" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39406,7 +39412,7 @@
         <v>3661</v>
       </c>
       <c r="D1471" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1471" t="s">
         <v>2920</v>
@@ -39423,10 +39429,10 @@
         <v>3432</v>
       </c>
       <c r="D1472" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1472" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39443,7 +39449,7 @@
         <v>2931</v>
       </c>
       <c r="E1473" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39457,10 +39463,10 @@
         <v>2920</v>
       </c>
       <c r="D1474" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1474" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39474,10 +39480,10 @@
         <v>2286</v>
       </c>
       <c r="D1475" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1475" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39491,7 +39497,7 @@
         <v>3662</v>
       </c>
       <c r="D1476" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1476" t="s">
         <v>2935</v>
@@ -39508,7 +39514,7 @@
         <v>3651</v>
       </c>
       <c r="D1477" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1477" t="s">
         <v>2936</v>
@@ -39559,7 +39565,7 @@
         <v>3663</v>
       </c>
       <c r="D1480" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1480" t="s">
         <v>2939</v>
@@ -39593,7 +39599,7 @@
         <v>3664</v>
       </c>
       <c r="D1482" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1482" t="s">
         <v>2941</v>
@@ -39610,7 +39616,7 @@
         <v>2941</v>
       </c>
       <c r="D1483" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1483" t="s">
         <v>2941</v>
@@ -39644,7 +39650,7 @@
         <v>2925</v>
       </c>
       <c r="D1485" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1485" t="s">
         <v>2292</v>
@@ -39661,7 +39667,7 @@
         <v>3666</v>
       </c>
       <c r="D1486" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1486" t="s">
         <v>2942</v>
@@ -39678,7 +39684,7 @@
         <v>3667</v>
       </c>
       <c r="D1487" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1487" t="s">
         <v>2924</v>
@@ -39695,10 +39701,10 @@
         <v>3657</v>
       </c>
       <c r="D1488" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1488" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39712,10 +39718,10 @@
         <v>3668</v>
       </c>
       <c r="D1489" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1489" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39732,7 +39738,7 @@
         <v>3683</v>
       </c>
       <c r="E1490" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39780,7 +39786,7 @@
         <v>3670</v>
       </c>
       <c r="D1493" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1493" t="s">
         <v>2969</v>
@@ -39814,7 +39820,7 @@
         <v>3672</v>
       </c>
       <c r="D1495" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1495" t="s">
         <v>3009</v>
@@ -39831,7 +39837,7 @@
         <v>3673</v>
       </c>
       <c r="D1496" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1496" t="s">
         <v>2951</v>
@@ -39851,7 +39857,7 @@
         <v>2950</v>
       </c>
       <c r="E1497" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39865,10 +39871,10 @@
         <v>3674</v>
       </c>
       <c r="D1498" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1498" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39899,10 +39905,10 @@
         <v>3676</v>
       </c>
       <c r="D1500" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1500" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39916,7 +39922,7 @@
         <v>3026</v>
       </c>
       <c r="D1501" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1501" t="s">
         <v>2956</v>
@@ -39936,7 +39942,7 @@
         <v>3675</v>
       </c>
       <c r="E1502" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39953,7 +39959,7 @@
         <v>2968</v>
       </c>
       <c r="E1503" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39967,7 +39973,7 @@
         <v>3679</v>
       </c>
       <c r="D1504" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1504" t="s">
         <v>3009</v>
@@ -39984,7 +39990,7 @@
         <v>3680</v>
       </c>
       <c r="D1505" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1505" t="s">
         <v>2959</v>
@@ -40021,7 +40027,7 @@
         <v>2960</v>
       </c>
       <c r="E1507" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40038,7 +40044,7 @@
         <v>2869</v>
       </c>
       <c r="E1508" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40052,10 +40058,10 @@
         <v>3683</v>
       </c>
       <c r="D1509" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1509" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40069,10 +40075,10 @@
         <v>2963</v>
       </c>
       <c r="D1510" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1510" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40086,7 +40092,7 @@
         <v>3684</v>
       </c>
       <c r="D1511" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1511" t="s">
         <v>2964</v>
@@ -40106,7 +40112,7 @@
         <v>2964</v>
       </c>
       <c r="E1512" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40120,10 +40126,10 @@
         <v>2947</v>
       </c>
       <c r="D1513" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1513" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40137,10 +40143,10 @@
         <v>3685</v>
       </c>
       <c r="D1514" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1514" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40154,7 +40160,7 @@
         <v>3686</v>
       </c>
       <c r="D1515" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1515" t="s">
         <v>2945</v>
@@ -40188,10 +40194,10 @@
         <v>2968</v>
       </c>
       <c r="D1517" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1517" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40205,10 +40211,10 @@
         <v>2969</v>
       </c>
       <c r="D1518" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1518" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40222,7 +40228,7 @@
         <v>3688</v>
       </c>
       <c r="D1519" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1519" t="s">
         <v>2964</v>
@@ -40239,10 +40245,10 @@
         <v>3656</v>
       </c>
       <c r="D1520" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1520" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40256,10 +40262,10 @@
         <v>3689</v>
       </c>
       <c r="D1521" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1521" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40273,10 +40279,10 @@
         <v>2947</v>
       </c>
       <c r="D1522" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1522" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40290,7 +40296,7 @@
         <v>3690</v>
       </c>
       <c r="D1523" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1523" t="s">
         <v>2975</v>
@@ -40344,7 +40350,7 @@
         <v>2975</v>
       </c>
       <c r="E1526" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40375,10 +40381,10 @@
         <v>3695</v>
       </c>
       <c r="D1528" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1528" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40409,7 +40415,7 @@
         <v>3697</v>
       </c>
       <c r="D1530" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1530" t="s">
         <v>3016</v>
@@ -40426,7 +40432,7 @@
         <v>3698</v>
       </c>
       <c r="D1531" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1531" t="s">
         <v>2981</v>
@@ -40460,10 +40466,10 @@
         <v>2981</v>
       </c>
       <c r="D1533" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1533" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40477,10 +40483,10 @@
         <v>3700</v>
       </c>
       <c r="D1534" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1534" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40494,10 +40500,10 @@
         <v>3701</v>
       </c>
       <c r="D1535" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1535" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40545,7 +40551,7 @@
         <v>3703</v>
       </c>
       <c r="D1538" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1538" t="s">
         <v>2986</v>
@@ -40562,7 +40568,7 @@
         <v>3704</v>
       </c>
       <c r="D1539" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1539" t="s">
         <v>2987</v>
@@ -40579,10 +40585,10 @@
         <v>3705</v>
       </c>
       <c r="D1540" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1540" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40596,7 +40602,7 @@
         <v>3706</v>
       </c>
       <c r="D1541" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1541" t="s">
         <v>2989</v>
@@ -40613,7 +40619,7 @@
         <v>3707</v>
       </c>
       <c r="D1542" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1542" t="s">
         <v>2990</v>
@@ -40647,7 +40653,7 @@
         <v>3709</v>
       </c>
       <c r="D1544" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1544" t="s">
         <v>2992</v>
@@ -40664,10 +40670,10 @@
         <v>3710</v>
       </c>
       <c r="D1545" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1545" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40698,7 +40704,7 @@
         <v>3712</v>
       </c>
       <c r="D1547" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1547" t="s">
         <v>3719</v>
@@ -40715,10 +40721,10 @@
         <v>3713</v>
       </c>
       <c r="D1548" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1548" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40735,7 +40741,7 @@
         <v>3022</v>
       </c>
       <c r="E1549" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40749,10 +40755,10 @@
         <v>3715</v>
       </c>
       <c r="D1550" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1550" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40766,7 +40772,7 @@
         <v>3716</v>
       </c>
       <c r="D1551" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1551" t="s">
         <v>2998</v>
@@ -40783,10 +40789,10 @@
         <v>3716</v>
       </c>
       <c r="D1552" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1552" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40800,10 +40806,10 @@
         <v>2999</v>
       </c>
       <c r="D1553" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1553" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40817,7 +40823,7 @@
         <v>3717</v>
       </c>
       <c r="D1554" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1554" t="s">
         <v>3030</v>
@@ -40837,7 +40843,7 @@
         <v>3672</v>
       </c>
       <c r="E1555" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40851,7 +40857,7 @@
         <v>3719</v>
       </c>
       <c r="D1556" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1556" t="s">
         <v>3003</v>
@@ -40868,7 +40874,7 @@
         <v>3003</v>
       </c>
       <c r="D1557" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1557" t="s">
         <v>2988</v>
@@ -40888,7 +40894,7 @@
         <v>3009</v>
       </c>
       <c r="E1558" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40902,7 +40908,7 @@
         <v>3721</v>
       </c>
       <c r="D1559" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1559" t="s">
         <v>3005</v>
@@ -40919,10 +40925,10 @@
         <v>3722</v>
       </c>
       <c r="D1560" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1560" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40936,10 +40942,10 @@
         <v>3040</v>
       </c>
       <c r="D1561" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1561" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40953,10 +40959,10 @@
         <v>3723</v>
       </c>
       <c r="D1562" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1562" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40970,7 +40976,7 @@
         <v>3008</v>
       </c>
       <c r="D1563" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1563" t="s">
         <v>2993</v>
@@ -40987,7 +40993,7 @@
         <v>3724</v>
       </c>
       <c r="D1564" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1564" t="s">
         <v>2950</v>
@@ -41004,10 +41010,10 @@
         <v>2952</v>
       </c>
       <c r="D1565" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1565" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41021,7 +41027,7 @@
         <v>3694</v>
       </c>
       <c r="D1566" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1566" t="s">
         <v>3011</v>
@@ -41038,7 +41044,7 @@
         <v>3725</v>
       </c>
       <c r="D1567" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1567" t="s">
         <v>3012</v>
@@ -41055,7 +41061,7 @@
         <v>3726</v>
       </c>
       <c r="D1568" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1568" t="s">
         <v>3013</v>
@@ -41072,7 +41078,7 @@
         <v>3727</v>
       </c>
       <c r="D1569" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1569" t="s">
         <v>3012</v>
@@ -41123,7 +41129,7 @@
         <v>3730</v>
       </c>
       <c r="D1572" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1572" t="s">
         <v>2980</v>
@@ -41140,7 +41146,7 @@
         <v>3017</v>
       </c>
       <c r="D1573" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1573" t="s">
         <v>3018</v>
@@ -41174,10 +41180,10 @@
         <v>3713</v>
       </c>
       <c r="D1575" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1575" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41191,7 +41197,7 @@
         <v>3731</v>
       </c>
       <c r="D1576" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1576" t="s">
         <v>3019</v>
@@ -41242,7 +41248,7 @@
         <v>3734</v>
       </c>
       <c r="D1579" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1579" t="s">
         <v>3022</v>
@@ -41259,10 +41265,10 @@
         <v>3735</v>
       </c>
       <c r="D1580" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1580" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41276,7 +41282,7 @@
         <v>3736</v>
       </c>
       <c r="D1581" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1581" t="s">
         <v>3024</v>
@@ -41293,7 +41299,7 @@
         <v>3024</v>
       </c>
       <c r="D1582" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1582" t="s">
         <v>2987</v>
@@ -41310,10 +41316,10 @@
         <v>3678</v>
       </c>
       <c r="D1583" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1583" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41330,7 +41336,7 @@
         <v>3676</v>
       </c>
       <c r="E1584" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41395,10 +41401,10 @@
         <v>3741</v>
       </c>
       <c r="D1588" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1588" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41412,7 +41418,7 @@
         <v>3742</v>
       </c>
       <c r="D1589" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1589" t="s">
         <v>3729</v>
@@ -41636,7 +41642,7 @@
         <v>3030</v>
       </c>
       <c r="E1602" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41823,7 +41829,7 @@
         <v>3030</v>
       </c>
       <c r="E1613" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -41993,7 +41999,7 @@
         <v>3030</v>
       </c>
       <c r="E1623" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42007,10 +42013,10 @@
         <v>3762</v>
       </c>
       <c r="D1624" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1624" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42024,10 +42030,10 @@
         <v>3763</v>
       </c>
       <c r="D1625" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1625" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42041,10 +42047,10 @@
         <v>3764</v>
       </c>
       <c r="D1626" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1626" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42058,7 +42064,7 @@
         <v>3765</v>
       </c>
       <c r="D1627" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1627" t="s">
         <v>3043</v>
@@ -42075,10 +42081,10 @@
         <v>3766</v>
       </c>
       <c r="D1628" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1628" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42092,10 +42098,10 @@
         <v>3767</v>
       </c>
       <c r="D1629" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1629" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42109,7 +42115,7 @@
         <v>3768</v>
       </c>
       <c r="D1630" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1630" t="s">
         <v>3039</v>
@@ -42126,7 +42132,7 @@
         <v>3769</v>
       </c>
       <c r="D1631" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1631" t="s">
         <v>3039</v>
@@ -42143,7 +42149,7 @@
         <v>3770</v>
       </c>
       <c r="D1632" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1632" t="s">
         <v>3038</v>
@@ -42160,7 +42166,7 @@
         <v>3771</v>
       </c>
       <c r="D1633" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1633" t="s">
         <v>3038</v>
@@ -42177,7 +42183,7 @@
         <v>3771</v>
       </c>
       <c r="D1634" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1634" t="s">
         <v>3037</v>
@@ -42194,7 +42200,7 @@
         <v>3772</v>
       </c>
       <c r="D1635" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1635" t="s">
         <v>3045</v>
@@ -42211,7 +42217,7 @@
         <v>3755</v>
       </c>
       <c r="D1636" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1636" t="s">
         <v>3045</v>
@@ -42333,7 +42339,7 @@
         <v>3045</v>
       </c>
       <c r="E1643" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42418,7 +42424,7 @@
         <v>3045</v>
       </c>
       <c r="E1648" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42738,7 +42744,7 @@
         <v>3795</v>
       </c>
       <c r="D1667" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1667" t="s">
         <v>3045</v>
@@ -42755,7 +42761,7 @@
         <v>3045</v>
       </c>
       <c r="D1668" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1668" t="s">
         <v>3045</v>
@@ -42772,7 +42778,7 @@
         <v>3045</v>
       </c>
       <c r="D1669" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1669" t="s">
         <v>3045</v>
@@ -42792,7 +42798,7 @@
         <v>3749</v>
       </c>
       <c r="E1670" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42823,10 +42829,10 @@
         <v>3797</v>
       </c>
       <c r="D1672" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1672" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42840,10 +42846,10 @@
         <v>3798</v>
       </c>
       <c r="D1673" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1673" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42857,10 +42863,10 @@
         <v>3297</v>
       </c>
       <c r="D1674" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1674" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42874,7 +42880,7 @@
         <v>3799</v>
       </c>
       <c r="D1675" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1675" t="s">
         <v>3959</v>
@@ -42891,10 +42897,10 @@
         <v>3800</v>
       </c>
       <c r="D1676" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1676" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42908,10 +42914,10 @@
         <v>3801</v>
       </c>
       <c r="D1677" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1677" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42925,10 +42931,10 @@
         <v>3802</v>
       </c>
       <c r="D1678" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1678" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42942,10 +42948,10 @@
         <v>3803</v>
       </c>
       <c r="D1679" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1679" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42959,10 +42965,10 @@
         <v>3804</v>
       </c>
       <c r="D1680" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1680" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -42976,7 +42982,7 @@
         <v>3805</v>
       </c>
       <c r="D1681" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1681" t="s">
         <v>3060</v>
@@ -43078,7 +43084,7 @@
         <v>3061</v>
       </c>
       <c r="D1687" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1687" t="s">
         <v>3061</v>
@@ -43095,10 +43101,10 @@
         <v>3061</v>
       </c>
       <c r="D1688" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1688" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43112,7 +43118,7 @@
         <v>3061</v>
       </c>
       <c r="D1689" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1689" t="s">
         <v>3061</v>
@@ -43129,7 +43135,7 @@
         <v>3061</v>
       </c>
       <c r="D1690" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1690" t="s">
         <v>3061</v>
@@ -43180,7 +43186,7 @@
         <v>3061</v>
       </c>
       <c r="D1693" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1693" t="s">
         <v>3061</v>
@@ -43197,10 +43203,10 @@
         <v>3061</v>
       </c>
       <c r="D1694" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1694" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43214,7 +43220,7 @@
         <v>3061</v>
       </c>
       <c r="D1695" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1695" t="s">
         <v>3061</v>
@@ -43231,7 +43237,7 @@
         <v>3061</v>
       </c>
       <c r="D1696" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1696" t="s">
         <v>3061</v>
@@ -43404,7 +43410,7 @@
         <v>3061</v>
       </c>
       <c r="E1706" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43455,7 +43461,7 @@
         <v>3061</v>
       </c>
       <c r="E1709" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43537,10 +43543,10 @@
         <v>3823</v>
       </c>
       <c r="D1714" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1714" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43554,10 +43560,10 @@
         <v>3824</v>
       </c>
       <c r="D1715" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1715" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43571,10 +43577,10 @@
         <v>3825</v>
       </c>
       <c r="D1716" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1716" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43591,7 +43597,7 @@
         <v>3080</v>
       </c>
       <c r="E1717" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43605,7 +43611,7 @@
         <v>3827</v>
       </c>
       <c r="D1718" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1718" t="s">
         <v>3071</v>
@@ -43622,7 +43628,7 @@
         <v>3828</v>
       </c>
       <c r="D1719" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1719" t="s">
         <v>3070</v>
@@ -43639,10 +43645,10 @@
         <v>3829</v>
       </c>
       <c r="D1720" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1720" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43656,7 +43662,7 @@
         <v>3830</v>
       </c>
       <c r="D1721" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1721" t="s">
         <v>3073</v>
@@ -43676,7 +43682,7 @@
         <v>4028</v>
       </c>
       <c r="E1722" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43690,7 +43696,7 @@
         <v>3832</v>
       </c>
       <c r="D1723" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1723" t="s">
         <v>3075</v>
@@ -43707,10 +43713,10 @@
         <v>3833</v>
       </c>
       <c r="D1724" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1724" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43724,7 +43730,7 @@
         <v>3834</v>
       </c>
       <c r="D1725" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1725" t="s">
         <v>3077</v>
@@ -43758,7 +43764,7 @@
         <v>3836</v>
       </c>
       <c r="D1727" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1727" t="s">
         <v>3079</v>
@@ -43860,7 +43866,7 @@
         <v>3840</v>
       </c>
       <c r="D1733" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1733" t="s">
         <v>3080</v>
@@ -43928,7 +43934,7 @@
         <v>3843</v>
       </c>
       <c r="D1737" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1737" t="s">
         <v>3081</v>
@@ -43945,7 +43951,7 @@
         <v>3844</v>
       </c>
       <c r="D1738" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1738" t="s">
         <v>3082</v>
@@ -43979,7 +43985,7 @@
         <v>3085</v>
       </c>
       <c r="D1740" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1740" t="s">
         <v>3835</v>
@@ -43999,7 +44005,7 @@
         <v>3084</v>
       </c>
       <c r="E1741" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44064,10 +44070,10 @@
         <v>3087</v>
       </c>
       <c r="D1745" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1745" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44081,10 +44087,10 @@
         <v>3847</v>
       </c>
       <c r="D1746" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1746" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44234,7 +44240,7 @@
         <v>3850</v>
       </c>
       <c r="D1755" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1755" t="s">
         <v>3098</v>
@@ -44285,7 +44291,7 @@
         <v>3853</v>
       </c>
       <c r="D1758" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1758" t="s">
         <v>3101</v>
@@ -44336,7 +44342,7 @@
         <v>3855</v>
       </c>
       <c r="D1761" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1761" t="s">
         <v>3104</v>
@@ -44370,7 +44376,7 @@
         <v>3857</v>
       </c>
       <c r="D1763" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1763" t="s">
         <v>3106</v>
@@ -44387,7 +44393,7 @@
         <v>3858</v>
       </c>
       <c r="D1764" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1764" t="s">
         <v>3107</v>
@@ -44455,7 +44461,7 @@
         <v>3862</v>
       </c>
       <c r="D1768" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1768" t="s">
         <v>3111</v>
@@ -44472,7 +44478,7 @@
         <v>3863</v>
       </c>
       <c r="D1769" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1769" t="s">
         <v>3112</v>
@@ -44492,7 +44498,7 @@
         <v>3112</v>
       </c>
       <c r="E1770" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44506,7 +44512,7 @@
         <v>3865</v>
       </c>
       <c r="D1771" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1771" t="s">
         <v>3114</v>
@@ -44523,7 +44529,7 @@
         <v>3866</v>
       </c>
       <c r="D1772" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1772" t="s">
         <v>3115</v>
@@ -44540,7 +44546,7 @@
         <v>3867</v>
       </c>
       <c r="D1773" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1773" t="s">
         <v>3116</v>
@@ -44557,7 +44563,7 @@
         <v>3868</v>
       </c>
       <c r="D1774" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1774" t="s">
         <v>3117</v>
@@ -44625,7 +44631,7 @@
         <v>3872</v>
       </c>
       <c r="D1778" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1778" t="s">
         <v>3121</v>
@@ -44642,10 +44648,10 @@
         <v>3873</v>
       </c>
       <c r="D1779" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1779" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44659,7 +44665,7 @@
         <v>3874</v>
       </c>
       <c r="D1780" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1780" t="s">
         <v>3115</v>
@@ -44676,7 +44682,7 @@
         <v>3875</v>
       </c>
       <c r="D1781" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1781" t="s">
         <v>3122</v>
@@ -44710,7 +44716,7 @@
         <v>3877</v>
       </c>
       <c r="D1783" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1783" t="s">
         <v>3124</v>
@@ -44846,7 +44852,7 @@
         <v>3125</v>
       </c>
       <c r="D1791" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1791" t="s">
         <v>3125</v>
@@ -44914,10 +44920,10 @@
         <v>3125</v>
       </c>
       <c r="D1795" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1795" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -44931,10 +44937,10 @@
         <v>3125</v>
       </c>
       <c r="D1796" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1796" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -44948,10 +44954,10 @@
         <v>3125</v>
       </c>
       <c r="D1797" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1797" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -44965,10 +44971,10 @@
         <v>3125</v>
       </c>
       <c r="D1798" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1798" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -44982,7 +44988,7 @@
         <v>3881</v>
       </c>
       <c r="D1799" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1799" t="s">
         <v>3127</v>
@@ -44999,10 +45005,10 @@
         <v>3882</v>
       </c>
       <c r="D1800" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1800" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45016,7 +45022,7 @@
         <v>3125</v>
       </c>
       <c r="D1801" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1801" t="s">
         <v>3183</v>
@@ -45033,7 +45039,7 @@
         <v>3883</v>
       </c>
       <c r="D1802" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1802" t="s">
         <v>3130</v>
@@ -45050,7 +45056,7 @@
         <v>3173</v>
       </c>
       <c r="D1803" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1803" t="s">
         <v>3131</v>
@@ -45084,7 +45090,7 @@
         <v>3885</v>
       </c>
       <c r="D1805" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1805" t="s">
         <v>3133</v>
@@ -45118,7 +45124,7 @@
         <v>3887</v>
       </c>
       <c r="D1807" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1807" t="s">
         <v>3135</v>
@@ -45152,7 +45158,7 @@
         <v>3889</v>
       </c>
       <c r="D1809" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1809" t="s">
         <v>3137</v>
@@ -45169,7 +45175,7 @@
         <v>3889</v>
       </c>
       <c r="D1810" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1810" t="s">
         <v>3138</v>
@@ -45186,7 +45192,7 @@
         <v>3890</v>
       </c>
       <c r="D1811" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1811" t="s">
         <v>3139</v>
@@ -45203,7 +45209,7 @@
         <v>3891</v>
       </c>
       <c r="D1812" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1812" t="s">
         <v>3140</v>
@@ -45220,7 +45226,7 @@
         <v>3892</v>
       </c>
       <c r="D1813" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1813" t="s">
         <v>3141</v>
@@ -45237,7 +45243,7 @@
         <v>3893</v>
       </c>
       <c r="D1814" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1814" t="s">
         <v>3142</v>
@@ -45254,7 +45260,7 @@
         <v>3893</v>
       </c>
       <c r="D1815" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1815" t="s">
         <v>3143</v>
@@ -45271,7 +45277,7 @@
         <v>3894</v>
       </c>
       <c r="D1816" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1816" t="s">
         <v>3144</v>
@@ -45288,7 +45294,7 @@
         <v>3895</v>
       </c>
       <c r="D1817" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1817" t="s">
         <v>3145</v>
@@ -45322,7 +45328,7 @@
         <v>3143</v>
       </c>
       <c r="D1819" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1819" t="s">
         <v>3147</v>
@@ -45339,7 +45345,7 @@
         <v>3897</v>
       </c>
       <c r="D1820" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1820" t="s">
         <v>3148</v>
@@ -45390,7 +45396,7 @@
         <v>3900</v>
       </c>
       <c r="D1823" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1823" t="s">
         <v>3151</v>
@@ -45410,7 +45416,7 @@
         <v>3151</v>
       </c>
       <c r="E1824" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45427,7 +45433,7 @@
         <v>3141</v>
       </c>
       <c r="E1825" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45441,10 +45447,10 @@
         <v>3903</v>
       </c>
       <c r="D1826" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1826" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45458,7 +45464,7 @@
         <v>3904</v>
       </c>
       <c r="D1827" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1827" t="s">
         <v>3155</v>
@@ -45475,7 +45481,7 @@
         <v>3905</v>
       </c>
       <c r="D1828" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1828" t="s">
         <v>3156</v>
@@ -45492,7 +45498,7 @@
         <v>3847</v>
       </c>
       <c r="D1829" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1829" t="s">
         <v>3157</v>
@@ -45526,7 +45532,7 @@
         <v>3907</v>
       </c>
       <c r="D1831" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1831" t="s">
         <v>3159</v>
@@ -45560,7 +45566,7 @@
         <v>3909</v>
       </c>
       <c r="D1833" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1833" t="s">
         <v>3907</v>
@@ -45594,7 +45600,7 @@
         <v>3911</v>
       </c>
       <c r="D1835" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1835" t="s">
         <v>3912</v>
@@ -45611,7 +45617,7 @@
         <v>3912</v>
       </c>
       <c r="D1836" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1836" t="s">
         <v>3164</v>
@@ -45628,7 +45634,7 @@
         <v>3913</v>
       </c>
       <c r="D1837" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1837" t="s">
         <v>3165</v>
@@ -45645,10 +45651,10 @@
         <v>3914</v>
       </c>
       <c r="D1838" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1838" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45662,7 +45668,7 @@
         <v>3915</v>
       </c>
       <c r="D1839" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1839" t="s">
         <v>3167</v>
@@ -45679,7 +45685,7 @@
         <v>3916</v>
       </c>
       <c r="D1840" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1840" t="s">
         <v>3168</v>
@@ -45696,7 +45702,7 @@
         <v>3917</v>
       </c>
       <c r="D1841" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1841" t="s">
         <v>3169</v>
@@ -45730,7 +45736,7 @@
         <v>3915</v>
       </c>
       <c r="D1843" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1843" t="s">
         <v>3171</v>
@@ -45747,10 +45753,10 @@
         <v>3918</v>
       </c>
       <c r="D1844" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1844" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45781,7 +45787,7 @@
         <v>3136</v>
       </c>
       <c r="D1846" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1846" t="s">
         <v>3136</v>
@@ -45798,7 +45804,7 @@
         <v>3174</v>
       </c>
       <c r="D1847" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1847" t="s">
         <v>3175</v>
@@ -45818,7 +45824,7 @@
         <v>3176</v>
       </c>
       <c r="E1848" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45832,7 +45838,7 @@
         <v>3921</v>
       </c>
       <c r="D1849" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1849" t="s">
         <v>3177</v>
@@ -45852,7 +45858,7 @@
         <v>3177</v>
       </c>
       <c r="E1850" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45866,7 +45872,7 @@
         <v>3923</v>
       </c>
       <c r="D1851" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1851" t="s">
         <v>3179</v>
@@ -45900,7 +45906,7 @@
         <v>3133</v>
       </c>
       <c r="D1853" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1853" t="s">
         <v>3181</v>
@@ -45920,7 +45926,7 @@
         <v>4025</v>
       </c>
       <c r="E1854" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -45934,7 +45940,7 @@
         <v>3926</v>
       </c>
       <c r="D1855" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1855" t="s">
         <v>3183</v>
@@ -45968,7 +45974,7 @@
         <v>3927</v>
       </c>
       <c r="D1857" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1857" t="s">
         <v>3185</v>
@@ -46002,7 +46008,7 @@
         <v>3929</v>
       </c>
       <c r="D1859" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1859" t="s">
         <v>3187</v>
@@ -46019,7 +46025,7 @@
         <v>3930</v>
       </c>
       <c r="D1860" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1860" t="s">
         <v>3188</v>
@@ -46036,10 +46042,10 @@
         <v>3188</v>
       </c>
       <c r="D1861" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1861" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46073,7 +46079,7 @@
         <v>3980</v>
       </c>
       <c r="E1863" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46087,7 +46093,7 @@
         <v>3931</v>
       </c>
       <c r="D1864" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1864" t="s">
         <v>3191</v>
@@ -46104,7 +46110,7 @@
         <v>3932</v>
       </c>
       <c r="D1865" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1865" t="s">
         <v>3192</v>
@@ -46141,7 +46147,7 @@
         <v>3953</v>
       </c>
       <c r="E1867" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46155,10 +46161,10 @@
         <v>3194</v>
       </c>
       <c r="D1868" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1868" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46209,7 +46215,7 @@
         <v>3197</v>
       </c>
       <c r="E1871" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46223,7 +46229,7 @@
         <v>3938</v>
       </c>
       <c r="D1872" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1872" t="s">
         <v>3199</v>
@@ -46243,7 +46249,7 @@
         <v>3199</v>
       </c>
       <c r="E1873" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46257,7 +46263,7 @@
         <v>3940</v>
       </c>
       <c r="D1874" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1874" t="s">
         <v>3201</v>
@@ -46291,10 +46297,10 @@
         <v>3942</v>
       </c>
       <c r="D1876" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1876" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46308,10 +46314,10 @@
         <v>3943</v>
       </c>
       <c r="D1877" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1877" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46376,7 +46382,7 @@
         <v>3793</v>
       </c>
       <c r="D1881" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1881" t="s">
         <v>3793</v>
@@ -46461,7 +46467,7 @@
         <v>3949</v>
       </c>
       <c r="D1886" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1886" t="s">
         <v>3782</v>
@@ -46495,10 +46501,10 @@
         <v>3951</v>
       </c>
       <c r="D1888" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1888" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46512,7 +46518,7 @@
         <v>3952</v>
       </c>
       <c r="D1889" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1889" t="s">
         <v>3215</v>
@@ -46563,7 +46569,7 @@
         <v>3217</v>
       </c>
       <c r="D1892" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1892" t="s">
         <v>3218</v>
@@ -46580,7 +46586,7 @@
         <v>3955</v>
       </c>
       <c r="D1893" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1893" t="s">
         <v>3219</v>
@@ -46597,7 +46603,7 @@
         <v>3956</v>
       </c>
       <c r="D1894" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1894" t="s">
         <v>3220</v>
@@ -46614,7 +46620,7 @@
         <v>3957</v>
       </c>
       <c r="D1895" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1895" t="s">
         <v>3221</v>
@@ -46682,7 +46688,7 @@
         <v>3961</v>
       </c>
       <c r="D1899" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1899" t="s">
         <v>3225</v>
@@ -46716,7 +46722,7 @@
         <v>3962</v>
       </c>
       <c r="D1901" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1901" t="s">
         <v>3227</v>
@@ -46750,7 +46756,7 @@
         <v>3963</v>
       </c>
       <c r="D1903" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1903" t="s">
         <v>3229</v>
@@ -46784,7 +46790,7 @@
         <v>3231</v>
       </c>
       <c r="D1905" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1905" t="s">
         <v>3231</v>
@@ -46818,7 +46824,7 @@
         <v>3965</v>
       </c>
       <c r="D1907" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1907" t="s">
         <v>3233</v>
@@ -46835,7 +46841,7 @@
         <v>3956</v>
       </c>
       <c r="D1908" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1908" t="s">
         <v>3234</v>
@@ -46852,7 +46858,7 @@
         <v>3061</v>
       </c>
       <c r="D1909" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1909" t="s">
         <v>3235</v>
@@ -46869,7 +46875,7 @@
         <v>3235</v>
       </c>
       <c r="D1910" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1910" t="s">
         <v>3236</v>
@@ -46920,7 +46926,7 @@
         <v>3966</v>
       </c>
       <c r="D1913" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1913" t="s">
         <v>3239</v>
@@ -46937,10 +46943,10 @@
         <v>3967</v>
       </c>
       <c r="D1914" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1914" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -46988,7 +46994,7 @@
         <v>3242</v>
       </c>
       <c r="D1917" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1917" t="s">
         <v>3243</v>
@@ -47022,10 +47028,10 @@
         <v>3970</v>
       </c>
       <c r="D1919" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1919" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47056,7 +47062,7 @@
         <v>3972</v>
       </c>
       <c r="D1921" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1921" t="s">
         <v>3247</v>
@@ -47073,7 +47079,7 @@
         <v>3973</v>
       </c>
       <c r="D1922" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1922" t="s">
         <v>3248</v>
@@ -47090,7 +47096,7 @@
         <v>3249</v>
       </c>
       <c r="D1923" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1923" t="s">
         <v>3249</v>
@@ -47107,7 +47113,7 @@
         <v>3974</v>
       </c>
       <c r="D1924" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1924" t="s">
         <v>3250</v>
@@ -47175,7 +47181,7 @@
         <v>3224</v>
       </c>
       <c r="D1928" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1928" t="s">
         <v>3254</v>
@@ -47226,7 +47232,7 @@
         <v>3976</v>
       </c>
       <c r="D1931" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1931" t="s">
         <v>3257</v>
@@ -47243,7 +47249,7 @@
         <v>3268</v>
       </c>
       <c r="D1932" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1932" t="s">
         <v>3258</v>
@@ -47260,7 +47266,7 @@
         <v>3259</v>
       </c>
       <c r="D1933" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1933" t="s">
         <v>3259</v>
@@ -47277,7 +47283,7 @@
         <v>3977</v>
       </c>
       <c r="D1934" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1934" t="s">
         <v>3260</v>
@@ -47294,7 +47300,7 @@
         <v>3978</v>
       </c>
       <c r="D1935" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1935" t="s">
         <v>3261</v>
@@ -47328,7 +47334,7 @@
         <v>3979</v>
       </c>
       <c r="D1937" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1937" t="s">
         <v>3263</v>
@@ -47345,7 +47351,7 @@
         <v>3980</v>
       </c>
       <c r="D1938" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1938" t="s">
         <v>3264</v>
@@ -47379,7 +47385,7 @@
         <v>3965</v>
       </c>
       <c r="D1940" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1940" t="s">
         <v>3266</v>
@@ -47396,7 +47402,7 @@
         <v>3982</v>
       </c>
       <c r="D1941" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1941" t="s">
         <v>3267</v>
@@ -47447,7 +47453,7 @@
         <v>3985</v>
       </c>
       <c r="D1944" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1944" t="s">
         <v>3270</v>
@@ -47532,7 +47538,7 @@
         <v>3988</v>
       </c>
       <c r="D1949" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1949" t="s">
         <v>3275</v>
@@ -47583,7 +47589,7 @@
         <v>3990</v>
       </c>
       <c r="D1952" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1952" t="s">
         <v>3277</v>
@@ -47600,7 +47606,7 @@
         <v>3991</v>
       </c>
       <c r="D1953" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1953" t="s">
         <v>3278</v>
@@ -47617,7 +47623,7 @@
         <v>3992</v>
       </c>
       <c r="D1954" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1954" t="s">
         <v>3279</v>
@@ -47634,7 +47640,7 @@
         <v>3993</v>
       </c>
       <c r="D1955" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1955" t="s">
         <v>3280</v>
@@ -47651,7 +47657,7 @@
         <v>3281</v>
       </c>
       <c r="D1956" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1956" t="s">
         <v>3281</v>
@@ -47668,7 +47674,7 @@
         <v>3282</v>
       </c>
       <c r="D1957" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1957" t="s">
         <v>3282</v>
@@ -47685,7 +47691,7 @@
         <v>3255</v>
       </c>
       <c r="D1958" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1958" t="s">
         <v>3283</v>
@@ -47702,7 +47708,7 @@
         <v>3994</v>
       </c>
       <c r="D1959" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1959" t="s">
         <v>3206</v>
@@ -47736,7 +47742,7 @@
         <v>3226</v>
       </c>
       <c r="D1961" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1961" t="s">
         <v>3285</v>
@@ -47770,7 +47776,7 @@
         <v>3271</v>
       </c>
       <c r="D1963" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1963" t="s">
         <v>3287</v>
@@ -47787,7 +47793,7 @@
         <v>3995</v>
       </c>
       <c r="D1964" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1964" t="s">
         <v>3288</v>
@@ -47804,7 +47810,7 @@
         <v>3996</v>
       </c>
       <c r="D1965" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1965" t="s">
         <v>3289</v>
@@ -47821,7 +47827,7 @@
         <v>3270</v>
       </c>
       <c r="D1966" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1966" t="s">
         <v>3290</v>
@@ -47838,7 +47844,7 @@
         <v>3804</v>
       </c>
       <c r="D1967" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1967" t="s">
         <v>3291</v>
@@ -47906,7 +47912,7 @@
         <v>3999</v>
       </c>
       <c r="D1971" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1971" t="s">
         <v>3295</v>
@@ -47923,7 +47929,7 @@
         <v>4000</v>
       </c>
       <c r="D1972" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1972" t="s">
         <v>3296</v>
@@ -47940,7 +47946,7 @@
         <v>3239</v>
       </c>
       <c r="D1973" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1973" t="s">
         <v>3297</v>
@@ -47974,7 +47980,7 @@
         <v>3271</v>
       </c>
       <c r="D1975" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1975" t="s">
         <v>3299</v>
@@ -48008,7 +48014,7 @@
         <v>4002</v>
       </c>
       <c r="D1977" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1977" t="s">
         <v>3301</v>
@@ -48076,7 +48082,7 @@
         <v>4005</v>
       </c>
       <c r="D1981" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1981" t="s">
         <v>3304</v>
@@ -48093,7 +48099,7 @@
         <v>3304</v>
       </c>
       <c r="D1982" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1982" t="s">
         <v>3264</v>
@@ -48110,7 +48116,7 @@
         <v>4006</v>
       </c>
       <c r="D1983" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1983" t="s">
         <v>3305</v>
@@ -48130,7 +48136,7 @@
         <v>3305</v>
       </c>
       <c r="E1984" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48161,7 +48167,7 @@
         <v>4008</v>
       </c>
       <c r="D1986" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1986" t="s">
         <v>3308</v>
@@ -48178,7 +48184,7 @@
         <v>4009</v>
       </c>
       <c r="D1987" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1987" t="s">
         <v>3309</v>
@@ -48212,7 +48218,7 @@
         <v>3309</v>
       </c>
       <c r="D1989" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1989" t="s">
         <v>3310</v>
@@ -48229,7 +48235,7 @@
         <v>4010</v>
       </c>
       <c r="D1990" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1990" t="s">
         <v>3311</v>
@@ -48246,7 +48252,7 @@
         <v>4011</v>
       </c>
       <c r="D1991" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1991" t="s">
         <v>3312</v>
@@ -48263,7 +48269,7 @@
         <v>4012</v>
       </c>
       <c r="D1992" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1992" t="s">
         <v>3313</v>
@@ -48280,7 +48286,7 @@
         <v>3078</v>
       </c>
       <c r="D1993" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1993" t="s">
         <v>3314</v>
@@ -48297,7 +48303,7 @@
         <v>4013</v>
       </c>
       <c r="D1994" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1994" t="s">
         <v>3315</v>
@@ -48314,7 +48320,7 @@
         <v>4014</v>
       </c>
       <c r="D1995" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1995" t="s">
         <v>3316</v>
@@ -48331,7 +48337,7 @@
         <v>4015</v>
       </c>
       <c r="D1996" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1996" t="s">
         <v>3317</v>
@@ -48365,7 +48371,7 @@
         <v>4017</v>
       </c>
       <c r="D1998" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1998" t="s">
         <v>3319</v>
@@ -48484,7 +48490,7 @@
         <v>4022</v>
       </c>
       <c r="D2005" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E2005" t="s">
         <v>3326</v>
@@ -48501,7 +48507,7 @@
         <v>4023</v>
       </c>
       <c r="D2006" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E2006" t="s">
         <v>3327</v>
@@ -48518,7 +48524,7 @@
         <v>4024</v>
       </c>
       <c r="D2007" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E2007" t="s">
         <v>3328</v>
@@ -48535,10 +48541,10 @@
         <v>4025</v>
       </c>
       <c r="D2008" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E2008" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48586,7 +48592,7 @@
         <v>4027</v>
       </c>
       <c r="D2011" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E2011" t="s">
         <v>3332</v>
@@ -48603,10 +48609,10 @@
         <v>4028</v>
       </c>
       <c r="D2012" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E2012" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48620,7 +48626,7 @@
         <v>4029</v>
       </c>
       <c r="D2013" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E2013" t="s">
         <v>3197</v>
@@ -48637,10 +48643,10 @@
         <v>4030</v>
       </c>
       <c r="D2014" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E2014" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48654,7 +48660,7 @@
         <v>4031</v>
       </c>
       <c r="D2015" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E2015" t="s">
         <v>3335</v>
@@ -48702,13 +48708,13 @@
         <v>3337</v>
       </c>
       <c r="C2018" t="s">
-        <v>4006</v>
+        <v>4033</v>
       </c>
       <c r="D2018" t="s">
         <v>3337</v>
       </c>
       <c r="E2018" t="s">
-        <v>4006</v>
+        <v>4677</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10100" uniqueCount="4682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10100" uniqueCount="4684">
   <si>
     <t>1. open</t>
   </si>
@@ -12130,6 +12130,9 @@
     <t>3.86780</t>
   </si>
   <si>
+    <t>3.86310</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -13703,6 +13706,9 @@
   </si>
   <si>
     <t>3.84410</t>
+  </si>
+  <si>
+    <t>3.82130</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14485,7 +14491,7 @@
         <v>2026</v>
       </c>
       <c r="D4" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="E4" t="s">
         <v>2027</v>
@@ -14740,7 +14746,7 @@
         <v>2039</v>
       </c>
       <c r="D19" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="E19" t="s">
         <v>2040</v>
@@ -14757,7 +14763,7 @@
         <v>2040</v>
       </c>
       <c r="D20" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="E20" t="s">
         <v>2041</v>
@@ -14859,7 +14865,7 @@
         <v>2045</v>
       </c>
       <c r="D26" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E26" t="s">
         <v>2045</v>
@@ -14910,7 +14916,7 @@
         <v>2047</v>
       </c>
       <c r="D29" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="E29" t="s">
         <v>2047</v>
@@ -14961,7 +14967,7 @@
         <v>3347</v>
       </c>
       <c r="D32" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="E32" t="s">
         <v>2048</v>
@@ -15063,7 +15069,7 @@
         <v>2053</v>
       </c>
       <c r="D38" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="E38" t="s">
         <v>2054</v>
@@ -15165,7 +15171,7 @@
         <v>2059</v>
       </c>
       <c r="D44" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E44" t="s">
         <v>2060</v>
@@ -15182,7 +15188,7 @@
         <v>2060</v>
       </c>
       <c r="D45" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="E45" t="s">
         <v>2057</v>
@@ -15199,7 +15205,7 @@
         <v>3350</v>
       </c>
       <c r="D46" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E46" t="s">
         <v>2061</v>
@@ -15250,7 +15256,7 @@
         <v>2062</v>
       </c>
       <c r="D49" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="E49" t="s">
         <v>2063</v>
@@ -15267,7 +15273,7 @@
         <v>2064</v>
       </c>
       <c r="D50" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E50" t="s">
         <v>2064</v>
@@ -15301,7 +15307,7 @@
         <v>2066</v>
       </c>
       <c r="D52" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E52" t="s">
         <v>2066</v>
@@ -15318,7 +15324,7 @@
         <v>3351</v>
       </c>
       <c r="D53" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="E53" t="s">
         <v>2067</v>
@@ -15335,7 +15341,7 @@
         <v>2066</v>
       </c>
       <c r="D54" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E54" t="s">
         <v>2068</v>
@@ -15488,7 +15494,7 @@
         <v>2077</v>
       </c>
       <c r="D63" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="E63" t="s">
         <v>2077</v>
@@ -15658,7 +15664,7 @@
         <v>2084</v>
       </c>
       <c r="D73" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="E73" t="s">
         <v>2085</v>
@@ -15760,7 +15766,7 @@
         <v>2089</v>
       </c>
       <c r="D79" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E79" t="s">
         <v>2087</v>
@@ -15777,7 +15783,7 @@
         <v>2087</v>
       </c>
       <c r="D80" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="E80" t="s">
         <v>2090</v>
@@ -16066,7 +16072,7 @@
         <v>3362</v>
       </c>
       <c r="D97" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E97" t="s">
         <v>2091</v>
@@ -16559,10 +16565,10 @@
         <v>2127</v>
       </c>
       <c r="D126" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="E126" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16644,7 +16650,7 @@
         <v>3377</v>
       </c>
       <c r="D131" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="E131" t="s">
         <v>2132</v>
@@ -16763,7 +16769,7 @@
         <v>3376</v>
       </c>
       <c r="D138" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="E138" t="s">
         <v>2138</v>
@@ -16797,7 +16803,7 @@
         <v>3377</v>
       </c>
       <c r="D140" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E140" t="s">
         <v>2120</v>
@@ -16814,7 +16820,7 @@
         <v>2139</v>
       </c>
       <c r="D141" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="E141" t="s">
         <v>2139</v>
@@ -16831,7 +16837,7 @@
         <v>3382</v>
       </c>
       <c r="D142" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="E142" t="s">
         <v>2126</v>
@@ -16916,7 +16922,7 @@
         <v>3368</v>
       </c>
       <c r="D147" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E147" t="s">
         <v>2143</v>
@@ -17222,7 +17228,7 @@
         <v>2157</v>
       </c>
       <c r="D165" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E165" t="s">
         <v>2158</v>
@@ -17460,10 +17466,10 @@
         <v>2168</v>
       </c>
       <c r="D179" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E179" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17599,7 +17605,7 @@
         <v>2175</v>
       </c>
       <c r="E187" t="s">
-        <v>4563</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18021,7 +18027,7 @@
         <v>3400</v>
       </c>
       <c r="D212" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E212" t="s">
         <v>3400</v>
@@ -18055,7 +18061,7 @@
         <v>2198</v>
       </c>
       <c r="D214" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="E214" t="s">
         <v>2198</v>
@@ -18344,10 +18350,10 @@
         <v>2214</v>
       </c>
       <c r="D231" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E231" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19690,7 +19696,7 @@
         <v>2279</v>
       </c>
       <c r="E310" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19789,7 +19795,7 @@
         <v>3435</v>
       </c>
       <c r="D316" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E316" t="s">
         <v>2286</v>
@@ -20027,7 +20033,7 @@
         <v>2295</v>
       </c>
       <c r="D330" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E330" t="s">
         <v>2296</v>
@@ -20044,7 +20050,7 @@
         <v>2296</v>
       </c>
       <c r="D331" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E331" t="s">
         <v>2297</v>
@@ -20129,7 +20135,7 @@
         <v>2300</v>
       </c>
       <c r="D336" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E336" t="s">
         <v>2301</v>
@@ -20384,7 +20390,7 @@
         <v>2462</v>
       </c>
       <c r="D351" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E351" t="s">
         <v>2247</v>
@@ -20401,7 +20407,7 @@
         <v>3415</v>
       </c>
       <c r="D352" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E352" t="s">
         <v>2313</v>
@@ -20605,10 +20611,10 @@
         <v>2323</v>
       </c>
       <c r="D364" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E364" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20622,7 +20628,7 @@
         <v>2369</v>
       </c>
       <c r="D365" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E365" t="s">
         <v>2324</v>
@@ -21370,7 +21376,7 @@
         <v>2358</v>
       </c>
       <c r="D409" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E409" t="s">
         <v>2358</v>
@@ -21931,7 +21937,7 @@
         <v>2380</v>
       </c>
       <c r="D442" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E442" t="s">
         <v>2381</v>
@@ -22118,7 +22124,7 @@
         <v>3456</v>
       </c>
       <c r="D453" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E453" t="s">
         <v>2342</v>
@@ -22390,7 +22396,7 @@
         <v>2402</v>
       </c>
       <c r="D469" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E469" t="s">
         <v>2403</v>
@@ -22458,7 +22464,7 @@
         <v>3461</v>
       </c>
       <c r="D473" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E473" t="s">
         <v>3420</v>
@@ -22645,7 +22651,7 @@
         <v>3415</v>
       </c>
       <c r="D484" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E484" t="s">
         <v>2414</v>
@@ -23410,7 +23416,7 @@
         <v>2442</v>
       </c>
       <c r="D529" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E529" t="s">
         <v>2443</v>
@@ -23546,7 +23552,7 @@
         <v>2445</v>
       </c>
       <c r="D537" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E537" t="s">
         <v>2449</v>
@@ -23597,7 +23603,7 @@
         <v>3469</v>
       </c>
       <c r="D540" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E540" t="s">
         <v>2452</v>
@@ -23614,7 +23620,7 @@
         <v>2304</v>
       </c>
       <c r="D541" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E541" t="s">
         <v>2422</v>
@@ -23665,7 +23671,7 @@
         <v>3470</v>
       </c>
       <c r="D544" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E544" t="s">
         <v>2455</v>
@@ -23682,7 +23688,7 @@
         <v>3471</v>
       </c>
       <c r="D545" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E545" t="s">
         <v>2456</v>
@@ -23699,7 +23705,7 @@
         <v>2420</v>
       </c>
       <c r="D546" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E546" t="s">
         <v>2310</v>
@@ -23750,7 +23756,7 @@
         <v>2435</v>
       </c>
       <c r="D549" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E549" t="s">
         <v>2457</v>
@@ -23784,7 +23790,7 @@
         <v>2244</v>
       </c>
       <c r="D551" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E551" t="s">
         <v>2458</v>
@@ -23886,7 +23892,7 @@
         <v>2408</v>
       </c>
       <c r="D557" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E557" t="s">
         <v>2463</v>
@@ -23920,7 +23926,7 @@
         <v>2889</v>
       </c>
       <c r="D559" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E559" t="s">
         <v>2464</v>
@@ -23937,7 +23943,7 @@
         <v>2464</v>
       </c>
       <c r="D560" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E560" t="s">
         <v>2394</v>
@@ -23971,7 +23977,7 @@
         <v>3477</v>
       </c>
       <c r="D562" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E562" t="s">
         <v>2465</v>
@@ -24005,10 +24011,10 @@
         <v>2305</v>
       </c>
       <c r="D564" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E564" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24056,7 +24062,7 @@
         <v>3478</v>
       </c>
       <c r="D567" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E567" t="s">
         <v>2469</v>
@@ -24124,7 +24130,7 @@
         <v>3479</v>
       </c>
       <c r="D571" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E571" t="s">
         <v>2473</v>
@@ -24175,7 +24181,7 @@
         <v>2367</v>
       </c>
       <c r="D574" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E574" t="s">
         <v>2225</v>
@@ -24209,7 +24215,7 @@
         <v>3480</v>
       </c>
       <c r="D576" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E576" t="s">
         <v>2477</v>
@@ -24226,7 +24232,7 @@
         <v>2777</v>
       </c>
       <c r="D577" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E577" t="s">
         <v>2478</v>
@@ -24243,7 +24249,7 @@
         <v>2774</v>
       </c>
       <c r="D578" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E578" t="s">
         <v>2479</v>
@@ -24277,7 +24283,7 @@
         <v>2480</v>
       </c>
       <c r="D580" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E580" t="s">
         <v>2481</v>
@@ -24345,7 +24351,7 @@
         <v>2324</v>
       </c>
       <c r="D584" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E584" t="s">
         <v>2485</v>
@@ -24430,7 +24436,7 @@
         <v>2222</v>
       </c>
       <c r="D589" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E589" t="s">
         <v>2488</v>
@@ -24481,7 +24487,7 @@
         <v>2570</v>
       </c>
       <c r="D592" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E592" t="s">
         <v>2490</v>
@@ -24702,10 +24708,10 @@
         <v>2527</v>
       </c>
       <c r="D605" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E605" t="s">
-        <v>4565</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24753,7 +24759,7 @@
         <v>2483</v>
       </c>
       <c r="D608" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E608" t="s">
         <v>2497</v>
@@ -24855,7 +24861,7 @@
         <v>3487</v>
       </c>
       <c r="D614" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E614" t="s">
         <v>2502</v>
@@ -25096,7 +25102,7 @@
         <v>2488</v>
       </c>
       <c r="E628" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25161,7 +25167,7 @@
         <v>2221</v>
       </c>
       <c r="D632" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E632" t="s">
         <v>2510</v>
@@ -25436,7 +25442,7 @@
         <v>2496</v>
       </c>
       <c r="E648" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25569,7 +25575,7 @@
         <v>2495</v>
       </c>
       <c r="D656" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E656" t="s">
         <v>2369</v>
@@ -25620,7 +25626,7 @@
         <v>2516</v>
       </c>
       <c r="D659" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E659" t="s">
         <v>2529</v>
@@ -25756,7 +25762,7 @@
         <v>2516</v>
       </c>
       <c r="D667" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E667" t="s">
         <v>2525</v>
@@ -25841,7 +25847,7 @@
         <v>3483</v>
       </c>
       <c r="D672" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E672" t="s">
         <v>2481</v>
@@ -25861,7 +25867,7 @@
         <v>2324</v>
       </c>
       <c r="E673" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -25892,7 +25898,7 @@
         <v>2676</v>
       </c>
       <c r="D675" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E675" t="s">
         <v>2533</v>
@@ -26062,7 +26068,7 @@
         <v>2185</v>
       </c>
       <c r="D685" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E685" t="s">
         <v>2508</v>
@@ -26249,7 +26255,7 @@
         <v>3493</v>
       </c>
       <c r="D696" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E696" t="s">
         <v>2543</v>
@@ -26657,7 +26663,7 @@
         <v>2488</v>
       </c>
       <c r="D720" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E720" t="s">
         <v>2488</v>
@@ -26674,7 +26680,7 @@
         <v>2488</v>
       </c>
       <c r="D721" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E721" t="s">
         <v>2548</v>
@@ -26691,7 +26697,7 @@
         <v>2488</v>
       </c>
       <c r="D722" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E722" t="s">
         <v>2558</v>
@@ -26793,7 +26799,7 @@
         <v>2514</v>
       </c>
       <c r="D728" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E728" t="s">
         <v>2562</v>
@@ -26810,7 +26816,7 @@
         <v>2558</v>
       </c>
       <c r="D729" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E729" t="s">
         <v>2557</v>
@@ -26844,7 +26850,7 @@
         <v>2557</v>
       </c>
       <c r="D731" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E731" t="s">
         <v>2564</v>
@@ -26878,7 +26884,7 @@
         <v>2587</v>
       </c>
       <c r="D733" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E733" t="s">
         <v>2566</v>
@@ -27014,7 +27020,7 @@
         <v>2543</v>
       </c>
       <c r="D741" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E741" t="s">
         <v>2569</v>
@@ -27082,7 +27088,7 @@
         <v>2676</v>
       </c>
       <c r="D745" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E745" t="s">
         <v>2571</v>
@@ -27235,7 +27241,7 @@
         <v>2527</v>
       </c>
       <c r="D754" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E754" t="s">
         <v>2570</v>
@@ -27371,7 +27377,7 @@
         <v>2513</v>
       </c>
       <c r="D762" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E762" t="s">
         <v>2582</v>
@@ -27388,7 +27394,7 @@
         <v>2221</v>
       </c>
       <c r="D763" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E763" t="s">
         <v>2583</v>
@@ -27405,7 +27411,7 @@
         <v>2191</v>
       </c>
       <c r="D764" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E764" t="s">
         <v>2584</v>
@@ -27456,7 +27462,7 @@
         <v>2184</v>
       </c>
       <c r="D767" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E767" t="s">
         <v>2578</v>
@@ -27490,7 +27496,7 @@
         <v>2529</v>
       </c>
       <c r="D769" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E769" t="s">
         <v>2224</v>
@@ -27592,7 +27598,7 @@
         <v>2490</v>
       </c>
       <c r="D775" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E775" t="s">
         <v>2585</v>
@@ -27609,7 +27615,7 @@
         <v>2192</v>
       </c>
       <c r="D776" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E776" t="s">
         <v>2497</v>
@@ -27745,10 +27751,10 @@
         <v>2221</v>
       </c>
       <c r="D784" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E784" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27762,7 +27768,7 @@
         <v>2505</v>
       </c>
       <c r="D785" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E785" t="s">
         <v>2558</v>
@@ -27813,10 +27819,10 @@
         <v>2505</v>
       </c>
       <c r="D788" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E788" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28051,10 +28057,10 @@
         <v>2793</v>
       </c>
       <c r="D802" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E802" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28170,7 +28176,7 @@
         <v>2221</v>
       </c>
       <c r="D809" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E809" t="s">
         <v>2488</v>
@@ -28272,7 +28278,7 @@
         <v>3508</v>
       </c>
       <c r="D815" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E815" t="s">
         <v>2605</v>
@@ -28289,7 +28295,7 @@
         <v>2632</v>
       </c>
       <c r="D816" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E816" t="s">
         <v>2212</v>
@@ -28493,7 +28499,7 @@
         <v>3509</v>
       </c>
       <c r="D828" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E828" t="s">
         <v>2615</v>
@@ -28527,7 +28533,7 @@
         <v>2632</v>
       </c>
       <c r="D830" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E830" t="s">
         <v>2213</v>
@@ -28561,7 +28567,7 @@
         <v>3509</v>
       </c>
       <c r="D832" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E832" t="s">
         <v>2617</v>
@@ -28612,7 +28618,7 @@
         <v>3400</v>
       </c>
       <c r="D835" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E835" t="s">
         <v>2619</v>
@@ -28646,7 +28652,7 @@
         <v>2548</v>
       </c>
       <c r="D837" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E837" t="s">
         <v>2548</v>
@@ -28697,7 +28703,7 @@
         <v>3512</v>
       </c>
       <c r="D840" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E840" t="s">
         <v>2491</v>
@@ -28717,7 +28723,7 @@
         <v>2538</v>
       </c>
       <c r="E841" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29054,7 +29060,7 @@
         <v>2223</v>
       </c>
       <c r="D861" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E861" t="s">
         <v>2629</v>
@@ -29224,7 +29230,7 @@
         <v>2192</v>
       </c>
       <c r="D871" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E871" t="s">
         <v>2217</v>
@@ -29258,7 +29264,7 @@
         <v>3516</v>
       </c>
       <c r="D873" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E873" t="s">
         <v>2633</v>
@@ -29377,7 +29383,7 @@
         <v>3520</v>
       </c>
       <c r="D880" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E880" t="s">
         <v>2638</v>
@@ -29445,7 +29451,7 @@
         <v>2511</v>
       </c>
       <c r="D884" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E884" t="s">
         <v>2603</v>
@@ -29615,7 +29621,7 @@
         <v>2222</v>
       </c>
       <c r="D894" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E894" t="s">
         <v>2647</v>
@@ -29734,7 +29740,7 @@
         <v>3449</v>
       </c>
       <c r="D901" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E901" t="s">
         <v>2651</v>
@@ -29802,7 +29808,7 @@
         <v>2493</v>
       </c>
       <c r="D905" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E905" t="s">
         <v>2655</v>
@@ -29955,7 +29961,7 @@
         <v>2667</v>
       </c>
       <c r="D914" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E914" t="s">
         <v>2491</v>
@@ -30159,7 +30165,7 @@
         <v>2324</v>
       </c>
       <c r="D926" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E926" t="s">
         <v>2663</v>
@@ -30244,7 +30250,7 @@
         <v>2478</v>
       </c>
       <c r="D931" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E931" t="s">
         <v>2667</v>
@@ -30329,7 +30335,7 @@
         <v>3483</v>
       </c>
       <c r="D936" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E936" t="s">
         <v>2325</v>
@@ -30414,7 +30420,7 @@
         <v>2813</v>
       </c>
       <c r="D941" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E941" t="s">
         <v>2672</v>
@@ -30516,7 +30522,7 @@
         <v>2653</v>
       </c>
       <c r="D947" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E947" t="s">
         <v>2367</v>
@@ -30533,7 +30539,7 @@
         <v>3528</v>
       </c>
       <c r="D948" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E948" t="s">
         <v>2674</v>
@@ -30601,7 +30607,7 @@
         <v>2368</v>
       </c>
       <c r="D952" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E952" t="s">
         <v>2675</v>
@@ -30856,7 +30862,7 @@
         <v>2519</v>
       </c>
       <c r="D967" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E967" t="s">
         <v>2481</v>
@@ -30941,7 +30947,7 @@
         <v>2673</v>
       </c>
       <c r="D972" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E972" t="s">
         <v>2682</v>
@@ -30992,7 +30998,7 @@
         <v>2235</v>
       </c>
       <c r="D975" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E975" t="s">
         <v>2362</v>
@@ -31026,7 +31032,7 @@
         <v>2796</v>
       </c>
       <c r="D977" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E977" t="s">
         <v>2684</v>
@@ -31383,7 +31389,7 @@
         <v>2337</v>
       </c>
       <c r="D998" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E998" t="s">
         <v>2698</v>
@@ -31400,7 +31406,7 @@
         <v>3537</v>
       </c>
       <c r="D999" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E999" t="s">
         <v>2699</v>
@@ -31485,7 +31491,7 @@
         <v>2342</v>
       </c>
       <c r="D1004" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1004" t="s">
         <v>2390</v>
@@ -31655,7 +31661,7 @@
         <v>2804</v>
       </c>
       <c r="D1014" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E1014" t="s">
         <v>2392</v>
@@ -31672,7 +31678,7 @@
         <v>2804</v>
       </c>
       <c r="D1015" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E1015" t="s">
         <v>2392</v>
@@ -31706,7 +31712,7 @@
         <v>2825</v>
       </c>
       <c r="D1017" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E1017" t="s">
         <v>2696</v>
@@ -31774,7 +31780,7 @@
         <v>2358</v>
       </c>
       <c r="D1021" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E1021" t="s">
         <v>2710</v>
@@ -31791,7 +31797,7 @@
         <v>2358</v>
       </c>
       <c r="D1022" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E1022" t="s">
         <v>2711</v>
@@ -31859,7 +31865,7 @@
         <v>2827</v>
       </c>
       <c r="D1026" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E1026" t="s">
         <v>2714</v>
@@ -31961,7 +31967,7 @@
         <v>2313</v>
       </c>
       <c r="D1032" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E1032" t="s">
         <v>2719</v>
@@ -32012,7 +32018,7 @@
         <v>3477</v>
       </c>
       <c r="D1035" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E1035" t="s">
         <v>2251</v>
@@ -32114,7 +32120,7 @@
         <v>2417</v>
       </c>
       <c r="D1041" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E1041" t="s">
         <v>2727</v>
@@ -32216,7 +32222,7 @@
         <v>2726</v>
       </c>
       <c r="D1047" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E1047" t="s">
         <v>2730</v>
@@ -32287,7 +32293,7 @@
         <v>2242</v>
       </c>
       <c r="E1051" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32542,7 +32548,7 @@
         <v>2741</v>
       </c>
       <c r="E1066" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32624,7 +32630,7 @@
         <v>3539</v>
       </c>
       <c r="D1071" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E1071" t="s">
         <v>2316</v>
@@ -32845,7 +32851,7 @@
         <v>2358</v>
       </c>
       <c r="D1084" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E1084" t="s">
         <v>2752</v>
@@ -32879,7 +32885,7 @@
         <v>2377</v>
       </c>
       <c r="D1086" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E1086" t="s">
         <v>2235</v>
@@ -32913,7 +32919,7 @@
         <v>2825</v>
       </c>
       <c r="D1088" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E1088" t="s">
         <v>2754</v>
@@ -32930,7 +32936,7 @@
         <v>2803</v>
       </c>
       <c r="D1089" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E1089" t="s">
         <v>2755</v>
@@ -32998,7 +33004,7 @@
         <v>2717</v>
       </c>
       <c r="D1093" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E1093" t="s">
         <v>2757</v>
@@ -33083,10 +33089,10 @@
         <v>2768</v>
       </c>
       <c r="D1098" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E1098" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33100,10 +33106,10 @@
         <v>2306</v>
       </c>
       <c r="D1099" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1099" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33134,7 +33140,7 @@
         <v>2826</v>
       </c>
       <c r="D1101" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E1101" t="s">
         <v>2770</v>
@@ -33151,7 +33157,7 @@
         <v>2768</v>
       </c>
       <c r="D1102" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1102" t="s">
         <v>2765</v>
@@ -33304,7 +33310,7 @@
         <v>2770</v>
       </c>
       <c r="D1111" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E1111" t="s">
         <v>2771</v>
@@ -33338,7 +33344,7 @@
         <v>3541</v>
       </c>
       <c r="D1113" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E1113" t="s">
         <v>2772</v>
@@ -33355,7 +33361,7 @@
         <v>3542</v>
       </c>
       <c r="D1114" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E1114" t="s">
         <v>2700</v>
@@ -33372,7 +33378,7 @@
         <v>3543</v>
       </c>
       <c r="D1115" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E1115" t="s">
         <v>2772</v>
@@ -33389,7 +33395,7 @@
         <v>3544</v>
       </c>
       <c r="D1116" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1116" t="s">
         <v>2773</v>
@@ -33508,7 +33514,7 @@
         <v>2337</v>
       </c>
       <c r="D1123" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E1123" t="s">
         <v>2776</v>
@@ -33542,7 +33548,7 @@
         <v>3547</v>
       </c>
       <c r="D1125" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E1125" t="s">
         <v>2777</v>
@@ -33576,7 +33582,7 @@
         <v>2690</v>
       </c>
       <c r="D1127" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E1127" t="s">
         <v>2493</v>
@@ -33712,7 +33718,7 @@
         <v>2762</v>
       </c>
       <c r="D1135" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E1135" t="s">
         <v>2783</v>
@@ -33746,7 +33752,7 @@
         <v>2843</v>
       </c>
       <c r="D1137" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E1137" t="s">
         <v>2684</v>
@@ -33797,7 +33803,7 @@
         <v>3552</v>
       </c>
       <c r="D1140" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E1140" t="s">
         <v>2786</v>
@@ -33814,7 +33820,7 @@
         <v>3478</v>
       </c>
       <c r="D1141" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E1141" t="s">
         <v>3534</v>
@@ -33831,7 +33837,7 @@
         <v>2786</v>
       </c>
       <c r="D1142" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1142" t="s">
         <v>2787</v>
@@ -33899,7 +33905,7 @@
         <v>2333</v>
       </c>
       <c r="D1146" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1146" t="s">
         <v>2789</v>
@@ -33950,7 +33956,7 @@
         <v>3478</v>
       </c>
       <c r="D1149" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1149" t="s">
         <v>2789</v>
@@ -34001,7 +34007,7 @@
         <v>3537</v>
       </c>
       <c r="D1152" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1152" t="s">
         <v>2792</v>
@@ -34069,7 +34075,7 @@
         <v>2768</v>
       </c>
       <c r="D1156" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1156" t="s">
         <v>2760</v>
@@ -34086,7 +34092,7 @@
         <v>2760</v>
       </c>
       <c r="D1157" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1157" t="s">
         <v>2234</v>
@@ -34103,7 +34109,7 @@
         <v>2234</v>
       </c>
       <c r="D1158" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1158" t="s">
         <v>2771</v>
@@ -34120,7 +34126,7 @@
         <v>2771</v>
       </c>
       <c r="D1159" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1159" t="s">
         <v>2793</v>
@@ -34137,7 +34143,7 @@
         <v>2796</v>
       </c>
       <c r="D1160" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1160" t="s">
         <v>2231</v>
@@ -34154,7 +34160,7 @@
         <v>2231</v>
       </c>
       <c r="D1161" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1161" t="s">
         <v>2793</v>
@@ -34171,7 +34177,7 @@
         <v>3541</v>
       </c>
       <c r="D1162" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1162" t="s">
         <v>2337</v>
@@ -34205,7 +34211,7 @@
         <v>2231</v>
       </c>
       <c r="D1164" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1164" t="s">
         <v>2355</v>
@@ -34256,7 +34262,7 @@
         <v>2358</v>
       </c>
       <c r="D1167" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1167" t="s">
         <v>2795</v>
@@ -34307,7 +34313,7 @@
         <v>3556</v>
       </c>
       <c r="D1170" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1170" t="s">
         <v>2467</v>
@@ -34324,7 +34330,7 @@
         <v>2707</v>
       </c>
       <c r="D1171" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E1171" t="s">
         <v>2751</v>
@@ -34341,7 +34347,7 @@
         <v>2802</v>
       </c>
       <c r="D1172" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1172" t="s">
         <v>2797</v>
@@ -34358,7 +34364,7 @@
         <v>3557</v>
       </c>
       <c r="D1173" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1173" t="s">
         <v>2798</v>
@@ -34477,7 +34483,7 @@
         <v>2243</v>
       </c>
       <c r="D1180" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1180" t="s">
         <v>2801</v>
@@ -34596,7 +34602,7 @@
         <v>2767</v>
       </c>
       <c r="D1187" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1187" t="s">
         <v>2707</v>
@@ -34630,7 +34636,7 @@
         <v>3561</v>
       </c>
       <c r="D1189" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1189" t="s">
         <v>2710</v>
@@ -34647,7 +34653,7 @@
         <v>2358</v>
       </c>
       <c r="D1190" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1190" t="s">
         <v>2804</v>
@@ -34698,7 +34704,7 @@
         <v>2806</v>
       </c>
       <c r="D1193" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1193" t="s">
         <v>2712</v>
@@ -34732,7 +34738,7 @@
         <v>2807</v>
       </c>
       <c r="D1195" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1195" t="s">
         <v>2233</v>
@@ -34749,7 +34755,7 @@
         <v>2362</v>
       </c>
       <c r="D1196" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1196" t="s">
         <v>2691</v>
@@ -34766,7 +34772,7 @@
         <v>2793</v>
       </c>
       <c r="D1197" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1197" t="s">
         <v>2809</v>
@@ -34817,7 +34823,7 @@
         <v>2810</v>
       </c>
       <c r="D1200" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1200" t="s">
         <v>2494</v>
@@ -34834,7 +34840,7 @@
         <v>2702</v>
       </c>
       <c r="D1201" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1201" t="s">
         <v>2653</v>
@@ -34851,7 +34857,7 @@
         <v>2189</v>
       </c>
       <c r="D1202" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1202" t="s">
         <v>2473</v>
@@ -34953,7 +34959,7 @@
         <v>2782</v>
       </c>
       <c r="D1208" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1208" t="s">
         <v>2791</v>
@@ -34970,7 +34976,7 @@
         <v>2700</v>
       </c>
       <c r="D1209" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1209" t="s">
         <v>2813</v>
@@ -34987,7 +34993,7 @@
         <v>2480</v>
       </c>
       <c r="D1210" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1210" t="s">
         <v>2814</v>
@@ -35038,7 +35044,7 @@
         <v>3412</v>
       </c>
       <c r="D1213" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1213" t="s">
         <v>2815</v>
@@ -35055,7 +35061,7 @@
         <v>3412</v>
       </c>
       <c r="D1214" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1214" t="s">
         <v>3412</v>
@@ -35072,7 +35078,7 @@
         <v>2473</v>
       </c>
       <c r="D1215" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1215" t="s">
         <v>2814</v>
@@ -35089,7 +35095,7 @@
         <v>2480</v>
       </c>
       <c r="D1216" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1216" t="s">
         <v>2228</v>
@@ -35140,7 +35146,7 @@
         <v>2493</v>
       </c>
       <c r="D1219" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1219" t="s">
         <v>2471</v>
@@ -35174,10 +35180,10 @@
         <v>2774</v>
       </c>
       <c r="D1221" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1221" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35191,7 +35197,7 @@
         <v>3478</v>
       </c>
       <c r="D1222" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1222" t="s">
         <v>2333</v>
@@ -35361,7 +35367,7 @@
         <v>2820</v>
       </c>
       <c r="D1232" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1232" t="s">
         <v>2726</v>
@@ -35378,7 +35384,7 @@
         <v>2408</v>
       </c>
       <c r="D1233" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1233" t="s">
         <v>2408</v>
@@ -35429,7 +35435,7 @@
         <v>2455</v>
       </c>
       <c r="D1236" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E1236" t="s">
         <v>2724</v>
@@ -35463,7 +35469,7 @@
         <v>2821</v>
       </c>
       <c r="D1238" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1238" t="s">
         <v>2417</v>
@@ -35480,7 +35486,7 @@
         <v>2417</v>
       </c>
       <c r="D1239" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1239" t="s">
         <v>2242</v>
@@ -35514,7 +35520,7 @@
         <v>3566</v>
       </c>
       <c r="D1241" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1241" t="s">
         <v>2730</v>
@@ -35582,7 +35588,7 @@
         <v>2262</v>
       </c>
       <c r="D1245" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1245" t="s">
         <v>2420</v>
@@ -35667,7 +35673,7 @@
         <v>2724</v>
       </c>
       <c r="D1250" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1250" t="s">
         <v>2432</v>
@@ -35718,7 +35724,7 @@
         <v>2397</v>
       </c>
       <c r="D1253" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1253" t="s">
         <v>2799</v>
@@ -35752,7 +35758,7 @@
         <v>2825</v>
       </c>
       <c r="D1255" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1255" t="s">
         <v>2826</v>
@@ -35769,7 +35775,7 @@
         <v>3413</v>
       </c>
       <c r="D1256" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1256" t="s">
         <v>2770</v>
@@ -35990,7 +35996,7 @@
         <v>3574</v>
       </c>
       <c r="D1269" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1269" t="s">
         <v>2831</v>
@@ -36007,7 +36013,7 @@
         <v>2831</v>
       </c>
       <c r="D1270" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1270" t="s">
         <v>2723</v>
@@ -36024,7 +36030,7 @@
         <v>3575</v>
       </c>
       <c r="D1271" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1271" t="s">
         <v>2462</v>
@@ -36109,7 +36115,7 @@
         <v>2243</v>
       </c>
       <c r="D1276" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1276" t="s">
         <v>2829</v>
@@ -36126,7 +36132,7 @@
         <v>2888</v>
       </c>
       <c r="D1277" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E1277" t="s">
         <v>2313</v>
@@ -36313,7 +36319,7 @@
         <v>2748</v>
       </c>
       <c r="D1288" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1288" t="s">
         <v>2833</v>
@@ -36534,7 +36540,7 @@
         <v>2835</v>
       </c>
       <c r="D1301" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1301" t="s">
         <v>2248</v>
@@ -36551,7 +36557,7 @@
         <v>3577</v>
       </c>
       <c r="D1302" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1302" t="s">
         <v>2250</v>
@@ -36653,7 +36659,7 @@
         <v>2891</v>
       </c>
       <c r="D1308" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1308" t="s">
         <v>2728</v>
@@ -36704,7 +36710,7 @@
         <v>3584</v>
       </c>
       <c r="D1311" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1311" t="s">
         <v>2836</v>
@@ -36721,7 +36727,7 @@
         <v>3584</v>
       </c>
       <c r="D1312" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1312" t="s">
         <v>2456</v>
@@ -36738,7 +36744,7 @@
         <v>2889</v>
       </c>
       <c r="D1313" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1313" t="s">
         <v>2416</v>
@@ -36772,7 +36778,7 @@
         <v>2310</v>
       </c>
       <c r="D1315" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1315" t="s">
         <v>2308</v>
@@ -36874,7 +36880,7 @@
         <v>3588</v>
       </c>
       <c r="D1321" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1321" t="s">
         <v>2839</v>
@@ -36891,7 +36897,7 @@
         <v>3589</v>
       </c>
       <c r="D1322" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1322" t="s">
         <v>2840</v>
@@ -36925,7 +36931,7 @@
         <v>3590</v>
       </c>
       <c r="D1324" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1324" t="s">
         <v>2347</v>
@@ -36942,7 +36948,7 @@
         <v>3591</v>
       </c>
       <c r="D1325" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1325" t="s">
         <v>2696</v>
@@ -36959,7 +36965,7 @@
         <v>3592</v>
       </c>
       <c r="D1326" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1326" t="s">
         <v>2353</v>
@@ -36976,7 +36982,7 @@
         <v>3593</v>
       </c>
       <c r="D1327" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1327" t="s">
         <v>2235</v>
@@ -37027,7 +37033,7 @@
         <v>3594</v>
       </c>
       <c r="D1330" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1330" t="s">
         <v>2363</v>
@@ -37061,7 +37067,7 @@
         <v>3595</v>
       </c>
       <c r="D1332" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1332" t="s">
         <v>2467</v>
@@ -37078,7 +37084,7 @@
         <v>3546</v>
       </c>
       <c r="D1333" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1333" t="s">
         <v>2769</v>
@@ -37180,7 +37186,7 @@
         <v>2760</v>
       </c>
       <c r="D1339" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1339" t="s">
         <v>2353</v>
@@ -37200,7 +37206,7 @@
         <v>2697</v>
       </c>
       <c r="E1340" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37214,7 +37220,7 @@
         <v>3598</v>
       </c>
       <c r="D1341" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1341" t="s">
         <v>2707</v>
@@ -37265,7 +37271,7 @@
         <v>2306</v>
       </c>
       <c r="D1344" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1344" t="s">
         <v>2338</v>
@@ -37282,7 +37288,7 @@
         <v>3599</v>
       </c>
       <c r="D1345" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1345" t="s">
         <v>2377</v>
@@ -37299,7 +37305,7 @@
         <v>3594</v>
       </c>
       <c r="D1346" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1346" t="s">
         <v>2762</v>
@@ -37333,7 +37339,7 @@
         <v>2770</v>
       </c>
       <c r="D1348" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1348" t="s">
         <v>2784</v>
@@ -37350,7 +37356,7 @@
         <v>2783</v>
       </c>
       <c r="D1349" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1349" t="s">
         <v>2842</v>
@@ -37367,7 +37373,7 @@
         <v>3593</v>
       </c>
       <c r="D1350" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1350" t="s">
         <v>2843</v>
@@ -37486,7 +37492,7 @@
         <v>2728</v>
       </c>
       <c r="D1357" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1357" t="s">
         <v>2844</v>
@@ -37520,7 +37526,7 @@
         <v>2256</v>
       </c>
       <c r="D1359" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1359" t="s">
         <v>2846</v>
@@ -37724,7 +37730,7 @@
         <v>3587</v>
       </c>
       <c r="D1371" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1371" t="s">
         <v>2451</v>
@@ -37792,7 +37798,7 @@
         <v>3604</v>
       </c>
       <c r="D1375" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1375" t="s">
         <v>2853</v>
@@ -37826,7 +37832,7 @@
         <v>3606</v>
       </c>
       <c r="D1377" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1377" t="s">
         <v>2855</v>
@@ -37843,10 +37849,10 @@
         <v>3607</v>
       </c>
       <c r="D1378" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1378" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37860,10 +37866,10 @@
         <v>2907</v>
       </c>
       <c r="D1379" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1379" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37877,7 +37883,7 @@
         <v>3608</v>
       </c>
       <c r="D1380" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1380" t="s">
         <v>3605</v>
@@ -37928,10 +37934,10 @@
         <v>3611</v>
       </c>
       <c r="D1383" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1383" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -37945,10 +37951,10 @@
         <v>3612</v>
       </c>
       <c r="D1384" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1384" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -37962,10 +37968,10 @@
         <v>3613</v>
       </c>
       <c r="D1385" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1385" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -37979,7 +37985,7 @@
         <v>3614</v>
       </c>
       <c r="D1386" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1386" t="s">
         <v>2864</v>
@@ -37996,10 +38002,10 @@
         <v>3615</v>
       </c>
       <c r="D1387" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1387" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38016,7 +38022,7 @@
         <v>2296</v>
       </c>
       <c r="E1388" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38030,10 +38036,10 @@
         <v>3617</v>
       </c>
       <c r="D1389" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1389" t="s">
-        <v>4573</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38047,10 +38053,10 @@
         <v>3012</v>
       </c>
       <c r="D1390" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1390" t="s">
-        <v>4574</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38064,7 +38070,7 @@
         <v>3615</v>
       </c>
       <c r="D1391" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1391" t="s">
         <v>2869</v>
@@ -38084,7 +38090,7 @@
         <v>2290</v>
       </c>
       <c r="E1392" t="s">
-        <v>4575</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38101,7 +38107,7 @@
         <v>3436</v>
       </c>
       <c r="E1393" t="s">
-        <v>4576</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38115,10 +38121,10 @@
         <v>2942</v>
       </c>
       <c r="D1394" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1394" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38135,7 +38141,7 @@
         <v>2724</v>
       </c>
       <c r="E1395" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38149,7 +38155,7 @@
         <v>3620</v>
       </c>
       <c r="D1396" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1396" t="s">
         <v>2852</v>
@@ -38186,7 +38192,7 @@
         <v>2267</v>
       </c>
       <c r="E1398" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38200,10 +38206,10 @@
         <v>3622</v>
       </c>
       <c r="D1399" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1399" t="s">
-        <v>4578</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38234,7 +38240,7 @@
         <v>3623</v>
       </c>
       <c r="D1401" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1401" t="s">
         <v>2878</v>
@@ -38268,7 +38274,7 @@
         <v>2879</v>
       </c>
       <c r="D1403" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1403" t="s">
         <v>3570</v>
@@ -38336,10 +38342,10 @@
         <v>3625</v>
       </c>
       <c r="D1407" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1407" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38370,10 +38376,10 @@
         <v>3627</v>
       </c>
       <c r="D1409" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1409" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38438,7 +38444,7 @@
         <v>3630</v>
       </c>
       <c r="D1413" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1413" t="s">
         <v>2887</v>
@@ -38458,7 +38464,7 @@
         <v>2828</v>
       </c>
       <c r="E1414" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38475,7 +38481,7 @@
         <v>2825</v>
       </c>
       <c r="E1415" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38489,7 +38495,7 @@
         <v>2406</v>
       </c>
       <c r="D1416" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1416" t="s">
         <v>2889</v>
@@ -38509,7 +38515,7 @@
         <v>2408</v>
       </c>
       <c r="E1417" t="s">
-        <v>4582</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38523,10 +38529,10 @@
         <v>2454</v>
       </c>
       <c r="D1418" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1418" t="s">
-        <v>4583</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38543,7 +38549,7 @@
         <v>2461</v>
       </c>
       <c r="E1419" t="s">
-        <v>4584</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38594,7 +38600,7 @@
         <v>2893</v>
       </c>
       <c r="E1422" t="s">
-        <v>4585</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38608,7 +38614,7 @@
         <v>3587</v>
       </c>
       <c r="D1423" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1423" t="s">
         <v>2322</v>
@@ -38628,7 +38634,7 @@
         <v>2451</v>
       </c>
       <c r="E1424" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38679,7 +38685,7 @@
         <v>3463</v>
       </c>
       <c r="E1427" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38710,7 +38716,7 @@
         <v>3634</v>
       </c>
       <c r="D1429" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1429" t="s">
         <v>2900</v>
@@ -38727,10 +38733,10 @@
         <v>3635</v>
       </c>
       <c r="D1430" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1430" t="s">
-        <v>4586</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38761,7 +38767,7 @@
         <v>2902</v>
       </c>
       <c r="D1432" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1432" t="s">
         <v>2268</v>
@@ -38846,7 +38852,7 @@
         <v>3638</v>
       </c>
       <c r="D1437" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1437" t="s">
         <v>2906</v>
@@ -38863,7 +38869,7 @@
         <v>3639</v>
       </c>
       <c r="D1438" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1438" t="s">
         <v>2907</v>
@@ -38897,7 +38903,7 @@
         <v>3641</v>
       </c>
       <c r="D1440" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1440" t="s">
         <v>2909</v>
@@ -38931,7 +38937,7 @@
         <v>3642</v>
       </c>
       <c r="D1442" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1442" t="s">
         <v>2911</v>
@@ -38948,7 +38954,7 @@
         <v>2911</v>
       </c>
       <c r="D1443" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1443" t="s">
         <v>2912</v>
@@ -38965,7 +38971,7 @@
         <v>2423</v>
       </c>
       <c r="D1444" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1444" t="s">
         <v>2886</v>
@@ -38982,7 +38988,7 @@
         <v>3423</v>
       </c>
       <c r="D1445" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1445" t="s">
         <v>2913</v>
@@ -39016,10 +39022,10 @@
         <v>3644</v>
       </c>
       <c r="D1447" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1447" t="s">
-        <v>4587</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39033,10 +39039,10 @@
         <v>3645</v>
       </c>
       <c r="D1448" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1448" t="s">
-        <v>4588</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39050,7 +39056,7 @@
         <v>3646</v>
       </c>
       <c r="D1449" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1449" t="s">
         <v>2268</v>
@@ -39070,7 +39076,7 @@
         <v>2916</v>
       </c>
       <c r="E1450" t="s">
-        <v>4589</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39118,10 +39124,10 @@
         <v>3650</v>
       </c>
       <c r="D1453" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1453" t="s">
-        <v>4590</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39135,10 +39141,10 @@
         <v>3651</v>
       </c>
       <c r="D1454" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1454" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39152,7 +39158,7 @@
         <v>3652</v>
       </c>
       <c r="D1455" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1455" t="s">
         <v>3652</v>
@@ -39186,7 +39192,7 @@
         <v>3654</v>
       </c>
       <c r="D1457" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1457" t="s">
         <v>2922</v>
@@ -39203,7 +39209,7 @@
         <v>3655</v>
       </c>
       <c r="D1458" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1458" t="s">
         <v>2922</v>
@@ -39237,10 +39243,10 @@
         <v>2943</v>
       </c>
       <c r="D1460" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1460" t="s">
-        <v>4591</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39254,10 +39260,10 @@
         <v>3657</v>
       </c>
       <c r="D1461" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1461" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39271,7 +39277,7 @@
         <v>2295</v>
       </c>
       <c r="D1462" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E1462" t="s">
         <v>2925</v>
@@ -39288,7 +39294,7 @@
         <v>3658</v>
       </c>
       <c r="D1463" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1463" t="s">
         <v>2945</v>
@@ -39305,10 +39311,10 @@
         <v>3659</v>
       </c>
       <c r="D1464" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1464" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39322,10 +39328,10 @@
         <v>2924</v>
       </c>
       <c r="D1465" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1465" t="s">
-        <v>4593</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39356,10 +39362,10 @@
         <v>3661</v>
       </c>
       <c r="D1467" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1467" t="s">
-        <v>4594</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39373,10 +39379,10 @@
         <v>3662</v>
       </c>
       <c r="D1468" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1468" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39393,7 +39399,7 @@
         <v>2931</v>
       </c>
       <c r="E1469" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39424,7 +39430,7 @@
         <v>3665</v>
       </c>
       <c r="D1471" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1471" t="s">
         <v>2922</v>
@@ -39441,10 +39447,10 @@
         <v>3436</v>
       </c>
       <c r="D1472" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1472" t="s">
-        <v>4596</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39461,7 +39467,7 @@
         <v>2933</v>
       </c>
       <c r="E1473" t="s">
-        <v>4597</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39475,10 +39481,10 @@
         <v>2922</v>
       </c>
       <c r="D1474" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1474" t="s">
-        <v>4598</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39492,10 +39498,10 @@
         <v>2288</v>
       </c>
       <c r="D1475" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1475" t="s">
-        <v>4599</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39509,7 +39515,7 @@
         <v>3666</v>
       </c>
       <c r="D1476" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1476" t="s">
         <v>2937</v>
@@ -39526,7 +39532,7 @@
         <v>3655</v>
       </c>
       <c r="D1477" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1477" t="s">
         <v>2938</v>
@@ -39577,7 +39583,7 @@
         <v>3667</v>
       </c>
       <c r="D1480" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1480" t="s">
         <v>2941</v>
@@ -39611,7 +39617,7 @@
         <v>3668</v>
       </c>
       <c r="D1482" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1482" t="s">
         <v>2943</v>
@@ -39628,7 +39634,7 @@
         <v>2943</v>
       </c>
       <c r="D1483" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1483" t="s">
         <v>2943</v>
@@ -39662,7 +39668,7 @@
         <v>2927</v>
       </c>
       <c r="D1485" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1485" t="s">
         <v>2294</v>
@@ -39679,7 +39685,7 @@
         <v>3670</v>
       </c>
       <c r="D1486" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1486" t="s">
         <v>2944</v>
@@ -39696,7 +39702,7 @@
         <v>3671</v>
       </c>
       <c r="D1487" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1487" t="s">
         <v>2926</v>
@@ -39713,10 +39719,10 @@
         <v>3661</v>
       </c>
       <c r="D1488" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1488" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39730,10 +39736,10 @@
         <v>3672</v>
       </c>
       <c r="D1489" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1489" t="s">
-        <v>4601</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39750,7 +39756,7 @@
         <v>3687</v>
       </c>
       <c r="E1490" t="s">
-        <v>4602</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39798,7 +39804,7 @@
         <v>3674</v>
       </c>
       <c r="D1493" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1493" t="s">
         <v>2971</v>
@@ -39832,7 +39838,7 @@
         <v>3676</v>
       </c>
       <c r="D1495" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1495" t="s">
         <v>3011</v>
@@ -39849,7 +39855,7 @@
         <v>3677</v>
       </c>
       <c r="D1496" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1496" t="s">
         <v>2953</v>
@@ -39869,7 +39875,7 @@
         <v>2952</v>
       </c>
       <c r="E1497" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39883,10 +39889,10 @@
         <v>3678</v>
       </c>
       <c r="D1498" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1498" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -39917,10 +39923,10 @@
         <v>3680</v>
       </c>
       <c r="D1500" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1500" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -39934,7 +39940,7 @@
         <v>3028</v>
       </c>
       <c r="D1501" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1501" t="s">
         <v>2958</v>
@@ -39954,7 +39960,7 @@
         <v>3679</v>
       </c>
       <c r="E1502" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -39971,7 +39977,7 @@
         <v>2970</v>
       </c>
       <c r="E1503" t="s">
-        <v>4607</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -39985,7 +39991,7 @@
         <v>3683</v>
       </c>
       <c r="D1504" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1504" t="s">
         <v>3011</v>
@@ -40002,7 +40008,7 @@
         <v>3684</v>
       </c>
       <c r="D1505" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1505" t="s">
         <v>2961</v>
@@ -40039,7 +40045,7 @@
         <v>2962</v>
       </c>
       <c r="E1507" t="s">
-        <v>4608</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40056,7 +40062,7 @@
         <v>2871</v>
       </c>
       <c r="E1508" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40070,10 +40076,10 @@
         <v>3687</v>
       </c>
       <c r="D1509" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1509" t="s">
-        <v>4609</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40087,10 +40093,10 @@
         <v>2965</v>
       </c>
       <c r="D1510" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1510" t="s">
-        <v>4610</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40104,7 +40110,7 @@
         <v>3688</v>
       </c>
       <c r="D1511" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1511" t="s">
         <v>2966</v>
@@ -40124,7 +40130,7 @@
         <v>2966</v>
       </c>
       <c r="E1512" t="s">
-        <v>4611</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40138,10 +40144,10 @@
         <v>2949</v>
       </c>
       <c r="D1513" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1513" t="s">
-        <v>4612</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40155,10 +40161,10 @@
         <v>3689</v>
       </c>
       <c r="D1514" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1514" t="s">
-        <v>4613</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40172,7 +40178,7 @@
         <v>3690</v>
       </c>
       <c r="D1515" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1515" t="s">
         <v>2947</v>
@@ -40206,10 +40212,10 @@
         <v>2970</v>
       </c>
       <c r="D1517" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1517" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40223,10 +40229,10 @@
         <v>2971</v>
       </c>
       <c r="D1518" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1518" t="s">
-        <v>4614</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40240,7 +40246,7 @@
         <v>3692</v>
       </c>
       <c r="D1519" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1519" t="s">
         <v>2966</v>
@@ -40257,10 +40263,10 @@
         <v>3660</v>
       </c>
       <c r="D1520" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1520" t="s">
-        <v>4615</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40274,10 +40280,10 @@
         <v>3693</v>
       </c>
       <c r="D1521" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1521" t="s">
-        <v>4616</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40291,10 +40297,10 @@
         <v>2949</v>
       </c>
       <c r="D1522" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1522" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40308,7 +40314,7 @@
         <v>3694</v>
       </c>
       <c r="D1523" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1523" t="s">
         <v>2977</v>
@@ -40362,7 +40368,7 @@
         <v>2977</v>
       </c>
       <c r="E1526" t="s">
-        <v>4618</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40393,10 +40399,10 @@
         <v>3699</v>
       </c>
       <c r="D1528" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1528" t="s">
-        <v>4619</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40427,7 +40433,7 @@
         <v>3701</v>
       </c>
       <c r="D1530" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1530" t="s">
         <v>3018</v>
@@ -40444,7 +40450,7 @@
         <v>3702</v>
       </c>
       <c r="D1531" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1531" t="s">
         <v>2983</v>
@@ -40478,10 +40484,10 @@
         <v>2983</v>
       </c>
       <c r="D1533" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1533" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40495,10 +40501,10 @@
         <v>3704</v>
       </c>
       <c r="D1534" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1534" t="s">
-        <v>4620</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40512,10 +40518,10 @@
         <v>3705</v>
       </c>
       <c r="D1535" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1535" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40563,7 +40569,7 @@
         <v>3707</v>
       </c>
       <c r="D1538" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1538" t="s">
         <v>2988</v>
@@ -40580,7 +40586,7 @@
         <v>3708</v>
       </c>
       <c r="D1539" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1539" t="s">
         <v>2989</v>
@@ -40597,10 +40603,10 @@
         <v>3709</v>
       </c>
       <c r="D1540" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1540" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40614,7 +40620,7 @@
         <v>3710</v>
       </c>
       <c r="D1541" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1541" t="s">
         <v>2991</v>
@@ -40631,7 +40637,7 @@
         <v>3711</v>
       </c>
       <c r="D1542" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1542" t="s">
         <v>2992</v>
@@ -40665,7 +40671,7 @@
         <v>3713</v>
       </c>
       <c r="D1544" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1544" t="s">
         <v>2994</v>
@@ -40682,10 +40688,10 @@
         <v>3714</v>
       </c>
       <c r="D1545" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1545" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40716,7 +40722,7 @@
         <v>3716</v>
       </c>
       <c r="D1547" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1547" t="s">
         <v>3723</v>
@@ -40733,10 +40739,10 @@
         <v>3717</v>
       </c>
       <c r="D1548" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1548" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40753,7 +40759,7 @@
         <v>3024</v>
       </c>
       <c r="E1549" t="s">
-        <v>4622</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40767,10 +40773,10 @@
         <v>3719</v>
       </c>
       <c r="D1550" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1550" t="s">
-        <v>4623</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40784,7 +40790,7 @@
         <v>3720</v>
       </c>
       <c r="D1551" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1551" t="s">
         <v>3000</v>
@@ -40801,10 +40807,10 @@
         <v>3720</v>
       </c>
       <c r="D1552" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1552" t="s">
-        <v>4624</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40818,10 +40824,10 @@
         <v>3001</v>
       </c>
       <c r="D1553" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1553" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40835,7 +40841,7 @@
         <v>3721</v>
       </c>
       <c r="D1554" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1554" t="s">
         <v>3032</v>
@@ -40855,7 +40861,7 @@
         <v>3676</v>
       </c>
       <c r="E1555" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40869,7 +40875,7 @@
         <v>3723</v>
       </c>
       <c r="D1556" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1556" t="s">
         <v>3005</v>
@@ -40886,7 +40892,7 @@
         <v>3005</v>
       </c>
       <c r="D1557" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1557" t="s">
         <v>2990</v>
@@ -40906,7 +40912,7 @@
         <v>3011</v>
       </c>
       <c r="E1558" t="s">
-        <v>4627</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -40920,7 +40926,7 @@
         <v>3725</v>
       </c>
       <c r="D1559" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1559" t="s">
         <v>3007</v>
@@ -40937,10 +40943,10 @@
         <v>3726</v>
       </c>
       <c r="D1560" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1560" t="s">
-        <v>4628</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -40954,10 +40960,10 @@
         <v>3042</v>
       </c>
       <c r="D1561" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1561" t="s">
-        <v>4629</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -40971,10 +40977,10 @@
         <v>3727</v>
       </c>
       <c r="D1562" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1562" t="s">
-        <v>4630</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -40988,7 +40994,7 @@
         <v>3010</v>
       </c>
       <c r="D1563" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1563" t="s">
         <v>2995</v>
@@ -41005,7 +41011,7 @@
         <v>3728</v>
       </c>
       <c r="D1564" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1564" t="s">
         <v>2952</v>
@@ -41022,10 +41028,10 @@
         <v>2954</v>
       </c>
       <c r="D1565" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1565" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41039,7 +41045,7 @@
         <v>3698</v>
       </c>
       <c r="D1566" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1566" t="s">
         <v>3013</v>
@@ -41056,7 +41062,7 @@
         <v>3729</v>
       </c>
       <c r="D1567" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1567" t="s">
         <v>3014</v>
@@ -41073,7 +41079,7 @@
         <v>3730</v>
       </c>
       <c r="D1568" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1568" t="s">
         <v>3015</v>
@@ -41090,7 +41096,7 @@
         <v>3731</v>
       </c>
       <c r="D1569" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1569" t="s">
         <v>3014</v>
@@ -41141,7 +41147,7 @@
         <v>3734</v>
       </c>
       <c r="D1572" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1572" t="s">
         <v>2982</v>
@@ -41158,7 +41164,7 @@
         <v>3019</v>
       </c>
       <c r="D1573" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1573" t="s">
         <v>3020</v>
@@ -41192,10 +41198,10 @@
         <v>3717</v>
       </c>
       <c r="D1575" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1575" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41209,7 +41215,7 @@
         <v>3735</v>
       </c>
       <c r="D1576" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1576" t="s">
         <v>3021</v>
@@ -41260,7 +41266,7 @@
         <v>3738</v>
       </c>
       <c r="D1579" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1579" t="s">
         <v>3024</v>
@@ -41277,10 +41283,10 @@
         <v>3739</v>
       </c>
       <c r="D1580" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1580" t="s">
-        <v>4633</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41294,7 +41300,7 @@
         <v>3740</v>
       </c>
       <c r="D1581" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1581" t="s">
         <v>3026</v>
@@ -41311,7 +41317,7 @@
         <v>3026</v>
       </c>
       <c r="D1582" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1582" t="s">
         <v>2989</v>
@@ -41328,10 +41334,10 @@
         <v>3682</v>
       </c>
       <c r="D1583" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1583" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41348,7 +41354,7 @@
         <v>3680</v>
       </c>
       <c r="E1584" t="s">
-        <v>4634</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41413,10 +41419,10 @@
         <v>3745</v>
       </c>
       <c r="D1588" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1588" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41430,7 +41436,7 @@
         <v>3746</v>
       </c>
       <c r="D1589" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1589" t="s">
         <v>3733</v>
@@ -41654,7 +41660,7 @@
         <v>3032</v>
       </c>
       <c r="E1602" t="s">
-        <v>4636</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41841,7 +41847,7 @@
         <v>3032</v>
       </c>
       <c r="E1613" t="s">
-        <v>4637</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42011,7 +42017,7 @@
         <v>3032</v>
       </c>
       <c r="E1623" t="s">
-        <v>4638</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42025,10 +42031,10 @@
         <v>3766</v>
       </c>
       <c r="D1624" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1624" t="s">
-        <v>4639</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42042,10 +42048,10 @@
         <v>3767</v>
       </c>
       <c r="D1625" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1625" t="s">
-        <v>4640</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42059,10 +42065,10 @@
         <v>3768</v>
       </c>
       <c r="D1626" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1626" t="s">
-        <v>4641</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42076,7 +42082,7 @@
         <v>3769</v>
       </c>
       <c r="D1627" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1627" t="s">
         <v>3045</v>
@@ -42093,10 +42099,10 @@
         <v>3770</v>
       </c>
       <c r="D1628" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1628" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42110,10 +42116,10 @@
         <v>3771</v>
       </c>
       <c r="D1629" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1629" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42127,7 +42133,7 @@
         <v>3772</v>
       </c>
       <c r="D1630" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1630" t="s">
         <v>3041</v>
@@ -42144,7 +42150,7 @@
         <v>3773</v>
       </c>
       <c r="D1631" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1631" t="s">
         <v>3041</v>
@@ -42161,7 +42167,7 @@
         <v>3774</v>
       </c>
       <c r="D1632" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1632" t="s">
         <v>3040</v>
@@ -42178,7 +42184,7 @@
         <v>3775</v>
       </c>
       <c r="D1633" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1633" t="s">
         <v>3040</v>
@@ -42195,7 +42201,7 @@
         <v>3775</v>
       </c>
       <c r="D1634" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1634" t="s">
         <v>3039</v>
@@ -42212,7 +42218,7 @@
         <v>3776</v>
       </c>
       <c r="D1635" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1635" t="s">
         <v>3047</v>
@@ -42229,7 +42235,7 @@
         <v>3759</v>
       </c>
       <c r="D1636" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1636" t="s">
         <v>3047</v>
@@ -42351,7 +42357,7 @@
         <v>3047</v>
       </c>
       <c r="E1643" t="s">
-        <v>4644</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42436,7 +42442,7 @@
         <v>3047</v>
       </c>
       <c r="E1648" t="s">
-        <v>4645</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42756,7 +42762,7 @@
         <v>3799</v>
       </c>
       <c r="D1667" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1667" t="s">
         <v>3047</v>
@@ -42773,7 +42779,7 @@
         <v>3047</v>
       </c>
       <c r="D1668" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1668" t="s">
         <v>3047</v>
@@ -42790,7 +42796,7 @@
         <v>3047</v>
       </c>
       <c r="D1669" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1669" t="s">
         <v>3047</v>
@@ -42810,7 +42816,7 @@
         <v>3753</v>
       </c>
       <c r="E1670" t="s">
-        <v>4646</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42841,10 +42847,10 @@
         <v>3801</v>
       </c>
       <c r="D1672" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1672" t="s">
-        <v>4647</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42858,10 +42864,10 @@
         <v>3802</v>
       </c>
       <c r="D1673" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1673" t="s">
-        <v>4648</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42875,10 +42881,10 @@
         <v>3299</v>
       </c>
       <c r="D1674" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1674" t="s">
-        <v>4649</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42892,7 +42898,7 @@
         <v>3803</v>
       </c>
       <c r="D1675" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1675" t="s">
         <v>3963</v>
@@ -42909,10 +42915,10 @@
         <v>3804</v>
       </c>
       <c r="D1676" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1676" t="s">
-        <v>4650</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42926,10 +42932,10 @@
         <v>3805</v>
       </c>
       <c r="D1677" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1677" t="s">
-        <v>4651</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42943,10 +42949,10 @@
         <v>3806</v>
       </c>
       <c r="D1678" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1678" t="s">
-        <v>4652</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42960,10 +42966,10 @@
         <v>3807</v>
       </c>
       <c r="D1679" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1679" t="s">
-        <v>4653</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42977,10 +42983,10 @@
         <v>3808</v>
       </c>
       <c r="D1680" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1680" t="s">
-        <v>4654</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -42994,7 +43000,7 @@
         <v>3809</v>
       </c>
       <c r="D1681" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1681" t="s">
         <v>3062</v>
@@ -43096,7 +43102,7 @@
         <v>3063</v>
       </c>
       <c r="D1687" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1687" t="s">
         <v>3063</v>
@@ -43113,10 +43119,10 @@
         <v>3063</v>
       </c>
       <c r="D1688" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1688" t="s">
-        <v>4655</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43130,7 +43136,7 @@
         <v>3063</v>
       </c>
       <c r="D1689" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1689" t="s">
         <v>3063</v>
@@ -43147,7 +43153,7 @@
         <v>3063</v>
       </c>
       <c r="D1690" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1690" t="s">
         <v>3063</v>
@@ -43198,7 +43204,7 @@
         <v>3063</v>
       </c>
       <c r="D1693" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1693" t="s">
         <v>3063</v>
@@ -43215,10 +43221,10 @@
         <v>3063</v>
       </c>
       <c r="D1694" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1694" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43232,7 +43238,7 @@
         <v>3063</v>
       </c>
       <c r="D1695" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1695" t="s">
         <v>3063</v>
@@ -43249,7 +43255,7 @@
         <v>3063</v>
       </c>
       <c r="D1696" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1696" t="s">
         <v>3063</v>
@@ -43422,7 +43428,7 @@
         <v>3063</v>
       </c>
       <c r="E1706" t="s">
-        <v>4656</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43473,7 +43479,7 @@
         <v>3063</v>
       </c>
       <c r="E1709" t="s">
-        <v>4657</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43555,10 +43561,10 @@
         <v>3827</v>
       </c>
       <c r="D1714" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1714" t="s">
-        <v>4658</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43572,10 +43578,10 @@
         <v>3828</v>
       </c>
       <c r="D1715" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1715" t="s">
-        <v>4659</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43589,10 +43595,10 @@
         <v>3829</v>
       </c>
       <c r="D1716" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1716" t="s">
-        <v>4660</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43609,7 +43615,7 @@
         <v>3082</v>
       </c>
       <c r="E1717" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43623,7 +43629,7 @@
         <v>3831</v>
       </c>
       <c r="D1718" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1718" t="s">
         <v>3073</v>
@@ -43640,7 +43646,7 @@
         <v>3832</v>
       </c>
       <c r="D1719" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1719" t="s">
         <v>3072</v>
@@ -43657,10 +43663,10 @@
         <v>3833</v>
       </c>
       <c r="D1720" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1720" t="s">
-        <v>4661</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43674,7 +43680,7 @@
         <v>3834</v>
       </c>
       <c r="D1721" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1721" t="s">
         <v>3075</v>
@@ -43694,7 +43700,7 @@
         <v>4032</v>
       </c>
       <c r="E1722" t="s">
-        <v>4662</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43708,7 +43714,7 @@
         <v>3836</v>
       </c>
       <c r="D1723" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1723" t="s">
         <v>3077</v>
@@ -43725,10 +43731,10 @@
         <v>3837</v>
       </c>
       <c r="D1724" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1724" t="s">
-        <v>4663</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43742,7 +43748,7 @@
         <v>3838</v>
       </c>
       <c r="D1725" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1725" t="s">
         <v>3079</v>
@@ -43776,7 +43782,7 @@
         <v>3840</v>
       </c>
       <c r="D1727" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1727" t="s">
         <v>3081</v>
@@ -43878,7 +43884,7 @@
         <v>3844</v>
       </c>
       <c r="D1733" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1733" t="s">
         <v>3082</v>
@@ -43946,7 +43952,7 @@
         <v>3847</v>
       </c>
       <c r="D1737" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1737" t="s">
         <v>3083</v>
@@ -43963,7 +43969,7 @@
         <v>3848</v>
       </c>
       <c r="D1738" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1738" t="s">
         <v>3084</v>
@@ -43997,7 +44003,7 @@
         <v>3087</v>
       </c>
       <c r="D1740" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1740" t="s">
         <v>3839</v>
@@ -44017,7 +44023,7 @@
         <v>3086</v>
       </c>
       <c r="E1741" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44082,10 +44088,10 @@
         <v>3089</v>
       </c>
       <c r="D1745" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1745" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44099,10 +44105,10 @@
         <v>3851</v>
       </c>
       <c r="D1746" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1746" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44252,7 +44258,7 @@
         <v>3854</v>
       </c>
       <c r="D1755" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1755" t="s">
         <v>3100</v>
@@ -44303,7 +44309,7 @@
         <v>3857</v>
       </c>
       <c r="D1758" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1758" t="s">
         <v>3103</v>
@@ -44354,7 +44360,7 @@
         <v>3859</v>
       </c>
       <c r="D1761" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1761" t="s">
         <v>3106</v>
@@ -44388,7 +44394,7 @@
         <v>3861</v>
       </c>
       <c r="D1763" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1763" t="s">
         <v>3108</v>
@@ -44405,7 +44411,7 @@
         <v>3862</v>
       </c>
       <c r="D1764" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1764" t="s">
         <v>3109</v>
@@ -44473,7 +44479,7 @@
         <v>3866</v>
       </c>
       <c r="D1768" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1768" t="s">
         <v>3113</v>
@@ -44490,7 +44496,7 @@
         <v>3867</v>
       </c>
       <c r="D1769" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1769" t="s">
         <v>3114</v>
@@ -44510,7 +44516,7 @@
         <v>3114</v>
       </c>
       <c r="E1770" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44524,7 +44530,7 @@
         <v>3869</v>
       </c>
       <c r="D1771" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1771" t="s">
         <v>3116</v>
@@ -44541,7 +44547,7 @@
         <v>3870</v>
       </c>
       <c r="D1772" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1772" t="s">
         <v>3117</v>
@@ -44558,7 +44564,7 @@
         <v>3871</v>
       </c>
       <c r="D1773" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1773" t="s">
         <v>3118</v>
@@ -44575,7 +44581,7 @@
         <v>3872</v>
       </c>
       <c r="D1774" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1774" t="s">
         <v>3119</v>
@@ -44643,7 +44649,7 @@
         <v>3876</v>
       </c>
       <c r="D1778" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1778" t="s">
         <v>3123</v>
@@ -44660,10 +44666,10 @@
         <v>3877</v>
       </c>
       <c r="D1779" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1779" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44677,7 +44683,7 @@
         <v>3878</v>
       </c>
       <c r="D1780" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1780" t="s">
         <v>3117</v>
@@ -44694,7 +44700,7 @@
         <v>3879</v>
       </c>
       <c r="D1781" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1781" t="s">
         <v>3124</v>
@@ -44728,7 +44734,7 @@
         <v>3881</v>
       </c>
       <c r="D1783" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1783" t="s">
         <v>3126</v>
@@ -44864,7 +44870,7 @@
         <v>3127</v>
       </c>
       <c r="D1791" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1791" t="s">
         <v>3127</v>
@@ -44932,10 +44938,10 @@
         <v>3127</v>
       </c>
       <c r="D1795" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1795" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -44949,10 +44955,10 @@
         <v>3127</v>
       </c>
       <c r="D1796" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1796" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -44966,10 +44972,10 @@
         <v>3127</v>
       </c>
       <c r="D1797" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1797" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -44983,10 +44989,10 @@
         <v>3127</v>
       </c>
       <c r="D1798" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1798" t="s">
-        <v>4667</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45000,7 +45006,7 @@
         <v>3885</v>
       </c>
       <c r="D1799" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1799" t="s">
         <v>3129</v>
@@ -45017,10 +45023,10 @@
         <v>3886</v>
       </c>
       <c r="D1800" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1800" t="s">
-        <v>4668</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45034,7 +45040,7 @@
         <v>3127</v>
       </c>
       <c r="D1801" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1801" t="s">
         <v>3185</v>
@@ -45051,7 +45057,7 @@
         <v>3887</v>
       </c>
       <c r="D1802" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1802" t="s">
         <v>3132</v>
@@ -45068,7 +45074,7 @@
         <v>3175</v>
       </c>
       <c r="D1803" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1803" t="s">
         <v>3133</v>
@@ -45102,7 +45108,7 @@
         <v>3889</v>
       </c>
       <c r="D1805" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1805" t="s">
         <v>3135</v>
@@ -45136,7 +45142,7 @@
         <v>3891</v>
       </c>
       <c r="D1807" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1807" t="s">
         <v>3137</v>
@@ -45170,7 +45176,7 @@
         <v>3893</v>
       </c>
       <c r="D1809" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1809" t="s">
         <v>3139</v>
@@ -45187,7 +45193,7 @@
         <v>3893</v>
       </c>
       <c r="D1810" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1810" t="s">
         <v>3140</v>
@@ -45204,7 +45210,7 @@
         <v>3894</v>
       </c>
       <c r="D1811" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1811" t="s">
         <v>3141</v>
@@ -45221,7 +45227,7 @@
         <v>3895</v>
       </c>
       <c r="D1812" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1812" t="s">
         <v>3142</v>
@@ -45238,7 +45244,7 @@
         <v>3896</v>
       </c>
       <c r="D1813" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1813" t="s">
         <v>3143</v>
@@ -45255,7 +45261,7 @@
         <v>3897</v>
       </c>
       <c r="D1814" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1814" t="s">
         <v>3144</v>
@@ -45272,7 +45278,7 @@
         <v>3897</v>
       </c>
       <c r="D1815" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1815" t="s">
         <v>3145</v>
@@ -45289,7 +45295,7 @@
         <v>3898</v>
       </c>
       <c r="D1816" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1816" t="s">
         <v>3146</v>
@@ -45306,7 +45312,7 @@
         <v>3899</v>
       </c>
       <c r="D1817" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1817" t="s">
         <v>3147</v>
@@ -45340,7 +45346,7 @@
         <v>3145</v>
       </c>
       <c r="D1819" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1819" t="s">
         <v>3149</v>
@@ -45357,7 +45363,7 @@
         <v>3901</v>
       </c>
       <c r="D1820" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1820" t="s">
         <v>3150</v>
@@ -45408,7 +45414,7 @@
         <v>3904</v>
       </c>
       <c r="D1823" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1823" t="s">
         <v>3153</v>
@@ -45428,7 +45434,7 @@
         <v>3153</v>
       </c>
       <c r="E1824" t="s">
-        <v>4669</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45445,7 +45451,7 @@
         <v>3143</v>
       </c>
       <c r="E1825" t="s">
-        <v>4670</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45459,10 +45465,10 @@
         <v>3907</v>
       </c>
       <c r="D1826" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1826" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45476,7 +45482,7 @@
         <v>3908</v>
       </c>
       <c r="D1827" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1827" t="s">
         <v>3157</v>
@@ -45493,7 +45499,7 @@
         <v>3909</v>
       </c>
       <c r="D1828" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1828" t="s">
         <v>3158</v>
@@ -45510,7 +45516,7 @@
         <v>3851</v>
       </c>
       <c r="D1829" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1829" t="s">
         <v>3159</v>
@@ -45544,7 +45550,7 @@
         <v>3911</v>
       </c>
       <c r="D1831" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1831" t="s">
         <v>3161</v>
@@ -45578,7 +45584,7 @@
         <v>3913</v>
       </c>
       <c r="D1833" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1833" t="s">
         <v>3911</v>
@@ -45612,7 +45618,7 @@
         <v>3915</v>
       </c>
       <c r="D1835" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1835" t="s">
         <v>3916</v>
@@ -45629,7 +45635,7 @@
         <v>3916</v>
       </c>
       <c r="D1836" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1836" t="s">
         <v>3166</v>
@@ -45646,7 +45652,7 @@
         <v>3917</v>
       </c>
       <c r="D1837" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1837" t="s">
         <v>3167</v>
@@ -45663,10 +45669,10 @@
         <v>3918</v>
       </c>
       <c r="D1838" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1838" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45680,7 +45686,7 @@
         <v>3919</v>
       </c>
       <c r="D1839" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1839" t="s">
         <v>3169</v>
@@ -45697,7 +45703,7 @@
         <v>3920</v>
       </c>
       <c r="D1840" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1840" t="s">
         <v>3170</v>
@@ -45714,7 +45720,7 @@
         <v>3921</v>
       </c>
       <c r="D1841" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1841" t="s">
         <v>3171</v>
@@ -45748,7 +45754,7 @@
         <v>3919</v>
       </c>
       <c r="D1843" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1843" t="s">
         <v>3173</v>
@@ -45765,10 +45771,10 @@
         <v>3922</v>
       </c>
       <c r="D1844" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1844" t="s">
-        <v>4672</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45799,7 +45805,7 @@
         <v>3138</v>
       </c>
       <c r="D1846" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1846" t="s">
         <v>3138</v>
@@ -45816,7 +45822,7 @@
         <v>3176</v>
       </c>
       <c r="D1847" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1847" t="s">
         <v>3177</v>
@@ -45836,7 +45842,7 @@
         <v>3178</v>
       </c>
       <c r="E1848" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45850,7 +45856,7 @@
         <v>3925</v>
       </c>
       <c r="D1849" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1849" t="s">
         <v>3179</v>
@@ -45870,7 +45876,7 @@
         <v>3179</v>
       </c>
       <c r="E1850" t="s">
-        <v>4673</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45884,7 +45890,7 @@
         <v>3927</v>
       </c>
       <c r="D1851" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1851" t="s">
         <v>3181</v>
@@ -45918,7 +45924,7 @@
         <v>3135</v>
       </c>
       <c r="D1853" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1853" t="s">
         <v>3183</v>
@@ -45938,7 +45944,7 @@
         <v>4029</v>
       </c>
       <c r="E1854" t="s">
-        <v>4674</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -45952,7 +45958,7 @@
         <v>3930</v>
       </c>
       <c r="D1855" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1855" t="s">
         <v>3185</v>
@@ -45986,7 +45992,7 @@
         <v>3931</v>
       </c>
       <c r="D1857" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1857" t="s">
         <v>3187</v>
@@ -46020,7 +46026,7 @@
         <v>3933</v>
       </c>
       <c r="D1859" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1859" t="s">
         <v>3189</v>
@@ -46037,7 +46043,7 @@
         <v>3934</v>
       </c>
       <c r="D1860" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1860" t="s">
         <v>3190</v>
@@ -46054,10 +46060,10 @@
         <v>3190</v>
       </c>
       <c r="D1861" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1861" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46091,7 +46097,7 @@
         <v>3984</v>
       </c>
       <c r="E1863" t="s">
-        <v>4675</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46105,7 +46111,7 @@
         <v>3935</v>
       </c>
       <c r="D1864" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1864" t="s">
         <v>3193</v>
@@ -46122,7 +46128,7 @@
         <v>3936</v>
       </c>
       <c r="D1865" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1865" t="s">
         <v>3194</v>
@@ -46159,7 +46165,7 @@
         <v>3957</v>
       </c>
       <c r="E1867" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46173,10 +46179,10 @@
         <v>3196</v>
       </c>
       <c r="D1868" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1868" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46227,7 +46233,7 @@
         <v>3199</v>
       </c>
       <c r="E1871" t="s">
-        <v>4676</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46241,7 +46247,7 @@
         <v>3942</v>
       </c>
       <c r="D1872" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1872" t="s">
         <v>3201</v>
@@ -46261,7 +46267,7 @@
         <v>3201</v>
       </c>
       <c r="E1873" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46275,7 +46281,7 @@
         <v>3944</v>
       </c>
       <c r="D1874" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1874" t="s">
         <v>3203</v>
@@ -46309,10 +46315,10 @@
         <v>3946</v>
       </c>
       <c r="D1876" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1876" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46326,10 +46332,10 @@
         <v>3947</v>
       </c>
       <c r="D1877" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1877" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46394,7 +46400,7 @@
         <v>3797</v>
       </c>
       <c r="D1881" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1881" t="s">
         <v>3797</v>
@@ -46479,7 +46485,7 @@
         <v>3953</v>
       </c>
       <c r="D1886" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1886" t="s">
         <v>3786</v>
@@ -46513,10 +46519,10 @@
         <v>3955</v>
       </c>
       <c r="D1888" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1888" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46530,7 +46536,7 @@
         <v>3956</v>
       </c>
       <c r="D1889" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1889" t="s">
         <v>3217</v>
@@ -46581,7 +46587,7 @@
         <v>3219</v>
       </c>
       <c r="D1892" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1892" t="s">
         <v>3220</v>
@@ -46598,7 +46604,7 @@
         <v>3959</v>
       </c>
       <c r="D1893" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1893" t="s">
         <v>3221</v>
@@ -46615,7 +46621,7 @@
         <v>3960</v>
       </c>
       <c r="D1894" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1894" t="s">
         <v>3222</v>
@@ -46632,7 +46638,7 @@
         <v>3961</v>
       </c>
       <c r="D1895" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1895" t="s">
         <v>3223</v>
@@ -46700,7 +46706,7 @@
         <v>3965</v>
       </c>
       <c r="D1899" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1899" t="s">
         <v>3227</v>
@@ -46734,7 +46740,7 @@
         <v>3966</v>
       </c>
       <c r="D1901" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1901" t="s">
         <v>3229</v>
@@ -46768,7 +46774,7 @@
         <v>3967</v>
       </c>
       <c r="D1903" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1903" t="s">
         <v>3231</v>
@@ -46802,7 +46808,7 @@
         <v>3233</v>
       </c>
       <c r="D1905" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1905" t="s">
         <v>3233</v>
@@ -46836,7 +46842,7 @@
         <v>3969</v>
       </c>
       <c r="D1907" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1907" t="s">
         <v>3235</v>
@@ -46853,7 +46859,7 @@
         <v>3960</v>
       </c>
       <c r="D1908" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1908" t="s">
         <v>3236</v>
@@ -46870,7 +46876,7 @@
         <v>3063</v>
       </c>
       <c r="D1909" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1909" t="s">
         <v>3237</v>
@@ -46887,7 +46893,7 @@
         <v>3237</v>
       </c>
       <c r="D1910" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1910" t="s">
         <v>3238</v>
@@ -46938,7 +46944,7 @@
         <v>3970</v>
       </c>
       <c r="D1913" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1913" t="s">
         <v>3241</v>
@@ -46955,10 +46961,10 @@
         <v>3971</v>
       </c>
       <c r="D1914" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1914" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47006,7 +47012,7 @@
         <v>3244</v>
       </c>
       <c r="D1917" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1917" t="s">
         <v>3245</v>
@@ -47040,10 +47046,10 @@
         <v>3974</v>
       </c>
       <c r="D1919" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1919" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47074,7 +47080,7 @@
         <v>3976</v>
       </c>
       <c r="D1921" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1921" t="s">
         <v>3249</v>
@@ -47091,7 +47097,7 @@
         <v>3977</v>
       </c>
       <c r="D1922" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1922" t="s">
         <v>3250</v>
@@ -47108,7 +47114,7 @@
         <v>3251</v>
       </c>
       <c r="D1923" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1923" t="s">
         <v>3251</v>
@@ -47125,7 +47131,7 @@
         <v>3978</v>
       </c>
       <c r="D1924" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1924" t="s">
         <v>3252</v>
@@ -47193,7 +47199,7 @@
         <v>3226</v>
       </c>
       <c r="D1928" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1928" t="s">
         <v>3256</v>
@@ -47244,7 +47250,7 @@
         <v>3980</v>
       </c>
       <c r="D1931" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1931" t="s">
         <v>3259</v>
@@ -47261,7 +47267,7 @@
         <v>3270</v>
       </c>
       <c r="D1932" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1932" t="s">
         <v>3260</v>
@@ -47278,7 +47284,7 @@
         <v>3261</v>
       </c>
       <c r="D1933" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1933" t="s">
         <v>3261</v>
@@ -47295,7 +47301,7 @@
         <v>3981</v>
       </c>
       <c r="D1934" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1934" t="s">
         <v>3262</v>
@@ -47312,7 +47318,7 @@
         <v>3982</v>
       </c>
       <c r="D1935" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1935" t="s">
         <v>3263</v>
@@ -47346,7 +47352,7 @@
         <v>3983</v>
       </c>
       <c r="D1937" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1937" t="s">
         <v>3265</v>
@@ -47363,7 +47369,7 @@
         <v>3984</v>
       </c>
       <c r="D1938" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1938" t="s">
         <v>3266</v>
@@ -47397,7 +47403,7 @@
         <v>3969</v>
       </c>
       <c r="D1940" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1940" t="s">
         <v>3268</v>
@@ -47414,7 +47420,7 @@
         <v>3986</v>
       </c>
       <c r="D1941" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1941" t="s">
         <v>3269</v>
@@ -47465,7 +47471,7 @@
         <v>3989</v>
       </c>
       <c r="D1944" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1944" t="s">
         <v>3272</v>
@@ -47550,7 +47556,7 @@
         <v>3992</v>
       </c>
       <c r="D1949" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1949" t="s">
         <v>3277</v>
@@ -47601,7 +47607,7 @@
         <v>3994</v>
       </c>
       <c r="D1952" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1952" t="s">
         <v>3279</v>
@@ -47618,7 +47624,7 @@
         <v>3995</v>
       </c>
       <c r="D1953" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1953" t="s">
         <v>3280</v>
@@ -47635,7 +47641,7 @@
         <v>3996</v>
       </c>
       <c r="D1954" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1954" t="s">
         <v>3281</v>
@@ -47652,7 +47658,7 @@
         <v>3997</v>
       </c>
       <c r="D1955" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1955" t="s">
         <v>3282</v>
@@ -47669,7 +47675,7 @@
         <v>3283</v>
       </c>
       <c r="D1956" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1956" t="s">
         <v>3283</v>
@@ -47686,7 +47692,7 @@
         <v>3284</v>
       </c>
       <c r="D1957" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1957" t="s">
         <v>3284</v>
@@ -47703,7 +47709,7 @@
         <v>3257</v>
       </c>
       <c r="D1958" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1958" t="s">
         <v>3285</v>
@@ -47720,7 +47726,7 @@
         <v>3998</v>
       </c>
       <c r="D1959" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1959" t="s">
         <v>3208</v>
@@ -47754,7 +47760,7 @@
         <v>3228</v>
       </c>
       <c r="D1961" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1961" t="s">
         <v>3287</v>
@@ -47788,7 +47794,7 @@
         <v>3273</v>
       </c>
       <c r="D1963" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1963" t="s">
         <v>3289</v>
@@ -47805,7 +47811,7 @@
         <v>3999</v>
       </c>
       <c r="D1964" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1964" t="s">
         <v>3290</v>
@@ -47822,7 +47828,7 @@
         <v>4000</v>
       </c>
       <c r="D1965" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1965" t="s">
         <v>3291</v>
@@ -47839,7 +47845,7 @@
         <v>3272</v>
       </c>
       <c r="D1966" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1966" t="s">
         <v>3292</v>
@@ -47856,7 +47862,7 @@
         <v>3808</v>
       </c>
       <c r="D1967" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1967" t="s">
         <v>3293</v>
@@ -47924,7 +47930,7 @@
         <v>4003</v>
       </c>
       <c r="D1971" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1971" t="s">
         <v>3297</v>
@@ -47941,7 +47947,7 @@
         <v>4004</v>
       </c>
       <c r="D1972" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1972" t="s">
         <v>3298</v>
@@ -47958,7 +47964,7 @@
         <v>3241</v>
       </c>
       <c r="D1973" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1973" t="s">
         <v>3299</v>
@@ -47992,7 +47998,7 @@
         <v>3273</v>
       </c>
       <c r="D1975" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1975" t="s">
         <v>3301</v>
@@ -48026,7 +48032,7 @@
         <v>4006</v>
       </c>
       <c r="D1977" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1977" t="s">
         <v>3303</v>
@@ -48094,7 +48100,7 @@
         <v>4009</v>
       </c>
       <c r="D1981" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1981" t="s">
         <v>3306</v>
@@ -48111,7 +48117,7 @@
         <v>3306</v>
       </c>
       <c r="D1982" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1982" t="s">
         <v>3266</v>
@@ -48128,7 +48134,7 @@
         <v>4010</v>
       </c>
       <c r="D1983" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1983" t="s">
         <v>3307</v>
@@ -48148,7 +48154,7 @@
         <v>3307</v>
       </c>
       <c r="E1984" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48179,7 +48185,7 @@
         <v>4012</v>
       </c>
       <c r="D1986" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1986" t="s">
         <v>3310</v>
@@ -48196,7 +48202,7 @@
         <v>4013</v>
       </c>
       <c r="D1987" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1987" t="s">
         <v>3311</v>
@@ -48230,7 +48236,7 @@
         <v>3311</v>
       </c>
       <c r="D1989" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1989" t="s">
         <v>3312</v>
@@ -48247,7 +48253,7 @@
         <v>4014</v>
       </c>
       <c r="D1990" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1990" t="s">
         <v>3313</v>
@@ -48264,7 +48270,7 @@
         <v>4015</v>
       </c>
       <c r="D1991" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1991" t="s">
         <v>3314</v>
@@ -48281,7 +48287,7 @@
         <v>4016</v>
       </c>
       <c r="D1992" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1992" t="s">
         <v>3315</v>
@@ -48298,7 +48304,7 @@
         <v>3080</v>
       </c>
       <c r="D1993" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1993" t="s">
         <v>3316</v>
@@ -48315,7 +48321,7 @@
         <v>4017</v>
       </c>
       <c r="D1994" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1994" t="s">
         <v>3317</v>
@@ -48332,7 +48338,7 @@
         <v>4018</v>
       </c>
       <c r="D1995" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1995" t="s">
         <v>3318</v>
@@ -48349,7 +48355,7 @@
         <v>4019</v>
       </c>
       <c r="D1996" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1996" t="s">
         <v>3319</v>
@@ -48383,7 +48389,7 @@
         <v>4021</v>
       </c>
       <c r="D1998" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1998" t="s">
         <v>3321</v>
@@ -48502,7 +48508,7 @@
         <v>4026</v>
       </c>
       <c r="D2005" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E2005" t="s">
         <v>3328</v>
@@ -48519,7 +48525,7 @@
         <v>4027</v>
       </c>
       <c r="D2006" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E2006" t="s">
         <v>3329</v>
@@ -48536,7 +48542,7 @@
         <v>4028</v>
       </c>
       <c r="D2007" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E2007" t="s">
         <v>3330</v>
@@ -48553,10 +48559,10 @@
         <v>4029</v>
       </c>
       <c r="D2008" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E2008" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48604,7 +48610,7 @@
         <v>4031</v>
       </c>
       <c r="D2011" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E2011" t="s">
         <v>3334</v>
@@ -48621,10 +48627,10 @@
         <v>4032</v>
       </c>
       <c r="D2012" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E2012" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48638,7 +48644,7 @@
         <v>4033</v>
       </c>
       <c r="D2013" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E2013" t="s">
         <v>3199</v>
@@ -48655,10 +48661,10 @@
         <v>4034</v>
       </c>
       <c r="D2014" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E2014" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48672,7 +48678,7 @@
         <v>4035</v>
       </c>
       <c r="D2015" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E2015" t="s">
         <v>3337</v>
@@ -48740,7 +48746,7 @@
         <v>4037</v>
       </c>
       <c r="D2019" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E2019" t="s">
         <v>3341</v>
@@ -48754,13 +48760,13 @@
         <v>3341</v>
       </c>
       <c r="C2020" t="s">
-        <v>3341</v>
+        <v>4038</v>
       </c>
       <c r="D2020" t="s">
-        <v>3341</v>
+        <v>4564</v>
       </c>
       <c r="E2020" t="s">
-        <v>3341</v>
+        <v>4564</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10115" uniqueCount="4693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10115" uniqueCount="4692">
   <si>
     <t>1. open</t>
   </si>
@@ -14090,9 +14090,6 @@
   </si>
   <si>
     <t>3.83040</t>
-  </si>
-  <si>
-    <t>3.83620</t>
   </si>
 </sst>
 </file>
@@ -48844,7 +48841,7 @@
         <v>3347</v>
       </c>
       <c r="E2023" t="s">
-        <v>4692</v>
+        <v>4666</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="4695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="4696">
   <si>
     <t>1. open</t>
   </si>
@@ -12160,7 +12160,7 @@
     <t>3.84370</t>
   </si>
   <si>
-    <t>3.86080</t>
+    <t>3.86980</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14099,6 +14099,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.84240</t>
   </si>
 </sst>
 </file>
@@ -48867,7 +48870,7 @@
         <v>4575</v>
       </c>
       <c r="E2024" t="s">
-        <v>3341</v>
+        <v>4695</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14110,7 +14110,7 @@
     <t>3.83040</t>
   </si>
   <si>
-    <t>3.86590</t>
+    <t>3.86360</t>
   </si>
 </sst>
 </file>
@@ -48890,7 +48890,7 @@
         <v>3350</v>
       </c>
       <c r="C2025" t="s">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="D2025" t="s">
         <v>4578</v>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="4703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="4704">
   <si>
     <t>1. open</t>
   </si>
@@ -12178,7 +12178,7 @@
     <t>3.86980</t>
   </si>
   <si>
-    <t>3.87640</t>
+    <t>3.88800</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -13765,7 +13765,7 @@
     <t>3.84010</t>
   </si>
   <si>
-    <t>3.86440</t>
+    <t>3.86410</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14123,6 +14123,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.86840</t>
   </si>
 </sst>
 </file>
@@ -48942,7 +48945,7 @@
         <v>4583</v>
       </c>
       <c r="E2027" t="s">
-        <v>4583</v>
+        <v>4703</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10140" uniqueCount="4706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10140" uniqueCount="4707">
   <si>
     <t>1. open</t>
   </si>
@@ -14132,6 +14132,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.87830</t>
   </si>
 </sst>
 </file>
@@ -48968,7 +48971,7 @@
         <v>3355</v>
       </c>
       <c r="E2028" t="s">
-        <v>4056</v>
+        <v>4706</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10150" uniqueCount="4711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10150" uniqueCount="4713">
   <si>
     <t>1. open</t>
   </si>
@@ -12202,6 +12202,9 @@
     <t>3.89380</t>
   </si>
   <si>
+    <t>3.88090</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -13790,6 +13793,9 @@
   </si>
   <si>
     <t>3.85980</t>
+  </si>
+  <si>
+    <t>3.86430</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14572,7 +14578,7 @@
         <v>2036</v>
       </c>
       <c r="D4" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E4" t="s">
         <v>2037</v>
@@ -14827,7 +14833,7 @@
         <v>2049</v>
       </c>
       <c r="D19" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E19" t="s">
         <v>2050</v>
@@ -14844,7 +14850,7 @@
         <v>2050</v>
       </c>
       <c r="D20" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E20" t="s">
         <v>2051</v>
@@ -14946,7 +14952,7 @@
         <v>2055</v>
       </c>
       <c r="D26" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E26" t="s">
         <v>2055</v>
@@ -14997,7 +15003,7 @@
         <v>2057</v>
       </c>
       <c r="D29" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="E29" t="s">
         <v>2057</v>
@@ -15048,7 +15054,7 @@
         <v>3365</v>
       </c>
       <c r="D32" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E32" t="s">
         <v>2058</v>
@@ -15150,7 +15156,7 @@
         <v>2063</v>
       </c>
       <c r="D38" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E38" t="s">
         <v>2064</v>
@@ -15252,7 +15258,7 @@
         <v>2069</v>
       </c>
       <c r="D44" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E44" t="s">
         <v>2070</v>
@@ -15269,7 +15275,7 @@
         <v>2070</v>
       </c>
       <c r="D45" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E45" t="s">
         <v>2067</v>
@@ -15286,7 +15292,7 @@
         <v>3368</v>
       </c>
       <c r="D46" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E46" t="s">
         <v>2071</v>
@@ -15337,7 +15343,7 @@
         <v>2072</v>
       </c>
       <c r="D49" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E49" t="s">
         <v>2073</v>
@@ -15354,7 +15360,7 @@
         <v>2074</v>
       </c>
       <c r="D50" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E50" t="s">
         <v>2074</v>
@@ -15388,7 +15394,7 @@
         <v>2076</v>
       </c>
       <c r="D52" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E52" t="s">
         <v>2076</v>
@@ -15405,7 +15411,7 @@
         <v>3369</v>
       </c>
       <c r="D53" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E53" t="s">
         <v>2077</v>
@@ -15422,7 +15428,7 @@
         <v>2076</v>
       </c>
       <c r="D54" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E54" t="s">
         <v>2078</v>
@@ -15575,7 +15581,7 @@
         <v>2087</v>
       </c>
       <c r="D63" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E63" t="s">
         <v>2087</v>
@@ -15745,7 +15751,7 @@
         <v>2094</v>
       </c>
       <c r="D73" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E73" t="s">
         <v>2095</v>
@@ -15847,7 +15853,7 @@
         <v>2099</v>
       </c>
       <c r="D79" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E79" t="s">
         <v>2097</v>
@@ -15864,7 +15870,7 @@
         <v>2097</v>
       </c>
       <c r="D80" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E80" t="s">
         <v>2100</v>
@@ -16153,7 +16159,7 @@
         <v>3380</v>
       </c>
       <c r="D97" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E97" t="s">
         <v>2101</v>
@@ -16646,10 +16652,10 @@
         <v>2137</v>
       </c>
       <c r="D126" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E126" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16731,7 +16737,7 @@
         <v>3395</v>
       </c>
       <c r="D131" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E131" t="s">
         <v>2142</v>
@@ -16850,7 +16856,7 @@
         <v>3394</v>
       </c>
       <c r="D138" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E138" t="s">
         <v>2148</v>
@@ -16884,7 +16890,7 @@
         <v>3395</v>
       </c>
       <c r="D140" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E140" t="s">
         <v>2130</v>
@@ -16901,7 +16907,7 @@
         <v>2149</v>
       </c>
       <c r="D141" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E141" t="s">
         <v>2149</v>
@@ -16918,7 +16924,7 @@
         <v>3400</v>
       </c>
       <c r="D142" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E142" t="s">
         <v>2136</v>
@@ -17003,7 +17009,7 @@
         <v>3386</v>
       </c>
       <c r="D147" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E147" t="s">
         <v>2153</v>
@@ -17309,7 +17315,7 @@
         <v>2167</v>
       </c>
       <c r="D165" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E165" t="s">
         <v>2168</v>
@@ -17547,10 +17553,10 @@
         <v>2178</v>
       </c>
       <c r="D179" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E179" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17686,7 +17692,7 @@
         <v>2185</v>
       </c>
       <c r="E187" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18108,7 +18114,7 @@
         <v>3418</v>
       </c>
       <c r="D212" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E212" t="s">
         <v>3418</v>
@@ -18142,7 +18148,7 @@
         <v>2208</v>
       </c>
       <c r="D214" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E214" t="s">
         <v>2208</v>
@@ -18431,10 +18437,10 @@
         <v>2224</v>
       </c>
       <c r="D231" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E231" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19777,7 +19783,7 @@
         <v>2289</v>
       </c>
       <c r="E310" t="s">
-        <v>4593</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19876,7 +19882,7 @@
         <v>3453</v>
       </c>
       <c r="D316" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E316" t="s">
         <v>2296</v>
@@ -20114,7 +20120,7 @@
         <v>2305</v>
       </c>
       <c r="D330" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E330" t="s">
         <v>2306</v>
@@ -20131,7 +20137,7 @@
         <v>2306</v>
       </c>
       <c r="D331" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E331" t="s">
         <v>2307</v>
@@ -20216,7 +20222,7 @@
         <v>2310</v>
       </c>
       <c r="D336" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E336" t="s">
         <v>2311</v>
@@ -20471,7 +20477,7 @@
         <v>2472</v>
       </c>
       <c r="D351" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E351" t="s">
         <v>2257</v>
@@ -20488,7 +20494,7 @@
         <v>3433</v>
       </c>
       <c r="D352" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E352" t="s">
         <v>2323</v>
@@ -20692,10 +20698,10 @@
         <v>2333</v>
       </c>
       <c r="D364" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E364" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20709,7 +20715,7 @@
         <v>2379</v>
       </c>
       <c r="D365" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E365" t="s">
         <v>2334</v>
@@ -21457,7 +21463,7 @@
         <v>2368</v>
       </c>
       <c r="D409" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E409" t="s">
         <v>2368</v>
@@ -22018,7 +22024,7 @@
         <v>2390</v>
       </c>
       <c r="D442" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E442" t="s">
         <v>2391</v>
@@ -22205,7 +22211,7 @@
         <v>3474</v>
       </c>
       <c r="D453" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E453" t="s">
         <v>2352</v>
@@ -22477,7 +22483,7 @@
         <v>2412</v>
       </c>
       <c r="D469" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E469" t="s">
         <v>2413</v>
@@ -22545,7 +22551,7 @@
         <v>3479</v>
       </c>
       <c r="D473" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E473" t="s">
         <v>3438</v>
@@ -22732,7 +22738,7 @@
         <v>3433</v>
       </c>
       <c r="D484" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E484" t="s">
         <v>2424</v>
@@ -23497,7 +23503,7 @@
         <v>2452</v>
       </c>
       <c r="D529" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E529" t="s">
         <v>2453</v>
@@ -23633,7 +23639,7 @@
         <v>2455</v>
       </c>
       <c r="D537" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E537" t="s">
         <v>2459</v>
@@ -23684,7 +23690,7 @@
         <v>3487</v>
       </c>
       <c r="D540" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E540" t="s">
         <v>2462</v>
@@ -23701,7 +23707,7 @@
         <v>2314</v>
       </c>
       <c r="D541" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E541" t="s">
         <v>2432</v>
@@ -23752,7 +23758,7 @@
         <v>3488</v>
       </c>
       <c r="D544" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E544" t="s">
         <v>2465</v>
@@ -23769,7 +23775,7 @@
         <v>3489</v>
       </c>
       <c r="D545" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E545" t="s">
         <v>2466</v>
@@ -23786,7 +23792,7 @@
         <v>2430</v>
       </c>
       <c r="D546" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E546" t="s">
         <v>2320</v>
@@ -23837,7 +23843,7 @@
         <v>2445</v>
       </c>
       <c r="D549" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E549" t="s">
         <v>2467</v>
@@ -23871,7 +23877,7 @@
         <v>2254</v>
       </c>
       <c r="D551" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E551" t="s">
         <v>2468</v>
@@ -23973,7 +23979,7 @@
         <v>2418</v>
       </c>
       <c r="D557" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E557" t="s">
         <v>2473</v>
@@ -24007,7 +24013,7 @@
         <v>2899</v>
       </c>
       <c r="D559" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E559" t="s">
         <v>2474</v>
@@ -24024,7 +24030,7 @@
         <v>2474</v>
       </c>
       <c r="D560" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E560" t="s">
         <v>2404</v>
@@ -24058,7 +24064,7 @@
         <v>3495</v>
       </c>
       <c r="D562" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E562" t="s">
         <v>2475</v>
@@ -24092,10 +24098,10 @@
         <v>2315</v>
       </c>
       <c r="D564" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E564" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24143,7 +24149,7 @@
         <v>3496</v>
       </c>
       <c r="D567" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E567" t="s">
         <v>2479</v>
@@ -24211,7 +24217,7 @@
         <v>3497</v>
       </c>
       <c r="D571" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E571" t="s">
         <v>2483</v>
@@ -24262,7 +24268,7 @@
         <v>2377</v>
       </c>
       <c r="D574" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E574" t="s">
         <v>2235</v>
@@ -24296,7 +24302,7 @@
         <v>3498</v>
       </c>
       <c r="D576" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E576" t="s">
         <v>2487</v>
@@ -24313,7 +24319,7 @@
         <v>2787</v>
       </c>
       <c r="D577" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E577" t="s">
         <v>2488</v>
@@ -24330,7 +24336,7 @@
         <v>2784</v>
       </c>
       <c r="D578" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E578" t="s">
         <v>2489</v>
@@ -24364,7 +24370,7 @@
         <v>2490</v>
       </c>
       <c r="D580" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E580" t="s">
         <v>2491</v>
@@ -24432,7 +24438,7 @@
         <v>2334</v>
       </c>
       <c r="D584" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E584" t="s">
         <v>2495</v>
@@ -24517,7 +24523,7 @@
         <v>2232</v>
       </c>
       <c r="D589" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E589" t="s">
         <v>2498</v>
@@ -24568,7 +24574,7 @@
         <v>2580</v>
       </c>
       <c r="D592" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E592" t="s">
         <v>2500</v>
@@ -24789,10 +24795,10 @@
         <v>2537</v>
       </c>
       <c r="D605" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E605" t="s">
-        <v>4594</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24840,7 +24846,7 @@
         <v>2493</v>
       </c>
       <c r="D608" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E608" t="s">
         <v>2507</v>
@@ -24942,7 +24948,7 @@
         <v>3505</v>
       </c>
       <c r="D614" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E614" t="s">
         <v>2512</v>
@@ -25183,7 +25189,7 @@
         <v>2498</v>
       </c>
       <c r="E628" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25248,7 +25254,7 @@
         <v>2231</v>
       </c>
       <c r="D632" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E632" t="s">
         <v>2520</v>
@@ -25523,7 +25529,7 @@
         <v>2506</v>
       </c>
       <c r="E648" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25656,7 +25662,7 @@
         <v>2505</v>
       </c>
       <c r="D656" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E656" t="s">
         <v>2379</v>
@@ -25707,7 +25713,7 @@
         <v>2526</v>
       </c>
       <c r="D659" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E659" t="s">
         <v>2539</v>
@@ -25843,7 +25849,7 @@
         <v>2526</v>
       </c>
       <c r="D667" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E667" t="s">
         <v>2535</v>
@@ -25928,7 +25934,7 @@
         <v>3501</v>
       </c>
       <c r="D672" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E672" t="s">
         <v>2491</v>
@@ -25948,7 +25954,7 @@
         <v>2334</v>
       </c>
       <c r="E673" t="s">
-        <v>4596</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -25979,7 +25985,7 @@
         <v>2686</v>
       </c>
       <c r="D675" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E675" t="s">
         <v>2543</v>
@@ -26149,7 +26155,7 @@
         <v>2195</v>
       </c>
       <c r="D685" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E685" t="s">
         <v>2518</v>
@@ -26336,7 +26342,7 @@
         <v>3511</v>
       </c>
       <c r="D696" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E696" t="s">
         <v>2553</v>
@@ -26744,7 +26750,7 @@
         <v>2498</v>
       </c>
       <c r="D720" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E720" t="s">
         <v>2498</v>
@@ -26761,7 +26767,7 @@
         <v>2498</v>
       </c>
       <c r="D721" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E721" t="s">
         <v>2558</v>
@@ -26778,7 +26784,7 @@
         <v>2498</v>
       </c>
       <c r="D722" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E722" t="s">
         <v>2568</v>
@@ -26880,7 +26886,7 @@
         <v>2524</v>
       </c>
       <c r="D728" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E728" t="s">
         <v>2572</v>
@@ -26897,7 +26903,7 @@
         <v>2568</v>
       </c>
       <c r="D729" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E729" t="s">
         <v>2567</v>
@@ -26931,7 +26937,7 @@
         <v>2567</v>
       </c>
       <c r="D731" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E731" t="s">
         <v>2574</v>
@@ -26965,7 +26971,7 @@
         <v>2597</v>
       </c>
       <c r="D733" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E733" t="s">
         <v>2576</v>
@@ -27101,7 +27107,7 @@
         <v>2553</v>
       </c>
       <c r="D741" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E741" t="s">
         <v>2579</v>
@@ -27169,7 +27175,7 @@
         <v>2686</v>
       </c>
       <c r="D745" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E745" t="s">
         <v>2581</v>
@@ -27322,7 +27328,7 @@
         <v>2537</v>
       </c>
       <c r="D754" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E754" t="s">
         <v>2580</v>
@@ -27458,7 +27464,7 @@
         <v>2523</v>
       </c>
       <c r="D762" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E762" t="s">
         <v>2592</v>
@@ -27475,7 +27481,7 @@
         <v>2231</v>
       </c>
       <c r="D763" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E763" t="s">
         <v>2593</v>
@@ -27492,7 +27498,7 @@
         <v>2201</v>
       </c>
       <c r="D764" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E764" t="s">
         <v>2594</v>
@@ -27543,7 +27549,7 @@
         <v>2194</v>
       </c>
       <c r="D767" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E767" t="s">
         <v>2588</v>
@@ -27577,7 +27583,7 @@
         <v>2539</v>
       </c>
       <c r="D769" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E769" t="s">
         <v>2234</v>
@@ -27679,7 +27685,7 @@
         <v>2500</v>
       </c>
       <c r="D775" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E775" t="s">
         <v>2595</v>
@@ -27696,7 +27702,7 @@
         <v>2202</v>
       </c>
       <c r="D776" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E776" t="s">
         <v>2507</v>
@@ -27832,10 +27838,10 @@
         <v>2231</v>
       </c>
       <c r="D784" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E784" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27849,7 +27855,7 @@
         <v>2515</v>
       </c>
       <c r="D785" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E785" t="s">
         <v>2568</v>
@@ -27900,10 +27906,10 @@
         <v>2515</v>
       </c>
       <c r="D788" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E788" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28138,10 +28144,10 @@
         <v>2803</v>
       </c>
       <c r="D802" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E802" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28257,7 +28263,7 @@
         <v>2231</v>
       </c>
       <c r="D809" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E809" t="s">
         <v>2498</v>
@@ -28359,7 +28365,7 @@
         <v>3526</v>
       </c>
       <c r="D815" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E815" t="s">
         <v>2615</v>
@@ -28376,7 +28382,7 @@
         <v>2642</v>
       </c>
       <c r="D816" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E816" t="s">
         <v>2222</v>
@@ -28580,7 +28586,7 @@
         <v>3527</v>
       </c>
       <c r="D828" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E828" t="s">
         <v>2625</v>
@@ -28614,7 +28620,7 @@
         <v>2642</v>
       </c>
       <c r="D830" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E830" t="s">
         <v>2223</v>
@@ -28648,7 +28654,7 @@
         <v>3527</v>
       </c>
       <c r="D832" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E832" t="s">
         <v>2627</v>
@@ -28699,7 +28705,7 @@
         <v>3418</v>
       </c>
       <c r="D835" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E835" t="s">
         <v>2629</v>
@@ -28733,7 +28739,7 @@
         <v>2558</v>
       </c>
       <c r="D837" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E837" t="s">
         <v>2558</v>
@@ -28784,7 +28790,7 @@
         <v>3530</v>
       </c>
       <c r="D840" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E840" t="s">
         <v>2501</v>
@@ -28804,7 +28810,7 @@
         <v>2548</v>
       </c>
       <c r="E841" t="s">
-        <v>4597</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29141,7 +29147,7 @@
         <v>2233</v>
       </c>
       <c r="D861" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E861" t="s">
         <v>2639</v>
@@ -29311,7 +29317,7 @@
         <v>2202</v>
       </c>
       <c r="D871" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E871" t="s">
         <v>2227</v>
@@ -29345,7 +29351,7 @@
         <v>3534</v>
       </c>
       <c r="D873" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E873" t="s">
         <v>2643</v>
@@ -29464,7 +29470,7 @@
         <v>3538</v>
       </c>
       <c r="D880" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E880" t="s">
         <v>2648</v>
@@ -29532,7 +29538,7 @@
         <v>2521</v>
       </c>
       <c r="D884" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E884" t="s">
         <v>2613</v>
@@ -29702,7 +29708,7 @@
         <v>2232</v>
       </c>
       <c r="D894" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E894" t="s">
         <v>2657</v>
@@ -29821,7 +29827,7 @@
         <v>3467</v>
       </c>
       <c r="D901" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E901" t="s">
         <v>2661</v>
@@ -29889,7 +29895,7 @@
         <v>2503</v>
       </c>
       <c r="D905" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E905" t="s">
         <v>2665</v>
@@ -30042,7 +30048,7 @@
         <v>2677</v>
       </c>
       <c r="D914" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E914" t="s">
         <v>2501</v>
@@ -30246,7 +30252,7 @@
         <v>2334</v>
       </c>
       <c r="D926" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E926" t="s">
         <v>2673</v>
@@ -30331,7 +30337,7 @@
         <v>2488</v>
       </c>
       <c r="D931" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E931" t="s">
         <v>2677</v>
@@ -30416,7 +30422,7 @@
         <v>3501</v>
       </c>
       <c r="D936" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E936" t="s">
         <v>2335</v>
@@ -30501,7 +30507,7 @@
         <v>2823</v>
       </c>
       <c r="D941" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E941" t="s">
         <v>2682</v>
@@ -30603,7 +30609,7 @@
         <v>2663</v>
       </c>
       <c r="D947" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E947" t="s">
         <v>2377</v>
@@ -30620,7 +30626,7 @@
         <v>3546</v>
       </c>
       <c r="D948" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E948" t="s">
         <v>2684</v>
@@ -30688,7 +30694,7 @@
         <v>2378</v>
       </c>
       <c r="D952" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E952" t="s">
         <v>2685</v>
@@ -30943,7 +30949,7 @@
         <v>2529</v>
       </c>
       <c r="D967" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E967" t="s">
         <v>2491</v>
@@ -31028,7 +31034,7 @@
         <v>2683</v>
       </c>
       <c r="D972" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E972" t="s">
         <v>2692</v>
@@ -31079,7 +31085,7 @@
         <v>2245</v>
       </c>
       <c r="D975" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E975" t="s">
         <v>2372</v>
@@ -31113,7 +31119,7 @@
         <v>2806</v>
       </c>
       <c r="D977" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E977" t="s">
         <v>2694</v>
@@ -31470,7 +31476,7 @@
         <v>2347</v>
       </c>
       <c r="D998" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E998" t="s">
         <v>2708</v>
@@ -31487,7 +31493,7 @@
         <v>3555</v>
       </c>
       <c r="D999" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E999" t="s">
         <v>2709</v>
@@ -31572,7 +31578,7 @@
         <v>2352</v>
       </c>
       <c r="D1004" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E1004" t="s">
         <v>2400</v>
@@ -31742,7 +31748,7 @@
         <v>2814</v>
       </c>
       <c r="D1014" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E1014" t="s">
         <v>2402</v>
@@ -31759,7 +31765,7 @@
         <v>2814</v>
       </c>
       <c r="D1015" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E1015" t="s">
         <v>2402</v>
@@ -31793,7 +31799,7 @@
         <v>2835</v>
       </c>
       <c r="D1017" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E1017" t="s">
         <v>2706</v>
@@ -31861,7 +31867,7 @@
         <v>2368</v>
       </c>
       <c r="D1021" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E1021" t="s">
         <v>2720</v>
@@ -31878,7 +31884,7 @@
         <v>2368</v>
       </c>
       <c r="D1022" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1022" t="s">
         <v>2721</v>
@@ -31946,7 +31952,7 @@
         <v>2837</v>
       </c>
       <c r="D1026" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1026" t="s">
         <v>2724</v>
@@ -32048,7 +32054,7 @@
         <v>2323</v>
       </c>
       <c r="D1032" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1032" t="s">
         <v>2729</v>
@@ -32099,7 +32105,7 @@
         <v>3495</v>
       </c>
       <c r="D1035" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E1035" t="s">
         <v>2261</v>
@@ -32201,7 +32207,7 @@
         <v>2427</v>
       </c>
       <c r="D1041" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1041" t="s">
         <v>2737</v>
@@ -32303,7 +32309,7 @@
         <v>2736</v>
       </c>
       <c r="D1047" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1047" t="s">
         <v>2740</v>
@@ -32374,7 +32380,7 @@
         <v>2252</v>
       </c>
       <c r="E1051" t="s">
-        <v>4598</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32629,7 +32635,7 @@
         <v>2751</v>
       </c>
       <c r="E1066" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32711,7 +32717,7 @@
         <v>3557</v>
       </c>
       <c r="D1071" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1071" t="s">
         <v>2326</v>
@@ -32932,7 +32938,7 @@
         <v>2368</v>
       </c>
       <c r="D1084" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1084" t="s">
         <v>2762</v>
@@ -32966,7 +32972,7 @@
         <v>2387</v>
       </c>
       <c r="D1086" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1086" t="s">
         <v>2245</v>
@@ -33000,7 +33006,7 @@
         <v>2835</v>
       </c>
       <c r="D1088" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1088" t="s">
         <v>2764</v>
@@ -33017,7 +33023,7 @@
         <v>2813</v>
       </c>
       <c r="D1089" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1089" t="s">
         <v>2765</v>
@@ -33085,7 +33091,7 @@
         <v>2727</v>
       </c>
       <c r="D1093" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1093" t="s">
         <v>2767</v>
@@ -33170,10 +33176,10 @@
         <v>2778</v>
       </c>
       <c r="D1098" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1098" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33187,10 +33193,10 @@
         <v>2316</v>
       </c>
       <c r="D1099" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1099" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33221,7 +33227,7 @@
         <v>2836</v>
       </c>
       <c r="D1101" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1101" t="s">
         <v>2780</v>
@@ -33238,7 +33244,7 @@
         <v>2778</v>
       </c>
       <c r="D1102" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1102" t="s">
         <v>2775</v>
@@ -33391,7 +33397,7 @@
         <v>2780</v>
       </c>
       <c r="D1111" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1111" t="s">
         <v>2781</v>
@@ -33425,7 +33431,7 @@
         <v>3559</v>
       </c>
       <c r="D1113" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1113" t="s">
         <v>2782</v>
@@ -33442,7 +33448,7 @@
         <v>3560</v>
       </c>
       <c r="D1114" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1114" t="s">
         <v>2710</v>
@@ -33459,7 +33465,7 @@
         <v>3561</v>
       </c>
       <c r="D1115" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1115" t="s">
         <v>2782</v>
@@ -33476,7 +33482,7 @@
         <v>3562</v>
       </c>
       <c r="D1116" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1116" t="s">
         <v>2783</v>
@@ -33595,7 +33601,7 @@
         <v>2347</v>
       </c>
       <c r="D1123" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E1123" t="s">
         <v>2786</v>
@@ -33629,7 +33635,7 @@
         <v>3565</v>
       </c>
       <c r="D1125" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1125" t="s">
         <v>2787</v>
@@ -33663,7 +33669,7 @@
         <v>2700</v>
       </c>
       <c r="D1127" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1127" t="s">
         <v>2503</v>
@@ -33799,7 +33805,7 @@
         <v>2772</v>
       </c>
       <c r="D1135" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1135" t="s">
         <v>2793</v>
@@ -33833,7 +33839,7 @@
         <v>2853</v>
       </c>
       <c r="D1137" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1137" t="s">
         <v>2694</v>
@@ -33884,7 +33890,7 @@
         <v>3570</v>
       </c>
       <c r="D1140" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1140" t="s">
         <v>2796</v>
@@ -33901,7 +33907,7 @@
         <v>3496</v>
       </c>
       <c r="D1141" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1141" t="s">
         <v>3552</v>
@@ -33918,7 +33924,7 @@
         <v>2796</v>
       </c>
       <c r="D1142" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1142" t="s">
         <v>2797</v>
@@ -33986,7 +33992,7 @@
         <v>2343</v>
       </c>
       <c r="D1146" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1146" t="s">
         <v>2799</v>
@@ -34037,7 +34043,7 @@
         <v>3496</v>
       </c>
       <c r="D1149" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1149" t="s">
         <v>2799</v>
@@ -34088,7 +34094,7 @@
         <v>3555</v>
       </c>
       <c r="D1152" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1152" t="s">
         <v>2802</v>
@@ -34156,7 +34162,7 @@
         <v>2778</v>
       </c>
       <c r="D1156" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1156" t="s">
         <v>2770</v>
@@ -34173,7 +34179,7 @@
         <v>2770</v>
       </c>
       <c r="D1157" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1157" t="s">
         <v>2244</v>
@@ -34190,7 +34196,7 @@
         <v>2244</v>
       </c>
       <c r="D1158" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1158" t="s">
         <v>2781</v>
@@ -34207,7 +34213,7 @@
         <v>2781</v>
       </c>
       <c r="D1159" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1159" t="s">
         <v>2803</v>
@@ -34224,7 +34230,7 @@
         <v>2806</v>
       </c>
       <c r="D1160" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1160" t="s">
         <v>2241</v>
@@ -34241,7 +34247,7 @@
         <v>2241</v>
       </c>
       <c r="D1161" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1161" t="s">
         <v>2803</v>
@@ -34258,7 +34264,7 @@
         <v>3559</v>
       </c>
       <c r="D1162" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1162" t="s">
         <v>2347</v>
@@ -34292,7 +34298,7 @@
         <v>2241</v>
       </c>
       <c r="D1164" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1164" t="s">
         <v>2365</v>
@@ -34343,7 +34349,7 @@
         <v>2368</v>
       </c>
       <c r="D1167" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1167" t="s">
         <v>2805</v>
@@ -34394,7 +34400,7 @@
         <v>3574</v>
       </c>
       <c r="D1170" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1170" t="s">
         <v>2477</v>
@@ -34411,7 +34417,7 @@
         <v>2717</v>
       </c>
       <c r="D1171" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1171" t="s">
         <v>2761</v>
@@ -34428,7 +34434,7 @@
         <v>2812</v>
       </c>
       <c r="D1172" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1172" t="s">
         <v>2807</v>
@@ -34445,7 +34451,7 @@
         <v>3575</v>
       </c>
       <c r="D1173" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1173" t="s">
         <v>2808</v>
@@ -34564,7 +34570,7 @@
         <v>2253</v>
       </c>
       <c r="D1180" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1180" t="s">
         <v>2811</v>
@@ -34683,7 +34689,7 @@
         <v>2777</v>
       </c>
       <c r="D1187" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1187" t="s">
         <v>2717</v>
@@ -34717,7 +34723,7 @@
         <v>3579</v>
       </c>
       <c r="D1189" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1189" t="s">
         <v>2720</v>
@@ -34734,7 +34740,7 @@
         <v>2368</v>
       </c>
       <c r="D1190" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1190" t="s">
         <v>2814</v>
@@ -34785,7 +34791,7 @@
         <v>2816</v>
       </c>
       <c r="D1193" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1193" t="s">
         <v>2722</v>
@@ -34819,7 +34825,7 @@
         <v>2817</v>
       </c>
       <c r="D1195" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1195" t="s">
         <v>2243</v>
@@ -34836,7 +34842,7 @@
         <v>2372</v>
       </c>
       <c r="D1196" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1196" t="s">
         <v>2701</v>
@@ -34853,7 +34859,7 @@
         <v>2803</v>
       </c>
       <c r="D1197" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1197" t="s">
         <v>2819</v>
@@ -34904,7 +34910,7 @@
         <v>2820</v>
       </c>
       <c r="D1200" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1200" t="s">
         <v>2504</v>
@@ -34921,7 +34927,7 @@
         <v>2712</v>
       </c>
       <c r="D1201" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1201" t="s">
         <v>2663</v>
@@ -34938,7 +34944,7 @@
         <v>2199</v>
       </c>
       <c r="D1202" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1202" t="s">
         <v>2483</v>
@@ -35040,7 +35046,7 @@
         <v>2792</v>
       </c>
       <c r="D1208" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1208" t="s">
         <v>2801</v>
@@ -35057,7 +35063,7 @@
         <v>2710</v>
       </c>
       <c r="D1209" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1209" t="s">
         <v>2823</v>
@@ -35074,7 +35080,7 @@
         <v>2490</v>
       </c>
       <c r="D1210" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1210" t="s">
         <v>2824</v>
@@ -35125,7 +35131,7 @@
         <v>3430</v>
       </c>
       <c r="D1213" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1213" t="s">
         <v>2825</v>
@@ -35142,7 +35148,7 @@
         <v>3430</v>
       </c>
       <c r="D1214" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1214" t="s">
         <v>3430</v>
@@ -35159,7 +35165,7 @@
         <v>2483</v>
       </c>
       <c r="D1215" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1215" t="s">
         <v>2824</v>
@@ -35176,7 +35182,7 @@
         <v>2490</v>
       </c>
       <c r="D1216" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1216" t="s">
         <v>2238</v>
@@ -35227,7 +35233,7 @@
         <v>2503</v>
       </c>
       <c r="D1219" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1219" t="s">
         <v>2481</v>
@@ -35261,10 +35267,10 @@
         <v>2784</v>
       </c>
       <c r="D1221" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1221" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35278,7 +35284,7 @@
         <v>3496</v>
       </c>
       <c r="D1222" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1222" t="s">
         <v>2343</v>
@@ -35448,7 +35454,7 @@
         <v>2830</v>
       </c>
       <c r="D1232" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1232" t="s">
         <v>2736</v>
@@ -35465,7 +35471,7 @@
         <v>2418</v>
       </c>
       <c r="D1233" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1233" t="s">
         <v>2418</v>
@@ -35516,7 +35522,7 @@
         <v>2465</v>
       </c>
       <c r="D1236" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E1236" t="s">
         <v>2734</v>
@@ -35550,7 +35556,7 @@
         <v>2831</v>
       </c>
       <c r="D1238" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1238" t="s">
         <v>2427</v>
@@ -35567,7 +35573,7 @@
         <v>2427</v>
       </c>
       <c r="D1239" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1239" t="s">
         <v>2252</v>
@@ -35601,7 +35607,7 @@
         <v>3584</v>
       </c>
       <c r="D1241" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1241" t="s">
         <v>2740</v>
@@ -35669,7 +35675,7 @@
         <v>2272</v>
       </c>
       <c r="D1245" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1245" t="s">
         <v>2430</v>
@@ -35754,7 +35760,7 @@
         <v>2734</v>
       </c>
       <c r="D1250" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1250" t="s">
         <v>2442</v>
@@ -35805,7 +35811,7 @@
         <v>2407</v>
       </c>
       <c r="D1253" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1253" t="s">
         <v>2809</v>
@@ -35839,7 +35845,7 @@
         <v>2835</v>
       </c>
       <c r="D1255" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1255" t="s">
         <v>2836</v>
@@ -35856,7 +35862,7 @@
         <v>3431</v>
       </c>
       <c r="D1256" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1256" t="s">
         <v>2780</v>
@@ -36077,7 +36083,7 @@
         <v>3592</v>
       </c>
       <c r="D1269" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1269" t="s">
         <v>2841</v>
@@ -36094,7 +36100,7 @@
         <v>2841</v>
       </c>
       <c r="D1270" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1270" t="s">
         <v>2733</v>
@@ -36111,7 +36117,7 @@
         <v>3593</v>
       </c>
       <c r="D1271" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1271" t="s">
         <v>2472</v>
@@ -36196,7 +36202,7 @@
         <v>2253</v>
       </c>
       <c r="D1276" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1276" t="s">
         <v>2839</v>
@@ -36213,7 +36219,7 @@
         <v>2898</v>
       </c>
       <c r="D1277" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E1277" t="s">
         <v>2323</v>
@@ -36400,7 +36406,7 @@
         <v>2758</v>
       </c>
       <c r="D1288" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1288" t="s">
         <v>2843</v>
@@ -36621,7 +36627,7 @@
         <v>2845</v>
       </c>
       <c r="D1301" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1301" t="s">
         <v>2258</v>
@@ -36638,7 +36644,7 @@
         <v>3595</v>
       </c>
       <c r="D1302" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1302" t="s">
         <v>2260</v>
@@ -36740,7 +36746,7 @@
         <v>2901</v>
       </c>
       <c r="D1308" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1308" t="s">
         <v>2738</v>
@@ -36791,7 +36797,7 @@
         <v>3602</v>
       </c>
       <c r="D1311" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1311" t="s">
         <v>2846</v>
@@ -36808,7 +36814,7 @@
         <v>3602</v>
       </c>
       <c r="D1312" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1312" t="s">
         <v>2466</v>
@@ -36825,7 +36831,7 @@
         <v>2899</v>
       </c>
       <c r="D1313" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1313" t="s">
         <v>2426</v>
@@ -36859,7 +36865,7 @@
         <v>2320</v>
       </c>
       <c r="D1315" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1315" t="s">
         <v>2318</v>
@@ -36961,7 +36967,7 @@
         <v>3606</v>
       </c>
       <c r="D1321" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1321" t="s">
         <v>2849</v>
@@ -36978,7 +36984,7 @@
         <v>3607</v>
       </c>
       <c r="D1322" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1322" t="s">
         <v>2850</v>
@@ -37012,7 +37018,7 @@
         <v>3608</v>
       </c>
       <c r="D1324" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1324" t="s">
         <v>2357</v>
@@ -37029,7 +37035,7 @@
         <v>3609</v>
       </c>
       <c r="D1325" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1325" t="s">
         <v>2706</v>
@@ -37046,7 +37052,7 @@
         <v>3610</v>
       </c>
       <c r="D1326" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1326" t="s">
         <v>2363</v>
@@ -37063,7 +37069,7 @@
         <v>3611</v>
       </c>
       <c r="D1327" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1327" t="s">
         <v>2245</v>
@@ -37114,7 +37120,7 @@
         <v>3612</v>
       </c>
       <c r="D1330" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1330" t="s">
         <v>2373</v>
@@ -37148,7 +37154,7 @@
         <v>3613</v>
       </c>
       <c r="D1332" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1332" t="s">
         <v>2477</v>
@@ -37165,7 +37171,7 @@
         <v>3564</v>
       </c>
       <c r="D1333" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1333" t="s">
         <v>2779</v>
@@ -37267,7 +37273,7 @@
         <v>2770</v>
       </c>
       <c r="D1339" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1339" t="s">
         <v>2363</v>
@@ -37287,7 +37293,7 @@
         <v>2707</v>
       </c>
       <c r="E1340" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37301,7 +37307,7 @@
         <v>3616</v>
       </c>
       <c r="D1341" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1341" t="s">
         <v>2717</v>
@@ -37352,7 +37358,7 @@
         <v>2316</v>
       </c>
       <c r="D1344" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1344" t="s">
         <v>2348</v>
@@ -37369,7 +37375,7 @@
         <v>3617</v>
       </c>
       <c r="D1345" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1345" t="s">
         <v>2387</v>
@@ -37386,7 +37392,7 @@
         <v>3612</v>
       </c>
       <c r="D1346" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1346" t="s">
         <v>2772</v>
@@ -37420,7 +37426,7 @@
         <v>2780</v>
       </c>
       <c r="D1348" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1348" t="s">
         <v>2794</v>
@@ -37437,7 +37443,7 @@
         <v>2793</v>
       </c>
       <c r="D1349" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1349" t="s">
         <v>2852</v>
@@ -37454,7 +37460,7 @@
         <v>3611</v>
       </c>
       <c r="D1350" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1350" t="s">
         <v>2853</v>
@@ -37573,7 +37579,7 @@
         <v>2738</v>
       </c>
       <c r="D1357" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1357" t="s">
         <v>2854</v>
@@ -37607,7 +37613,7 @@
         <v>2266</v>
       </c>
       <c r="D1359" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1359" t="s">
         <v>2856</v>
@@ -37811,7 +37817,7 @@
         <v>3605</v>
       </c>
       <c r="D1371" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1371" t="s">
         <v>2461</v>
@@ -37879,7 +37885,7 @@
         <v>3622</v>
       </c>
       <c r="D1375" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1375" t="s">
         <v>2863</v>
@@ -37913,7 +37919,7 @@
         <v>3624</v>
       </c>
       <c r="D1377" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1377" t="s">
         <v>2865</v>
@@ -37930,10 +37936,10 @@
         <v>3625</v>
       </c>
       <c r="D1378" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1378" t="s">
-        <v>4599</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37947,10 +37953,10 @@
         <v>2917</v>
       </c>
       <c r="D1379" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1379" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37964,7 +37970,7 @@
         <v>3626</v>
       </c>
       <c r="D1380" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1380" t="s">
         <v>3623</v>
@@ -38015,10 +38021,10 @@
         <v>3629</v>
       </c>
       <c r="D1383" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1383" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38032,10 +38038,10 @@
         <v>3630</v>
       </c>
       <c r="D1384" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1384" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38049,10 +38055,10 @@
         <v>3631</v>
       </c>
       <c r="D1385" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1385" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38066,7 +38072,7 @@
         <v>3632</v>
       </c>
       <c r="D1386" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1386" t="s">
         <v>2874</v>
@@ -38083,10 +38089,10 @@
         <v>3633</v>
       </c>
       <c r="D1387" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1387" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38103,7 +38109,7 @@
         <v>2306</v>
       </c>
       <c r="E1388" t="s">
-        <v>4601</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38117,10 +38123,10 @@
         <v>3635</v>
       </c>
       <c r="D1389" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1389" t="s">
-        <v>4602</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38134,10 +38140,10 @@
         <v>3022</v>
       </c>
       <c r="D1390" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1390" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38151,7 +38157,7 @@
         <v>3633</v>
       </c>
       <c r="D1391" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1391" t="s">
         <v>2879</v>
@@ -38171,7 +38177,7 @@
         <v>2300</v>
       </c>
       <c r="E1392" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38188,7 +38194,7 @@
         <v>3454</v>
       </c>
       <c r="E1393" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38202,10 +38208,10 @@
         <v>2952</v>
       </c>
       <c r="D1394" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1394" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38222,7 +38228,7 @@
         <v>2734</v>
       </c>
       <c r="E1395" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38236,7 +38242,7 @@
         <v>3638</v>
       </c>
       <c r="D1396" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1396" t="s">
         <v>2862</v>
@@ -38273,7 +38279,7 @@
         <v>2277</v>
       </c>
       <c r="E1398" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38287,10 +38293,10 @@
         <v>3640</v>
       </c>
       <c r="D1399" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1399" t="s">
-        <v>4607</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38321,7 +38327,7 @@
         <v>3641</v>
       </c>
       <c r="D1401" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1401" t="s">
         <v>2888</v>
@@ -38355,7 +38361,7 @@
         <v>2889</v>
       </c>
       <c r="D1403" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1403" t="s">
         <v>3588</v>
@@ -38423,10 +38429,10 @@
         <v>3643</v>
       </c>
       <c r="D1407" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1407" t="s">
-        <v>4608</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38457,10 +38463,10 @@
         <v>3645</v>
       </c>
       <c r="D1409" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1409" t="s">
-        <v>4609</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38525,7 +38531,7 @@
         <v>3648</v>
       </c>
       <c r="D1413" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1413" t="s">
         <v>2897</v>
@@ -38545,7 +38551,7 @@
         <v>2838</v>
       </c>
       <c r="E1414" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38562,7 +38568,7 @@
         <v>2835</v>
       </c>
       <c r="E1415" t="s">
-        <v>4610</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38576,7 +38582,7 @@
         <v>2416</v>
       </c>
       <c r="D1416" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1416" t="s">
         <v>2899</v>
@@ -38596,7 +38602,7 @@
         <v>2418</v>
       </c>
       <c r="E1417" t="s">
-        <v>4611</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38610,10 +38616,10 @@
         <v>2464</v>
       </c>
       <c r="D1418" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1418" t="s">
-        <v>4612</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38630,7 +38636,7 @@
         <v>2471</v>
       </c>
       <c r="E1419" t="s">
-        <v>4613</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38681,7 +38687,7 @@
         <v>2903</v>
       </c>
       <c r="E1422" t="s">
-        <v>4614</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38695,7 +38701,7 @@
         <v>3605</v>
       </c>
       <c r="D1423" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1423" t="s">
         <v>2332</v>
@@ -38715,7 +38721,7 @@
         <v>2461</v>
       </c>
       <c r="E1424" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38766,7 +38772,7 @@
         <v>3481</v>
       </c>
       <c r="E1427" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38797,7 +38803,7 @@
         <v>3652</v>
       </c>
       <c r="D1429" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1429" t="s">
         <v>2910</v>
@@ -38814,10 +38820,10 @@
         <v>3653</v>
       </c>
       <c r="D1430" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1430" t="s">
-        <v>4615</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38848,7 +38854,7 @@
         <v>2912</v>
       </c>
       <c r="D1432" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1432" t="s">
         <v>2278</v>
@@ -38933,7 +38939,7 @@
         <v>3656</v>
       </c>
       <c r="D1437" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1437" t="s">
         <v>2916</v>
@@ -38950,7 +38956,7 @@
         <v>3657</v>
       </c>
       <c r="D1438" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1438" t="s">
         <v>2917</v>
@@ -38984,7 +38990,7 @@
         <v>3659</v>
       </c>
       <c r="D1440" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1440" t="s">
         <v>2919</v>
@@ -39018,7 +39024,7 @@
         <v>3660</v>
       </c>
       <c r="D1442" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1442" t="s">
         <v>2921</v>
@@ -39035,7 +39041,7 @@
         <v>2921</v>
       </c>
       <c r="D1443" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1443" t="s">
         <v>2922</v>
@@ -39052,7 +39058,7 @@
         <v>2433</v>
       </c>
       <c r="D1444" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1444" t="s">
         <v>2896</v>
@@ -39069,7 +39075,7 @@
         <v>3441</v>
       </c>
       <c r="D1445" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1445" t="s">
         <v>2923</v>
@@ -39103,10 +39109,10 @@
         <v>3662</v>
       </c>
       <c r="D1447" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1447" t="s">
-        <v>4616</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39120,10 +39126,10 @@
         <v>3663</v>
       </c>
       <c r="D1448" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1448" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39137,7 +39143,7 @@
         <v>3664</v>
       </c>
       <c r="D1449" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1449" t="s">
         <v>2278</v>
@@ -39157,7 +39163,7 @@
         <v>2926</v>
       </c>
       <c r="E1450" t="s">
-        <v>4618</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39205,10 +39211,10 @@
         <v>3668</v>
       </c>
       <c r="D1453" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1453" t="s">
-        <v>4619</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39222,10 +39228,10 @@
         <v>3669</v>
       </c>
       <c r="D1454" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1454" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39239,7 +39245,7 @@
         <v>3670</v>
       </c>
       <c r="D1455" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1455" t="s">
         <v>3670</v>
@@ -39273,7 +39279,7 @@
         <v>3672</v>
       </c>
       <c r="D1457" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1457" t="s">
         <v>2932</v>
@@ -39290,7 +39296,7 @@
         <v>3673</v>
       </c>
       <c r="D1458" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1458" t="s">
         <v>2932</v>
@@ -39324,10 +39330,10 @@
         <v>2953</v>
       </c>
       <c r="D1460" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1460" t="s">
-        <v>4620</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39341,10 +39347,10 @@
         <v>3675</v>
       </c>
       <c r="D1461" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1461" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39358,7 +39364,7 @@
         <v>2305</v>
       </c>
       <c r="D1462" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E1462" t="s">
         <v>2935</v>
@@ -39375,7 +39381,7 @@
         <v>3676</v>
       </c>
       <c r="D1463" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1463" t="s">
         <v>2955</v>
@@ -39392,10 +39398,10 @@
         <v>3677</v>
       </c>
       <c r="D1464" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1464" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39409,10 +39415,10 @@
         <v>2934</v>
       </c>
       <c r="D1465" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1465" t="s">
-        <v>4622</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39443,10 +39449,10 @@
         <v>3679</v>
       </c>
       <c r="D1467" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1467" t="s">
-        <v>4623</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39460,10 +39466,10 @@
         <v>3680</v>
       </c>
       <c r="D1468" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1468" t="s">
-        <v>4624</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39480,7 +39486,7 @@
         <v>2941</v>
       </c>
       <c r="E1469" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39511,7 +39517,7 @@
         <v>3683</v>
       </c>
       <c r="D1471" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1471" t="s">
         <v>2932</v>
@@ -39528,10 +39534,10 @@
         <v>3454</v>
       </c>
       <c r="D1472" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1472" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39548,7 +39554,7 @@
         <v>2943</v>
       </c>
       <c r="E1473" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39562,10 +39568,10 @@
         <v>2932</v>
       </c>
       <c r="D1474" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1474" t="s">
-        <v>4627</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39579,10 +39585,10 @@
         <v>2298</v>
       </c>
       <c r="D1475" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1475" t="s">
-        <v>4628</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39596,7 +39602,7 @@
         <v>3684</v>
       </c>
       <c r="D1476" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1476" t="s">
         <v>2947</v>
@@ -39613,7 +39619,7 @@
         <v>3673</v>
       </c>
       <c r="D1477" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1477" t="s">
         <v>2948</v>
@@ -39664,7 +39670,7 @@
         <v>3685</v>
       </c>
       <c r="D1480" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1480" t="s">
         <v>2951</v>
@@ -39698,7 +39704,7 @@
         <v>3686</v>
       </c>
       <c r="D1482" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1482" t="s">
         <v>2953</v>
@@ -39715,7 +39721,7 @@
         <v>2953</v>
       </c>
       <c r="D1483" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1483" t="s">
         <v>2953</v>
@@ -39749,7 +39755,7 @@
         <v>2937</v>
       </c>
       <c r="D1485" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1485" t="s">
         <v>2304</v>
@@ -39766,7 +39772,7 @@
         <v>3688</v>
       </c>
       <c r="D1486" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1486" t="s">
         <v>2954</v>
@@ -39783,7 +39789,7 @@
         <v>3689</v>
       </c>
       <c r="D1487" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1487" t="s">
         <v>2936</v>
@@ -39800,10 +39806,10 @@
         <v>3679</v>
       </c>
       <c r="D1488" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1488" t="s">
-        <v>4629</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39817,10 +39823,10 @@
         <v>3690</v>
       </c>
       <c r="D1489" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1489" t="s">
-        <v>4630</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39837,7 +39843,7 @@
         <v>3705</v>
       </c>
       <c r="E1490" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39885,7 +39891,7 @@
         <v>3692</v>
       </c>
       <c r="D1493" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1493" t="s">
         <v>2981</v>
@@ -39919,7 +39925,7 @@
         <v>3694</v>
       </c>
       <c r="D1495" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1495" t="s">
         <v>3021</v>
@@ -39936,7 +39942,7 @@
         <v>3695</v>
       </c>
       <c r="D1496" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1496" t="s">
         <v>2963</v>
@@ -39956,7 +39962,7 @@
         <v>2962</v>
       </c>
       <c r="E1497" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39970,10 +39976,10 @@
         <v>3696</v>
       </c>
       <c r="D1498" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1498" t="s">
-        <v>4633</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40004,10 +40010,10 @@
         <v>3698</v>
       </c>
       <c r="D1500" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1500" t="s">
-        <v>4634</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40021,7 +40027,7 @@
         <v>3038</v>
       </c>
       <c r="D1501" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1501" t="s">
         <v>2968</v>
@@ -40041,7 +40047,7 @@
         <v>3697</v>
       </c>
       <c r="E1502" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40058,7 +40064,7 @@
         <v>2980</v>
       </c>
       <c r="E1503" t="s">
-        <v>4636</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40072,7 +40078,7 @@
         <v>3701</v>
       </c>
       <c r="D1504" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1504" t="s">
         <v>3021</v>
@@ -40089,7 +40095,7 @@
         <v>3702</v>
       </c>
       <c r="D1505" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1505" t="s">
         <v>2971</v>
@@ -40126,7 +40132,7 @@
         <v>2972</v>
       </c>
       <c r="E1507" t="s">
-        <v>4637</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40143,7 +40149,7 @@
         <v>2881</v>
       </c>
       <c r="E1508" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40157,10 +40163,10 @@
         <v>3705</v>
       </c>
       <c r="D1509" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1509" t="s">
-        <v>4638</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40174,10 +40180,10 @@
         <v>2975</v>
       </c>
       <c r="D1510" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1510" t="s">
-        <v>4639</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40191,7 +40197,7 @@
         <v>3706</v>
       </c>
       <c r="D1511" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1511" t="s">
         <v>2976</v>
@@ -40211,7 +40217,7 @@
         <v>2976</v>
       </c>
       <c r="E1512" t="s">
-        <v>4640</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40225,10 +40231,10 @@
         <v>2959</v>
       </c>
       <c r="D1513" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1513" t="s">
-        <v>4641</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40242,10 +40248,10 @@
         <v>3707</v>
       </c>
       <c r="D1514" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1514" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40259,7 +40265,7 @@
         <v>3708</v>
       </c>
       <c r="D1515" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1515" t="s">
         <v>2957</v>
@@ -40293,10 +40299,10 @@
         <v>2980</v>
       </c>
       <c r="D1517" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1517" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40310,10 +40316,10 @@
         <v>2981</v>
       </c>
       <c r="D1518" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1518" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40327,7 +40333,7 @@
         <v>3710</v>
       </c>
       <c r="D1519" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1519" t="s">
         <v>2976</v>
@@ -40344,10 +40350,10 @@
         <v>3678</v>
       </c>
       <c r="D1520" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1520" t="s">
-        <v>4644</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40361,10 +40367,10 @@
         <v>3711</v>
       </c>
       <c r="D1521" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1521" t="s">
-        <v>4645</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40378,10 +40384,10 @@
         <v>2959</v>
       </c>
       <c r="D1522" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1522" t="s">
-        <v>4646</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40395,7 +40401,7 @@
         <v>3712</v>
       </c>
       <c r="D1523" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1523" t="s">
         <v>2987</v>
@@ -40449,7 +40455,7 @@
         <v>2987</v>
       </c>
       <c r="E1526" t="s">
-        <v>4647</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40480,10 +40486,10 @@
         <v>3717</v>
       </c>
       <c r="D1528" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1528" t="s">
-        <v>4648</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40514,7 +40520,7 @@
         <v>3719</v>
       </c>
       <c r="D1530" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1530" t="s">
         <v>3028</v>
@@ -40531,7 +40537,7 @@
         <v>3720</v>
       </c>
       <c r="D1531" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1531" t="s">
         <v>2993</v>
@@ -40565,10 +40571,10 @@
         <v>2993</v>
       </c>
       <c r="D1533" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1533" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40582,10 +40588,10 @@
         <v>3722</v>
       </c>
       <c r="D1534" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1534" t="s">
-        <v>4649</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40599,10 +40605,10 @@
         <v>3723</v>
       </c>
       <c r="D1535" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1535" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40650,7 +40656,7 @@
         <v>3725</v>
       </c>
       <c r="D1538" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1538" t="s">
         <v>2998</v>
@@ -40667,7 +40673,7 @@
         <v>3726</v>
       </c>
       <c r="D1539" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1539" t="s">
         <v>2999</v>
@@ -40684,10 +40690,10 @@
         <v>3727</v>
       </c>
       <c r="D1540" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1540" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40701,7 +40707,7 @@
         <v>3728</v>
       </c>
       <c r="D1541" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1541" t="s">
         <v>3001</v>
@@ -40718,7 +40724,7 @@
         <v>3729</v>
       </c>
       <c r="D1542" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1542" t="s">
         <v>3002</v>
@@ -40752,7 +40758,7 @@
         <v>3731</v>
       </c>
       <c r="D1544" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1544" t="s">
         <v>3004</v>
@@ -40769,10 +40775,10 @@
         <v>3732</v>
       </c>
       <c r="D1545" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1545" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40803,7 +40809,7 @@
         <v>3734</v>
       </c>
       <c r="D1547" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1547" t="s">
         <v>3741</v>
@@ -40820,10 +40826,10 @@
         <v>3735</v>
       </c>
       <c r="D1548" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1548" t="s">
-        <v>4650</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40840,7 +40846,7 @@
         <v>3034</v>
       </c>
       <c r="E1549" t="s">
-        <v>4651</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40854,10 +40860,10 @@
         <v>3737</v>
       </c>
       <c r="D1550" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1550" t="s">
-        <v>4652</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40871,7 +40877,7 @@
         <v>3738</v>
       </c>
       <c r="D1551" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1551" t="s">
         <v>3010</v>
@@ -40888,10 +40894,10 @@
         <v>3738</v>
       </c>
       <c r="D1552" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1552" t="s">
-        <v>4653</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40905,10 +40911,10 @@
         <v>3011</v>
       </c>
       <c r="D1553" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1553" t="s">
-        <v>4654</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40922,7 +40928,7 @@
         <v>3739</v>
       </c>
       <c r="D1554" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1554" t="s">
         <v>3042</v>
@@ -40942,7 +40948,7 @@
         <v>3694</v>
       </c>
       <c r="E1555" t="s">
-        <v>4655</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40956,7 +40962,7 @@
         <v>3741</v>
       </c>
       <c r="D1556" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1556" t="s">
         <v>3015</v>
@@ -40973,7 +40979,7 @@
         <v>3015</v>
       </c>
       <c r="D1557" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1557" t="s">
         <v>3000</v>
@@ -40993,7 +40999,7 @@
         <v>3021</v>
       </c>
       <c r="E1558" t="s">
-        <v>4656</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41007,7 +41013,7 @@
         <v>3743</v>
       </c>
       <c r="D1559" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1559" t="s">
         <v>3017</v>
@@ -41024,10 +41030,10 @@
         <v>3744</v>
       </c>
       <c r="D1560" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1560" t="s">
-        <v>4657</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41041,10 +41047,10 @@
         <v>3052</v>
       </c>
       <c r="D1561" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1561" t="s">
-        <v>4658</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41058,10 +41064,10 @@
         <v>3745</v>
       </c>
       <c r="D1562" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1562" t="s">
-        <v>4659</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41075,7 +41081,7 @@
         <v>3020</v>
       </c>
       <c r="D1563" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1563" t="s">
         <v>3005</v>
@@ -41092,7 +41098,7 @@
         <v>3746</v>
       </c>
       <c r="D1564" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1564" t="s">
         <v>2962</v>
@@ -41109,10 +41115,10 @@
         <v>2964</v>
       </c>
       <c r="D1565" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1565" t="s">
-        <v>4660</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41126,7 +41132,7 @@
         <v>3716</v>
       </c>
       <c r="D1566" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1566" t="s">
         <v>3023</v>
@@ -41143,7 +41149,7 @@
         <v>3747</v>
       </c>
       <c r="D1567" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1567" t="s">
         <v>3024</v>
@@ -41160,7 +41166,7 @@
         <v>3748</v>
       </c>
       <c r="D1568" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1568" t="s">
         <v>3025</v>
@@ -41177,7 +41183,7 @@
         <v>3749</v>
       </c>
       <c r="D1569" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1569" t="s">
         <v>3024</v>
@@ -41228,7 +41234,7 @@
         <v>3752</v>
       </c>
       <c r="D1572" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1572" t="s">
         <v>2992</v>
@@ -41245,7 +41251,7 @@
         <v>3029</v>
       </c>
       <c r="D1573" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1573" t="s">
         <v>3030</v>
@@ -41279,10 +41285,10 @@
         <v>3735</v>
       </c>
       <c r="D1575" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1575" t="s">
-        <v>4661</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41296,7 +41302,7 @@
         <v>3753</v>
       </c>
       <c r="D1576" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1576" t="s">
         <v>3031</v>
@@ -41347,7 +41353,7 @@
         <v>3756</v>
       </c>
       <c r="D1579" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1579" t="s">
         <v>3034</v>
@@ -41364,10 +41370,10 @@
         <v>3757</v>
       </c>
       <c r="D1580" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1580" t="s">
-        <v>4662</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41381,7 +41387,7 @@
         <v>3758</v>
       </c>
       <c r="D1581" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1581" t="s">
         <v>3036</v>
@@ -41398,7 +41404,7 @@
         <v>3036</v>
       </c>
       <c r="D1582" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1582" t="s">
         <v>2999</v>
@@ -41415,10 +41421,10 @@
         <v>3700</v>
       </c>
       <c r="D1583" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1583" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41435,7 +41441,7 @@
         <v>3698</v>
       </c>
       <c r="E1584" t="s">
-        <v>4663</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41500,10 +41506,10 @@
         <v>3763</v>
       </c>
       <c r="D1588" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1588" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41517,7 +41523,7 @@
         <v>3764</v>
       </c>
       <c r="D1589" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1589" t="s">
         <v>3751</v>
@@ -41741,7 +41747,7 @@
         <v>3042</v>
       </c>
       <c r="E1602" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41928,7 +41934,7 @@
         <v>3042</v>
       </c>
       <c r="E1613" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42098,7 +42104,7 @@
         <v>3042</v>
       </c>
       <c r="E1623" t="s">
-        <v>4667</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42112,10 +42118,10 @@
         <v>3784</v>
       </c>
       <c r="D1624" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1624" t="s">
-        <v>4668</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42129,10 +42135,10 @@
         <v>3785</v>
       </c>
       <c r="D1625" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1625" t="s">
-        <v>4669</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42146,10 +42152,10 @@
         <v>3786</v>
       </c>
       <c r="D1626" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1626" t="s">
-        <v>4670</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42163,7 +42169,7 @@
         <v>3787</v>
       </c>
       <c r="D1627" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1627" t="s">
         <v>3055</v>
@@ -42180,10 +42186,10 @@
         <v>3788</v>
       </c>
       <c r="D1628" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1628" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42197,10 +42203,10 @@
         <v>3789</v>
       </c>
       <c r="D1629" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1629" t="s">
-        <v>4672</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42214,7 +42220,7 @@
         <v>3790</v>
       </c>
       <c r="D1630" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1630" t="s">
         <v>3051</v>
@@ -42231,7 +42237,7 @@
         <v>3791</v>
       </c>
       <c r="D1631" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1631" t="s">
         <v>3051</v>
@@ -42248,7 +42254,7 @@
         <v>3792</v>
       </c>
       <c r="D1632" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1632" t="s">
         <v>3050</v>
@@ -42265,7 +42271,7 @@
         <v>3793</v>
       </c>
       <c r="D1633" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1633" t="s">
         <v>3050</v>
@@ -42282,7 +42288,7 @@
         <v>3793</v>
       </c>
       <c r="D1634" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1634" t="s">
         <v>3049</v>
@@ -42299,7 +42305,7 @@
         <v>3794</v>
       </c>
       <c r="D1635" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1635" t="s">
         <v>3057</v>
@@ -42316,7 +42322,7 @@
         <v>3777</v>
       </c>
       <c r="D1636" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1636" t="s">
         <v>3057</v>
@@ -42438,7 +42444,7 @@
         <v>3057</v>
       </c>
       <c r="E1643" t="s">
-        <v>4673</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42523,7 +42529,7 @@
         <v>3057</v>
       </c>
       <c r="E1648" t="s">
-        <v>4674</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42843,7 +42849,7 @@
         <v>3817</v>
       </c>
       <c r="D1667" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1667" t="s">
         <v>3057</v>
@@ -42860,7 +42866,7 @@
         <v>3057</v>
       </c>
       <c r="D1668" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1668" t="s">
         <v>3057</v>
@@ -42877,7 +42883,7 @@
         <v>3057</v>
       </c>
       <c r="D1669" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1669" t="s">
         <v>3057</v>
@@ -42897,7 +42903,7 @@
         <v>3771</v>
       </c>
       <c r="E1670" t="s">
-        <v>4675</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42928,10 +42934,10 @@
         <v>3819</v>
       </c>
       <c r="D1672" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1672" t="s">
-        <v>4676</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42945,10 +42951,10 @@
         <v>3820</v>
       </c>
       <c r="D1673" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1673" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42962,10 +42968,10 @@
         <v>3309</v>
       </c>
       <c r="D1674" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1674" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42979,7 +42985,7 @@
         <v>3821</v>
       </c>
       <c r="D1675" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1675" t="s">
         <v>3981</v>
@@ -42996,10 +43002,10 @@
         <v>3822</v>
       </c>
       <c r="D1676" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1676" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43013,10 +43019,10 @@
         <v>3823</v>
       </c>
       <c r="D1677" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1677" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43030,10 +43036,10 @@
         <v>3824</v>
       </c>
       <c r="D1678" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1678" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43047,10 +43053,10 @@
         <v>3825</v>
       </c>
       <c r="D1679" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1679" t="s">
-        <v>4682</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43064,10 +43070,10 @@
         <v>3826</v>
       </c>
       <c r="D1680" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1680" t="s">
-        <v>4683</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43081,7 +43087,7 @@
         <v>3827</v>
       </c>
       <c r="D1681" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1681" t="s">
         <v>3072</v>
@@ -43183,7 +43189,7 @@
         <v>3073</v>
       </c>
       <c r="D1687" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1687" t="s">
         <v>3073</v>
@@ -43200,10 +43206,10 @@
         <v>3073</v>
       </c>
       <c r="D1688" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1688" t="s">
-        <v>4684</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43217,7 +43223,7 @@
         <v>3073</v>
       </c>
       <c r="D1689" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1689" t="s">
         <v>3073</v>
@@ -43234,7 +43240,7 @@
         <v>3073</v>
       </c>
       <c r="D1690" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1690" t="s">
         <v>3073</v>
@@ -43285,7 +43291,7 @@
         <v>3073</v>
       </c>
       <c r="D1693" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1693" t="s">
         <v>3073</v>
@@ -43302,10 +43308,10 @@
         <v>3073</v>
       </c>
       <c r="D1694" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1694" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43319,7 +43325,7 @@
         <v>3073</v>
       </c>
       <c r="D1695" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1695" t="s">
         <v>3073</v>
@@ -43336,7 +43342,7 @@
         <v>3073</v>
       </c>
       <c r="D1696" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1696" t="s">
         <v>3073</v>
@@ -43509,7 +43515,7 @@
         <v>3073</v>
       </c>
       <c r="E1706" t="s">
-        <v>4685</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43560,7 +43566,7 @@
         <v>3073</v>
       </c>
       <c r="E1709" t="s">
-        <v>4686</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43642,10 +43648,10 @@
         <v>3845</v>
       </c>
       <c r="D1714" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1714" t="s">
-        <v>4687</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43659,10 +43665,10 @@
         <v>3846</v>
       </c>
       <c r="D1715" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1715" t="s">
-        <v>4688</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43676,10 +43682,10 @@
         <v>3847</v>
       </c>
       <c r="D1716" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1716" t="s">
-        <v>4689</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43696,7 +43702,7 @@
         <v>3092</v>
       </c>
       <c r="E1717" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43710,7 +43716,7 @@
         <v>3849</v>
       </c>
       <c r="D1718" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1718" t="s">
         <v>3083</v>
@@ -43727,7 +43733,7 @@
         <v>3850</v>
       </c>
       <c r="D1719" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1719" t="s">
         <v>3082</v>
@@ -43744,10 +43750,10 @@
         <v>3851</v>
       </c>
       <c r="D1720" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1720" t="s">
-        <v>4690</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43761,7 +43767,7 @@
         <v>3852</v>
       </c>
       <c r="D1721" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1721" t="s">
         <v>3085</v>
@@ -43781,7 +43787,7 @@
         <v>4050</v>
       </c>
       <c r="E1722" t="s">
-        <v>4691</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43795,7 +43801,7 @@
         <v>3854</v>
       </c>
       <c r="D1723" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1723" t="s">
         <v>3087</v>
@@ -43812,10 +43818,10 @@
         <v>3855</v>
       </c>
       <c r="D1724" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1724" t="s">
-        <v>4692</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43829,7 +43835,7 @@
         <v>3856</v>
       </c>
       <c r="D1725" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1725" t="s">
         <v>3089</v>
@@ -43863,7 +43869,7 @@
         <v>3858</v>
       </c>
       <c r="D1727" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1727" t="s">
         <v>3091</v>
@@ -43965,7 +43971,7 @@
         <v>3862</v>
       </c>
       <c r="D1733" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1733" t="s">
         <v>3092</v>
@@ -44033,7 +44039,7 @@
         <v>3865</v>
       </c>
       <c r="D1737" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1737" t="s">
         <v>3093</v>
@@ -44050,7 +44056,7 @@
         <v>3866</v>
       </c>
       <c r="D1738" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1738" t="s">
         <v>3094</v>
@@ -44084,7 +44090,7 @@
         <v>3097</v>
       </c>
       <c r="D1740" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1740" t="s">
         <v>3857</v>
@@ -44104,7 +44110,7 @@
         <v>3096</v>
       </c>
       <c r="E1741" t="s">
-        <v>4693</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44169,10 +44175,10 @@
         <v>3099</v>
       </c>
       <c r="D1745" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1745" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44186,10 +44192,10 @@
         <v>3869</v>
       </c>
       <c r="D1746" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1746" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44339,7 +44345,7 @@
         <v>3872</v>
       </c>
       <c r="D1755" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1755" t="s">
         <v>3110</v>
@@ -44390,7 +44396,7 @@
         <v>3875</v>
       </c>
       <c r="D1758" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1758" t="s">
         <v>3113</v>
@@ -44441,7 +44447,7 @@
         <v>3877</v>
       </c>
       <c r="D1761" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1761" t="s">
         <v>3116</v>
@@ -44475,7 +44481,7 @@
         <v>3879</v>
       </c>
       <c r="D1763" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1763" t="s">
         <v>3118</v>
@@ -44492,7 +44498,7 @@
         <v>3880</v>
       </c>
       <c r="D1764" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1764" t="s">
         <v>3119</v>
@@ -44560,7 +44566,7 @@
         <v>3884</v>
       </c>
       <c r="D1768" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1768" t="s">
         <v>3123</v>
@@ -44577,7 +44583,7 @@
         <v>3885</v>
       </c>
       <c r="D1769" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1769" t="s">
         <v>3124</v>
@@ -44597,7 +44603,7 @@
         <v>3124</v>
       </c>
       <c r="E1770" t="s">
-        <v>4694</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44611,7 +44617,7 @@
         <v>3887</v>
       </c>
       <c r="D1771" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1771" t="s">
         <v>3126</v>
@@ -44628,7 +44634,7 @@
         <v>3888</v>
       </c>
       <c r="D1772" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1772" t="s">
         <v>3127</v>
@@ -44645,7 +44651,7 @@
         <v>3889</v>
       </c>
       <c r="D1773" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1773" t="s">
         <v>3128</v>
@@ -44662,7 +44668,7 @@
         <v>3890</v>
       </c>
       <c r="D1774" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1774" t="s">
         <v>3129</v>
@@ -44730,7 +44736,7 @@
         <v>3894</v>
       </c>
       <c r="D1778" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1778" t="s">
         <v>3133</v>
@@ -44747,10 +44753,10 @@
         <v>3895</v>
       </c>
       <c r="D1779" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1779" t="s">
-        <v>4695</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44764,7 +44770,7 @@
         <v>3896</v>
       </c>
       <c r="D1780" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1780" t="s">
         <v>3127</v>
@@ -44781,7 +44787,7 @@
         <v>3897</v>
       </c>
       <c r="D1781" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1781" t="s">
         <v>3134</v>
@@ -44815,7 +44821,7 @@
         <v>3899</v>
       </c>
       <c r="D1783" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1783" t="s">
         <v>3136</v>
@@ -44951,7 +44957,7 @@
         <v>3137</v>
       </c>
       <c r="D1791" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1791" t="s">
         <v>3137</v>
@@ -45019,10 +45025,10 @@
         <v>3137</v>
       </c>
       <c r="D1795" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1795" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45036,10 +45042,10 @@
         <v>3137</v>
       </c>
       <c r="D1796" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1796" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45053,10 +45059,10 @@
         <v>3137</v>
       </c>
       <c r="D1797" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1797" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45070,10 +45076,10 @@
         <v>3137</v>
       </c>
       <c r="D1798" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1798" t="s">
-        <v>4696</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45087,7 +45093,7 @@
         <v>3903</v>
       </c>
       <c r="D1799" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1799" t="s">
         <v>3139</v>
@@ -45104,10 +45110,10 @@
         <v>3904</v>
       </c>
       <c r="D1800" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1800" t="s">
-        <v>4697</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45121,7 +45127,7 @@
         <v>3137</v>
       </c>
       <c r="D1801" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1801" t="s">
         <v>3195</v>
@@ -45138,7 +45144,7 @@
         <v>3905</v>
       </c>
       <c r="D1802" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1802" t="s">
         <v>3142</v>
@@ -45155,7 +45161,7 @@
         <v>3185</v>
       </c>
       <c r="D1803" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1803" t="s">
         <v>3143</v>
@@ -45189,7 +45195,7 @@
         <v>3907</v>
       </c>
       <c r="D1805" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1805" t="s">
         <v>3145</v>
@@ -45223,7 +45229,7 @@
         <v>3909</v>
       </c>
       <c r="D1807" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1807" t="s">
         <v>3147</v>
@@ -45257,7 +45263,7 @@
         <v>3911</v>
       </c>
       <c r="D1809" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1809" t="s">
         <v>3149</v>
@@ -45274,7 +45280,7 @@
         <v>3911</v>
       </c>
       <c r="D1810" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1810" t="s">
         <v>3150</v>
@@ -45291,7 +45297,7 @@
         <v>3912</v>
       </c>
       <c r="D1811" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1811" t="s">
         <v>3151</v>
@@ -45308,7 +45314,7 @@
         <v>3913</v>
       </c>
       <c r="D1812" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1812" t="s">
         <v>3152</v>
@@ -45325,7 +45331,7 @@
         <v>3914</v>
       </c>
       <c r="D1813" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1813" t="s">
         <v>3153</v>
@@ -45342,7 +45348,7 @@
         <v>3915</v>
       </c>
       <c r="D1814" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1814" t="s">
         <v>3154</v>
@@ -45359,7 +45365,7 @@
         <v>3915</v>
       </c>
       <c r="D1815" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1815" t="s">
         <v>3155</v>
@@ -45376,7 +45382,7 @@
         <v>3916</v>
       </c>
       <c r="D1816" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1816" t="s">
         <v>3156</v>
@@ -45393,7 +45399,7 @@
         <v>3917</v>
       </c>
       <c r="D1817" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1817" t="s">
         <v>3157</v>
@@ -45427,7 +45433,7 @@
         <v>3155</v>
       </c>
       <c r="D1819" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1819" t="s">
         <v>3159</v>
@@ -45444,7 +45450,7 @@
         <v>3919</v>
       </c>
       <c r="D1820" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1820" t="s">
         <v>3160</v>
@@ -45495,7 +45501,7 @@
         <v>3922</v>
       </c>
       <c r="D1823" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1823" t="s">
         <v>3163</v>
@@ -45515,7 +45521,7 @@
         <v>3163</v>
       </c>
       <c r="E1824" t="s">
-        <v>4698</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45532,7 +45538,7 @@
         <v>3153</v>
       </c>
       <c r="E1825" t="s">
-        <v>4699</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45546,10 +45552,10 @@
         <v>3925</v>
       </c>
       <c r="D1826" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1826" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45563,7 +45569,7 @@
         <v>3926</v>
       </c>
       <c r="D1827" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1827" t="s">
         <v>3167</v>
@@ -45580,7 +45586,7 @@
         <v>3927</v>
       </c>
       <c r="D1828" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1828" t="s">
         <v>3168</v>
@@ -45597,7 +45603,7 @@
         <v>3869</v>
       </c>
       <c r="D1829" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1829" t="s">
         <v>3169</v>
@@ -45631,7 +45637,7 @@
         <v>3929</v>
       </c>
       <c r="D1831" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1831" t="s">
         <v>3171</v>
@@ -45665,7 +45671,7 @@
         <v>3931</v>
       </c>
       <c r="D1833" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1833" t="s">
         <v>3929</v>
@@ -45699,7 +45705,7 @@
         <v>3933</v>
       </c>
       <c r="D1835" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1835" t="s">
         <v>3934</v>
@@ -45716,7 +45722,7 @@
         <v>3934</v>
       </c>
       <c r="D1836" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1836" t="s">
         <v>3176</v>
@@ -45733,7 +45739,7 @@
         <v>3935</v>
       </c>
       <c r="D1837" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1837" t="s">
         <v>3177</v>
@@ -45750,10 +45756,10 @@
         <v>3936</v>
       </c>
       <c r="D1838" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1838" t="s">
-        <v>4700</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45767,7 +45773,7 @@
         <v>3937</v>
       </c>
       <c r="D1839" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1839" t="s">
         <v>3179</v>
@@ -45784,7 +45790,7 @@
         <v>3938</v>
       </c>
       <c r="D1840" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1840" t="s">
         <v>3180</v>
@@ -45801,7 +45807,7 @@
         <v>3939</v>
       </c>
       <c r="D1841" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1841" t="s">
         <v>3181</v>
@@ -45835,7 +45841,7 @@
         <v>3937</v>
       </c>
       <c r="D1843" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1843" t="s">
         <v>3183</v>
@@ -45852,10 +45858,10 @@
         <v>3940</v>
       </c>
       <c r="D1844" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1844" t="s">
-        <v>4701</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45886,7 +45892,7 @@
         <v>3148</v>
       </c>
       <c r="D1846" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1846" t="s">
         <v>3148</v>
@@ -45903,7 +45909,7 @@
         <v>3186</v>
       </c>
       <c r="D1847" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1847" t="s">
         <v>3187</v>
@@ -45923,7 +45929,7 @@
         <v>3188</v>
       </c>
       <c r="E1848" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45937,7 +45943,7 @@
         <v>3943</v>
       </c>
       <c r="D1849" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1849" t="s">
         <v>3189</v>
@@ -45957,7 +45963,7 @@
         <v>3189</v>
       </c>
       <c r="E1850" t="s">
-        <v>4702</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45971,7 +45977,7 @@
         <v>3945</v>
       </c>
       <c r="D1851" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1851" t="s">
         <v>3191</v>
@@ -46005,7 +46011,7 @@
         <v>3145</v>
       </c>
       <c r="D1853" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1853" t="s">
         <v>3193</v>
@@ -46025,7 +46031,7 @@
         <v>4047</v>
       </c>
       <c r="E1854" t="s">
-        <v>4703</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46039,7 +46045,7 @@
         <v>3948</v>
       </c>
       <c r="D1855" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1855" t="s">
         <v>3195</v>
@@ -46073,7 +46079,7 @@
         <v>3949</v>
       </c>
       <c r="D1857" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1857" t="s">
         <v>3197</v>
@@ -46107,7 +46113,7 @@
         <v>3951</v>
       </c>
       <c r="D1859" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1859" t="s">
         <v>3199</v>
@@ -46124,7 +46130,7 @@
         <v>3952</v>
       </c>
       <c r="D1860" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1860" t="s">
         <v>3200</v>
@@ -46141,10 +46147,10 @@
         <v>3200</v>
       </c>
       <c r="D1861" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1861" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46178,7 +46184,7 @@
         <v>4002</v>
       </c>
       <c r="E1863" t="s">
-        <v>4704</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46192,7 +46198,7 @@
         <v>3953</v>
       </c>
       <c r="D1864" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1864" t="s">
         <v>3203</v>
@@ -46209,7 +46215,7 @@
         <v>3954</v>
       </c>
       <c r="D1865" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1865" t="s">
         <v>3204</v>
@@ -46246,7 +46252,7 @@
         <v>3975</v>
       </c>
       <c r="E1867" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46260,10 +46266,10 @@
         <v>3206</v>
       </c>
       <c r="D1868" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1868" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46314,7 +46320,7 @@
         <v>3209</v>
       </c>
       <c r="E1871" t="s">
-        <v>4705</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46328,7 +46334,7 @@
         <v>3960</v>
       </c>
       <c r="D1872" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1872" t="s">
         <v>3211</v>
@@ -46348,7 +46354,7 @@
         <v>3211</v>
       </c>
       <c r="E1873" t="s">
-        <v>4706</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46362,7 +46368,7 @@
         <v>3962</v>
       </c>
       <c r="D1874" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1874" t="s">
         <v>3213</v>
@@ -46396,10 +46402,10 @@
         <v>3964</v>
       </c>
       <c r="D1876" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1876" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46413,10 +46419,10 @@
         <v>3965</v>
       </c>
       <c r="D1877" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1877" t="s">
-        <v>4707</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46481,7 +46487,7 @@
         <v>3815</v>
       </c>
       <c r="D1881" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1881" t="s">
         <v>3815</v>
@@ -46566,7 +46572,7 @@
         <v>3971</v>
       </c>
       <c r="D1886" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1886" t="s">
         <v>3804</v>
@@ -46600,10 +46606,10 @@
         <v>3973</v>
       </c>
       <c r="D1888" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1888" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46617,7 +46623,7 @@
         <v>3974</v>
       </c>
       <c r="D1889" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1889" t="s">
         <v>3227</v>
@@ -46668,7 +46674,7 @@
         <v>3229</v>
       </c>
       <c r="D1892" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1892" t="s">
         <v>3230</v>
@@ -46685,7 +46691,7 @@
         <v>3977</v>
       </c>
       <c r="D1893" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1893" t="s">
         <v>3231</v>
@@ -46702,7 +46708,7 @@
         <v>3978</v>
       </c>
       <c r="D1894" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1894" t="s">
         <v>3232</v>
@@ -46719,7 +46725,7 @@
         <v>3979</v>
       </c>
       <c r="D1895" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1895" t="s">
         <v>3233</v>
@@ -46787,7 +46793,7 @@
         <v>3983</v>
       </c>
       <c r="D1899" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1899" t="s">
         <v>3237</v>
@@ -46821,7 +46827,7 @@
         <v>3984</v>
       </c>
       <c r="D1901" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1901" t="s">
         <v>3239</v>
@@ -46855,7 +46861,7 @@
         <v>3985</v>
       </c>
       <c r="D1903" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1903" t="s">
         <v>3241</v>
@@ -46889,7 +46895,7 @@
         <v>3243</v>
       </c>
       <c r="D1905" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1905" t="s">
         <v>3243</v>
@@ -46923,7 +46929,7 @@
         <v>3987</v>
       </c>
       <c r="D1907" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1907" t="s">
         <v>3245</v>
@@ -46940,7 +46946,7 @@
         <v>3978</v>
       </c>
       <c r="D1908" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1908" t="s">
         <v>3246</v>
@@ -46957,7 +46963,7 @@
         <v>3073</v>
       </c>
       <c r="D1909" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1909" t="s">
         <v>3247</v>
@@ -46974,7 +46980,7 @@
         <v>3247</v>
       </c>
       <c r="D1910" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1910" t="s">
         <v>3248</v>
@@ -47025,7 +47031,7 @@
         <v>3988</v>
       </c>
       <c r="D1913" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1913" t="s">
         <v>3251</v>
@@ -47042,10 +47048,10 @@
         <v>3989</v>
       </c>
       <c r="D1914" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1914" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47093,7 +47099,7 @@
         <v>3254</v>
       </c>
       <c r="D1917" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1917" t="s">
         <v>3255</v>
@@ -47127,10 +47133,10 @@
         <v>3992</v>
       </c>
       <c r="D1919" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1919" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47161,7 +47167,7 @@
         <v>3994</v>
       </c>
       <c r="D1921" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1921" t="s">
         <v>3259</v>
@@ -47178,7 +47184,7 @@
         <v>3995</v>
       </c>
       <c r="D1922" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1922" t="s">
         <v>3260</v>
@@ -47195,7 +47201,7 @@
         <v>3261</v>
       </c>
       <c r="D1923" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1923" t="s">
         <v>3261</v>
@@ -47212,7 +47218,7 @@
         <v>3996</v>
       </c>
       <c r="D1924" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1924" t="s">
         <v>3262</v>
@@ -47280,7 +47286,7 @@
         <v>3236</v>
       </c>
       <c r="D1928" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1928" t="s">
         <v>3266</v>
@@ -47331,7 +47337,7 @@
         <v>3998</v>
       </c>
       <c r="D1931" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1931" t="s">
         <v>3269</v>
@@ -47348,7 +47354,7 @@
         <v>3280</v>
       </c>
       <c r="D1932" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1932" t="s">
         <v>3270</v>
@@ -47365,7 +47371,7 @@
         <v>3271</v>
       </c>
       <c r="D1933" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1933" t="s">
         <v>3271</v>
@@ -47382,7 +47388,7 @@
         <v>3999</v>
       </c>
       <c r="D1934" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1934" t="s">
         <v>3272</v>
@@ -47399,7 +47405,7 @@
         <v>4000</v>
       </c>
       <c r="D1935" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1935" t="s">
         <v>3273</v>
@@ -47433,7 +47439,7 @@
         <v>4001</v>
       </c>
       <c r="D1937" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1937" t="s">
         <v>3275</v>
@@ -47450,7 +47456,7 @@
         <v>4002</v>
       </c>
       <c r="D1938" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1938" t="s">
         <v>3276</v>
@@ -47484,7 +47490,7 @@
         <v>3987</v>
       </c>
       <c r="D1940" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1940" t="s">
         <v>3278</v>
@@ -47501,7 +47507,7 @@
         <v>4004</v>
       </c>
       <c r="D1941" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1941" t="s">
         <v>3279</v>
@@ -47552,7 +47558,7 @@
         <v>4007</v>
       </c>
       <c r="D1944" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1944" t="s">
         <v>3282</v>
@@ -47637,7 +47643,7 @@
         <v>4010</v>
       </c>
       <c r="D1949" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1949" t="s">
         <v>3287</v>
@@ -47688,7 +47694,7 @@
         <v>4012</v>
       </c>
       <c r="D1952" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1952" t="s">
         <v>3289</v>
@@ -47705,7 +47711,7 @@
         <v>4013</v>
       </c>
       <c r="D1953" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1953" t="s">
         <v>3290</v>
@@ -47722,7 +47728,7 @@
         <v>4014</v>
       </c>
       <c r="D1954" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1954" t="s">
         <v>3291</v>
@@ -47739,7 +47745,7 @@
         <v>4015</v>
       </c>
       <c r="D1955" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1955" t="s">
         <v>3292</v>
@@ -47756,7 +47762,7 @@
         <v>3293</v>
       </c>
       <c r="D1956" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1956" t="s">
         <v>3293</v>
@@ -47773,7 +47779,7 @@
         <v>3294</v>
       </c>
       <c r="D1957" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1957" t="s">
         <v>3294</v>
@@ -47790,7 +47796,7 @@
         <v>3267</v>
       </c>
       <c r="D1958" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1958" t="s">
         <v>3295</v>
@@ -47807,7 +47813,7 @@
         <v>4016</v>
       </c>
       <c r="D1959" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1959" t="s">
         <v>3218</v>
@@ -47841,7 +47847,7 @@
         <v>3238</v>
       </c>
       <c r="D1961" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1961" t="s">
         <v>3297</v>
@@ -47875,7 +47881,7 @@
         <v>3283</v>
       </c>
       <c r="D1963" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1963" t="s">
         <v>3299</v>
@@ -47892,7 +47898,7 @@
         <v>4017</v>
       </c>
       <c r="D1964" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1964" t="s">
         <v>3300</v>
@@ -47909,7 +47915,7 @@
         <v>4018</v>
       </c>
       <c r="D1965" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1965" t="s">
         <v>3301</v>
@@ -47926,7 +47932,7 @@
         <v>3282</v>
       </c>
       <c r="D1966" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1966" t="s">
         <v>3302</v>
@@ -47943,7 +47949,7 @@
         <v>3826</v>
       </c>
       <c r="D1967" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1967" t="s">
         <v>3303</v>
@@ -48011,7 +48017,7 @@
         <v>4021</v>
       </c>
       <c r="D1971" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1971" t="s">
         <v>3307</v>
@@ -48028,7 +48034,7 @@
         <v>4022</v>
       </c>
       <c r="D1972" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1972" t="s">
         <v>3308</v>
@@ -48045,7 +48051,7 @@
         <v>3251</v>
       </c>
       <c r="D1973" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1973" t="s">
         <v>3309</v>
@@ -48079,7 +48085,7 @@
         <v>3283</v>
       </c>
       <c r="D1975" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1975" t="s">
         <v>3311</v>
@@ -48113,7 +48119,7 @@
         <v>4024</v>
       </c>
       <c r="D1977" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1977" t="s">
         <v>3313</v>
@@ -48181,7 +48187,7 @@
         <v>4027</v>
       </c>
       <c r="D1981" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1981" t="s">
         <v>3316</v>
@@ -48198,7 +48204,7 @@
         <v>3316</v>
       </c>
       <c r="D1982" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1982" t="s">
         <v>3276</v>
@@ -48215,7 +48221,7 @@
         <v>4028</v>
       </c>
       <c r="D1983" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1983" t="s">
         <v>3317</v>
@@ -48235,7 +48241,7 @@
         <v>3317</v>
       </c>
       <c r="E1984" t="s">
-        <v>4708</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48266,7 +48272,7 @@
         <v>4030</v>
       </c>
       <c r="D1986" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1986" t="s">
         <v>3320</v>
@@ -48283,7 +48289,7 @@
         <v>4031</v>
       </c>
       <c r="D1987" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1987" t="s">
         <v>3321</v>
@@ -48317,7 +48323,7 @@
         <v>3321</v>
       </c>
       <c r="D1989" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1989" t="s">
         <v>3322</v>
@@ -48334,7 +48340,7 @@
         <v>4032</v>
       </c>
       <c r="D1990" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1990" t="s">
         <v>3323</v>
@@ -48351,7 +48357,7 @@
         <v>4033</v>
       </c>
       <c r="D1991" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1991" t="s">
         <v>3324</v>
@@ -48368,7 +48374,7 @@
         <v>4034</v>
       </c>
       <c r="D1992" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1992" t="s">
         <v>3325</v>
@@ -48385,7 +48391,7 @@
         <v>3090</v>
       </c>
       <c r="D1993" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1993" t="s">
         <v>3326</v>
@@ -48402,7 +48408,7 @@
         <v>4035</v>
       </c>
       <c r="D1994" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1994" t="s">
         <v>3327</v>
@@ -48419,7 +48425,7 @@
         <v>4036</v>
       </c>
       <c r="D1995" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1995" t="s">
         <v>3328</v>
@@ -48436,7 +48442,7 @@
         <v>4037</v>
       </c>
       <c r="D1996" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1996" t="s">
         <v>3329</v>
@@ -48470,7 +48476,7 @@
         <v>4039</v>
       </c>
       <c r="D1998" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1998" t="s">
         <v>3331</v>
@@ -48589,7 +48595,7 @@
         <v>4044</v>
       </c>
       <c r="D2005" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E2005" t="s">
         <v>3338</v>
@@ -48606,7 +48612,7 @@
         <v>4045</v>
       </c>
       <c r="D2006" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E2006" t="s">
         <v>3339</v>
@@ -48623,7 +48629,7 @@
         <v>4046</v>
       </c>
       <c r="D2007" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E2007" t="s">
         <v>3340</v>
@@ -48640,10 +48646,10 @@
         <v>4047</v>
       </c>
       <c r="D2008" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E2008" t="s">
-        <v>4709</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48691,7 +48697,7 @@
         <v>4049</v>
       </c>
       <c r="D2011" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E2011" t="s">
         <v>3344</v>
@@ -48708,10 +48714,10 @@
         <v>4050</v>
       </c>
       <c r="D2012" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E2012" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48725,7 +48731,7 @@
         <v>4051</v>
       </c>
       <c r="D2013" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E2013" t="s">
         <v>3209</v>
@@ -48742,10 +48748,10 @@
         <v>4052</v>
       </c>
       <c r="D2014" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E2014" t="s">
-        <v>4710</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48759,7 +48765,7 @@
         <v>4053</v>
       </c>
       <c r="D2015" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E2015" t="s">
         <v>3347</v>
@@ -48827,7 +48833,7 @@
         <v>4055</v>
       </c>
       <c r="D2019" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E2019" t="s">
         <v>3351</v>
@@ -48844,10 +48850,10 @@
         <v>4056</v>
       </c>
       <c r="D2020" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E2020" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -48912,7 +48918,7 @@
         <v>4059</v>
       </c>
       <c r="D2024" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E2024" t="s">
         <v>3355</v>
@@ -48929,7 +48935,7 @@
         <v>4054</v>
       </c>
       <c r="D2025" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E2025" t="s">
         <v>3356</v>
@@ -48963,7 +48969,7 @@
         <v>4060</v>
       </c>
       <c r="D2027" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E2027" t="s">
         <v>3357</v>
@@ -48997,7 +49003,7 @@
         <v>3090</v>
       </c>
       <c r="D2029" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E2029" t="s">
         <v>3359</v>
@@ -49011,13 +49017,13 @@
         <v>3359</v>
       </c>
       <c r="C2030" t="s">
-        <v>3359</v>
+        <v>4062</v>
       </c>
       <c r="D2030" t="s">
-        <v>3359</v>
+        <v>4593</v>
       </c>
       <c r="E2030" t="s">
-        <v>3359</v>
+        <v>4571</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10150" uniqueCount="4713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10150" uniqueCount="4714">
   <si>
     <t>1. open</t>
   </si>
@@ -14153,6 +14153,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.86940</t>
   </si>
 </sst>
 </file>
@@ -49023,7 +49026,7 @@
         <v>4593</v>
       </c>
       <c r="E2030" t="s">
-        <v>4571</v>
+        <v>4713</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="4716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="4717">
   <si>
     <t>1. open</t>
   </si>
@@ -12212,6 +12212,9 @@
   </si>
   <si>
     <t>3.88090</t>
+  </si>
+  <si>
+    <t>3.85560</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14587,7 +14590,7 @@
         <v>2038</v>
       </c>
       <c r="D4" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="E4" t="s">
         <v>2039</v>
@@ -14842,7 +14845,7 @@
         <v>2051</v>
       </c>
       <c r="D19" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E19" t="s">
         <v>2052</v>
@@ -14859,7 +14862,7 @@
         <v>2052</v>
       </c>
       <c r="D20" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E20" t="s">
         <v>2053</v>
@@ -14961,7 +14964,7 @@
         <v>2057</v>
       </c>
       <c r="D26" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E26" t="s">
         <v>2057</v>
@@ -15012,7 +15015,7 @@
         <v>2059</v>
       </c>
       <c r="D29" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E29" t="s">
         <v>2059</v>
@@ -15063,7 +15066,7 @@
         <v>3369</v>
       </c>
       <c r="D32" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E32" t="s">
         <v>2060</v>
@@ -15165,7 +15168,7 @@
         <v>2065</v>
       </c>
       <c r="D38" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E38" t="s">
         <v>2066</v>
@@ -15267,7 +15270,7 @@
         <v>2071</v>
       </c>
       <c r="D44" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E44" t="s">
         <v>2072</v>
@@ -15284,7 +15287,7 @@
         <v>2072</v>
       </c>
       <c r="D45" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E45" t="s">
         <v>2069</v>
@@ -15301,7 +15304,7 @@
         <v>3372</v>
       </c>
       <c r="D46" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E46" t="s">
         <v>2073</v>
@@ -15352,7 +15355,7 @@
         <v>2074</v>
       </c>
       <c r="D49" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E49" t="s">
         <v>2075</v>
@@ -15369,7 +15372,7 @@
         <v>2076</v>
       </c>
       <c r="D50" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E50" t="s">
         <v>2076</v>
@@ -15403,7 +15406,7 @@
         <v>2078</v>
       </c>
       <c r="D52" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E52" t="s">
         <v>2078</v>
@@ -15420,7 +15423,7 @@
         <v>3373</v>
       </c>
       <c r="D53" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E53" t="s">
         <v>2079</v>
@@ -15437,7 +15440,7 @@
         <v>2078</v>
       </c>
       <c r="D54" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E54" t="s">
         <v>2080</v>
@@ -15590,7 +15593,7 @@
         <v>2089</v>
       </c>
       <c r="D63" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E63" t="s">
         <v>2089</v>
@@ -15760,7 +15763,7 @@
         <v>2096</v>
       </c>
       <c r="D73" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E73" t="s">
         <v>2097</v>
@@ -15862,7 +15865,7 @@
         <v>2101</v>
       </c>
       <c r="D79" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E79" t="s">
         <v>2099</v>
@@ -15879,7 +15882,7 @@
         <v>2099</v>
       </c>
       <c r="D80" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E80" t="s">
         <v>2102</v>
@@ -16168,7 +16171,7 @@
         <v>3384</v>
       </c>
       <c r="D97" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E97" t="s">
         <v>2103</v>
@@ -16661,10 +16664,10 @@
         <v>2139</v>
       </c>
       <c r="D126" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E126" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16746,7 +16749,7 @@
         <v>3399</v>
       </c>
       <c r="D131" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E131" t="s">
         <v>2144</v>
@@ -16865,7 +16868,7 @@
         <v>3398</v>
       </c>
       <c r="D138" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E138" t="s">
         <v>2150</v>
@@ -16899,7 +16902,7 @@
         <v>3399</v>
       </c>
       <c r="D140" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E140" t="s">
         <v>2132</v>
@@ -16916,7 +16919,7 @@
         <v>2151</v>
       </c>
       <c r="D141" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E141" t="s">
         <v>2151</v>
@@ -16933,7 +16936,7 @@
         <v>3404</v>
       </c>
       <c r="D142" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E142" t="s">
         <v>2138</v>
@@ -17018,7 +17021,7 @@
         <v>3390</v>
       </c>
       <c r="D147" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E147" t="s">
         <v>2155</v>
@@ -17324,7 +17327,7 @@
         <v>2169</v>
       </c>
       <c r="D165" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E165" t="s">
         <v>2170</v>
@@ -17562,10 +17565,10 @@
         <v>2180</v>
       </c>
       <c r="D179" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E179" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17701,7 +17704,7 @@
         <v>2187</v>
       </c>
       <c r="E187" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18123,7 +18126,7 @@
         <v>3422</v>
       </c>
       <c r="D212" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E212" t="s">
         <v>3422</v>
@@ -18157,7 +18160,7 @@
         <v>2210</v>
       </c>
       <c r="D214" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E214" t="s">
         <v>2210</v>
@@ -18446,10 +18449,10 @@
         <v>2226</v>
       </c>
       <c r="D231" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E231" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19792,7 +19795,7 @@
         <v>2291</v>
       </c>
       <c r="E310" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19891,7 +19894,7 @@
         <v>3457</v>
       </c>
       <c r="D316" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E316" t="s">
         <v>2298</v>
@@ -20129,7 +20132,7 @@
         <v>2307</v>
       </c>
       <c r="D330" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E330" t="s">
         <v>2308</v>
@@ -20146,7 +20149,7 @@
         <v>2308</v>
       </c>
       <c r="D331" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E331" t="s">
         <v>2309</v>
@@ -20231,7 +20234,7 @@
         <v>2312</v>
       </c>
       <c r="D336" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E336" t="s">
         <v>2313</v>
@@ -20486,7 +20489,7 @@
         <v>2474</v>
       </c>
       <c r="D351" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E351" t="s">
         <v>2259</v>
@@ -20503,7 +20506,7 @@
         <v>3437</v>
       </c>
       <c r="D352" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E352" t="s">
         <v>2325</v>
@@ -20707,10 +20710,10 @@
         <v>2335</v>
       </c>
       <c r="D364" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E364" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20724,7 +20727,7 @@
         <v>2381</v>
       </c>
       <c r="D365" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E365" t="s">
         <v>2336</v>
@@ -21472,7 +21475,7 @@
         <v>2370</v>
       </c>
       <c r="D409" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E409" t="s">
         <v>2370</v>
@@ -22033,7 +22036,7 @@
         <v>2392</v>
       </c>
       <c r="D442" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E442" t="s">
         <v>2393</v>
@@ -22220,7 +22223,7 @@
         <v>3478</v>
       </c>
       <c r="D453" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E453" t="s">
         <v>2354</v>
@@ -22492,7 +22495,7 @@
         <v>2414</v>
       </c>
       <c r="D469" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E469" t="s">
         <v>2415</v>
@@ -22560,7 +22563,7 @@
         <v>3483</v>
       </c>
       <c r="D473" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E473" t="s">
         <v>3442</v>
@@ -22747,7 +22750,7 @@
         <v>3437</v>
       </c>
       <c r="D484" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E484" t="s">
         <v>2426</v>
@@ -23512,7 +23515,7 @@
         <v>2454</v>
       </c>
       <c r="D529" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E529" t="s">
         <v>2455</v>
@@ -23648,7 +23651,7 @@
         <v>2457</v>
       </c>
       <c r="D537" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E537" t="s">
         <v>2461</v>
@@ -23699,7 +23702,7 @@
         <v>3491</v>
       </c>
       <c r="D540" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E540" t="s">
         <v>2464</v>
@@ -23716,7 +23719,7 @@
         <v>2316</v>
       </c>
       <c r="D541" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E541" t="s">
         <v>2434</v>
@@ -23767,7 +23770,7 @@
         <v>3492</v>
       </c>
       <c r="D544" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E544" t="s">
         <v>2467</v>
@@ -23784,7 +23787,7 @@
         <v>3493</v>
       </c>
       <c r="D545" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E545" t="s">
         <v>2468</v>
@@ -23801,7 +23804,7 @@
         <v>2432</v>
       </c>
       <c r="D546" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E546" t="s">
         <v>2322</v>
@@ -23852,7 +23855,7 @@
         <v>2447</v>
       </c>
       <c r="D549" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E549" t="s">
         <v>2469</v>
@@ -23886,7 +23889,7 @@
         <v>2256</v>
       </c>
       <c r="D551" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E551" t="s">
         <v>2470</v>
@@ -23988,7 +23991,7 @@
         <v>2420</v>
       </c>
       <c r="D557" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E557" t="s">
         <v>2475</v>
@@ -24022,7 +24025,7 @@
         <v>2901</v>
       </c>
       <c r="D559" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E559" t="s">
         <v>2476</v>
@@ -24039,7 +24042,7 @@
         <v>2476</v>
       </c>
       <c r="D560" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E560" t="s">
         <v>2406</v>
@@ -24073,7 +24076,7 @@
         <v>3499</v>
       </c>
       <c r="D562" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E562" t="s">
         <v>2477</v>
@@ -24107,10 +24110,10 @@
         <v>2317</v>
       </c>
       <c r="D564" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E564" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24158,7 +24161,7 @@
         <v>3500</v>
       </c>
       <c r="D567" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E567" t="s">
         <v>2481</v>
@@ -24226,7 +24229,7 @@
         <v>3501</v>
       </c>
       <c r="D571" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E571" t="s">
         <v>2485</v>
@@ -24277,7 +24280,7 @@
         <v>2379</v>
       </c>
       <c r="D574" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E574" t="s">
         <v>2237</v>
@@ -24311,7 +24314,7 @@
         <v>3502</v>
       </c>
       <c r="D576" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E576" t="s">
         <v>2489</v>
@@ -24328,7 +24331,7 @@
         <v>2789</v>
       </c>
       <c r="D577" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E577" t="s">
         <v>2490</v>
@@ -24345,7 +24348,7 @@
         <v>2786</v>
       </c>
       <c r="D578" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E578" t="s">
         <v>2491</v>
@@ -24379,7 +24382,7 @@
         <v>2492</v>
       </c>
       <c r="D580" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E580" t="s">
         <v>2493</v>
@@ -24447,7 +24450,7 @@
         <v>2336</v>
       </c>
       <c r="D584" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E584" t="s">
         <v>2497</v>
@@ -24532,7 +24535,7 @@
         <v>2234</v>
       </c>
       <c r="D589" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E589" t="s">
         <v>2500</v>
@@ -24583,7 +24586,7 @@
         <v>2582</v>
       </c>
       <c r="D592" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E592" t="s">
         <v>2502</v>
@@ -24804,10 +24807,10 @@
         <v>2539</v>
       </c>
       <c r="D605" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E605" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24855,7 +24858,7 @@
         <v>2495</v>
       </c>
       <c r="D608" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E608" t="s">
         <v>2509</v>
@@ -24957,7 +24960,7 @@
         <v>3509</v>
       </c>
       <c r="D614" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E614" t="s">
         <v>2514</v>
@@ -25198,7 +25201,7 @@
         <v>2500</v>
       </c>
       <c r="E628" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25263,7 +25266,7 @@
         <v>2233</v>
       </c>
       <c r="D632" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E632" t="s">
         <v>2522</v>
@@ -25538,7 +25541,7 @@
         <v>2508</v>
       </c>
       <c r="E648" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25671,7 +25674,7 @@
         <v>2507</v>
       </c>
       <c r="D656" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E656" t="s">
         <v>2381</v>
@@ -25722,7 +25725,7 @@
         <v>2528</v>
       </c>
       <c r="D659" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E659" t="s">
         <v>2541</v>
@@ -25858,7 +25861,7 @@
         <v>2528</v>
       </c>
       <c r="D667" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E667" t="s">
         <v>2537</v>
@@ -25943,7 +25946,7 @@
         <v>3505</v>
       </c>
       <c r="D672" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E672" t="s">
         <v>2493</v>
@@ -25963,7 +25966,7 @@
         <v>2336</v>
       </c>
       <c r="E673" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -25994,7 +25997,7 @@
         <v>2688</v>
       </c>
       <c r="D675" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E675" t="s">
         <v>2545</v>
@@ -26164,7 +26167,7 @@
         <v>2197</v>
       </c>
       <c r="D685" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E685" t="s">
         <v>2520</v>
@@ -26351,7 +26354,7 @@
         <v>3515</v>
       </c>
       <c r="D696" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E696" t="s">
         <v>2555</v>
@@ -26759,7 +26762,7 @@
         <v>2500</v>
       </c>
       <c r="D720" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E720" t="s">
         <v>2500</v>
@@ -26776,7 +26779,7 @@
         <v>2500</v>
       </c>
       <c r="D721" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E721" t="s">
         <v>2560</v>
@@ -26793,7 +26796,7 @@
         <v>2500</v>
       </c>
       <c r="D722" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E722" t="s">
         <v>2570</v>
@@ -26895,7 +26898,7 @@
         <v>2526</v>
       </c>
       <c r="D728" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E728" t="s">
         <v>2574</v>
@@ -26912,7 +26915,7 @@
         <v>2570</v>
       </c>
       <c r="D729" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E729" t="s">
         <v>2569</v>
@@ -26946,7 +26949,7 @@
         <v>2569</v>
       </c>
       <c r="D731" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E731" t="s">
         <v>2576</v>
@@ -26980,7 +26983,7 @@
         <v>2599</v>
       </c>
       <c r="D733" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E733" t="s">
         <v>2578</v>
@@ -27116,7 +27119,7 @@
         <v>2555</v>
       </c>
       <c r="D741" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E741" t="s">
         <v>2581</v>
@@ -27184,7 +27187,7 @@
         <v>2688</v>
       </c>
       <c r="D745" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E745" t="s">
         <v>2583</v>
@@ -27337,7 +27340,7 @@
         <v>2539</v>
       </c>
       <c r="D754" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E754" t="s">
         <v>2582</v>
@@ -27473,7 +27476,7 @@
         <v>2525</v>
       </c>
       <c r="D762" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E762" t="s">
         <v>2594</v>
@@ -27490,7 +27493,7 @@
         <v>2233</v>
       </c>
       <c r="D763" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E763" t="s">
         <v>2595</v>
@@ -27507,7 +27510,7 @@
         <v>2203</v>
       </c>
       <c r="D764" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E764" t="s">
         <v>2596</v>
@@ -27558,7 +27561,7 @@
         <v>2196</v>
       </c>
       <c r="D767" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E767" t="s">
         <v>2590</v>
@@ -27592,7 +27595,7 @@
         <v>2541</v>
       </c>
       <c r="D769" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E769" t="s">
         <v>2236</v>
@@ -27694,7 +27697,7 @@
         <v>2502</v>
       </c>
       <c r="D775" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E775" t="s">
         <v>2597</v>
@@ -27711,7 +27714,7 @@
         <v>2204</v>
       </c>
       <c r="D776" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E776" t="s">
         <v>2509</v>
@@ -27847,10 +27850,10 @@
         <v>2233</v>
       </c>
       <c r="D784" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E784" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27864,7 +27867,7 @@
         <v>2517</v>
       </c>
       <c r="D785" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E785" t="s">
         <v>2570</v>
@@ -27915,10 +27918,10 @@
         <v>2517</v>
       </c>
       <c r="D788" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E788" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28153,10 +28156,10 @@
         <v>2805</v>
       </c>
       <c r="D802" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E802" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28272,7 +28275,7 @@
         <v>2233</v>
       </c>
       <c r="D809" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E809" t="s">
         <v>2500</v>
@@ -28374,7 +28377,7 @@
         <v>3530</v>
       </c>
       <c r="D815" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E815" t="s">
         <v>2617</v>
@@ -28391,7 +28394,7 @@
         <v>2644</v>
       </c>
       <c r="D816" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E816" t="s">
         <v>2224</v>
@@ -28595,7 +28598,7 @@
         <v>3531</v>
       </c>
       <c r="D828" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E828" t="s">
         <v>2627</v>
@@ -28629,7 +28632,7 @@
         <v>2644</v>
       </c>
       <c r="D830" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E830" t="s">
         <v>2225</v>
@@ -28663,7 +28666,7 @@
         <v>3531</v>
       </c>
       <c r="D832" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E832" t="s">
         <v>2629</v>
@@ -28714,7 +28717,7 @@
         <v>3422</v>
       </c>
       <c r="D835" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E835" t="s">
         <v>2631</v>
@@ -28748,7 +28751,7 @@
         <v>2560</v>
       </c>
       <c r="D837" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E837" t="s">
         <v>2560</v>
@@ -28799,7 +28802,7 @@
         <v>3534</v>
       </c>
       <c r="D840" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E840" t="s">
         <v>2503</v>
@@ -28819,7 +28822,7 @@
         <v>2550</v>
       </c>
       <c r="E841" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29156,7 +29159,7 @@
         <v>2235</v>
       </c>
       <c r="D861" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E861" t="s">
         <v>2641</v>
@@ -29326,7 +29329,7 @@
         <v>2204</v>
       </c>
       <c r="D871" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E871" t="s">
         <v>2229</v>
@@ -29360,7 +29363,7 @@
         <v>3538</v>
       </c>
       <c r="D873" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E873" t="s">
         <v>2645</v>
@@ -29479,7 +29482,7 @@
         <v>3542</v>
       </c>
       <c r="D880" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E880" t="s">
         <v>2650</v>
@@ -29547,7 +29550,7 @@
         <v>2523</v>
       </c>
       <c r="D884" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E884" t="s">
         <v>2615</v>
@@ -29717,7 +29720,7 @@
         <v>2234</v>
       </c>
       <c r="D894" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E894" t="s">
         <v>2659</v>
@@ -29836,7 +29839,7 @@
         <v>3471</v>
       </c>
       <c r="D901" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E901" t="s">
         <v>2663</v>
@@ -29904,7 +29907,7 @@
         <v>2505</v>
       </c>
       <c r="D905" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E905" t="s">
         <v>2667</v>
@@ -30057,7 +30060,7 @@
         <v>2679</v>
       </c>
       <c r="D914" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E914" t="s">
         <v>2503</v>
@@ -30261,7 +30264,7 @@
         <v>2336</v>
       </c>
       <c r="D926" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E926" t="s">
         <v>2675</v>
@@ -30346,7 +30349,7 @@
         <v>2490</v>
       </c>
       <c r="D931" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E931" t="s">
         <v>2679</v>
@@ -30431,7 +30434,7 @@
         <v>3505</v>
       </c>
       <c r="D936" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E936" t="s">
         <v>2337</v>
@@ -30516,7 +30519,7 @@
         <v>2825</v>
       </c>
       <c r="D941" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E941" t="s">
         <v>2684</v>
@@ -30618,7 +30621,7 @@
         <v>2665</v>
       </c>
       <c r="D947" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E947" t="s">
         <v>2379</v>
@@ -30635,7 +30638,7 @@
         <v>3550</v>
       </c>
       <c r="D948" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E948" t="s">
         <v>2686</v>
@@ -30703,7 +30706,7 @@
         <v>2380</v>
       </c>
       <c r="D952" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E952" t="s">
         <v>2687</v>
@@ -30958,7 +30961,7 @@
         <v>2531</v>
       </c>
       <c r="D967" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E967" t="s">
         <v>2493</v>
@@ -31043,7 +31046,7 @@
         <v>2685</v>
       </c>
       <c r="D972" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E972" t="s">
         <v>2694</v>
@@ -31094,7 +31097,7 @@
         <v>2247</v>
       </c>
       <c r="D975" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E975" t="s">
         <v>2374</v>
@@ -31128,7 +31131,7 @@
         <v>2808</v>
       </c>
       <c r="D977" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E977" t="s">
         <v>2696</v>
@@ -31485,7 +31488,7 @@
         <v>2349</v>
       </c>
       <c r="D998" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E998" t="s">
         <v>2710</v>
@@ -31502,7 +31505,7 @@
         <v>3559</v>
       </c>
       <c r="D999" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E999" t="s">
         <v>2711</v>
@@ -31587,7 +31590,7 @@
         <v>2354</v>
       </c>
       <c r="D1004" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E1004" t="s">
         <v>2402</v>
@@ -31757,7 +31760,7 @@
         <v>2816</v>
       </c>
       <c r="D1014" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1014" t="s">
         <v>2404</v>
@@ -31774,7 +31777,7 @@
         <v>2816</v>
       </c>
       <c r="D1015" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1015" t="s">
         <v>2404</v>
@@ -31808,7 +31811,7 @@
         <v>2837</v>
       </c>
       <c r="D1017" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1017" t="s">
         <v>2708</v>
@@ -31876,7 +31879,7 @@
         <v>2370</v>
       </c>
       <c r="D1021" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1021" t="s">
         <v>2722</v>
@@ -31893,7 +31896,7 @@
         <v>2370</v>
       </c>
       <c r="D1022" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1022" t="s">
         <v>2723</v>
@@ -31961,7 +31964,7 @@
         <v>2839</v>
       </c>
       <c r="D1026" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1026" t="s">
         <v>2726</v>
@@ -32063,7 +32066,7 @@
         <v>2325</v>
       </c>
       <c r="D1032" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1032" t="s">
         <v>2731</v>
@@ -32114,7 +32117,7 @@
         <v>3499</v>
       </c>
       <c r="D1035" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E1035" t="s">
         <v>2263</v>
@@ -32216,7 +32219,7 @@
         <v>2429</v>
       </c>
       <c r="D1041" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1041" t="s">
         <v>2739</v>
@@ -32318,7 +32321,7 @@
         <v>2738</v>
       </c>
       <c r="D1047" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1047" t="s">
         <v>2742</v>
@@ -32389,7 +32392,7 @@
         <v>2254</v>
       </c>
       <c r="E1051" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32644,7 +32647,7 @@
         <v>2753</v>
       </c>
       <c r="E1066" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32726,7 +32729,7 @@
         <v>3561</v>
       </c>
       <c r="D1071" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1071" t="s">
         <v>2328</v>
@@ -32947,7 +32950,7 @@
         <v>2370</v>
       </c>
       <c r="D1084" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1084" t="s">
         <v>2764</v>
@@ -32981,7 +32984,7 @@
         <v>2389</v>
       </c>
       <c r="D1086" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1086" t="s">
         <v>2247</v>
@@ -33015,7 +33018,7 @@
         <v>2837</v>
       </c>
       <c r="D1088" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1088" t="s">
         <v>2766</v>
@@ -33032,7 +33035,7 @@
         <v>2815</v>
       </c>
       <c r="D1089" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1089" t="s">
         <v>2767</v>
@@ -33100,7 +33103,7 @@
         <v>2729</v>
       </c>
       <c r="D1093" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1093" t="s">
         <v>2769</v>
@@ -33185,10 +33188,10 @@
         <v>2780</v>
       </c>
       <c r="D1098" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1098" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33202,10 +33205,10 @@
         <v>2318</v>
       </c>
       <c r="D1099" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1099" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33236,7 +33239,7 @@
         <v>2838</v>
       </c>
       <c r="D1101" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1101" t="s">
         <v>2782</v>
@@ -33253,7 +33256,7 @@
         <v>2780</v>
       </c>
       <c r="D1102" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1102" t="s">
         <v>2777</v>
@@ -33406,7 +33409,7 @@
         <v>2782</v>
       </c>
       <c r="D1111" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1111" t="s">
         <v>2783</v>
@@ -33440,7 +33443,7 @@
         <v>3563</v>
       </c>
       <c r="D1113" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1113" t="s">
         <v>2784</v>
@@ -33457,7 +33460,7 @@
         <v>3564</v>
       </c>
       <c r="D1114" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1114" t="s">
         <v>2712</v>
@@ -33474,7 +33477,7 @@
         <v>3565</v>
       </c>
       <c r="D1115" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1115" t="s">
         <v>2784</v>
@@ -33491,7 +33494,7 @@
         <v>3566</v>
       </c>
       <c r="D1116" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1116" t="s">
         <v>2785</v>
@@ -33610,7 +33613,7 @@
         <v>2349</v>
       </c>
       <c r="D1123" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E1123" t="s">
         <v>2788</v>
@@ -33644,7 +33647,7 @@
         <v>3569</v>
       </c>
       <c r="D1125" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1125" t="s">
         <v>2789</v>
@@ -33678,7 +33681,7 @@
         <v>2702</v>
       </c>
       <c r="D1127" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E1127" t="s">
         <v>2505</v>
@@ -33814,7 +33817,7 @@
         <v>2774</v>
       </c>
       <c r="D1135" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1135" t="s">
         <v>2795</v>
@@ -33848,7 +33851,7 @@
         <v>2855</v>
       </c>
       <c r="D1137" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1137" t="s">
         <v>2696</v>
@@ -33899,7 +33902,7 @@
         <v>3574</v>
       </c>
       <c r="D1140" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1140" t="s">
         <v>2798</v>
@@ -33916,7 +33919,7 @@
         <v>3500</v>
       </c>
       <c r="D1141" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1141" t="s">
         <v>3556</v>
@@ -33933,7 +33936,7 @@
         <v>2798</v>
       </c>
       <c r="D1142" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1142" t="s">
         <v>2799</v>
@@ -34001,7 +34004,7 @@
         <v>2345</v>
       </c>
       <c r="D1146" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1146" t="s">
         <v>2801</v>
@@ -34052,7 +34055,7 @@
         <v>3500</v>
       </c>
       <c r="D1149" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1149" t="s">
         <v>2801</v>
@@ -34103,7 +34106,7 @@
         <v>3559</v>
       </c>
       <c r="D1152" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1152" t="s">
         <v>2804</v>
@@ -34171,7 +34174,7 @@
         <v>2780</v>
       </c>
       <c r="D1156" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1156" t="s">
         <v>2772</v>
@@ -34188,7 +34191,7 @@
         <v>2772</v>
       </c>
       <c r="D1157" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1157" t="s">
         <v>2246</v>
@@ -34205,7 +34208,7 @@
         <v>2246</v>
       </c>
       <c r="D1158" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1158" t="s">
         <v>2783</v>
@@ -34222,7 +34225,7 @@
         <v>2783</v>
       </c>
       <c r="D1159" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1159" t="s">
         <v>2805</v>
@@ -34239,7 +34242,7 @@
         <v>2808</v>
       </c>
       <c r="D1160" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1160" t="s">
         <v>2243</v>
@@ -34256,7 +34259,7 @@
         <v>2243</v>
       </c>
       <c r="D1161" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1161" t="s">
         <v>2805</v>
@@ -34273,7 +34276,7 @@
         <v>3563</v>
       </c>
       <c r="D1162" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1162" t="s">
         <v>2349</v>
@@ -34307,7 +34310,7 @@
         <v>2243</v>
       </c>
       <c r="D1164" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1164" t="s">
         <v>2367</v>
@@ -34358,7 +34361,7 @@
         <v>2370</v>
       </c>
       <c r="D1167" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1167" t="s">
         <v>2807</v>
@@ -34409,7 +34412,7 @@
         <v>3578</v>
       </c>
       <c r="D1170" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1170" t="s">
         <v>2479</v>
@@ -34426,7 +34429,7 @@
         <v>2719</v>
       </c>
       <c r="D1171" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1171" t="s">
         <v>2763</v>
@@ -34443,7 +34446,7 @@
         <v>2814</v>
       </c>
       <c r="D1172" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1172" t="s">
         <v>2809</v>
@@ -34460,7 +34463,7 @@
         <v>3579</v>
       </c>
       <c r="D1173" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1173" t="s">
         <v>2810</v>
@@ -34579,7 +34582,7 @@
         <v>2255</v>
       </c>
       <c r="D1180" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1180" t="s">
         <v>2813</v>
@@ -34698,7 +34701,7 @@
         <v>2779</v>
       </c>
       <c r="D1187" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1187" t="s">
         <v>2719</v>
@@ -34732,7 +34735,7 @@
         <v>3583</v>
       </c>
       <c r="D1189" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1189" t="s">
         <v>2722</v>
@@ -34749,7 +34752,7 @@
         <v>2370</v>
       </c>
       <c r="D1190" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1190" t="s">
         <v>2816</v>
@@ -34800,7 +34803,7 @@
         <v>2818</v>
       </c>
       <c r="D1193" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1193" t="s">
         <v>2724</v>
@@ -34834,7 +34837,7 @@
         <v>2819</v>
       </c>
       <c r="D1195" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1195" t="s">
         <v>2245</v>
@@ -34851,7 +34854,7 @@
         <v>2374</v>
       </c>
       <c r="D1196" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1196" t="s">
         <v>2703</v>
@@ -34868,7 +34871,7 @@
         <v>2805</v>
       </c>
       <c r="D1197" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1197" t="s">
         <v>2821</v>
@@ -34919,7 +34922,7 @@
         <v>2822</v>
       </c>
       <c r="D1200" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1200" t="s">
         <v>2506</v>
@@ -34936,7 +34939,7 @@
         <v>2714</v>
       </c>
       <c r="D1201" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1201" t="s">
         <v>2665</v>
@@ -34953,7 +34956,7 @@
         <v>2201</v>
       </c>
       <c r="D1202" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1202" t="s">
         <v>2485</v>
@@ -35055,7 +35058,7 @@
         <v>2794</v>
       </c>
       <c r="D1208" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1208" t="s">
         <v>2803</v>
@@ -35072,7 +35075,7 @@
         <v>2712</v>
       </c>
       <c r="D1209" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1209" t="s">
         <v>2825</v>
@@ -35089,7 +35092,7 @@
         <v>2492</v>
       </c>
       <c r="D1210" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1210" t="s">
         <v>2826</v>
@@ -35140,7 +35143,7 @@
         <v>3434</v>
       </c>
       <c r="D1213" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1213" t="s">
         <v>2827</v>
@@ -35157,7 +35160,7 @@
         <v>3434</v>
       </c>
       <c r="D1214" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1214" t="s">
         <v>3434</v>
@@ -35174,7 +35177,7 @@
         <v>2485</v>
       </c>
       <c r="D1215" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1215" t="s">
         <v>2826</v>
@@ -35191,7 +35194,7 @@
         <v>2492</v>
       </c>
       <c r="D1216" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1216" t="s">
         <v>2240</v>
@@ -35242,7 +35245,7 @@
         <v>2505</v>
       </c>
       <c r="D1219" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1219" t="s">
         <v>2483</v>
@@ -35276,10 +35279,10 @@
         <v>2786</v>
       </c>
       <c r="D1221" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1221" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35293,7 +35296,7 @@
         <v>3500</v>
       </c>
       <c r="D1222" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1222" t="s">
         <v>2345</v>
@@ -35463,7 +35466,7 @@
         <v>2832</v>
       </c>
       <c r="D1232" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1232" t="s">
         <v>2738</v>
@@ -35480,7 +35483,7 @@
         <v>2420</v>
       </c>
       <c r="D1233" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1233" t="s">
         <v>2420</v>
@@ -35531,7 +35534,7 @@
         <v>2467</v>
       </c>
       <c r="D1236" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E1236" t="s">
         <v>2736</v>
@@ -35565,7 +35568,7 @@
         <v>2833</v>
       </c>
       <c r="D1238" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1238" t="s">
         <v>2429</v>
@@ -35582,7 +35585,7 @@
         <v>2429</v>
       </c>
       <c r="D1239" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1239" t="s">
         <v>2254</v>
@@ -35616,7 +35619,7 @@
         <v>3588</v>
       </c>
       <c r="D1241" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1241" t="s">
         <v>2742</v>
@@ -35684,7 +35687,7 @@
         <v>2274</v>
       </c>
       <c r="D1245" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1245" t="s">
         <v>2432</v>
@@ -35769,7 +35772,7 @@
         <v>2736</v>
       </c>
       <c r="D1250" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1250" t="s">
         <v>2444</v>
@@ -35820,7 +35823,7 @@
         <v>2409</v>
       </c>
       <c r="D1253" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1253" t="s">
         <v>2811</v>
@@ -35854,7 +35857,7 @@
         <v>2837</v>
       </c>
       <c r="D1255" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1255" t="s">
         <v>2838</v>
@@ -35871,7 +35874,7 @@
         <v>3435</v>
       </c>
       <c r="D1256" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1256" t="s">
         <v>2782</v>
@@ -36092,7 +36095,7 @@
         <v>3596</v>
       </c>
       <c r="D1269" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1269" t="s">
         <v>2843</v>
@@ -36109,7 +36112,7 @@
         <v>2843</v>
       </c>
       <c r="D1270" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1270" t="s">
         <v>2735</v>
@@ -36126,7 +36129,7 @@
         <v>3597</v>
       </c>
       <c r="D1271" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1271" t="s">
         <v>2474</v>
@@ -36211,7 +36214,7 @@
         <v>2255</v>
       </c>
       <c r="D1276" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1276" t="s">
         <v>2841</v>
@@ -36228,7 +36231,7 @@
         <v>2900</v>
       </c>
       <c r="D1277" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E1277" t="s">
         <v>2325</v>
@@ -36415,7 +36418,7 @@
         <v>2760</v>
       </c>
       <c r="D1288" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1288" t="s">
         <v>2845</v>
@@ -36636,7 +36639,7 @@
         <v>2847</v>
       </c>
       <c r="D1301" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1301" t="s">
         <v>2260</v>
@@ -36653,7 +36656,7 @@
         <v>3599</v>
       </c>
       <c r="D1302" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1302" t="s">
         <v>2262</v>
@@ -36755,7 +36758,7 @@
         <v>2903</v>
       </c>
       <c r="D1308" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1308" t="s">
         <v>2740</v>
@@ -36806,7 +36809,7 @@
         <v>3606</v>
       </c>
       <c r="D1311" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1311" t="s">
         <v>2848</v>
@@ -36823,7 +36826,7 @@
         <v>3606</v>
       </c>
       <c r="D1312" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1312" t="s">
         <v>2468</v>
@@ -36840,7 +36843,7 @@
         <v>2901</v>
       </c>
       <c r="D1313" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1313" t="s">
         <v>2428</v>
@@ -36874,7 +36877,7 @@
         <v>2322</v>
       </c>
       <c r="D1315" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1315" t="s">
         <v>2320</v>
@@ -36976,7 +36979,7 @@
         <v>3610</v>
       </c>
       <c r="D1321" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1321" t="s">
         <v>2851</v>
@@ -36993,7 +36996,7 @@
         <v>3611</v>
       </c>
       <c r="D1322" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1322" t="s">
         <v>2852</v>
@@ -37027,7 +37030,7 @@
         <v>3612</v>
       </c>
       <c r="D1324" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1324" t="s">
         <v>2359</v>
@@ -37044,7 +37047,7 @@
         <v>3613</v>
       </c>
       <c r="D1325" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1325" t="s">
         <v>2708</v>
@@ -37061,7 +37064,7 @@
         <v>3614</v>
       </c>
       <c r="D1326" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1326" t="s">
         <v>2365</v>
@@ -37078,7 +37081,7 @@
         <v>3615</v>
       </c>
       <c r="D1327" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1327" t="s">
         <v>2247</v>
@@ -37129,7 +37132,7 @@
         <v>3616</v>
       </c>
       <c r="D1330" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1330" t="s">
         <v>2375</v>
@@ -37163,7 +37166,7 @@
         <v>3617</v>
       </c>
       <c r="D1332" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1332" t="s">
         <v>2479</v>
@@ -37180,7 +37183,7 @@
         <v>3568</v>
       </c>
       <c r="D1333" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1333" t="s">
         <v>2781</v>
@@ -37282,7 +37285,7 @@
         <v>2772</v>
       </c>
       <c r="D1339" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1339" t="s">
         <v>2365</v>
@@ -37302,7 +37305,7 @@
         <v>2709</v>
       </c>
       <c r="E1340" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37316,7 +37319,7 @@
         <v>3620</v>
       </c>
       <c r="D1341" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1341" t="s">
         <v>2719</v>
@@ -37367,7 +37370,7 @@
         <v>2318</v>
       </c>
       <c r="D1344" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1344" t="s">
         <v>2350</v>
@@ -37384,7 +37387,7 @@
         <v>3621</v>
       </c>
       <c r="D1345" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1345" t="s">
         <v>2389</v>
@@ -37401,7 +37404,7 @@
         <v>3616</v>
       </c>
       <c r="D1346" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1346" t="s">
         <v>2774</v>
@@ -37435,7 +37438,7 @@
         <v>2782</v>
       </c>
       <c r="D1348" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1348" t="s">
         <v>2796</v>
@@ -37452,7 +37455,7 @@
         <v>2795</v>
       </c>
       <c r="D1349" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1349" t="s">
         <v>2854</v>
@@ -37469,7 +37472,7 @@
         <v>3615</v>
       </c>
       <c r="D1350" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1350" t="s">
         <v>2855</v>
@@ -37588,7 +37591,7 @@
         <v>2740</v>
       </c>
       <c r="D1357" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1357" t="s">
         <v>2856</v>
@@ -37622,7 +37625,7 @@
         <v>2268</v>
       </c>
       <c r="D1359" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1359" t="s">
         <v>2858</v>
@@ -37826,7 +37829,7 @@
         <v>3609</v>
       </c>
       <c r="D1371" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1371" t="s">
         <v>2463</v>
@@ -37894,7 +37897,7 @@
         <v>3626</v>
       </c>
       <c r="D1375" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1375" t="s">
         <v>2865</v>
@@ -37928,7 +37931,7 @@
         <v>3628</v>
       </c>
       <c r="D1377" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1377" t="s">
         <v>2867</v>
@@ -37945,10 +37948,10 @@
         <v>3629</v>
       </c>
       <c r="D1378" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1378" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37962,10 +37965,10 @@
         <v>2919</v>
       </c>
       <c r="D1379" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1379" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37979,7 +37982,7 @@
         <v>3630</v>
       </c>
       <c r="D1380" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1380" t="s">
         <v>3627</v>
@@ -38030,10 +38033,10 @@
         <v>3633</v>
       </c>
       <c r="D1383" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1383" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38047,10 +38050,10 @@
         <v>3634</v>
       </c>
       <c r="D1384" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1384" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38064,10 +38067,10 @@
         <v>3635</v>
       </c>
       <c r="D1385" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1385" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38081,7 +38084,7 @@
         <v>3636</v>
       </c>
       <c r="D1386" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1386" t="s">
         <v>2876</v>
@@ -38098,10 +38101,10 @@
         <v>3637</v>
       </c>
       <c r="D1387" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1387" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38118,7 +38121,7 @@
         <v>2308</v>
       </c>
       <c r="E1388" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38132,10 +38135,10 @@
         <v>3639</v>
       </c>
       <c r="D1389" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1389" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38149,10 +38152,10 @@
         <v>3024</v>
       </c>
       <c r="D1390" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1390" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38166,7 +38169,7 @@
         <v>3637</v>
       </c>
       <c r="D1391" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1391" t="s">
         <v>2881</v>
@@ -38186,7 +38189,7 @@
         <v>2302</v>
       </c>
       <c r="E1392" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38203,7 +38206,7 @@
         <v>3458</v>
       </c>
       <c r="E1393" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38217,10 +38220,10 @@
         <v>2954</v>
       </c>
       <c r="D1394" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1394" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38237,7 +38240,7 @@
         <v>2736</v>
       </c>
       <c r="E1395" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38251,7 +38254,7 @@
         <v>3642</v>
       </c>
       <c r="D1396" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1396" t="s">
         <v>2864</v>
@@ -38288,7 +38291,7 @@
         <v>2279</v>
       </c>
       <c r="E1398" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38302,10 +38305,10 @@
         <v>3644</v>
       </c>
       <c r="D1399" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1399" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38336,7 +38339,7 @@
         <v>3645</v>
       </c>
       <c r="D1401" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1401" t="s">
         <v>2890</v>
@@ -38370,7 +38373,7 @@
         <v>2891</v>
       </c>
       <c r="D1403" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1403" t="s">
         <v>3592</v>
@@ -38438,10 +38441,10 @@
         <v>3647</v>
       </c>
       <c r="D1407" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1407" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38472,10 +38475,10 @@
         <v>3649</v>
       </c>
       <c r="D1409" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1409" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38540,7 +38543,7 @@
         <v>3652</v>
       </c>
       <c r="D1413" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1413" t="s">
         <v>2899</v>
@@ -38560,7 +38563,7 @@
         <v>2840</v>
       </c>
       <c r="E1414" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38577,7 +38580,7 @@
         <v>2837</v>
       </c>
       <c r="E1415" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38591,7 +38594,7 @@
         <v>2418</v>
       </c>
       <c r="D1416" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1416" t="s">
         <v>2901</v>
@@ -38611,7 +38614,7 @@
         <v>2420</v>
       </c>
       <c r="E1417" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38625,10 +38628,10 @@
         <v>2466</v>
       </c>
       <c r="D1418" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1418" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38645,7 +38648,7 @@
         <v>2473</v>
       </c>
       <c r="E1419" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38696,7 +38699,7 @@
         <v>2905</v>
       </c>
       <c r="E1422" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38710,7 +38713,7 @@
         <v>3609</v>
       </c>
       <c r="D1423" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1423" t="s">
         <v>2334</v>
@@ -38730,7 +38733,7 @@
         <v>2463</v>
       </c>
       <c r="E1424" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38781,7 +38784,7 @@
         <v>3485</v>
       </c>
       <c r="E1427" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38812,7 +38815,7 @@
         <v>3656</v>
       </c>
       <c r="D1429" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1429" t="s">
         <v>2912</v>
@@ -38829,10 +38832,10 @@
         <v>3657</v>
       </c>
       <c r="D1430" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1430" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38863,7 +38866,7 @@
         <v>2914</v>
       </c>
       <c r="D1432" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1432" t="s">
         <v>2280</v>
@@ -38948,7 +38951,7 @@
         <v>3660</v>
       </c>
       <c r="D1437" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1437" t="s">
         <v>2918</v>
@@ -38965,7 +38968,7 @@
         <v>3661</v>
       </c>
       <c r="D1438" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1438" t="s">
         <v>2919</v>
@@ -38999,7 +39002,7 @@
         <v>3663</v>
       </c>
       <c r="D1440" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1440" t="s">
         <v>2921</v>
@@ -39033,7 +39036,7 @@
         <v>3664</v>
       </c>
       <c r="D1442" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1442" t="s">
         <v>2923</v>
@@ -39050,7 +39053,7 @@
         <v>2923</v>
       </c>
       <c r="D1443" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1443" t="s">
         <v>2924</v>
@@ -39067,7 +39070,7 @@
         <v>2435</v>
       </c>
       <c r="D1444" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1444" t="s">
         <v>2898</v>
@@ -39084,7 +39087,7 @@
         <v>3445</v>
       </c>
       <c r="D1445" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1445" t="s">
         <v>2925</v>
@@ -39118,10 +39121,10 @@
         <v>3666</v>
       </c>
       <c r="D1447" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1447" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39135,10 +39138,10 @@
         <v>3667</v>
       </c>
       <c r="D1448" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1448" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39152,7 +39155,7 @@
         <v>3668</v>
       </c>
       <c r="D1449" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1449" t="s">
         <v>2280</v>
@@ -39172,7 +39175,7 @@
         <v>2928</v>
       </c>
       <c r="E1450" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39220,10 +39223,10 @@
         <v>3672</v>
       </c>
       <c r="D1453" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1453" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39237,10 +39240,10 @@
         <v>3673</v>
       </c>
       <c r="D1454" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1454" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39254,7 +39257,7 @@
         <v>3674</v>
       </c>
       <c r="D1455" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1455" t="s">
         <v>3674</v>
@@ -39288,7 +39291,7 @@
         <v>3676</v>
       </c>
       <c r="D1457" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1457" t="s">
         <v>2934</v>
@@ -39305,7 +39308,7 @@
         <v>3677</v>
       </c>
       <c r="D1458" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1458" t="s">
         <v>2934</v>
@@ -39339,10 +39342,10 @@
         <v>2955</v>
       </c>
       <c r="D1460" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1460" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39356,10 +39359,10 @@
         <v>3679</v>
       </c>
       <c r="D1461" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1461" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39373,7 +39376,7 @@
         <v>2307</v>
       </c>
       <c r="D1462" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E1462" t="s">
         <v>2937</v>
@@ -39390,7 +39393,7 @@
         <v>3680</v>
       </c>
       <c r="D1463" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1463" t="s">
         <v>2957</v>
@@ -39407,10 +39410,10 @@
         <v>3681</v>
       </c>
       <c r="D1464" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1464" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39424,10 +39427,10 @@
         <v>2936</v>
       </c>
       <c r="D1465" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1465" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39458,10 +39461,10 @@
         <v>3683</v>
       </c>
       <c r="D1467" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1467" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39475,10 +39478,10 @@
         <v>3684</v>
       </c>
       <c r="D1468" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1468" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39495,7 +39498,7 @@
         <v>2943</v>
       </c>
       <c r="E1469" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39526,7 +39529,7 @@
         <v>3687</v>
       </c>
       <c r="D1471" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1471" t="s">
         <v>2934</v>
@@ -39543,10 +39546,10 @@
         <v>3458</v>
       </c>
       <c r="D1472" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1472" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39563,7 +39566,7 @@
         <v>2945</v>
       </c>
       <c r="E1473" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39577,10 +39580,10 @@
         <v>2934</v>
       </c>
       <c r="D1474" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1474" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39594,10 +39597,10 @@
         <v>2300</v>
       </c>
       <c r="D1475" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1475" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39611,7 +39614,7 @@
         <v>3688</v>
       </c>
       <c r="D1476" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1476" t="s">
         <v>2949</v>
@@ -39628,7 +39631,7 @@
         <v>3677</v>
       </c>
       <c r="D1477" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1477" t="s">
         <v>2950</v>
@@ -39679,7 +39682,7 @@
         <v>3689</v>
       </c>
       <c r="D1480" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1480" t="s">
         <v>2953</v>
@@ -39713,7 +39716,7 @@
         <v>3690</v>
       </c>
       <c r="D1482" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1482" t="s">
         <v>2955</v>
@@ -39730,7 +39733,7 @@
         <v>2955</v>
       </c>
       <c r="D1483" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1483" t="s">
         <v>2955</v>
@@ -39764,7 +39767,7 @@
         <v>2939</v>
       </c>
       <c r="D1485" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1485" t="s">
         <v>2306</v>
@@ -39781,7 +39784,7 @@
         <v>3692</v>
       </c>
       <c r="D1486" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1486" t="s">
         <v>2956</v>
@@ -39798,7 +39801,7 @@
         <v>3693</v>
       </c>
       <c r="D1487" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1487" t="s">
         <v>2938</v>
@@ -39815,10 +39818,10 @@
         <v>3683</v>
       </c>
       <c r="D1488" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1488" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39832,10 +39835,10 @@
         <v>3694</v>
       </c>
       <c r="D1489" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1489" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39852,7 +39855,7 @@
         <v>3709</v>
       </c>
       <c r="E1490" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39900,7 +39903,7 @@
         <v>3696</v>
       </c>
       <c r="D1493" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1493" t="s">
         <v>2983</v>
@@ -39934,7 +39937,7 @@
         <v>3698</v>
       </c>
       <c r="D1495" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1495" t="s">
         <v>3023</v>
@@ -39951,7 +39954,7 @@
         <v>3699</v>
       </c>
       <c r="D1496" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1496" t="s">
         <v>2965</v>
@@ -39971,7 +39974,7 @@
         <v>2964</v>
       </c>
       <c r="E1497" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39985,10 +39988,10 @@
         <v>3700</v>
       </c>
       <c r="D1498" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1498" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40019,10 +40022,10 @@
         <v>3702</v>
       </c>
       <c r="D1500" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1500" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40036,7 +40039,7 @@
         <v>3040</v>
       </c>
       <c r="D1501" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1501" t="s">
         <v>2970</v>
@@ -40056,7 +40059,7 @@
         <v>3701</v>
       </c>
       <c r="E1502" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40073,7 +40076,7 @@
         <v>2982</v>
       </c>
       <c r="E1503" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40087,7 +40090,7 @@
         <v>3705</v>
       </c>
       <c r="D1504" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1504" t="s">
         <v>3023</v>
@@ -40104,7 +40107,7 @@
         <v>3706</v>
       </c>
       <c r="D1505" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1505" t="s">
         <v>2973</v>
@@ -40141,7 +40144,7 @@
         <v>2974</v>
       </c>
       <c r="E1507" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40158,7 +40161,7 @@
         <v>2883</v>
       </c>
       <c r="E1508" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40172,10 +40175,10 @@
         <v>3709</v>
       </c>
       <c r="D1509" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1509" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40189,10 +40192,10 @@
         <v>2977</v>
       </c>
       <c r="D1510" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1510" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40206,7 +40209,7 @@
         <v>3710</v>
       </c>
       <c r="D1511" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1511" t="s">
         <v>2978</v>
@@ -40226,7 +40229,7 @@
         <v>2978</v>
       </c>
       <c r="E1512" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40240,10 +40243,10 @@
         <v>2961</v>
       </c>
       <c r="D1513" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1513" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40257,10 +40260,10 @@
         <v>3711</v>
       </c>
       <c r="D1514" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1514" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40274,7 +40277,7 @@
         <v>3712</v>
       </c>
       <c r="D1515" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1515" t="s">
         <v>2959</v>
@@ -40308,10 +40311,10 @@
         <v>2982</v>
       </c>
       <c r="D1517" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1517" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40325,10 +40328,10 @@
         <v>2983</v>
       </c>
       <c r="D1518" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1518" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40342,7 +40345,7 @@
         <v>3714</v>
       </c>
       <c r="D1519" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1519" t="s">
         <v>2978</v>
@@ -40359,10 +40362,10 @@
         <v>3682</v>
       </c>
       <c r="D1520" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1520" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40376,10 +40379,10 @@
         <v>3715</v>
       </c>
       <c r="D1521" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1521" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40393,10 +40396,10 @@
         <v>2961</v>
       </c>
       <c r="D1522" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1522" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40410,7 +40413,7 @@
         <v>3716</v>
       </c>
       <c r="D1523" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1523" t="s">
         <v>2989</v>
@@ -40464,7 +40467,7 @@
         <v>2989</v>
       </c>
       <c r="E1526" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40495,10 +40498,10 @@
         <v>3721</v>
       </c>
       <c r="D1528" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1528" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40529,7 +40532,7 @@
         <v>3723</v>
       </c>
       <c r="D1530" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1530" t="s">
         <v>3030</v>
@@ -40546,7 +40549,7 @@
         <v>3724</v>
       </c>
       <c r="D1531" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1531" t="s">
         <v>2995</v>
@@ -40580,10 +40583,10 @@
         <v>2995</v>
       </c>
       <c r="D1533" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1533" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40597,10 +40600,10 @@
         <v>3726</v>
       </c>
       <c r="D1534" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1534" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40614,10 +40617,10 @@
         <v>3727</v>
       </c>
       <c r="D1535" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1535" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40665,7 +40668,7 @@
         <v>3729</v>
       </c>
       <c r="D1538" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1538" t="s">
         <v>3000</v>
@@ -40682,7 +40685,7 @@
         <v>3730</v>
       </c>
       <c r="D1539" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1539" t="s">
         <v>3001</v>
@@ -40699,10 +40702,10 @@
         <v>3731</v>
       </c>
       <c r="D1540" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1540" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40716,7 +40719,7 @@
         <v>3732</v>
       </c>
       <c r="D1541" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1541" t="s">
         <v>3003</v>
@@ -40733,7 +40736,7 @@
         <v>3733</v>
       </c>
       <c r="D1542" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1542" t="s">
         <v>3004</v>
@@ -40767,7 +40770,7 @@
         <v>3735</v>
       </c>
       <c r="D1544" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1544" t="s">
         <v>3006</v>
@@ -40784,10 +40787,10 @@
         <v>3736</v>
       </c>
       <c r="D1545" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1545" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40818,7 +40821,7 @@
         <v>3738</v>
       </c>
       <c r="D1547" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1547" t="s">
         <v>3745</v>
@@ -40835,10 +40838,10 @@
         <v>3739</v>
       </c>
       <c r="D1548" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1548" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40855,7 +40858,7 @@
         <v>3036</v>
       </c>
       <c r="E1549" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40869,10 +40872,10 @@
         <v>3741</v>
       </c>
       <c r="D1550" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1550" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40886,7 +40889,7 @@
         <v>3742</v>
       </c>
       <c r="D1551" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1551" t="s">
         <v>3012</v>
@@ -40903,10 +40906,10 @@
         <v>3742</v>
       </c>
       <c r="D1552" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1552" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40920,10 +40923,10 @@
         <v>3013</v>
       </c>
       <c r="D1553" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1553" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40937,7 +40940,7 @@
         <v>3743</v>
       </c>
       <c r="D1554" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1554" t="s">
         <v>3044</v>
@@ -40957,7 +40960,7 @@
         <v>3698</v>
       </c>
       <c r="E1555" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40971,7 +40974,7 @@
         <v>3745</v>
       </c>
       <c r="D1556" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1556" t="s">
         <v>3017</v>
@@ -40988,7 +40991,7 @@
         <v>3017</v>
       </c>
       <c r="D1557" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1557" t="s">
         <v>3002</v>
@@ -41008,7 +41011,7 @@
         <v>3023</v>
       </c>
       <c r="E1558" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41022,7 +41025,7 @@
         <v>3747</v>
       </c>
       <c r="D1559" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1559" t="s">
         <v>3019</v>
@@ -41039,10 +41042,10 @@
         <v>3748</v>
       </c>
       <c r="D1560" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1560" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41056,10 +41059,10 @@
         <v>3054</v>
       </c>
       <c r="D1561" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1561" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41073,10 +41076,10 @@
         <v>3749</v>
       </c>
       <c r="D1562" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1562" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41090,7 +41093,7 @@
         <v>3022</v>
       </c>
       <c r="D1563" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1563" t="s">
         <v>3007</v>
@@ -41107,7 +41110,7 @@
         <v>3750</v>
       </c>
       <c r="D1564" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1564" t="s">
         <v>2964</v>
@@ -41124,10 +41127,10 @@
         <v>2966</v>
       </c>
       <c r="D1565" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1565" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41141,7 +41144,7 @@
         <v>3720</v>
       </c>
       <c r="D1566" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1566" t="s">
         <v>3025</v>
@@ -41158,7 +41161,7 @@
         <v>3751</v>
       </c>
       <c r="D1567" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1567" t="s">
         <v>3026</v>
@@ -41175,7 +41178,7 @@
         <v>3752</v>
       </c>
       <c r="D1568" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1568" t="s">
         <v>3027</v>
@@ -41192,7 +41195,7 @@
         <v>3753</v>
       </c>
       <c r="D1569" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1569" t="s">
         <v>3026</v>
@@ -41243,7 +41246,7 @@
         <v>3756</v>
       </c>
       <c r="D1572" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1572" t="s">
         <v>2994</v>
@@ -41260,7 +41263,7 @@
         <v>3031</v>
       </c>
       <c r="D1573" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1573" t="s">
         <v>3032</v>
@@ -41294,10 +41297,10 @@
         <v>3739</v>
       </c>
       <c r="D1575" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1575" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41311,7 +41314,7 @@
         <v>3757</v>
       </c>
       <c r="D1576" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1576" t="s">
         <v>3033</v>
@@ -41362,7 +41365,7 @@
         <v>3760</v>
       </c>
       <c r="D1579" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1579" t="s">
         <v>3036</v>
@@ -41379,10 +41382,10 @@
         <v>3761</v>
       </c>
       <c r="D1580" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1580" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41396,7 +41399,7 @@
         <v>3762</v>
       </c>
       <c r="D1581" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1581" t="s">
         <v>3038</v>
@@ -41413,7 +41416,7 @@
         <v>3038</v>
       </c>
       <c r="D1582" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1582" t="s">
         <v>3001</v>
@@ -41430,10 +41433,10 @@
         <v>3704</v>
       </c>
       <c r="D1583" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1583" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41450,7 +41453,7 @@
         <v>3702</v>
       </c>
       <c r="E1584" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41515,10 +41518,10 @@
         <v>3767</v>
       </c>
       <c r="D1588" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1588" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41532,7 +41535,7 @@
         <v>3768</v>
       </c>
       <c r="D1589" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1589" t="s">
         <v>3755</v>
@@ -41756,7 +41759,7 @@
         <v>3044</v>
       </c>
       <c r="E1602" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41943,7 +41946,7 @@
         <v>3044</v>
       </c>
       <c r="E1613" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42113,7 +42116,7 @@
         <v>3044</v>
       </c>
       <c r="E1623" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42127,10 +42130,10 @@
         <v>3788</v>
       </c>
       <c r="D1624" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1624" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42144,10 +42147,10 @@
         <v>3789</v>
       </c>
       <c r="D1625" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1625" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42161,10 +42164,10 @@
         <v>3790</v>
       </c>
       <c r="D1626" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1626" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42178,7 +42181,7 @@
         <v>3791</v>
       </c>
       <c r="D1627" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1627" t="s">
         <v>3057</v>
@@ -42195,10 +42198,10 @@
         <v>3792</v>
       </c>
       <c r="D1628" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1628" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42212,10 +42215,10 @@
         <v>3793</v>
       </c>
       <c r="D1629" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1629" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42229,7 +42232,7 @@
         <v>3794</v>
       </c>
       <c r="D1630" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1630" t="s">
         <v>3053</v>
@@ -42246,7 +42249,7 @@
         <v>3795</v>
       </c>
       <c r="D1631" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1631" t="s">
         <v>3053</v>
@@ -42263,7 +42266,7 @@
         <v>3796</v>
       </c>
       <c r="D1632" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1632" t="s">
         <v>3052</v>
@@ -42280,7 +42283,7 @@
         <v>3797</v>
       </c>
       <c r="D1633" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1633" t="s">
         <v>3052</v>
@@ -42297,7 +42300,7 @@
         <v>3797</v>
       </c>
       <c r="D1634" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1634" t="s">
         <v>3051</v>
@@ -42314,7 +42317,7 @@
         <v>3798</v>
       </c>
       <c r="D1635" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1635" t="s">
         <v>3059</v>
@@ -42331,7 +42334,7 @@
         <v>3781</v>
       </c>
       <c r="D1636" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1636" t="s">
         <v>3059</v>
@@ -42453,7 +42456,7 @@
         <v>3059</v>
       </c>
       <c r="E1643" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42538,7 +42541,7 @@
         <v>3059</v>
       </c>
       <c r="E1648" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42858,7 +42861,7 @@
         <v>3821</v>
       </c>
       <c r="D1667" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1667" t="s">
         <v>3059</v>
@@ -42875,7 +42878,7 @@
         <v>3059</v>
       </c>
       <c r="D1668" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1668" t="s">
         <v>3059</v>
@@ -42892,7 +42895,7 @@
         <v>3059</v>
       </c>
       <c r="D1669" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1669" t="s">
         <v>3059</v>
@@ -42912,7 +42915,7 @@
         <v>3775</v>
       </c>
       <c r="E1670" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42943,10 +42946,10 @@
         <v>3823</v>
       </c>
       <c r="D1672" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1672" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42960,10 +42963,10 @@
         <v>3824</v>
       </c>
       <c r="D1673" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1673" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42977,10 +42980,10 @@
         <v>3311</v>
       </c>
       <c r="D1674" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1674" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -42994,7 +42997,7 @@
         <v>3825</v>
       </c>
       <c r="D1675" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1675" t="s">
         <v>3984</v>
@@ -43011,10 +43014,10 @@
         <v>3826</v>
       </c>
       <c r="D1676" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1676" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43028,10 +43031,10 @@
         <v>3827</v>
       </c>
       <c r="D1677" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1677" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43045,10 +43048,10 @@
         <v>3828</v>
       </c>
       <c r="D1678" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1678" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43062,10 +43065,10 @@
         <v>3829</v>
       </c>
       <c r="D1679" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1679" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43079,10 +43082,10 @@
         <v>3830</v>
       </c>
       <c r="D1680" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1680" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43096,7 +43099,7 @@
         <v>3831</v>
       </c>
       <c r="D1681" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1681" t="s">
         <v>3074</v>
@@ -43198,7 +43201,7 @@
         <v>3075</v>
       </c>
       <c r="D1687" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1687" t="s">
         <v>3075</v>
@@ -43215,10 +43218,10 @@
         <v>3075</v>
       </c>
       <c r="D1688" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1688" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43232,7 +43235,7 @@
         <v>3075</v>
       </c>
       <c r="D1689" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1689" t="s">
         <v>3075</v>
@@ -43249,7 +43252,7 @@
         <v>3075</v>
       </c>
       <c r="D1690" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1690" t="s">
         <v>3075</v>
@@ -43300,7 +43303,7 @@
         <v>3075</v>
       </c>
       <c r="D1693" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1693" t="s">
         <v>3075</v>
@@ -43317,10 +43320,10 @@
         <v>3075</v>
       </c>
       <c r="D1694" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1694" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43334,7 +43337,7 @@
         <v>3075</v>
       </c>
       <c r="D1695" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1695" t="s">
         <v>3075</v>
@@ -43351,7 +43354,7 @@
         <v>3075</v>
       </c>
       <c r="D1696" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1696" t="s">
         <v>3075</v>
@@ -43524,7 +43527,7 @@
         <v>3075</v>
       </c>
       <c r="E1706" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43575,7 +43578,7 @@
         <v>3075</v>
       </c>
       <c r="E1709" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43657,10 +43660,10 @@
         <v>3848</v>
       </c>
       <c r="D1714" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1714" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43674,10 +43677,10 @@
         <v>3849</v>
       </c>
       <c r="D1715" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1715" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43691,10 +43694,10 @@
         <v>3850</v>
       </c>
       <c r="D1716" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1716" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43711,7 +43714,7 @@
         <v>3094</v>
       </c>
       <c r="E1717" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43725,7 +43728,7 @@
         <v>3852</v>
       </c>
       <c r="D1718" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1718" t="s">
         <v>3085</v>
@@ -43742,7 +43745,7 @@
         <v>3853</v>
       </c>
       <c r="D1719" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1719" t="s">
         <v>3084</v>
@@ -43759,10 +43762,10 @@
         <v>3854</v>
       </c>
       <c r="D1720" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1720" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43776,7 +43779,7 @@
         <v>3855</v>
       </c>
       <c r="D1721" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1721" t="s">
         <v>3087</v>
@@ -43796,7 +43799,7 @@
         <v>4053</v>
       </c>
       <c r="E1722" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43810,7 +43813,7 @@
         <v>3857</v>
       </c>
       <c r="D1723" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1723" t="s">
         <v>3089</v>
@@ -43827,10 +43830,10 @@
         <v>3858</v>
       </c>
       <c r="D1724" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1724" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43844,7 +43847,7 @@
         <v>3859</v>
       </c>
       <c r="D1725" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1725" t="s">
         <v>3091</v>
@@ -43878,7 +43881,7 @@
         <v>3861</v>
       </c>
       <c r="D1727" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1727" t="s">
         <v>3093</v>
@@ -43980,7 +43983,7 @@
         <v>3865</v>
       </c>
       <c r="D1733" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1733" t="s">
         <v>3094</v>
@@ -44048,7 +44051,7 @@
         <v>3868</v>
       </c>
       <c r="D1737" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1737" t="s">
         <v>3095</v>
@@ -44065,7 +44068,7 @@
         <v>3869</v>
       </c>
       <c r="D1738" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1738" t="s">
         <v>3096</v>
@@ -44099,7 +44102,7 @@
         <v>3099</v>
       </c>
       <c r="D1740" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1740" t="s">
         <v>3860</v>
@@ -44119,7 +44122,7 @@
         <v>3098</v>
       </c>
       <c r="E1741" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44184,10 +44187,10 @@
         <v>3101</v>
       </c>
       <c r="D1745" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1745" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44201,10 +44204,10 @@
         <v>3872</v>
       </c>
       <c r="D1746" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1746" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44354,7 +44357,7 @@
         <v>3875</v>
       </c>
       <c r="D1755" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1755" t="s">
         <v>3112</v>
@@ -44405,7 +44408,7 @@
         <v>3878</v>
       </c>
       <c r="D1758" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1758" t="s">
         <v>3115</v>
@@ -44456,7 +44459,7 @@
         <v>3880</v>
       </c>
       <c r="D1761" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1761" t="s">
         <v>3118</v>
@@ -44490,7 +44493,7 @@
         <v>3882</v>
       </c>
       <c r="D1763" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1763" t="s">
         <v>3120</v>
@@ -44507,7 +44510,7 @@
         <v>3883</v>
       </c>
       <c r="D1764" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1764" t="s">
         <v>3121</v>
@@ -44575,7 +44578,7 @@
         <v>3887</v>
       </c>
       <c r="D1768" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1768" t="s">
         <v>3125</v>
@@ -44592,7 +44595,7 @@
         <v>3888</v>
       </c>
       <c r="D1769" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1769" t="s">
         <v>3126</v>
@@ -44612,7 +44615,7 @@
         <v>3126</v>
       </c>
       <c r="E1770" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44626,7 +44629,7 @@
         <v>3890</v>
       </c>
       <c r="D1771" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1771" t="s">
         <v>3128</v>
@@ -44643,7 +44646,7 @@
         <v>3891</v>
       </c>
       <c r="D1772" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1772" t="s">
         <v>3129</v>
@@ -44660,7 +44663,7 @@
         <v>3892</v>
       </c>
       <c r="D1773" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1773" t="s">
         <v>3130</v>
@@ -44677,7 +44680,7 @@
         <v>3893</v>
       </c>
       <c r="D1774" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1774" t="s">
         <v>3131</v>
@@ -44745,7 +44748,7 @@
         <v>3897</v>
       </c>
       <c r="D1778" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1778" t="s">
         <v>3135</v>
@@ -44762,10 +44765,10 @@
         <v>3898</v>
       </c>
       <c r="D1779" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1779" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44779,7 +44782,7 @@
         <v>3899</v>
       </c>
       <c r="D1780" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1780" t="s">
         <v>3129</v>
@@ -44796,7 +44799,7 @@
         <v>3900</v>
       </c>
       <c r="D1781" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1781" t="s">
         <v>3136</v>
@@ -44830,7 +44833,7 @@
         <v>3902</v>
       </c>
       <c r="D1783" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1783" t="s">
         <v>3138</v>
@@ -44966,7 +44969,7 @@
         <v>3139</v>
       </c>
       <c r="D1791" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1791" t="s">
         <v>3139</v>
@@ -45034,10 +45037,10 @@
         <v>3139</v>
       </c>
       <c r="D1795" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1795" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45051,10 +45054,10 @@
         <v>3139</v>
       </c>
       <c r="D1796" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1796" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45068,10 +45071,10 @@
         <v>3139</v>
       </c>
       <c r="D1797" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1797" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45085,10 +45088,10 @@
         <v>3139</v>
       </c>
       <c r="D1798" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1798" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45102,7 +45105,7 @@
         <v>3906</v>
       </c>
       <c r="D1799" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1799" t="s">
         <v>3141</v>
@@ -45119,10 +45122,10 @@
         <v>3907</v>
       </c>
       <c r="D1800" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1800" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45136,7 +45139,7 @@
         <v>3139</v>
       </c>
       <c r="D1801" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1801" t="s">
         <v>3197</v>
@@ -45153,7 +45156,7 @@
         <v>3908</v>
       </c>
       <c r="D1802" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1802" t="s">
         <v>3144</v>
@@ -45170,7 +45173,7 @@
         <v>3187</v>
       </c>
       <c r="D1803" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1803" t="s">
         <v>3145</v>
@@ -45204,7 +45207,7 @@
         <v>3910</v>
       </c>
       <c r="D1805" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1805" t="s">
         <v>3147</v>
@@ -45238,7 +45241,7 @@
         <v>3912</v>
       </c>
       <c r="D1807" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1807" t="s">
         <v>3149</v>
@@ -45272,7 +45275,7 @@
         <v>3914</v>
       </c>
       <c r="D1809" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1809" t="s">
         <v>3151</v>
@@ -45289,7 +45292,7 @@
         <v>3914</v>
       </c>
       <c r="D1810" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1810" t="s">
         <v>3152</v>
@@ -45306,7 +45309,7 @@
         <v>3915</v>
       </c>
       <c r="D1811" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1811" t="s">
         <v>3153</v>
@@ -45323,7 +45326,7 @@
         <v>3916</v>
       </c>
       <c r="D1812" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1812" t="s">
         <v>3154</v>
@@ -45340,7 +45343,7 @@
         <v>3917</v>
       </c>
       <c r="D1813" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1813" t="s">
         <v>3155</v>
@@ -45357,7 +45360,7 @@
         <v>3918</v>
       </c>
       <c r="D1814" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1814" t="s">
         <v>3156</v>
@@ -45374,7 +45377,7 @@
         <v>3918</v>
       </c>
       <c r="D1815" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1815" t="s">
         <v>3157</v>
@@ -45391,7 +45394,7 @@
         <v>3919</v>
       </c>
       <c r="D1816" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1816" t="s">
         <v>3158</v>
@@ -45408,7 +45411,7 @@
         <v>3920</v>
       </c>
       <c r="D1817" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1817" t="s">
         <v>3159</v>
@@ -45442,7 +45445,7 @@
         <v>3157</v>
       </c>
       <c r="D1819" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1819" t="s">
         <v>3161</v>
@@ -45459,7 +45462,7 @@
         <v>3922</v>
       </c>
       <c r="D1820" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1820" t="s">
         <v>3162</v>
@@ -45510,7 +45513,7 @@
         <v>3925</v>
       </c>
       <c r="D1823" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1823" t="s">
         <v>3165</v>
@@ -45530,7 +45533,7 @@
         <v>3165</v>
       </c>
       <c r="E1824" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45547,7 +45550,7 @@
         <v>3155</v>
       </c>
       <c r="E1825" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45561,10 +45564,10 @@
         <v>3928</v>
       </c>
       <c r="D1826" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1826" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45578,7 +45581,7 @@
         <v>3929</v>
       </c>
       <c r="D1827" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1827" t="s">
         <v>3169</v>
@@ -45595,7 +45598,7 @@
         <v>3930</v>
       </c>
       <c r="D1828" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1828" t="s">
         <v>3170</v>
@@ -45612,7 +45615,7 @@
         <v>3872</v>
       </c>
       <c r="D1829" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1829" t="s">
         <v>3171</v>
@@ -45646,7 +45649,7 @@
         <v>3932</v>
       </c>
       <c r="D1831" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1831" t="s">
         <v>3173</v>
@@ -45680,7 +45683,7 @@
         <v>3934</v>
       </c>
       <c r="D1833" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1833" t="s">
         <v>3932</v>
@@ -45714,7 +45717,7 @@
         <v>3936</v>
       </c>
       <c r="D1835" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1835" t="s">
         <v>3937</v>
@@ -45731,7 +45734,7 @@
         <v>3937</v>
       </c>
       <c r="D1836" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1836" t="s">
         <v>3178</v>
@@ -45748,7 +45751,7 @@
         <v>3938</v>
       </c>
       <c r="D1837" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1837" t="s">
         <v>3179</v>
@@ -45765,10 +45768,10 @@
         <v>3939</v>
       </c>
       <c r="D1838" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1838" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45782,7 +45785,7 @@
         <v>3940</v>
       </c>
       <c r="D1839" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1839" t="s">
         <v>3181</v>
@@ -45799,7 +45802,7 @@
         <v>3941</v>
       </c>
       <c r="D1840" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1840" t="s">
         <v>3182</v>
@@ -45816,7 +45819,7 @@
         <v>3942</v>
       </c>
       <c r="D1841" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1841" t="s">
         <v>3183</v>
@@ -45850,7 +45853,7 @@
         <v>3940</v>
       </c>
       <c r="D1843" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1843" t="s">
         <v>3185</v>
@@ -45867,10 +45870,10 @@
         <v>3943</v>
       </c>
       <c r="D1844" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1844" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45901,7 +45904,7 @@
         <v>3150</v>
       </c>
       <c r="D1846" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1846" t="s">
         <v>3150</v>
@@ -45918,7 +45921,7 @@
         <v>3188</v>
       </c>
       <c r="D1847" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1847" t="s">
         <v>3189</v>
@@ -45938,7 +45941,7 @@
         <v>3190</v>
       </c>
       <c r="E1848" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45952,7 +45955,7 @@
         <v>3946</v>
       </c>
       <c r="D1849" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1849" t="s">
         <v>3191</v>
@@ -45972,7 +45975,7 @@
         <v>3191</v>
       </c>
       <c r="E1850" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45986,7 +45989,7 @@
         <v>3948</v>
       </c>
       <c r="D1851" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1851" t="s">
         <v>3193</v>
@@ -46020,7 +46023,7 @@
         <v>3147</v>
       </c>
       <c r="D1853" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1853" t="s">
         <v>3195</v>
@@ -46040,7 +46043,7 @@
         <v>4050</v>
       </c>
       <c r="E1854" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46054,7 +46057,7 @@
         <v>3951</v>
       </c>
       <c r="D1855" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1855" t="s">
         <v>3197</v>
@@ -46088,7 +46091,7 @@
         <v>3952</v>
       </c>
       <c r="D1857" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1857" t="s">
         <v>3199</v>
@@ -46122,7 +46125,7 @@
         <v>3954</v>
       </c>
       <c r="D1859" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1859" t="s">
         <v>3201</v>
@@ -46139,7 +46142,7 @@
         <v>3955</v>
       </c>
       <c r="D1860" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1860" t="s">
         <v>3202</v>
@@ -46156,10 +46159,10 @@
         <v>3202</v>
       </c>
       <c r="D1861" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1861" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46193,7 +46196,7 @@
         <v>4005</v>
       </c>
       <c r="E1863" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46207,7 +46210,7 @@
         <v>3956</v>
       </c>
       <c r="D1864" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1864" t="s">
         <v>3205</v>
@@ -46224,7 +46227,7 @@
         <v>3957</v>
       </c>
       <c r="D1865" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1865" t="s">
         <v>3206</v>
@@ -46261,7 +46264,7 @@
         <v>3978</v>
       </c>
       <c r="E1867" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46275,10 +46278,10 @@
         <v>3208</v>
       </c>
       <c r="D1868" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1868" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46329,7 +46332,7 @@
         <v>3211</v>
       </c>
       <c r="E1871" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46343,7 +46346,7 @@
         <v>3963</v>
       </c>
       <c r="D1872" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1872" t="s">
         <v>3213</v>
@@ -46363,7 +46366,7 @@
         <v>3213</v>
       </c>
       <c r="E1873" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46377,7 +46380,7 @@
         <v>3965</v>
       </c>
       <c r="D1874" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1874" t="s">
         <v>3215</v>
@@ -46411,10 +46414,10 @@
         <v>3967</v>
       </c>
       <c r="D1876" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1876" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46428,10 +46431,10 @@
         <v>3968</v>
       </c>
       <c r="D1877" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1877" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46496,7 +46499,7 @@
         <v>3819</v>
       </c>
       <c r="D1881" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1881" t="s">
         <v>3819</v>
@@ -46581,7 +46584,7 @@
         <v>3974</v>
       </c>
       <c r="D1886" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1886" t="s">
         <v>3808</v>
@@ -46615,10 +46618,10 @@
         <v>3976</v>
       </c>
       <c r="D1888" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1888" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46632,7 +46635,7 @@
         <v>3977</v>
       </c>
       <c r="D1889" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1889" t="s">
         <v>3229</v>
@@ -46683,7 +46686,7 @@
         <v>3231</v>
       </c>
       <c r="D1892" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1892" t="s">
         <v>3232</v>
@@ -46700,7 +46703,7 @@
         <v>3980</v>
       </c>
       <c r="D1893" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1893" t="s">
         <v>3233</v>
@@ -46717,7 +46720,7 @@
         <v>3981</v>
       </c>
       <c r="D1894" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1894" t="s">
         <v>3234</v>
@@ -46734,7 +46737,7 @@
         <v>3982</v>
       </c>
       <c r="D1895" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1895" t="s">
         <v>3235</v>
@@ -46802,7 +46805,7 @@
         <v>3986</v>
       </c>
       <c r="D1899" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1899" t="s">
         <v>3239</v>
@@ -46836,7 +46839,7 @@
         <v>3987</v>
       </c>
       <c r="D1901" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1901" t="s">
         <v>3241</v>
@@ -46870,7 +46873,7 @@
         <v>3988</v>
       </c>
       <c r="D1903" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1903" t="s">
         <v>3243</v>
@@ -46904,7 +46907,7 @@
         <v>3245</v>
       </c>
       <c r="D1905" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1905" t="s">
         <v>3245</v>
@@ -46938,7 +46941,7 @@
         <v>3990</v>
       </c>
       <c r="D1907" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1907" t="s">
         <v>3247</v>
@@ -46955,7 +46958,7 @@
         <v>3981</v>
       </c>
       <c r="D1908" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1908" t="s">
         <v>3248</v>
@@ -46972,7 +46975,7 @@
         <v>3075</v>
       </c>
       <c r="D1909" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1909" t="s">
         <v>3249</v>
@@ -46989,7 +46992,7 @@
         <v>3249</v>
       </c>
       <c r="D1910" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1910" t="s">
         <v>3250</v>
@@ -47040,7 +47043,7 @@
         <v>3991</v>
       </c>
       <c r="D1913" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1913" t="s">
         <v>3253</v>
@@ -47057,10 +47060,10 @@
         <v>3992</v>
       </c>
       <c r="D1914" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1914" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47108,7 +47111,7 @@
         <v>3256</v>
       </c>
       <c r="D1917" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1917" t="s">
         <v>3257</v>
@@ -47142,10 +47145,10 @@
         <v>3995</v>
       </c>
       <c r="D1919" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1919" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47176,7 +47179,7 @@
         <v>3997</v>
       </c>
       <c r="D1921" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1921" t="s">
         <v>3261</v>
@@ -47193,7 +47196,7 @@
         <v>3998</v>
       </c>
       <c r="D1922" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1922" t="s">
         <v>3262</v>
@@ -47210,7 +47213,7 @@
         <v>3263</v>
       </c>
       <c r="D1923" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1923" t="s">
         <v>3263</v>
@@ -47227,7 +47230,7 @@
         <v>3999</v>
       </c>
       <c r="D1924" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1924" t="s">
         <v>3264</v>
@@ -47295,7 +47298,7 @@
         <v>3238</v>
       </c>
       <c r="D1928" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1928" t="s">
         <v>3268</v>
@@ -47346,7 +47349,7 @@
         <v>4001</v>
       </c>
       <c r="D1931" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1931" t="s">
         <v>3271</v>
@@ -47363,7 +47366,7 @@
         <v>3282</v>
       </c>
       <c r="D1932" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1932" t="s">
         <v>3272</v>
@@ -47380,7 +47383,7 @@
         <v>3273</v>
       </c>
       <c r="D1933" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1933" t="s">
         <v>3273</v>
@@ -47397,7 +47400,7 @@
         <v>4002</v>
       </c>
       <c r="D1934" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1934" t="s">
         <v>3274</v>
@@ -47414,7 +47417,7 @@
         <v>4003</v>
       </c>
       <c r="D1935" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1935" t="s">
         <v>3275</v>
@@ -47448,7 +47451,7 @@
         <v>4004</v>
       </c>
       <c r="D1937" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1937" t="s">
         <v>3277</v>
@@ -47465,7 +47468,7 @@
         <v>4005</v>
       </c>
       <c r="D1938" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1938" t="s">
         <v>3278</v>
@@ -47499,7 +47502,7 @@
         <v>3990</v>
       </c>
       <c r="D1940" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1940" t="s">
         <v>3280</v>
@@ -47516,7 +47519,7 @@
         <v>4007</v>
       </c>
       <c r="D1941" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1941" t="s">
         <v>3281</v>
@@ -47567,7 +47570,7 @@
         <v>4010</v>
       </c>
       <c r="D1944" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1944" t="s">
         <v>3284</v>
@@ -47652,7 +47655,7 @@
         <v>4013</v>
       </c>
       <c r="D1949" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1949" t="s">
         <v>3289</v>
@@ -47703,7 +47706,7 @@
         <v>4015</v>
       </c>
       <c r="D1952" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1952" t="s">
         <v>3291</v>
@@ -47720,7 +47723,7 @@
         <v>4016</v>
       </c>
       <c r="D1953" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1953" t="s">
         <v>3292</v>
@@ -47737,7 +47740,7 @@
         <v>4017</v>
       </c>
       <c r="D1954" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1954" t="s">
         <v>3293</v>
@@ -47754,7 +47757,7 @@
         <v>4018</v>
       </c>
       <c r="D1955" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1955" t="s">
         <v>3294</v>
@@ -47771,7 +47774,7 @@
         <v>3295</v>
       </c>
       <c r="D1956" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1956" t="s">
         <v>3295</v>
@@ -47788,7 +47791,7 @@
         <v>3296</v>
       </c>
       <c r="D1957" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1957" t="s">
         <v>3296</v>
@@ -47805,7 +47808,7 @@
         <v>3269</v>
       </c>
       <c r="D1958" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1958" t="s">
         <v>3297</v>
@@ -47822,7 +47825,7 @@
         <v>4019</v>
       </c>
       <c r="D1959" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1959" t="s">
         <v>3220</v>
@@ -47856,7 +47859,7 @@
         <v>3240</v>
       </c>
       <c r="D1961" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1961" t="s">
         <v>3299</v>
@@ -47890,7 +47893,7 @@
         <v>3285</v>
       </c>
       <c r="D1963" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1963" t="s">
         <v>3301</v>
@@ -47907,7 +47910,7 @@
         <v>4020</v>
       </c>
       <c r="D1964" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1964" t="s">
         <v>3302</v>
@@ -47924,7 +47927,7 @@
         <v>4021</v>
       </c>
       <c r="D1965" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1965" t="s">
         <v>3303</v>
@@ -47941,7 +47944,7 @@
         <v>3284</v>
       </c>
       <c r="D1966" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1966" t="s">
         <v>3304</v>
@@ -47958,7 +47961,7 @@
         <v>3830</v>
       </c>
       <c r="D1967" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1967" t="s">
         <v>3305</v>
@@ -48026,7 +48029,7 @@
         <v>4024</v>
       </c>
       <c r="D1971" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1971" t="s">
         <v>3309</v>
@@ -48043,7 +48046,7 @@
         <v>4025</v>
       </c>
       <c r="D1972" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1972" t="s">
         <v>3310</v>
@@ -48060,7 +48063,7 @@
         <v>3253</v>
       </c>
       <c r="D1973" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1973" t="s">
         <v>3311</v>
@@ -48094,7 +48097,7 @@
         <v>3285</v>
       </c>
       <c r="D1975" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1975" t="s">
         <v>3313</v>
@@ -48128,7 +48131,7 @@
         <v>4027</v>
       </c>
       <c r="D1977" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1977" t="s">
         <v>3315</v>
@@ -48196,7 +48199,7 @@
         <v>4030</v>
       </c>
       <c r="D1981" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1981" t="s">
         <v>3318</v>
@@ -48213,7 +48216,7 @@
         <v>3318</v>
       </c>
       <c r="D1982" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1982" t="s">
         <v>3278</v>
@@ -48230,7 +48233,7 @@
         <v>4031</v>
       </c>
       <c r="D1983" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1983" t="s">
         <v>3319</v>
@@ -48250,7 +48253,7 @@
         <v>3319</v>
       </c>
       <c r="E1984" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48281,7 +48284,7 @@
         <v>4033</v>
       </c>
       <c r="D1986" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1986" t="s">
         <v>3322</v>
@@ -48298,7 +48301,7 @@
         <v>4034</v>
       </c>
       <c r="D1987" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1987" t="s">
         <v>3323</v>
@@ -48332,7 +48335,7 @@
         <v>3323</v>
       </c>
       <c r="D1989" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1989" t="s">
         <v>3324</v>
@@ -48349,7 +48352,7 @@
         <v>4035</v>
       </c>
       <c r="D1990" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1990" t="s">
         <v>3325</v>
@@ -48366,7 +48369,7 @@
         <v>4036</v>
       </c>
       <c r="D1991" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1991" t="s">
         <v>3326</v>
@@ -48383,7 +48386,7 @@
         <v>4037</v>
       </c>
       <c r="D1992" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1992" t="s">
         <v>3327</v>
@@ -48400,7 +48403,7 @@
         <v>3092</v>
       </c>
       <c r="D1993" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1993" t="s">
         <v>3328</v>
@@ -48417,7 +48420,7 @@
         <v>4038</v>
       </c>
       <c r="D1994" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1994" t="s">
         <v>3329</v>
@@ -48434,7 +48437,7 @@
         <v>4039</v>
       </c>
       <c r="D1995" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1995" t="s">
         <v>3330</v>
@@ -48451,7 +48454,7 @@
         <v>4040</v>
       </c>
       <c r="D1996" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1996" t="s">
         <v>3331</v>
@@ -48485,7 +48488,7 @@
         <v>4042</v>
       </c>
       <c r="D1998" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1998" t="s">
         <v>3333</v>
@@ -48604,7 +48607,7 @@
         <v>4047</v>
       </c>
       <c r="D2005" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E2005" t="s">
         <v>3340</v>
@@ -48621,7 +48624,7 @@
         <v>4048</v>
       </c>
       <c r="D2006" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E2006" t="s">
         <v>3341</v>
@@ -48638,7 +48641,7 @@
         <v>4049</v>
       </c>
       <c r="D2007" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E2007" t="s">
         <v>3342</v>
@@ -48655,10 +48658,10 @@
         <v>4050</v>
       </c>
       <c r="D2008" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E2008" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48706,7 +48709,7 @@
         <v>4052</v>
       </c>
       <c r="D2011" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E2011" t="s">
         <v>3346</v>
@@ -48723,10 +48726,10 @@
         <v>4053</v>
       </c>
       <c r="D2012" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E2012" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48740,7 +48743,7 @@
         <v>4054</v>
       </c>
       <c r="D2013" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E2013" t="s">
         <v>3211</v>
@@ -48757,10 +48760,10 @@
         <v>4055</v>
       </c>
       <c r="D2014" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E2014" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48774,7 +48777,7 @@
         <v>4056</v>
       </c>
       <c r="D2015" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E2015" t="s">
         <v>3349</v>
@@ -48842,7 +48845,7 @@
         <v>4058</v>
       </c>
       <c r="D2019" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E2019" t="s">
         <v>3353</v>
@@ -48859,10 +48862,10 @@
         <v>4059</v>
       </c>
       <c r="D2020" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E2020" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -48927,7 +48930,7 @@
         <v>4062</v>
       </c>
       <c r="D2024" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E2024" t="s">
         <v>3357</v>
@@ -48944,7 +48947,7 @@
         <v>4057</v>
       </c>
       <c r="D2025" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E2025" t="s">
         <v>3358</v>
@@ -48978,7 +48981,7 @@
         <v>4063</v>
       </c>
       <c r="D2027" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E2027" t="s">
         <v>3359</v>
@@ -49012,7 +49015,7 @@
         <v>3092</v>
       </c>
       <c r="D2029" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E2029" t="s">
         <v>3361</v>
@@ -49029,7 +49032,7 @@
         <v>4065</v>
       </c>
       <c r="D2030" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E2030" t="s">
         <v>3362</v>
@@ -49060,13 +49063,13 @@
         <v>3363</v>
       </c>
       <c r="C2032" t="s">
-        <v>3363</v>
+        <v>4066</v>
       </c>
       <c r="D2032" t="s">
         <v>3363</v>
       </c>
       <c r="E2032" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="4718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="4719">
   <si>
     <t>1. open</t>
   </si>
@@ -12218,6 +12218,9 @@
   </si>
   <si>
     <t>3.85660</t>
+  </si>
+  <si>
+    <t>3.85070</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14593,7 +14596,7 @@
         <v>2039</v>
       </c>
       <c r="D4" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="E4" t="s">
         <v>2040</v>
@@ -14848,7 +14851,7 @@
         <v>2052</v>
       </c>
       <c r="D19" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E19" t="s">
         <v>2053</v>
@@ -14865,7 +14868,7 @@
         <v>2053</v>
       </c>
       <c r="D20" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E20" t="s">
         <v>2054</v>
@@ -14967,7 +14970,7 @@
         <v>2058</v>
       </c>
       <c r="D26" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E26" t="s">
         <v>2058</v>
@@ -15018,7 +15021,7 @@
         <v>2060</v>
       </c>
       <c r="D29" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="E29" t="s">
         <v>2060</v>
@@ -15069,7 +15072,7 @@
         <v>3370</v>
       </c>
       <c r="D32" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E32" t="s">
         <v>2061</v>
@@ -15171,7 +15174,7 @@
         <v>2066</v>
       </c>
       <c r="D38" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E38" t="s">
         <v>2067</v>
@@ -15273,7 +15276,7 @@
         <v>2072</v>
       </c>
       <c r="D44" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E44" t="s">
         <v>2073</v>
@@ -15290,7 +15293,7 @@
         <v>2073</v>
       </c>
       <c r="D45" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E45" t="s">
         <v>2070</v>
@@ -15307,7 +15310,7 @@
         <v>3373</v>
       </c>
       <c r="D46" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E46" t="s">
         <v>2074</v>
@@ -15358,7 +15361,7 @@
         <v>2075</v>
       </c>
       <c r="D49" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E49" t="s">
         <v>2076</v>
@@ -15375,7 +15378,7 @@
         <v>2077</v>
       </c>
       <c r="D50" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E50" t="s">
         <v>2077</v>
@@ -15409,7 +15412,7 @@
         <v>2079</v>
       </c>
       <c r="D52" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E52" t="s">
         <v>2079</v>
@@ -15426,7 +15429,7 @@
         <v>3374</v>
       </c>
       <c r="D53" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E53" t="s">
         <v>2080</v>
@@ -15443,7 +15446,7 @@
         <v>2079</v>
       </c>
       <c r="D54" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E54" t="s">
         <v>2081</v>
@@ -15596,7 +15599,7 @@
         <v>2090</v>
       </c>
       <c r="D63" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E63" t="s">
         <v>2090</v>
@@ -15766,7 +15769,7 @@
         <v>2097</v>
       </c>
       <c r="D73" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E73" t="s">
         <v>2098</v>
@@ -15868,7 +15871,7 @@
         <v>2102</v>
       </c>
       <c r="D79" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E79" t="s">
         <v>2100</v>
@@ -15885,7 +15888,7 @@
         <v>2100</v>
       </c>
       <c r="D80" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E80" t="s">
         <v>2103</v>
@@ -16174,7 +16177,7 @@
         <v>3385</v>
       </c>
       <c r="D97" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E97" t="s">
         <v>2104</v>
@@ -16667,10 +16670,10 @@
         <v>2140</v>
       </c>
       <c r="D126" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="E126" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16752,7 +16755,7 @@
         <v>3400</v>
       </c>
       <c r="D131" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E131" t="s">
         <v>2145</v>
@@ -16871,7 +16874,7 @@
         <v>3399</v>
       </c>
       <c r="D138" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E138" t="s">
         <v>2151</v>
@@ -16905,7 +16908,7 @@
         <v>3400</v>
       </c>
       <c r="D140" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="E140" t="s">
         <v>2133</v>
@@ -16922,7 +16925,7 @@
         <v>2152</v>
       </c>
       <c r="D141" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E141" t="s">
         <v>2152</v>
@@ -16939,7 +16942,7 @@
         <v>3405</v>
       </c>
       <c r="D142" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E142" t="s">
         <v>2139</v>
@@ -17024,7 +17027,7 @@
         <v>3391</v>
       </c>
       <c r="D147" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E147" t="s">
         <v>2156</v>
@@ -17330,7 +17333,7 @@
         <v>2170</v>
       </c>
       <c r="D165" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E165" t="s">
         <v>2171</v>
@@ -17568,10 +17571,10 @@
         <v>2181</v>
       </c>
       <c r="D179" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E179" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17707,7 +17710,7 @@
         <v>2188</v>
       </c>
       <c r="E187" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18129,7 +18132,7 @@
         <v>3423</v>
       </c>
       <c r="D212" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E212" t="s">
         <v>3423</v>
@@ -18163,7 +18166,7 @@
         <v>2211</v>
       </c>
       <c r="D214" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E214" t="s">
         <v>2211</v>
@@ -18452,10 +18455,10 @@
         <v>2227</v>
       </c>
       <c r="D231" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E231" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19798,7 +19801,7 @@
         <v>2292</v>
       </c>
       <c r="E310" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19897,7 +19900,7 @@
         <v>3458</v>
       </c>
       <c r="D316" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E316" t="s">
         <v>2299</v>
@@ -20135,7 +20138,7 @@
         <v>2308</v>
       </c>
       <c r="D330" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E330" t="s">
         <v>2309</v>
@@ -20152,7 +20155,7 @@
         <v>2309</v>
       </c>
       <c r="D331" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E331" t="s">
         <v>2310</v>
@@ -20237,7 +20240,7 @@
         <v>2313</v>
       </c>
       <c r="D336" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E336" t="s">
         <v>2314</v>
@@ -20492,7 +20495,7 @@
         <v>2475</v>
       </c>
       <c r="D351" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E351" t="s">
         <v>2260</v>
@@ -20509,7 +20512,7 @@
         <v>3438</v>
       </c>
       <c r="D352" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E352" t="s">
         <v>2326</v>
@@ -20713,10 +20716,10 @@
         <v>2336</v>
       </c>
       <c r="D364" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E364" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20730,7 +20733,7 @@
         <v>2382</v>
       </c>
       <c r="D365" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E365" t="s">
         <v>2337</v>
@@ -21478,7 +21481,7 @@
         <v>2371</v>
       </c>
       <c r="D409" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E409" t="s">
         <v>2371</v>
@@ -22039,7 +22042,7 @@
         <v>2393</v>
       </c>
       <c r="D442" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E442" t="s">
         <v>2394</v>
@@ -22226,7 +22229,7 @@
         <v>3479</v>
       </c>
       <c r="D453" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E453" t="s">
         <v>2355</v>
@@ -22498,7 +22501,7 @@
         <v>2415</v>
       </c>
       <c r="D469" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E469" t="s">
         <v>2416</v>
@@ -22566,7 +22569,7 @@
         <v>3484</v>
       </c>
       <c r="D473" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E473" t="s">
         <v>3443</v>
@@ -22753,7 +22756,7 @@
         <v>3438</v>
       </c>
       <c r="D484" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E484" t="s">
         <v>2427</v>
@@ -23518,7 +23521,7 @@
         <v>2455</v>
       </c>
       <c r="D529" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E529" t="s">
         <v>2456</v>
@@ -23654,7 +23657,7 @@
         <v>2458</v>
       </c>
       <c r="D537" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E537" t="s">
         <v>2462</v>
@@ -23705,7 +23708,7 @@
         <v>3492</v>
       </c>
       <c r="D540" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E540" t="s">
         <v>2465</v>
@@ -23722,7 +23725,7 @@
         <v>2317</v>
       </c>
       <c r="D541" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E541" t="s">
         <v>2435</v>
@@ -23773,7 +23776,7 @@
         <v>3493</v>
       </c>
       <c r="D544" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E544" t="s">
         <v>2468</v>
@@ -23790,7 +23793,7 @@
         <v>3494</v>
       </c>
       <c r="D545" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E545" t="s">
         <v>2469</v>
@@ -23807,7 +23810,7 @@
         <v>2433</v>
       </c>
       <c r="D546" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E546" t="s">
         <v>2323</v>
@@ -23858,7 +23861,7 @@
         <v>2448</v>
       </c>
       <c r="D549" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E549" t="s">
         <v>2470</v>
@@ -23892,7 +23895,7 @@
         <v>2257</v>
       </c>
       <c r="D551" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E551" t="s">
         <v>2471</v>
@@ -23994,7 +23997,7 @@
         <v>2421</v>
       </c>
       <c r="D557" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E557" t="s">
         <v>2476</v>
@@ -24028,7 +24031,7 @@
         <v>2902</v>
       </c>
       <c r="D559" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E559" t="s">
         <v>2477</v>
@@ -24045,7 +24048,7 @@
         <v>2477</v>
       </c>
       <c r="D560" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E560" t="s">
         <v>2407</v>
@@ -24079,7 +24082,7 @@
         <v>3500</v>
       </c>
       <c r="D562" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E562" t="s">
         <v>2478</v>
@@ -24113,10 +24116,10 @@
         <v>2318</v>
       </c>
       <c r="D564" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E564" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24164,7 +24167,7 @@
         <v>3501</v>
       </c>
       <c r="D567" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E567" t="s">
         <v>2482</v>
@@ -24232,7 +24235,7 @@
         <v>3502</v>
       </c>
       <c r="D571" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E571" t="s">
         <v>2486</v>
@@ -24283,7 +24286,7 @@
         <v>2380</v>
       </c>
       <c r="D574" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E574" t="s">
         <v>2238</v>
@@ -24317,7 +24320,7 @@
         <v>3503</v>
       </c>
       <c r="D576" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E576" t="s">
         <v>2490</v>
@@ -24334,7 +24337,7 @@
         <v>2790</v>
       </c>
       <c r="D577" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E577" t="s">
         <v>2491</v>
@@ -24351,7 +24354,7 @@
         <v>2787</v>
       </c>
       <c r="D578" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E578" t="s">
         <v>2492</v>
@@ -24385,7 +24388,7 @@
         <v>2493</v>
       </c>
       <c r="D580" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E580" t="s">
         <v>2494</v>
@@ -24453,7 +24456,7 @@
         <v>2337</v>
       </c>
       <c r="D584" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E584" t="s">
         <v>2498</v>
@@ -24538,7 +24541,7 @@
         <v>2235</v>
       </c>
       <c r="D589" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E589" t="s">
         <v>2501</v>
@@ -24589,7 +24592,7 @@
         <v>2583</v>
       </c>
       <c r="D592" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E592" t="s">
         <v>2503</v>
@@ -24810,10 +24813,10 @@
         <v>2540</v>
       </c>
       <c r="D605" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E605" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24861,7 +24864,7 @@
         <v>2496</v>
       </c>
       <c r="D608" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E608" t="s">
         <v>2510</v>
@@ -24963,7 +24966,7 @@
         <v>3510</v>
       </c>
       <c r="D614" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E614" t="s">
         <v>2515</v>
@@ -25204,7 +25207,7 @@
         <v>2501</v>
       </c>
       <c r="E628" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25269,7 +25272,7 @@
         <v>2234</v>
       </c>
       <c r="D632" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E632" t="s">
         <v>2523</v>
@@ -25544,7 +25547,7 @@
         <v>2509</v>
       </c>
       <c r="E648" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25677,7 +25680,7 @@
         <v>2508</v>
       </c>
       <c r="D656" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E656" t="s">
         <v>2382</v>
@@ -25728,7 +25731,7 @@
         <v>2529</v>
       </c>
       <c r="D659" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E659" t="s">
         <v>2542</v>
@@ -25864,7 +25867,7 @@
         <v>2529</v>
       </c>
       <c r="D667" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E667" t="s">
         <v>2538</v>
@@ -25949,7 +25952,7 @@
         <v>3506</v>
       </c>
       <c r="D672" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E672" t="s">
         <v>2494</v>
@@ -25969,7 +25972,7 @@
         <v>2337</v>
       </c>
       <c r="E673" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -26000,7 +26003,7 @@
         <v>2689</v>
       </c>
       <c r="D675" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E675" t="s">
         <v>2546</v>
@@ -26170,7 +26173,7 @@
         <v>2198</v>
       </c>
       <c r="D685" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E685" t="s">
         <v>2521</v>
@@ -26357,7 +26360,7 @@
         <v>3516</v>
       </c>
       <c r="D696" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E696" t="s">
         <v>2556</v>
@@ -26765,7 +26768,7 @@
         <v>2501</v>
       </c>
       <c r="D720" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E720" t="s">
         <v>2501</v>
@@ -26782,7 +26785,7 @@
         <v>2501</v>
       </c>
       <c r="D721" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E721" t="s">
         <v>2561</v>
@@ -26799,7 +26802,7 @@
         <v>2501</v>
       </c>
       <c r="D722" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E722" t="s">
         <v>2571</v>
@@ -26901,7 +26904,7 @@
         <v>2527</v>
       </c>
       <c r="D728" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E728" t="s">
         <v>2575</v>
@@ -26918,7 +26921,7 @@
         <v>2571</v>
       </c>
       <c r="D729" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E729" t="s">
         <v>2570</v>
@@ -26952,7 +26955,7 @@
         <v>2570</v>
       </c>
       <c r="D731" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E731" t="s">
         <v>2577</v>
@@ -26986,7 +26989,7 @@
         <v>2600</v>
       </c>
       <c r="D733" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E733" t="s">
         <v>2579</v>
@@ -27122,7 +27125,7 @@
         <v>2556</v>
       </c>
       <c r="D741" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E741" t="s">
         <v>2582</v>
@@ -27190,7 +27193,7 @@
         <v>2689</v>
       </c>
       <c r="D745" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E745" t="s">
         <v>2584</v>
@@ -27343,7 +27346,7 @@
         <v>2540</v>
       </c>
       <c r="D754" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E754" t="s">
         <v>2583</v>
@@ -27479,7 +27482,7 @@
         <v>2526</v>
       </c>
       <c r="D762" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E762" t="s">
         <v>2595</v>
@@ -27496,7 +27499,7 @@
         <v>2234</v>
       </c>
       <c r="D763" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E763" t="s">
         <v>2596</v>
@@ -27513,7 +27516,7 @@
         <v>2204</v>
       </c>
       <c r="D764" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E764" t="s">
         <v>2597</v>
@@ -27564,7 +27567,7 @@
         <v>2197</v>
       </c>
       <c r="D767" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E767" t="s">
         <v>2591</v>
@@ -27598,7 +27601,7 @@
         <v>2542</v>
       </c>
       <c r="D769" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E769" t="s">
         <v>2237</v>
@@ -27700,7 +27703,7 @@
         <v>2503</v>
       </c>
       <c r="D775" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E775" t="s">
         <v>2598</v>
@@ -27717,7 +27720,7 @@
         <v>2205</v>
       </c>
       <c r="D776" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E776" t="s">
         <v>2510</v>
@@ -27853,10 +27856,10 @@
         <v>2234</v>
       </c>
       <c r="D784" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E784" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27870,7 +27873,7 @@
         <v>2518</v>
       </c>
       <c r="D785" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E785" t="s">
         <v>2571</v>
@@ -27921,10 +27924,10 @@
         <v>2518</v>
       </c>
       <c r="D788" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E788" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28159,10 +28162,10 @@
         <v>2806</v>
       </c>
       <c r="D802" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E802" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28278,7 +28281,7 @@
         <v>2234</v>
       </c>
       <c r="D809" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E809" t="s">
         <v>2501</v>
@@ -28380,7 +28383,7 @@
         <v>3531</v>
       </c>
       <c r="D815" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E815" t="s">
         <v>2618</v>
@@ -28397,7 +28400,7 @@
         <v>2645</v>
       </c>
       <c r="D816" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E816" t="s">
         <v>2225</v>
@@ -28601,7 +28604,7 @@
         <v>3532</v>
       </c>
       <c r="D828" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E828" t="s">
         <v>2628</v>
@@ -28635,7 +28638,7 @@
         <v>2645</v>
       </c>
       <c r="D830" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E830" t="s">
         <v>2226</v>
@@ -28669,7 +28672,7 @@
         <v>3532</v>
       </c>
       <c r="D832" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E832" t="s">
         <v>2630</v>
@@ -28720,7 +28723,7 @@
         <v>3423</v>
       </c>
       <c r="D835" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E835" t="s">
         <v>2632</v>
@@ -28754,7 +28757,7 @@
         <v>2561</v>
       </c>
       <c r="D837" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E837" t="s">
         <v>2561</v>
@@ -28805,7 +28808,7 @@
         <v>3535</v>
       </c>
       <c r="D840" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E840" t="s">
         <v>2504</v>
@@ -28825,7 +28828,7 @@
         <v>2551</v>
       </c>
       <c r="E841" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29162,7 +29165,7 @@
         <v>2236</v>
       </c>
       <c r="D861" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E861" t="s">
         <v>2642</v>
@@ -29332,7 +29335,7 @@
         <v>2205</v>
       </c>
       <c r="D871" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E871" t="s">
         <v>2230</v>
@@ -29366,7 +29369,7 @@
         <v>3539</v>
       </c>
       <c r="D873" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E873" t="s">
         <v>2646</v>
@@ -29485,7 +29488,7 @@
         <v>3543</v>
       </c>
       <c r="D880" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E880" t="s">
         <v>2651</v>
@@ -29553,7 +29556,7 @@
         <v>2524</v>
       </c>
       <c r="D884" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E884" t="s">
         <v>2616</v>
@@ -29723,7 +29726,7 @@
         <v>2235</v>
       </c>
       <c r="D894" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E894" t="s">
         <v>2660</v>
@@ -29842,7 +29845,7 @@
         <v>3472</v>
       </c>
       <c r="D901" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E901" t="s">
         <v>2664</v>
@@ -29910,7 +29913,7 @@
         <v>2506</v>
       </c>
       <c r="D905" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E905" t="s">
         <v>2668</v>
@@ -30063,7 +30066,7 @@
         <v>2680</v>
       </c>
       <c r="D914" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E914" t="s">
         <v>2504</v>
@@ -30267,7 +30270,7 @@
         <v>2337</v>
       </c>
       <c r="D926" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E926" t="s">
         <v>2676</v>
@@ -30352,7 +30355,7 @@
         <v>2491</v>
       </c>
       <c r="D931" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E931" t="s">
         <v>2680</v>
@@ -30437,7 +30440,7 @@
         <v>3506</v>
       </c>
       <c r="D936" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E936" t="s">
         <v>2338</v>
@@ -30522,7 +30525,7 @@
         <v>2826</v>
       </c>
       <c r="D941" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E941" t="s">
         <v>2685</v>
@@ -30624,7 +30627,7 @@
         <v>2666</v>
       </c>
       <c r="D947" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E947" t="s">
         <v>2380</v>
@@ -30641,7 +30644,7 @@
         <v>3551</v>
       </c>
       <c r="D948" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E948" t="s">
         <v>2687</v>
@@ -30709,7 +30712,7 @@
         <v>2381</v>
       </c>
       <c r="D952" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E952" t="s">
         <v>2688</v>
@@ -30964,7 +30967,7 @@
         <v>2532</v>
       </c>
       <c r="D967" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E967" t="s">
         <v>2494</v>
@@ -31049,7 +31052,7 @@
         <v>2686</v>
       </c>
       <c r="D972" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E972" t="s">
         <v>2695</v>
@@ -31100,7 +31103,7 @@
         <v>2248</v>
       </c>
       <c r="D975" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E975" t="s">
         <v>2375</v>
@@ -31134,7 +31137,7 @@
         <v>2809</v>
       </c>
       <c r="D977" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E977" t="s">
         <v>2697</v>
@@ -31491,7 +31494,7 @@
         <v>2350</v>
       </c>
       <c r="D998" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E998" t="s">
         <v>2711</v>
@@ -31508,7 +31511,7 @@
         <v>3560</v>
       </c>
       <c r="D999" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E999" t="s">
         <v>2712</v>
@@ -31593,7 +31596,7 @@
         <v>2355</v>
       </c>
       <c r="D1004" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1004" t="s">
         <v>2403</v>
@@ -31763,7 +31766,7 @@
         <v>2817</v>
       </c>
       <c r="D1014" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E1014" t="s">
         <v>2405</v>
@@ -31780,7 +31783,7 @@
         <v>2817</v>
       </c>
       <c r="D1015" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1015" t="s">
         <v>2405</v>
@@ -31814,7 +31817,7 @@
         <v>2838</v>
       </c>
       <c r="D1017" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E1017" t="s">
         <v>2709</v>
@@ -31882,7 +31885,7 @@
         <v>2371</v>
       </c>
       <c r="D1021" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1021" t="s">
         <v>2723</v>
@@ -31899,7 +31902,7 @@
         <v>2371</v>
       </c>
       <c r="D1022" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E1022" t="s">
         <v>2724</v>
@@ -31967,7 +31970,7 @@
         <v>2840</v>
       </c>
       <c r="D1026" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1026" t="s">
         <v>2727</v>
@@ -32069,7 +32072,7 @@
         <v>2326</v>
       </c>
       <c r="D1032" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E1032" t="s">
         <v>2732</v>
@@ -32120,7 +32123,7 @@
         <v>3500</v>
       </c>
       <c r="D1035" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E1035" t="s">
         <v>2264</v>
@@ -32222,7 +32225,7 @@
         <v>2430</v>
       </c>
       <c r="D1041" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1041" t="s">
         <v>2740</v>
@@ -32324,7 +32327,7 @@
         <v>2739</v>
       </c>
       <c r="D1047" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E1047" t="s">
         <v>2743</v>
@@ -32395,7 +32398,7 @@
         <v>2255</v>
       </c>
       <c r="E1051" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32650,7 +32653,7 @@
         <v>2754</v>
       </c>
       <c r="E1066" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32732,7 +32735,7 @@
         <v>3562</v>
       </c>
       <c r="D1071" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E1071" t="s">
         <v>2329</v>
@@ -32953,7 +32956,7 @@
         <v>2371</v>
       </c>
       <c r="D1084" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E1084" t="s">
         <v>2765</v>
@@ -32987,7 +32990,7 @@
         <v>2390</v>
       </c>
       <c r="D1086" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1086" t="s">
         <v>2248</v>
@@ -33021,7 +33024,7 @@
         <v>2838</v>
       </c>
       <c r="D1088" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1088" t="s">
         <v>2767</v>
@@ -33038,7 +33041,7 @@
         <v>2816</v>
       </c>
       <c r="D1089" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E1089" t="s">
         <v>2768</v>
@@ -33106,7 +33109,7 @@
         <v>2730</v>
       </c>
       <c r="D1093" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E1093" t="s">
         <v>2770</v>
@@ -33191,10 +33194,10 @@
         <v>2781</v>
       </c>
       <c r="D1098" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1098" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33208,10 +33211,10 @@
         <v>2319</v>
       </c>
       <c r="D1099" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1099" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33242,7 +33245,7 @@
         <v>2839</v>
       </c>
       <c r="D1101" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E1101" t="s">
         <v>2783</v>
@@ -33259,7 +33262,7 @@
         <v>2781</v>
       </c>
       <c r="D1102" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1102" t="s">
         <v>2778</v>
@@ -33412,7 +33415,7 @@
         <v>2783</v>
       </c>
       <c r="D1111" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1111" t="s">
         <v>2784</v>
@@ -33446,7 +33449,7 @@
         <v>3564</v>
       </c>
       <c r="D1113" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E1113" t="s">
         <v>2785</v>
@@ -33463,7 +33466,7 @@
         <v>3565</v>
       </c>
       <c r="D1114" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E1114" t="s">
         <v>2713</v>
@@ -33480,7 +33483,7 @@
         <v>3566</v>
       </c>
       <c r="D1115" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1115" t="s">
         <v>2785</v>
@@ -33497,7 +33500,7 @@
         <v>3567</v>
       </c>
       <c r="D1116" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1116" t="s">
         <v>2786</v>
@@ -33616,7 +33619,7 @@
         <v>2350</v>
       </c>
       <c r="D1123" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E1123" t="s">
         <v>2789</v>
@@ -33650,7 +33653,7 @@
         <v>3570</v>
       </c>
       <c r="D1125" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E1125" t="s">
         <v>2790</v>
@@ -33684,7 +33687,7 @@
         <v>2703</v>
       </c>
       <c r="D1127" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E1127" t="s">
         <v>2506</v>
@@ -33820,7 +33823,7 @@
         <v>2775</v>
       </c>
       <c r="D1135" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E1135" t="s">
         <v>2796</v>
@@ -33854,7 +33857,7 @@
         <v>2856</v>
       </c>
       <c r="D1137" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1137" t="s">
         <v>2697</v>
@@ -33905,7 +33908,7 @@
         <v>3575</v>
       </c>
       <c r="D1140" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1140" t="s">
         <v>2799</v>
@@ -33922,7 +33925,7 @@
         <v>3501</v>
       </c>
       <c r="D1141" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1141" t="s">
         <v>3557</v>
@@ -33939,7 +33942,7 @@
         <v>2799</v>
       </c>
       <c r="D1142" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E1142" t="s">
         <v>2800</v>
@@ -34007,7 +34010,7 @@
         <v>2346</v>
       </c>
       <c r="D1146" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1146" t="s">
         <v>2802</v>
@@ -34058,7 +34061,7 @@
         <v>3501</v>
       </c>
       <c r="D1149" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1149" t="s">
         <v>2802</v>
@@ -34109,7 +34112,7 @@
         <v>3560</v>
       </c>
       <c r="D1152" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1152" t="s">
         <v>2805</v>
@@ -34177,7 +34180,7 @@
         <v>2781</v>
       </c>
       <c r="D1156" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1156" t="s">
         <v>2773</v>
@@ -34194,7 +34197,7 @@
         <v>2773</v>
       </c>
       <c r="D1157" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1157" t="s">
         <v>2247</v>
@@ -34211,7 +34214,7 @@
         <v>2247</v>
       </c>
       <c r="D1158" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1158" t="s">
         <v>2784</v>
@@ -34228,7 +34231,7 @@
         <v>2784</v>
       </c>
       <c r="D1159" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1159" t="s">
         <v>2806</v>
@@ -34245,7 +34248,7 @@
         <v>2809</v>
       </c>
       <c r="D1160" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1160" t="s">
         <v>2244</v>
@@ -34262,7 +34265,7 @@
         <v>2244</v>
       </c>
       <c r="D1161" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1161" t="s">
         <v>2806</v>
@@ -34279,7 +34282,7 @@
         <v>3564</v>
       </c>
       <c r="D1162" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1162" t="s">
         <v>2350</v>
@@ -34313,7 +34316,7 @@
         <v>2244</v>
       </c>
       <c r="D1164" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1164" t="s">
         <v>2368</v>
@@ -34364,7 +34367,7 @@
         <v>2371</v>
       </c>
       <c r="D1167" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1167" t="s">
         <v>2808</v>
@@ -34415,7 +34418,7 @@
         <v>3579</v>
       </c>
       <c r="D1170" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1170" t="s">
         <v>2480</v>
@@ -34432,7 +34435,7 @@
         <v>2720</v>
       </c>
       <c r="D1171" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E1171" t="s">
         <v>2764</v>
@@ -34449,7 +34452,7 @@
         <v>2815</v>
       </c>
       <c r="D1172" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1172" t="s">
         <v>2810</v>
@@ -34466,7 +34469,7 @@
         <v>3580</v>
       </c>
       <c r="D1173" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1173" t="s">
         <v>2811</v>
@@ -34585,7 +34588,7 @@
         <v>2256</v>
       </c>
       <c r="D1180" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1180" t="s">
         <v>2814</v>
@@ -34704,7 +34707,7 @@
         <v>2780</v>
       </c>
       <c r="D1187" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1187" t="s">
         <v>2720</v>
@@ -34738,7 +34741,7 @@
         <v>3584</v>
       </c>
       <c r="D1189" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1189" t="s">
         <v>2723</v>
@@ -34755,7 +34758,7 @@
         <v>2371</v>
       </c>
       <c r="D1190" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1190" t="s">
         <v>2817</v>
@@ -34806,7 +34809,7 @@
         <v>2819</v>
       </c>
       <c r="D1193" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1193" t="s">
         <v>2725</v>
@@ -34840,7 +34843,7 @@
         <v>2820</v>
       </c>
       <c r="D1195" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1195" t="s">
         <v>2246</v>
@@ -34857,7 +34860,7 @@
         <v>2375</v>
       </c>
       <c r="D1196" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1196" t="s">
         <v>2704</v>
@@ -34874,7 +34877,7 @@
         <v>2806</v>
       </c>
       <c r="D1197" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1197" t="s">
         <v>2822</v>
@@ -34925,7 +34928,7 @@
         <v>2823</v>
       </c>
       <c r="D1200" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1200" t="s">
         <v>2507</v>
@@ -34942,7 +34945,7 @@
         <v>2715</v>
       </c>
       <c r="D1201" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1201" t="s">
         <v>2666</v>
@@ -34959,7 +34962,7 @@
         <v>2202</v>
       </c>
       <c r="D1202" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1202" t="s">
         <v>2486</v>
@@ -35061,7 +35064,7 @@
         <v>2795</v>
       </c>
       <c r="D1208" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1208" t="s">
         <v>2804</v>
@@ -35078,7 +35081,7 @@
         <v>2713</v>
       </c>
       <c r="D1209" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1209" t="s">
         <v>2826</v>
@@ -35095,7 +35098,7 @@
         <v>2493</v>
       </c>
       <c r="D1210" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1210" t="s">
         <v>2827</v>
@@ -35146,7 +35149,7 @@
         <v>3435</v>
       </c>
       <c r="D1213" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1213" t="s">
         <v>2828</v>
@@ -35163,7 +35166,7 @@
         <v>3435</v>
       </c>
       <c r="D1214" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1214" t="s">
         <v>3435</v>
@@ -35180,7 +35183,7 @@
         <v>2486</v>
       </c>
       <c r="D1215" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1215" t="s">
         <v>2827</v>
@@ -35197,7 +35200,7 @@
         <v>2493</v>
       </c>
       <c r="D1216" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1216" t="s">
         <v>2241</v>
@@ -35248,7 +35251,7 @@
         <v>2506</v>
       </c>
       <c r="D1219" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1219" t="s">
         <v>2484</v>
@@ -35282,10 +35285,10 @@
         <v>2787</v>
       </c>
       <c r="D1221" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1221" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35299,7 +35302,7 @@
         <v>3501</v>
       </c>
       <c r="D1222" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1222" t="s">
         <v>2346</v>
@@ -35469,7 +35472,7 @@
         <v>2833</v>
       </c>
       <c r="D1232" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1232" t="s">
         <v>2739</v>
@@ -35486,7 +35489,7 @@
         <v>2421</v>
       </c>
       <c r="D1233" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1233" t="s">
         <v>2421</v>
@@ -35537,7 +35540,7 @@
         <v>2468</v>
       </c>
       <c r="D1236" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E1236" t="s">
         <v>2737</v>
@@ -35571,7 +35574,7 @@
         <v>2834</v>
       </c>
       <c r="D1238" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1238" t="s">
         <v>2430</v>
@@ -35588,7 +35591,7 @@
         <v>2430</v>
       </c>
       <c r="D1239" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1239" t="s">
         <v>2255</v>
@@ -35622,7 +35625,7 @@
         <v>3589</v>
       </c>
       <c r="D1241" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1241" t="s">
         <v>2743</v>
@@ -35690,7 +35693,7 @@
         <v>2275</v>
       </c>
       <c r="D1245" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1245" t="s">
         <v>2433</v>
@@ -35775,7 +35778,7 @@
         <v>2737</v>
       </c>
       <c r="D1250" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1250" t="s">
         <v>2445</v>
@@ -35826,7 +35829,7 @@
         <v>2410</v>
       </c>
       <c r="D1253" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1253" t="s">
         <v>2812</v>
@@ -35860,7 +35863,7 @@
         <v>2838</v>
       </c>
       <c r="D1255" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1255" t="s">
         <v>2839</v>
@@ -35877,7 +35880,7 @@
         <v>3436</v>
       </c>
       <c r="D1256" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1256" t="s">
         <v>2783</v>
@@ -36098,7 +36101,7 @@
         <v>3597</v>
       </c>
       <c r="D1269" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1269" t="s">
         <v>2844</v>
@@ -36115,7 +36118,7 @@
         <v>2844</v>
       </c>
       <c r="D1270" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1270" t="s">
         <v>2736</v>
@@ -36132,7 +36135,7 @@
         <v>3598</v>
       </c>
       <c r="D1271" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1271" t="s">
         <v>2475</v>
@@ -36217,7 +36220,7 @@
         <v>2256</v>
       </c>
       <c r="D1276" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1276" t="s">
         <v>2842</v>
@@ -36234,7 +36237,7 @@
         <v>2901</v>
       </c>
       <c r="D1277" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E1277" t="s">
         <v>2326</v>
@@ -36421,7 +36424,7 @@
         <v>2761</v>
       </c>
       <c r="D1288" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1288" t="s">
         <v>2846</v>
@@ -36642,7 +36645,7 @@
         <v>2848</v>
       </c>
       <c r="D1301" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1301" t="s">
         <v>2261</v>
@@ -36659,7 +36662,7 @@
         <v>3600</v>
       </c>
       <c r="D1302" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1302" t="s">
         <v>2263</v>
@@ -36761,7 +36764,7 @@
         <v>2904</v>
       </c>
       <c r="D1308" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1308" t="s">
         <v>2741</v>
@@ -36812,7 +36815,7 @@
         <v>3607</v>
       </c>
       <c r="D1311" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1311" t="s">
         <v>2849</v>
@@ -36829,7 +36832,7 @@
         <v>3607</v>
       </c>
       <c r="D1312" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1312" t="s">
         <v>2469</v>
@@ -36846,7 +36849,7 @@
         <v>2902</v>
       </c>
       <c r="D1313" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1313" t="s">
         <v>2429</v>
@@ -36880,7 +36883,7 @@
         <v>2323</v>
       </c>
       <c r="D1315" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1315" t="s">
         <v>2321</v>
@@ -36982,7 +36985,7 @@
         <v>3611</v>
       </c>
       <c r="D1321" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1321" t="s">
         <v>2852</v>
@@ -36999,7 +37002,7 @@
         <v>3612</v>
       </c>
       <c r="D1322" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1322" t="s">
         <v>2853</v>
@@ -37033,7 +37036,7 @@
         <v>3613</v>
       </c>
       <c r="D1324" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1324" t="s">
         <v>2360</v>
@@ -37050,7 +37053,7 @@
         <v>3614</v>
       </c>
       <c r="D1325" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1325" t="s">
         <v>2709</v>
@@ -37067,7 +37070,7 @@
         <v>3615</v>
       </c>
       <c r="D1326" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1326" t="s">
         <v>2366</v>
@@ -37084,7 +37087,7 @@
         <v>3616</v>
       </c>
       <c r="D1327" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1327" t="s">
         <v>2248</v>
@@ -37135,7 +37138,7 @@
         <v>3617</v>
       </c>
       <c r="D1330" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1330" t="s">
         <v>2376</v>
@@ -37169,7 +37172,7 @@
         <v>3618</v>
       </c>
       <c r="D1332" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1332" t="s">
         <v>2480</v>
@@ -37186,7 +37189,7 @@
         <v>3569</v>
       </c>
       <c r="D1333" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1333" t="s">
         <v>2782</v>
@@ -37288,7 +37291,7 @@
         <v>2773</v>
       </c>
       <c r="D1339" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1339" t="s">
         <v>2366</v>
@@ -37308,7 +37311,7 @@
         <v>2710</v>
       </c>
       <c r="E1340" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37322,7 +37325,7 @@
         <v>3621</v>
       </c>
       <c r="D1341" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1341" t="s">
         <v>2720</v>
@@ -37373,7 +37376,7 @@
         <v>2319</v>
       </c>
       <c r="D1344" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1344" t="s">
         <v>2351</v>
@@ -37390,7 +37393,7 @@
         <v>3622</v>
       </c>
       <c r="D1345" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1345" t="s">
         <v>2390</v>
@@ -37407,7 +37410,7 @@
         <v>3617</v>
       </c>
       <c r="D1346" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1346" t="s">
         <v>2775</v>
@@ -37441,7 +37444,7 @@
         <v>2783</v>
       </c>
       <c r="D1348" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1348" t="s">
         <v>2797</v>
@@ -37458,7 +37461,7 @@
         <v>2796</v>
       </c>
       <c r="D1349" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1349" t="s">
         <v>2855</v>
@@ -37475,7 +37478,7 @@
         <v>3616</v>
       </c>
       <c r="D1350" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1350" t="s">
         <v>2856</v>
@@ -37594,7 +37597,7 @@
         <v>2741</v>
       </c>
       <c r="D1357" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1357" t="s">
         <v>2857</v>
@@ -37628,7 +37631,7 @@
         <v>2269</v>
       </c>
       <c r="D1359" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1359" t="s">
         <v>2859</v>
@@ -37832,7 +37835,7 @@
         <v>3610</v>
       </c>
       <c r="D1371" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1371" t="s">
         <v>2464</v>
@@ -37900,7 +37903,7 @@
         <v>3627</v>
       </c>
       <c r="D1375" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1375" t="s">
         <v>2866</v>
@@ -37934,7 +37937,7 @@
         <v>3629</v>
       </c>
       <c r="D1377" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1377" t="s">
         <v>2868</v>
@@ -37951,10 +37954,10 @@
         <v>3630</v>
       </c>
       <c r="D1378" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1378" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -37968,10 +37971,10 @@
         <v>2920</v>
       </c>
       <c r="D1379" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1379" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -37985,7 +37988,7 @@
         <v>3631</v>
       </c>
       <c r="D1380" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1380" t="s">
         <v>3628</v>
@@ -38036,10 +38039,10 @@
         <v>3634</v>
       </c>
       <c r="D1383" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1383" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38053,10 +38056,10 @@
         <v>3635</v>
       </c>
       <c r="D1384" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1384" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38070,10 +38073,10 @@
         <v>3636</v>
       </c>
       <c r="D1385" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1385" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38087,7 +38090,7 @@
         <v>3637</v>
       </c>
       <c r="D1386" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1386" t="s">
         <v>2877</v>
@@ -38104,10 +38107,10 @@
         <v>3638</v>
       </c>
       <c r="D1387" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1387" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38124,7 +38127,7 @@
         <v>2309</v>
       </c>
       <c r="E1388" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38138,10 +38141,10 @@
         <v>3640</v>
       </c>
       <c r="D1389" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1389" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38155,10 +38158,10 @@
         <v>3025</v>
       </c>
       <c r="D1390" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1390" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38172,7 +38175,7 @@
         <v>3638</v>
       </c>
       <c r="D1391" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1391" t="s">
         <v>2882</v>
@@ -38192,7 +38195,7 @@
         <v>2303</v>
       </c>
       <c r="E1392" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38209,7 +38212,7 @@
         <v>3459</v>
       </c>
       <c r="E1393" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38223,10 +38226,10 @@
         <v>2955</v>
       </c>
       <c r="D1394" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1394" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38243,7 +38246,7 @@
         <v>2737</v>
       </c>
       <c r="E1395" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38257,7 +38260,7 @@
         <v>3643</v>
       </c>
       <c r="D1396" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1396" t="s">
         <v>2865</v>
@@ -38294,7 +38297,7 @@
         <v>2280</v>
       </c>
       <c r="E1398" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38308,10 +38311,10 @@
         <v>3645</v>
       </c>
       <c r="D1399" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1399" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38342,7 +38345,7 @@
         <v>3646</v>
       </c>
       <c r="D1401" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1401" t="s">
         <v>2891</v>
@@ -38376,7 +38379,7 @@
         <v>2892</v>
       </c>
       <c r="D1403" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1403" t="s">
         <v>3593</v>
@@ -38444,10 +38447,10 @@
         <v>3648</v>
       </c>
       <c r="D1407" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1407" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38478,10 +38481,10 @@
         <v>3650</v>
       </c>
       <c r="D1409" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1409" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38546,7 +38549,7 @@
         <v>3653</v>
       </c>
       <c r="D1413" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1413" t="s">
         <v>2900</v>
@@ -38566,7 +38569,7 @@
         <v>2841</v>
       </c>
       <c r="E1414" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38583,7 +38586,7 @@
         <v>2838</v>
       </c>
       <c r="E1415" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38597,7 +38600,7 @@
         <v>2419</v>
       </c>
       <c r="D1416" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1416" t="s">
         <v>2902</v>
@@ -38617,7 +38620,7 @@
         <v>2421</v>
       </c>
       <c r="E1417" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38631,10 +38634,10 @@
         <v>2467</v>
       </c>
       <c r="D1418" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1418" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38651,7 +38654,7 @@
         <v>2474</v>
       </c>
       <c r="E1419" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38702,7 +38705,7 @@
         <v>2906</v>
       </c>
       <c r="E1422" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38716,7 +38719,7 @@
         <v>3610</v>
       </c>
       <c r="D1423" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1423" t="s">
         <v>2335</v>
@@ -38736,7 +38739,7 @@
         <v>2464</v>
       </c>
       <c r="E1424" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38787,7 +38790,7 @@
         <v>3486</v>
       </c>
       <c r="E1427" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38818,7 +38821,7 @@
         <v>3657</v>
       </c>
       <c r="D1429" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1429" t="s">
         <v>2913</v>
@@ -38835,10 +38838,10 @@
         <v>3658</v>
       </c>
       <c r="D1430" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1430" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38869,7 +38872,7 @@
         <v>2915</v>
       </c>
       <c r="D1432" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1432" t="s">
         <v>2281</v>
@@ -38954,7 +38957,7 @@
         <v>3661</v>
       </c>
       <c r="D1437" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1437" t="s">
         <v>2919</v>
@@ -38971,7 +38974,7 @@
         <v>3662</v>
       </c>
       <c r="D1438" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1438" t="s">
         <v>2920</v>
@@ -39005,7 +39008,7 @@
         <v>3664</v>
       </c>
       <c r="D1440" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1440" t="s">
         <v>2922</v>
@@ -39039,7 +39042,7 @@
         <v>3665</v>
       </c>
       <c r="D1442" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1442" t="s">
         <v>2924</v>
@@ -39056,7 +39059,7 @@
         <v>2924</v>
       </c>
       <c r="D1443" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1443" t="s">
         <v>2925</v>
@@ -39073,7 +39076,7 @@
         <v>2436</v>
       </c>
       <c r="D1444" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1444" t="s">
         <v>2899</v>
@@ -39090,7 +39093,7 @@
         <v>3446</v>
       </c>
       <c r="D1445" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1445" t="s">
         <v>2926</v>
@@ -39124,10 +39127,10 @@
         <v>3667</v>
       </c>
       <c r="D1447" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1447" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39141,10 +39144,10 @@
         <v>3668</v>
       </c>
       <c r="D1448" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1448" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39158,7 +39161,7 @@
         <v>3669</v>
       </c>
       <c r="D1449" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1449" t="s">
         <v>2281</v>
@@ -39178,7 +39181,7 @@
         <v>2929</v>
       </c>
       <c r="E1450" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39226,10 +39229,10 @@
         <v>3673</v>
       </c>
       <c r="D1453" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1453" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39243,10 +39246,10 @@
         <v>3674</v>
       </c>
       <c r="D1454" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1454" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39260,7 +39263,7 @@
         <v>3675</v>
       </c>
       <c r="D1455" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1455" t="s">
         <v>3675</v>
@@ -39294,7 +39297,7 @@
         <v>3677</v>
       </c>
       <c r="D1457" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1457" t="s">
         <v>2935</v>
@@ -39311,7 +39314,7 @@
         <v>3678</v>
       </c>
       <c r="D1458" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1458" t="s">
         <v>2935</v>
@@ -39345,10 +39348,10 @@
         <v>2956</v>
       </c>
       <c r="D1460" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1460" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39362,10 +39365,10 @@
         <v>3680</v>
       </c>
       <c r="D1461" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1461" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39379,7 +39382,7 @@
         <v>2308</v>
       </c>
       <c r="D1462" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E1462" t="s">
         <v>2938</v>
@@ -39396,7 +39399,7 @@
         <v>3681</v>
       </c>
       <c r="D1463" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1463" t="s">
         <v>2958</v>
@@ -39413,10 +39416,10 @@
         <v>3682</v>
       </c>
       <c r="D1464" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1464" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39430,10 +39433,10 @@
         <v>2937</v>
       </c>
       <c r="D1465" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1465" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39464,10 +39467,10 @@
         <v>3684</v>
       </c>
       <c r="D1467" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1467" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39481,10 +39484,10 @@
         <v>3685</v>
       </c>
       <c r="D1468" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1468" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39501,7 +39504,7 @@
         <v>2944</v>
       </c>
       <c r="E1469" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39532,7 +39535,7 @@
         <v>3688</v>
       </c>
       <c r="D1471" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1471" t="s">
         <v>2935</v>
@@ -39549,10 +39552,10 @@
         <v>3459</v>
       </c>
       <c r="D1472" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1472" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39569,7 +39572,7 @@
         <v>2946</v>
       </c>
       <c r="E1473" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39583,10 +39586,10 @@
         <v>2935</v>
       </c>
       <c r="D1474" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1474" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39600,10 +39603,10 @@
         <v>2301</v>
       </c>
       <c r="D1475" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1475" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39617,7 +39620,7 @@
         <v>3689</v>
       </c>
       <c r="D1476" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1476" t="s">
         <v>2950</v>
@@ -39634,7 +39637,7 @@
         <v>3678</v>
       </c>
       <c r="D1477" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1477" t="s">
         <v>2951</v>
@@ -39685,7 +39688,7 @@
         <v>3690</v>
       </c>
       <c r="D1480" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1480" t="s">
         <v>2954</v>
@@ -39719,7 +39722,7 @@
         <v>3691</v>
       </c>
       <c r="D1482" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1482" t="s">
         <v>2956</v>
@@ -39736,7 +39739,7 @@
         <v>2956</v>
       </c>
       <c r="D1483" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1483" t="s">
         <v>2956</v>
@@ -39770,7 +39773,7 @@
         <v>2940</v>
       </c>
       <c r="D1485" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1485" t="s">
         <v>2307</v>
@@ -39787,7 +39790,7 @@
         <v>3693</v>
       </c>
       <c r="D1486" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1486" t="s">
         <v>2957</v>
@@ -39804,7 +39807,7 @@
         <v>3694</v>
       </c>
       <c r="D1487" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1487" t="s">
         <v>2939</v>
@@ -39821,10 +39824,10 @@
         <v>3684</v>
       </c>
       <c r="D1488" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1488" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39838,10 +39841,10 @@
         <v>3695</v>
       </c>
       <c r="D1489" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1489" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39858,7 +39861,7 @@
         <v>3710</v>
       </c>
       <c r="E1490" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -39906,7 +39909,7 @@
         <v>3697</v>
       </c>
       <c r="D1493" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1493" t="s">
         <v>2984</v>
@@ -39940,7 +39943,7 @@
         <v>3699</v>
       </c>
       <c r="D1495" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1495" t="s">
         <v>3024</v>
@@ -39957,7 +39960,7 @@
         <v>3700</v>
       </c>
       <c r="D1496" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1496" t="s">
         <v>2966</v>
@@ -39977,7 +39980,7 @@
         <v>2965</v>
       </c>
       <c r="E1497" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -39991,10 +39994,10 @@
         <v>3701</v>
       </c>
       <c r="D1498" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1498" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40025,10 +40028,10 @@
         <v>3703</v>
       </c>
       <c r="D1500" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1500" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40042,7 +40045,7 @@
         <v>3041</v>
       </c>
       <c r="D1501" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1501" t="s">
         <v>2971</v>
@@ -40062,7 +40065,7 @@
         <v>3702</v>
       </c>
       <c r="E1502" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40079,7 +40082,7 @@
         <v>2983</v>
       </c>
       <c r="E1503" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40093,7 +40096,7 @@
         <v>3706</v>
       </c>
       <c r="D1504" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1504" t="s">
         <v>3024</v>
@@ -40110,7 +40113,7 @@
         <v>3707</v>
       </c>
       <c r="D1505" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1505" t="s">
         <v>2974</v>
@@ -40147,7 +40150,7 @@
         <v>2975</v>
       </c>
       <c r="E1507" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40164,7 +40167,7 @@
         <v>2884</v>
       </c>
       <c r="E1508" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40178,10 +40181,10 @@
         <v>3710</v>
       </c>
       <c r="D1509" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1509" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40195,10 +40198,10 @@
         <v>2978</v>
       </c>
       <c r="D1510" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1510" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40212,7 +40215,7 @@
         <v>3711</v>
       </c>
       <c r="D1511" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1511" t="s">
         <v>2979</v>
@@ -40232,7 +40235,7 @@
         <v>2979</v>
       </c>
       <c r="E1512" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40246,10 +40249,10 @@
         <v>2962</v>
       </c>
       <c r="D1513" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1513" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40263,10 +40266,10 @@
         <v>3712</v>
       </c>
       <c r="D1514" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1514" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40280,7 +40283,7 @@
         <v>3713</v>
       </c>
       <c r="D1515" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1515" t="s">
         <v>2960</v>
@@ -40314,10 +40317,10 @@
         <v>2983</v>
       </c>
       <c r="D1517" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1517" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40331,10 +40334,10 @@
         <v>2984</v>
       </c>
       <c r="D1518" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1518" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40348,7 +40351,7 @@
         <v>3715</v>
       </c>
       <c r="D1519" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1519" t="s">
         <v>2979</v>
@@ -40365,10 +40368,10 @@
         <v>3683</v>
       </c>
       <c r="D1520" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1520" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40382,10 +40385,10 @@
         <v>3716</v>
       </c>
       <c r="D1521" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1521" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40399,10 +40402,10 @@
         <v>2962</v>
       </c>
       <c r="D1522" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1522" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40416,7 +40419,7 @@
         <v>3717</v>
       </c>
       <c r="D1523" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1523" t="s">
         <v>2990</v>
@@ -40470,7 +40473,7 @@
         <v>2990</v>
       </c>
       <c r="E1526" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40501,10 +40504,10 @@
         <v>3722</v>
       </c>
       <c r="D1528" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1528" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40535,7 +40538,7 @@
         <v>3724</v>
       </c>
       <c r="D1530" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1530" t="s">
         <v>3031</v>
@@ -40552,7 +40555,7 @@
         <v>3725</v>
       </c>
       <c r="D1531" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1531" t="s">
         <v>2996</v>
@@ -40586,10 +40589,10 @@
         <v>2996</v>
       </c>
       <c r="D1533" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1533" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40603,10 +40606,10 @@
         <v>3727</v>
       </c>
       <c r="D1534" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1534" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40620,10 +40623,10 @@
         <v>3728</v>
       </c>
       <c r="D1535" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1535" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40671,7 +40674,7 @@
         <v>3730</v>
       </c>
       <c r="D1538" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1538" t="s">
         <v>3001</v>
@@ -40688,7 +40691,7 @@
         <v>3731</v>
       </c>
       <c r="D1539" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1539" t="s">
         <v>3002</v>
@@ -40705,10 +40708,10 @@
         <v>3732</v>
       </c>
       <c r="D1540" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1540" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40722,7 +40725,7 @@
         <v>3733</v>
       </c>
       <c r="D1541" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1541" t="s">
         <v>3004</v>
@@ -40739,7 +40742,7 @@
         <v>3734</v>
       </c>
       <c r="D1542" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1542" t="s">
         <v>3005</v>
@@ -40773,7 +40776,7 @@
         <v>3736</v>
       </c>
       <c r="D1544" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1544" t="s">
         <v>3007</v>
@@ -40790,10 +40793,10 @@
         <v>3737</v>
       </c>
       <c r="D1545" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1545" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40824,7 +40827,7 @@
         <v>3739</v>
       </c>
       <c r="D1547" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1547" t="s">
         <v>3746</v>
@@ -40841,10 +40844,10 @@
         <v>3740</v>
       </c>
       <c r="D1548" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1548" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40861,7 +40864,7 @@
         <v>3037</v>
       </c>
       <c r="E1549" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40875,10 +40878,10 @@
         <v>3742</v>
       </c>
       <c r="D1550" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1550" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -40892,7 +40895,7 @@
         <v>3743</v>
       </c>
       <c r="D1551" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1551" t="s">
         <v>3013</v>
@@ -40909,10 +40912,10 @@
         <v>3743</v>
       </c>
       <c r="D1552" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1552" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -40926,10 +40929,10 @@
         <v>3014</v>
       </c>
       <c r="D1553" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1553" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -40943,7 +40946,7 @@
         <v>3744</v>
       </c>
       <c r="D1554" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1554" t="s">
         <v>3045</v>
@@ -40963,7 +40966,7 @@
         <v>3699</v>
       </c>
       <c r="E1555" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -40977,7 +40980,7 @@
         <v>3746</v>
       </c>
       <c r="D1556" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1556" t="s">
         <v>3018</v>
@@ -40994,7 +40997,7 @@
         <v>3018</v>
       </c>
       <c r="D1557" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1557" t="s">
         <v>3003</v>
@@ -41014,7 +41017,7 @@
         <v>3024</v>
       </c>
       <c r="E1558" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41028,7 +41031,7 @@
         <v>3748</v>
       </c>
       <c r="D1559" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1559" t="s">
         <v>3020</v>
@@ -41045,10 +41048,10 @@
         <v>3749</v>
       </c>
       <c r="D1560" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1560" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41062,10 +41065,10 @@
         <v>3055</v>
       </c>
       <c r="D1561" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1561" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41079,10 +41082,10 @@
         <v>3750</v>
       </c>
       <c r="D1562" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1562" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41096,7 +41099,7 @@
         <v>3023</v>
       </c>
       <c r="D1563" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1563" t="s">
         <v>3008</v>
@@ -41113,7 +41116,7 @@
         <v>3751</v>
       </c>
       <c r="D1564" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1564" t="s">
         <v>2965</v>
@@ -41130,10 +41133,10 @@
         <v>2967</v>
       </c>
       <c r="D1565" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1565" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41147,7 +41150,7 @@
         <v>3721</v>
       </c>
       <c r="D1566" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1566" t="s">
         <v>3026</v>
@@ -41164,7 +41167,7 @@
         <v>3752</v>
       </c>
       <c r="D1567" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1567" t="s">
         <v>3027</v>
@@ -41181,7 +41184,7 @@
         <v>3753</v>
       </c>
       <c r="D1568" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1568" t="s">
         <v>3028</v>
@@ -41198,7 +41201,7 @@
         <v>3754</v>
       </c>
       <c r="D1569" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1569" t="s">
         <v>3027</v>
@@ -41249,7 +41252,7 @@
         <v>3757</v>
       </c>
       <c r="D1572" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1572" t="s">
         <v>2995</v>
@@ -41266,7 +41269,7 @@
         <v>3032</v>
       </c>
       <c r="D1573" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1573" t="s">
         <v>3033</v>
@@ -41300,10 +41303,10 @@
         <v>3740</v>
       </c>
       <c r="D1575" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1575" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41317,7 +41320,7 @@
         <v>3758</v>
       </c>
       <c r="D1576" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1576" t="s">
         <v>3034</v>
@@ -41368,7 +41371,7 @@
         <v>3761</v>
       </c>
       <c r="D1579" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1579" t="s">
         <v>3037</v>
@@ -41385,10 +41388,10 @@
         <v>3762</v>
       </c>
       <c r="D1580" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1580" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41402,7 +41405,7 @@
         <v>3763</v>
       </c>
       <c r="D1581" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1581" t="s">
         <v>3039</v>
@@ -41419,7 +41422,7 @@
         <v>3039</v>
       </c>
       <c r="D1582" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1582" t="s">
         <v>3002</v>
@@ -41436,10 +41439,10 @@
         <v>3705</v>
       </c>
       <c r="D1583" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1583" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41456,7 +41459,7 @@
         <v>3703</v>
       </c>
       <c r="E1584" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41521,10 +41524,10 @@
         <v>3768</v>
       </c>
       <c r="D1588" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1588" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41538,7 +41541,7 @@
         <v>3769</v>
       </c>
       <c r="D1589" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1589" t="s">
         <v>3756</v>
@@ -41762,7 +41765,7 @@
         <v>3045</v>
       </c>
       <c r="E1602" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -41949,7 +41952,7 @@
         <v>3045</v>
       </c>
       <c r="E1613" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42119,7 +42122,7 @@
         <v>3045</v>
       </c>
       <c r="E1623" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42133,10 +42136,10 @@
         <v>3789</v>
       </c>
       <c r="D1624" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1624" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42150,10 +42153,10 @@
         <v>3790</v>
       </c>
       <c r="D1625" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1625" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42167,10 +42170,10 @@
         <v>3791</v>
       </c>
       <c r="D1626" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1626" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42184,7 +42187,7 @@
         <v>3792</v>
       </c>
       <c r="D1627" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1627" t="s">
         <v>3058</v>
@@ -42201,10 +42204,10 @@
         <v>3793</v>
       </c>
       <c r="D1628" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1628" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42218,10 +42221,10 @@
         <v>3794</v>
       </c>
       <c r="D1629" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1629" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42235,7 +42238,7 @@
         <v>3795</v>
       </c>
       <c r="D1630" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1630" t="s">
         <v>3054</v>
@@ -42252,7 +42255,7 @@
         <v>3796</v>
       </c>
       <c r="D1631" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1631" t="s">
         <v>3054</v>
@@ -42269,7 +42272,7 @@
         <v>3797</v>
       </c>
       <c r="D1632" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1632" t="s">
         <v>3053</v>
@@ -42286,7 +42289,7 @@
         <v>3798</v>
       </c>
       <c r="D1633" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1633" t="s">
         <v>3053</v>
@@ -42303,7 +42306,7 @@
         <v>3798</v>
       </c>
       <c r="D1634" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1634" t="s">
         <v>3052</v>
@@ -42320,7 +42323,7 @@
         <v>3799</v>
       </c>
       <c r="D1635" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1635" t="s">
         <v>3060</v>
@@ -42337,7 +42340,7 @@
         <v>3782</v>
       </c>
       <c r="D1636" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1636" t="s">
         <v>3060</v>
@@ -42459,7 +42462,7 @@
         <v>3060</v>
       </c>
       <c r="E1643" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42544,7 +42547,7 @@
         <v>3060</v>
       </c>
       <c r="E1648" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42864,7 +42867,7 @@
         <v>3822</v>
       </c>
       <c r="D1667" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1667" t="s">
         <v>3060</v>
@@ -42881,7 +42884,7 @@
         <v>3060</v>
       </c>
       <c r="D1668" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1668" t="s">
         <v>3060</v>
@@ -42898,7 +42901,7 @@
         <v>3060</v>
       </c>
       <c r="D1669" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1669" t="s">
         <v>3060</v>
@@ -42918,7 +42921,7 @@
         <v>3776</v>
       </c>
       <c r="E1670" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42949,10 +42952,10 @@
         <v>3824</v>
       </c>
       <c r="D1672" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1672" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -42966,10 +42969,10 @@
         <v>3825</v>
       </c>
       <c r="D1673" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1673" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -42983,10 +42986,10 @@
         <v>3312</v>
       </c>
       <c r="D1674" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1674" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -43000,7 +43003,7 @@
         <v>3826</v>
       </c>
       <c r="D1675" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1675" t="s">
         <v>3985</v>
@@ -43017,10 +43020,10 @@
         <v>3827</v>
       </c>
       <c r="D1676" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1676" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43034,10 +43037,10 @@
         <v>3828</v>
       </c>
       <c r="D1677" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1677" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43051,10 +43054,10 @@
         <v>3829</v>
       </c>
       <c r="D1678" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1678" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43068,10 +43071,10 @@
         <v>3830</v>
       </c>
       <c r="D1679" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1679" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43085,10 +43088,10 @@
         <v>3831</v>
       </c>
       <c r="D1680" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1680" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43102,7 +43105,7 @@
         <v>3832</v>
       </c>
       <c r="D1681" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1681" t="s">
         <v>3075</v>
@@ -43204,7 +43207,7 @@
         <v>3076</v>
       </c>
       <c r="D1687" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1687" t="s">
         <v>3076</v>
@@ -43221,10 +43224,10 @@
         <v>3076</v>
       </c>
       <c r="D1688" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1688" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43238,7 +43241,7 @@
         <v>3076</v>
       </c>
       <c r="D1689" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1689" t="s">
         <v>3076</v>
@@ -43255,7 +43258,7 @@
         <v>3076</v>
       </c>
       <c r="D1690" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1690" t="s">
         <v>3076</v>
@@ -43306,7 +43309,7 @@
         <v>3076</v>
       </c>
       <c r="D1693" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1693" t="s">
         <v>3076</v>
@@ -43323,10 +43326,10 @@
         <v>3076</v>
       </c>
       <c r="D1694" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1694" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43340,7 +43343,7 @@
         <v>3076</v>
       </c>
       <c r="D1695" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1695" t="s">
         <v>3076</v>
@@ -43357,7 +43360,7 @@
         <v>3076</v>
       </c>
       <c r="D1696" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1696" t="s">
         <v>3076</v>
@@ -43530,7 +43533,7 @@
         <v>3076</v>
       </c>
       <c r="E1706" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43581,7 +43584,7 @@
         <v>3076</v>
       </c>
       <c r="E1709" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43663,10 +43666,10 @@
         <v>3849</v>
       </c>
       <c r="D1714" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1714" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43680,10 +43683,10 @@
         <v>3850</v>
       </c>
       <c r="D1715" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1715" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43697,10 +43700,10 @@
         <v>3851</v>
       </c>
       <c r="D1716" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1716" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43717,7 +43720,7 @@
         <v>3095</v>
       </c>
       <c r="E1717" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43731,7 +43734,7 @@
         <v>3853</v>
       </c>
       <c r="D1718" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1718" t="s">
         <v>3086</v>
@@ -43748,7 +43751,7 @@
         <v>3854</v>
       </c>
       <c r="D1719" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1719" t="s">
         <v>3085</v>
@@ -43765,10 +43768,10 @@
         <v>3855</v>
       </c>
       <c r="D1720" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1720" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43782,7 +43785,7 @@
         <v>3856</v>
       </c>
       <c r="D1721" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1721" t="s">
         <v>3088</v>
@@ -43802,7 +43805,7 @@
         <v>4054</v>
       </c>
       <c r="E1722" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43816,7 +43819,7 @@
         <v>3858</v>
       </c>
       <c r="D1723" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1723" t="s">
         <v>3090</v>
@@ -43833,10 +43836,10 @@
         <v>3859</v>
       </c>
       <c r="D1724" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1724" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43850,7 +43853,7 @@
         <v>3860</v>
       </c>
       <c r="D1725" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1725" t="s">
         <v>3092</v>
@@ -43884,7 +43887,7 @@
         <v>3862</v>
       </c>
       <c r="D1727" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1727" t="s">
         <v>3094</v>
@@ -43986,7 +43989,7 @@
         <v>3866</v>
       </c>
       <c r="D1733" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1733" t="s">
         <v>3095</v>
@@ -44054,7 +44057,7 @@
         <v>3869</v>
       </c>
       <c r="D1737" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1737" t="s">
         <v>3096</v>
@@ -44071,7 +44074,7 @@
         <v>3870</v>
       </c>
       <c r="D1738" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1738" t="s">
         <v>3097</v>
@@ -44105,7 +44108,7 @@
         <v>3100</v>
       </c>
       <c r="D1740" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1740" t="s">
         <v>3861</v>
@@ -44125,7 +44128,7 @@
         <v>3099</v>
       </c>
       <c r="E1741" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44190,10 +44193,10 @@
         <v>3102</v>
       </c>
       <c r="D1745" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1745" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44207,10 +44210,10 @@
         <v>3873</v>
       </c>
       <c r="D1746" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1746" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44360,7 +44363,7 @@
         <v>3876</v>
       </c>
       <c r="D1755" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1755" t="s">
         <v>3113</v>
@@ -44411,7 +44414,7 @@
         <v>3879</v>
       </c>
       <c r="D1758" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1758" t="s">
         <v>3116</v>
@@ -44462,7 +44465,7 @@
         <v>3881</v>
       </c>
       <c r="D1761" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1761" t="s">
         <v>3119</v>
@@ -44496,7 +44499,7 @@
         <v>3883</v>
       </c>
       <c r="D1763" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1763" t="s">
         <v>3121</v>
@@ -44513,7 +44516,7 @@
         <v>3884</v>
       </c>
       <c r="D1764" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1764" t="s">
         <v>3122</v>
@@ -44581,7 +44584,7 @@
         <v>3888</v>
       </c>
       <c r="D1768" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1768" t="s">
         <v>3126</v>
@@ -44598,7 +44601,7 @@
         <v>3889</v>
       </c>
       <c r="D1769" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1769" t="s">
         <v>3127</v>
@@ -44618,7 +44621,7 @@
         <v>3127</v>
       </c>
       <c r="E1770" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44632,7 +44635,7 @@
         <v>3891</v>
       </c>
       <c r="D1771" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1771" t="s">
         <v>3129</v>
@@ -44649,7 +44652,7 @@
         <v>3892</v>
       </c>
       <c r="D1772" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1772" t="s">
         <v>3130</v>
@@ -44666,7 +44669,7 @@
         <v>3893</v>
       </c>
       <c r="D1773" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1773" t="s">
         <v>3131</v>
@@ -44683,7 +44686,7 @@
         <v>3894</v>
       </c>
       <c r="D1774" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1774" t="s">
         <v>3132</v>
@@ -44751,7 +44754,7 @@
         <v>3898</v>
       </c>
       <c r="D1778" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1778" t="s">
         <v>3136</v>
@@ -44768,10 +44771,10 @@
         <v>3899</v>
       </c>
       <c r="D1779" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1779" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44785,7 +44788,7 @@
         <v>3900</v>
       </c>
       <c r="D1780" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1780" t="s">
         <v>3130</v>
@@ -44802,7 +44805,7 @@
         <v>3901</v>
       </c>
       <c r="D1781" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1781" t="s">
         <v>3137</v>
@@ -44836,7 +44839,7 @@
         <v>3903</v>
       </c>
       <c r="D1783" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1783" t="s">
         <v>3139</v>
@@ -44972,7 +44975,7 @@
         <v>3140</v>
       </c>
       <c r="D1791" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1791" t="s">
         <v>3140</v>
@@ -45040,10 +45043,10 @@
         <v>3140</v>
       </c>
       <c r="D1795" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1795" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45057,10 +45060,10 @@
         <v>3140</v>
       </c>
       <c r="D1796" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1796" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45074,10 +45077,10 @@
         <v>3140</v>
       </c>
       <c r="D1797" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1797" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45091,10 +45094,10 @@
         <v>3140</v>
       </c>
       <c r="D1798" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1798" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45108,7 +45111,7 @@
         <v>3907</v>
       </c>
       <c r="D1799" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1799" t="s">
         <v>3142</v>
@@ -45125,10 +45128,10 @@
         <v>3908</v>
       </c>
       <c r="D1800" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1800" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45142,7 +45145,7 @@
         <v>3140</v>
       </c>
       <c r="D1801" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1801" t="s">
         <v>3198</v>
@@ -45159,7 +45162,7 @@
         <v>3909</v>
       </c>
       <c r="D1802" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1802" t="s">
         <v>3145</v>
@@ -45176,7 +45179,7 @@
         <v>3188</v>
       </c>
       <c r="D1803" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1803" t="s">
         <v>3146</v>
@@ -45210,7 +45213,7 @@
         <v>3911</v>
       </c>
       <c r="D1805" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1805" t="s">
         <v>3148</v>
@@ -45244,7 +45247,7 @@
         <v>3913</v>
       </c>
       <c r="D1807" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1807" t="s">
         <v>3150</v>
@@ -45278,7 +45281,7 @@
         <v>3915</v>
       </c>
       <c r="D1809" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1809" t="s">
         <v>3152</v>
@@ -45295,7 +45298,7 @@
         <v>3915</v>
       </c>
       <c r="D1810" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1810" t="s">
         <v>3153</v>
@@ -45312,7 +45315,7 @@
         <v>3916</v>
       </c>
       <c r="D1811" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1811" t="s">
         <v>3154</v>
@@ -45329,7 +45332,7 @@
         <v>3917</v>
       </c>
       <c r="D1812" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1812" t="s">
         <v>3155</v>
@@ -45346,7 +45349,7 @@
         <v>3918</v>
       </c>
       <c r="D1813" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1813" t="s">
         <v>3156</v>
@@ -45363,7 +45366,7 @@
         <v>3919</v>
       </c>
       <c r="D1814" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1814" t="s">
         <v>3157</v>
@@ -45380,7 +45383,7 @@
         <v>3919</v>
       </c>
       <c r="D1815" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1815" t="s">
         <v>3158</v>
@@ -45397,7 +45400,7 @@
         <v>3920</v>
       </c>
       <c r="D1816" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1816" t="s">
         <v>3159</v>
@@ -45414,7 +45417,7 @@
         <v>3921</v>
       </c>
       <c r="D1817" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1817" t="s">
         <v>3160</v>
@@ -45448,7 +45451,7 @@
         <v>3158</v>
       </c>
       <c r="D1819" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1819" t="s">
         <v>3162</v>
@@ -45465,7 +45468,7 @@
         <v>3923</v>
       </c>
       <c r="D1820" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1820" t="s">
         <v>3163</v>
@@ -45516,7 +45519,7 @@
         <v>3926</v>
       </c>
       <c r="D1823" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1823" t="s">
         <v>3166</v>
@@ -45536,7 +45539,7 @@
         <v>3166</v>
       </c>
       <c r="E1824" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45553,7 +45556,7 @@
         <v>3156</v>
       </c>
       <c r="E1825" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45567,10 +45570,10 @@
         <v>3929</v>
       </c>
       <c r="D1826" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1826" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45584,7 +45587,7 @@
         <v>3930</v>
       </c>
       <c r="D1827" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1827" t="s">
         <v>3170</v>
@@ -45601,7 +45604,7 @@
         <v>3931</v>
       </c>
       <c r="D1828" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1828" t="s">
         <v>3171</v>
@@ -45618,7 +45621,7 @@
         <v>3873</v>
       </c>
       <c r="D1829" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1829" t="s">
         <v>3172</v>
@@ -45652,7 +45655,7 @@
         <v>3933</v>
       </c>
       <c r="D1831" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1831" t="s">
         <v>3174</v>
@@ -45686,7 +45689,7 @@
         <v>3935</v>
       </c>
       <c r="D1833" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1833" t="s">
         <v>3933</v>
@@ -45720,7 +45723,7 @@
         <v>3937</v>
       </c>
       <c r="D1835" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1835" t="s">
         <v>3938</v>
@@ -45737,7 +45740,7 @@
         <v>3938</v>
       </c>
       <c r="D1836" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1836" t="s">
         <v>3179</v>
@@ -45754,7 +45757,7 @@
         <v>3939</v>
       </c>
       <c r="D1837" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1837" t="s">
         <v>3180</v>
@@ -45771,10 +45774,10 @@
         <v>3940</v>
       </c>
       <c r="D1838" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1838" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45788,7 +45791,7 @@
         <v>3941</v>
       </c>
       <c r="D1839" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1839" t="s">
         <v>3182</v>
@@ -45805,7 +45808,7 @@
         <v>3942</v>
       </c>
       <c r="D1840" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1840" t="s">
         <v>3183</v>
@@ -45822,7 +45825,7 @@
         <v>3943</v>
       </c>
       <c r="D1841" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1841" t="s">
         <v>3184</v>
@@ -45856,7 +45859,7 @@
         <v>3941</v>
       </c>
       <c r="D1843" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1843" t="s">
         <v>3186</v>
@@ -45873,10 +45876,10 @@
         <v>3944</v>
       </c>
       <c r="D1844" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1844" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -45907,7 +45910,7 @@
         <v>3151</v>
       </c>
       <c r="D1846" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1846" t="s">
         <v>3151</v>
@@ -45924,7 +45927,7 @@
         <v>3189</v>
       </c>
       <c r="D1847" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1847" t="s">
         <v>3190</v>
@@ -45944,7 +45947,7 @@
         <v>3191</v>
       </c>
       <c r="E1848" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -45958,7 +45961,7 @@
         <v>3947</v>
       </c>
       <c r="D1849" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1849" t="s">
         <v>3192</v>
@@ -45978,7 +45981,7 @@
         <v>3192</v>
       </c>
       <c r="E1850" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -45992,7 +45995,7 @@
         <v>3949</v>
       </c>
       <c r="D1851" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1851" t="s">
         <v>3194</v>
@@ -46026,7 +46029,7 @@
         <v>3148</v>
       </c>
       <c r="D1853" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1853" t="s">
         <v>3196</v>
@@ -46046,7 +46049,7 @@
         <v>4051</v>
       </c>
       <c r="E1854" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46060,7 +46063,7 @@
         <v>3952</v>
       </c>
       <c r="D1855" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1855" t="s">
         <v>3198</v>
@@ -46094,7 +46097,7 @@
         <v>3953</v>
       </c>
       <c r="D1857" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1857" t="s">
         <v>3200</v>
@@ -46128,7 +46131,7 @@
         <v>3955</v>
       </c>
       <c r="D1859" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1859" t="s">
         <v>3202</v>
@@ -46145,7 +46148,7 @@
         <v>3956</v>
       </c>
       <c r="D1860" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1860" t="s">
         <v>3203</v>
@@ -46162,10 +46165,10 @@
         <v>3203</v>
       </c>
       <c r="D1861" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1861" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46199,7 +46202,7 @@
         <v>4006</v>
       </c>
       <c r="E1863" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46213,7 +46216,7 @@
         <v>3957</v>
       </c>
       <c r="D1864" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1864" t="s">
         <v>3206</v>
@@ -46230,7 +46233,7 @@
         <v>3958</v>
       </c>
       <c r="D1865" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1865" t="s">
         <v>3207</v>
@@ -46267,7 +46270,7 @@
         <v>3979</v>
       </c>
       <c r="E1867" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46281,10 +46284,10 @@
         <v>3209</v>
       </c>
       <c r="D1868" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1868" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46335,7 +46338,7 @@
         <v>3212</v>
       </c>
       <c r="E1871" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46349,7 +46352,7 @@
         <v>3964</v>
       </c>
       <c r="D1872" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1872" t="s">
         <v>3214</v>
@@ -46369,7 +46372,7 @@
         <v>3214</v>
       </c>
       <c r="E1873" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46383,7 +46386,7 @@
         <v>3966</v>
       </c>
       <c r="D1874" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1874" t="s">
         <v>3216</v>
@@ -46417,10 +46420,10 @@
         <v>3968</v>
       </c>
       <c r="D1876" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1876" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46434,10 +46437,10 @@
         <v>3969</v>
       </c>
       <c r="D1877" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1877" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46502,7 +46505,7 @@
         <v>3820</v>
       </c>
       <c r="D1881" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1881" t="s">
         <v>3820</v>
@@ -46587,7 +46590,7 @@
         <v>3975</v>
       </c>
       <c r="D1886" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1886" t="s">
         <v>3809</v>
@@ -46621,10 +46624,10 @@
         <v>3977</v>
       </c>
       <c r="D1888" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1888" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46638,7 +46641,7 @@
         <v>3978</v>
       </c>
       <c r="D1889" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1889" t="s">
         <v>3230</v>
@@ -46689,7 +46692,7 @@
         <v>3232</v>
       </c>
       <c r="D1892" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1892" t="s">
         <v>3233</v>
@@ -46706,7 +46709,7 @@
         <v>3981</v>
       </c>
       <c r="D1893" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1893" t="s">
         <v>3234</v>
@@ -46723,7 +46726,7 @@
         <v>3982</v>
       </c>
       <c r="D1894" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1894" t="s">
         <v>3235</v>
@@ -46740,7 +46743,7 @@
         <v>3983</v>
       </c>
       <c r="D1895" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1895" t="s">
         <v>3236</v>
@@ -46808,7 +46811,7 @@
         <v>3987</v>
       </c>
       <c r="D1899" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1899" t="s">
         <v>3240</v>
@@ -46842,7 +46845,7 @@
         <v>3988</v>
       </c>
       <c r="D1901" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1901" t="s">
         <v>3242</v>
@@ -46876,7 +46879,7 @@
         <v>3989</v>
       </c>
       <c r="D1903" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1903" t="s">
         <v>3244</v>
@@ -46910,7 +46913,7 @@
         <v>3246</v>
       </c>
       <c r="D1905" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1905" t="s">
         <v>3246</v>
@@ -46944,7 +46947,7 @@
         <v>3991</v>
       </c>
       <c r="D1907" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1907" t="s">
         <v>3248</v>
@@ -46961,7 +46964,7 @@
         <v>3982</v>
       </c>
       <c r="D1908" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1908" t="s">
         <v>3249</v>
@@ -46978,7 +46981,7 @@
         <v>3076</v>
       </c>
       <c r="D1909" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1909" t="s">
         <v>3250</v>
@@ -46995,7 +46998,7 @@
         <v>3250</v>
       </c>
       <c r="D1910" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1910" t="s">
         <v>3251</v>
@@ -47046,7 +47049,7 @@
         <v>3992</v>
       </c>
       <c r="D1913" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1913" t="s">
         <v>3254</v>
@@ -47063,10 +47066,10 @@
         <v>3993</v>
       </c>
       <c r="D1914" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1914" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47114,7 +47117,7 @@
         <v>3257</v>
       </c>
       <c r="D1917" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1917" t="s">
         <v>3258</v>
@@ -47148,10 +47151,10 @@
         <v>3996</v>
       </c>
       <c r="D1919" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1919" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47182,7 +47185,7 @@
         <v>3998</v>
       </c>
       <c r="D1921" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1921" t="s">
         <v>3262</v>
@@ -47199,7 +47202,7 @@
         <v>3999</v>
       </c>
       <c r="D1922" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1922" t="s">
         <v>3263</v>
@@ -47216,7 +47219,7 @@
         <v>3264</v>
       </c>
       <c r="D1923" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1923" t="s">
         <v>3264</v>
@@ -47233,7 +47236,7 @@
         <v>4000</v>
       </c>
       <c r="D1924" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1924" t="s">
         <v>3265</v>
@@ -47301,7 +47304,7 @@
         <v>3239</v>
       </c>
       <c r="D1928" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1928" t="s">
         <v>3269</v>
@@ -47352,7 +47355,7 @@
         <v>4002</v>
       </c>
       <c r="D1931" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1931" t="s">
         <v>3272</v>
@@ -47369,7 +47372,7 @@
         <v>3283</v>
       </c>
       <c r="D1932" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1932" t="s">
         <v>3273</v>
@@ -47386,7 +47389,7 @@
         <v>3274</v>
       </c>
       <c r="D1933" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1933" t="s">
         <v>3274</v>
@@ -47403,7 +47406,7 @@
         <v>4003</v>
       </c>
       <c r="D1934" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1934" t="s">
         <v>3275</v>
@@ -47420,7 +47423,7 @@
         <v>4004</v>
       </c>
       <c r="D1935" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1935" t="s">
         <v>3276</v>
@@ -47454,7 +47457,7 @@
         <v>4005</v>
       </c>
       <c r="D1937" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1937" t="s">
         <v>3278</v>
@@ -47471,7 +47474,7 @@
         <v>4006</v>
       </c>
       <c r="D1938" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1938" t="s">
         <v>3279</v>
@@ -47505,7 +47508,7 @@
         <v>3991</v>
       </c>
       <c r="D1940" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1940" t="s">
         <v>3281</v>
@@ -47522,7 +47525,7 @@
         <v>4008</v>
       </c>
       <c r="D1941" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1941" t="s">
         <v>3282</v>
@@ -47573,7 +47576,7 @@
         <v>4011</v>
       </c>
       <c r="D1944" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1944" t="s">
         <v>3285</v>
@@ -47658,7 +47661,7 @@
         <v>4014</v>
       </c>
       <c r="D1949" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1949" t="s">
         <v>3290</v>
@@ -47709,7 +47712,7 @@
         <v>4016</v>
       </c>
       <c r="D1952" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1952" t="s">
         <v>3292</v>
@@ -47726,7 +47729,7 @@
         <v>4017</v>
       </c>
       <c r="D1953" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1953" t="s">
         <v>3293</v>
@@ -47743,7 +47746,7 @@
         <v>4018</v>
       </c>
       <c r="D1954" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1954" t="s">
         <v>3294</v>
@@ -47760,7 +47763,7 @@
         <v>4019</v>
       </c>
       <c r="D1955" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1955" t="s">
         <v>3295</v>
@@ -47777,7 +47780,7 @@
         <v>3296</v>
       </c>
       <c r="D1956" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1956" t="s">
         <v>3296</v>
@@ -47794,7 +47797,7 @@
         <v>3297</v>
       </c>
       <c r="D1957" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1957" t="s">
         <v>3297</v>
@@ -47811,7 +47814,7 @@
         <v>3270</v>
       </c>
       <c r="D1958" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1958" t="s">
         <v>3298</v>
@@ -47828,7 +47831,7 @@
         <v>4020</v>
       </c>
       <c r="D1959" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1959" t="s">
         <v>3221</v>
@@ -47862,7 +47865,7 @@
         <v>3241</v>
       </c>
       <c r="D1961" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1961" t="s">
         <v>3300</v>
@@ -47896,7 +47899,7 @@
         <v>3286</v>
       </c>
       <c r="D1963" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1963" t="s">
         <v>3302</v>
@@ -47913,7 +47916,7 @@
         <v>4021</v>
       </c>
       <c r="D1964" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1964" t="s">
         <v>3303</v>
@@ -47930,7 +47933,7 @@
         <v>4022</v>
       </c>
       <c r="D1965" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1965" t="s">
         <v>3304</v>
@@ -47947,7 +47950,7 @@
         <v>3285</v>
       </c>
       <c r="D1966" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1966" t="s">
         <v>3305</v>
@@ -47964,7 +47967,7 @@
         <v>3831</v>
       </c>
       <c r="D1967" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1967" t="s">
         <v>3306</v>
@@ -48032,7 +48035,7 @@
         <v>4025</v>
       </c>
       <c r="D1971" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1971" t="s">
         <v>3310</v>
@@ -48049,7 +48052,7 @@
         <v>4026</v>
       </c>
       <c r="D1972" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1972" t="s">
         <v>3311</v>
@@ -48066,7 +48069,7 @@
         <v>3254</v>
       </c>
       <c r="D1973" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1973" t="s">
         <v>3312</v>
@@ -48100,7 +48103,7 @@
         <v>3286</v>
       </c>
       <c r="D1975" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1975" t="s">
         <v>3314</v>
@@ -48134,7 +48137,7 @@
         <v>4028</v>
       </c>
       <c r="D1977" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1977" t="s">
         <v>3316</v>
@@ -48202,7 +48205,7 @@
         <v>4031</v>
       </c>
       <c r="D1981" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1981" t="s">
         <v>3319</v>
@@ -48219,7 +48222,7 @@
         <v>3319</v>
       </c>
       <c r="D1982" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1982" t="s">
         <v>3279</v>
@@ -48236,7 +48239,7 @@
         <v>4032</v>
       </c>
       <c r="D1983" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1983" t="s">
         <v>3320</v>
@@ -48256,7 +48259,7 @@
         <v>3320</v>
       </c>
       <c r="E1984" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48287,7 +48290,7 @@
         <v>4034</v>
       </c>
       <c r="D1986" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1986" t="s">
         <v>3323</v>
@@ -48304,7 +48307,7 @@
         <v>4035</v>
       </c>
       <c r="D1987" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1987" t="s">
         <v>3324</v>
@@ -48338,7 +48341,7 @@
         <v>3324</v>
       </c>
       <c r="D1989" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1989" t="s">
         <v>3325</v>
@@ -48355,7 +48358,7 @@
         <v>4036</v>
       </c>
       <c r="D1990" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1990" t="s">
         <v>3326</v>
@@ -48372,7 +48375,7 @@
         <v>4037</v>
       </c>
       <c r="D1991" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1991" t="s">
         <v>3327</v>
@@ -48389,7 +48392,7 @@
         <v>4038</v>
       </c>
       <c r="D1992" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1992" t="s">
         <v>3328</v>
@@ -48406,7 +48409,7 @@
         <v>3093</v>
       </c>
       <c r="D1993" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1993" t="s">
         <v>3329</v>
@@ -48423,7 +48426,7 @@
         <v>4039</v>
       </c>
       <c r="D1994" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1994" t="s">
         <v>3330</v>
@@ -48440,7 +48443,7 @@
         <v>4040</v>
       </c>
       <c r="D1995" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1995" t="s">
         <v>3331</v>
@@ -48457,7 +48460,7 @@
         <v>4041</v>
       </c>
       <c r="D1996" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1996" t="s">
         <v>3332</v>
@@ -48491,7 +48494,7 @@
         <v>4043</v>
       </c>
       <c r="D1998" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1998" t="s">
         <v>3334</v>
@@ -48610,7 +48613,7 @@
         <v>4048</v>
       </c>
       <c r="D2005" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E2005" t="s">
         <v>3341</v>
@@ -48627,7 +48630,7 @@
         <v>4049</v>
       </c>
       <c r="D2006" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E2006" t="s">
         <v>3342</v>
@@ -48644,7 +48647,7 @@
         <v>4050</v>
       </c>
       <c r="D2007" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E2007" t="s">
         <v>3343</v>
@@ -48661,10 +48664,10 @@
         <v>4051</v>
       </c>
       <c r="D2008" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E2008" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48712,7 +48715,7 @@
         <v>4053</v>
       </c>
       <c r="D2011" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E2011" t="s">
         <v>3347</v>
@@ -48729,10 +48732,10 @@
         <v>4054</v>
       </c>
       <c r="D2012" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E2012" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48746,7 +48749,7 @@
         <v>4055</v>
       </c>
       <c r="D2013" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E2013" t="s">
         <v>3212</v>
@@ -48763,10 +48766,10 @@
         <v>4056</v>
       </c>
       <c r="D2014" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E2014" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48780,7 +48783,7 @@
         <v>4057</v>
       </c>
       <c r="D2015" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E2015" t="s">
         <v>3350</v>
@@ -48848,7 +48851,7 @@
         <v>4059</v>
       </c>
       <c r="D2019" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E2019" t="s">
         <v>3354</v>
@@ -48865,10 +48868,10 @@
         <v>4060</v>
       </c>
       <c r="D2020" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E2020" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -48933,7 +48936,7 @@
         <v>4063</v>
       </c>
       <c r="D2024" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E2024" t="s">
         <v>3358</v>
@@ -48950,7 +48953,7 @@
         <v>4058</v>
       </c>
       <c r="D2025" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E2025" t="s">
         <v>3359</v>
@@ -48984,7 +48987,7 @@
         <v>4064</v>
       </c>
       <c r="D2027" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E2027" t="s">
         <v>3360</v>
@@ -49018,7 +49021,7 @@
         <v>3093</v>
       </c>
       <c r="D2029" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E2029" t="s">
         <v>3362</v>
@@ -49035,7 +49038,7 @@
         <v>4066</v>
       </c>
       <c r="D2030" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E2030" t="s">
         <v>3363</v>
@@ -49083,13 +49086,13 @@
         <v>3276</v>
       </c>
       <c r="C2033" t="s">
-        <v>3276</v>
+        <v>4068</v>
       </c>
       <c r="D2033" t="s">
         <v>3276</v>
       </c>
       <c r="E2033" t="s">
-        <v>3276</v>
+        <v>3364</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12220,7 +12220,7 @@
     <t>3.85660</t>
   </si>
   <si>
-    <t>3.85070</t>
+    <t>3.87200</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -49089,10 +49089,10 @@
         <v>4068</v>
       </c>
       <c r="D2033" t="s">
-        <v>3276</v>
+        <v>3319</v>
       </c>
       <c r="E2033" t="s">
-        <v>3364</v>
+        <v>3319</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10170" uniqueCount="4722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10170" uniqueCount="4723">
   <si>
     <t>1. open</t>
   </si>
@@ -12226,7 +12226,7 @@
     <t>3.87200</t>
   </si>
   <si>
-    <t>3.84070</t>
+    <t>3.89160</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14180,6 +14180,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.87740</t>
   </si>
 </sst>
 </file>
@@ -49118,7 +49121,7 @@
         <v>4602</v>
       </c>
       <c r="E2034" t="s">
-        <v>4602</v>
+        <v>4722</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10175" uniqueCount="4727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10175" uniqueCount="4728">
   <si>
     <t>1. open</t>
   </si>
@@ -13837,7 +13837,7 @@
     <t>3.83170</t>
   </si>
   <si>
-    <t>3.86660</t>
+    <t>3.86220</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14195,6 +14195,9 @@
   </si>
   <si>
     <t>3.83040</t>
+  </si>
+  <si>
+    <t>3.87310</t>
   </si>
 </sst>
 </file>
@@ -49150,7 +49153,7 @@
         <v>4607</v>
       </c>
       <c r="E2035" t="s">
-        <v>4607</v>
+        <v>4727</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10180" uniqueCount="4732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10180" uniqueCount="4733">
   <si>
     <t>1. open</t>
   </si>
@@ -13849,7 +13849,7 @@
     <t>3.86220</t>
   </si>
   <si>
-    <t>3.85560</t>
+    <t>3.84180</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14210,6 +14210,9 @@
   </si>
   <si>
     <t>3.87310</t>
+  </si>
+  <si>
+    <t>3.85920</t>
   </si>
 </sst>
 </file>
@@ -49182,7 +49185,7 @@
         <v>4611</v>
       </c>
       <c r="E2036" t="s">
-        <v>4611</v>
+        <v>4732</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10185" uniqueCount="4736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10185" uniqueCount="4737">
   <si>
     <t>1. open</t>
   </si>
@@ -12256,7 +12256,7 @@
     <t>3.87770</t>
   </si>
   <si>
-    <t>3.87680</t>
+    <t>3.89980</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14222,6 +14222,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.88850</t>
   </si>
 </sst>
 </file>
@@ -49211,7 +49214,7 @@
         <v>3372</v>
       </c>
       <c r="E2037" t="s">
-        <v>4729</v>
+        <v>4736</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10190" uniqueCount="4741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10190" uniqueCount="4740">
   <si>
     <t>1. open</t>
   </si>
@@ -12265,7 +12265,7 @@
     <t>3.89980</t>
   </si>
   <si>
-    <t>3.89340</t>
+    <t>3.90670</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14234,9 +14234,6 @@
   </si>
   <si>
     <t>3.85900</t>
-  </si>
-  <si>
-    <t>3.88160</t>
   </si>
 </sst>
 </file>
@@ -49243,7 +49240,7 @@
         <v>4618</v>
       </c>
       <c r="E2038" t="s">
-        <v>4740</v>
+        <v>4589</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10195" uniqueCount="4744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10195" uniqueCount="4743">
   <si>
     <t>1. open</t>
   </si>
@@ -12274,7 +12274,7 @@
     <t>3.90670</t>
   </si>
   <si>
-    <t>3.91590</t>
+    <t>3.91660</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -13879,7 +13879,7 @@
     <t>3.87660</t>
   </si>
   <si>
-    <t>3.88620</t>
+    <t>3.87250</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14243,9 +14243,6 @@
   </si>
   <si>
     <t>3.85900</t>
-  </si>
-  <si>
-    <t>3.91470</t>
   </si>
 </sst>
 </file>
@@ -49269,7 +49266,7 @@
         <v>4621</v>
       </c>
       <c r="E2039" t="s">
-        <v>4743</v>
+        <v>4621</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12283,7 +12283,7 @@
     <t>3.91660</t>
   </si>
   <si>
-    <t>3.91170</t>
+    <t>3.91470</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -49292,7 +49292,7 @@
         <v>3378</v>
       </c>
       <c r="E2040" t="s">
-        <v>3970</v>
+        <v>3341</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12289,7 +12289,7 @@
     <t>3.91470</t>
   </si>
   <si>
-    <t>3.91060</t>
+    <t>3.94360</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14263,7 +14263,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.89880</t>
+    <t>3.92200</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12298,7 +12298,7 @@
     <t>3.94360</t>
   </si>
   <si>
-    <t>3.94090</t>
+    <t>3.95970</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14275,7 +14275,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.93990</t>
+    <t>3.93470</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10220" uniqueCount="4758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10220" uniqueCount="4760">
   <si>
     <t>1. open</t>
   </si>
@@ -12313,6 +12313,9 @@
     <t>3.95970</t>
   </si>
   <si>
+    <t>3.97000</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -13615,9 +13618,6 @@
     <t>3.98120</t>
   </si>
   <si>
-    <t>3.97000</t>
-  </si>
-  <si>
     <t>3.94400</t>
   </si>
   <si>
@@ -13927,6 +13927,9 @@
     <t>3.92450</t>
   </si>
   <si>
+    <t>3.93120</t>
+  </si>
+  <si>
     <t>3.19450</t>
   </si>
   <si>
@@ -14288,6 +14291,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.96810</t>
   </si>
 </sst>
 </file>
@@ -14713,7 +14719,7 @@
         <v>2050</v>
       </c>
       <c r="D4" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="E4" t="s">
         <v>2051</v>
@@ -14968,7 +14974,7 @@
         <v>2063</v>
       </c>
       <c r="D19" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E19" t="s">
         <v>2064</v>
@@ -14985,7 +14991,7 @@
         <v>2064</v>
       </c>
       <c r="D20" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E20" t="s">
         <v>2065</v>
@@ -15087,7 +15093,7 @@
         <v>2069</v>
       </c>
       <c r="D26" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="E26" t="s">
         <v>2069</v>
@@ -15138,7 +15144,7 @@
         <v>2071</v>
       </c>
       <c r="D29" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E29" t="s">
         <v>2071</v>
@@ -15189,7 +15195,7 @@
         <v>3391</v>
       </c>
       <c r="D32" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E32" t="s">
         <v>2072</v>
@@ -15291,7 +15297,7 @@
         <v>2077</v>
       </c>
       <c r="D38" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E38" t="s">
         <v>2078</v>
@@ -15393,7 +15399,7 @@
         <v>2083</v>
       </c>
       <c r="D44" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E44" t="s">
         <v>2084</v>
@@ -15410,7 +15416,7 @@
         <v>2084</v>
       </c>
       <c r="D45" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E45" t="s">
         <v>2081</v>
@@ -15427,7 +15433,7 @@
         <v>3394</v>
       </c>
       <c r="D46" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E46" t="s">
         <v>2085</v>
@@ -15478,7 +15484,7 @@
         <v>2086</v>
       </c>
       <c r="D49" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E49" t="s">
         <v>2087</v>
@@ -15495,7 +15501,7 @@
         <v>2088</v>
       </c>
       <c r="D50" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E50" t="s">
         <v>2088</v>
@@ -15529,7 +15535,7 @@
         <v>2090</v>
       </c>
       <c r="D52" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E52" t="s">
         <v>2090</v>
@@ -15546,7 +15552,7 @@
         <v>3395</v>
       </c>
       <c r="D53" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E53" t="s">
         <v>2091</v>
@@ -15563,7 +15569,7 @@
         <v>2090</v>
       </c>
       <c r="D54" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E54" t="s">
         <v>2092</v>
@@ -15716,7 +15722,7 @@
         <v>2101</v>
       </c>
       <c r="D63" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E63" t="s">
         <v>2101</v>
@@ -15886,7 +15892,7 @@
         <v>2108</v>
       </c>
       <c r="D73" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E73" t="s">
         <v>2109</v>
@@ -15988,7 +15994,7 @@
         <v>2113</v>
       </c>
       <c r="D79" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E79" t="s">
         <v>2111</v>
@@ -16005,7 +16011,7 @@
         <v>2111</v>
       </c>
       <c r="D80" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E80" t="s">
         <v>2114</v>
@@ -16294,7 +16300,7 @@
         <v>3406</v>
       </c>
       <c r="D97" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E97" t="s">
         <v>2115</v>
@@ -16787,10 +16793,10 @@
         <v>2151</v>
       </c>
       <c r="D126" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E126" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16872,7 +16878,7 @@
         <v>3421</v>
       </c>
       <c r="D131" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E131" t="s">
         <v>2156</v>
@@ -16991,7 +16997,7 @@
         <v>3420</v>
       </c>
       <c r="D138" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E138" t="s">
         <v>2162</v>
@@ -17025,7 +17031,7 @@
         <v>3421</v>
       </c>
       <c r="D140" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E140" t="s">
         <v>2144</v>
@@ -17042,7 +17048,7 @@
         <v>2163</v>
       </c>
       <c r="D141" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E141" t="s">
         <v>2163</v>
@@ -17059,7 +17065,7 @@
         <v>3426</v>
       </c>
       <c r="D142" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E142" t="s">
         <v>2150</v>
@@ -17144,7 +17150,7 @@
         <v>3412</v>
       </c>
       <c r="D147" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E147" t="s">
         <v>2167</v>
@@ -17450,7 +17456,7 @@
         <v>2181</v>
       </c>
       <c r="D165" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E165" t="s">
         <v>2182</v>
@@ -17688,10 +17694,10 @@
         <v>2192</v>
       </c>
       <c r="D179" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E179" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17827,7 +17833,7 @@
         <v>2199</v>
       </c>
       <c r="E187" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18249,7 +18255,7 @@
         <v>3444</v>
       </c>
       <c r="D212" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E212" t="s">
         <v>3444</v>
@@ -18283,7 +18289,7 @@
         <v>2222</v>
       </c>
       <c r="D214" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E214" t="s">
         <v>2222</v>
@@ -18572,10 +18578,10 @@
         <v>2238</v>
       </c>
       <c r="D231" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E231" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19918,7 +19924,7 @@
         <v>2303</v>
       </c>
       <c r="E310" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -20017,7 +20023,7 @@
         <v>3479</v>
       </c>
       <c r="D316" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E316" t="s">
         <v>2310</v>
@@ -20255,7 +20261,7 @@
         <v>2319</v>
       </c>
       <c r="D330" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E330" t="s">
         <v>2320</v>
@@ -20272,7 +20278,7 @@
         <v>2320</v>
       </c>
       <c r="D331" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E331" t="s">
         <v>2321</v>
@@ -20357,7 +20363,7 @@
         <v>2324</v>
       </c>
       <c r="D336" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E336" t="s">
         <v>2325</v>
@@ -20612,7 +20618,7 @@
         <v>2486</v>
       </c>
       <c r="D351" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E351" t="s">
         <v>2271</v>
@@ -20629,7 +20635,7 @@
         <v>3459</v>
       </c>
       <c r="D352" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E352" t="s">
         <v>2337</v>
@@ -20833,10 +20839,10 @@
         <v>2347</v>
       </c>
       <c r="D364" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E364" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20850,7 +20856,7 @@
         <v>2393</v>
       </c>
       <c r="D365" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E365" t="s">
         <v>2348</v>
@@ -21598,7 +21604,7 @@
         <v>2382</v>
       </c>
       <c r="D409" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E409" t="s">
         <v>2382</v>
@@ -22159,7 +22165,7 @@
         <v>2404</v>
       </c>
       <c r="D442" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E442" t="s">
         <v>2405</v>
@@ -22346,7 +22352,7 @@
         <v>3500</v>
       </c>
       <c r="D453" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E453" t="s">
         <v>2366</v>
@@ -22618,7 +22624,7 @@
         <v>2426</v>
       </c>
       <c r="D469" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E469" t="s">
         <v>2427</v>
@@ -22686,7 +22692,7 @@
         <v>3505</v>
       </c>
       <c r="D473" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E473" t="s">
         <v>3464</v>
@@ -22873,7 +22879,7 @@
         <v>3459</v>
       </c>
       <c r="D484" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E484" t="s">
         <v>2438</v>
@@ -23638,7 +23644,7 @@
         <v>2466</v>
       </c>
       <c r="D529" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E529" t="s">
         <v>2467</v>
@@ -23774,7 +23780,7 @@
         <v>2469</v>
       </c>
       <c r="D537" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E537" t="s">
         <v>2473</v>
@@ -23825,7 +23831,7 @@
         <v>3513</v>
       </c>
       <c r="D540" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E540" t="s">
         <v>2476</v>
@@ -23842,7 +23848,7 @@
         <v>2328</v>
       </c>
       <c r="D541" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E541" t="s">
         <v>2446</v>
@@ -23893,7 +23899,7 @@
         <v>3514</v>
       </c>
       <c r="D544" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E544" t="s">
         <v>2479</v>
@@ -23910,7 +23916,7 @@
         <v>3515</v>
       </c>
       <c r="D545" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E545" t="s">
         <v>2480</v>
@@ -23927,7 +23933,7 @@
         <v>2444</v>
       </c>
       <c r="D546" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E546" t="s">
         <v>2334</v>
@@ -23978,7 +23984,7 @@
         <v>2459</v>
       </c>
       <c r="D549" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E549" t="s">
         <v>2481</v>
@@ -24012,7 +24018,7 @@
         <v>2268</v>
       </c>
       <c r="D551" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E551" t="s">
         <v>2482</v>
@@ -24114,7 +24120,7 @@
         <v>2432</v>
       </c>
       <c r="D557" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E557" t="s">
         <v>2487</v>
@@ -24148,7 +24154,7 @@
         <v>2913</v>
       </c>
       <c r="D559" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E559" t="s">
         <v>2488</v>
@@ -24165,7 +24171,7 @@
         <v>2488</v>
       </c>
       <c r="D560" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E560" t="s">
         <v>2418</v>
@@ -24199,7 +24205,7 @@
         <v>3521</v>
       </c>
       <c r="D562" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E562" t="s">
         <v>2489</v>
@@ -24233,10 +24239,10 @@
         <v>2329</v>
       </c>
       <c r="D564" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E564" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24284,7 +24290,7 @@
         <v>3522</v>
       </c>
       <c r="D567" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E567" t="s">
         <v>2493</v>
@@ -24352,7 +24358,7 @@
         <v>3523</v>
       </c>
       <c r="D571" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E571" t="s">
         <v>2497</v>
@@ -24403,7 +24409,7 @@
         <v>2391</v>
       </c>
       <c r="D574" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E574" t="s">
         <v>2249</v>
@@ -24437,7 +24443,7 @@
         <v>3524</v>
       </c>
       <c r="D576" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E576" t="s">
         <v>2501</v>
@@ -24454,7 +24460,7 @@
         <v>2801</v>
       </c>
       <c r="D577" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E577" t="s">
         <v>2502</v>
@@ -24471,7 +24477,7 @@
         <v>2798</v>
       </c>
       <c r="D578" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E578" t="s">
         <v>2503</v>
@@ -24505,7 +24511,7 @@
         <v>2504</v>
       </c>
       <c r="D580" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E580" t="s">
         <v>2505</v>
@@ -24573,7 +24579,7 @@
         <v>2348</v>
       </c>
       <c r="D584" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E584" t="s">
         <v>2509</v>
@@ -24658,7 +24664,7 @@
         <v>2246</v>
       </c>
       <c r="D589" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E589" t="s">
         <v>2512</v>
@@ -24709,7 +24715,7 @@
         <v>2594</v>
       </c>
       <c r="D592" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E592" t="s">
         <v>2514</v>
@@ -24930,10 +24936,10 @@
         <v>2551</v>
       </c>
       <c r="D605" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E605" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -24981,7 +24987,7 @@
         <v>2507</v>
       </c>
       <c r="D608" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E608" t="s">
         <v>2521</v>
@@ -25083,7 +25089,7 @@
         <v>3531</v>
       </c>
       <c r="D614" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E614" t="s">
         <v>2526</v>
@@ -25324,7 +25330,7 @@
         <v>2512</v>
       </c>
       <c r="E628" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25389,7 +25395,7 @@
         <v>2245</v>
       </c>
       <c r="D632" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E632" t="s">
         <v>2534</v>
@@ -25664,7 +25670,7 @@
         <v>2520</v>
       </c>
       <c r="E648" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25797,7 +25803,7 @@
         <v>2519</v>
       </c>
       <c r="D656" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E656" t="s">
         <v>2393</v>
@@ -25848,7 +25854,7 @@
         <v>2540</v>
       </c>
       <c r="D659" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E659" t="s">
         <v>2553</v>
@@ -25984,7 +25990,7 @@
         <v>2540</v>
       </c>
       <c r="D667" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E667" t="s">
         <v>2549</v>
@@ -26069,7 +26075,7 @@
         <v>3527</v>
       </c>
       <c r="D672" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E672" t="s">
         <v>2505</v>
@@ -26089,7 +26095,7 @@
         <v>2348</v>
       </c>
       <c r="E673" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -26120,7 +26126,7 @@
         <v>2700</v>
       </c>
       <c r="D675" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E675" t="s">
         <v>2557</v>
@@ -26290,7 +26296,7 @@
         <v>2209</v>
       </c>
       <c r="D685" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E685" t="s">
         <v>2532</v>
@@ -26477,7 +26483,7 @@
         <v>3537</v>
       </c>
       <c r="D696" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E696" t="s">
         <v>2567</v>
@@ -26885,7 +26891,7 @@
         <v>2512</v>
       </c>
       <c r="D720" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E720" t="s">
         <v>2512</v>
@@ -26902,7 +26908,7 @@
         <v>2512</v>
       </c>
       <c r="D721" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E721" t="s">
         <v>2572</v>
@@ -26919,7 +26925,7 @@
         <v>2512</v>
       </c>
       <c r="D722" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E722" t="s">
         <v>2582</v>
@@ -27021,7 +27027,7 @@
         <v>2538</v>
       </c>
       <c r="D728" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E728" t="s">
         <v>2586</v>
@@ -27038,7 +27044,7 @@
         <v>2582</v>
       </c>
       <c r="D729" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E729" t="s">
         <v>2581</v>
@@ -27072,7 +27078,7 @@
         <v>2581</v>
       </c>
       <c r="D731" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E731" t="s">
         <v>2588</v>
@@ -27106,7 +27112,7 @@
         <v>2611</v>
       </c>
       <c r="D733" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E733" t="s">
         <v>2590</v>
@@ -27242,7 +27248,7 @@
         <v>2567</v>
       </c>
       <c r="D741" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E741" t="s">
         <v>2593</v>
@@ -27310,7 +27316,7 @@
         <v>2700</v>
       </c>
       <c r="D745" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E745" t="s">
         <v>2595</v>
@@ -27463,7 +27469,7 @@
         <v>2551</v>
       </c>
       <c r="D754" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E754" t="s">
         <v>2594</v>
@@ -27599,7 +27605,7 @@
         <v>2537</v>
       </c>
       <c r="D762" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E762" t="s">
         <v>2606</v>
@@ -27616,7 +27622,7 @@
         <v>2245</v>
       </c>
       <c r="D763" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E763" t="s">
         <v>2607</v>
@@ -27633,7 +27639,7 @@
         <v>2215</v>
       </c>
       <c r="D764" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E764" t="s">
         <v>2608</v>
@@ -27684,7 +27690,7 @@
         <v>2208</v>
       </c>
       <c r="D767" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E767" t="s">
         <v>2602</v>
@@ -27718,7 +27724,7 @@
         <v>2553</v>
       </c>
       <c r="D769" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E769" t="s">
         <v>2248</v>
@@ -27820,7 +27826,7 @@
         <v>2514</v>
       </c>
       <c r="D775" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E775" t="s">
         <v>2609</v>
@@ -27837,7 +27843,7 @@
         <v>2216</v>
       </c>
       <c r="D776" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E776" t="s">
         <v>2521</v>
@@ -27973,10 +27979,10 @@
         <v>2245</v>
       </c>
       <c r="D784" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E784" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27990,7 +27996,7 @@
         <v>2529</v>
       </c>
       <c r="D785" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E785" t="s">
         <v>2582</v>
@@ -28041,10 +28047,10 @@
         <v>2529</v>
       </c>
       <c r="D788" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E788" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28279,10 +28285,10 @@
         <v>2817</v>
       </c>
       <c r="D802" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E802" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28398,7 +28404,7 @@
         <v>2245</v>
       </c>
       <c r="D809" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E809" t="s">
         <v>2512</v>
@@ -28500,7 +28506,7 @@
         <v>3552</v>
       </c>
       <c r="D815" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E815" t="s">
         <v>2629</v>
@@ -28517,7 +28523,7 @@
         <v>2656</v>
       </c>
       <c r="D816" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E816" t="s">
         <v>2236</v>
@@ -28721,7 +28727,7 @@
         <v>3553</v>
       </c>
       <c r="D828" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E828" t="s">
         <v>2639</v>
@@ -28755,7 +28761,7 @@
         <v>2656</v>
       </c>
       <c r="D830" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E830" t="s">
         <v>2237</v>
@@ -28789,7 +28795,7 @@
         <v>3553</v>
       </c>
       <c r="D832" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E832" t="s">
         <v>2641</v>
@@ -28840,7 +28846,7 @@
         <v>3444</v>
       </c>
       <c r="D835" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E835" t="s">
         <v>2643</v>
@@ -28874,7 +28880,7 @@
         <v>2572</v>
       </c>
       <c r="D837" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E837" t="s">
         <v>2572</v>
@@ -28925,7 +28931,7 @@
         <v>3556</v>
       </c>
       <c r="D840" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E840" t="s">
         <v>2515</v>
@@ -28945,7 +28951,7 @@
         <v>2562</v>
       </c>
       <c r="E841" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29282,7 +29288,7 @@
         <v>2247</v>
       </c>
       <c r="D861" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E861" t="s">
         <v>2653</v>
@@ -29452,7 +29458,7 @@
         <v>2216</v>
       </c>
       <c r="D871" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E871" t="s">
         <v>2241</v>
@@ -29486,7 +29492,7 @@
         <v>3560</v>
       </c>
       <c r="D873" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E873" t="s">
         <v>2657</v>
@@ -29605,7 +29611,7 @@
         <v>3564</v>
       </c>
       <c r="D880" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E880" t="s">
         <v>2662</v>
@@ -29673,7 +29679,7 @@
         <v>2535</v>
       </c>
       <c r="D884" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E884" t="s">
         <v>2627</v>
@@ -29843,7 +29849,7 @@
         <v>2246</v>
       </c>
       <c r="D894" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E894" t="s">
         <v>2671</v>
@@ -29962,7 +29968,7 @@
         <v>3493</v>
       </c>
       <c r="D901" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E901" t="s">
         <v>2675</v>
@@ -30030,7 +30036,7 @@
         <v>2517</v>
       </c>
       <c r="D905" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E905" t="s">
         <v>2679</v>
@@ -30183,7 +30189,7 @@
         <v>2691</v>
       </c>
       <c r="D914" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E914" t="s">
         <v>2515</v>
@@ -30387,7 +30393,7 @@
         <v>2348</v>
       </c>
       <c r="D926" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E926" t="s">
         <v>2687</v>
@@ -30472,7 +30478,7 @@
         <v>2502</v>
       </c>
       <c r="D931" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E931" t="s">
         <v>2691</v>
@@ -30557,7 +30563,7 @@
         <v>3527</v>
       </c>
       <c r="D936" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E936" t="s">
         <v>2349</v>
@@ -30642,7 +30648,7 @@
         <v>2837</v>
       </c>
       <c r="D941" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E941" t="s">
         <v>2696</v>
@@ -30744,7 +30750,7 @@
         <v>2677</v>
       </c>
       <c r="D947" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E947" t="s">
         <v>2391</v>
@@ -30761,7 +30767,7 @@
         <v>3572</v>
       </c>
       <c r="D948" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E948" t="s">
         <v>2698</v>
@@ -30829,7 +30835,7 @@
         <v>2392</v>
       </c>
       <c r="D952" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E952" t="s">
         <v>2699</v>
@@ -31084,7 +31090,7 @@
         <v>2543</v>
       </c>
       <c r="D967" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E967" t="s">
         <v>2505</v>
@@ -31169,7 +31175,7 @@
         <v>2697</v>
       </c>
       <c r="D972" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E972" t="s">
         <v>2706</v>
@@ -31220,7 +31226,7 @@
         <v>2259</v>
       </c>
       <c r="D975" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E975" t="s">
         <v>2386</v>
@@ -31254,7 +31260,7 @@
         <v>2820</v>
       </c>
       <c r="D977" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E977" t="s">
         <v>2708</v>
@@ -31611,7 +31617,7 @@
         <v>2361</v>
       </c>
       <c r="D998" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E998" t="s">
         <v>2722</v>
@@ -31628,7 +31634,7 @@
         <v>3581</v>
       </c>
       <c r="D999" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E999" t="s">
         <v>2723</v>
@@ -31713,7 +31719,7 @@
         <v>2366</v>
       </c>
       <c r="D1004" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E1004" t="s">
         <v>2414</v>
@@ -31883,7 +31889,7 @@
         <v>2828</v>
       </c>
       <c r="D1014" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1014" t="s">
         <v>2416</v>
@@ -31900,7 +31906,7 @@
         <v>2828</v>
       </c>
       <c r="D1015" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E1015" t="s">
         <v>2416</v>
@@ -31934,7 +31940,7 @@
         <v>2849</v>
       </c>
       <c r="D1017" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1017" t="s">
         <v>2720</v>
@@ -32002,7 +32008,7 @@
         <v>2382</v>
       </c>
       <c r="D1021" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1021" t="s">
         <v>2734</v>
@@ -32019,7 +32025,7 @@
         <v>2382</v>
       </c>
       <c r="D1022" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1022" t="s">
         <v>2735</v>
@@ -32087,7 +32093,7 @@
         <v>2851</v>
       </c>
       <c r="D1026" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E1026" t="s">
         <v>2738</v>
@@ -32189,7 +32195,7 @@
         <v>2337</v>
       </c>
       <c r="D1032" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1032" t="s">
         <v>2743</v>
@@ -32240,7 +32246,7 @@
         <v>3521</v>
       </c>
       <c r="D1035" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E1035" t="s">
         <v>2275</v>
@@ -32342,7 +32348,7 @@
         <v>2441</v>
       </c>
       <c r="D1041" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1041" t="s">
         <v>2751</v>
@@ -32444,7 +32450,7 @@
         <v>2750</v>
       </c>
       <c r="D1047" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1047" t="s">
         <v>2754</v>
@@ -32515,7 +32521,7 @@
         <v>2266</v>
       </c>
       <c r="E1051" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32770,7 +32776,7 @@
         <v>2765</v>
       </c>
       <c r="E1066" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32852,7 +32858,7 @@
         <v>3583</v>
       </c>
       <c r="D1071" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1071" t="s">
         <v>2340</v>
@@ -33073,7 +33079,7 @@
         <v>2382</v>
       </c>
       <c r="D1084" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1084" t="s">
         <v>2776</v>
@@ -33107,7 +33113,7 @@
         <v>2401</v>
       </c>
       <c r="D1086" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1086" t="s">
         <v>2259</v>
@@ -33141,7 +33147,7 @@
         <v>2849</v>
       </c>
       <c r="D1088" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1088" t="s">
         <v>2778</v>
@@ -33158,7 +33164,7 @@
         <v>2827</v>
       </c>
       <c r="D1089" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1089" t="s">
         <v>2779</v>
@@ -33226,7 +33232,7 @@
         <v>2741</v>
       </c>
       <c r="D1093" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1093" t="s">
         <v>2781</v>
@@ -33311,10 +33317,10 @@
         <v>2792</v>
       </c>
       <c r="D1098" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1098" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33328,10 +33334,10 @@
         <v>2330</v>
       </c>
       <c r="D1099" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1099" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33362,7 +33368,7 @@
         <v>2850</v>
       </c>
       <c r="D1101" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1101" t="s">
         <v>2794</v>
@@ -33379,7 +33385,7 @@
         <v>2792</v>
       </c>
       <c r="D1102" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1102" t="s">
         <v>2789</v>
@@ -33532,7 +33538,7 @@
         <v>2794</v>
       </c>
       <c r="D1111" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1111" t="s">
         <v>2795</v>
@@ -33566,7 +33572,7 @@
         <v>3585</v>
       </c>
       <c r="D1113" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1113" t="s">
         <v>2796</v>
@@ -33583,7 +33589,7 @@
         <v>3586</v>
       </c>
       <c r="D1114" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1114" t="s">
         <v>2724</v>
@@ -33600,7 +33606,7 @@
         <v>3587</v>
       </c>
       <c r="D1115" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1115" t="s">
         <v>2796</v>
@@ -33617,7 +33623,7 @@
         <v>3588</v>
       </c>
       <c r="D1116" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1116" t="s">
         <v>2797</v>
@@ -33736,7 +33742,7 @@
         <v>2361</v>
       </c>
       <c r="D1123" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1123" t="s">
         <v>2800</v>
@@ -33770,7 +33776,7 @@
         <v>3591</v>
       </c>
       <c r="D1125" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1125" t="s">
         <v>2801</v>
@@ -33804,7 +33810,7 @@
         <v>2714</v>
       </c>
       <c r="D1127" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1127" t="s">
         <v>2517</v>
@@ -33940,7 +33946,7 @@
         <v>2786</v>
       </c>
       <c r="D1135" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1135" t="s">
         <v>2807</v>
@@ -33974,7 +33980,7 @@
         <v>2867</v>
       </c>
       <c r="D1137" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1137" t="s">
         <v>2708</v>
@@ -34025,7 +34031,7 @@
         <v>3596</v>
       </c>
       <c r="D1140" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1140" t="s">
         <v>2810</v>
@@ -34042,7 +34048,7 @@
         <v>3522</v>
       </c>
       <c r="D1141" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1141" t="s">
         <v>3578</v>
@@ -34059,7 +34065,7 @@
         <v>2810</v>
       </c>
       <c r="D1142" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1142" t="s">
         <v>2811</v>
@@ -34127,7 +34133,7 @@
         <v>2357</v>
       </c>
       <c r="D1146" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1146" t="s">
         <v>2813</v>
@@ -34178,7 +34184,7 @@
         <v>3522</v>
       </c>
       <c r="D1149" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1149" t="s">
         <v>2813</v>
@@ -34229,7 +34235,7 @@
         <v>3581</v>
       </c>
       <c r="D1152" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1152" t="s">
         <v>2816</v>
@@ -34297,7 +34303,7 @@
         <v>2792</v>
       </c>
       <c r="D1156" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1156" t="s">
         <v>2784</v>
@@ -34314,7 +34320,7 @@
         <v>2784</v>
       </c>
       <c r="D1157" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1157" t="s">
         <v>2258</v>
@@ -34331,7 +34337,7 @@
         <v>2258</v>
       </c>
       <c r="D1158" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1158" t="s">
         <v>2795</v>
@@ -34348,7 +34354,7 @@
         <v>2795</v>
       </c>
       <c r="D1159" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1159" t="s">
         <v>2817</v>
@@ -34365,7 +34371,7 @@
         <v>2820</v>
       </c>
       <c r="D1160" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1160" t="s">
         <v>2255</v>
@@ -34382,7 +34388,7 @@
         <v>2255</v>
       </c>
       <c r="D1161" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1161" t="s">
         <v>2817</v>
@@ -34399,7 +34405,7 @@
         <v>3585</v>
       </c>
       <c r="D1162" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1162" t="s">
         <v>2361</v>
@@ -34433,7 +34439,7 @@
         <v>2255</v>
       </c>
       <c r="D1164" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1164" t="s">
         <v>2379</v>
@@ -34484,7 +34490,7 @@
         <v>2382</v>
       </c>
       <c r="D1167" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1167" t="s">
         <v>2819</v>
@@ -34535,7 +34541,7 @@
         <v>3600</v>
       </c>
       <c r="D1170" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1170" t="s">
         <v>2491</v>
@@ -34552,7 +34558,7 @@
         <v>2731</v>
       </c>
       <c r="D1171" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1171" t="s">
         <v>2775</v>
@@ -34569,7 +34575,7 @@
         <v>2826</v>
       </c>
       <c r="D1172" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1172" t="s">
         <v>2821</v>
@@ -34586,7 +34592,7 @@
         <v>3601</v>
       </c>
       <c r="D1173" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1173" t="s">
         <v>2822</v>
@@ -34705,7 +34711,7 @@
         <v>2267</v>
       </c>
       <c r="D1180" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1180" t="s">
         <v>2825</v>
@@ -34824,7 +34830,7 @@
         <v>2791</v>
       </c>
       <c r="D1187" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1187" t="s">
         <v>2731</v>
@@ -34858,7 +34864,7 @@
         <v>3605</v>
       </c>
       <c r="D1189" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1189" t="s">
         <v>2734</v>
@@ -34875,7 +34881,7 @@
         <v>2382</v>
       </c>
       <c r="D1190" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1190" t="s">
         <v>2828</v>
@@ -34926,7 +34932,7 @@
         <v>2830</v>
       </c>
       <c r="D1193" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1193" t="s">
         <v>2736</v>
@@ -34960,7 +34966,7 @@
         <v>2831</v>
       </c>
       <c r="D1195" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1195" t="s">
         <v>2257</v>
@@ -34977,7 +34983,7 @@
         <v>2386</v>
       </c>
       <c r="D1196" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1196" t="s">
         <v>2715</v>
@@ -34994,7 +35000,7 @@
         <v>2817</v>
       </c>
       <c r="D1197" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1197" t="s">
         <v>2833</v>
@@ -35045,7 +35051,7 @@
         <v>2834</v>
       </c>
       <c r="D1200" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1200" t="s">
         <v>2518</v>
@@ -35062,7 +35068,7 @@
         <v>2726</v>
       </c>
       <c r="D1201" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1201" t="s">
         <v>2677</v>
@@ -35079,7 +35085,7 @@
         <v>2213</v>
       </c>
       <c r="D1202" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1202" t="s">
         <v>2497</v>
@@ -35181,7 +35187,7 @@
         <v>2806</v>
       </c>
       <c r="D1208" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1208" t="s">
         <v>2815</v>
@@ -35198,7 +35204,7 @@
         <v>2724</v>
       </c>
       <c r="D1209" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1209" t="s">
         <v>2837</v>
@@ -35215,7 +35221,7 @@
         <v>2504</v>
       </c>
       <c r="D1210" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1210" t="s">
         <v>2838</v>
@@ -35266,7 +35272,7 @@
         <v>3456</v>
       </c>
       <c r="D1213" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1213" t="s">
         <v>2839</v>
@@ -35283,7 +35289,7 @@
         <v>3456</v>
       </c>
       <c r="D1214" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1214" t="s">
         <v>3456</v>
@@ -35300,7 +35306,7 @@
         <v>2497</v>
       </c>
       <c r="D1215" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1215" t="s">
         <v>2838</v>
@@ -35317,7 +35323,7 @@
         <v>2504</v>
       </c>
       <c r="D1216" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1216" t="s">
         <v>2252</v>
@@ -35368,7 +35374,7 @@
         <v>2517</v>
       </c>
       <c r="D1219" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1219" t="s">
         <v>2495</v>
@@ -35402,10 +35408,10 @@
         <v>2798</v>
       </c>
       <c r="D1221" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1221" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35419,7 +35425,7 @@
         <v>3522</v>
       </c>
       <c r="D1222" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1222" t="s">
         <v>2357</v>
@@ -35589,7 +35595,7 @@
         <v>2844</v>
       </c>
       <c r="D1232" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1232" t="s">
         <v>2750</v>
@@ -35606,7 +35612,7 @@
         <v>2432</v>
       </c>
       <c r="D1233" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1233" t="s">
         <v>2432</v>
@@ -35657,7 +35663,7 @@
         <v>2479</v>
       </c>
       <c r="D1236" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E1236" t="s">
         <v>2748</v>
@@ -35691,7 +35697,7 @@
         <v>2845</v>
       </c>
       <c r="D1238" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1238" t="s">
         <v>2441</v>
@@ -35708,7 +35714,7 @@
         <v>2441</v>
       </c>
       <c r="D1239" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1239" t="s">
         <v>2266</v>
@@ -35742,7 +35748,7 @@
         <v>3610</v>
       </c>
       <c r="D1241" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1241" t="s">
         <v>2754</v>
@@ -35810,7 +35816,7 @@
         <v>2286</v>
       </c>
       <c r="D1245" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1245" t="s">
         <v>2444</v>
@@ -35895,7 +35901,7 @@
         <v>2748</v>
       </c>
       <c r="D1250" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1250" t="s">
         <v>2456</v>
@@ -35946,7 +35952,7 @@
         <v>2421</v>
       </c>
       <c r="D1253" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1253" t="s">
         <v>2823</v>
@@ -35980,7 +35986,7 @@
         <v>2849</v>
       </c>
       <c r="D1255" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1255" t="s">
         <v>2850</v>
@@ -35997,7 +36003,7 @@
         <v>3457</v>
       </c>
       <c r="D1256" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1256" t="s">
         <v>2794</v>
@@ -36218,7 +36224,7 @@
         <v>3618</v>
       </c>
       <c r="D1269" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1269" t="s">
         <v>2855</v>
@@ -36235,7 +36241,7 @@
         <v>2855</v>
       </c>
       <c r="D1270" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1270" t="s">
         <v>2747</v>
@@ -36252,7 +36258,7 @@
         <v>3619</v>
       </c>
       <c r="D1271" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1271" t="s">
         <v>2486</v>
@@ -36337,7 +36343,7 @@
         <v>2267</v>
       </c>
       <c r="D1276" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1276" t="s">
         <v>2853</v>
@@ -36354,7 +36360,7 @@
         <v>2912</v>
       </c>
       <c r="D1277" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E1277" t="s">
         <v>2337</v>
@@ -36541,7 +36547,7 @@
         <v>2772</v>
       </c>
       <c r="D1288" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1288" t="s">
         <v>2857</v>
@@ -36762,7 +36768,7 @@
         <v>2859</v>
       </c>
       <c r="D1301" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1301" t="s">
         <v>2272</v>
@@ -36779,7 +36785,7 @@
         <v>3621</v>
       </c>
       <c r="D1302" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1302" t="s">
         <v>2274</v>
@@ -36881,7 +36887,7 @@
         <v>2915</v>
       </c>
       <c r="D1308" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1308" t="s">
         <v>2752</v>
@@ -36932,7 +36938,7 @@
         <v>3628</v>
       </c>
       <c r="D1311" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1311" t="s">
         <v>2860</v>
@@ -36949,7 +36955,7 @@
         <v>3628</v>
       </c>
       <c r="D1312" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1312" t="s">
         <v>2480</v>
@@ -36966,7 +36972,7 @@
         <v>2913</v>
       </c>
       <c r="D1313" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1313" t="s">
         <v>2440</v>
@@ -37000,7 +37006,7 @@
         <v>2334</v>
       </c>
       <c r="D1315" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1315" t="s">
         <v>2332</v>
@@ -37102,7 +37108,7 @@
         <v>3632</v>
       </c>
       <c r="D1321" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1321" t="s">
         <v>2863</v>
@@ -37119,7 +37125,7 @@
         <v>3633</v>
       </c>
       <c r="D1322" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1322" t="s">
         <v>2864</v>
@@ -37153,7 +37159,7 @@
         <v>3634</v>
       </c>
       <c r="D1324" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1324" t="s">
         <v>2371</v>
@@ -37170,7 +37176,7 @@
         <v>3635</v>
       </c>
       <c r="D1325" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1325" t="s">
         <v>2720</v>
@@ -37187,7 +37193,7 @@
         <v>3636</v>
       </c>
       <c r="D1326" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1326" t="s">
         <v>2377</v>
@@ -37204,7 +37210,7 @@
         <v>3637</v>
       </c>
       <c r="D1327" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1327" t="s">
         <v>2259</v>
@@ -37255,7 +37261,7 @@
         <v>3638</v>
       </c>
       <c r="D1330" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1330" t="s">
         <v>2387</v>
@@ -37289,7 +37295,7 @@
         <v>3639</v>
       </c>
       <c r="D1332" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1332" t="s">
         <v>2491</v>
@@ -37306,7 +37312,7 @@
         <v>3590</v>
       </c>
       <c r="D1333" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1333" t="s">
         <v>2793</v>
@@ -37408,7 +37414,7 @@
         <v>2784</v>
       </c>
       <c r="D1339" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1339" t="s">
         <v>2377</v>
@@ -37428,7 +37434,7 @@
         <v>2721</v>
       </c>
       <c r="E1340" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37442,7 +37448,7 @@
         <v>3642</v>
       </c>
       <c r="D1341" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1341" t="s">
         <v>2731</v>
@@ -37493,7 +37499,7 @@
         <v>2330</v>
       </c>
       <c r="D1344" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1344" t="s">
         <v>2362</v>
@@ -37510,7 +37516,7 @@
         <v>3643</v>
       </c>
       <c r="D1345" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1345" t="s">
         <v>2401</v>
@@ -37527,7 +37533,7 @@
         <v>3638</v>
       </c>
       <c r="D1346" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1346" t="s">
         <v>2786</v>
@@ -37561,7 +37567,7 @@
         <v>2794</v>
       </c>
       <c r="D1348" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1348" t="s">
         <v>2808</v>
@@ -37578,7 +37584,7 @@
         <v>2807</v>
       </c>
       <c r="D1349" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1349" t="s">
         <v>2866</v>
@@ -37595,7 +37601,7 @@
         <v>3637</v>
       </c>
       <c r="D1350" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1350" t="s">
         <v>2867</v>
@@ -37714,7 +37720,7 @@
         <v>2752</v>
       </c>
       <c r="D1357" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1357" t="s">
         <v>2868</v>
@@ -37748,7 +37754,7 @@
         <v>2280</v>
       </c>
       <c r="D1359" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1359" t="s">
         <v>2870</v>
@@ -37952,7 +37958,7 @@
         <v>3631</v>
       </c>
       <c r="D1371" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1371" t="s">
         <v>2475</v>
@@ -38020,7 +38026,7 @@
         <v>3648</v>
       </c>
       <c r="D1375" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1375" t="s">
         <v>2877</v>
@@ -38054,7 +38060,7 @@
         <v>3650</v>
       </c>
       <c r="D1377" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1377" t="s">
         <v>2879</v>
@@ -38071,10 +38077,10 @@
         <v>3651</v>
       </c>
       <c r="D1378" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1378" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -38088,10 +38094,10 @@
         <v>2931</v>
       </c>
       <c r="D1379" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1379" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -38105,7 +38111,7 @@
         <v>3652</v>
       </c>
       <c r="D1380" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1380" t="s">
         <v>3649</v>
@@ -38156,10 +38162,10 @@
         <v>3655</v>
       </c>
       <c r="D1383" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1383" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38173,10 +38179,10 @@
         <v>3656</v>
       </c>
       <c r="D1384" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1384" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38190,10 +38196,10 @@
         <v>3657</v>
       </c>
       <c r="D1385" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1385" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38207,7 +38213,7 @@
         <v>3658</v>
       </c>
       <c r="D1386" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1386" t="s">
         <v>2888</v>
@@ -38224,10 +38230,10 @@
         <v>3659</v>
       </c>
       <c r="D1387" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1387" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38244,7 +38250,7 @@
         <v>2320</v>
       </c>
       <c r="E1388" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38258,10 +38264,10 @@
         <v>3661</v>
       </c>
       <c r="D1389" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1389" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38275,10 +38281,10 @@
         <v>3036</v>
       </c>
       <c r="D1390" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1390" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38292,7 +38298,7 @@
         <v>3659</v>
       </c>
       <c r="D1391" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1391" t="s">
         <v>2893</v>
@@ -38312,7 +38318,7 @@
         <v>2314</v>
       </c>
       <c r="E1392" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38329,7 +38335,7 @@
         <v>3480</v>
       </c>
       <c r="E1393" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38343,10 +38349,10 @@
         <v>2966</v>
       </c>
       <c r="D1394" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1394" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38363,7 +38369,7 @@
         <v>2748</v>
       </c>
       <c r="E1395" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38377,7 +38383,7 @@
         <v>3664</v>
       </c>
       <c r="D1396" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1396" t="s">
         <v>2876</v>
@@ -38414,7 +38420,7 @@
         <v>2291</v>
       </c>
       <c r="E1398" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38428,10 +38434,10 @@
         <v>3666</v>
       </c>
       <c r="D1399" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1399" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38462,7 +38468,7 @@
         <v>3667</v>
       </c>
       <c r="D1401" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1401" t="s">
         <v>2902</v>
@@ -38496,7 +38502,7 @@
         <v>2903</v>
       </c>
       <c r="D1403" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1403" t="s">
         <v>3614</v>
@@ -38564,10 +38570,10 @@
         <v>3669</v>
       </c>
       <c r="D1407" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1407" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38598,10 +38604,10 @@
         <v>3671</v>
       </c>
       <c r="D1409" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1409" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38666,7 +38672,7 @@
         <v>3674</v>
       </c>
       <c r="D1413" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1413" t="s">
         <v>2911</v>
@@ -38686,7 +38692,7 @@
         <v>2852</v>
       </c>
       <c r="E1414" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38703,7 +38709,7 @@
         <v>2849</v>
       </c>
       <c r="E1415" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38717,7 +38723,7 @@
         <v>2430</v>
       </c>
       <c r="D1416" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1416" t="s">
         <v>2913</v>
@@ -38737,7 +38743,7 @@
         <v>2432</v>
       </c>
       <c r="E1417" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38751,10 +38757,10 @@
         <v>2478</v>
       </c>
       <c r="D1418" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1418" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38771,7 +38777,7 @@
         <v>2485</v>
       </c>
       <c r="E1419" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38822,7 +38828,7 @@
         <v>2917</v>
       </c>
       <c r="E1422" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38836,7 +38842,7 @@
         <v>3631</v>
       </c>
       <c r="D1423" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1423" t="s">
         <v>2346</v>
@@ -38856,7 +38862,7 @@
         <v>2475</v>
       </c>
       <c r="E1424" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38907,7 +38913,7 @@
         <v>3507</v>
       </c>
       <c r="E1427" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38938,7 +38944,7 @@
         <v>3678</v>
       </c>
       <c r="D1429" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1429" t="s">
         <v>2924</v>
@@ -38955,10 +38961,10 @@
         <v>3679</v>
       </c>
       <c r="D1430" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1430" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -38989,7 +38995,7 @@
         <v>2926</v>
       </c>
       <c r="D1432" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1432" t="s">
         <v>2292</v>
@@ -39074,7 +39080,7 @@
         <v>3682</v>
       </c>
       <c r="D1437" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1437" t="s">
         <v>2930</v>
@@ -39091,7 +39097,7 @@
         <v>3683</v>
       </c>
       <c r="D1438" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1438" t="s">
         <v>2931</v>
@@ -39125,7 +39131,7 @@
         <v>3685</v>
       </c>
       <c r="D1440" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1440" t="s">
         <v>2933</v>
@@ -39159,7 +39165,7 @@
         <v>3686</v>
       </c>
       <c r="D1442" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1442" t="s">
         <v>2935</v>
@@ -39176,7 +39182,7 @@
         <v>2935</v>
       </c>
       <c r="D1443" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1443" t="s">
         <v>2936</v>
@@ -39193,7 +39199,7 @@
         <v>2447</v>
       </c>
       <c r="D1444" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1444" t="s">
         <v>2910</v>
@@ -39210,7 +39216,7 @@
         <v>3467</v>
       </c>
       <c r="D1445" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1445" t="s">
         <v>2937</v>
@@ -39244,10 +39250,10 @@
         <v>3688</v>
       </c>
       <c r="D1447" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1447" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39261,10 +39267,10 @@
         <v>3689</v>
       </c>
       <c r="D1448" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1448" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39278,7 +39284,7 @@
         <v>3690</v>
       </c>
       <c r="D1449" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1449" t="s">
         <v>2292</v>
@@ -39298,7 +39304,7 @@
         <v>2940</v>
       </c>
       <c r="E1450" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39346,10 +39352,10 @@
         <v>3694</v>
       </c>
       <c r="D1453" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1453" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39363,10 +39369,10 @@
         <v>3695</v>
       </c>
       <c r="D1454" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1454" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39380,7 +39386,7 @@
         <v>3696</v>
       </c>
       <c r="D1455" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1455" t="s">
         <v>3696</v>
@@ -39414,7 +39420,7 @@
         <v>3698</v>
       </c>
       <c r="D1457" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1457" t="s">
         <v>2946</v>
@@ -39431,7 +39437,7 @@
         <v>3699</v>
       </c>
       <c r="D1458" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1458" t="s">
         <v>2946</v>
@@ -39465,10 +39471,10 @@
         <v>2967</v>
       </c>
       <c r="D1460" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1460" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39482,10 +39488,10 @@
         <v>3701</v>
       </c>
       <c r="D1461" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1461" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39499,7 +39505,7 @@
         <v>2319</v>
       </c>
       <c r="D1462" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E1462" t="s">
         <v>2949</v>
@@ -39516,7 +39522,7 @@
         <v>3702</v>
       </c>
       <c r="D1463" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1463" t="s">
         <v>2969</v>
@@ -39533,10 +39539,10 @@
         <v>3703</v>
       </c>
       <c r="D1464" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1464" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39550,10 +39556,10 @@
         <v>2948</v>
       </c>
       <c r="D1465" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1465" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39584,10 +39590,10 @@
         <v>3705</v>
       </c>
       <c r="D1467" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1467" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39601,10 +39607,10 @@
         <v>3706</v>
       </c>
       <c r="D1468" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1468" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39621,7 +39627,7 @@
         <v>2955</v>
       </c>
       <c r="E1469" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39652,7 +39658,7 @@
         <v>3709</v>
       </c>
       <c r="D1471" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1471" t="s">
         <v>2946</v>
@@ -39669,10 +39675,10 @@
         <v>3480</v>
       </c>
       <c r="D1472" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1472" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39689,7 +39695,7 @@
         <v>2957</v>
       </c>
       <c r="E1473" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39703,10 +39709,10 @@
         <v>2946</v>
       </c>
       <c r="D1474" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1474" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39720,10 +39726,10 @@
         <v>2312</v>
       </c>
       <c r="D1475" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1475" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39737,7 +39743,7 @@
         <v>3710</v>
       </c>
       <c r="D1476" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1476" t="s">
         <v>2961</v>
@@ -39754,7 +39760,7 @@
         <v>3699</v>
       </c>
       <c r="D1477" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1477" t="s">
         <v>2962</v>
@@ -39805,7 +39811,7 @@
         <v>3711</v>
       </c>
       <c r="D1480" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1480" t="s">
         <v>2965</v>
@@ -39839,7 +39845,7 @@
         <v>3712</v>
       </c>
       <c r="D1482" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1482" t="s">
         <v>2967</v>
@@ -39856,7 +39862,7 @@
         <v>2967</v>
       </c>
       <c r="D1483" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1483" t="s">
         <v>2967</v>
@@ -39890,7 +39896,7 @@
         <v>2951</v>
       </c>
       <c r="D1485" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1485" t="s">
         <v>2318</v>
@@ -39907,7 +39913,7 @@
         <v>3714</v>
       </c>
       <c r="D1486" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1486" t="s">
         <v>2968</v>
@@ -39924,7 +39930,7 @@
         <v>3715</v>
       </c>
       <c r="D1487" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1487" t="s">
         <v>2950</v>
@@ -39941,10 +39947,10 @@
         <v>3705</v>
       </c>
       <c r="D1488" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1488" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39958,10 +39964,10 @@
         <v>3716</v>
       </c>
       <c r="D1489" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1489" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -39978,7 +39984,7 @@
         <v>3731</v>
       </c>
       <c r="E1490" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -40026,7 +40032,7 @@
         <v>3718</v>
       </c>
       <c r="D1493" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1493" t="s">
         <v>2995</v>
@@ -40060,7 +40066,7 @@
         <v>3720</v>
       </c>
       <c r="D1495" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1495" t="s">
         <v>3035</v>
@@ -40077,7 +40083,7 @@
         <v>3721</v>
       </c>
       <c r="D1496" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1496" t="s">
         <v>2977</v>
@@ -40097,7 +40103,7 @@
         <v>2976</v>
       </c>
       <c r="E1497" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -40111,10 +40117,10 @@
         <v>3722</v>
       </c>
       <c r="D1498" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1498" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40145,10 +40151,10 @@
         <v>3724</v>
       </c>
       <c r="D1500" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1500" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40162,7 +40168,7 @@
         <v>3052</v>
       </c>
       <c r="D1501" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1501" t="s">
         <v>2982</v>
@@ -40182,7 +40188,7 @@
         <v>3723</v>
       </c>
       <c r="E1502" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40199,7 +40205,7 @@
         <v>2994</v>
       </c>
       <c r="E1503" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40213,7 +40219,7 @@
         <v>3727</v>
       </c>
       <c r="D1504" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1504" t="s">
         <v>3035</v>
@@ -40230,7 +40236,7 @@
         <v>3728</v>
       </c>
       <c r="D1505" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1505" t="s">
         <v>2985</v>
@@ -40267,7 +40273,7 @@
         <v>2986</v>
       </c>
       <c r="E1507" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40284,7 +40290,7 @@
         <v>2895</v>
       </c>
       <c r="E1508" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40298,10 +40304,10 @@
         <v>3731</v>
       </c>
       <c r="D1509" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1509" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40315,10 +40321,10 @@
         <v>2989</v>
       </c>
       <c r="D1510" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1510" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40332,7 +40338,7 @@
         <v>3732</v>
       </c>
       <c r="D1511" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1511" t="s">
         <v>2990</v>
@@ -40352,7 +40358,7 @@
         <v>2990</v>
       </c>
       <c r="E1512" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40366,10 +40372,10 @@
         <v>2973</v>
       </c>
       <c r="D1513" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1513" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40383,10 +40389,10 @@
         <v>3733</v>
       </c>
       <c r="D1514" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1514" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40400,7 +40406,7 @@
         <v>3734</v>
       </c>
       <c r="D1515" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1515" t="s">
         <v>2971</v>
@@ -40434,10 +40440,10 @@
         <v>2994</v>
       </c>
       <c r="D1517" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1517" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40451,10 +40457,10 @@
         <v>2995</v>
       </c>
       <c r="D1518" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1518" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40468,7 +40474,7 @@
         <v>3736</v>
       </c>
       <c r="D1519" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1519" t="s">
         <v>2990</v>
@@ -40485,10 +40491,10 @@
         <v>3704</v>
       </c>
       <c r="D1520" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1520" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40502,10 +40508,10 @@
         <v>3737</v>
       </c>
       <c r="D1521" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1521" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40519,10 +40525,10 @@
         <v>2973</v>
       </c>
       <c r="D1522" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1522" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40536,7 +40542,7 @@
         <v>3738</v>
       </c>
       <c r="D1523" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1523" t="s">
         <v>3001</v>
@@ -40590,7 +40596,7 @@
         <v>3001</v>
       </c>
       <c r="E1526" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40621,10 +40627,10 @@
         <v>3743</v>
       </c>
       <c r="D1528" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1528" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40655,7 +40661,7 @@
         <v>3745</v>
       </c>
       <c r="D1530" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1530" t="s">
         <v>3042</v>
@@ -40672,7 +40678,7 @@
         <v>3746</v>
       </c>
       <c r="D1531" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1531" t="s">
         <v>3007</v>
@@ -40706,10 +40712,10 @@
         <v>3007</v>
       </c>
       <c r="D1533" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1533" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40723,10 +40729,10 @@
         <v>3748</v>
       </c>
       <c r="D1534" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1534" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40740,10 +40746,10 @@
         <v>3749</v>
       </c>
       <c r="D1535" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1535" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40791,7 +40797,7 @@
         <v>3751</v>
       </c>
       <c r="D1538" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1538" t="s">
         <v>3012</v>
@@ -40808,7 +40814,7 @@
         <v>3752</v>
       </c>
       <c r="D1539" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1539" t="s">
         <v>3013</v>
@@ -40825,10 +40831,10 @@
         <v>3753</v>
       </c>
       <c r="D1540" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1540" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40842,7 +40848,7 @@
         <v>3754</v>
       </c>
       <c r="D1541" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1541" t="s">
         <v>3015</v>
@@ -40859,7 +40865,7 @@
         <v>3755</v>
       </c>
       <c r="D1542" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1542" t="s">
         <v>3016</v>
@@ -40893,7 +40899,7 @@
         <v>3757</v>
       </c>
       <c r="D1544" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1544" t="s">
         <v>3018</v>
@@ -40910,10 +40916,10 @@
         <v>3758</v>
       </c>
       <c r="D1545" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1545" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40944,7 +40950,7 @@
         <v>3760</v>
       </c>
       <c r="D1547" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1547" t="s">
         <v>3767</v>
@@ -40961,10 +40967,10 @@
         <v>3761</v>
       </c>
       <c r="D1548" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1548" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40981,7 +40987,7 @@
         <v>3048</v>
       </c>
       <c r="E1549" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40995,10 +41001,10 @@
         <v>3763</v>
       </c>
       <c r="D1550" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1550" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41012,7 +41018,7 @@
         <v>3764</v>
       </c>
       <c r="D1551" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1551" t="s">
         <v>3024</v>
@@ -41029,10 +41035,10 @@
         <v>3764</v>
       </c>
       <c r="D1552" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1552" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -41046,10 +41052,10 @@
         <v>3025</v>
       </c>
       <c r="D1553" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1553" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -41063,7 +41069,7 @@
         <v>3765</v>
       </c>
       <c r="D1554" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1554" t="s">
         <v>3056</v>
@@ -41083,7 +41089,7 @@
         <v>3720</v>
       </c>
       <c r="E1555" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41097,7 +41103,7 @@
         <v>3767</v>
       </c>
       <c r="D1556" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1556" t="s">
         <v>3029</v>
@@ -41114,7 +41120,7 @@
         <v>3029</v>
       </c>
       <c r="D1557" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1557" t="s">
         <v>3014</v>
@@ -41134,7 +41140,7 @@
         <v>3035</v>
       </c>
       <c r="E1558" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41148,7 +41154,7 @@
         <v>3769</v>
       </c>
       <c r="D1559" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1559" t="s">
         <v>3031</v>
@@ -41165,10 +41171,10 @@
         <v>3770</v>
       </c>
       <c r="D1560" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1560" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41182,10 +41188,10 @@
         <v>3066</v>
       </c>
       <c r="D1561" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1561" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41199,10 +41205,10 @@
         <v>3771</v>
       </c>
       <c r="D1562" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1562" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41216,7 +41222,7 @@
         <v>3034</v>
       </c>
       <c r="D1563" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1563" t="s">
         <v>3019</v>
@@ -41233,7 +41239,7 @@
         <v>3772</v>
       </c>
       <c r="D1564" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1564" t="s">
         <v>2976</v>
@@ -41250,10 +41256,10 @@
         <v>2978</v>
       </c>
       <c r="D1565" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1565" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41267,7 +41273,7 @@
         <v>3742</v>
       </c>
       <c r="D1566" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1566" t="s">
         <v>3037</v>
@@ -41284,7 +41290,7 @@
         <v>3773</v>
       </c>
       <c r="D1567" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1567" t="s">
         <v>3038</v>
@@ -41301,7 +41307,7 @@
         <v>3774</v>
       </c>
       <c r="D1568" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1568" t="s">
         <v>3039</v>
@@ -41318,7 +41324,7 @@
         <v>3775</v>
       </c>
       <c r="D1569" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1569" t="s">
         <v>3038</v>
@@ -41369,7 +41375,7 @@
         <v>3778</v>
       </c>
       <c r="D1572" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1572" t="s">
         <v>3006</v>
@@ -41386,7 +41392,7 @@
         <v>3043</v>
       </c>
       <c r="D1573" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1573" t="s">
         <v>3044</v>
@@ -41420,10 +41426,10 @@
         <v>3761</v>
       </c>
       <c r="D1575" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1575" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41437,7 +41443,7 @@
         <v>3779</v>
       </c>
       <c r="D1576" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1576" t="s">
         <v>3045</v>
@@ -41488,7 +41494,7 @@
         <v>3782</v>
       </c>
       <c r="D1579" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1579" t="s">
         <v>3048</v>
@@ -41505,10 +41511,10 @@
         <v>3783</v>
       </c>
       <c r="D1580" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1580" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41522,7 +41528,7 @@
         <v>3784</v>
       </c>
       <c r="D1581" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1581" t="s">
         <v>3050</v>
@@ -41539,7 +41545,7 @@
         <v>3050</v>
       </c>
       <c r="D1582" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1582" t="s">
         <v>3013</v>
@@ -41556,10 +41562,10 @@
         <v>3726</v>
       </c>
       <c r="D1583" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1583" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41576,7 +41582,7 @@
         <v>3724</v>
       </c>
       <c r="E1584" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41641,10 +41647,10 @@
         <v>3789</v>
       </c>
       <c r="D1588" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1588" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41658,7 +41664,7 @@
         <v>3790</v>
       </c>
       <c r="D1589" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1589" t="s">
         <v>3777</v>
@@ -41882,7 +41888,7 @@
         <v>3056</v>
       </c>
       <c r="E1602" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -42069,7 +42075,7 @@
         <v>3056</v>
       </c>
       <c r="E1613" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42239,7 +42245,7 @@
         <v>3056</v>
       </c>
       <c r="E1623" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42253,10 +42259,10 @@
         <v>3810</v>
       </c>
       <c r="D1624" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1624" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42270,10 +42276,10 @@
         <v>3811</v>
       </c>
       <c r="D1625" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1625" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42287,10 +42293,10 @@
         <v>3812</v>
       </c>
       <c r="D1626" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1626" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42304,7 +42310,7 @@
         <v>3813</v>
       </c>
       <c r="D1627" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1627" t="s">
         <v>3069</v>
@@ -42321,10 +42327,10 @@
         <v>3814</v>
       </c>
       <c r="D1628" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1628" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42338,10 +42344,10 @@
         <v>3815</v>
       </c>
       <c r="D1629" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1629" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42355,7 +42361,7 @@
         <v>3816</v>
       </c>
       <c r="D1630" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1630" t="s">
         <v>3065</v>
@@ -42372,7 +42378,7 @@
         <v>3817</v>
       </c>
       <c r="D1631" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1631" t="s">
         <v>3065</v>
@@ -42389,7 +42395,7 @@
         <v>3818</v>
       </c>
       <c r="D1632" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1632" t="s">
         <v>3064</v>
@@ -42406,7 +42412,7 @@
         <v>3819</v>
       </c>
       <c r="D1633" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1633" t="s">
         <v>3064</v>
@@ -42423,7 +42429,7 @@
         <v>3819</v>
       </c>
       <c r="D1634" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1634" t="s">
         <v>3063</v>
@@ -42440,7 +42446,7 @@
         <v>3820</v>
       </c>
       <c r="D1635" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1635" t="s">
         <v>3071</v>
@@ -42457,7 +42463,7 @@
         <v>3803</v>
       </c>
       <c r="D1636" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1636" t="s">
         <v>3071</v>
@@ -42579,7 +42585,7 @@
         <v>3071</v>
       </c>
       <c r="E1643" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42664,7 +42670,7 @@
         <v>3071</v>
       </c>
       <c r="E1648" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42984,7 +42990,7 @@
         <v>3843</v>
       </c>
       <c r="D1667" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1667" t="s">
         <v>3071</v>
@@ -43001,7 +43007,7 @@
         <v>3071</v>
       </c>
       <c r="D1668" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1668" t="s">
         <v>3071</v>
@@ -43018,7 +43024,7 @@
         <v>3071</v>
       </c>
       <c r="D1669" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1669" t="s">
         <v>3071</v>
@@ -43038,7 +43044,7 @@
         <v>3797</v>
       </c>
       <c r="E1670" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -43069,10 +43075,10 @@
         <v>3845</v>
       </c>
       <c r="D1672" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1672" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -43086,10 +43092,10 @@
         <v>3846</v>
       </c>
       <c r="D1673" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1673" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -43103,10 +43109,10 @@
         <v>3323</v>
       </c>
       <c r="D1674" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1674" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -43120,7 +43126,7 @@
         <v>3847</v>
       </c>
       <c r="D1675" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1675" t="s">
         <v>4006</v>
@@ -43137,10 +43143,10 @@
         <v>3848</v>
       </c>
       <c r="D1676" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1676" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43154,10 +43160,10 @@
         <v>3849</v>
       </c>
       <c r="D1677" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1677" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43171,10 +43177,10 @@
         <v>3850</v>
       </c>
       <c r="D1678" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1678" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43188,10 +43194,10 @@
         <v>3851</v>
       </c>
       <c r="D1679" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1679" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43205,10 +43211,10 @@
         <v>3852</v>
       </c>
       <c r="D1680" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1680" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43222,7 +43228,7 @@
         <v>3853</v>
       </c>
       <c r="D1681" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1681" t="s">
         <v>3086</v>
@@ -43324,7 +43330,7 @@
         <v>3087</v>
       </c>
       <c r="D1687" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1687" t="s">
         <v>3087</v>
@@ -43341,10 +43347,10 @@
         <v>3087</v>
       </c>
       <c r="D1688" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1688" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43358,7 +43364,7 @@
         <v>3087</v>
       </c>
       <c r="D1689" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1689" t="s">
         <v>3087</v>
@@ -43375,7 +43381,7 @@
         <v>3087</v>
       </c>
       <c r="D1690" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1690" t="s">
         <v>3087</v>
@@ -43426,7 +43432,7 @@
         <v>3087</v>
       </c>
       <c r="D1693" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1693" t="s">
         <v>3087</v>
@@ -43443,10 +43449,10 @@
         <v>3087</v>
       </c>
       <c r="D1694" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1694" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43460,7 +43466,7 @@
         <v>3087</v>
       </c>
       <c r="D1695" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1695" t="s">
         <v>3087</v>
@@ -43477,7 +43483,7 @@
         <v>3087</v>
       </c>
       <c r="D1696" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1696" t="s">
         <v>3087</v>
@@ -43650,7 +43656,7 @@
         <v>3087</v>
       </c>
       <c r="E1706" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43701,7 +43707,7 @@
         <v>3087</v>
       </c>
       <c r="E1709" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43783,10 +43789,10 @@
         <v>3870</v>
       </c>
       <c r="D1714" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1714" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43800,10 +43806,10 @@
         <v>3871</v>
       </c>
       <c r="D1715" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1715" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43817,10 +43823,10 @@
         <v>3872</v>
       </c>
       <c r="D1716" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1716" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43837,7 +43843,7 @@
         <v>3106</v>
       </c>
       <c r="E1717" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43851,7 +43857,7 @@
         <v>3874</v>
       </c>
       <c r="D1718" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1718" t="s">
         <v>3097</v>
@@ -43868,7 +43874,7 @@
         <v>3875</v>
       </c>
       <c r="D1719" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1719" t="s">
         <v>3096</v>
@@ -43885,10 +43891,10 @@
         <v>3876</v>
       </c>
       <c r="D1720" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1720" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43902,7 +43908,7 @@
         <v>3877</v>
       </c>
       <c r="D1721" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1721" t="s">
         <v>3099</v>
@@ -43922,7 +43928,7 @@
         <v>4075</v>
       </c>
       <c r="E1722" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43936,7 +43942,7 @@
         <v>3879</v>
       </c>
       <c r="D1723" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1723" t="s">
         <v>3101</v>
@@ -43953,10 +43959,10 @@
         <v>3880</v>
       </c>
       <c r="D1724" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1724" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43970,7 +43976,7 @@
         <v>3881</v>
       </c>
       <c r="D1725" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1725" t="s">
         <v>3103</v>
@@ -44004,7 +44010,7 @@
         <v>3883</v>
       </c>
       <c r="D1727" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1727" t="s">
         <v>3105</v>
@@ -44106,7 +44112,7 @@
         <v>3887</v>
       </c>
       <c r="D1733" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1733" t="s">
         <v>3106</v>
@@ -44174,7 +44180,7 @@
         <v>3890</v>
       </c>
       <c r="D1737" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1737" t="s">
         <v>3107</v>
@@ -44191,7 +44197,7 @@
         <v>3891</v>
       </c>
       <c r="D1738" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1738" t="s">
         <v>3108</v>
@@ -44225,7 +44231,7 @@
         <v>3111</v>
       </c>
       <c r="D1740" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1740" t="s">
         <v>3882</v>
@@ -44245,7 +44251,7 @@
         <v>3110</v>
       </c>
       <c r="E1741" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44310,10 +44316,10 @@
         <v>3113</v>
       </c>
       <c r="D1745" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1745" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44327,10 +44333,10 @@
         <v>3894</v>
       </c>
       <c r="D1746" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1746" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44480,7 +44486,7 @@
         <v>3897</v>
       </c>
       <c r="D1755" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1755" t="s">
         <v>3124</v>
@@ -44531,7 +44537,7 @@
         <v>3900</v>
       </c>
       <c r="D1758" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1758" t="s">
         <v>3127</v>
@@ -44582,7 +44588,7 @@
         <v>3902</v>
       </c>
       <c r="D1761" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1761" t="s">
         <v>3130</v>
@@ -44616,7 +44622,7 @@
         <v>3904</v>
       </c>
       <c r="D1763" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1763" t="s">
         <v>3132</v>
@@ -44633,7 +44639,7 @@
         <v>3905</v>
       </c>
       <c r="D1764" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1764" t="s">
         <v>3133</v>
@@ -44701,7 +44707,7 @@
         <v>3909</v>
       </c>
       <c r="D1768" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1768" t="s">
         <v>3137</v>
@@ -44718,7 +44724,7 @@
         <v>3910</v>
       </c>
       <c r="D1769" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1769" t="s">
         <v>3138</v>
@@ -44738,7 +44744,7 @@
         <v>3138</v>
       </c>
       <c r="E1770" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44752,7 +44758,7 @@
         <v>3912</v>
       </c>
       <c r="D1771" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1771" t="s">
         <v>3140</v>
@@ -44769,7 +44775,7 @@
         <v>3913</v>
       </c>
       <c r="D1772" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1772" t="s">
         <v>3141</v>
@@ -44786,7 +44792,7 @@
         <v>3914</v>
       </c>
       <c r="D1773" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1773" t="s">
         <v>3142</v>
@@ -44803,7 +44809,7 @@
         <v>3915</v>
       </c>
       <c r="D1774" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1774" t="s">
         <v>3143</v>
@@ -44871,7 +44877,7 @@
         <v>3919</v>
       </c>
       <c r="D1778" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1778" t="s">
         <v>3147</v>
@@ -44888,10 +44894,10 @@
         <v>3920</v>
       </c>
       <c r="D1779" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1779" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44905,7 +44911,7 @@
         <v>3921</v>
       </c>
       <c r="D1780" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1780" t="s">
         <v>3141</v>
@@ -44922,7 +44928,7 @@
         <v>3922</v>
       </c>
       <c r="D1781" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1781" t="s">
         <v>3148</v>
@@ -44956,7 +44962,7 @@
         <v>3924</v>
       </c>
       <c r="D1783" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1783" t="s">
         <v>3150</v>
@@ -45092,7 +45098,7 @@
         <v>3151</v>
       </c>
       <c r="D1791" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1791" t="s">
         <v>3151</v>
@@ -45160,10 +45166,10 @@
         <v>3151</v>
       </c>
       <c r="D1795" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1795" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45177,10 +45183,10 @@
         <v>3151</v>
       </c>
       <c r="D1796" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1796" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45194,10 +45200,10 @@
         <v>3151</v>
       </c>
       <c r="D1797" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1797" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45211,10 +45217,10 @@
         <v>3151</v>
       </c>
       <c r="D1798" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1798" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45228,7 +45234,7 @@
         <v>3928</v>
       </c>
       <c r="D1799" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1799" t="s">
         <v>3153</v>
@@ -45245,10 +45251,10 @@
         <v>3929</v>
       </c>
       <c r="D1800" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1800" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45262,7 +45268,7 @@
         <v>3151</v>
       </c>
       <c r="D1801" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1801" t="s">
         <v>3209</v>
@@ -45279,7 +45285,7 @@
         <v>3930</v>
       </c>
       <c r="D1802" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1802" t="s">
         <v>3156</v>
@@ -45296,7 +45302,7 @@
         <v>3199</v>
       </c>
       <c r="D1803" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1803" t="s">
         <v>3157</v>
@@ -45330,7 +45336,7 @@
         <v>3932</v>
       </c>
       <c r="D1805" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1805" t="s">
         <v>3159</v>
@@ -45364,7 +45370,7 @@
         <v>3934</v>
       </c>
       <c r="D1807" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1807" t="s">
         <v>3161</v>
@@ -45398,7 +45404,7 @@
         <v>3936</v>
       </c>
       <c r="D1809" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1809" t="s">
         <v>3163</v>
@@ -45415,7 +45421,7 @@
         <v>3936</v>
       </c>
       <c r="D1810" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1810" t="s">
         <v>3164</v>
@@ -45432,7 +45438,7 @@
         <v>3937</v>
       </c>
       <c r="D1811" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1811" t="s">
         <v>3165</v>
@@ -45449,7 +45455,7 @@
         <v>3938</v>
       </c>
       <c r="D1812" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1812" t="s">
         <v>3166</v>
@@ -45466,7 +45472,7 @@
         <v>3939</v>
       </c>
       <c r="D1813" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1813" t="s">
         <v>3167</v>
@@ -45483,7 +45489,7 @@
         <v>3940</v>
       </c>
       <c r="D1814" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1814" t="s">
         <v>3168</v>
@@ -45500,7 +45506,7 @@
         <v>3940</v>
       </c>
       <c r="D1815" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1815" t="s">
         <v>3169</v>
@@ -45517,7 +45523,7 @@
         <v>3941</v>
       </c>
       <c r="D1816" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1816" t="s">
         <v>3170</v>
@@ -45534,7 +45540,7 @@
         <v>3942</v>
       </c>
       <c r="D1817" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1817" t="s">
         <v>3171</v>
@@ -45568,7 +45574,7 @@
         <v>3169</v>
       </c>
       <c r="D1819" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1819" t="s">
         <v>3173</v>
@@ -45585,7 +45591,7 @@
         <v>3944</v>
       </c>
       <c r="D1820" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1820" t="s">
         <v>3174</v>
@@ -45636,7 +45642,7 @@
         <v>3947</v>
       </c>
       <c r="D1823" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1823" t="s">
         <v>3177</v>
@@ -45656,7 +45662,7 @@
         <v>3177</v>
       </c>
       <c r="E1824" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45673,7 +45679,7 @@
         <v>3167</v>
       </c>
       <c r="E1825" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45687,10 +45693,10 @@
         <v>3950</v>
       </c>
       <c r="D1826" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1826" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45704,7 +45710,7 @@
         <v>3951</v>
       </c>
       <c r="D1827" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1827" t="s">
         <v>3181</v>
@@ -45721,7 +45727,7 @@
         <v>3952</v>
       </c>
       <c r="D1828" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1828" t="s">
         <v>3182</v>
@@ -45738,7 +45744,7 @@
         <v>3894</v>
       </c>
       <c r="D1829" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1829" t="s">
         <v>3183</v>
@@ -45772,7 +45778,7 @@
         <v>3954</v>
       </c>
       <c r="D1831" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1831" t="s">
         <v>3185</v>
@@ -45806,7 +45812,7 @@
         <v>3956</v>
       </c>
       <c r="D1833" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1833" t="s">
         <v>3954</v>
@@ -45840,7 +45846,7 @@
         <v>3958</v>
       </c>
       <c r="D1835" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1835" t="s">
         <v>3959</v>
@@ -45857,7 +45863,7 @@
         <v>3959</v>
       </c>
       <c r="D1836" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1836" t="s">
         <v>3190</v>
@@ -45874,7 +45880,7 @@
         <v>3960</v>
       </c>
       <c r="D1837" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1837" t="s">
         <v>3191</v>
@@ -45891,10 +45897,10 @@
         <v>3961</v>
       </c>
       <c r="D1838" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1838" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45908,7 +45914,7 @@
         <v>3962</v>
       </c>
       <c r="D1839" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1839" t="s">
         <v>3193</v>
@@ -45925,7 +45931,7 @@
         <v>3963</v>
       </c>
       <c r="D1840" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1840" t="s">
         <v>3194</v>
@@ -45942,7 +45948,7 @@
         <v>3964</v>
       </c>
       <c r="D1841" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1841" t="s">
         <v>3195</v>
@@ -45976,7 +45982,7 @@
         <v>3962</v>
       </c>
       <c r="D1843" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1843" t="s">
         <v>3197</v>
@@ -45993,10 +45999,10 @@
         <v>3965</v>
       </c>
       <c r="D1844" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1844" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -46027,7 +46033,7 @@
         <v>3162</v>
       </c>
       <c r="D1846" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1846" t="s">
         <v>3162</v>
@@ -46044,7 +46050,7 @@
         <v>3200</v>
       </c>
       <c r="D1847" t="s">
-        <v>4533</v>
+        <v>4099</v>
       </c>
       <c r="E1847" t="s">
         <v>3201</v>
@@ -46064,7 +46070,7 @@
         <v>3202</v>
       </c>
       <c r="E1848" t="s">
-        <v>4533</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -46098,7 +46104,7 @@
         <v>3203</v>
       </c>
       <c r="E1850" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46166,7 +46172,7 @@
         <v>4072</v>
       </c>
       <c r="E1854" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46319,7 +46325,7 @@
         <v>4027</v>
       </c>
       <c r="E1863" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46455,7 +46461,7 @@
         <v>3223</v>
       </c>
       <c r="E1871" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46489,7 +46495,7 @@
         <v>3225</v>
       </c>
       <c r="E1873" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46557,7 +46563,7 @@
         <v>4548</v>
       </c>
       <c r="E1877" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46741,10 +46747,10 @@
         <v>3998</v>
       </c>
       <c r="D1888" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1888" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -47115,7 +47121,7 @@
         <v>3261</v>
       </c>
       <c r="D1910" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1910" t="s">
         <v>3262</v>
@@ -47271,7 +47277,7 @@
         <v>4566</v>
       </c>
       <c r="E1919" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -48376,7 +48382,7 @@
         <v>3331</v>
       </c>
       <c r="E1984" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48784,7 +48790,7 @@
         <v>4618</v>
       </c>
       <c r="E2008" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48832,7 +48838,7 @@
         <v>4074</v>
       </c>
       <c r="D2011" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E2011" t="s">
         <v>3358</v>
@@ -48886,7 +48892,7 @@
         <v>4621</v>
       </c>
       <c r="E2014" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -49243,7 +49249,7 @@
         <v>4631</v>
       </c>
       <c r="E2035" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="2036" spans="1:5">
@@ -49260,7 +49266,7 @@
         <v>4632</v>
       </c>
       <c r="E2036" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="2037" spans="1:5">
@@ -49390,13 +49396,13 @@
         <v>3385</v>
       </c>
       <c r="C2044" t="s">
-        <v>3385</v>
+        <v>4099</v>
       </c>
       <c r="D2044" t="s">
-        <v>3385</v>
+        <v>4637</v>
       </c>
       <c r="E2044" t="s">
-        <v>3385</v>
+        <v>4759</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12313,1311 +12313,1311 @@
     <t>3.95970</t>
   </si>
   <si>
+    <t>2.91000</t>
+  </si>
+  <si>
+    <t>2.95200</t>
+  </si>
+  <si>
+    <t>2.93800</t>
+  </si>
+  <si>
+    <t>2.97400</t>
+  </si>
+  <si>
+    <t>2.97500</t>
+  </si>
+  <si>
+    <t>2.96290</t>
+  </si>
+  <si>
+    <t>2.98050</t>
+  </si>
+  <si>
+    <t>3.00400</t>
+  </si>
+  <si>
+    <t>2.99500</t>
+  </si>
+  <si>
+    <t>3.02100</t>
+  </si>
+  <si>
+    <t>3.02900</t>
+  </si>
+  <si>
+    <t>3.05100</t>
+  </si>
+  <si>
+    <t>3.05300</t>
+  </si>
+  <si>
+    <t>3.07700</t>
+  </si>
+  <si>
+    <t>3.09050</t>
+  </si>
+  <si>
+    <t>3.09350</t>
+  </si>
+  <si>
+    <t>3.06000</t>
+  </si>
+  <si>
+    <t>3.07650</t>
+  </si>
+  <si>
+    <t>3.13850</t>
+  </si>
+  <si>
+    <t>3.10450</t>
+  </si>
+  <si>
+    <t>3.13000</t>
+  </si>
+  <si>
+    <t>3.13500</t>
+  </si>
+  <si>
+    <t>3.12780</t>
+  </si>
+  <si>
+    <t>3.14230</t>
+  </si>
+  <si>
+    <t>3.13900</t>
+  </si>
+  <si>
+    <t>3.16100</t>
+  </si>
+  <si>
+    <t>3.17490</t>
+  </si>
+  <si>
+    <t>3.19900</t>
+  </si>
+  <si>
+    <t>3.19700</t>
+  </si>
+  <si>
+    <t>3.20700</t>
+  </si>
+  <si>
+    <t>3.47550</t>
+  </si>
+  <si>
+    <t>3.52500</t>
+  </si>
+  <si>
+    <t>3.52000</t>
+  </si>
+  <si>
+    <t>3.43900</t>
+  </si>
+  <si>
+    <t>3.35760</t>
+  </si>
+  <si>
+    <t>3.35100</t>
+  </si>
+  <si>
+    <t>3.25390</t>
+  </si>
+  <si>
+    <t>3.30300</t>
+  </si>
+  <si>
+    <t>3.33740</t>
+  </si>
+  <si>
+    <t>3.35700</t>
+  </si>
+  <si>
+    <t>3.39600</t>
+  </si>
+  <si>
+    <t>3.35800</t>
+  </si>
+  <si>
+    <t>3.41200</t>
+  </si>
+  <si>
+    <t>3.39240</t>
+  </si>
+  <si>
+    <t>3.38290</t>
+  </si>
+  <si>
+    <t>3.39160</t>
+  </si>
+  <si>
+    <t>3.38220</t>
+  </si>
+  <si>
+    <t>3.38790</t>
+  </si>
+  <si>
+    <t>3.37520</t>
+  </si>
+  <si>
+    <t>3.35120</t>
+  </si>
+  <si>
+    <t>3.34590</t>
+  </si>
+  <si>
+    <t>3.37110</t>
+  </si>
+  <si>
+    <t>3.37360</t>
+  </si>
+  <si>
+    <t>3.35430</t>
+  </si>
+  <si>
+    <t>3.35440</t>
+  </si>
+  <si>
+    <t>3.33420</t>
+  </si>
+  <si>
+    <t>3.27980</t>
+  </si>
+  <si>
+    <t>3.27660</t>
+  </si>
+  <si>
+    <t>3.25790</t>
+  </si>
+  <si>
+    <t>3.22890</t>
+  </si>
+  <si>
+    <t>3.25040</t>
+  </si>
+  <si>
+    <t>3.27590</t>
+  </si>
+  <si>
+    <t>3.26000</t>
+  </si>
+  <si>
+    <t>3.23780</t>
+  </si>
+  <si>
+    <t>3.23720</t>
+  </si>
+  <si>
+    <t>3.24680</t>
+  </si>
+  <si>
+    <t>3.23960</t>
+  </si>
+  <si>
+    <t>3.22970</t>
+  </si>
+  <si>
+    <t>3.23340</t>
+  </si>
+  <si>
+    <t>3.22750</t>
+  </si>
+  <si>
+    <t>3.25850</t>
+  </si>
+  <si>
+    <t>3.26380</t>
+  </si>
+  <si>
+    <t>3.26260</t>
+  </si>
+  <si>
+    <t>3.26440</t>
+  </si>
+  <si>
+    <t>3.25700</t>
+  </si>
+  <si>
+    <t>3.24300</t>
+  </si>
+  <si>
+    <t>3.23670</t>
+  </si>
+  <si>
+    <t>3.23230</t>
+  </si>
+  <si>
+    <t>3.23320</t>
+  </si>
+  <si>
+    <t>3.23170</t>
+  </si>
+  <si>
+    <t>3.23130</t>
+  </si>
+  <si>
+    <t>3.22610</t>
+  </si>
+  <si>
+    <t>3.22730</t>
+  </si>
+  <si>
+    <t>3.23640</t>
+  </si>
+  <si>
+    <t>3.26170</t>
+  </si>
+  <si>
+    <t>3.25470</t>
+  </si>
+  <si>
+    <t>3.23240</t>
+  </si>
+  <si>
+    <t>3.23020</t>
+  </si>
+  <si>
+    <t>3.22420</t>
+  </si>
+  <si>
+    <t>3.23570</t>
+  </si>
+  <si>
+    <t>3.23660</t>
+  </si>
+  <si>
+    <t>3.23820</t>
+  </si>
+  <si>
+    <t>3.22870</t>
+  </si>
+  <si>
+    <t>3.27620</t>
+  </si>
+  <si>
+    <t>3.19670</t>
+  </si>
+  <si>
+    <t>3.20130</t>
+  </si>
+  <si>
+    <t>3.20810</t>
+  </si>
+  <si>
+    <t>3.20230</t>
+  </si>
+  <si>
+    <t>3.21010</t>
+  </si>
+  <si>
+    <t>3.20570</t>
+  </si>
+  <si>
+    <t>3.21430</t>
+  </si>
+  <si>
+    <t>3.25500</t>
+  </si>
+  <si>
+    <t>3.21730</t>
+  </si>
+  <si>
+    <t>3.21130</t>
+  </si>
+  <si>
+    <t>3.21950</t>
+  </si>
+  <si>
+    <t>3.22690</t>
+  </si>
+  <si>
+    <t>3.22400</t>
+  </si>
+  <si>
+    <t>3.26330</t>
+  </si>
+  <si>
+    <t>3.26140</t>
+  </si>
+  <si>
+    <t>3.26030</t>
+  </si>
+  <si>
+    <t>3.25370</t>
+  </si>
+  <si>
+    <t>3.27220</t>
+  </si>
+  <si>
+    <t>3.26220</t>
+  </si>
+  <si>
+    <t>3.26940</t>
+  </si>
+  <si>
+    <t>3.27230</t>
+  </si>
+  <si>
+    <t>3.26600</t>
+  </si>
+  <si>
+    <t>3.26230</t>
+  </si>
+  <si>
+    <t>3.27420</t>
+  </si>
+  <si>
+    <t>3.30070</t>
+  </si>
+  <si>
+    <t>3.30420</t>
+  </si>
+  <si>
+    <t>3.29920</t>
+  </si>
+  <si>
+    <t>3.29520</t>
+  </si>
+  <si>
+    <t>3.29810</t>
+  </si>
+  <si>
+    <t>3.32120</t>
+  </si>
+  <si>
+    <t>3.31890</t>
+  </si>
+  <si>
+    <t>3.32920</t>
+  </si>
+  <si>
+    <t>3.32420</t>
+  </si>
+  <si>
+    <t>3.32670</t>
+  </si>
+  <si>
+    <t>3.33710</t>
+  </si>
+  <si>
+    <t>3.34710</t>
+  </si>
+  <si>
+    <t>3.36660</t>
+  </si>
+  <si>
+    <t>3.37320</t>
+  </si>
+  <si>
+    <t>3.36110</t>
+  </si>
+  <si>
+    <t>3.32560</t>
+  </si>
+  <si>
+    <t>3.30810</t>
+  </si>
+  <si>
+    <t>3.32270</t>
+  </si>
+  <si>
+    <t>3.32970</t>
+  </si>
+  <si>
+    <t>3.35060</t>
+  </si>
+  <si>
+    <t>3.32070</t>
+  </si>
+  <si>
+    <t>3.31870</t>
+  </si>
+  <si>
+    <t>3.31800</t>
+  </si>
+  <si>
+    <t>3.31220</t>
+  </si>
+  <si>
+    <t>3.30320</t>
+  </si>
+  <si>
+    <t>3.29890</t>
+  </si>
+  <si>
+    <t>3.29200</t>
+  </si>
+  <si>
+    <t>3.29180</t>
+  </si>
+  <si>
+    <t>3.29720</t>
+  </si>
+  <si>
+    <t>3.28880</t>
+  </si>
+  <si>
+    <t>3.30640</t>
+  </si>
+  <si>
+    <t>3.29040</t>
+  </si>
+  <si>
+    <t>3.28840</t>
+  </si>
+  <si>
+    <t>3.28420</t>
+  </si>
+  <si>
+    <t>3.28810</t>
+  </si>
+  <si>
+    <t>3.28620</t>
+  </si>
+  <si>
+    <t>3.28780</t>
+  </si>
+  <si>
+    <t>3.31120</t>
+  </si>
+  <si>
+    <t>3.30620</t>
+  </si>
+  <si>
+    <t>3.30040</t>
+  </si>
+  <si>
+    <t>3.29380</t>
+  </si>
+  <si>
+    <t>3.29640</t>
+  </si>
+  <si>
+    <t>3.30770</t>
+  </si>
+  <si>
+    <t>3.31010</t>
+  </si>
+  <si>
+    <t>3.31060</t>
+  </si>
+  <si>
+    <t>3.32550</t>
+  </si>
+  <si>
+    <t>3.33490</t>
+  </si>
+  <si>
+    <t>3.35070</t>
+  </si>
+  <si>
+    <t>3.32370</t>
+  </si>
+  <si>
+    <t>3.32510</t>
+  </si>
+  <si>
+    <t>3.32380</t>
+  </si>
+  <si>
+    <t>3.33120</t>
+  </si>
+  <si>
+    <t>3.30490</t>
+  </si>
+  <si>
+    <t>3.29570</t>
+  </si>
+  <si>
+    <t>3.28520</t>
+  </si>
+  <si>
+    <t>3.28190</t>
+  </si>
+  <si>
+    <t>3.28310</t>
+  </si>
+  <si>
+    <t>3.28330</t>
+  </si>
+  <si>
+    <t>3.27920</t>
+  </si>
+  <si>
+    <t>3.28080</t>
+  </si>
+  <si>
+    <t>3.28040</t>
+  </si>
+  <si>
+    <t>3.28130</t>
+  </si>
+  <si>
+    <t>3.27510</t>
+  </si>
+  <si>
+    <t>3.27030</t>
+  </si>
+  <si>
+    <t>3.28260</t>
+  </si>
+  <si>
+    <t>3.28610</t>
+  </si>
+  <si>
+    <t>3.28660</t>
+  </si>
+  <si>
+    <t>3.37480</t>
+  </si>
+  <si>
+    <t>3.37040</t>
+  </si>
+  <si>
+    <t>3.37580</t>
+  </si>
+  <si>
+    <t>3.37020</t>
+  </si>
+  <si>
+    <t>3.36690</t>
+  </si>
+  <si>
+    <t>3.29930</t>
+  </si>
+  <si>
+    <t>3.35530</t>
+  </si>
+  <si>
+    <t>3.33770</t>
+  </si>
+  <si>
+    <t>3.30780</t>
+  </si>
+  <si>
+    <t>3.37530</t>
+  </si>
+  <si>
+    <t>3.36510</t>
+  </si>
+  <si>
+    <t>3.36430</t>
+  </si>
+  <si>
+    <t>3.34790</t>
+  </si>
+  <si>
+    <t>3.32430</t>
+  </si>
+  <si>
+    <t>3.35930</t>
+  </si>
+  <si>
+    <t>3.36130</t>
+  </si>
+  <si>
+    <t>3.37630</t>
+  </si>
+  <si>
+    <t>3.38840</t>
+  </si>
+  <si>
+    <t>3.38930</t>
+  </si>
+  <si>
+    <t>3.38020</t>
+  </si>
+  <si>
+    <t>3.35840</t>
+  </si>
+  <si>
+    <t>3.34890</t>
+  </si>
+  <si>
+    <t>3.32740</t>
+  </si>
+  <si>
+    <t>3.32640</t>
+  </si>
+  <si>
+    <t>3.30530</t>
+  </si>
+  <si>
+    <t>3.31280</t>
+  </si>
+  <si>
+    <t>3.31090</t>
+  </si>
+  <si>
+    <t>3.31390</t>
+  </si>
+  <si>
+    <t>3.31730</t>
+  </si>
+  <si>
+    <t>3.31430</t>
+  </si>
+  <si>
+    <t>3.31190</t>
+  </si>
+  <si>
+    <t>3.30940</t>
+  </si>
+  <si>
+    <t>3.36490</t>
+  </si>
+  <si>
+    <t>3.37890</t>
+  </si>
+  <si>
+    <t>3.40510</t>
+  </si>
+  <si>
+    <t>3.43030</t>
+  </si>
+  <si>
+    <t>3.41130</t>
+  </si>
+  <si>
+    <t>3.41020</t>
+  </si>
+  <si>
+    <t>3.41720</t>
+  </si>
+  <si>
+    <t>3.48520</t>
+  </si>
+  <si>
+    <t>3.49620</t>
+  </si>
+  <si>
+    <t>3.51550</t>
+  </si>
+  <si>
+    <t>3.51620</t>
+  </si>
+  <si>
+    <t>3.51850</t>
+  </si>
+  <si>
+    <t>3.54000</t>
+  </si>
+  <si>
+    <t>3.55120</t>
+  </si>
+  <si>
+    <t>3.49420</t>
+  </si>
+  <si>
+    <t>3.45430</t>
+  </si>
+  <si>
+    <t>3.39520</t>
+  </si>
+  <si>
+    <t>3.42480</t>
+  </si>
+  <si>
+    <t>3.43640</t>
+  </si>
+  <si>
+    <t>3.35420</t>
+  </si>
+  <si>
+    <t>3.34100</t>
+  </si>
+  <si>
+    <t>3.39120</t>
+  </si>
+  <si>
+    <t>3.36420</t>
+  </si>
+  <si>
+    <t>3.36920</t>
+  </si>
+  <si>
+    <t>3.36570</t>
+  </si>
+  <si>
+    <t>3.42420</t>
+  </si>
+  <si>
+    <t>3.43750</t>
+  </si>
+  <si>
+    <t>3.41430</t>
+  </si>
+  <si>
+    <t>3.41950</t>
+  </si>
+  <si>
+    <t>3.40920</t>
+  </si>
+  <si>
+    <t>3.42840</t>
+  </si>
+  <si>
+    <t>3.39130</t>
+  </si>
+  <si>
+    <t>3.39980</t>
+  </si>
+  <si>
+    <t>3.42280</t>
+  </si>
+  <si>
+    <t>3.42920</t>
+  </si>
+  <si>
+    <t>3.41770</t>
+  </si>
+  <si>
+    <t>3.43940</t>
+  </si>
+  <si>
+    <t>3.46770</t>
+  </si>
+  <si>
+    <t>3.49640</t>
+  </si>
+  <si>
+    <t>3.48060</t>
+  </si>
+  <si>
+    <t>3.50030</t>
+  </si>
+  <si>
+    <t>3.49970</t>
+  </si>
+  <si>
+    <t>3.50160</t>
+  </si>
+  <si>
+    <t>3.51170</t>
+  </si>
+  <si>
+    <t>3.51980</t>
+  </si>
+  <si>
+    <t>3.49800</t>
+  </si>
+  <si>
+    <t>3.53470</t>
+  </si>
+  <si>
+    <t>3.53580</t>
+  </si>
+  <si>
+    <t>3.49470</t>
+  </si>
+  <si>
+    <t>3.49170</t>
+  </si>
+  <si>
+    <t>3.47470</t>
+  </si>
+  <si>
+    <t>3.48970</t>
+  </si>
+  <si>
+    <t>3.47970</t>
+  </si>
+  <si>
+    <t>3.50070</t>
+  </si>
+  <si>
+    <t>3.49940</t>
+  </si>
+  <si>
+    <t>3.50780</t>
+  </si>
+  <si>
+    <t>3.51350</t>
+  </si>
+  <si>
+    <t>3.51070</t>
+  </si>
+  <si>
+    <t>3.52470</t>
+  </si>
+  <si>
+    <t>3.53970</t>
+  </si>
+  <si>
+    <t>3.53460</t>
+  </si>
+  <si>
+    <t>3.55920</t>
+  </si>
+  <si>
+    <t>3.56420</t>
+  </si>
+  <si>
+    <t>3.56120</t>
+  </si>
+  <si>
+    <t>3.56940</t>
+  </si>
+  <si>
+    <t>3.56440</t>
+  </si>
+  <si>
+    <t>3.55720</t>
+  </si>
+  <si>
+    <t>3.52420</t>
+  </si>
+  <si>
+    <t>3.52440</t>
+  </si>
+  <si>
+    <t>3.52940</t>
+  </si>
+  <si>
+    <t>3.51940</t>
+  </si>
+  <si>
+    <t>3.55750</t>
+  </si>
+  <si>
+    <t>3.53940</t>
+  </si>
+  <si>
+    <t>3.52450</t>
+  </si>
+  <si>
+    <t>3.51440</t>
+  </si>
+  <si>
+    <t>3.52360</t>
+  </si>
+  <si>
+    <t>3.54760</t>
+  </si>
+  <si>
+    <t>3.57840</t>
+  </si>
+  <si>
+    <t>3.58430</t>
+  </si>
+  <si>
+    <t>3.59810</t>
+  </si>
+  <si>
+    <t>3.56210</t>
+  </si>
+  <si>
+    <t>3.55940</t>
+  </si>
+  <si>
+    <t>3.56240</t>
+  </si>
+  <si>
+    <t>3.57770</t>
+  </si>
+  <si>
+    <t>3.57800</t>
+  </si>
+  <si>
+    <t>3.57470</t>
+  </si>
+  <si>
+    <t>3.56500</t>
+  </si>
+  <si>
+    <t>3.58930</t>
+  </si>
+  <si>
+    <t>3.58890</t>
+  </si>
+  <si>
+    <t>3.58920</t>
+  </si>
+  <si>
+    <t>3.60310</t>
+  </si>
+  <si>
+    <t>3.59920</t>
+  </si>
+  <si>
+    <t>3.60210</t>
+  </si>
+  <si>
+    <t>3.58730</t>
+  </si>
+  <si>
+    <t>3.58320</t>
+  </si>
+  <si>
+    <t>3.58620</t>
+  </si>
+  <si>
+    <t>3.57340</t>
+  </si>
+  <si>
+    <t>3.60300</t>
+  </si>
+  <si>
+    <t>3.60930</t>
+  </si>
+  <si>
+    <t>3.62930</t>
+  </si>
+  <si>
+    <t>3.63400</t>
+  </si>
+  <si>
+    <t>3.58710</t>
+  </si>
+  <si>
+    <t>3.59590</t>
+  </si>
+  <si>
+    <t>3.60120</t>
+  </si>
+  <si>
+    <t>3.59410</t>
+  </si>
+  <si>
+    <t>3.58020</t>
+  </si>
+  <si>
+    <t>3.58230</t>
+  </si>
+  <si>
+    <t>3.58670</t>
+  </si>
+  <si>
+    <t>3.58950</t>
+  </si>
+  <si>
+    <t>3.58420</t>
+  </si>
+  <si>
+    <t>3.57940</t>
+  </si>
+  <si>
+    <t>3.57710</t>
+  </si>
+  <si>
+    <t>3.59710</t>
+  </si>
+  <si>
+    <t>3.60420</t>
+  </si>
+  <si>
+    <t>3.63360</t>
+  </si>
+  <si>
+    <t>3.62830</t>
+  </si>
+  <si>
+    <t>3.63220</t>
+  </si>
+  <si>
+    <t>3.63440</t>
+  </si>
+  <si>
+    <t>3.63450</t>
+  </si>
+  <si>
+    <t>3.64440</t>
+  </si>
+  <si>
+    <t>3.64330</t>
+  </si>
+  <si>
+    <t>3.64420</t>
+  </si>
+  <si>
+    <t>3.64080</t>
+  </si>
+  <si>
+    <t>3.64040</t>
+  </si>
+  <si>
+    <t>3.64130</t>
+  </si>
+  <si>
+    <t>3.64190</t>
+  </si>
+  <si>
+    <t>3.61800</t>
+  </si>
+  <si>
+    <t>3.61100</t>
+  </si>
+  <si>
+    <t>3.62650</t>
+  </si>
+  <si>
+    <t>3.62490</t>
+  </si>
+  <si>
+    <t>3.65960</t>
+  </si>
+  <si>
+    <t>3.68220</t>
+  </si>
+  <si>
+    <t>3.70130</t>
+  </si>
+  <si>
+    <t>3.73950</t>
+  </si>
+  <si>
+    <t>3.77780</t>
+  </si>
+  <si>
+    <t>3.82370</t>
+  </si>
+  <si>
+    <t>3.76760</t>
+  </si>
+  <si>
+    <t>3.75960</t>
+  </si>
+  <si>
+    <t>3.77080</t>
+  </si>
+  <si>
+    <t>3.71700</t>
+  </si>
+  <si>
+    <t>3.67600</t>
+  </si>
+  <si>
+    <t>3.67400</t>
+  </si>
+  <si>
+    <t>3.67300</t>
+  </si>
+  <si>
+    <t>3.71340</t>
+  </si>
+  <si>
+    <t>3.74300</t>
+  </si>
+  <si>
+    <t>3.73800</t>
+  </si>
+  <si>
+    <t>3.86960</t>
+  </si>
+  <si>
+    <t>3.88940</t>
+  </si>
+  <si>
+    <t>3.90950</t>
+  </si>
+  <si>
+    <t>3.95140</t>
+  </si>
+  <si>
+    <t>3.95950</t>
+  </si>
+  <si>
+    <t>3.95440</t>
+  </si>
+  <si>
+    <t>3.96380</t>
+  </si>
+  <si>
+    <t>3.87540</t>
+  </si>
+  <si>
+    <t>3.81940</t>
+  </si>
+  <si>
+    <t>3.83360</t>
+  </si>
+  <si>
+    <t>3.88220</t>
+  </si>
+  <si>
+    <t>3.93650</t>
+  </si>
+  <si>
+    <t>3.93300</t>
+  </si>
+  <si>
+    <t>3.91320</t>
+  </si>
+  <si>
+    <t>3.90200</t>
+  </si>
+  <si>
+    <t>4.05350</t>
+  </si>
+  <si>
+    <t>4.06500</t>
+  </si>
+  <si>
+    <t>4.08410</t>
+  </si>
+  <si>
+    <t>4.07710</t>
+  </si>
+  <si>
+    <t>4.04730</t>
+  </si>
+  <si>
+    <t>4.06760</t>
+  </si>
+  <si>
+    <t>4.06300</t>
+  </si>
+  <si>
+    <t>4.07900</t>
+  </si>
+  <si>
+    <t>4.07760</t>
+  </si>
+  <si>
+    <t>4.08440</t>
+  </si>
+  <si>
+    <t>4.08900</t>
+  </si>
+  <si>
+    <t>4.09180</t>
+  </si>
+  <si>
+    <t>4.08650</t>
+  </si>
+  <si>
+    <t>4.09720</t>
+  </si>
+  <si>
+    <t>4.09420</t>
+  </si>
+  <si>
+    <t>4.09430</t>
+  </si>
+  <si>
+    <t>4.09570</t>
+  </si>
+  <si>
+    <t>4.11000</t>
+  </si>
+  <si>
+    <t>4.08600</t>
+  </si>
+  <si>
+    <t>3.91700</t>
+  </si>
+  <si>
+    <t>3.93000</t>
+  </si>
+  <si>
+    <t>3.94700</t>
+  </si>
+  <si>
+    <t>3.94200</t>
+  </si>
+  <si>
+    <t>3.93550</t>
+  </si>
+  <si>
+    <t>3.94080</t>
+  </si>
+  <si>
+    <t>3.95580</t>
+  </si>
+  <si>
+    <t>3.96160</t>
+  </si>
+  <si>
+    <t>3.96320</t>
+  </si>
+  <si>
+    <t>3.97630</t>
+  </si>
+  <si>
+    <t>3.99960</t>
+  </si>
+  <si>
+    <t>3.99500</t>
+  </si>
+  <si>
+    <t>3.99950</t>
+  </si>
+  <si>
+    <t>4.00010</t>
+  </si>
+  <si>
+    <t>4.00120</t>
+  </si>
+  <si>
+    <t>4.00370</t>
+  </si>
+  <si>
+    <t>4.00540</t>
+  </si>
+  <si>
+    <t>4.00520</t>
+  </si>
+  <si>
+    <t>3.98050</t>
+  </si>
+  <si>
+    <t>3.98470</t>
+  </si>
+  <si>
+    <t>3.97790</t>
+  </si>
+  <si>
+    <t>4.01100</t>
+  </si>
+  <si>
+    <t>4.02970</t>
+  </si>
+  <si>
+    <t>4.04690</t>
+  </si>
+  <si>
+    <t>4.04970</t>
+  </si>
+  <si>
+    <t>4.05430</t>
+  </si>
+  <si>
+    <t>4.06220</t>
+  </si>
+  <si>
+    <t>4.05970</t>
+  </si>
+  <si>
+    <t>4.05000</t>
+  </si>
+  <si>
+    <t>4.03850</t>
+  </si>
+  <si>
+    <t>4.03980</t>
+  </si>
+  <si>
+    <t>4.04010</t>
+  </si>
+  <si>
+    <t>4.02590</t>
+  </si>
+  <si>
+    <t>4.02390</t>
+  </si>
+  <si>
+    <t>4.03750</t>
+  </si>
+  <si>
+    <t>4.02260</t>
+  </si>
+  <si>
+    <t>3.98120</t>
+  </si>
+  <si>
     <t>3.97000</t>
   </si>
   <si>
-    <t>2.91000</t>
-  </si>
-  <si>
-    <t>2.95200</t>
-  </si>
-  <si>
-    <t>2.93800</t>
-  </si>
-  <si>
-    <t>2.97400</t>
-  </si>
-  <si>
-    <t>2.97500</t>
-  </si>
-  <si>
-    <t>2.96290</t>
-  </si>
-  <si>
-    <t>2.98050</t>
-  </si>
-  <si>
-    <t>3.00400</t>
-  </si>
-  <si>
-    <t>2.99500</t>
-  </si>
-  <si>
-    <t>3.02100</t>
-  </si>
-  <si>
-    <t>3.02900</t>
-  </si>
-  <si>
-    <t>3.05100</t>
-  </si>
-  <si>
-    <t>3.05300</t>
-  </si>
-  <si>
-    <t>3.07700</t>
-  </si>
-  <si>
-    <t>3.09050</t>
-  </si>
-  <si>
-    <t>3.09350</t>
-  </si>
-  <si>
-    <t>3.06000</t>
-  </si>
-  <si>
-    <t>3.07650</t>
-  </si>
-  <si>
-    <t>3.13850</t>
-  </si>
-  <si>
-    <t>3.10450</t>
-  </si>
-  <si>
-    <t>3.13000</t>
-  </si>
-  <si>
-    <t>3.13500</t>
-  </si>
-  <si>
-    <t>3.12780</t>
-  </si>
-  <si>
-    <t>3.14230</t>
-  </si>
-  <si>
-    <t>3.13900</t>
-  </si>
-  <si>
-    <t>3.16100</t>
-  </si>
-  <si>
-    <t>3.17490</t>
-  </si>
-  <si>
-    <t>3.19900</t>
-  </si>
-  <si>
-    <t>3.19700</t>
-  </si>
-  <si>
-    <t>3.20700</t>
-  </si>
-  <si>
-    <t>3.47550</t>
-  </si>
-  <si>
-    <t>3.52500</t>
-  </si>
-  <si>
-    <t>3.52000</t>
-  </si>
-  <si>
-    <t>3.43900</t>
-  </si>
-  <si>
-    <t>3.35760</t>
-  </si>
-  <si>
-    <t>3.35100</t>
-  </si>
-  <si>
-    <t>3.25390</t>
-  </si>
-  <si>
-    <t>3.30300</t>
-  </si>
-  <si>
-    <t>3.33740</t>
-  </si>
-  <si>
-    <t>3.35700</t>
-  </si>
-  <si>
-    <t>3.39600</t>
-  </si>
-  <si>
-    <t>3.35800</t>
-  </si>
-  <si>
-    <t>3.41200</t>
-  </si>
-  <si>
-    <t>3.39240</t>
-  </si>
-  <si>
-    <t>3.38290</t>
-  </si>
-  <si>
-    <t>3.39160</t>
-  </si>
-  <si>
-    <t>3.38220</t>
-  </si>
-  <si>
-    <t>3.38790</t>
-  </si>
-  <si>
-    <t>3.37520</t>
-  </si>
-  <si>
-    <t>3.35120</t>
-  </si>
-  <si>
-    <t>3.34590</t>
-  </si>
-  <si>
-    <t>3.37110</t>
-  </si>
-  <si>
-    <t>3.37360</t>
-  </si>
-  <si>
-    <t>3.35430</t>
-  </si>
-  <si>
-    <t>3.35440</t>
-  </si>
-  <si>
-    <t>3.33420</t>
-  </si>
-  <si>
-    <t>3.27980</t>
-  </si>
-  <si>
-    <t>3.27660</t>
-  </si>
-  <si>
-    <t>3.25790</t>
-  </si>
-  <si>
-    <t>3.22890</t>
-  </si>
-  <si>
-    <t>3.25040</t>
-  </si>
-  <si>
-    <t>3.27590</t>
-  </si>
-  <si>
-    <t>3.26000</t>
-  </si>
-  <si>
-    <t>3.23780</t>
-  </si>
-  <si>
-    <t>3.23720</t>
-  </si>
-  <si>
-    <t>3.24680</t>
-  </si>
-  <si>
-    <t>3.23960</t>
-  </si>
-  <si>
-    <t>3.22970</t>
-  </si>
-  <si>
-    <t>3.23340</t>
-  </si>
-  <si>
-    <t>3.22750</t>
-  </si>
-  <si>
-    <t>3.25850</t>
-  </si>
-  <si>
-    <t>3.26380</t>
-  </si>
-  <si>
-    <t>3.26260</t>
-  </si>
-  <si>
-    <t>3.26440</t>
-  </si>
-  <si>
-    <t>3.25700</t>
-  </si>
-  <si>
-    <t>3.24300</t>
-  </si>
-  <si>
-    <t>3.23670</t>
-  </si>
-  <si>
-    <t>3.23230</t>
-  </si>
-  <si>
-    <t>3.23320</t>
-  </si>
-  <si>
-    <t>3.23170</t>
-  </si>
-  <si>
-    <t>3.23130</t>
-  </si>
-  <si>
-    <t>3.22610</t>
-  </si>
-  <si>
-    <t>3.22730</t>
-  </si>
-  <si>
-    <t>3.23640</t>
-  </si>
-  <si>
-    <t>3.26170</t>
-  </si>
-  <si>
-    <t>3.25470</t>
-  </si>
-  <si>
-    <t>3.23240</t>
-  </si>
-  <si>
-    <t>3.23020</t>
-  </si>
-  <si>
-    <t>3.22420</t>
-  </si>
-  <si>
-    <t>3.23570</t>
-  </si>
-  <si>
-    <t>3.23660</t>
-  </si>
-  <si>
-    <t>3.23820</t>
-  </si>
-  <si>
-    <t>3.22870</t>
-  </si>
-  <si>
-    <t>3.27620</t>
-  </si>
-  <si>
-    <t>3.19670</t>
-  </si>
-  <si>
-    <t>3.20130</t>
-  </si>
-  <si>
-    <t>3.20810</t>
-  </si>
-  <si>
-    <t>3.20230</t>
-  </si>
-  <si>
-    <t>3.21010</t>
-  </si>
-  <si>
-    <t>3.20570</t>
-  </si>
-  <si>
-    <t>3.21430</t>
-  </si>
-  <si>
-    <t>3.25500</t>
-  </si>
-  <si>
-    <t>3.21730</t>
-  </si>
-  <si>
-    <t>3.21130</t>
-  </si>
-  <si>
-    <t>3.21950</t>
-  </si>
-  <si>
-    <t>3.22690</t>
-  </si>
-  <si>
-    <t>3.22400</t>
-  </si>
-  <si>
-    <t>3.26330</t>
-  </si>
-  <si>
-    <t>3.26140</t>
-  </si>
-  <si>
-    <t>3.26030</t>
-  </si>
-  <si>
-    <t>3.25370</t>
-  </si>
-  <si>
-    <t>3.27220</t>
-  </si>
-  <si>
-    <t>3.26220</t>
-  </si>
-  <si>
-    <t>3.26940</t>
-  </si>
-  <si>
-    <t>3.27230</t>
-  </si>
-  <si>
-    <t>3.26600</t>
-  </si>
-  <si>
-    <t>3.26230</t>
-  </si>
-  <si>
-    <t>3.27420</t>
-  </si>
-  <si>
-    <t>3.30070</t>
-  </si>
-  <si>
-    <t>3.30420</t>
-  </si>
-  <si>
-    <t>3.29920</t>
-  </si>
-  <si>
-    <t>3.29520</t>
-  </si>
-  <si>
-    <t>3.29810</t>
-  </si>
-  <si>
-    <t>3.32120</t>
-  </si>
-  <si>
-    <t>3.31890</t>
-  </si>
-  <si>
-    <t>3.32920</t>
-  </si>
-  <si>
-    <t>3.32420</t>
-  </si>
-  <si>
-    <t>3.32670</t>
-  </si>
-  <si>
-    <t>3.33710</t>
-  </si>
-  <si>
-    <t>3.34710</t>
-  </si>
-  <si>
-    <t>3.36660</t>
-  </si>
-  <si>
-    <t>3.37320</t>
-  </si>
-  <si>
-    <t>3.36110</t>
-  </si>
-  <si>
-    <t>3.32560</t>
-  </si>
-  <si>
-    <t>3.30810</t>
-  </si>
-  <si>
-    <t>3.32270</t>
-  </si>
-  <si>
-    <t>3.32970</t>
-  </si>
-  <si>
-    <t>3.35060</t>
-  </si>
-  <si>
-    <t>3.32070</t>
-  </si>
-  <si>
-    <t>3.31870</t>
-  </si>
-  <si>
-    <t>3.31800</t>
-  </si>
-  <si>
-    <t>3.31220</t>
-  </si>
-  <si>
-    <t>3.30320</t>
-  </si>
-  <si>
-    <t>3.29890</t>
-  </si>
-  <si>
-    <t>3.29200</t>
-  </si>
-  <si>
-    <t>3.29180</t>
-  </si>
-  <si>
-    <t>3.29720</t>
-  </si>
-  <si>
-    <t>3.28880</t>
-  </si>
-  <si>
-    <t>3.30640</t>
-  </si>
-  <si>
-    <t>3.29040</t>
-  </si>
-  <si>
-    <t>3.28840</t>
-  </si>
-  <si>
-    <t>3.28420</t>
-  </si>
-  <si>
-    <t>3.28810</t>
-  </si>
-  <si>
-    <t>3.28620</t>
-  </si>
-  <si>
-    <t>3.28780</t>
-  </si>
-  <si>
-    <t>3.31120</t>
-  </si>
-  <si>
-    <t>3.30620</t>
-  </si>
-  <si>
-    <t>3.30040</t>
-  </si>
-  <si>
-    <t>3.29380</t>
-  </si>
-  <si>
-    <t>3.29640</t>
-  </si>
-  <si>
-    <t>3.30770</t>
-  </si>
-  <si>
-    <t>3.31010</t>
-  </si>
-  <si>
-    <t>3.31060</t>
-  </si>
-  <si>
-    <t>3.32550</t>
-  </si>
-  <si>
-    <t>3.33490</t>
-  </si>
-  <si>
-    <t>3.35070</t>
-  </si>
-  <si>
-    <t>3.32370</t>
-  </si>
-  <si>
-    <t>3.32510</t>
-  </si>
-  <si>
-    <t>3.32380</t>
-  </si>
-  <si>
-    <t>3.33120</t>
-  </si>
-  <si>
-    <t>3.30490</t>
-  </si>
-  <si>
-    <t>3.29570</t>
-  </si>
-  <si>
-    <t>3.28520</t>
-  </si>
-  <si>
-    <t>3.28190</t>
-  </si>
-  <si>
-    <t>3.28310</t>
-  </si>
-  <si>
-    <t>3.28330</t>
-  </si>
-  <si>
-    <t>3.27920</t>
-  </si>
-  <si>
-    <t>3.28080</t>
-  </si>
-  <si>
-    <t>3.28040</t>
-  </si>
-  <si>
-    <t>3.28130</t>
-  </si>
-  <si>
-    <t>3.27510</t>
-  </si>
-  <si>
-    <t>3.27030</t>
-  </si>
-  <si>
-    <t>3.28260</t>
-  </si>
-  <si>
-    <t>3.28610</t>
-  </si>
-  <si>
-    <t>3.28660</t>
-  </si>
-  <si>
-    <t>3.37480</t>
-  </si>
-  <si>
-    <t>3.37040</t>
-  </si>
-  <si>
-    <t>3.37580</t>
-  </si>
-  <si>
-    <t>3.37020</t>
-  </si>
-  <si>
-    <t>3.36690</t>
-  </si>
-  <si>
-    <t>3.29930</t>
-  </si>
-  <si>
-    <t>3.35530</t>
-  </si>
-  <si>
-    <t>3.33770</t>
-  </si>
-  <si>
-    <t>3.30780</t>
-  </si>
-  <si>
-    <t>3.37530</t>
-  </si>
-  <si>
-    <t>3.36510</t>
-  </si>
-  <si>
-    <t>3.36430</t>
-  </si>
-  <si>
-    <t>3.34790</t>
-  </si>
-  <si>
-    <t>3.32430</t>
-  </si>
-  <si>
-    <t>3.35930</t>
-  </si>
-  <si>
-    <t>3.36130</t>
-  </si>
-  <si>
-    <t>3.37630</t>
-  </si>
-  <si>
-    <t>3.38840</t>
-  </si>
-  <si>
-    <t>3.38930</t>
-  </si>
-  <si>
-    <t>3.38020</t>
-  </si>
-  <si>
-    <t>3.35840</t>
-  </si>
-  <si>
-    <t>3.34890</t>
-  </si>
-  <si>
-    <t>3.32740</t>
-  </si>
-  <si>
-    <t>3.32640</t>
-  </si>
-  <si>
-    <t>3.30530</t>
-  </si>
-  <si>
-    <t>3.31280</t>
-  </si>
-  <si>
-    <t>3.31090</t>
-  </si>
-  <si>
-    <t>3.31390</t>
-  </si>
-  <si>
-    <t>3.31730</t>
-  </si>
-  <si>
-    <t>3.31430</t>
-  </si>
-  <si>
-    <t>3.31190</t>
-  </si>
-  <si>
-    <t>3.30940</t>
-  </si>
-  <si>
-    <t>3.36490</t>
-  </si>
-  <si>
-    <t>3.37890</t>
-  </si>
-  <si>
-    <t>3.40510</t>
-  </si>
-  <si>
-    <t>3.43030</t>
-  </si>
-  <si>
-    <t>3.41130</t>
-  </si>
-  <si>
-    <t>3.41020</t>
-  </si>
-  <si>
-    <t>3.41720</t>
-  </si>
-  <si>
-    <t>3.48520</t>
-  </si>
-  <si>
-    <t>3.49620</t>
-  </si>
-  <si>
-    <t>3.51550</t>
-  </si>
-  <si>
-    <t>3.51620</t>
-  </si>
-  <si>
-    <t>3.51850</t>
-  </si>
-  <si>
-    <t>3.54000</t>
-  </si>
-  <si>
-    <t>3.55120</t>
-  </si>
-  <si>
-    <t>3.49420</t>
-  </si>
-  <si>
-    <t>3.45430</t>
-  </si>
-  <si>
-    <t>3.39520</t>
-  </si>
-  <si>
-    <t>3.42480</t>
-  </si>
-  <si>
-    <t>3.43640</t>
-  </si>
-  <si>
-    <t>3.35420</t>
-  </si>
-  <si>
-    <t>3.34100</t>
-  </si>
-  <si>
-    <t>3.39120</t>
-  </si>
-  <si>
-    <t>3.36420</t>
-  </si>
-  <si>
-    <t>3.36920</t>
-  </si>
-  <si>
-    <t>3.36570</t>
-  </si>
-  <si>
-    <t>3.42420</t>
-  </si>
-  <si>
-    <t>3.43750</t>
-  </si>
-  <si>
-    <t>3.41430</t>
-  </si>
-  <si>
-    <t>3.41950</t>
-  </si>
-  <si>
-    <t>3.40920</t>
-  </si>
-  <si>
-    <t>3.42840</t>
-  </si>
-  <si>
-    <t>3.39130</t>
-  </si>
-  <si>
-    <t>3.39980</t>
-  </si>
-  <si>
-    <t>3.42280</t>
-  </si>
-  <si>
-    <t>3.42920</t>
-  </si>
-  <si>
-    <t>3.41770</t>
-  </si>
-  <si>
-    <t>3.43940</t>
-  </si>
-  <si>
-    <t>3.46770</t>
-  </si>
-  <si>
-    <t>3.49640</t>
-  </si>
-  <si>
-    <t>3.48060</t>
-  </si>
-  <si>
-    <t>3.50030</t>
-  </si>
-  <si>
-    <t>3.49970</t>
-  </si>
-  <si>
-    <t>3.50160</t>
-  </si>
-  <si>
-    <t>3.51170</t>
-  </si>
-  <si>
-    <t>3.51980</t>
-  </si>
-  <si>
-    <t>3.49800</t>
-  </si>
-  <si>
-    <t>3.53470</t>
-  </si>
-  <si>
-    <t>3.53580</t>
-  </si>
-  <si>
-    <t>3.49470</t>
-  </si>
-  <si>
-    <t>3.49170</t>
-  </si>
-  <si>
-    <t>3.47470</t>
-  </si>
-  <si>
-    <t>3.48970</t>
-  </si>
-  <si>
-    <t>3.47970</t>
-  </si>
-  <si>
-    <t>3.50070</t>
-  </si>
-  <si>
-    <t>3.49940</t>
-  </si>
-  <si>
-    <t>3.50780</t>
-  </si>
-  <si>
-    <t>3.51350</t>
-  </si>
-  <si>
-    <t>3.51070</t>
-  </si>
-  <si>
-    <t>3.52470</t>
-  </si>
-  <si>
-    <t>3.53970</t>
-  </si>
-  <si>
-    <t>3.53460</t>
-  </si>
-  <si>
-    <t>3.55920</t>
-  </si>
-  <si>
-    <t>3.56420</t>
-  </si>
-  <si>
-    <t>3.56120</t>
-  </si>
-  <si>
-    <t>3.56940</t>
-  </si>
-  <si>
-    <t>3.56440</t>
-  </si>
-  <si>
-    <t>3.55720</t>
-  </si>
-  <si>
-    <t>3.52420</t>
-  </si>
-  <si>
-    <t>3.52440</t>
-  </si>
-  <si>
-    <t>3.52940</t>
-  </si>
-  <si>
-    <t>3.51940</t>
-  </si>
-  <si>
-    <t>3.55750</t>
-  </si>
-  <si>
-    <t>3.53940</t>
-  </si>
-  <si>
-    <t>3.52450</t>
-  </si>
-  <si>
-    <t>3.51440</t>
-  </si>
-  <si>
-    <t>3.52360</t>
-  </si>
-  <si>
-    <t>3.54760</t>
-  </si>
-  <si>
-    <t>3.57840</t>
-  </si>
-  <si>
-    <t>3.58430</t>
-  </si>
-  <si>
-    <t>3.59810</t>
-  </si>
-  <si>
-    <t>3.56210</t>
-  </si>
-  <si>
-    <t>3.55940</t>
-  </si>
-  <si>
-    <t>3.56240</t>
-  </si>
-  <si>
-    <t>3.57770</t>
-  </si>
-  <si>
-    <t>3.57800</t>
-  </si>
-  <si>
-    <t>3.57470</t>
-  </si>
-  <si>
-    <t>3.56500</t>
-  </si>
-  <si>
-    <t>3.58930</t>
-  </si>
-  <si>
-    <t>3.58890</t>
-  </si>
-  <si>
-    <t>3.58920</t>
-  </si>
-  <si>
-    <t>3.60310</t>
-  </si>
-  <si>
-    <t>3.59920</t>
-  </si>
-  <si>
-    <t>3.60210</t>
-  </si>
-  <si>
-    <t>3.58730</t>
-  </si>
-  <si>
-    <t>3.58320</t>
-  </si>
-  <si>
-    <t>3.58620</t>
-  </si>
-  <si>
-    <t>3.57340</t>
-  </si>
-  <si>
-    <t>3.60300</t>
-  </si>
-  <si>
-    <t>3.60930</t>
-  </si>
-  <si>
-    <t>3.62930</t>
-  </si>
-  <si>
-    <t>3.63400</t>
-  </si>
-  <si>
-    <t>3.58710</t>
-  </si>
-  <si>
-    <t>3.59590</t>
-  </si>
-  <si>
-    <t>3.60120</t>
-  </si>
-  <si>
-    <t>3.59410</t>
-  </si>
-  <si>
-    <t>3.58020</t>
-  </si>
-  <si>
-    <t>3.58230</t>
-  </si>
-  <si>
-    <t>3.58670</t>
-  </si>
-  <si>
-    <t>3.58950</t>
-  </si>
-  <si>
-    <t>3.58420</t>
-  </si>
-  <si>
-    <t>3.57940</t>
-  </si>
-  <si>
-    <t>3.57710</t>
-  </si>
-  <si>
-    <t>3.59710</t>
-  </si>
-  <si>
-    <t>3.60420</t>
-  </si>
-  <si>
-    <t>3.63360</t>
-  </si>
-  <si>
-    <t>3.62830</t>
-  </si>
-  <si>
-    <t>3.63220</t>
-  </si>
-  <si>
-    <t>3.63440</t>
-  </si>
-  <si>
-    <t>3.63450</t>
-  </si>
-  <si>
-    <t>3.64440</t>
-  </si>
-  <si>
-    <t>3.64330</t>
-  </si>
-  <si>
-    <t>3.64420</t>
-  </si>
-  <si>
-    <t>3.64080</t>
-  </si>
-  <si>
-    <t>3.64040</t>
-  </si>
-  <si>
-    <t>3.64130</t>
-  </si>
-  <si>
-    <t>3.64190</t>
-  </si>
-  <si>
-    <t>3.61800</t>
-  </si>
-  <si>
-    <t>3.61100</t>
-  </si>
-  <si>
-    <t>3.62650</t>
-  </si>
-  <si>
-    <t>3.62490</t>
-  </si>
-  <si>
-    <t>3.65960</t>
-  </si>
-  <si>
-    <t>3.68220</t>
-  </si>
-  <si>
-    <t>3.70130</t>
-  </si>
-  <si>
-    <t>3.73950</t>
-  </si>
-  <si>
-    <t>3.77780</t>
-  </si>
-  <si>
-    <t>3.82370</t>
-  </si>
-  <si>
-    <t>3.76760</t>
-  </si>
-  <si>
-    <t>3.75960</t>
-  </si>
-  <si>
-    <t>3.77080</t>
-  </si>
-  <si>
-    <t>3.71700</t>
-  </si>
-  <si>
-    <t>3.67600</t>
-  </si>
-  <si>
-    <t>3.67400</t>
-  </si>
-  <si>
-    <t>3.67300</t>
-  </si>
-  <si>
-    <t>3.71340</t>
-  </si>
-  <si>
-    <t>3.74300</t>
-  </si>
-  <si>
-    <t>3.73800</t>
-  </si>
-  <si>
-    <t>3.86960</t>
-  </si>
-  <si>
-    <t>3.88940</t>
-  </si>
-  <si>
-    <t>3.90950</t>
-  </si>
-  <si>
-    <t>3.95140</t>
-  </si>
-  <si>
-    <t>3.95950</t>
-  </si>
-  <si>
-    <t>3.95440</t>
-  </si>
-  <si>
-    <t>3.96380</t>
-  </si>
-  <si>
-    <t>3.87540</t>
-  </si>
-  <si>
-    <t>3.81940</t>
-  </si>
-  <si>
-    <t>3.83360</t>
-  </si>
-  <si>
-    <t>3.88220</t>
-  </si>
-  <si>
-    <t>3.93650</t>
-  </si>
-  <si>
-    <t>3.93300</t>
-  </si>
-  <si>
-    <t>3.91320</t>
-  </si>
-  <si>
-    <t>3.90200</t>
-  </si>
-  <si>
-    <t>4.05350</t>
-  </si>
-  <si>
-    <t>4.06500</t>
-  </si>
-  <si>
-    <t>4.08410</t>
-  </si>
-  <si>
-    <t>4.07710</t>
-  </si>
-  <si>
-    <t>4.04730</t>
-  </si>
-  <si>
-    <t>4.06760</t>
-  </si>
-  <si>
-    <t>4.06300</t>
-  </si>
-  <si>
-    <t>4.07900</t>
-  </si>
-  <si>
-    <t>4.07760</t>
-  </si>
-  <si>
-    <t>4.08440</t>
-  </si>
-  <si>
-    <t>4.08900</t>
-  </si>
-  <si>
-    <t>4.09180</t>
-  </si>
-  <si>
-    <t>4.08650</t>
-  </si>
-  <si>
-    <t>4.09720</t>
-  </si>
-  <si>
-    <t>4.09420</t>
-  </si>
-  <si>
-    <t>4.09430</t>
-  </si>
-  <si>
-    <t>4.09570</t>
-  </si>
-  <si>
-    <t>4.11000</t>
-  </si>
-  <si>
-    <t>4.08600</t>
-  </si>
-  <si>
-    <t>3.91700</t>
-  </si>
-  <si>
-    <t>3.93000</t>
-  </si>
-  <si>
-    <t>3.94700</t>
-  </si>
-  <si>
-    <t>3.94200</t>
-  </si>
-  <si>
-    <t>3.93550</t>
-  </si>
-  <si>
-    <t>3.94080</t>
-  </si>
-  <si>
-    <t>3.95580</t>
-  </si>
-  <si>
-    <t>3.96160</t>
-  </si>
-  <si>
-    <t>3.96320</t>
-  </si>
-  <si>
-    <t>3.97630</t>
-  </si>
-  <si>
-    <t>3.99960</t>
-  </si>
-  <si>
-    <t>3.99500</t>
-  </si>
-  <si>
-    <t>3.99950</t>
-  </si>
-  <si>
-    <t>4.00010</t>
-  </si>
-  <si>
-    <t>4.00120</t>
-  </si>
-  <si>
-    <t>4.00370</t>
-  </si>
-  <si>
-    <t>4.00540</t>
-  </si>
-  <si>
-    <t>4.00520</t>
-  </si>
-  <si>
-    <t>3.98050</t>
-  </si>
-  <si>
-    <t>3.98470</t>
-  </si>
-  <si>
-    <t>3.97790</t>
-  </si>
-  <si>
-    <t>4.01100</t>
-  </si>
-  <si>
-    <t>4.02970</t>
-  </si>
-  <si>
-    <t>4.04690</t>
-  </si>
-  <si>
-    <t>4.04970</t>
-  </si>
-  <si>
-    <t>4.05430</t>
-  </si>
-  <si>
-    <t>4.06220</t>
-  </si>
-  <si>
-    <t>4.05970</t>
-  </si>
-  <si>
-    <t>4.05000</t>
-  </si>
-  <si>
-    <t>4.03850</t>
-  </si>
-  <si>
-    <t>4.03980</t>
-  </si>
-  <si>
-    <t>4.04010</t>
-  </si>
-  <si>
-    <t>4.02590</t>
-  </si>
-  <si>
-    <t>4.02390</t>
-  </si>
-  <si>
-    <t>4.03750</t>
-  </si>
-  <si>
-    <t>4.02260</t>
-  </si>
-  <si>
-    <t>3.98120</t>
-  </si>
-  <si>
     <t>3.94400</t>
   </si>
   <si>
@@ -14293,7 +14293,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.96810</t>
+    <t>3.96130</t>
   </si>
 </sst>
 </file>
@@ -14719,7 +14719,7 @@
         <v>2050</v>
       </c>
       <c r="D4" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="E4" t="s">
         <v>2051</v>
@@ -14974,7 +14974,7 @@
         <v>2063</v>
       </c>
       <c r="D19" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="E19" t="s">
         <v>2064</v>
@@ -14991,7 +14991,7 @@
         <v>2064</v>
       </c>
       <c r="D20" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="E20" t="s">
         <v>2065</v>
@@ -15093,7 +15093,7 @@
         <v>2069</v>
       </c>
       <c r="D26" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="E26" t="s">
         <v>2069</v>
@@ -15144,7 +15144,7 @@
         <v>2071</v>
       </c>
       <c r="D29" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="E29" t="s">
         <v>2071</v>
@@ -15195,7 +15195,7 @@
         <v>3391</v>
       </c>
       <c r="D32" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="E32" t="s">
         <v>2072</v>
@@ -15297,7 +15297,7 @@
         <v>2077</v>
       </c>
       <c r="D38" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="E38" t="s">
         <v>2078</v>
@@ -15399,7 +15399,7 @@
         <v>2083</v>
       </c>
       <c r="D44" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="E44" t="s">
         <v>2084</v>
@@ -15416,7 +15416,7 @@
         <v>2084</v>
       </c>
       <c r="D45" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="E45" t="s">
         <v>2081</v>
@@ -15433,7 +15433,7 @@
         <v>3394</v>
       </c>
       <c r="D46" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="E46" t="s">
         <v>2085</v>
@@ -15484,7 +15484,7 @@
         <v>2086</v>
       </c>
       <c r="D49" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="E49" t="s">
         <v>2087</v>
@@ -15501,7 +15501,7 @@
         <v>2088</v>
       </c>
       <c r="D50" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="E50" t="s">
         <v>2088</v>
@@ -15535,7 +15535,7 @@
         <v>2090</v>
       </c>
       <c r="D52" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="E52" t="s">
         <v>2090</v>
@@ -15552,7 +15552,7 @@
         <v>3395</v>
       </c>
       <c r="D53" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="E53" t="s">
         <v>2091</v>
@@ -15569,7 +15569,7 @@
         <v>2090</v>
       </c>
       <c r="D54" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="E54" t="s">
         <v>2092</v>
@@ -15722,7 +15722,7 @@
         <v>2101</v>
       </c>
       <c r="D63" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="E63" t="s">
         <v>2101</v>
@@ -15892,7 +15892,7 @@
         <v>2108</v>
       </c>
       <c r="D73" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="E73" t="s">
         <v>2109</v>
@@ -15994,7 +15994,7 @@
         <v>2113</v>
       </c>
       <c r="D79" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="E79" t="s">
         <v>2111</v>
@@ -16011,7 +16011,7 @@
         <v>2111</v>
       </c>
       <c r="D80" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="E80" t="s">
         <v>2114</v>
@@ -16300,7 +16300,7 @@
         <v>3406</v>
       </c>
       <c r="D97" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="E97" t="s">
         <v>2115</v>
@@ -16793,10 +16793,10 @@
         <v>2151</v>
       </c>
       <c r="D126" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="E126" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16878,7 +16878,7 @@
         <v>3421</v>
       </c>
       <c r="D131" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="E131" t="s">
         <v>2156</v>
@@ -16997,7 +16997,7 @@
         <v>3420</v>
       </c>
       <c r="D138" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="E138" t="s">
         <v>2162</v>
@@ -17031,7 +17031,7 @@
         <v>3421</v>
       </c>
       <c r="D140" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="E140" t="s">
         <v>2144</v>
@@ -17048,7 +17048,7 @@
         <v>2163</v>
       </c>
       <c r="D141" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="E141" t="s">
         <v>2163</v>
@@ -17065,7 +17065,7 @@
         <v>3426</v>
       </c>
       <c r="D142" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="E142" t="s">
         <v>2150</v>
@@ -17150,7 +17150,7 @@
         <v>3412</v>
       </c>
       <c r="D147" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="E147" t="s">
         <v>2167</v>
@@ -17456,7 +17456,7 @@
         <v>2181</v>
       </c>
       <c r="D165" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="E165" t="s">
         <v>2182</v>
@@ -17694,10 +17694,10 @@
         <v>2192</v>
       </c>
       <c r="D179" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="E179" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -18255,7 +18255,7 @@
         <v>3444</v>
       </c>
       <c r="D212" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="E212" t="s">
         <v>3444</v>
@@ -18289,7 +18289,7 @@
         <v>2222</v>
       </c>
       <c r="D214" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="E214" t="s">
         <v>2222</v>
@@ -18578,10 +18578,10 @@
         <v>2238</v>
       </c>
       <c r="D231" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="E231" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -20023,7 +20023,7 @@
         <v>3479</v>
       </c>
       <c r="D316" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="E316" t="s">
         <v>2310</v>
@@ -20261,7 +20261,7 @@
         <v>2319</v>
       </c>
       <c r="D330" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="E330" t="s">
         <v>2320</v>
@@ -20278,7 +20278,7 @@
         <v>2320</v>
       </c>
       <c r="D331" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="E331" t="s">
         <v>2321</v>
@@ -20363,7 +20363,7 @@
         <v>2324</v>
       </c>
       <c r="D336" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="E336" t="s">
         <v>2325</v>
@@ -20618,7 +20618,7 @@
         <v>2486</v>
       </c>
       <c r="D351" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="E351" t="s">
         <v>2271</v>
@@ -20635,7 +20635,7 @@
         <v>3459</v>
       </c>
       <c r="D352" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="E352" t="s">
         <v>2337</v>
@@ -20839,10 +20839,10 @@
         <v>2347</v>
       </c>
       <c r="D364" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="E364" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20856,7 +20856,7 @@
         <v>2393</v>
       </c>
       <c r="D365" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="E365" t="s">
         <v>2348</v>
@@ -21604,7 +21604,7 @@
         <v>2382</v>
       </c>
       <c r="D409" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="E409" t="s">
         <v>2382</v>
@@ -22165,7 +22165,7 @@
         <v>2404</v>
       </c>
       <c r="D442" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="E442" t="s">
         <v>2405</v>
@@ -22352,7 +22352,7 @@
         <v>3500</v>
       </c>
       <c r="D453" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="E453" t="s">
         <v>2366</v>
@@ -22624,7 +22624,7 @@
         <v>2426</v>
       </c>
       <c r="D469" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="E469" t="s">
         <v>2427</v>
@@ -22692,7 +22692,7 @@
         <v>3505</v>
       </c>
       <c r="D473" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="E473" t="s">
         <v>3464</v>
@@ -22879,7 +22879,7 @@
         <v>3459</v>
       </c>
       <c r="D484" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="E484" t="s">
         <v>2438</v>
@@ -23644,7 +23644,7 @@
         <v>2466</v>
       </c>
       <c r="D529" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E529" t="s">
         <v>2467</v>
@@ -23780,7 +23780,7 @@
         <v>2469</v>
       </c>
       <c r="D537" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E537" t="s">
         <v>2473</v>
@@ -23831,7 +23831,7 @@
         <v>3513</v>
       </c>
       <c r="D540" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="E540" t="s">
         <v>2476</v>
@@ -23848,7 +23848,7 @@
         <v>2328</v>
       </c>
       <c r="D541" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="E541" t="s">
         <v>2446</v>
@@ -23899,7 +23899,7 @@
         <v>3514</v>
       </c>
       <c r="D544" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="E544" t="s">
         <v>2479</v>
@@ -23916,7 +23916,7 @@
         <v>3515</v>
       </c>
       <c r="D545" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="E545" t="s">
         <v>2480</v>
@@ -23933,7 +23933,7 @@
         <v>2444</v>
       </c>
       <c r="D546" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E546" t="s">
         <v>2334</v>
@@ -23984,7 +23984,7 @@
         <v>2459</v>
       </c>
       <c r="D549" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="E549" t="s">
         <v>2481</v>
@@ -24018,7 +24018,7 @@
         <v>2268</v>
       </c>
       <c r="D551" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="E551" t="s">
         <v>2482</v>
@@ -24120,7 +24120,7 @@
         <v>2432</v>
       </c>
       <c r="D557" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="E557" t="s">
         <v>2487</v>
@@ -24154,7 +24154,7 @@
         <v>2913</v>
       </c>
       <c r="D559" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="E559" t="s">
         <v>2488</v>
@@ -24171,7 +24171,7 @@
         <v>2488</v>
       </c>
       <c r="D560" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="E560" t="s">
         <v>2418</v>
@@ -24205,7 +24205,7 @@
         <v>3521</v>
       </c>
       <c r="D562" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="E562" t="s">
         <v>2489</v>
@@ -24239,10 +24239,10 @@
         <v>2329</v>
       </c>
       <c r="D564" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="E564" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24290,7 +24290,7 @@
         <v>3522</v>
       </c>
       <c r="D567" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="E567" t="s">
         <v>2493</v>
@@ -24358,7 +24358,7 @@
         <v>3523</v>
       </c>
       <c r="D571" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E571" t="s">
         <v>2497</v>
@@ -24409,7 +24409,7 @@
         <v>2391</v>
       </c>
       <c r="D574" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="E574" t="s">
         <v>2249</v>
@@ -24443,7 +24443,7 @@
         <v>3524</v>
       </c>
       <c r="D576" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="E576" t="s">
         <v>2501</v>
@@ -24460,7 +24460,7 @@
         <v>2801</v>
       </c>
       <c r="D577" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="E577" t="s">
         <v>2502</v>
@@ -24477,7 +24477,7 @@
         <v>2798</v>
       </c>
       <c r="D578" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="E578" t="s">
         <v>2503</v>
@@ -24511,7 +24511,7 @@
         <v>2504</v>
       </c>
       <c r="D580" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="E580" t="s">
         <v>2505</v>
@@ -24579,7 +24579,7 @@
         <v>2348</v>
       </c>
       <c r="D584" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="E584" t="s">
         <v>2509</v>
@@ -24664,7 +24664,7 @@
         <v>2246</v>
       </c>
       <c r="D589" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="E589" t="s">
         <v>2512</v>
@@ -24715,7 +24715,7 @@
         <v>2594</v>
       </c>
       <c r="D592" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="E592" t="s">
         <v>2514</v>
@@ -24936,7 +24936,7 @@
         <v>2551</v>
       </c>
       <c r="D605" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="E605" t="s">
         <v>4640</v>
@@ -24987,7 +24987,7 @@
         <v>2507</v>
       </c>
       <c r="D608" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="E608" t="s">
         <v>2521</v>
@@ -25089,7 +25089,7 @@
         <v>3531</v>
       </c>
       <c r="D614" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="E614" t="s">
         <v>2526</v>
@@ -25395,7 +25395,7 @@
         <v>2245</v>
       </c>
       <c r="D632" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="E632" t="s">
         <v>2534</v>
@@ -25670,7 +25670,7 @@
         <v>2520</v>
       </c>
       <c r="E648" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25803,7 +25803,7 @@
         <v>2519</v>
       </c>
       <c r="D656" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="E656" t="s">
         <v>2393</v>
@@ -25854,7 +25854,7 @@
         <v>2540</v>
       </c>
       <c r="D659" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="E659" t="s">
         <v>2553</v>
@@ -25990,7 +25990,7 @@
         <v>2540</v>
       </c>
       <c r="D667" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="E667" t="s">
         <v>2549</v>
@@ -26075,7 +26075,7 @@
         <v>3527</v>
       </c>
       <c r="D672" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="E672" t="s">
         <v>2505</v>
@@ -26126,7 +26126,7 @@
         <v>2700</v>
       </c>
       <c r="D675" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E675" t="s">
         <v>2557</v>
@@ -26296,7 +26296,7 @@
         <v>2209</v>
       </c>
       <c r="D685" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="E685" t="s">
         <v>2532</v>
@@ -26483,7 +26483,7 @@
         <v>3537</v>
       </c>
       <c r="D696" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="E696" t="s">
         <v>2567</v>
@@ -26891,7 +26891,7 @@
         <v>2512</v>
       </c>
       <c r="D720" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="E720" t="s">
         <v>2512</v>
@@ -26908,7 +26908,7 @@
         <v>2512</v>
       </c>
       <c r="D721" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="E721" t="s">
         <v>2572</v>
@@ -26925,7 +26925,7 @@
         <v>2512</v>
       </c>
       <c r="D722" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="E722" t="s">
         <v>2582</v>
@@ -27027,7 +27027,7 @@
         <v>2538</v>
       </c>
       <c r="D728" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E728" t="s">
         <v>2586</v>
@@ -27044,7 +27044,7 @@
         <v>2582</v>
       </c>
       <c r="D729" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E729" t="s">
         <v>2581</v>
@@ -27078,7 +27078,7 @@
         <v>2581</v>
       </c>
       <c r="D731" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="E731" t="s">
         <v>2588</v>
@@ -27112,7 +27112,7 @@
         <v>2611</v>
       </c>
       <c r="D733" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="E733" t="s">
         <v>2590</v>
@@ -27248,7 +27248,7 @@
         <v>2567</v>
       </c>
       <c r="D741" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E741" t="s">
         <v>2593</v>
@@ -27316,7 +27316,7 @@
         <v>2700</v>
       </c>
       <c r="D745" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="E745" t="s">
         <v>2595</v>
@@ -27469,7 +27469,7 @@
         <v>2551</v>
       </c>
       <c r="D754" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="E754" t="s">
         <v>2594</v>
@@ -27605,7 +27605,7 @@
         <v>2537</v>
       </c>
       <c r="D762" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="E762" t="s">
         <v>2606</v>
@@ -27622,7 +27622,7 @@
         <v>2245</v>
       </c>
       <c r="D763" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="E763" t="s">
         <v>2607</v>
@@ -27639,7 +27639,7 @@
         <v>2215</v>
       </c>
       <c r="D764" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="E764" t="s">
         <v>2608</v>
@@ -27690,7 +27690,7 @@
         <v>2208</v>
       </c>
       <c r="D767" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="E767" t="s">
         <v>2602</v>
@@ -27724,7 +27724,7 @@
         <v>2553</v>
       </c>
       <c r="D769" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="E769" t="s">
         <v>2248</v>
@@ -27826,7 +27826,7 @@
         <v>2514</v>
       </c>
       <c r="D775" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="E775" t="s">
         <v>2609</v>
@@ -27843,7 +27843,7 @@
         <v>2216</v>
       </c>
       <c r="D776" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="E776" t="s">
         <v>2521</v>
@@ -27979,10 +27979,10 @@
         <v>2245</v>
       </c>
       <c r="D784" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="E784" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -27996,7 +27996,7 @@
         <v>2529</v>
       </c>
       <c r="D785" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="E785" t="s">
         <v>2582</v>
@@ -28047,10 +28047,10 @@
         <v>2529</v>
       </c>
       <c r="D788" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="E788" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28285,10 +28285,10 @@
         <v>2817</v>
       </c>
       <c r="D802" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="E802" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28404,7 +28404,7 @@
         <v>2245</v>
       </c>
       <c r="D809" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E809" t="s">
         <v>2512</v>
@@ -28506,7 +28506,7 @@
         <v>3552</v>
       </c>
       <c r="D815" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="E815" t="s">
         <v>2629</v>
@@ -28523,7 +28523,7 @@
         <v>2656</v>
       </c>
       <c r="D816" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="E816" t="s">
         <v>2236</v>
@@ -28727,7 +28727,7 @@
         <v>3553</v>
       </c>
       <c r="D828" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="E828" t="s">
         <v>2639</v>
@@ -28761,7 +28761,7 @@
         <v>2656</v>
       </c>
       <c r="D830" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="E830" t="s">
         <v>2237</v>
@@ -28795,7 +28795,7 @@
         <v>3553</v>
       </c>
       <c r="D832" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="E832" t="s">
         <v>2641</v>
@@ -28846,7 +28846,7 @@
         <v>3444</v>
       </c>
       <c r="D835" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="E835" t="s">
         <v>2643</v>
@@ -28880,7 +28880,7 @@
         <v>2572</v>
       </c>
       <c r="D837" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="E837" t="s">
         <v>2572</v>
@@ -28931,7 +28931,7 @@
         <v>3556</v>
       </c>
       <c r="D840" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="E840" t="s">
         <v>2515</v>
@@ -29288,7 +29288,7 @@
         <v>2247</v>
       </c>
       <c r="D861" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="E861" t="s">
         <v>2653</v>
@@ -29458,7 +29458,7 @@
         <v>2216</v>
       </c>
       <c r="D871" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="E871" t="s">
         <v>2241</v>
@@ -29492,7 +29492,7 @@
         <v>3560</v>
       </c>
       <c r="D873" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="E873" t="s">
         <v>2657</v>
@@ -29611,7 +29611,7 @@
         <v>3564</v>
       </c>
       <c r="D880" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="E880" t="s">
         <v>2662</v>
@@ -29679,7 +29679,7 @@
         <v>2535</v>
       </c>
       <c r="D884" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="E884" t="s">
         <v>2627</v>
@@ -29849,7 +29849,7 @@
         <v>2246</v>
       </c>
       <c r="D894" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="E894" t="s">
         <v>2671</v>
@@ -29968,7 +29968,7 @@
         <v>3493</v>
       </c>
       <c r="D901" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="E901" t="s">
         <v>2675</v>
@@ -30036,7 +30036,7 @@
         <v>2517</v>
       </c>
       <c r="D905" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="E905" t="s">
         <v>2679</v>
@@ -30189,7 +30189,7 @@
         <v>2691</v>
       </c>
       <c r="D914" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="E914" t="s">
         <v>2515</v>
@@ -30393,7 +30393,7 @@
         <v>2348</v>
       </c>
       <c r="D926" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="E926" t="s">
         <v>2687</v>
@@ -30478,7 +30478,7 @@
         <v>2502</v>
       </c>
       <c r="D931" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="E931" t="s">
         <v>2691</v>
@@ -30563,7 +30563,7 @@
         <v>3527</v>
       </c>
       <c r="D936" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="E936" t="s">
         <v>2349</v>
@@ -30648,7 +30648,7 @@
         <v>2837</v>
       </c>
       <c r="D941" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E941" t="s">
         <v>2696</v>
@@ -30750,7 +30750,7 @@
         <v>2677</v>
       </c>
       <c r="D947" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="E947" t="s">
         <v>2391</v>
@@ -30767,7 +30767,7 @@
         <v>3572</v>
       </c>
       <c r="D948" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="E948" t="s">
         <v>2698</v>
@@ -30835,7 +30835,7 @@
         <v>2392</v>
       </c>
       <c r="D952" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="E952" t="s">
         <v>2699</v>
@@ -31090,7 +31090,7 @@
         <v>2543</v>
       </c>
       <c r="D967" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="E967" t="s">
         <v>2505</v>
@@ -31175,7 +31175,7 @@
         <v>2697</v>
       </c>
       <c r="D972" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E972" t="s">
         <v>2706</v>
@@ -31226,7 +31226,7 @@
         <v>2259</v>
       </c>
       <c r="D975" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="E975" t="s">
         <v>2386</v>
@@ -31260,7 +31260,7 @@
         <v>2820</v>
       </c>
       <c r="D977" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="E977" t="s">
         <v>2708</v>
@@ -31617,7 +31617,7 @@
         <v>2361</v>
       </c>
       <c r="D998" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="E998" t="s">
         <v>2722</v>
@@ -31634,7 +31634,7 @@
         <v>3581</v>
       </c>
       <c r="D999" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="E999" t="s">
         <v>2723</v>
@@ -31719,7 +31719,7 @@
         <v>2366</v>
       </c>
       <c r="D1004" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="E1004" t="s">
         <v>2414</v>
@@ -31889,7 +31889,7 @@
         <v>2828</v>
       </c>
       <c r="D1014" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="E1014" t="s">
         <v>2416</v>
@@ -31906,7 +31906,7 @@
         <v>2828</v>
       </c>
       <c r="D1015" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E1015" t="s">
         <v>2416</v>
@@ -31940,7 +31940,7 @@
         <v>2849</v>
       </c>
       <c r="D1017" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="E1017" t="s">
         <v>2720</v>
@@ -32008,7 +32008,7 @@
         <v>2382</v>
       </c>
       <c r="D1021" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="E1021" t="s">
         <v>2734</v>
@@ -32025,7 +32025,7 @@
         <v>2382</v>
       </c>
       <c r="D1022" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="E1022" t="s">
         <v>2735</v>
@@ -32093,7 +32093,7 @@
         <v>2851</v>
       </c>
       <c r="D1026" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="E1026" t="s">
         <v>2738</v>
@@ -32195,7 +32195,7 @@
         <v>2337</v>
       </c>
       <c r="D1032" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="E1032" t="s">
         <v>2743</v>
@@ -32246,7 +32246,7 @@
         <v>3521</v>
       </c>
       <c r="D1035" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="E1035" t="s">
         <v>2275</v>
@@ -32348,7 +32348,7 @@
         <v>2441</v>
       </c>
       <c r="D1041" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="E1041" t="s">
         <v>2751</v>
@@ -32450,7 +32450,7 @@
         <v>2750</v>
       </c>
       <c r="D1047" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="E1047" t="s">
         <v>2754</v>
@@ -32776,7 +32776,7 @@
         <v>2765</v>
       </c>
       <c r="E1066" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32858,7 +32858,7 @@
         <v>3583</v>
       </c>
       <c r="D1071" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="E1071" t="s">
         <v>2340</v>
@@ -33079,7 +33079,7 @@
         <v>2382</v>
       </c>
       <c r="D1084" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="E1084" t="s">
         <v>2776</v>
@@ -33113,7 +33113,7 @@
         <v>2401</v>
       </c>
       <c r="D1086" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="E1086" t="s">
         <v>2259</v>
@@ -33147,7 +33147,7 @@
         <v>2849</v>
       </c>
       <c r="D1088" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="E1088" t="s">
         <v>2778</v>
@@ -33164,7 +33164,7 @@
         <v>2827</v>
       </c>
       <c r="D1089" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="E1089" t="s">
         <v>2779</v>
@@ -33232,7 +33232,7 @@
         <v>2741</v>
       </c>
       <c r="D1093" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="E1093" t="s">
         <v>2781</v>
@@ -33317,10 +33317,10 @@
         <v>2792</v>
       </c>
       <c r="D1098" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="E1098" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33334,10 +33334,10 @@
         <v>2330</v>
       </c>
       <c r="D1099" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="E1099" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33368,7 +33368,7 @@
         <v>2850</v>
       </c>
       <c r="D1101" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E1101" t="s">
         <v>2794</v>
@@ -33385,7 +33385,7 @@
         <v>2792</v>
       </c>
       <c r="D1102" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="E1102" t="s">
         <v>2789</v>
@@ -33538,7 +33538,7 @@
         <v>2794</v>
       </c>
       <c r="D1111" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="E1111" t="s">
         <v>2795</v>
@@ -33572,7 +33572,7 @@
         <v>3585</v>
       </c>
       <c r="D1113" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="E1113" t="s">
         <v>2796</v>
@@ -33589,7 +33589,7 @@
         <v>3586</v>
       </c>
       <c r="D1114" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="E1114" t="s">
         <v>2724</v>
@@ -33606,7 +33606,7 @@
         <v>3587</v>
       </c>
       <c r="D1115" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="E1115" t="s">
         <v>2796</v>
@@ -33623,7 +33623,7 @@
         <v>3588</v>
       </c>
       <c r="D1116" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="E1116" t="s">
         <v>2797</v>
@@ -33742,7 +33742,7 @@
         <v>2361</v>
       </c>
       <c r="D1123" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="E1123" t="s">
         <v>2800</v>
@@ -33776,7 +33776,7 @@
         <v>3591</v>
       </c>
       <c r="D1125" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="E1125" t="s">
         <v>2801</v>
@@ -33810,7 +33810,7 @@
         <v>2714</v>
       </c>
       <c r="D1127" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="E1127" t="s">
         <v>2517</v>
@@ -33946,7 +33946,7 @@
         <v>2786</v>
       </c>
       <c r="D1135" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="E1135" t="s">
         <v>2807</v>
@@ -33980,7 +33980,7 @@
         <v>2867</v>
       </c>
       <c r="D1137" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="E1137" t="s">
         <v>2708</v>
@@ -34031,7 +34031,7 @@
         <v>3596</v>
       </c>
       <c r="D1140" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="E1140" t="s">
         <v>2810</v>
@@ -34048,7 +34048,7 @@
         <v>3522</v>
       </c>
       <c r="D1141" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="E1141" t="s">
         <v>3578</v>
@@ -34065,7 +34065,7 @@
         <v>2810</v>
       </c>
       <c r="D1142" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="E1142" t="s">
         <v>2811</v>
@@ -34133,7 +34133,7 @@
         <v>2357</v>
       </c>
       <c r="D1146" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="E1146" t="s">
         <v>2813</v>
@@ -34184,7 +34184,7 @@
         <v>3522</v>
       </c>
       <c r="D1149" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="E1149" t="s">
         <v>2813</v>
@@ -34235,7 +34235,7 @@
         <v>3581</v>
       </c>
       <c r="D1152" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="E1152" t="s">
         <v>2816</v>
@@ -34303,7 +34303,7 @@
         <v>2792</v>
       </c>
       <c r="D1156" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="E1156" t="s">
         <v>2784</v>
@@ -34320,7 +34320,7 @@
         <v>2784</v>
       </c>
       <c r="D1157" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="E1157" t="s">
         <v>2258</v>
@@ -34337,7 +34337,7 @@
         <v>2258</v>
       </c>
       <c r="D1158" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="E1158" t="s">
         <v>2795</v>
@@ -34354,7 +34354,7 @@
         <v>2795</v>
       </c>
       <c r="D1159" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="E1159" t="s">
         <v>2817</v>
@@ -34371,7 +34371,7 @@
         <v>2820</v>
       </c>
       <c r="D1160" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="E1160" t="s">
         <v>2255</v>
@@ -34388,7 +34388,7 @@
         <v>2255</v>
       </c>
       <c r="D1161" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E1161" t="s">
         <v>2817</v>
@@ -34405,7 +34405,7 @@
         <v>3585</v>
       </c>
       <c r="D1162" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="E1162" t="s">
         <v>2361</v>
@@ -34439,7 +34439,7 @@
         <v>2255</v>
       </c>
       <c r="D1164" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="E1164" t="s">
         <v>2379</v>
@@ -34490,7 +34490,7 @@
         <v>2382</v>
       </c>
       <c r="D1167" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="E1167" t="s">
         <v>2819</v>
@@ -34541,7 +34541,7 @@
         <v>3600</v>
       </c>
       <c r="D1170" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="E1170" t="s">
         <v>2491</v>
@@ -34558,7 +34558,7 @@
         <v>2731</v>
       </c>
       <c r="D1171" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="E1171" t="s">
         <v>2775</v>
@@ -34575,7 +34575,7 @@
         <v>2826</v>
       </c>
       <c r="D1172" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="E1172" t="s">
         <v>2821</v>
@@ -34592,7 +34592,7 @@
         <v>3601</v>
       </c>
       <c r="D1173" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="E1173" t="s">
         <v>2822</v>
@@ -34711,7 +34711,7 @@
         <v>2267</v>
       </c>
       <c r="D1180" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="E1180" t="s">
         <v>2825</v>
@@ -34830,7 +34830,7 @@
         <v>2791</v>
       </c>
       <c r="D1187" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="E1187" t="s">
         <v>2731</v>
@@ -34864,7 +34864,7 @@
         <v>3605</v>
       </c>
       <c r="D1189" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="E1189" t="s">
         <v>2734</v>
@@ -34881,7 +34881,7 @@
         <v>2382</v>
       </c>
       <c r="D1190" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="E1190" t="s">
         <v>2828</v>
@@ -34932,7 +34932,7 @@
         <v>2830</v>
       </c>
       <c r="D1193" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="E1193" t="s">
         <v>2736</v>
@@ -34966,7 +34966,7 @@
         <v>2831</v>
       </c>
       <c r="D1195" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="E1195" t="s">
         <v>2257</v>
@@ -34983,7 +34983,7 @@
         <v>2386</v>
       </c>
       <c r="D1196" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="E1196" t="s">
         <v>2715</v>
@@ -35000,7 +35000,7 @@
         <v>2817</v>
       </c>
       <c r="D1197" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E1197" t="s">
         <v>2833</v>
@@ -35051,7 +35051,7 @@
         <v>2834</v>
       </c>
       <c r="D1200" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="E1200" t="s">
         <v>2518</v>
@@ -35068,7 +35068,7 @@
         <v>2726</v>
       </c>
       <c r="D1201" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E1201" t="s">
         <v>2677</v>
@@ -35085,7 +35085,7 @@
         <v>2213</v>
       </c>
       <c r="D1202" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="E1202" t="s">
         <v>2497</v>
@@ -35187,7 +35187,7 @@
         <v>2806</v>
       </c>
       <c r="D1208" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="E1208" t="s">
         <v>2815</v>
@@ -35204,7 +35204,7 @@
         <v>2724</v>
       </c>
       <c r="D1209" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="E1209" t="s">
         <v>2837</v>
@@ -35221,7 +35221,7 @@
         <v>2504</v>
       </c>
       <c r="D1210" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="E1210" t="s">
         <v>2838</v>
@@ -35272,7 +35272,7 @@
         <v>3456</v>
       </c>
       <c r="D1213" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="E1213" t="s">
         <v>2839</v>
@@ -35289,7 +35289,7 @@
         <v>3456</v>
       </c>
       <c r="D1214" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="E1214" t="s">
         <v>3456</v>
@@ -35306,7 +35306,7 @@
         <v>2497</v>
       </c>
       <c r="D1215" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="E1215" t="s">
         <v>2838</v>
@@ -35323,7 +35323,7 @@
         <v>2504</v>
       </c>
       <c r="D1216" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="E1216" t="s">
         <v>2252</v>
@@ -35374,7 +35374,7 @@
         <v>2517</v>
       </c>
       <c r="D1219" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="E1219" t="s">
         <v>2495</v>
@@ -35408,10 +35408,10 @@
         <v>2798</v>
       </c>
       <c r="D1221" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="E1221" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35425,7 +35425,7 @@
         <v>3522</v>
       </c>
       <c r="D1222" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="E1222" t="s">
         <v>2357</v>
@@ -35595,7 +35595,7 @@
         <v>2844</v>
       </c>
       <c r="D1232" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E1232" t="s">
         <v>2750</v>
@@ -35612,7 +35612,7 @@
         <v>2432</v>
       </c>
       <c r="D1233" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E1233" t="s">
         <v>2432</v>
@@ -35663,7 +35663,7 @@
         <v>2479</v>
       </c>
       <c r="D1236" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E1236" t="s">
         <v>2748</v>
@@ -35697,7 +35697,7 @@
         <v>2845</v>
       </c>
       <c r="D1238" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="E1238" t="s">
         <v>2441</v>
@@ -35714,7 +35714,7 @@
         <v>2441</v>
       </c>
       <c r="D1239" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="E1239" t="s">
         <v>2266</v>
@@ -35748,7 +35748,7 @@
         <v>3610</v>
       </c>
       <c r="D1241" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="E1241" t="s">
         <v>2754</v>
@@ -35816,7 +35816,7 @@
         <v>2286</v>
       </c>
       <c r="D1245" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="E1245" t="s">
         <v>2444</v>
@@ -35901,7 +35901,7 @@
         <v>2748</v>
       </c>
       <c r="D1250" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E1250" t="s">
         <v>2456</v>
@@ -35952,7 +35952,7 @@
         <v>2421</v>
       </c>
       <c r="D1253" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="E1253" t="s">
         <v>2823</v>
@@ -35986,7 +35986,7 @@
         <v>2849</v>
       </c>
       <c r="D1255" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="E1255" t="s">
         <v>2850</v>
@@ -36003,7 +36003,7 @@
         <v>3457</v>
       </c>
       <c r="D1256" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="E1256" t="s">
         <v>2794</v>
@@ -36224,7 +36224,7 @@
         <v>3618</v>
       </c>
       <c r="D1269" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="E1269" t="s">
         <v>2855</v>
@@ -36241,7 +36241,7 @@
         <v>2855</v>
       </c>
       <c r="D1270" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="E1270" t="s">
         <v>2747</v>
@@ -36258,7 +36258,7 @@
         <v>3619</v>
       </c>
       <c r="D1271" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="E1271" t="s">
         <v>2486</v>
@@ -36343,7 +36343,7 @@
         <v>2267</v>
       </c>
       <c r="D1276" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="E1276" t="s">
         <v>2853</v>
@@ -36360,7 +36360,7 @@
         <v>2912</v>
       </c>
       <c r="D1277" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="E1277" t="s">
         <v>2337</v>
@@ -36547,7 +36547,7 @@
         <v>2772</v>
       </c>
       <c r="D1288" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="E1288" t="s">
         <v>2857</v>
@@ -36768,7 +36768,7 @@
         <v>2859</v>
       </c>
       <c r="D1301" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="E1301" t="s">
         <v>2272</v>
@@ -36785,7 +36785,7 @@
         <v>3621</v>
       </c>
       <c r="D1302" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="E1302" t="s">
         <v>2274</v>
@@ -36887,7 +36887,7 @@
         <v>2915</v>
       </c>
       <c r="D1308" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="E1308" t="s">
         <v>2752</v>
@@ -36938,7 +36938,7 @@
         <v>3628</v>
       </c>
       <c r="D1311" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="E1311" t="s">
         <v>2860</v>
@@ -36955,7 +36955,7 @@
         <v>3628</v>
       </c>
       <c r="D1312" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="E1312" t="s">
         <v>2480</v>
@@ -36972,7 +36972,7 @@
         <v>2913</v>
       </c>
       <c r="D1313" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="E1313" t="s">
         <v>2440</v>
@@ -37006,7 +37006,7 @@
         <v>2334</v>
       </c>
       <c r="D1315" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="E1315" t="s">
         <v>2332</v>
@@ -37108,7 +37108,7 @@
         <v>3632</v>
       </c>
       <c r="D1321" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="E1321" t="s">
         <v>2863</v>
@@ -37125,7 +37125,7 @@
         <v>3633</v>
       </c>
       <c r="D1322" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="E1322" t="s">
         <v>2864</v>
@@ -37159,7 +37159,7 @@
         <v>3634</v>
       </c>
       <c r="D1324" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="E1324" t="s">
         <v>2371</v>
@@ -37176,7 +37176,7 @@
         <v>3635</v>
       </c>
       <c r="D1325" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="E1325" t="s">
         <v>2720</v>
@@ -37193,7 +37193,7 @@
         <v>3636</v>
       </c>
       <c r="D1326" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="E1326" t="s">
         <v>2377</v>
@@ -37210,7 +37210,7 @@
         <v>3637</v>
       </c>
       <c r="D1327" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="E1327" t="s">
         <v>2259</v>
@@ -37261,7 +37261,7 @@
         <v>3638</v>
       </c>
       <c r="D1330" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="E1330" t="s">
         <v>2387</v>
@@ -37295,7 +37295,7 @@
         <v>3639</v>
       </c>
       <c r="D1332" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="E1332" t="s">
         <v>2491</v>
@@ -37312,7 +37312,7 @@
         <v>3590</v>
       </c>
       <c r="D1333" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="E1333" t="s">
         <v>2793</v>
@@ -37414,7 +37414,7 @@
         <v>2784</v>
       </c>
       <c r="D1339" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="E1339" t="s">
         <v>2377</v>
@@ -37434,7 +37434,7 @@
         <v>2721</v>
       </c>
       <c r="E1340" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37448,7 +37448,7 @@
         <v>3642</v>
       </c>
       <c r="D1341" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="E1341" t="s">
         <v>2731</v>
@@ -37499,7 +37499,7 @@
         <v>2330</v>
       </c>
       <c r="D1344" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="E1344" t="s">
         <v>2362</v>
@@ -37516,7 +37516,7 @@
         <v>3643</v>
       </c>
       <c r="D1345" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="E1345" t="s">
         <v>2401</v>
@@ -37533,7 +37533,7 @@
         <v>3638</v>
       </c>
       <c r="D1346" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="E1346" t="s">
         <v>2786</v>
@@ -37567,7 +37567,7 @@
         <v>2794</v>
       </c>
       <c r="D1348" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="E1348" t="s">
         <v>2808</v>
@@ -37584,7 +37584,7 @@
         <v>2807</v>
       </c>
       <c r="D1349" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="E1349" t="s">
         <v>2866</v>
@@ -37601,7 +37601,7 @@
         <v>3637</v>
       </c>
       <c r="D1350" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="E1350" t="s">
         <v>2867</v>
@@ -37720,7 +37720,7 @@
         <v>2752</v>
       </c>
       <c r="D1357" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="E1357" t="s">
         <v>2868</v>
@@ -37754,7 +37754,7 @@
         <v>2280</v>
       </c>
       <c r="D1359" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="E1359" t="s">
         <v>2870</v>
@@ -37958,7 +37958,7 @@
         <v>3631</v>
       </c>
       <c r="D1371" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="E1371" t="s">
         <v>2475</v>
@@ -38026,7 +38026,7 @@
         <v>3648</v>
       </c>
       <c r="D1375" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="E1375" t="s">
         <v>2877</v>
@@ -38060,7 +38060,7 @@
         <v>3650</v>
       </c>
       <c r="D1377" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="E1377" t="s">
         <v>2879</v>
@@ -38077,7 +38077,7 @@
         <v>3651</v>
       </c>
       <c r="D1378" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="E1378" t="s">
         <v>4645</v>
@@ -38094,10 +38094,10 @@
         <v>2931</v>
       </c>
       <c r="D1379" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E1379" t="s">
         <v>4322</v>
-      </c>
-      <c r="E1379" t="s">
-        <v>4323</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -38111,7 +38111,7 @@
         <v>3652</v>
       </c>
       <c r="D1380" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="E1380" t="s">
         <v>3649</v>
@@ -38162,10 +38162,10 @@
         <v>3655</v>
       </c>
       <c r="D1383" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="E1383" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38179,10 +38179,10 @@
         <v>3656</v>
       </c>
       <c r="D1384" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="E1384" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38196,7 +38196,7 @@
         <v>3657</v>
       </c>
       <c r="D1385" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="E1385" t="s">
         <v>4646</v>
@@ -38213,7 +38213,7 @@
         <v>3658</v>
       </c>
       <c r="D1386" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="E1386" t="s">
         <v>2888</v>
@@ -38230,10 +38230,10 @@
         <v>3659</v>
       </c>
       <c r="D1387" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="E1387" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38264,7 +38264,7 @@
         <v>3661</v>
       </c>
       <c r="D1389" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="E1389" t="s">
         <v>4648</v>
@@ -38281,7 +38281,7 @@
         <v>3036</v>
       </c>
       <c r="D1390" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="E1390" t="s">
         <v>4649</v>
@@ -38298,7 +38298,7 @@
         <v>3659</v>
       </c>
       <c r="D1391" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="E1391" t="s">
         <v>2893</v>
@@ -38349,7 +38349,7 @@
         <v>2966</v>
       </c>
       <c r="D1394" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="E1394" t="s">
         <v>4652</v>
@@ -38369,7 +38369,7 @@
         <v>2748</v>
       </c>
       <c r="E1395" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38383,7 +38383,7 @@
         <v>3664</v>
       </c>
       <c r="D1396" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="E1396" t="s">
         <v>2876</v>
@@ -38420,7 +38420,7 @@
         <v>2291</v>
       </c>
       <c r="E1398" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38434,7 +38434,7 @@
         <v>3666</v>
       </c>
       <c r="D1399" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="E1399" t="s">
         <v>4653</v>
@@ -38468,7 +38468,7 @@
         <v>3667</v>
       </c>
       <c r="D1401" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="E1401" t="s">
         <v>2902</v>
@@ -38502,7 +38502,7 @@
         <v>2903</v>
       </c>
       <c r="D1403" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E1403" t="s">
         <v>3614</v>
@@ -38570,7 +38570,7 @@
         <v>3669</v>
       </c>
       <c r="D1407" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="E1407" t="s">
         <v>4654</v>
@@ -38604,7 +38604,7 @@
         <v>3671</v>
       </c>
       <c r="D1409" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="E1409" t="s">
         <v>4655</v>
@@ -38672,7 +38672,7 @@
         <v>3674</v>
       </c>
       <c r="D1413" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E1413" t="s">
         <v>2911</v>
@@ -38692,7 +38692,7 @@
         <v>2852</v>
       </c>
       <c r="E1414" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38723,7 +38723,7 @@
         <v>2430</v>
       </c>
       <c r="D1416" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="E1416" t="s">
         <v>2913</v>
@@ -38757,7 +38757,7 @@
         <v>2478</v>
       </c>
       <c r="D1418" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="E1418" t="s">
         <v>4658</v>
@@ -38842,7 +38842,7 @@
         <v>3631</v>
       </c>
       <c r="D1423" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="E1423" t="s">
         <v>2346</v>
@@ -38862,7 +38862,7 @@
         <v>2475</v>
       </c>
       <c r="E1424" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38913,7 +38913,7 @@
         <v>3507</v>
       </c>
       <c r="E1427" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38944,7 +38944,7 @@
         <v>3678</v>
       </c>
       <c r="D1429" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E1429" t="s">
         <v>2924</v>
@@ -38961,7 +38961,7 @@
         <v>3679</v>
       </c>
       <c r="D1430" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="E1430" t="s">
         <v>4661</v>
@@ -38995,7 +38995,7 @@
         <v>2926</v>
       </c>
       <c r="D1432" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="E1432" t="s">
         <v>2292</v>
@@ -39080,7 +39080,7 @@
         <v>3682</v>
       </c>
       <c r="D1437" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="E1437" t="s">
         <v>2930</v>
@@ -39097,7 +39097,7 @@
         <v>3683</v>
       </c>
       <c r="D1438" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="E1438" t="s">
         <v>2931</v>
@@ -39131,7 +39131,7 @@
         <v>3685</v>
       </c>
       <c r="D1440" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="E1440" t="s">
         <v>2933</v>
@@ -39165,7 +39165,7 @@
         <v>3686</v>
       </c>
       <c r="D1442" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="E1442" t="s">
         <v>2935</v>
@@ -39182,7 +39182,7 @@
         <v>2935</v>
       </c>
       <c r="D1443" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="E1443" t="s">
         <v>2936</v>
@@ -39199,7 +39199,7 @@
         <v>2447</v>
       </c>
       <c r="D1444" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="E1444" t="s">
         <v>2910</v>
@@ -39216,7 +39216,7 @@
         <v>3467</v>
       </c>
       <c r="D1445" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="E1445" t="s">
         <v>2937</v>
@@ -39250,7 +39250,7 @@
         <v>3688</v>
       </c>
       <c r="D1447" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="E1447" t="s">
         <v>4662</v>
@@ -39267,7 +39267,7 @@
         <v>3689</v>
       </c>
       <c r="D1448" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="E1448" t="s">
         <v>4663</v>
@@ -39284,7 +39284,7 @@
         <v>3690</v>
       </c>
       <c r="D1449" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="E1449" t="s">
         <v>2292</v>
@@ -39352,7 +39352,7 @@
         <v>3694</v>
       </c>
       <c r="D1453" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="E1453" t="s">
         <v>4665</v>
@@ -39369,10 +39369,10 @@
         <v>3695</v>
       </c>
       <c r="D1454" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E1454" t="s">
         <v>4354</v>
-      </c>
-      <c r="E1454" t="s">
-        <v>4355</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39386,7 +39386,7 @@
         <v>3696</v>
       </c>
       <c r="D1455" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E1455" t="s">
         <v>3696</v>
@@ -39420,7 +39420,7 @@
         <v>3698</v>
       </c>
       <c r="D1457" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="E1457" t="s">
         <v>2946</v>
@@ -39437,7 +39437,7 @@
         <v>3699</v>
       </c>
       <c r="D1458" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="E1458" t="s">
         <v>2946</v>
@@ -39471,7 +39471,7 @@
         <v>2967</v>
       </c>
       <c r="D1460" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="E1460" t="s">
         <v>4666</v>
@@ -39488,7 +39488,7 @@
         <v>3701</v>
       </c>
       <c r="D1461" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="E1461" t="s">
         <v>4667</v>
@@ -39505,7 +39505,7 @@
         <v>2319</v>
       </c>
       <c r="D1462" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="E1462" t="s">
         <v>2949</v>
@@ -39522,7 +39522,7 @@
         <v>3702</v>
       </c>
       <c r="D1463" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="E1463" t="s">
         <v>2969</v>
@@ -39539,7 +39539,7 @@
         <v>3703</v>
       </c>
       <c r="D1464" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="E1464" t="s">
         <v>4667</v>
@@ -39556,7 +39556,7 @@
         <v>2948</v>
       </c>
       <c r="D1465" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="E1465" t="s">
         <v>4668</v>
@@ -39590,7 +39590,7 @@
         <v>3705</v>
       </c>
       <c r="D1467" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="E1467" t="s">
         <v>4669</v>
@@ -39607,7 +39607,7 @@
         <v>3706</v>
       </c>
       <c r="D1468" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="E1468" t="s">
         <v>4670</v>
@@ -39627,7 +39627,7 @@
         <v>2955</v>
       </c>
       <c r="E1469" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39658,7 +39658,7 @@
         <v>3709</v>
       </c>
       <c r="D1471" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="E1471" t="s">
         <v>2946</v>
@@ -39675,7 +39675,7 @@
         <v>3480</v>
       </c>
       <c r="D1472" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="E1472" t="s">
         <v>4671</v>
@@ -39709,7 +39709,7 @@
         <v>2946</v>
       </c>
       <c r="D1474" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="E1474" t="s">
         <v>4673</v>
@@ -39726,7 +39726,7 @@
         <v>2312</v>
       </c>
       <c r="D1475" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="E1475" t="s">
         <v>4674</v>
@@ -39743,7 +39743,7 @@
         <v>3710</v>
       </c>
       <c r="D1476" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="E1476" t="s">
         <v>2961</v>
@@ -39760,7 +39760,7 @@
         <v>3699</v>
       </c>
       <c r="D1477" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="E1477" t="s">
         <v>2962</v>
@@ -39811,7 +39811,7 @@
         <v>3711</v>
       </c>
       <c r="D1480" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="E1480" t="s">
         <v>2965</v>
@@ -39845,7 +39845,7 @@
         <v>3712</v>
       </c>
       <c r="D1482" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="E1482" t="s">
         <v>2967</v>
@@ -39862,7 +39862,7 @@
         <v>2967</v>
       </c>
       <c r="D1483" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="E1483" t="s">
         <v>2967</v>
@@ -39896,7 +39896,7 @@
         <v>2951</v>
       </c>
       <c r="D1485" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="E1485" t="s">
         <v>2318</v>
@@ -39913,7 +39913,7 @@
         <v>3714</v>
       </c>
       <c r="D1486" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="E1486" t="s">
         <v>2968</v>
@@ -39930,7 +39930,7 @@
         <v>3715</v>
       </c>
       <c r="D1487" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="E1487" t="s">
         <v>2950</v>
@@ -39947,7 +39947,7 @@
         <v>3705</v>
       </c>
       <c r="D1488" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="E1488" t="s">
         <v>4675</v>
@@ -39964,7 +39964,7 @@
         <v>3716</v>
       </c>
       <c r="D1489" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="E1489" t="s">
         <v>4676</v>
@@ -40032,7 +40032,7 @@
         <v>3718</v>
       </c>
       <c r="D1493" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="E1493" t="s">
         <v>2995</v>
@@ -40066,7 +40066,7 @@
         <v>3720</v>
       </c>
       <c r="D1495" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="E1495" t="s">
         <v>3035</v>
@@ -40083,7 +40083,7 @@
         <v>3721</v>
       </c>
       <c r="D1496" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="E1496" t="s">
         <v>2977</v>
@@ -40117,7 +40117,7 @@
         <v>3722</v>
       </c>
       <c r="D1498" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="E1498" t="s">
         <v>4679</v>
@@ -40151,7 +40151,7 @@
         <v>3724</v>
       </c>
       <c r="D1500" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="E1500" t="s">
         <v>4680</v>
@@ -40168,7 +40168,7 @@
         <v>3052</v>
       </c>
       <c r="D1501" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="E1501" t="s">
         <v>2982</v>
@@ -40219,7 +40219,7 @@
         <v>3727</v>
       </c>
       <c r="D1504" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="E1504" t="s">
         <v>3035</v>
@@ -40236,7 +40236,7 @@
         <v>3728</v>
       </c>
       <c r="D1505" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="E1505" t="s">
         <v>2985</v>
@@ -40304,7 +40304,7 @@
         <v>3731</v>
       </c>
       <c r="D1509" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="E1509" t="s">
         <v>4684</v>
@@ -40321,7 +40321,7 @@
         <v>2989</v>
       </c>
       <c r="D1510" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="E1510" t="s">
         <v>4685</v>
@@ -40338,7 +40338,7 @@
         <v>3732</v>
       </c>
       <c r="D1511" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="E1511" t="s">
         <v>2990</v>
@@ -40372,7 +40372,7 @@
         <v>2973</v>
       </c>
       <c r="D1513" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="E1513" t="s">
         <v>4687</v>
@@ -40389,7 +40389,7 @@
         <v>3733</v>
       </c>
       <c r="D1514" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="E1514" t="s">
         <v>4688</v>
@@ -40406,7 +40406,7 @@
         <v>3734</v>
       </c>
       <c r="D1515" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="E1515" t="s">
         <v>2971</v>
@@ -40440,10 +40440,10 @@
         <v>2994</v>
       </c>
       <c r="D1517" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="E1517" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40457,7 +40457,7 @@
         <v>2995</v>
       </c>
       <c r="D1518" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="E1518" t="s">
         <v>4689</v>
@@ -40474,7 +40474,7 @@
         <v>3736</v>
       </c>
       <c r="D1519" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="E1519" t="s">
         <v>2990</v>
@@ -40491,7 +40491,7 @@
         <v>3704</v>
       </c>
       <c r="D1520" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="E1520" t="s">
         <v>4690</v>
@@ -40508,7 +40508,7 @@
         <v>3737</v>
       </c>
       <c r="D1521" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="E1521" t="s">
         <v>4691</v>
@@ -40525,7 +40525,7 @@
         <v>2973</v>
       </c>
       <c r="D1522" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="E1522" t="s">
         <v>4692</v>
@@ -40542,7 +40542,7 @@
         <v>3738</v>
       </c>
       <c r="D1523" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="E1523" t="s">
         <v>3001</v>
@@ -40627,7 +40627,7 @@
         <v>3743</v>
       </c>
       <c r="D1528" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="E1528" t="s">
         <v>4694</v>
@@ -40661,7 +40661,7 @@
         <v>3745</v>
       </c>
       <c r="D1530" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="E1530" t="s">
         <v>3042</v>
@@ -40678,7 +40678,7 @@
         <v>3746</v>
       </c>
       <c r="D1531" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="E1531" t="s">
         <v>3007</v>
@@ -40712,10 +40712,10 @@
         <v>3007</v>
       </c>
       <c r="D1533" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="E1533" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40729,7 +40729,7 @@
         <v>3748</v>
       </c>
       <c r="D1534" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="E1534" t="s">
         <v>4695</v>
@@ -40746,10 +40746,10 @@
         <v>3749</v>
       </c>
       <c r="D1535" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="E1535" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40797,7 +40797,7 @@
         <v>3751</v>
       </c>
       <c r="D1538" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="E1538" t="s">
         <v>3012</v>
@@ -40814,7 +40814,7 @@
         <v>3752</v>
       </c>
       <c r="D1539" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="E1539" t="s">
         <v>3013</v>
@@ -40831,10 +40831,10 @@
         <v>3753</v>
       </c>
       <c r="D1540" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="E1540" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40848,7 +40848,7 @@
         <v>3754</v>
       </c>
       <c r="D1541" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="E1541" t="s">
         <v>3015</v>
@@ -40865,7 +40865,7 @@
         <v>3755</v>
       </c>
       <c r="D1542" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="E1542" t="s">
         <v>3016</v>
@@ -40899,7 +40899,7 @@
         <v>3757</v>
       </c>
       <c r="D1544" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="E1544" t="s">
         <v>3018</v>
@@ -40916,10 +40916,10 @@
         <v>3758</v>
       </c>
       <c r="D1545" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="E1545" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40950,7 +40950,7 @@
         <v>3760</v>
       </c>
       <c r="D1547" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="E1547" t="s">
         <v>3767</v>
@@ -40967,7 +40967,7 @@
         <v>3761</v>
       </c>
       <c r="D1548" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="E1548" t="s">
         <v>4696</v>
@@ -41001,7 +41001,7 @@
         <v>3763</v>
       </c>
       <c r="D1550" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="E1550" t="s">
         <v>4698</v>
@@ -41018,7 +41018,7 @@
         <v>3764</v>
       </c>
       <c r="D1551" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="E1551" t="s">
         <v>3024</v>
@@ -41035,7 +41035,7 @@
         <v>3764</v>
       </c>
       <c r="D1552" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="E1552" t="s">
         <v>4699</v>
@@ -41052,7 +41052,7 @@
         <v>3025</v>
       </c>
       <c r="D1553" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="E1553" t="s">
         <v>4700</v>
@@ -41069,7 +41069,7 @@
         <v>3765</v>
       </c>
       <c r="D1554" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="E1554" t="s">
         <v>3056</v>
@@ -41103,7 +41103,7 @@
         <v>3767</v>
       </c>
       <c r="D1556" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="E1556" t="s">
         <v>3029</v>
@@ -41120,7 +41120,7 @@
         <v>3029</v>
       </c>
       <c r="D1557" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E1557" t="s">
         <v>3014</v>
@@ -41154,7 +41154,7 @@
         <v>3769</v>
       </c>
       <c r="D1559" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="E1559" t="s">
         <v>3031</v>
@@ -41171,7 +41171,7 @@
         <v>3770</v>
       </c>
       <c r="D1560" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="E1560" t="s">
         <v>4703</v>
@@ -41188,7 +41188,7 @@
         <v>3066</v>
       </c>
       <c r="D1561" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="E1561" t="s">
         <v>4704</v>
@@ -41205,7 +41205,7 @@
         <v>3771</v>
       </c>
       <c r="D1562" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="E1562" t="s">
         <v>4705</v>
@@ -41222,7 +41222,7 @@
         <v>3034</v>
       </c>
       <c r="D1563" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="E1563" t="s">
         <v>3019</v>
@@ -41239,7 +41239,7 @@
         <v>3772</v>
       </c>
       <c r="D1564" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="E1564" t="s">
         <v>2976</v>
@@ -41256,7 +41256,7 @@
         <v>2978</v>
       </c>
       <c r="D1565" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="E1565" t="s">
         <v>4706</v>
@@ -41273,7 +41273,7 @@
         <v>3742</v>
       </c>
       <c r="D1566" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="E1566" t="s">
         <v>3037</v>
@@ -41290,7 +41290,7 @@
         <v>3773</v>
       </c>
       <c r="D1567" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="E1567" t="s">
         <v>3038</v>
@@ -41307,7 +41307,7 @@
         <v>3774</v>
       </c>
       <c r="D1568" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="E1568" t="s">
         <v>3039</v>
@@ -41324,7 +41324,7 @@
         <v>3775</v>
       </c>
       <c r="D1569" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="E1569" t="s">
         <v>3038</v>
@@ -41375,7 +41375,7 @@
         <v>3778</v>
       </c>
       <c r="D1572" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="E1572" t="s">
         <v>3006</v>
@@ -41392,7 +41392,7 @@
         <v>3043</v>
       </c>
       <c r="D1573" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="E1573" t="s">
         <v>3044</v>
@@ -41426,7 +41426,7 @@
         <v>3761</v>
       </c>
       <c r="D1575" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="E1575" t="s">
         <v>4707</v>
@@ -41443,7 +41443,7 @@
         <v>3779</v>
       </c>
       <c r="D1576" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="E1576" t="s">
         <v>3045</v>
@@ -41494,7 +41494,7 @@
         <v>3782</v>
       </c>
       <c r="D1579" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="E1579" t="s">
         <v>3048</v>
@@ -41511,7 +41511,7 @@
         <v>3783</v>
       </c>
       <c r="D1580" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="E1580" t="s">
         <v>4708</v>
@@ -41528,7 +41528,7 @@
         <v>3784</v>
       </c>
       <c r="D1581" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="E1581" t="s">
         <v>3050</v>
@@ -41545,7 +41545,7 @@
         <v>3050</v>
       </c>
       <c r="D1582" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="E1582" t="s">
         <v>3013</v>
@@ -41562,7 +41562,7 @@
         <v>3726</v>
       </c>
       <c r="D1583" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="E1583" t="s">
         <v>4681</v>
@@ -41647,7 +41647,7 @@
         <v>3789</v>
       </c>
       <c r="D1588" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="E1588" t="s">
         <v>4710</v>
@@ -41664,7 +41664,7 @@
         <v>3790</v>
       </c>
       <c r="D1589" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="E1589" t="s">
         <v>3777</v>
@@ -42259,7 +42259,7 @@
         <v>3810</v>
       </c>
       <c r="D1624" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="E1624" t="s">
         <v>4714</v>
@@ -42276,7 +42276,7 @@
         <v>3811</v>
       </c>
       <c r="D1625" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E1625" t="s">
         <v>4715</v>
@@ -42293,7 +42293,7 @@
         <v>3812</v>
       </c>
       <c r="D1626" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="E1626" t="s">
         <v>4716</v>
@@ -42310,7 +42310,7 @@
         <v>3813</v>
       </c>
       <c r="D1627" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="E1627" t="s">
         <v>3069</v>
@@ -42327,7 +42327,7 @@
         <v>3814</v>
       </c>
       <c r="D1628" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="E1628" t="s">
         <v>4717</v>
@@ -42344,7 +42344,7 @@
         <v>3815</v>
       </c>
       <c r="D1629" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="E1629" t="s">
         <v>4718</v>
@@ -42361,7 +42361,7 @@
         <v>3816</v>
       </c>
       <c r="D1630" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="E1630" t="s">
         <v>3065</v>
@@ -42378,7 +42378,7 @@
         <v>3817</v>
       </c>
       <c r="D1631" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E1631" t="s">
         <v>3065</v>
@@ -42395,7 +42395,7 @@
         <v>3818</v>
       </c>
       <c r="D1632" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="E1632" t="s">
         <v>3064</v>
@@ -42412,7 +42412,7 @@
         <v>3819</v>
       </c>
       <c r="D1633" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="E1633" t="s">
         <v>3064</v>
@@ -42429,7 +42429,7 @@
         <v>3819</v>
       </c>
       <c r="D1634" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="E1634" t="s">
         <v>3063</v>
@@ -42446,7 +42446,7 @@
         <v>3820</v>
       </c>
       <c r="D1635" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="E1635" t="s">
         <v>3071</v>
@@ -42463,7 +42463,7 @@
         <v>3803</v>
       </c>
       <c r="D1636" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E1636" t="s">
         <v>3071</v>
@@ -42990,7 +42990,7 @@
         <v>3843</v>
       </c>
       <c r="D1667" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="E1667" t="s">
         <v>3071</v>
@@ -43007,7 +43007,7 @@
         <v>3071</v>
       </c>
       <c r="D1668" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="E1668" t="s">
         <v>3071</v>
@@ -43024,7 +43024,7 @@
         <v>3071</v>
       </c>
       <c r="D1669" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="E1669" t="s">
         <v>3071</v>
@@ -43075,7 +43075,7 @@
         <v>3845</v>
       </c>
       <c r="D1672" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="E1672" t="s">
         <v>4722</v>
@@ -43092,7 +43092,7 @@
         <v>3846</v>
       </c>
       <c r="D1673" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="E1673" t="s">
         <v>4723</v>
@@ -43109,7 +43109,7 @@
         <v>3323</v>
       </c>
       <c r="D1674" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="E1674" t="s">
         <v>4724</v>
@@ -43126,7 +43126,7 @@
         <v>3847</v>
       </c>
       <c r="D1675" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="E1675" t="s">
         <v>4006</v>
@@ -43143,7 +43143,7 @@
         <v>3848</v>
       </c>
       <c r="D1676" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="E1676" t="s">
         <v>4725</v>
@@ -43160,7 +43160,7 @@
         <v>3849</v>
       </c>
       <c r="D1677" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="E1677" t="s">
         <v>4726</v>
@@ -43177,7 +43177,7 @@
         <v>3850</v>
       </c>
       <c r="D1678" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E1678" t="s">
         <v>4727</v>
@@ -43194,7 +43194,7 @@
         <v>3851</v>
       </c>
       <c r="D1679" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="E1679" t="s">
         <v>4728</v>
@@ -43211,7 +43211,7 @@
         <v>3852</v>
       </c>
       <c r="D1680" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="E1680" t="s">
         <v>4729</v>
@@ -43228,7 +43228,7 @@
         <v>3853</v>
       </c>
       <c r="D1681" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="E1681" t="s">
         <v>3086</v>
@@ -43330,7 +43330,7 @@
         <v>3087</v>
       </c>
       <c r="D1687" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="E1687" t="s">
         <v>3087</v>
@@ -43347,7 +43347,7 @@
         <v>3087</v>
       </c>
       <c r="D1688" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="E1688" t="s">
         <v>4730</v>
@@ -43364,7 +43364,7 @@
         <v>3087</v>
       </c>
       <c r="D1689" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="E1689" t="s">
         <v>3087</v>
@@ -43381,7 +43381,7 @@
         <v>3087</v>
       </c>
       <c r="D1690" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="E1690" t="s">
         <v>3087</v>
@@ -43432,7 +43432,7 @@
         <v>3087</v>
       </c>
       <c r="D1693" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="E1693" t="s">
         <v>3087</v>
@@ -43449,10 +43449,10 @@
         <v>3087</v>
       </c>
       <c r="D1694" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="E1694" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43466,7 +43466,7 @@
         <v>3087</v>
       </c>
       <c r="D1695" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="E1695" t="s">
         <v>3087</v>
@@ -43483,7 +43483,7 @@
         <v>3087</v>
       </c>
       <c r="D1696" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="E1696" t="s">
         <v>3087</v>
@@ -43789,7 +43789,7 @@
         <v>3870</v>
       </c>
       <c r="D1714" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="E1714" t="s">
         <v>4733</v>
@@ -43806,7 +43806,7 @@
         <v>3871</v>
       </c>
       <c r="D1715" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="E1715" t="s">
         <v>4734</v>
@@ -43823,7 +43823,7 @@
         <v>3872</v>
       </c>
       <c r="D1716" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="E1716" t="s">
         <v>4735</v>
@@ -43843,7 +43843,7 @@
         <v>3106</v>
       </c>
       <c r="E1717" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43857,7 +43857,7 @@
         <v>3874</v>
       </c>
       <c r="D1718" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="E1718" t="s">
         <v>3097</v>
@@ -43874,7 +43874,7 @@
         <v>3875</v>
       </c>
       <c r="D1719" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="E1719" t="s">
         <v>3096</v>
@@ -43891,7 +43891,7 @@
         <v>3876</v>
       </c>
       <c r="D1720" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="E1720" t="s">
         <v>4736</v>
@@ -43908,7 +43908,7 @@
         <v>3877</v>
       </c>
       <c r="D1721" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="E1721" t="s">
         <v>3099</v>
@@ -43942,7 +43942,7 @@
         <v>3879</v>
       </c>
       <c r="D1723" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="E1723" t="s">
         <v>3101</v>
@@ -43959,7 +43959,7 @@
         <v>3880</v>
       </c>
       <c r="D1724" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="E1724" t="s">
         <v>4738</v>
@@ -43976,7 +43976,7 @@
         <v>3881</v>
       </c>
       <c r="D1725" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="E1725" t="s">
         <v>3103</v>
@@ -44010,7 +44010,7 @@
         <v>3883</v>
       </c>
       <c r="D1727" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="E1727" t="s">
         <v>3105</v>
@@ -44112,7 +44112,7 @@
         <v>3887</v>
       </c>
       <c r="D1733" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="E1733" t="s">
         <v>3106</v>
@@ -44180,7 +44180,7 @@
         <v>3890</v>
       </c>
       <c r="D1737" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="E1737" t="s">
         <v>3107</v>
@@ -44197,7 +44197,7 @@
         <v>3891</v>
       </c>
       <c r="D1738" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="E1738" t="s">
         <v>3108</v>
@@ -44231,7 +44231,7 @@
         <v>3111</v>
       </c>
       <c r="D1740" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="E1740" t="s">
         <v>3882</v>
@@ -44316,10 +44316,10 @@
         <v>3113</v>
       </c>
       <c r="D1745" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="E1745" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44333,10 +44333,10 @@
         <v>3894</v>
       </c>
       <c r="D1746" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="E1746" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44486,7 +44486,7 @@
         <v>3897</v>
       </c>
       <c r="D1755" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="E1755" t="s">
         <v>3124</v>
@@ -44537,7 +44537,7 @@
         <v>3900</v>
       </c>
       <c r="D1758" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="E1758" t="s">
         <v>3127</v>
@@ -44588,7 +44588,7 @@
         <v>3902</v>
       </c>
       <c r="D1761" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="E1761" t="s">
         <v>3130</v>
@@ -44622,7 +44622,7 @@
         <v>3904</v>
       </c>
       <c r="D1763" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="E1763" t="s">
         <v>3132</v>
@@ -44639,7 +44639,7 @@
         <v>3905</v>
       </c>
       <c r="D1764" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="E1764" t="s">
         <v>3133</v>
@@ -44707,7 +44707,7 @@
         <v>3909</v>
       </c>
       <c r="D1768" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="E1768" t="s">
         <v>3137</v>
@@ -44724,7 +44724,7 @@
         <v>3910</v>
       </c>
       <c r="D1769" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="E1769" t="s">
         <v>3138</v>
@@ -44758,7 +44758,7 @@
         <v>3912</v>
       </c>
       <c r="D1771" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="E1771" t="s">
         <v>3140</v>
@@ -44775,7 +44775,7 @@
         <v>3913</v>
       </c>
       <c r="D1772" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="E1772" t="s">
         <v>3141</v>
@@ -44792,7 +44792,7 @@
         <v>3914</v>
       </c>
       <c r="D1773" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="E1773" t="s">
         <v>3142</v>
@@ -44809,7 +44809,7 @@
         <v>3915</v>
       </c>
       <c r="D1774" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="E1774" t="s">
         <v>3143</v>
@@ -44877,7 +44877,7 @@
         <v>3919</v>
       </c>
       <c r="D1778" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="E1778" t="s">
         <v>3147</v>
@@ -44894,7 +44894,7 @@
         <v>3920</v>
       </c>
       <c r="D1779" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="E1779" t="s">
         <v>4741</v>
@@ -44911,7 +44911,7 @@
         <v>3921</v>
       </c>
       <c r="D1780" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="E1780" t="s">
         <v>3141</v>
@@ -44928,7 +44928,7 @@
         <v>3922</v>
       </c>
       <c r="D1781" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="E1781" t="s">
         <v>3148</v>
@@ -44962,7 +44962,7 @@
         <v>3924</v>
       </c>
       <c r="D1783" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="E1783" t="s">
         <v>3150</v>
@@ -45098,7 +45098,7 @@
         <v>3151</v>
       </c>
       <c r="D1791" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="E1791" t="s">
         <v>3151</v>
@@ -45166,10 +45166,10 @@
         <v>3151</v>
       </c>
       <c r="D1795" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="E1795" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45183,10 +45183,10 @@
         <v>3151</v>
       </c>
       <c r="D1796" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="E1796" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45200,10 +45200,10 @@
         <v>3151</v>
       </c>
       <c r="D1797" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="E1797" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45217,7 +45217,7 @@
         <v>3151</v>
       </c>
       <c r="D1798" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="E1798" t="s">
         <v>4742</v>
@@ -45234,7 +45234,7 @@
         <v>3928</v>
       </c>
       <c r="D1799" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="E1799" t="s">
         <v>3153</v>
@@ -45251,7 +45251,7 @@
         <v>3929</v>
       </c>
       <c r="D1800" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="E1800" t="s">
         <v>4743</v>
@@ -45268,7 +45268,7 @@
         <v>3151</v>
       </c>
       <c r="D1801" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="E1801" t="s">
         <v>3209</v>
@@ -45285,7 +45285,7 @@
         <v>3930</v>
       </c>
       <c r="D1802" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="E1802" t="s">
         <v>3156</v>
@@ -45302,7 +45302,7 @@
         <v>3199</v>
       </c>
       <c r="D1803" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="E1803" t="s">
         <v>3157</v>
@@ -45336,7 +45336,7 @@
         <v>3932</v>
       </c>
       <c r="D1805" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="E1805" t="s">
         <v>3159</v>
@@ -45370,7 +45370,7 @@
         <v>3934</v>
       </c>
       <c r="D1807" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="E1807" t="s">
         <v>3161</v>
@@ -45404,7 +45404,7 @@
         <v>3936</v>
       </c>
       <c r="D1809" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="E1809" t="s">
         <v>3163</v>
@@ -45421,7 +45421,7 @@
         <v>3936</v>
       </c>
       <c r="D1810" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="E1810" t="s">
         <v>3164</v>
@@ -45438,7 +45438,7 @@
         <v>3937</v>
       </c>
       <c r="D1811" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="E1811" t="s">
         <v>3165</v>
@@ -45455,7 +45455,7 @@
         <v>3938</v>
       </c>
       <c r="D1812" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="E1812" t="s">
         <v>3166</v>
@@ -45472,7 +45472,7 @@
         <v>3939</v>
       </c>
       <c r="D1813" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="E1813" t="s">
         <v>3167</v>
@@ -45489,7 +45489,7 @@
         <v>3940</v>
       </c>
       <c r="D1814" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="E1814" t="s">
         <v>3168</v>
@@ -45506,7 +45506,7 @@
         <v>3940</v>
       </c>
       <c r="D1815" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="E1815" t="s">
         <v>3169</v>
@@ -45523,7 +45523,7 @@
         <v>3941</v>
       </c>
       <c r="D1816" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="E1816" t="s">
         <v>3170</v>
@@ -45540,7 +45540,7 @@
         <v>3942</v>
       </c>
       <c r="D1817" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="E1817" t="s">
         <v>3171</v>
@@ -45574,7 +45574,7 @@
         <v>3169</v>
       </c>
       <c r="D1819" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="E1819" t="s">
         <v>3173</v>
@@ -45591,7 +45591,7 @@
         <v>3944</v>
       </c>
       <c r="D1820" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="E1820" t="s">
         <v>3174</v>
@@ -45642,7 +45642,7 @@
         <v>3947</v>
       </c>
       <c r="D1823" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="E1823" t="s">
         <v>3177</v>
@@ -45693,10 +45693,10 @@
         <v>3950</v>
       </c>
       <c r="D1826" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="E1826" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45710,7 +45710,7 @@
         <v>3951</v>
       </c>
       <c r="D1827" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="E1827" t="s">
         <v>3181</v>
@@ -45727,7 +45727,7 @@
         <v>3952</v>
       </c>
       <c r="D1828" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="E1828" t="s">
         <v>3182</v>
@@ -45744,7 +45744,7 @@
         <v>3894</v>
       </c>
       <c r="D1829" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="E1829" t="s">
         <v>3183</v>
@@ -45778,7 +45778,7 @@
         <v>3954</v>
       </c>
       <c r="D1831" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="E1831" t="s">
         <v>3185</v>
@@ -45812,7 +45812,7 @@
         <v>3956</v>
       </c>
       <c r="D1833" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="E1833" t="s">
         <v>3954</v>
@@ -45846,7 +45846,7 @@
         <v>3958</v>
       </c>
       <c r="D1835" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="E1835" t="s">
         <v>3959</v>
@@ -45863,7 +45863,7 @@
         <v>3959</v>
       </c>
       <c r="D1836" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="E1836" t="s">
         <v>3190</v>
@@ -45880,7 +45880,7 @@
         <v>3960</v>
       </c>
       <c r="D1837" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="E1837" t="s">
         <v>3191</v>
@@ -45897,7 +45897,7 @@
         <v>3961</v>
       </c>
       <c r="D1838" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="E1838" t="s">
         <v>4746</v>
@@ -45914,7 +45914,7 @@
         <v>3962</v>
       </c>
       <c r="D1839" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="E1839" t="s">
         <v>3193</v>
@@ -45931,7 +45931,7 @@
         <v>3963</v>
       </c>
       <c r="D1840" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="E1840" t="s">
         <v>3194</v>
@@ -45948,7 +45948,7 @@
         <v>3964</v>
       </c>
       <c r="D1841" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="E1841" t="s">
         <v>3195</v>
@@ -45982,7 +45982,7 @@
         <v>3962</v>
       </c>
       <c r="D1843" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="E1843" t="s">
         <v>3197</v>
@@ -45999,7 +45999,7 @@
         <v>3965</v>
       </c>
       <c r="D1844" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="E1844" t="s">
         <v>4747</v>
@@ -46033,7 +46033,7 @@
         <v>3162</v>
       </c>
       <c r="D1846" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="E1846" t="s">
         <v>3162</v>
@@ -46050,7 +46050,7 @@
         <v>3200</v>
       </c>
       <c r="D1847" t="s">
-        <v>4099</v>
+        <v>4533</v>
       </c>
       <c r="E1847" t="s">
         <v>3201</v>
@@ -46070,7 +46070,7 @@
         <v>3202</v>
       </c>
       <c r="E1848" t="s">
-        <v>4099</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -46747,10 +46747,10 @@
         <v>3998</v>
       </c>
       <c r="D1888" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="E1888" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -47121,7 +47121,7 @@
         <v>3261</v>
       </c>
       <c r="D1910" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="E1910" t="s">
         <v>3262</v>
@@ -47277,7 +47277,7 @@
         <v>4566</v>
       </c>
       <c r="E1919" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -48838,7 +48838,7 @@
         <v>4074</v>
       </c>
       <c r="D2011" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="E2011" t="s">
         <v>3358</v>
@@ -49396,7 +49396,7 @@
         <v>3385</v>
       </c>
       <c r="C2044" t="s">
-        <v>4099</v>
+        <v>3206</v>
       </c>
       <c r="D2044" t="s">
         <v>4637</v>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10225" uniqueCount="4762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10225" uniqueCount="4763">
   <si>
     <t>1. open</t>
   </si>
@@ -14300,6 +14300,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.97440</t>
   </si>
 </sst>
 </file>
@@ -49425,7 +49428,7 @@
         <v>3387</v>
       </c>
       <c r="E2045" t="s">
-        <v>3097</v>
+        <v>4762</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -13948,7 +13948,7 @@
     <t>3.93120</t>
   </si>
   <si>
-    <t>3.95670</t>
+    <t>3.94580</t>
   </si>
   <si>
     <t>3.19450</t>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10235" uniqueCount="4768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10235" uniqueCount="4770">
   <si>
     <t>1. open</t>
   </si>
@@ -12337,6 +12337,9 @@
     <t>3.98430</t>
   </si>
   <si>
+    <t>3.95670</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -13954,7 +13957,7 @@
     <t>3.93120</t>
   </si>
   <si>
-    <t>3.94000</t>
+    <t>3.93440</t>
   </si>
   <si>
     <t>3.19450</t>
@@ -14318,6 +14321,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.93630</t>
   </si>
 </sst>
 </file>
@@ -14743,7 +14749,7 @@
         <v>2053</v>
       </c>
       <c r="D4" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E4" t="s">
         <v>2054</v>
@@ -14998,7 +15004,7 @@
         <v>2066</v>
       </c>
       <c r="D19" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="E19" t="s">
         <v>2067</v>
@@ -15015,7 +15021,7 @@
         <v>2067</v>
       </c>
       <c r="D20" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E20" t="s">
         <v>2068</v>
@@ -15117,7 +15123,7 @@
         <v>2072</v>
       </c>
       <c r="D26" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E26" t="s">
         <v>2072</v>
@@ -15168,7 +15174,7 @@
         <v>2074</v>
       </c>
       <c r="D29" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E29" t="s">
         <v>2074</v>
@@ -15219,7 +15225,7 @@
         <v>3397</v>
       </c>
       <c r="D32" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E32" t="s">
         <v>2075</v>
@@ -15321,7 +15327,7 @@
         <v>2080</v>
       </c>
       <c r="D38" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E38" t="s">
         <v>2081</v>
@@ -15423,7 +15429,7 @@
         <v>2086</v>
       </c>
       <c r="D44" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E44" t="s">
         <v>2087</v>
@@ -15440,7 +15446,7 @@
         <v>2087</v>
       </c>
       <c r="D45" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E45" t="s">
         <v>2084</v>
@@ -15457,7 +15463,7 @@
         <v>3400</v>
       </c>
       <c r="D46" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="E46" t="s">
         <v>2088</v>
@@ -15508,7 +15514,7 @@
         <v>2089</v>
       </c>
       <c r="D49" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="E49" t="s">
         <v>2090</v>
@@ -15525,7 +15531,7 @@
         <v>2091</v>
       </c>
       <c r="D50" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="E50" t="s">
         <v>2091</v>
@@ -15559,7 +15565,7 @@
         <v>2093</v>
       </c>
       <c r="D52" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E52" t="s">
         <v>2093</v>
@@ -15576,7 +15582,7 @@
         <v>3401</v>
       </c>
       <c r="D53" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E53" t="s">
         <v>2094</v>
@@ -15593,7 +15599,7 @@
         <v>2093</v>
       </c>
       <c r="D54" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E54" t="s">
         <v>2095</v>
@@ -15746,7 +15752,7 @@
         <v>2104</v>
       </c>
       <c r="D63" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E63" t="s">
         <v>2104</v>
@@ -15916,7 +15922,7 @@
         <v>2111</v>
       </c>
       <c r="D73" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E73" t="s">
         <v>2112</v>
@@ -16018,7 +16024,7 @@
         <v>2116</v>
       </c>
       <c r="D79" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E79" t="s">
         <v>2114</v>
@@ -16035,7 +16041,7 @@
         <v>2114</v>
       </c>
       <c r="D80" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E80" t="s">
         <v>2117</v>
@@ -16324,7 +16330,7 @@
         <v>3412</v>
       </c>
       <c r="D97" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E97" t="s">
         <v>2118</v>
@@ -16817,10 +16823,10 @@
         <v>2154</v>
       </c>
       <c r="D126" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E126" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16902,7 +16908,7 @@
         <v>3427</v>
       </c>
       <c r="D131" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E131" t="s">
         <v>2159</v>
@@ -17021,7 +17027,7 @@
         <v>3426</v>
       </c>
       <c r="D138" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E138" t="s">
         <v>2165</v>
@@ -17055,7 +17061,7 @@
         <v>3427</v>
       </c>
       <c r="D140" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E140" t="s">
         <v>2147</v>
@@ -17072,7 +17078,7 @@
         <v>2166</v>
       </c>
       <c r="D141" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E141" t="s">
         <v>2166</v>
@@ -17089,7 +17095,7 @@
         <v>3432</v>
       </c>
       <c r="D142" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E142" t="s">
         <v>2153</v>
@@ -17174,7 +17180,7 @@
         <v>3418</v>
       </c>
       <c r="D147" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E147" t="s">
         <v>2170</v>
@@ -17480,7 +17486,7 @@
         <v>2184</v>
       </c>
       <c r="D165" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E165" t="s">
         <v>2185</v>
@@ -17718,10 +17724,10 @@
         <v>2195</v>
       </c>
       <c r="D179" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E179" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17857,7 +17863,7 @@
         <v>2202</v>
       </c>
       <c r="E187" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18279,7 +18285,7 @@
         <v>3450</v>
       </c>
       <c r="D212" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E212" t="s">
         <v>3450</v>
@@ -18313,7 +18319,7 @@
         <v>2225</v>
       </c>
       <c r="D214" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E214" t="s">
         <v>2225</v>
@@ -18602,10 +18608,10 @@
         <v>2241</v>
       </c>
       <c r="D231" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E231" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19948,7 +19954,7 @@
         <v>2306</v>
       </c>
       <c r="E310" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -20047,7 +20053,7 @@
         <v>3485</v>
       </c>
       <c r="D316" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E316" t="s">
         <v>2313</v>
@@ -20285,7 +20291,7 @@
         <v>2322</v>
       </c>
       <c r="D330" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E330" t="s">
         <v>2323</v>
@@ -20302,7 +20308,7 @@
         <v>2323</v>
       </c>
       <c r="D331" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E331" t="s">
         <v>2324</v>
@@ -20387,7 +20393,7 @@
         <v>2327</v>
       </c>
       <c r="D336" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E336" t="s">
         <v>2328</v>
@@ -20642,7 +20648,7 @@
         <v>2489</v>
       </c>
       <c r="D351" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E351" t="s">
         <v>2274</v>
@@ -20659,7 +20665,7 @@
         <v>3465</v>
       </c>
       <c r="D352" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E352" t="s">
         <v>2340</v>
@@ -20863,10 +20869,10 @@
         <v>2350</v>
       </c>
       <c r="D364" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E364" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20880,7 +20886,7 @@
         <v>2396</v>
       </c>
       <c r="D365" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E365" t="s">
         <v>2351</v>
@@ -21628,7 +21634,7 @@
         <v>2385</v>
       </c>
       <c r="D409" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E409" t="s">
         <v>2385</v>
@@ -22189,7 +22195,7 @@
         <v>2407</v>
       </c>
       <c r="D442" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E442" t="s">
         <v>2408</v>
@@ -22376,7 +22382,7 @@
         <v>3506</v>
       </c>
       <c r="D453" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E453" t="s">
         <v>2369</v>
@@ -22648,7 +22654,7 @@
         <v>2429</v>
       </c>
       <c r="D469" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E469" t="s">
         <v>2430</v>
@@ -22716,7 +22722,7 @@
         <v>3511</v>
       </c>
       <c r="D473" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E473" t="s">
         <v>3470</v>
@@ -22903,7 +22909,7 @@
         <v>3465</v>
       </c>
       <c r="D484" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E484" t="s">
         <v>2441</v>
@@ -23668,7 +23674,7 @@
         <v>2469</v>
       </c>
       <c r="D529" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E529" t="s">
         <v>2470</v>
@@ -23804,7 +23810,7 @@
         <v>2472</v>
       </c>
       <c r="D537" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E537" t="s">
         <v>2476</v>
@@ -23855,7 +23861,7 @@
         <v>3519</v>
       </c>
       <c r="D540" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E540" t="s">
         <v>2479</v>
@@ -23872,7 +23878,7 @@
         <v>2331</v>
       </c>
       <c r="D541" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E541" t="s">
         <v>2449</v>
@@ -23923,7 +23929,7 @@
         <v>3520</v>
       </c>
       <c r="D544" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E544" t="s">
         <v>2482</v>
@@ -23940,7 +23946,7 @@
         <v>3521</v>
       </c>
       <c r="D545" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E545" t="s">
         <v>2483</v>
@@ -23957,7 +23963,7 @@
         <v>2447</v>
       </c>
       <c r="D546" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E546" t="s">
         <v>2337</v>
@@ -24008,7 +24014,7 @@
         <v>2462</v>
       </c>
       <c r="D549" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E549" t="s">
         <v>2484</v>
@@ -24042,7 +24048,7 @@
         <v>2271</v>
       </c>
       <c r="D551" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E551" t="s">
         <v>2485</v>
@@ -24144,7 +24150,7 @@
         <v>2435</v>
       </c>
       <c r="D557" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E557" t="s">
         <v>2490</v>
@@ -24178,7 +24184,7 @@
         <v>2916</v>
       </c>
       <c r="D559" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E559" t="s">
         <v>2491</v>
@@ -24195,7 +24201,7 @@
         <v>2491</v>
       </c>
       <c r="D560" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E560" t="s">
         <v>2421</v>
@@ -24229,7 +24235,7 @@
         <v>3527</v>
       </c>
       <c r="D562" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E562" t="s">
         <v>2492</v>
@@ -24263,10 +24269,10 @@
         <v>2332</v>
       </c>
       <c r="D564" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E564" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24314,7 +24320,7 @@
         <v>3528</v>
       </c>
       <c r="D567" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E567" t="s">
         <v>2496</v>
@@ -24382,7 +24388,7 @@
         <v>3529</v>
       </c>
       <c r="D571" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E571" t="s">
         <v>2500</v>
@@ -24433,7 +24439,7 @@
         <v>2394</v>
       </c>
       <c r="D574" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E574" t="s">
         <v>2252</v>
@@ -24467,7 +24473,7 @@
         <v>3530</v>
       </c>
       <c r="D576" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E576" t="s">
         <v>2504</v>
@@ -24484,7 +24490,7 @@
         <v>2804</v>
       </c>
       <c r="D577" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E577" t="s">
         <v>2505</v>
@@ -24501,7 +24507,7 @@
         <v>2801</v>
       </c>
       <c r="D578" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E578" t="s">
         <v>2506</v>
@@ -24535,7 +24541,7 @@
         <v>2507</v>
       </c>
       <c r="D580" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E580" t="s">
         <v>2508</v>
@@ -24603,7 +24609,7 @@
         <v>2351</v>
       </c>
       <c r="D584" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E584" t="s">
         <v>2512</v>
@@ -24688,7 +24694,7 @@
         <v>2249</v>
       </c>
       <c r="D589" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E589" t="s">
         <v>2515</v>
@@ -24739,7 +24745,7 @@
         <v>2597</v>
       </c>
       <c r="D592" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E592" t="s">
         <v>2517</v>
@@ -24960,10 +24966,10 @@
         <v>2554</v>
       </c>
       <c r="D605" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E605" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25011,7 +25017,7 @@
         <v>2510</v>
       </c>
       <c r="D608" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E608" t="s">
         <v>2524</v>
@@ -25113,7 +25119,7 @@
         <v>3537</v>
       </c>
       <c r="D614" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E614" t="s">
         <v>2529</v>
@@ -25354,7 +25360,7 @@
         <v>2515</v>
       </c>
       <c r="E628" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25419,7 +25425,7 @@
         <v>2248</v>
       </c>
       <c r="D632" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E632" t="s">
         <v>2537</v>
@@ -25694,7 +25700,7 @@
         <v>2523</v>
       </c>
       <c r="E648" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25827,7 +25833,7 @@
         <v>2522</v>
       </c>
       <c r="D656" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E656" t="s">
         <v>2396</v>
@@ -25878,7 +25884,7 @@
         <v>2543</v>
       </c>
       <c r="D659" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E659" t="s">
         <v>2556</v>
@@ -26014,7 +26020,7 @@
         <v>2543</v>
       </c>
       <c r="D667" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E667" t="s">
         <v>2552</v>
@@ -26099,7 +26105,7 @@
         <v>3533</v>
       </c>
       <c r="D672" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E672" t="s">
         <v>2508</v>
@@ -26119,7 +26125,7 @@
         <v>2351</v>
       </c>
       <c r="E673" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -26150,7 +26156,7 @@
         <v>2703</v>
       </c>
       <c r="D675" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E675" t="s">
         <v>2560</v>
@@ -26320,7 +26326,7 @@
         <v>2212</v>
       </c>
       <c r="D685" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E685" t="s">
         <v>2535</v>
@@ -26507,7 +26513,7 @@
         <v>3543</v>
       </c>
       <c r="D696" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E696" t="s">
         <v>2570</v>
@@ -26915,7 +26921,7 @@
         <v>2515</v>
       </c>
       <c r="D720" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E720" t="s">
         <v>2515</v>
@@ -26932,7 +26938,7 @@
         <v>2515</v>
       </c>
       <c r="D721" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E721" t="s">
         <v>2575</v>
@@ -26949,7 +26955,7 @@
         <v>2515</v>
       </c>
       <c r="D722" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E722" t="s">
         <v>2585</v>
@@ -27051,7 +27057,7 @@
         <v>2541</v>
       </c>
       <c r="D728" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E728" t="s">
         <v>2589</v>
@@ -27068,7 +27074,7 @@
         <v>2585</v>
       </c>
       <c r="D729" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E729" t="s">
         <v>2584</v>
@@ -27102,7 +27108,7 @@
         <v>2584</v>
       </c>
       <c r="D731" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E731" t="s">
         <v>2591</v>
@@ -27136,7 +27142,7 @@
         <v>2614</v>
       </c>
       <c r="D733" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E733" t="s">
         <v>2593</v>
@@ -27272,7 +27278,7 @@
         <v>2570</v>
       </c>
       <c r="D741" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E741" t="s">
         <v>2596</v>
@@ -27340,7 +27346,7 @@
         <v>2703</v>
       </c>
       <c r="D745" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E745" t="s">
         <v>2598</v>
@@ -27493,7 +27499,7 @@
         <v>2554</v>
       </c>
       <c r="D754" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E754" t="s">
         <v>2597</v>
@@ -27629,7 +27635,7 @@
         <v>2540</v>
       </c>
       <c r="D762" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E762" t="s">
         <v>2609</v>
@@ -27646,7 +27652,7 @@
         <v>2248</v>
       </c>
       <c r="D763" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E763" t="s">
         <v>2610</v>
@@ -27663,7 +27669,7 @@
         <v>2218</v>
       </c>
       <c r="D764" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E764" t="s">
         <v>2611</v>
@@ -27714,7 +27720,7 @@
         <v>2211</v>
       </c>
       <c r="D767" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E767" t="s">
         <v>2605</v>
@@ -27748,7 +27754,7 @@
         <v>2556</v>
       </c>
       <c r="D769" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E769" t="s">
         <v>2251</v>
@@ -27850,7 +27856,7 @@
         <v>2517</v>
       </c>
       <c r="D775" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E775" t="s">
         <v>2612</v>
@@ -27867,7 +27873,7 @@
         <v>2219</v>
       </c>
       <c r="D776" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E776" t="s">
         <v>2524</v>
@@ -28003,10 +28009,10 @@
         <v>2248</v>
       </c>
       <c r="D784" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E784" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -28020,7 +28026,7 @@
         <v>2532</v>
       </c>
       <c r="D785" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E785" t="s">
         <v>2585</v>
@@ -28071,10 +28077,10 @@
         <v>2532</v>
       </c>
       <c r="D788" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E788" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28309,10 +28315,10 @@
         <v>2820</v>
       </c>
       <c r="D802" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E802" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28428,7 +28434,7 @@
         <v>2248</v>
       </c>
       <c r="D809" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E809" t="s">
         <v>2515</v>
@@ -28530,7 +28536,7 @@
         <v>3558</v>
       </c>
       <c r="D815" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E815" t="s">
         <v>2632</v>
@@ -28547,7 +28553,7 @@
         <v>2659</v>
       </c>
       <c r="D816" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E816" t="s">
         <v>2239</v>
@@ -28751,7 +28757,7 @@
         <v>3559</v>
       </c>
       <c r="D828" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E828" t="s">
         <v>2642</v>
@@ -28785,7 +28791,7 @@
         <v>2659</v>
       </c>
       <c r="D830" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E830" t="s">
         <v>2240</v>
@@ -28819,7 +28825,7 @@
         <v>3559</v>
       </c>
       <c r="D832" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E832" t="s">
         <v>2644</v>
@@ -28870,7 +28876,7 @@
         <v>3450</v>
       </c>
       <c r="D835" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E835" t="s">
         <v>2646</v>
@@ -28904,7 +28910,7 @@
         <v>2575</v>
       </c>
       <c r="D837" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E837" t="s">
         <v>2575</v>
@@ -28955,7 +28961,7 @@
         <v>3562</v>
       </c>
       <c r="D840" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E840" t="s">
         <v>2518</v>
@@ -28975,7 +28981,7 @@
         <v>2565</v>
       </c>
       <c r="E841" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29312,7 +29318,7 @@
         <v>2250</v>
       </c>
       <c r="D861" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E861" t="s">
         <v>2656</v>
@@ -29482,7 +29488,7 @@
         <v>2219</v>
       </c>
       <c r="D871" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E871" t="s">
         <v>2244</v>
@@ -29516,7 +29522,7 @@
         <v>3566</v>
       </c>
       <c r="D873" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E873" t="s">
         <v>2660</v>
@@ -29635,7 +29641,7 @@
         <v>3570</v>
       </c>
       <c r="D880" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E880" t="s">
         <v>2665</v>
@@ -29703,7 +29709,7 @@
         <v>2538</v>
       </c>
       <c r="D884" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E884" t="s">
         <v>2630</v>
@@ -29873,7 +29879,7 @@
         <v>2249</v>
       </c>
       <c r="D894" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E894" t="s">
         <v>2674</v>
@@ -29992,7 +29998,7 @@
         <v>3499</v>
       </c>
       <c r="D901" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E901" t="s">
         <v>2678</v>
@@ -30060,7 +30066,7 @@
         <v>2520</v>
       </c>
       <c r="D905" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E905" t="s">
         <v>2682</v>
@@ -30213,7 +30219,7 @@
         <v>2694</v>
       </c>
       <c r="D914" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E914" t="s">
         <v>2518</v>
@@ -30417,7 +30423,7 @@
         <v>2351</v>
       </c>
       <c r="D926" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E926" t="s">
         <v>2690</v>
@@ -30502,7 +30508,7 @@
         <v>2505</v>
       </c>
       <c r="D931" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E931" t="s">
         <v>2694</v>
@@ -30587,7 +30593,7 @@
         <v>3533</v>
       </c>
       <c r="D936" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E936" t="s">
         <v>2352</v>
@@ -30672,7 +30678,7 @@
         <v>2840</v>
       </c>
       <c r="D941" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E941" t="s">
         <v>2699</v>
@@ -30774,7 +30780,7 @@
         <v>2680</v>
       </c>
       <c r="D947" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E947" t="s">
         <v>2394</v>
@@ -30791,7 +30797,7 @@
         <v>3578</v>
       </c>
       <c r="D948" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E948" t="s">
         <v>2701</v>
@@ -30859,7 +30865,7 @@
         <v>2395</v>
       </c>
       <c r="D952" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E952" t="s">
         <v>2702</v>
@@ -31114,7 +31120,7 @@
         <v>2546</v>
       </c>
       <c r="D967" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E967" t="s">
         <v>2508</v>
@@ -31199,7 +31205,7 @@
         <v>2700</v>
       </c>
       <c r="D972" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E972" t="s">
         <v>2709</v>
@@ -31250,7 +31256,7 @@
         <v>2262</v>
       </c>
       <c r="D975" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E975" t="s">
         <v>2389</v>
@@ -31284,7 +31290,7 @@
         <v>2823</v>
       </c>
       <c r="D977" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E977" t="s">
         <v>2711</v>
@@ -31641,7 +31647,7 @@
         <v>2364</v>
       </c>
       <c r="D998" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E998" t="s">
         <v>2725</v>
@@ -31658,7 +31664,7 @@
         <v>3587</v>
       </c>
       <c r="D999" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E999" t="s">
         <v>2726</v>
@@ -31743,7 +31749,7 @@
         <v>2369</v>
       </c>
       <c r="D1004" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1004" t="s">
         <v>2417</v>
@@ -31913,7 +31919,7 @@
         <v>2831</v>
       </c>
       <c r="D1014" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1014" t="s">
         <v>2419</v>
@@ -31930,7 +31936,7 @@
         <v>2831</v>
       </c>
       <c r="D1015" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E1015" t="s">
         <v>2419</v>
@@ -31964,7 +31970,7 @@
         <v>2852</v>
       </c>
       <c r="D1017" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E1017" t="s">
         <v>2723</v>
@@ -32032,7 +32038,7 @@
         <v>2385</v>
       </c>
       <c r="D1021" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1021" t="s">
         <v>2737</v>
@@ -32049,7 +32055,7 @@
         <v>2385</v>
       </c>
       <c r="D1022" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1022" t="s">
         <v>2738</v>
@@ -32117,7 +32123,7 @@
         <v>2854</v>
       </c>
       <c r="D1026" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1026" t="s">
         <v>2741</v>
@@ -32219,7 +32225,7 @@
         <v>2340</v>
       </c>
       <c r="D1032" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E1032" t="s">
         <v>2746</v>
@@ -32270,7 +32276,7 @@
         <v>3527</v>
       </c>
       <c r="D1035" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E1035" t="s">
         <v>2278</v>
@@ -32372,7 +32378,7 @@
         <v>2444</v>
       </c>
       <c r="D1041" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E1041" t="s">
         <v>2754</v>
@@ -32474,7 +32480,7 @@
         <v>2753</v>
       </c>
       <c r="D1047" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1047" t="s">
         <v>2757</v>
@@ -32545,7 +32551,7 @@
         <v>2269</v>
       </c>
       <c r="E1051" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32800,7 +32806,7 @@
         <v>2768</v>
       </c>
       <c r="E1066" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32882,7 +32888,7 @@
         <v>3589</v>
       </c>
       <c r="D1071" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1071" t="s">
         <v>2343</v>
@@ -33103,7 +33109,7 @@
         <v>2385</v>
       </c>
       <c r="D1084" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1084" t="s">
         <v>2779</v>
@@ -33137,7 +33143,7 @@
         <v>2404</v>
       </c>
       <c r="D1086" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1086" t="s">
         <v>2262</v>
@@ -33171,7 +33177,7 @@
         <v>2852</v>
       </c>
       <c r="D1088" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1088" t="s">
         <v>2781</v>
@@ -33188,7 +33194,7 @@
         <v>2830</v>
       </c>
       <c r="D1089" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1089" t="s">
         <v>2782</v>
@@ -33256,7 +33262,7 @@
         <v>2744</v>
       </c>
       <c r="D1093" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1093" t="s">
         <v>2784</v>
@@ -33341,10 +33347,10 @@
         <v>2795</v>
       </c>
       <c r="D1098" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1098" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33358,10 +33364,10 @@
         <v>2333</v>
       </c>
       <c r="D1099" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1099" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33392,7 +33398,7 @@
         <v>2853</v>
       </c>
       <c r="D1101" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1101" t="s">
         <v>2797</v>
@@ -33409,7 +33415,7 @@
         <v>2795</v>
       </c>
       <c r="D1102" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1102" t="s">
         <v>2792</v>
@@ -33562,7 +33568,7 @@
         <v>2797</v>
       </c>
       <c r="D1111" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1111" t="s">
         <v>2798</v>
@@ -33596,7 +33602,7 @@
         <v>3591</v>
       </c>
       <c r="D1113" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1113" t="s">
         <v>2799</v>
@@ -33613,7 +33619,7 @@
         <v>3592</v>
       </c>
       <c r="D1114" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1114" t="s">
         <v>2727</v>
@@ -33630,7 +33636,7 @@
         <v>3593</v>
       </c>
       <c r="D1115" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1115" t="s">
         <v>2799</v>
@@ -33647,7 +33653,7 @@
         <v>3594</v>
       </c>
       <c r="D1116" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1116" t="s">
         <v>2800</v>
@@ -33766,7 +33772,7 @@
         <v>2364</v>
       </c>
       <c r="D1123" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E1123" t="s">
         <v>2803</v>
@@ -33800,7 +33806,7 @@
         <v>3597</v>
       </c>
       <c r="D1125" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1125" t="s">
         <v>2804</v>
@@ -33834,7 +33840,7 @@
         <v>2717</v>
       </c>
       <c r="D1127" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1127" t="s">
         <v>2520</v>
@@ -33970,7 +33976,7 @@
         <v>2789</v>
       </c>
       <c r="D1135" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1135" t="s">
         <v>2810</v>
@@ -34004,7 +34010,7 @@
         <v>2870</v>
       </c>
       <c r="D1137" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1137" t="s">
         <v>2711</v>
@@ -34055,7 +34061,7 @@
         <v>3602</v>
       </c>
       <c r="D1140" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1140" t="s">
         <v>2813</v>
@@ -34072,7 +34078,7 @@
         <v>3528</v>
       </c>
       <c r="D1141" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1141" t="s">
         <v>3584</v>
@@ -34089,7 +34095,7 @@
         <v>2813</v>
       </c>
       <c r="D1142" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1142" t="s">
         <v>2814</v>
@@ -34157,7 +34163,7 @@
         <v>2360</v>
       </c>
       <c r="D1146" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1146" t="s">
         <v>2816</v>
@@ -34208,7 +34214,7 @@
         <v>3528</v>
       </c>
       <c r="D1149" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1149" t="s">
         <v>2816</v>
@@ -34259,7 +34265,7 @@
         <v>3587</v>
       </c>
       <c r="D1152" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1152" t="s">
         <v>2819</v>
@@ -34327,7 +34333,7 @@
         <v>2795</v>
       </c>
       <c r="D1156" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1156" t="s">
         <v>2787</v>
@@ -34344,7 +34350,7 @@
         <v>2787</v>
       </c>
       <c r="D1157" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1157" t="s">
         <v>2261</v>
@@ -34361,7 +34367,7 @@
         <v>2261</v>
       </c>
       <c r="D1158" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1158" t="s">
         <v>2798</v>
@@ -34378,7 +34384,7 @@
         <v>2798</v>
       </c>
       <c r="D1159" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1159" t="s">
         <v>2820</v>
@@ -34395,7 +34401,7 @@
         <v>2823</v>
       </c>
       <c r="D1160" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1160" t="s">
         <v>2258</v>
@@ -34412,7 +34418,7 @@
         <v>2258</v>
       </c>
       <c r="D1161" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1161" t="s">
         <v>2820</v>
@@ -34429,7 +34435,7 @@
         <v>3591</v>
       </c>
       <c r="D1162" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1162" t="s">
         <v>2364</v>
@@ -34463,7 +34469,7 @@
         <v>2258</v>
       </c>
       <c r="D1164" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1164" t="s">
         <v>2382</v>
@@ -34514,7 +34520,7 @@
         <v>2385</v>
       </c>
       <c r="D1167" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1167" t="s">
         <v>2822</v>
@@ -34565,7 +34571,7 @@
         <v>3606</v>
       </c>
       <c r="D1170" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1170" t="s">
         <v>2494</v>
@@ -34582,7 +34588,7 @@
         <v>2734</v>
       </c>
       <c r="D1171" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1171" t="s">
         <v>2778</v>
@@ -34599,7 +34605,7 @@
         <v>2829</v>
       </c>
       <c r="D1172" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1172" t="s">
         <v>2824</v>
@@ -34616,7 +34622,7 @@
         <v>3607</v>
       </c>
       <c r="D1173" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1173" t="s">
         <v>2825</v>
@@ -34735,7 +34741,7 @@
         <v>2270</v>
       </c>
       <c r="D1180" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1180" t="s">
         <v>2828</v>
@@ -34854,7 +34860,7 @@
         <v>2794</v>
       </c>
       <c r="D1187" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1187" t="s">
         <v>2734</v>
@@ -34888,7 +34894,7 @@
         <v>3611</v>
       </c>
       <c r="D1189" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1189" t="s">
         <v>2737</v>
@@ -34905,7 +34911,7 @@
         <v>2385</v>
       </c>
       <c r="D1190" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1190" t="s">
         <v>2831</v>
@@ -34956,7 +34962,7 @@
         <v>2833</v>
       </c>
       <c r="D1193" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1193" t="s">
         <v>2739</v>
@@ -34990,7 +34996,7 @@
         <v>2834</v>
       </c>
       <c r="D1195" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1195" t="s">
         <v>2260</v>
@@ -35007,7 +35013,7 @@
         <v>2389</v>
       </c>
       <c r="D1196" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1196" t="s">
         <v>2718</v>
@@ -35024,7 +35030,7 @@
         <v>2820</v>
       </c>
       <c r="D1197" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1197" t="s">
         <v>2836</v>
@@ -35075,7 +35081,7 @@
         <v>2837</v>
       </c>
       <c r="D1200" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1200" t="s">
         <v>2521</v>
@@ -35092,7 +35098,7 @@
         <v>2729</v>
       </c>
       <c r="D1201" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1201" t="s">
         <v>2680</v>
@@ -35109,7 +35115,7 @@
         <v>2216</v>
       </c>
       <c r="D1202" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1202" t="s">
         <v>2500</v>
@@ -35211,7 +35217,7 @@
         <v>2809</v>
       </c>
       <c r="D1208" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1208" t="s">
         <v>2818</v>
@@ -35228,7 +35234,7 @@
         <v>2727</v>
       </c>
       <c r="D1209" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1209" t="s">
         <v>2840</v>
@@ -35245,7 +35251,7 @@
         <v>2507</v>
       </c>
       <c r="D1210" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1210" t="s">
         <v>2841</v>
@@ -35296,7 +35302,7 @@
         <v>3462</v>
       </c>
       <c r="D1213" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1213" t="s">
         <v>2842</v>
@@ -35313,7 +35319,7 @@
         <v>3462</v>
       </c>
       <c r="D1214" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1214" t="s">
         <v>3462</v>
@@ -35330,7 +35336,7 @@
         <v>2500</v>
       </c>
       <c r="D1215" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1215" t="s">
         <v>2841</v>
@@ -35347,7 +35353,7 @@
         <v>2507</v>
       </c>
       <c r="D1216" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1216" t="s">
         <v>2255</v>
@@ -35398,7 +35404,7 @@
         <v>2520</v>
       </c>
       <c r="D1219" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1219" t="s">
         <v>2498</v>
@@ -35432,10 +35438,10 @@
         <v>2801</v>
       </c>
       <c r="D1221" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1221" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35449,7 +35455,7 @@
         <v>3528</v>
       </c>
       <c r="D1222" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1222" t="s">
         <v>2360</v>
@@ -35619,7 +35625,7 @@
         <v>2847</v>
       </c>
       <c r="D1232" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1232" t="s">
         <v>2753</v>
@@ -35636,7 +35642,7 @@
         <v>2435</v>
       </c>
       <c r="D1233" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1233" t="s">
         <v>2435</v>
@@ -35687,7 +35693,7 @@
         <v>2482</v>
       </c>
       <c r="D1236" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E1236" t="s">
         <v>2751</v>
@@ -35721,7 +35727,7 @@
         <v>2848</v>
       </c>
       <c r="D1238" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1238" t="s">
         <v>2444</v>
@@ -35738,7 +35744,7 @@
         <v>2444</v>
       </c>
       <c r="D1239" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1239" t="s">
         <v>2269</v>
@@ -35772,7 +35778,7 @@
         <v>3616</v>
       </c>
       <c r="D1241" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1241" t="s">
         <v>2757</v>
@@ -35840,7 +35846,7 @@
         <v>2289</v>
       </c>
       <c r="D1245" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1245" t="s">
         <v>2447</v>
@@ -35925,7 +35931,7 @@
         <v>2751</v>
       </c>
       <c r="D1250" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1250" t="s">
         <v>2459</v>
@@ -35976,7 +35982,7 @@
         <v>2424</v>
       </c>
       <c r="D1253" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1253" t="s">
         <v>2826</v>
@@ -36010,7 +36016,7 @@
         <v>2852</v>
       </c>
       <c r="D1255" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1255" t="s">
         <v>2853</v>
@@ -36027,7 +36033,7 @@
         <v>3463</v>
       </c>
       <c r="D1256" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1256" t="s">
         <v>2797</v>
@@ -36248,7 +36254,7 @@
         <v>3624</v>
       </c>
       <c r="D1269" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1269" t="s">
         <v>2858</v>
@@ -36265,7 +36271,7 @@
         <v>2858</v>
       </c>
       <c r="D1270" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1270" t="s">
         <v>2750</v>
@@ -36282,7 +36288,7 @@
         <v>3625</v>
       </c>
       <c r="D1271" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1271" t="s">
         <v>2489</v>
@@ -36367,7 +36373,7 @@
         <v>2270</v>
       </c>
       <c r="D1276" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1276" t="s">
         <v>2856</v>
@@ -36384,7 +36390,7 @@
         <v>2915</v>
       </c>
       <c r="D1277" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1277" t="s">
         <v>2340</v>
@@ -36571,7 +36577,7 @@
         <v>2775</v>
       </c>
       <c r="D1288" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1288" t="s">
         <v>2860</v>
@@ -36792,7 +36798,7 @@
         <v>2862</v>
       </c>
       <c r="D1301" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1301" t="s">
         <v>2275</v>
@@ -36809,7 +36815,7 @@
         <v>3627</v>
       </c>
       <c r="D1302" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1302" t="s">
         <v>2277</v>
@@ -36911,7 +36917,7 @@
         <v>2918</v>
       </c>
       <c r="D1308" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1308" t="s">
         <v>2755</v>
@@ -36962,7 +36968,7 @@
         <v>3634</v>
       </c>
       <c r="D1311" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1311" t="s">
         <v>2863</v>
@@ -36979,7 +36985,7 @@
         <v>3634</v>
       </c>
       <c r="D1312" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1312" t="s">
         <v>2483</v>
@@ -36996,7 +37002,7 @@
         <v>2916</v>
       </c>
       <c r="D1313" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1313" t="s">
         <v>2443</v>
@@ -37030,7 +37036,7 @@
         <v>2337</v>
       </c>
       <c r="D1315" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1315" t="s">
         <v>2335</v>
@@ -37132,7 +37138,7 @@
         <v>3638</v>
       </c>
       <c r="D1321" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1321" t="s">
         <v>2866</v>
@@ -37149,7 +37155,7 @@
         <v>3639</v>
       </c>
       <c r="D1322" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1322" t="s">
         <v>2867</v>
@@ -37183,7 +37189,7 @@
         <v>3640</v>
       </c>
       <c r="D1324" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1324" t="s">
         <v>2374</v>
@@ -37200,7 +37206,7 @@
         <v>3641</v>
       </c>
       <c r="D1325" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1325" t="s">
         <v>2723</v>
@@ -37217,7 +37223,7 @@
         <v>3642</v>
       </c>
       <c r="D1326" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1326" t="s">
         <v>2380</v>
@@ -37234,7 +37240,7 @@
         <v>3643</v>
       </c>
       <c r="D1327" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1327" t="s">
         <v>2262</v>
@@ -37285,7 +37291,7 @@
         <v>3644</v>
       </c>
       <c r="D1330" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1330" t="s">
         <v>2390</v>
@@ -37319,7 +37325,7 @@
         <v>3645</v>
       </c>
       <c r="D1332" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1332" t="s">
         <v>2494</v>
@@ -37336,7 +37342,7 @@
         <v>3596</v>
       </c>
       <c r="D1333" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1333" t="s">
         <v>2796</v>
@@ -37438,7 +37444,7 @@
         <v>2787</v>
       </c>
       <c r="D1339" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1339" t="s">
         <v>2380</v>
@@ -37458,7 +37464,7 @@
         <v>2724</v>
       </c>
       <c r="E1340" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37472,7 +37478,7 @@
         <v>3648</v>
       </c>
       <c r="D1341" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1341" t="s">
         <v>2734</v>
@@ -37523,7 +37529,7 @@
         <v>2333</v>
       </c>
       <c r="D1344" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1344" t="s">
         <v>2365</v>
@@ -37540,7 +37546,7 @@
         <v>3649</v>
       </c>
       <c r="D1345" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1345" t="s">
         <v>2404</v>
@@ -37557,7 +37563,7 @@
         <v>3644</v>
       </c>
       <c r="D1346" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1346" t="s">
         <v>2789</v>
@@ -37591,7 +37597,7 @@
         <v>2797</v>
       </c>
       <c r="D1348" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1348" t="s">
         <v>2811</v>
@@ -37608,7 +37614,7 @@
         <v>2810</v>
       </c>
       <c r="D1349" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1349" t="s">
         <v>2869</v>
@@ -37625,7 +37631,7 @@
         <v>3643</v>
       </c>
       <c r="D1350" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1350" t="s">
         <v>2870</v>
@@ -37744,7 +37750,7 @@
         <v>2755</v>
       </c>
       <c r="D1357" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1357" t="s">
         <v>2871</v>
@@ -37778,7 +37784,7 @@
         <v>2283</v>
       </c>
       <c r="D1359" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1359" t="s">
         <v>2873</v>
@@ -37982,7 +37988,7 @@
         <v>3637</v>
       </c>
       <c r="D1371" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1371" t="s">
         <v>2478</v>
@@ -38050,7 +38056,7 @@
         <v>3654</v>
       </c>
       <c r="D1375" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1375" t="s">
         <v>2880</v>
@@ -38084,7 +38090,7 @@
         <v>3656</v>
       </c>
       <c r="D1377" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1377" t="s">
         <v>2882</v>
@@ -38101,10 +38107,10 @@
         <v>3657</v>
       </c>
       <c r="D1378" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1378" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -38118,10 +38124,10 @@
         <v>2934</v>
       </c>
       <c r="D1379" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1379" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -38135,7 +38141,7 @@
         <v>3658</v>
       </c>
       <c r="D1380" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1380" t="s">
         <v>3655</v>
@@ -38186,10 +38192,10 @@
         <v>3661</v>
       </c>
       <c r="D1383" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1383" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38203,10 +38209,10 @@
         <v>3662</v>
       </c>
       <c r="D1384" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1384" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38220,10 +38226,10 @@
         <v>3663</v>
       </c>
       <c r="D1385" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1385" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38237,7 +38243,7 @@
         <v>3664</v>
       </c>
       <c r="D1386" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1386" t="s">
         <v>2891</v>
@@ -38254,10 +38260,10 @@
         <v>3665</v>
       </c>
       <c r="D1387" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1387" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38274,7 +38280,7 @@
         <v>2323</v>
       </c>
       <c r="E1388" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38288,10 +38294,10 @@
         <v>3667</v>
       </c>
       <c r="D1389" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1389" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38305,10 +38311,10 @@
         <v>3039</v>
       </c>
       <c r="D1390" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1390" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38322,7 +38328,7 @@
         <v>3665</v>
       </c>
       <c r="D1391" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1391" t="s">
         <v>2896</v>
@@ -38342,7 +38348,7 @@
         <v>2317</v>
       </c>
       <c r="E1392" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38359,7 +38365,7 @@
         <v>3486</v>
       </c>
       <c r="E1393" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38373,10 +38379,10 @@
         <v>2969</v>
       </c>
       <c r="D1394" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1394" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38393,7 +38399,7 @@
         <v>2751</v>
       </c>
       <c r="E1395" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38407,7 +38413,7 @@
         <v>3670</v>
       </c>
       <c r="D1396" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1396" t="s">
         <v>2879</v>
@@ -38444,7 +38450,7 @@
         <v>2294</v>
       </c>
       <c r="E1398" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38458,10 +38464,10 @@
         <v>3672</v>
       </c>
       <c r="D1399" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1399" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38492,7 +38498,7 @@
         <v>3673</v>
       </c>
       <c r="D1401" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1401" t="s">
         <v>2905</v>
@@ -38526,7 +38532,7 @@
         <v>2906</v>
       </c>
       <c r="D1403" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1403" t="s">
         <v>3620</v>
@@ -38594,10 +38600,10 @@
         <v>3675</v>
       </c>
       <c r="D1407" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1407" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38628,10 +38634,10 @@
         <v>3677</v>
       </c>
       <c r="D1409" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1409" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38696,7 +38702,7 @@
         <v>3680</v>
       </c>
       <c r="D1413" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1413" t="s">
         <v>2914</v>
@@ -38716,7 +38722,7 @@
         <v>2855</v>
       </c>
       <c r="E1414" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38733,7 +38739,7 @@
         <v>2852</v>
       </c>
       <c r="E1415" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38747,7 +38753,7 @@
         <v>2433</v>
       </c>
       <c r="D1416" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1416" t="s">
         <v>2916</v>
@@ -38767,7 +38773,7 @@
         <v>2435</v>
       </c>
       <c r="E1417" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38781,10 +38787,10 @@
         <v>2481</v>
       </c>
       <c r="D1418" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1418" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38801,7 +38807,7 @@
         <v>2488</v>
       </c>
       <c r="E1419" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38852,7 +38858,7 @@
         <v>2920</v>
       </c>
       <c r="E1422" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38866,7 +38872,7 @@
         <v>3637</v>
       </c>
       <c r="D1423" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1423" t="s">
         <v>2349</v>
@@ -38886,7 +38892,7 @@
         <v>2478</v>
       </c>
       <c r="E1424" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38937,7 +38943,7 @@
         <v>3513</v>
       </c>
       <c r="E1427" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -38968,7 +38974,7 @@
         <v>3684</v>
       </c>
       <c r="D1429" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1429" t="s">
         <v>2927</v>
@@ -38985,10 +38991,10 @@
         <v>3685</v>
       </c>
       <c r="D1430" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1430" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -39019,7 +39025,7 @@
         <v>2929</v>
       </c>
       <c r="D1432" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1432" t="s">
         <v>2295</v>
@@ -39104,7 +39110,7 @@
         <v>3688</v>
       </c>
       <c r="D1437" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1437" t="s">
         <v>2933</v>
@@ -39121,7 +39127,7 @@
         <v>3689</v>
       </c>
       <c r="D1438" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1438" t="s">
         <v>2934</v>
@@ -39155,7 +39161,7 @@
         <v>3691</v>
       </c>
       <c r="D1440" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1440" t="s">
         <v>2936</v>
@@ -39189,7 +39195,7 @@
         <v>3692</v>
       </c>
       <c r="D1442" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1442" t="s">
         <v>2938</v>
@@ -39206,7 +39212,7 @@
         <v>2938</v>
       </c>
       <c r="D1443" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1443" t="s">
         <v>2939</v>
@@ -39223,7 +39229,7 @@
         <v>2450</v>
       </c>
       <c r="D1444" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1444" t="s">
         <v>2913</v>
@@ -39240,7 +39246,7 @@
         <v>3473</v>
       </c>
       <c r="D1445" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1445" t="s">
         <v>2940</v>
@@ -39274,10 +39280,10 @@
         <v>3694</v>
       </c>
       <c r="D1447" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1447" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39291,10 +39297,10 @@
         <v>3695</v>
       </c>
       <c r="D1448" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1448" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39308,7 +39314,7 @@
         <v>3696</v>
       </c>
       <c r="D1449" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1449" t="s">
         <v>2295</v>
@@ -39328,7 +39334,7 @@
         <v>2943</v>
       </c>
       <c r="E1450" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39376,10 +39382,10 @@
         <v>3700</v>
       </c>
       <c r="D1453" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1453" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39393,10 +39399,10 @@
         <v>3701</v>
       </c>
       <c r="D1454" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1454" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39410,7 +39416,7 @@
         <v>3702</v>
       </c>
       <c r="D1455" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1455" t="s">
         <v>3702</v>
@@ -39444,7 +39450,7 @@
         <v>3704</v>
       </c>
       <c r="D1457" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1457" t="s">
         <v>2949</v>
@@ -39461,7 +39467,7 @@
         <v>3705</v>
       </c>
       <c r="D1458" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1458" t="s">
         <v>2949</v>
@@ -39495,10 +39501,10 @@
         <v>2970</v>
       </c>
       <c r="D1460" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1460" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39512,10 +39518,10 @@
         <v>3707</v>
       </c>
       <c r="D1461" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1461" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39529,7 +39535,7 @@
         <v>2322</v>
       </c>
       <c r="D1462" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E1462" t="s">
         <v>2952</v>
@@ -39546,7 +39552,7 @@
         <v>3708</v>
       </c>
       <c r="D1463" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1463" t="s">
         <v>2972</v>
@@ -39563,10 +39569,10 @@
         <v>3709</v>
       </c>
       <c r="D1464" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1464" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39580,10 +39586,10 @@
         <v>2951</v>
       </c>
       <c r="D1465" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1465" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39614,10 +39620,10 @@
         <v>3711</v>
       </c>
       <c r="D1467" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1467" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39631,10 +39637,10 @@
         <v>3712</v>
       </c>
       <c r="D1468" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1468" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39651,7 +39657,7 @@
         <v>2958</v>
       </c>
       <c r="E1469" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39682,7 +39688,7 @@
         <v>3715</v>
       </c>
       <c r="D1471" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1471" t="s">
         <v>2949</v>
@@ -39699,10 +39705,10 @@
         <v>3486</v>
       </c>
       <c r="D1472" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1472" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39719,7 +39725,7 @@
         <v>2960</v>
       </c>
       <c r="E1473" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39733,10 +39739,10 @@
         <v>2949</v>
       </c>
       <c r="D1474" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1474" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39750,10 +39756,10 @@
         <v>2315</v>
       </c>
       <c r="D1475" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1475" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39767,7 +39773,7 @@
         <v>3716</v>
       </c>
       <c r="D1476" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1476" t="s">
         <v>2964</v>
@@ -39784,7 +39790,7 @@
         <v>3705</v>
       </c>
       <c r="D1477" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1477" t="s">
         <v>2965</v>
@@ -39835,7 +39841,7 @@
         <v>3717</v>
       </c>
       <c r="D1480" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1480" t="s">
         <v>2968</v>
@@ -39869,7 +39875,7 @@
         <v>3718</v>
       </c>
       <c r="D1482" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1482" t="s">
         <v>2970</v>
@@ -39886,7 +39892,7 @@
         <v>2970</v>
       </c>
       <c r="D1483" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1483" t="s">
         <v>2970</v>
@@ -39920,7 +39926,7 @@
         <v>2954</v>
       </c>
       <c r="D1485" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1485" t="s">
         <v>2321</v>
@@ -39937,7 +39943,7 @@
         <v>3720</v>
       </c>
       <c r="D1486" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1486" t="s">
         <v>2971</v>
@@ -39954,7 +39960,7 @@
         <v>3721</v>
       </c>
       <c r="D1487" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1487" t="s">
         <v>2953</v>
@@ -39971,10 +39977,10 @@
         <v>3711</v>
       </c>
       <c r="D1488" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1488" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -39988,10 +39994,10 @@
         <v>3722</v>
       </c>
       <c r="D1489" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1489" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -40008,7 +40014,7 @@
         <v>3737</v>
       </c>
       <c r="E1490" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -40056,7 +40062,7 @@
         <v>3724</v>
       </c>
       <c r="D1493" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1493" t="s">
         <v>2998</v>
@@ -40090,7 +40096,7 @@
         <v>3726</v>
       </c>
       <c r="D1495" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1495" t="s">
         <v>3038</v>
@@ -40107,7 +40113,7 @@
         <v>3727</v>
       </c>
       <c r="D1496" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1496" t="s">
         <v>2980</v>
@@ -40127,7 +40133,7 @@
         <v>2979</v>
       </c>
       <c r="E1497" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -40141,10 +40147,10 @@
         <v>3728</v>
       </c>
       <c r="D1498" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1498" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40175,10 +40181,10 @@
         <v>3730</v>
       </c>
       <c r="D1500" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1500" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40192,7 +40198,7 @@
         <v>3055</v>
       </c>
       <c r="D1501" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1501" t="s">
         <v>2985</v>
@@ -40212,7 +40218,7 @@
         <v>3729</v>
       </c>
       <c r="E1502" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40229,7 +40235,7 @@
         <v>2997</v>
       </c>
       <c r="E1503" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40243,7 +40249,7 @@
         <v>3733</v>
       </c>
       <c r="D1504" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1504" t="s">
         <v>3038</v>
@@ -40260,7 +40266,7 @@
         <v>3734</v>
       </c>
       <c r="D1505" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1505" t="s">
         <v>2988</v>
@@ -40297,7 +40303,7 @@
         <v>2989</v>
       </c>
       <c r="E1507" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40314,7 +40320,7 @@
         <v>2898</v>
       </c>
       <c r="E1508" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40328,10 +40334,10 @@
         <v>3737</v>
       </c>
       <c r="D1509" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1509" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40345,10 +40351,10 @@
         <v>2992</v>
       </c>
       <c r="D1510" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1510" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40362,7 +40368,7 @@
         <v>3738</v>
       </c>
       <c r="D1511" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1511" t="s">
         <v>2993</v>
@@ -40382,7 +40388,7 @@
         <v>2993</v>
       </c>
       <c r="E1512" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40396,10 +40402,10 @@
         <v>2976</v>
       </c>
       <c r="D1513" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1513" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40413,10 +40419,10 @@
         <v>3739</v>
       </c>
       <c r="D1514" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1514" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40430,7 +40436,7 @@
         <v>3740</v>
       </c>
       <c r="D1515" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1515" t="s">
         <v>2974</v>
@@ -40464,10 +40470,10 @@
         <v>2997</v>
       </c>
       <c r="D1517" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1517" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40481,10 +40487,10 @@
         <v>2998</v>
       </c>
       <c r="D1518" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1518" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40498,7 +40504,7 @@
         <v>3742</v>
       </c>
       <c r="D1519" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1519" t="s">
         <v>2993</v>
@@ -40515,10 +40521,10 @@
         <v>3710</v>
       </c>
       <c r="D1520" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1520" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40532,10 +40538,10 @@
         <v>3743</v>
       </c>
       <c r="D1521" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1521" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40549,10 +40555,10 @@
         <v>2976</v>
       </c>
       <c r="D1522" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1522" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40566,7 +40572,7 @@
         <v>3744</v>
       </c>
       <c r="D1523" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1523" t="s">
         <v>3004</v>
@@ -40620,7 +40626,7 @@
         <v>3004</v>
       </c>
       <c r="E1526" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40651,10 +40657,10 @@
         <v>3749</v>
       </c>
       <c r="D1528" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1528" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40685,7 +40691,7 @@
         <v>3751</v>
       </c>
       <c r="D1530" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1530" t="s">
         <v>3045</v>
@@ -40702,7 +40708,7 @@
         <v>3752</v>
       </c>
       <c r="D1531" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1531" t="s">
         <v>3010</v>
@@ -40736,10 +40742,10 @@
         <v>3010</v>
       </c>
       <c r="D1533" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1533" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40753,10 +40759,10 @@
         <v>3754</v>
       </c>
       <c r="D1534" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1534" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40770,10 +40776,10 @@
         <v>3755</v>
       </c>
       <c r="D1535" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1535" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40821,7 +40827,7 @@
         <v>3757</v>
       </c>
       <c r="D1538" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1538" t="s">
         <v>3015</v>
@@ -40838,7 +40844,7 @@
         <v>3758</v>
       </c>
       <c r="D1539" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1539" t="s">
         <v>3016</v>
@@ -40855,10 +40861,10 @@
         <v>3759</v>
       </c>
       <c r="D1540" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1540" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40872,7 +40878,7 @@
         <v>3760</v>
       </c>
       <c r="D1541" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1541" t="s">
         <v>3018</v>
@@ -40889,7 +40895,7 @@
         <v>3761</v>
       </c>
       <c r="D1542" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1542" t="s">
         <v>3019</v>
@@ -40923,7 +40929,7 @@
         <v>3763</v>
       </c>
       <c r="D1544" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1544" t="s">
         <v>3021</v>
@@ -40940,10 +40946,10 @@
         <v>3764</v>
       </c>
       <c r="D1545" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1545" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40974,7 +40980,7 @@
         <v>3766</v>
       </c>
       <c r="D1547" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1547" t="s">
         <v>3773</v>
@@ -40991,10 +40997,10 @@
         <v>3767</v>
       </c>
       <c r="D1548" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1548" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -41011,7 +41017,7 @@
         <v>3051</v>
       </c>
       <c r="E1549" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -41025,10 +41031,10 @@
         <v>3769</v>
       </c>
       <c r="D1550" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1550" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41042,7 +41048,7 @@
         <v>3770</v>
       </c>
       <c r="D1551" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1551" t="s">
         <v>3027</v>
@@ -41059,10 +41065,10 @@
         <v>3770</v>
       </c>
       <c r="D1552" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1552" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -41076,10 +41082,10 @@
         <v>3028</v>
       </c>
       <c r="D1553" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1553" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -41093,7 +41099,7 @@
         <v>3771</v>
       </c>
       <c r="D1554" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1554" t="s">
         <v>3059</v>
@@ -41113,7 +41119,7 @@
         <v>3726</v>
       </c>
       <c r="E1555" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41127,7 +41133,7 @@
         <v>3773</v>
       </c>
       <c r="D1556" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1556" t="s">
         <v>3032</v>
@@ -41144,7 +41150,7 @@
         <v>3032</v>
       </c>
       <c r="D1557" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1557" t="s">
         <v>3017</v>
@@ -41164,7 +41170,7 @@
         <v>3038</v>
       </c>
       <c r="E1558" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41178,7 +41184,7 @@
         <v>3775</v>
       </c>
       <c r="D1559" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1559" t="s">
         <v>3034</v>
@@ -41195,10 +41201,10 @@
         <v>3776</v>
       </c>
       <c r="D1560" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1560" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41212,10 +41218,10 @@
         <v>3069</v>
       </c>
       <c r="D1561" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1561" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41229,10 +41235,10 @@
         <v>3777</v>
       </c>
       <c r="D1562" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1562" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41246,7 +41252,7 @@
         <v>3037</v>
       </c>
       <c r="D1563" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1563" t="s">
         <v>3022</v>
@@ -41263,7 +41269,7 @@
         <v>3778</v>
       </c>
       <c r="D1564" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1564" t="s">
         <v>2979</v>
@@ -41280,10 +41286,10 @@
         <v>2981</v>
       </c>
       <c r="D1565" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1565" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41297,7 +41303,7 @@
         <v>3748</v>
       </c>
       <c r="D1566" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1566" t="s">
         <v>3040</v>
@@ -41314,7 +41320,7 @@
         <v>3779</v>
       </c>
       <c r="D1567" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1567" t="s">
         <v>3041</v>
@@ -41331,7 +41337,7 @@
         <v>3780</v>
       </c>
       <c r="D1568" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1568" t="s">
         <v>3042</v>
@@ -41348,7 +41354,7 @@
         <v>3781</v>
       </c>
       <c r="D1569" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1569" t="s">
         <v>3041</v>
@@ -41399,7 +41405,7 @@
         <v>3784</v>
       </c>
       <c r="D1572" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1572" t="s">
         <v>3009</v>
@@ -41416,7 +41422,7 @@
         <v>3046</v>
       </c>
       <c r="D1573" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1573" t="s">
         <v>3047</v>
@@ -41450,10 +41456,10 @@
         <v>3767</v>
       </c>
       <c r="D1575" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1575" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41467,7 +41473,7 @@
         <v>3785</v>
       </c>
       <c r="D1576" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1576" t="s">
         <v>3048</v>
@@ -41518,7 +41524,7 @@
         <v>3788</v>
       </c>
       <c r="D1579" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1579" t="s">
         <v>3051</v>
@@ -41535,10 +41541,10 @@
         <v>3789</v>
       </c>
       <c r="D1580" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1580" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41552,7 +41558,7 @@
         <v>3790</v>
       </c>
       <c r="D1581" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1581" t="s">
         <v>3053</v>
@@ -41569,7 +41575,7 @@
         <v>3053</v>
       </c>
       <c r="D1582" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1582" t="s">
         <v>3016</v>
@@ -41586,10 +41592,10 @@
         <v>3732</v>
       </c>
       <c r="D1583" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1583" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41606,7 +41612,7 @@
         <v>3730</v>
       </c>
       <c r="E1584" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41671,10 +41677,10 @@
         <v>3795</v>
       </c>
       <c r="D1588" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1588" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41688,7 +41694,7 @@
         <v>3796</v>
       </c>
       <c r="D1589" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1589" t="s">
         <v>3783</v>
@@ -41912,7 +41918,7 @@
         <v>3059</v>
       </c>
       <c r="E1602" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -42099,7 +42105,7 @@
         <v>3059</v>
       </c>
       <c r="E1613" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42269,7 +42275,7 @@
         <v>3059</v>
       </c>
       <c r="E1623" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42283,10 +42289,10 @@
         <v>3816</v>
       </c>
       <c r="D1624" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1624" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42300,10 +42306,10 @@
         <v>3817</v>
       </c>
       <c r="D1625" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1625" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42317,10 +42323,10 @@
         <v>3818</v>
       </c>
       <c r="D1626" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1626" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42334,7 +42340,7 @@
         <v>3819</v>
       </c>
       <c r="D1627" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1627" t="s">
         <v>3072</v>
@@ -42351,10 +42357,10 @@
         <v>3820</v>
       </c>
       <c r="D1628" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1628" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42368,10 +42374,10 @@
         <v>3821</v>
       </c>
       <c r="D1629" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1629" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42385,7 +42391,7 @@
         <v>3822</v>
       </c>
       <c r="D1630" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1630" t="s">
         <v>3068</v>
@@ -42402,7 +42408,7 @@
         <v>3823</v>
       </c>
       <c r="D1631" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1631" t="s">
         <v>3068</v>
@@ -42419,7 +42425,7 @@
         <v>3824</v>
       </c>
       <c r="D1632" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1632" t="s">
         <v>3067</v>
@@ -42436,7 +42442,7 @@
         <v>3825</v>
       </c>
       <c r="D1633" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1633" t="s">
         <v>3067</v>
@@ -42453,7 +42459,7 @@
         <v>3825</v>
       </c>
       <c r="D1634" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1634" t="s">
         <v>3066</v>
@@ -42470,7 +42476,7 @@
         <v>3826</v>
       </c>
       <c r="D1635" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1635" t="s">
         <v>3074</v>
@@ -42487,7 +42493,7 @@
         <v>3809</v>
       </c>
       <c r="D1636" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1636" t="s">
         <v>3074</v>
@@ -42609,7 +42615,7 @@
         <v>3074</v>
       </c>
       <c r="E1643" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42694,7 +42700,7 @@
         <v>3074</v>
       </c>
       <c r="E1648" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -43014,7 +43020,7 @@
         <v>3849</v>
       </c>
       <c r="D1667" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1667" t="s">
         <v>3074</v>
@@ -43031,7 +43037,7 @@
         <v>3074</v>
       </c>
       <c r="D1668" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1668" t="s">
         <v>3074</v>
@@ -43048,7 +43054,7 @@
         <v>3074</v>
       </c>
       <c r="D1669" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1669" t="s">
         <v>3074</v>
@@ -43068,7 +43074,7 @@
         <v>3803</v>
       </c>
       <c r="E1670" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -43099,10 +43105,10 @@
         <v>3851</v>
       </c>
       <c r="D1672" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1672" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -43116,10 +43122,10 @@
         <v>3852</v>
       </c>
       <c r="D1673" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1673" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -43133,10 +43139,10 @@
         <v>3326</v>
       </c>
       <c r="D1674" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1674" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -43150,7 +43156,7 @@
         <v>3853</v>
       </c>
       <c r="D1675" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1675" t="s">
         <v>4012</v>
@@ -43167,10 +43173,10 @@
         <v>3854</v>
       </c>
       <c r="D1676" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1676" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43184,10 +43190,10 @@
         <v>3855</v>
       </c>
       <c r="D1677" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1677" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43201,10 +43207,10 @@
         <v>3856</v>
       </c>
       <c r="D1678" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1678" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43218,10 +43224,10 @@
         <v>3857</v>
       </c>
       <c r="D1679" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1679" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43235,10 +43241,10 @@
         <v>3858</v>
       </c>
       <c r="D1680" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1680" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43252,7 +43258,7 @@
         <v>3859</v>
       </c>
       <c r="D1681" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1681" t="s">
         <v>3089</v>
@@ -43354,7 +43360,7 @@
         <v>3090</v>
       </c>
       <c r="D1687" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1687" t="s">
         <v>3090</v>
@@ -43371,10 +43377,10 @@
         <v>3090</v>
       </c>
       <c r="D1688" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1688" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43388,7 +43394,7 @@
         <v>3090</v>
       </c>
       <c r="D1689" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1689" t="s">
         <v>3090</v>
@@ -43405,7 +43411,7 @@
         <v>3090</v>
       </c>
       <c r="D1690" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1690" t="s">
         <v>3090</v>
@@ -43456,7 +43462,7 @@
         <v>3090</v>
       </c>
       <c r="D1693" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1693" t="s">
         <v>3090</v>
@@ -43473,10 +43479,10 @@
         <v>3090</v>
       </c>
       <c r="D1694" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1694" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43490,7 +43496,7 @@
         <v>3090</v>
       </c>
       <c r="D1695" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1695" t="s">
         <v>3090</v>
@@ -43507,7 +43513,7 @@
         <v>3090</v>
       </c>
       <c r="D1696" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1696" t="s">
         <v>3090</v>
@@ -43680,7 +43686,7 @@
         <v>3090</v>
       </c>
       <c r="E1706" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43731,7 +43737,7 @@
         <v>3090</v>
       </c>
       <c r="E1709" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43813,10 +43819,10 @@
         <v>3876</v>
       </c>
       <c r="D1714" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1714" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43830,10 +43836,10 @@
         <v>3877</v>
       </c>
       <c r="D1715" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1715" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43847,10 +43853,10 @@
         <v>3878</v>
       </c>
       <c r="D1716" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1716" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43867,7 +43873,7 @@
         <v>3109</v>
       </c>
       <c r="E1717" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43881,7 +43887,7 @@
         <v>3880</v>
       </c>
       <c r="D1718" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1718" t="s">
         <v>3100</v>
@@ -43898,7 +43904,7 @@
         <v>3881</v>
       </c>
       <c r="D1719" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1719" t="s">
         <v>3099</v>
@@ -43915,10 +43921,10 @@
         <v>3882</v>
       </c>
       <c r="D1720" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1720" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43932,7 +43938,7 @@
         <v>3883</v>
       </c>
       <c r="D1721" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1721" t="s">
         <v>3102</v>
@@ -43952,7 +43958,7 @@
         <v>4081</v>
       </c>
       <c r="E1722" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -43966,7 +43972,7 @@
         <v>3885</v>
       </c>
       <c r="D1723" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1723" t="s">
         <v>3104</v>
@@ -43983,10 +43989,10 @@
         <v>3886</v>
       </c>
       <c r="D1724" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1724" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44000,7 +44006,7 @@
         <v>3887</v>
       </c>
       <c r="D1725" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1725" t="s">
         <v>3106</v>
@@ -44034,7 +44040,7 @@
         <v>3889</v>
       </c>
       <c r="D1727" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1727" t="s">
         <v>3108</v>
@@ -44136,7 +44142,7 @@
         <v>3893</v>
       </c>
       <c r="D1733" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1733" t="s">
         <v>3109</v>
@@ -44204,7 +44210,7 @@
         <v>3896</v>
       </c>
       <c r="D1737" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1737" t="s">
         <v>3110</v>
@@ -44221,7 +44227,7 @@
         <v>3897</v>
       </c>
       <c r="D1738" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1738" t="s">
         <v>3111</v>
@@ -44255,7 +44261,7 @@
         <v>3114</v>
       </c>
       <c r="D1740" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1740" t="s">
         <v>3888</v>
@@ -44275,7 +44281,7 @@
         <v>3113</v>
       </c>
       <c r="E1741" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44340,10 +44346,10 @@
         <v>3116</v>
       </c>
       <c r="D1745" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1745" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44357,10 +44363,10 @@
         <v>3900</v>
       </c>
       <c r="D1746" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1746" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44510,7 +44516,7 @@
         <v>3903</v>
       </c>
       <c r="D1755" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1755" t="s">
         <v>3127</v>
@@ -44561,7 +44567,7 @@
         <v>3906</v>
       </c>
       <c r="D1758" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1758" t="s">
         <v>3130</v>
@@ -44612,7 +44618,7 @@
         <v>3908</v>
       </c>
       <c r="D1761" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1761" t="s">
         <v>3133</v>
@@ -44646,7 +44652,7 @@
         <v>3910</v>
       </c>
       <c r="D1763" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1763" t="s">
         <v>3135</v>
@@ -44663,7 +44669,7 @@
         <v>3911</v>
       </c>
       <c r="D1764" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1764" t="s">
         <v>3136</v>
@@ -44731,7 +44737,7 @@
         <v>3915</v>
       </c>
       <c r="D1768" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1768" t="s">
         <v>3140</v>
@@ -44748,7 +44754,7 @@
         <v>3916</v>
       </c>
       <c r="D1769" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1769" t="s">
         <v>3141</v>
@@ -44768,7 +44774,7 @@
         <v>3141</v>
       </c>
       <c r="E1770" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44782,7 +44788,7 @@
         <v>3918</v>
       </c>
       <c r="D1771" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1771" t="s">
         <v>3143</v>
@@ -44799,7 +44805,7 @@
         <v>3919</v>
       </c>
       <c r="D1772" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1772" t="s">
         <v>3144</v>
@@ -44816,7 +44822,7 @@
         <v>3920</v>
       </c>
       <c r="D1773" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1773" t="s">
         <v>3145</v>
@@ -44833,7 +44839,7 @@
         <v>3921</v>
       </c>
       <c r="D1774" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1774" t="s">
         <v>3146</v>
@@ -44901,7 +44907,7 @@
         <v>3925</v>
       </c>
       <c r="D1778" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1778" t="s">
         <v>3150</v>
@@ -44918,10 +44924,10 @@
         <v>3926</v>
       </c>
       <c r="D1779" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1779" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44935,7 +44941,7 @@
         <v>3927</v>
       </c>
       <c r="D1780" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1780" t="s">
         <v>3144</v>
@@ -44952,7 +44958,7 @@
         <v>3928</v>
       </c>
       <c r="D1781" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1781" t="s">
         <v>3151</v>
@@ -44986,7 +44992,7 @@
         <v>3930</v>
       </c>
       <c r="D1783" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1783" t="s">
         <v>3153</v>
@@ -45122,7 +45128,7 @@
         <v>3154</v>
       </c>
       <c r="D1791" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1791" t="s">
         <v>3154</v>
@@ -45190,10 +45196,10 @@
         <v>3154</v>
       </c>
       <c r="D1795" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1795" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45207,10 +45213,10 @@
         <v>3154</v>
       </c>
       <c r="D1796" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1796" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45224,10 +45230,10 @@
         <v>3154</v>
       </c>
       <c r="D1797" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1797" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45241,10 +45247,10 @@
         <v>3154</v>
       </c>
       <c r="D1798" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1798" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45258,7 +45264,7 @@
         <v>3934</v>
       </c>
       <c r="D1799" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1799" t="s">
         <v>3156</v>
@@ -45275,10 +45281,10 @@
         <v>3935</v>
       </c>
       <c r="D1800" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1800" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45292,7 +45298,7 @@
         <v>3154</v>
       </c>
       <c r="D1801" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1801" t="s">
         <v>3212</v>
@@ -45309,7 +45315,7 @@
         <v>3936</v>
       </c>
       <c r="D1802" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1802" t="s">
         <v>3159</v>
@@ -45326,7 +45332,7 @@
         <v>3202</v>
       </c>
       <c r="D1803" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1803" t="s">
         <v>3160</v>
@@ -45360,7 +45366,7 @@
         <v>3938</v>
       </c>
       <c r="D1805" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1805" t="s">
         <v>3162</v>
@@ -45394,7 +45400,7 @@
         <v>3940</v>
       </c>
       <c r="D1807" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1807" t="s">
         <v>3164</v>
@@ -45428,7 +45434,7 @@
         <v>3942</v>
       </c>
       <c r="D1809" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1809" t="s">
         <v>3166</v>
@@ -45445,7 +45451,7 @@
         <v>3942</v>
       </c>
       <c r="D1810" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1810" t="s">
         <v>3167</v>
@@ -45462,7 +45468,7 @@
         <v>3943</v>
       </c>
       <c r="D1811" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1811" t="s">
         <v>3168</v>
@@ -45479,7 +45485,7 @@
         <v>3944</v>
       </c>
       <c r="D1812" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1812" t="s">
         <v>3169</v>
@@ -45496,7 +45502,7 @@
         <v>3945</v>
       </c>
       <c r="D1813" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1813" t="s">
         <v>3170</v>
@@ -45513,7 +45519,7 @@
         <v>3946</v>
       </c>
       <c r="D1814" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1814" t="s">
         <v>3171</v>
@@ -45530,7 +45536,7 @@
         <v>3946</v>
       </c>
       <c r="D1815" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1815" t="s">
         <v>3172</v>
@@ -45547,7 +45553,7 @@
         <v>3947</v>
       </c>
       <c r="D1816" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1816" t="s">
         <v>3173</v>
@@ -45564,7 +45570,7 @@
         <v>3948</v>
       </c>
       <c r="D1817" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1817" t="s">
         <v>3174</v>
@@ -45598,7 +45604,7 @@
         <v>3172</v>
       </c>
       <c r="D1819" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1819" t="s">
         <v>3176</v>
@@ -45615,7 +45621,7 @@
         <v>3950</v>
       </c>
       <c r="D1820" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1820" t="s">
         <v>3177</v>
@@ -45666,7 +45672,7 @@
         <v>3953</v>
       </c>
       <c r="D1823" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1823" t="s">
         <v>3180</v>
@@ -45686,7 +45692,7 @@
         <v>3180</v>
       </c>
       <c r="E1824" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45703,7 +45709,7 @@
         <v>3170</v>
       </c>
       <c r="E1825" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45717,10 +45723,10 @@
         <v>3956</v>
       </c>
       <c r="D1826" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1826" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45734,7 +45740,7 @@
         <v>3957</v>
       </c>
       <c r="D1827" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1827" t="s">
         <v>3184</v>
@@ -45751,7 +45757,7 @@
         <v>3958</v>
       </c>
       <c r="D1828" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1828" t="s">
         <v>3185</v>
@@ -45768,7 +45774,7 @@
         <v>3900</v>
       </c>
       <c r="D1829" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1829" t="s">
         <v>3186</v>
@@ -45802,7 +45808,7 @@
         <v>3960</v>
       </c>
       <c r="D1831" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1831" t="s">
         <v>3188</v>
@@ -45836,7 +45842,7 @@
         <v>3962</v>
       </c>
       <c r="D1833" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1833" t="s">
         <v>3960</v>
@@ -45870,7 +45876,7 @@
         <v>3964</v>
       </c>
       <c r="D1835" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1835" t="s">
         <v>3965</v>
@@ -45887,7 +45893,7 @@
         <v>3965</v>
       </c>
       <c r="D1836" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1836" t="s">
         <v>3193</v>
@@ -45904,7 +45910,7 @@
         <v>3966</v>
       </c>
       <c r="D1837" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1837" t="s">
         <v>3194</v>
@@ -45921,10 +45927,10 @@
         <v>3967</v>
       </c>
       <c r="D1838" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1838" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45938,7 +45944,7 @@
         <v>3968</v>
       </c>
       <c r="D1839" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1839" t="s">
         <v>3196</v>
@@ -45955,7 +45961,7 @@
         <v>3969</v>
       </c>
       <c r="D1840" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1840" t="s">
         <v>3197</v>
@@ -45972,7 +45978,7 @@
         <v>3970</v>
       </c>
       <c r="D1841" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1841" t="s">
         <v>3198</v>
@@ -46006,7 +46012,7 @@
         <v>3968</v>
       </c>
       <c r="D1843" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1843" t="s">
         <v>3200</v>
@@ -46023,10 +46029,10 @@
         <v>3971</v>
       </c>
       <c r="D1844" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1844" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -46057,7 +46063,7 @@
         <v>3165</v>
       </c>
       <c r="D1846" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1846" t="s">
         <v>3165</v>
@@ -46074,7 +46080,7 @@
         <v>3203</v>
       </c>
       <c r="D1847" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1847" t="s">
         <v>3204</v>
@@ -46094,7 +46100,7 @@
         <v>3205</v>
       </c>
       <c r="E1848" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -46108,7 +46114,7 @@
         <v>3974</v>
       </c>
       <c r="D1849" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1849" t="s">
         <v>3206</v>
@@ -46128,7 +46134,7 @@
         <v>3206</v>
       </c>
       <c r="E1850" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46142,7 +46148,7 @@
         <v>3976</v>
       </c>
       <c r="D1851" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1851" t="s">
         <v>3208</v>
@@ -46176,7 +46182,7 @@
         <v>3162</v>
       </c>
       <c r="D1853" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1853" t="s">
         <v>3210</v>
@@ -46196,7 +46202,7 @@
         <v>4078</v>
       </c>
       <c r="E1854" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46210,7 +46216,7 @@
         <v>3979</v>
       </c>
       <c r="D1855" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1855" t="s">
         <v>3212</v>
@@ -46244,7 +46250,7 @@
         <v>3980</v>
       </c>
       <c r="D1857" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1857" t="s">
         <v>3214</v>
@@ -46278,7 +46284,7 @@
         <v>3982</v>
       </c>
       <c r="D1859" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1859" t="s">
         <v>3216</v>
@@ -46295,7 +46301,7 @@
         <v>3983</v>
       </c>
       <c r="D1860" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1860" t="s">
         <v>3217</v>
@@ -46312,10 +46318,10 @@
         <v>3217</v>
       </c>
       <c r="D1861" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1861" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46349,7 +46355,7 @@
         <v>4033</v>
       </c>
       <c r="E1863" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46363,7 +46369,7 @@
         <v>3984</v>
       </c>
       <c r="D1864" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1864" t="s">
         <v>3220</v>
@@ -46380,7 +46386,7 @@
         <v>3985</v>
       </c>
       <c r="D1865" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1865" t="s">
         <v>3221</v>
@@ -46417,7 +46423,7 @@
         <v>4006</v>
       </c>
       <c r="E1867" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46431,10 +46437,10 @@
         <v>3223</v>
       </c>
       <c r="D1868" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1868" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46485,7 +46491,7 @@
         <v>3226</v>
       </c>
       <c r="E1871" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46499,7 +46505,7 @@
         <v>3991</v>
       </c>
       <c r="D1872" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1872" t="s">
         <v>3228</v>
@@ -46519,7 +46525,7 @@
         <v>3228</v>
       </c>
       <c r="E1873" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46533,7 +46539,7 @@
         <v>3993</v>
       </c>
       <c r="D1874" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1874" t="s">
         <v>3230</v>
@@ -46567,10 +46573,10 @@
         <v>3995</v>
       </c>
       <c r="D1876" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1876" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46584,10 +46590,10 @@
         <v>3996</v>
       </c>
       <c r="D1877" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1877" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46652,7 +46658,7 @@
         <v>3847</v>
       </c>
       <c r="D1881" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1881" t="s">
         <v>3847</v>
@@ -46737,7 +46743,7 @@
         <v>4002</v>
       </c>
       <c r="D1886" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1886" t="s">
         <v>3836</v>
@@ -46771,10 +46777,10 @@
         <v>4004</v>
       </c>
       <c r="D1888" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1888" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46788,7 +46794,7 @@
         <v>4005</v>
       </c>
       <c r="D1889" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1889" t="s">
         <v>3244</v>
@@ -46839,7 +46845,7 @@
         <v>3246</v>
       </c>
       <c r="D1892" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1892" t="s">
         <v>3247</v>
@@ -46856,7 +46862,7 @@
         <v>4008</v>
       </c>
       <c r="D1893" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1893" t="s">
         <v>3248</v>
@@ -46873,7 +46879,7 @@
         <v>4009</v>
       </c>
       <c r="D1894" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1894" t="s">
         <v>3249</v>
@@ -46890,7 +46896,7 @@
         <v>4010</v>
       </c>
       <c r="D1895" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1895" t="s">
         <v>3250</v>
@@ -46958,7 +46964,7 @@
         <v>4014</v>
       </c>
       <c r="D1899" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1899" t="s">
         <v>3254</v>
@@ -46992,7 +46998,7 @@
         <v>4015</v>
       </c>
       <c r="D1901" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1901" t="s">
         <v>3256</v>
@@ -47026,7 +47032,7 @@
         <v>4016</v>
       </c>
       <c r="D1903" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1903" t="s">
         <v>3258</v>
@@ -47060,7 +47066,7 @@
         <v>3260</v>
       </c>
       <c r="D1905" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1905" t="s">
         <v>3260</v>
@@ -47094,7 +47100,7 @@
         <v>4018</v>
       </c>
       <c r="D1907" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1907" t="s">
         <v>3262</v>
@@ -47111,7 +47117,7 @@
         <v>4009</v>
       </c>
       <c r="D1908" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1908" t="s">
         <v>3263</v>
@@ -47128,7 +47134,7 @@
         <v>3090</v>
       </c>
       <c r="D1909" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1909" t="s">
         <v>3264</v>
@@ -47145,7 +47151,7 @@
         <v>3264</v>
       </c>
       <c r="D1910" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1910" t="s">
         <v>3265</v>
@@ -47196,7 +47202,7 @@
         <v>4019</v>
       </c>
       <c r="D1913" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1913" t="s">
         <v>3268</v>
@@ -47213,10 +47219,10 @@
         <v>4020</v>
       </c>
       <c r="D1914" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1914" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47264,7 +47270,7 @@
         <v>3271</v>
       </c>
       <c r="D1917" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1917" t="s">
         <v>3272</v>
@@ -47298,10 +47304,10 @@
         <v>4023</v>
       </c>
       <c r="D1919" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1919" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47332,7 +47338,7 @@
         <v>4025</v>
       </c>
       <c r="D1921" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1921" t="s">
         <v>3276</v>
@@ -47349,7 +47355,7 @@
         <v>4026</v>
       </c>
       <c r="D1922" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1922" t="s">
         <v>3277</v>
@@ -47366,7 +47372,7 @@
         <v>3278</v>
       </c>
       <c r="D1923" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1923" t="s">
         <v>3278</v>
@@ -47383,7 +47389,7 @@
         <v>4027</v>
       </c>
       <c r="D1924" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1924" t="s">
         <v>3279</v>
@@ -47451,7 +47457,7 @@
         <v>3253</v>
       </c>
       <c r="D1928" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1928" t="s">
         <v>3283</v>
@@ -47502,7 +47508,7 @@
         <v>4029</v>
       </c>
       <c r="D1931" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1931" t="s">
         <v>3286</v>
@@ -47519,7 +47525,7 @@
         <v>3297</v>
       </c>
       <c r="D1932" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1932" t="s">
         <v>3287</v>
@@ -47536,7 +47542,7 @@
         <v>3288</v>
       </c>
       <c r="D1933" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1933" t="s">
         <v>3288</v>
@@ -47553,7 +47559,7 @@
         <v>4030</v>
       </c>
       <c r="D1934" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1934" t="s">
         <v>3289</v>
@@ -47570,7 +47576,7 @@
         <v>4031</v>
       </c>
       <c r="D1935" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1935" t="s">
         <v>3290</v>
@@ -47604,7 +47610,7 @@
         <v>4032</v>
       </c>
       <c r="D1937" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E1937" t="s">
         <v>3292</v>
@@ -47621,7 +47627,7 @@
         <v>4033</v>
       </c>
       <c r="D1938" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E1938" t="s">
         <v>3293</v>
@@ -47655,7 +47661,7 @@
         <v>4018</v>
       </c>
       <c r="D1940" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E1940" t="s">
         <v>3295</v>
@@ -47672,7 +47678,7 @@
         <v>4035</v>
       </c>
       <c r="D1941" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1941" t="s">
         <v>3296</v>
@@ -47723,7 +47729,7 @@
         <v>4038</v>
       </c>
       <c r="D1944" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E1944" t="s">
         <v>3299</v>
@@ -47808,7 +47814,7 @@
         <v>4041</v>
       </c>
       <c r="D1949" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E1949" t="s">
         <v>3304</v>
@@ -47859,7 +47865,7 @@
         <v>4043</v>
       </c>
       <c r="D1952" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E1952" t="s">
         <v>3306</v>
@@ -47876,7 +47882,7 @@
         <v>4044</v>
       </c>
       <c r="D1953" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E1953" t="s">
         <v>3307</v>
@@ -47893,7 +47899,7 @@
         <v>4045</v>
       </c>
       <c r="D1954" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E1954" t="s">
         <v>3308</v>
@@ -47910,7 +47916,7 @@
         <v>4046</v>
       </c>
       <c r="D1955" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E1955" t="s">
         <v>3309</v>
@@ -47927,7 +47933,7 @@
         <v>3310</v>
       </c>
       <c r="D1956" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1956" t="s">
         <v>3310</v>
@@ -47944,7 +47950,7 @@
         <v>3311</v>
       </c>
       <c r="D1957" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E1957" t="s">
         <v>3311</v>
@@ -47961,7 +47967,7 @@
         <v>3284</v>
       </c>
       <c r="D1958" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E1958" t="s">
         <v>3312</v>
@@ -47978,7 +47984,7 @@
         <v>4047</v>
       </c>
       <c r="D1959" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E1959" t="s">
         <v>3235</v>
@@ -48012,7 +48018,7 @@
         <v>3255</v>
       </c>
       <c r="D1961" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E1961" t="s">
         <v>3314</v>
@@ -48046,7 +48052,7 @@
         <v>3300</v>
       </c>
       <c r="D1963" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="E1963" t="s">
         <v>3316</v>
@@ -48063,7 +48069,7 @@
         <v>4048</v>
       </c>
       <c r="D1964" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="E1964" t="s">
         <v>3317</v>
@@ -48080,7 +48086,7 @@
         <v>4049</v>
       </c>
       <c r="D1965" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="E1965" t="s">
         <v>3318</v>
@@ -48097,7 +48103,7 @@
         <v>3299</v>
       </c>
       <c r="D1966" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="E1966" t="s">
         <v>3319</v>
@@ -48114,7 +48120,7 @@
         <v>3858</v>
       </c>
       <c r="D1967" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1967" t="s">
         <v>3320</v>
@@ -48182,7 +48188,7 @@
         <v>4052</v>
       </c>
       <c r="D1971" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="E1971" t="s">
         <v>3324</v>
@@ -48199,7 +48205,7 @@
         <v>4053</v>
       </c>
       <c r="D1972" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E1972" t="s">
         <v>3325</v>
@@ -48216,7 +48222,7 @@
         <v>3268</v>
       </c>
       <c r="D1973" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="E1973" t="s">
         <v>3326</v>
@@ -48250,7 +48256,7 @@
         <v>3300</v>
       </c>
       <c r="D1975" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="E1975" t="s">
         <v>3328</v>
@@ -48284,7 +48290,7 @@
         <v>4055</v>
       </c>
       <c r="D1977" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="E1977" t="s">
         <v>3330</v>
@@ -48352,7 +48358,7 @@
         <v>4058</v>
       </c>
       <c r="D1981" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="E1981" t="s">
         <v>3333</v>
@@ -48369,7 +48375,7 @@
         <v>3333</v>
       </c>
       <c r="D1982" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1982" t="s">
         <v>3293</v>
@@ -48386,7 +48392,7 @@
         <v>4059</v>
       </c>
       <c r="D1983" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1983" t="s">
         <v>3334</v>
@@ -48406,7 +48412,7 @@
         <v>3334</v>
       </c>
       <c r="E1984" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48437,7 +48443,7 @@
         <v>4061</v>
       </c>
       <c r="D1986" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E1986" t="s">
         <v>3337</v>
@@ -48454,7 +48460,7 @@
         <v>4062</v>
       </c>
       <c r="D1987" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E1987" t="s">
         <v>3338</v>
@@ -48488,7 +48494,7 @@
         <v>3338</v>
       </c>
       <c r="D1989" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1989" t="s">
         <v>3339</v>
@@ -48505,7 +48511,7 @@
         <v>4063</v>
       </c>
       <c r="D1990" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E1990" t="s">
         <v>3340</v>
@@ -48522,7 +48528,7 @@
         <v>4064</v>
       </c>
       <c r="D1991" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="E1991" t="s">
         <v>3341</v>
@@ -48539,7 +48545,7 @@
         <v>4065</v>
       </c>
       <c r="D1992" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E1992" t="s">
         <v>3342</v>
@@ -48556,7 +48562,7 @@
         <v>3107</v>
       </c>
       <c r="D1993" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1993" t="s">
         <v>3343</v>
@@ -48573,7 +48579,7 @@
         <v>4066</v>
       </c>
       <c r="D1994" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E1994" t="s">
         <v>3344</v>
@@ -48590,7 +48596,7 @@
         <v>4067</v>
       </c>
       <c r="D1995" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="E1995" t="s">
         <v>3345</v>
@@ -48607,7 +48613,7 @@
         <v>4068</v>
       </c>
       <c r="D1996" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1996" t="s">
         <v>3346</v>
@@ -48641,7 +48647,7 @@
         <v>4070</v>
       </c>
       <c r="D1998" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E1998" t="s">
         <v>3348</v>
@@ -48760,7 +48766,7 @@
         <v>4075</v>
       </c>
       <c r="D2005" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="E2005" t="s">
         <v>3355</v>
@@ -48777,7 +48783,7 @@
         <v>4076</v>
       </c>
       <c r="D2006" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="E2006" t="s">
         <v>3356</v>
@@ -48794,7 +48800,7 @@
         <v>4077</v>
       </c>
       <c r="D2007" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="E2007" t="s">
         <v>3357</v>
@@ -48811,10 +48817,10 @@
         <v>4078</v>
       </c>
       <c r="D2008" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E2008" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48862,7 +48868,7 @@
         <v>4080</v>
       </c>
       <c r="D2011" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E2011" t="s">
         <v>3361</v>
@@ -48879,10 +48885,10 @@
         <v>4081</v>
       </c>
       <c r="D2012" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="E2012" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48896,7 +48902,7 @@
         <v>4082</v>
       </c>
       <c r="D2013" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E2013" t="s">
         <v>3226</v>
@@ -48913,10 +48919,10 @@
         <v>4083</v>
       </c>
       <c r="D2014" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="E2014" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48930,7 +48936,7 @@
         <v>4084</v>
       </c>
       <c r="D2015" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E2015" t="s">
         <v>3364</v>
@@ -48998,7 +49004,7 @@
         <v>4086</v>
       </c>
       <c r="D2019" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E2019" t="s">
         <v>3368</v>
@@ -49015,10 +49021,10 @@
         <v>4087</v>
       </c>
       <c r="D2020" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E2020" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49083,7 +49089,7 @@
         <v>4090</v>
       </c>
       <c r="D2024" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="E2024" t="s">
         <v>3372</v>
@@ -49100,7 +49106,7 @@
         <v>4085</v>
       </c>
       <c r="D2025" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="E2025" t="s">
         <v>3373</v>
@@ -49134,7 +49140,7 @@
         <v>4091</v>
       </c>
       <c r="D2027" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E2027" t="s">
         <v>3374</v>
@@ -49168,7 +49174,7 @@
         <v>3107</v>
       </c>
       <c r="D2029" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E2029" t="s">
         <v>3376</v>
@@ -49185,7 +49191,7 @@
         <v>4093</v>
       </c>
       <c r="D2030" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="E2030" t="s">
         <v>3377</v>
@@ -49253,7 +49259,7 @@
         <v>4096</v>
       </c>
       <c r="D2034" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="E2034" t="s">
         <v>3380</v>
@@ -49270,10 +49276,10 @@
         <v>4097</v>
       </c>
       <c r="D2035" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E2035" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="2036" spans="1:5">
@@ -49287,10 +49293,10 @@
         <v>4098</v>
       </c>
       <c r="D2036" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E2036" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="2037" spans="1:5">
@@ -49321,10 +49327,10 @@
         <v>4100</v>
       </c>
       <c r="D2038" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E2038" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="2039" spans="1:5">
@@ -49372,7 +49378,7 @@
         <v>4103</v>
       </c>
       <c r="D2041" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="E2041" t="s">
         <v>3386</v>
@@ -49389,7 +49395,7 @@
         <v>4104</v>
       </c>
       <c r="D2042" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="E2042" t="s">
         <v>3387</v>
@@ -49406,7 +49412,7 @@
         <v>3893</v>
       </c>
       <c r="D2043" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="E2043" t="s">
         <v>3388</v>
@@ -49423,7 +49429,7 @@
         <v>3209</v>
       </c>
       <c r="D2044" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="E2044" t="s">
         <v>3389</v>
@@ -49471,13 +49477,13 @@
         <v>3391</v>
       </c>
       <c r="C2047" t="s">
-        <v>3893</v>
+        <v>4107</v>
       </c>
       <c r="D2047" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E2047" t="s">
-        <v>3097</v>
+        <v>4769</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10240" uniqueCount="4772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10240" uniqueCount="4773">
   <si>
     <t>1. open</t>
   </si>
@@ -12346,7 +12346,7 @@
     <t>3.95670</t>
   </si>
   <si>
-    <t>3.96500</t>
+    <t>3.96780</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14330,6 +14330,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.95700</t>
   </si>
 </sst>
 </file>
@@ -49506,7 +49509,7 @@
         <v>3393</v>
       </c>
       <c r="E2048" t="s">
-        <v>4510</v>
+        <v>4772</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14341,7 +14341,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.97830</t>
+    <t>3.96190</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12370,6 +12370,9 @@
     <t>3.98470</t>
   </si>
   <si>
+    <t>3.96280</t>
+  </si>
+  <si>
     <t>2.91000</t>
   </si>
   <si>
@@ -14354,9 +14357,6 @@
   </si>
   <si>
     <t>3.85900</t>
-  </si>
-  <si>
-    <t>3.95240</t>
   </si>
 </sst>
 </file>
@@ -14782,7 +14782,7 @@
         <v>2057</v>
       </c>
       <c r="D4" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="E4" t="s">
         <v>2058</v>
@@ -15037,7 +15037,7 @@
         <v>2070</v>
       </c>
       <c r="D19" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E19" t="s">
         <v>2071</v>
@@ -15054,7 +15054,7 @@
         <v>2071</v>
       </c>
       <c r="D20" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="E20" t="s">
         <v>2072</v>
@@ -15156,7 +15156,7 @@
         <v>2076</v>
       </c>
       <c r="D26" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="E26" t="s">
         <v>2076</v>
@@ -15207,7 +15207,7 @@
         <v>2078</v>
       </c>
       <c r="D29" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="E29" t="s">
         <v>2078</v>
@@ -15258,7 +15258,7 @@
         <v>3405</v>
       </c>
       <c r="D32" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E32" t="s">
         <v>2079</v>
@@ -15360,7 +15360,7 @@
         <v>2084</v>
       </c>
       <c r="D38" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="E38" t="s">
         <v>2085</v>
@@ -15462,7 +15462,7 @@
         <v>2090</v>
       </c>
       <c r="D44" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E44" t="s">
         <v>2091</v>
@@ -15479,7 +15479,7 @@
         <v>2091</v>
       </c>
       <c r="D45" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E45" t="s">
         <v>2088</v>
@@ -15496,7 +15496,7 @@
         <v>3408</v>
       </c>
       <c r="D46" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="E46" t="s">
         <v>2092</v>
@@ -15547,7 +15547,7 @@
         <v>2093</v>
       </c>
       <c r="D49" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="E49" t="s">
         <v>2094</v>
@@ -15564,7 +15564,7 @@
         <v>2095</v>
       </c>
       <c r="D50" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E50" t="s">
         <v>2095</v>
@@ -15598,7 +15598,7 @@
         <v>2097</v>
       </c>
       <c r="D52" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E52" t="s">
         <v>2097</v>
@@ -15615,7 +15615,7 @@
         <v>3409</v>
       </c>
       <c r="D53" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E53" t="s">
         <v>2098</v>
@@ -15632,7 +15632,7 @@
         <v>2097</v>
       </c>
       <c r="D54" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E54" t="s">
         <v>2099</v>
@@ -15785,7 +15785,7 @@
         <v>2108</v>
       </c>
       <c r="D63" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E63" t="s">
         <v>2108</v>
@@ -15955,7 +15955,7 @@
         <v>2115</v>
       </c>
       <c r="D73" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E73" t="s">
         <v>2116</v>
@@ -16057,7 +16057,7 @@
         <v>2120</v>
       </c>
       <c r="D79" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E79" t="s">
         <v>2118</v>
@@ -16074,7 +16074,7 @@
         <v>2118</v>
       </c>
       <c r="D80" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E80" t="s">
         <v>2121</v>
@@ -16363,7 +16363,7 @@
         <v>3420</v>
       </c>
       <c r="D97" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E97" t="s">
         <v>2122</v>
@@ -16856,10 +16856,10 @@
         <v>2158</v>
       </c>
       <c r="D126" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E126" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16941,7 +16941,7 @@
         <v>3435</v>
       </c>
       <c r="D131" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E131" t="s">
         <v>2163</v>
@@ -17060,7 +17060,7 @@
         <v>3434</v>
       </c>
       <c r="D138" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E138" t="s">
         <v>2169</v>
@@ -17094,7 +17094,7 @@
         <v>3435</v>
       </c>
       <c r="D140" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E140" t="s">
         <v>2151</v>
@@ -17111,7 +17111,7 @@
         <v>2170</v>
       </c>
       <c r="D141" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E141" t="s">
         <v>2170</v>
@@ -17128,7 +17128,7 @@
         <v>3440</v>
       </c>
       <c r="D142" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E142" t="s">
         <v>2157</v>
@@ -17213,7 +17213,7 @@
         <v>3426</v>
       </c>
       <c r="D147" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E147" t="s">
         <v>2174</v>
@@ -17519,7 +17519,7 @@
         <v>2188</v>
       </c>
       <c r="D165" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E165" t="s">
         <v>2189</v>
@@ -17757,10 +17757,10 @@
         <v>2199</v>
       </c>
       <c r="D179" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E179" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17896,7 +17896,7 @@
         <v>2206</v>
       </c>
       <c r="E187" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18318,7 +18318,7 @@
         <v>3458</v>
       </c>
       <c r="D212" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E212" t="s">
         <v>3458</v>
@@ -18352,7 +18352,7 @@
         <v>2229</v>
       </c>
       <c r="D214" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E214" t="s">
         <v>2229</v>
@@ -18641,10 +18641,10 @@
         <v>2245</v>
       </c>
       <c r="D231" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E231" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -19987,7 +19987,7 @@
         <v>2310</v>
       </c>
       <c r="E310" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -20086,7 +20086,7 @@
         <v>3493</v>
       </c>
       <c r="D316" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E316" t="s">
         <v>2317</v>
@@ -20324,7 +20324,7 @@
         <v>2326</v>
       </c>
       <c r="D330" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E330" t="s">
         <v>2327</v>
@@ -20341,7 +20341,7 @@
         <v>2327</v>
       </c>
       <c r="D331" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E331" t="s">
         <v>2328</v>
@@ -20426,7 +20426,7 @@
         <v>2331</v>
       </c>
       <c r="D336" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E336" t="s">
         <v>2332</v>
@@ -20681,7 +20681,7 @@
         <v>2493</v>
       </c>
       <c r="D351" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E351" t="s">
         <v>2278</v>
@@ -20698,7 +20698,7 @@
         <v>3473</v>
       </c>
       <c r="D352" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E352" t="s">
         <v>2344</v>
@@ -20902,10 +20902,10 @@
         <v>2354</v>
       </c>
       <c r="D364" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E364" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20919,7 +20919,7 @@
         <v>2400</v>
       </c>
       <c r="D365" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E365" t="s">
         <v>2355</v>
@@ -21667,7 +21667,7 @@
         <v>2389</v>
       </c>
       <c r="D409" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E409" t="s">
         <v>2389</v>
@@ -22228,7 +22228,7 @@
         <v>2411</v>
       </c>
       <c r="D442" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E442" t="s">
         <v>2412</v>
@@ -22415,7 +22415,7 @@
         <v>3514</v>
       </c>
       <c r="D453" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E453" t="s">
         <v>2373</v>
@@ -22687,7 +22687,7 @@
         <v>2433</v>
       </c>
       <c r="D469" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E469" t="s">
         <v>2434</v>
@@ -22755,7 +22755,7 @@
         <v>3519</v>
       </c>
       <c r="D473" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E473" t="s">
         <v>3478</v>
@@ -22942,7 +22942,7 @@
         <v>3473</v>
       </c>
       <c r="D484" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E484" t="s">
         <v>2445</v>
@@ -23707,7 +23707,7 @@
         <v>2473</v>
       </c>
       <c r="D529" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E529" t="s">
         <v>2474</v>
@@ -23843,7 +23843,7 @@
         <v>2476</v>
       </c>
       <c r="D537" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E537" t="s">
         <v>2480</v>
@@ -23894,7 +23894,7 @@
         <v>3527</v>
       </c>
       <c r="D540" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E540" t="s">
         <v>2483</v>
@@ -23911,7 +23911,7 @@
         <v>2335</v>
       </c>
       <c r="D541" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E541" t="s">
         <v>2453</v>
@@ -23962,7 +23962,7 @@
         <v>3528</v>
       </c>
       <c r="D544" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E544" t="s">
         <v>2486</v>
@@ -23979,7 +23979,7 @@
         <v>3529</v>
       </c>
       <c r="D545" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E545" t="s">
         <v>2487</v>
@@ -23996,7 +23996,7 @@
         <v>2451</v>
       </c>
       <c r="D546" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E546" t="s">
         <v>2341</v>
@@ -24047,7 +24047,7 @@
         <v>2466</v>
       </c>
       <c r="D549" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E549" t="s">
         <v>2488</v>
@@ -24081,7 +24081,7 @@
         <v>2275</v>
       </c>
       <c r="D551" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E551" t="s">
         <v>2489</v>
@@ -24183,7 +24183,7 @@
         <v>2439</v>
       </c>
       <c r="D557" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E557" t="s">
         <v>2494</v>
@@ -24217,7 +24217,7 @@
         <v>2920</v>
       </c>
       <c r="D559" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E559" t="s">
         <v>2495</v>
@@ -24234,7 +24234,7 @@
         <v>2495</v>
       </c>
       <c r="D560" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E560" t="s">
         <v>2425</v>
@@ -24268,7 +24268,7 @@
         <v>3535</v>
       </c>
       <c r="D562" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E562" t="s">
         <v>2496</v>
@@ -24302,10 +24302,10 @@
         <v>2336</v>
       </c>
       <c r="D564" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E564" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24353,7 +24353,7 @@
         <v>3536</v>
       </c>
       <c r="D567" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E567" t="s">
         <v>2500</v>
@@ -24421,7 +24421,7 @@
         <v>3537</v>
       </c>
       <c r="D571" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E571" t="s">
         <v>2504</v>
@@ -24472,7 +24472,7 @@
         <v>2398</v>
       </c>
       <c r="D574" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E574" t="s">
         <v>2256</v>
@@ -24506,7 +24506,7 @@
         <v>3538</v>
       </c>
       <c r="D576" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E576" t="s">
         <v>2508</v>
@@ -24523,7 +24523,7 @@
         <v>2808</v>
       </c>
       <c r="D577" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E577" t="s">
         <v>2509</v>
@@ -24540,7 +24540,7 @@
         <v>2805</v>
       </c>
       <c r="D578" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E578" t="s">
         <v>2510</v>
@@ -24574,7 +24574,7 @@
         <v>2511</v>
       </c>
       <c r="D580" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E580" t="s">
         <v>2512</v>
@@ -24642,7 +24642,7 @@
         <v>2355</v>
       </c>
       <c r="D584" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E584" t="s">
         <v>2516</v>
@@ -24727,7 +24727,7 @@
         <v>2253</v>
       </c>
       <c r="D589" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E589" t="s">
         <v>2519</v>
@@ -24778,7 +24778,7 @@
         <v>2601</v>
       </c>
       <c r="D592" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E592" t="s">
         <v>2521</v>
@@ -24999,10 +24999,10 @@
         <v>2558</v>
       </c>
       <c r="D605" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E605" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25050,7 +25050,7 @@
         <v>2514</v>
       </c>
       <c r="D608" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E608" t="s">
         <v>2528</v>
@@ -25152,7 +25152,7 @@
         <v>3545</v>
       </c>
       <c r="D614" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E614" t="s">
         <v>2533</v>
@@ -25393,7 +25393,7 @@
         <v>2519</v>
       </c>
       <c r="E628" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25458,7 +25458,7 @@
         <v>2252</v>
       </c>
       <c r="D632" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E632" t="s">
         <v>2541</v>
@@ -25733,7 +25733,7 @@
         <v>2527</v>
       </c>
       <c r="E648" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25866,7 +25866,7 @@
         <v>2526</v>
       </c>
       <c r="D656" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E656" t="s">
         <v>2400</v>
@@ -25917,7 +25917,7 @@
         <v>2547</v>
       </c>
       <c r="D659" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E659" t="s">
         <v>2560</v>
@@ -26053,7 +26053,7 @@
         <v>2547</v>
       </c>
       <c r="D667" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E667" t="s">
         <v>2556</v>
@@ -26138,7 +26138,7 @@
         <v>3541</v>
       </c>
       <c r="D672" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E672" t="s">
         <v>2512</v>
@@ -26158,7 +26158,7 @@
         <v>2355</v>
       </c>
       <c r="E673" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -26189,7 +26189,7 @@
         <v>2707</v>
       </c>
       <c r="D675" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E675" t="s">
         <v>2564</v>
@@ -26359,7 +26359,7 @@
         <v>2216</v>
       </c>
       <c r="D685" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E685" t="s">
         <v>2539</v>
@@ -26546,7 +26546,7 @@
         <v>3551</v>
       </c>
       <c r="D696" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E696" t="s">
         <v>2574</v>
@@ -26954,7 +26954,7 @@
         <v>2519</v>
       </c>
       <c r="D720" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E720" t="s">
         <v>2519</v>
@@ -26971,7 +26971,7 @@
         <v>2519</v>
       </c>
       <c r="D721" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E721" t="s">
         <v>2579</v>
@@ -26988,7 +26988,7 @@
         <v>2519</v>
       </c>
       <c r="D722" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E722" t="s">
         <v>2589</v>
@@ -27090,7 +27090,7 @@
         <v>2545</v>
       </c>
       <c r="D728" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E728" t="s">
         <v>2593</v>
@@ -27107,7 +27107,7 @@
         <v>2589</v>
       </c>
       <c r="D729" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E729" t="s">
         <v>2588</v>
@@ -27141,7 +27141,7 @@
         <v>2588</v>
       </c>
       <c r="D731" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E731" t="s">
         <v>2595</v>
@@ -27175,7 +27175,7 @@
         <v>2618</v>
       </c>
       <c r="D733" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E733" t="s">
         <v>2597</v>
@@ -27311,7 +27311,7 @@
         <v>2574</v>
       </c>
       <c r="D741" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E741" t="s">
         <v>2600</v>
@@ -27379,7 +27379,7 @@
         <v>2707</v>
       </c>
       <c r="D745" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E745" t="s">
         <v>2602</v>
@@ -27532,7 +27532,7 @@
         <v>2558</v>
       </c>
       <c r="D754" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E754" t="s">
         <v>2601</v>
@@ -27668,7 +27668,7 @@
         <v>2544</v>
       </c>
       <c r="D762" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E762" t="s">
         <v>2613</v>
@@ -27685,7 +27685,7 @@
         <v>2252</v>
       </c>
       <c r="D763" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E763" t="s">
         <v>2614</v>
@@ -27702,7 +27702,7 @@
         <v>2222</v>
       </c>
       <c r="D764" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E764" t="s">
         <v>2615</v>
@@ -27753,7 +27753,7 @@
         <v>2215</v>
       </c>
       <c r="D767" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E767" t="s">
         <v>2609</v>
@@ -27787,7 +27787,7 @@
         <v>2560</v>
       </c>
       <c r="D769" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E769" t="s">
         <v>2255</v>
@@ -27889,7 +27889,7 @@
         <v>2521</v>
       </c>
       <c r="D775" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E775" t="s">
         <v>2616</v>
@@ -27906,7 +27906,7 @@
         <v>2223</v>
       </c>
       <c r="D776" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E776" t="s">
         <v>2528</v>
@@ -28042,10 +28042,10 @@
         <v>2252</v>
       </c>
       <c r="D784" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E784" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -28059,7 +28059,7 @@
         <v>2536</v>
       </c>
       <c r="D785" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E785" t="s">
         <v>2589</v>
@@ -28110,10 +28110,10 @@
         <v>2536</v>
       </c>
       <c r="D788" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E788" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28348,10 +28348,10 @@
         <v>2824</v>
       </c>
       <c r="D802" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E802" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28467,7 +28467,7 @@
         <v>2252</v>
       </c>
       <c r="D809" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E809" t="s">
         <v>2519</v>
@@ -28569,7 +28569,7 @@
         <v>3566</v>
       </c>
       <c r="D815" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E815" t="s">
         <v>2636</v>
@@ -28586,7 +28586,7 @@
         <v>2663</v>
       </c>
       <c r="D816" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E816" t="s">
         <v>2243</v>
@@ -28790,7 +28790,7 @@
         <v>3567</v>
       </c>
       <c r="D828" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E828" t="s">
         <v>2646</v>
@@ -28824,7 +28824,7 @@
         <v>2663</v>
       </c>
       <c r="D830" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E830" t="s">
         <v>2244</v>
@@ -28858,7 +28858,7 @@
         <v>3567</v>
       </c>
       <c r="D832" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E832" t="s">
         <v>2648</v>
@@ -28909,7 +28909,7 @@
         <v>3458</v>
       </c>
       <c r="D835" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E835" t="s">
         <v>2650</v>
@@ -28943,7 +28943,7 @@
         <v>2579</v>
       </c>
       <c r="D837" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E837" t="s">
         <v>2579</v>
@@ -28994,7 +28994,7 @@
         <v>3570</v>
       </c>
       <c r="D840" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E840" t="s">
         <v>2522</v>
@@ -29014,7 +29014,7 @@
         <v>2569</v>
       </c>
       <c r="E841" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29351,7 +29351,7 @@
         <v>2254</v>
       </c>
       <c r="D861" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E861" t="s">
         <v>2660</v>
@@ -29521,7 +29521,7 @@
         <v>2223</v>
       </c>
       <c r="D871" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E871" t="s">
         <v>2248</v>
@@ -29555,7 +29555,7 @@
         <v>3574</v>
       </c>
       <c r="D873" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E873" t="s">
         <v>2664</v>
@@ -29674,7 +29674,7 @@
         <v>3578</v>
       </c>
       <c r="D880" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E880" t="s">
         <v>2669</v>
@@ -29742,7 +29742,7 @@
         <v>2542</v>
       </c>
       <c r="D884" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E884" t="s">
         <v>2634</v>
@@ -29912,7 +29912,7 @@
         <v>2253</v>
       </c>
       <c r="D894" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E894" t="s">
         <v>2678</v>
@@ -30031,7 +30031,7 @@
         <v>3507</v>
       </c>
       <c r="D901" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E901" t="s">
         <v>2682</v>
@@ -30099,7 +30099,7 @@
         <v>2524</v>
       </c>
       <c r="D905" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E905" t="s">
         <v>2686</v>
@@ -30252,7 +30252,7 @@
         <v>2698</v>
       </c>
       <c r="D914" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E914" t="s">
         <v>2522</v>
@@ -30456,7 +30456,7 @@
         <v>2355</v>
       </c>
       <c r="D926" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E926" t="s">
         <v>2694</v>
@@ -30541,7 +30541,7 @@
         <v>2509</v>
       </c>
       <c r="D931" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E931" t="s">
         <v>2698</v>
@@ -30626,7 +30626,7 @@
         <v>3541</v>
       </c>
       <c r="D936" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E936" t="s">
         <v>2356</v>
@@ -30711,7 +30711,7 @@
         <v>2844</v>
       </c>
       <c r="D941" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E941" t="s">
         <v>2703</v>
@@ -30813,7 +30813,7 @@
         <v>2684</v>
       </c>
       <c r="D947" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E947" t="s">
         <v>2398</v>
@@ -30830,7 +30830,7 @@
         <v>3586</v>
       </c>
       <c r="D948" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E948" t="s">
         <v>2705</v>
@@ -30898,7 +30898,7 @@
         <v>2399</v>
       </c>
       <c r="D952" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E952" t="s">
         <v>2706</v>
@@ -31153,7 +31153,7 @@
         <v>2550</v>
       </c>
       <c r="D967" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E967" t="s">
         <v>2512</v>
@@ -31238,7 +31238,7 @@
         <v>2704</v>
       </c>
       <c r="D972" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E972" t="s">
         <v>2713</v>
@@ -31289,7 +31289,7 @@
         <v>2266</v>
       </c>
       <c r="D975" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E975" t="s">
         <v>2393</v>
@@ -31323,7 +31323,7 @@
         <v>2827</v>
       </c>
       <c r="D977" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E977" t="s">
         <v>2715</v>
@@ -31680,7 +31680,7 @@
         <v>2368</v>
       </c>
       <c r="D998" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E998" t="s">
         <v>2729</v>
@@ -31697,7 +31697,7 @@
         <v>3595</v>
       </c>
       <c r="D999" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E999" t="s">
         <v>2730</v>
@@ -31782,7 +31782,7 @@
         <v>2373</v>
       </c>
       <c r="D1004" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E1004" t="s">
         <v>2421</v>
@@ -31952,7 +31952,7 @@
         <v>2835</v>
       </c>
       <c r="D1014" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E1014" t="s">
         <v>2423</v>
@@ -31969,7 +31969,7 @@
         <v>2835</v>
       </c>
       <c r="D1015" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1015" t="s">
         <v>2423</v>
@@ -32003,7 +32003,7 @@
         <v>2856</v>
       </c>
       <c r="D1017" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E1017" t="s">
         <v>2727</v>
@@ -32071,7 +32071,7 @@
         <v>2389</v>
       </c>
       <c r="D1021" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1021" t="s">
         <v>2741</v>
@@ -32088,7 +32088,7 @@
         <v>2389</v>
       </c>
       <c r="D1022" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E1022" t="s">
         <v>2742</v>
@@ -32156,7 +32156,7 @@
         <v>2858</v>
       </c>
       <c r="D1026" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1026" t="s">
         <v>2745</v>
@@ -32258,7 +32258,7 @@
         <v>2344</v>
       </c>
       <c r="D1032" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E1032" t="s">
         <v>2750</v>
@@ -32309,7 +32309,7 @@
         <v>3535</v>
       </c>
       <c r="D1035" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E1035" t="s">
         <v>2282</v>
@@ -32411,7 +32411,7 @@
         <v>2448</v>
       </c>
       <c r="D1041" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1041" t="s">
         <v>2758</v>
@@ -32513,7 +32513,7 @@
         <v>2757</v>
       </c>
       <c r="D1047" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E1047" t="s">
         <v>2761</v>
@@ -32584,7 +32584,7 @@
         <v>2273</v>
       </c>
       <c r="E1051" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32839,7 +32839,7 @@
         <v>2772</v>
       </c>
       <c r="E1066" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32921,7 +32921,7 @@
         <v>3597</v>
       </c>
       <c r="D1071" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1071" t="s">
         <v>2347</v>
@@ -33142,7 +33142,7 @@
         <v>2389</v>
       </c>
       <c r="D1084" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1084" t="s">
         <v>2783</v>
@@ -33176,7 +33176,7 @@
         <v>2408</v>
       </c>
       <c r="D1086" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1086" t="s">
         <v>2266</v>
@@ -33210,7 +33210,7 @@
         <v>2856</v>
       </c>
       <c r="D1088" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1088" t="s">
         <v>2785</v>
@@ -33227,7 +33227,7 @@
         <v>2834</v>
       </c>
       <c r="D1089" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1089" t="s">
         <v>2786</v>
@@ -33295,7 +33295,7 @@
         <v>2748</v>
       </c>
       <c r="D1093" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1093" t="s">
         <v>2788</v>
@@ -33380,10 +33380,10 @@
         <v>2799</v>
       </c>
       <c r="D1098" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1098" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33397,10 +33397,10 @@
         <v>2337</v>
       </c>
       <c r="D1099" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1099" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33431,7 +33431,7 @@
         <v>2857</v>
       </c>
       <c r="D1101" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1101" t="s">
         <v>2801</v>
@@ -33448,7 +33448,7 @@
         <v>2799</v>
       </c>
       <c r="D1102" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1102" t="s">
         <v>2796</v>
@@ -33601,7 +33601,7 @@
         <v>2801</v>
       </c>
       <c r="D1111" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1111" t="s">
         <v>2802</v>
@@ -33635,7 +33635,7 @@
         <v>3599</v>
       </c>
       <c r="D1113" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1113" t="s">
         <v>2803</v>
@@ -33652,7 +33652,7 @@
         <v>3600</v>
       </c>
       <c r="D1114" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1114" t="s">
         <v>2731</v>
@@ -33669,7 +33669,7 @@
         <v>3601</v>
       </c>
       <c r="D1115" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1115" t="s">
         <v>2803</v>
@@ -33686,7 +33686,7 @@
         <v>3602</v>
       </c>
       <c r="D1116" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1116" t="s">
         <v>2804</v>
@@ -33805,7 +33805,7 @@
         <v>2368</v>
       </c>
       <c r="D1123" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E1123" t="s">
         <v>2807</v>
@@ -33839,7 +33839,7 @@
         <v>3605</v>
       </c>
       <c r="D1125" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1125" t="s">
         <v>2808</v>
@@ -33873,7 +33873,7 @@
         <v>2721</v>
       </c>
       <c r="D1127" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E1127" t="s">
         <v>2524</v>
@@ -34009,7 +34009,7 @@
         <v>2793</v>
       </c>
       <c r="D1135" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1135" t="s">
         <v>2814</v>
@@ -34043,7 +34043,7 @@
         <v>2874</v>
       </c>
       <c r="D1137" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1137" t="s">
         <v>2715</v>
@@ -34094,7 +34094,7 @@
         <v>3610</v>
       </c>
       <c r="D1140" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1140" t="s">
         <v>2817</v>
@@ -34111,7 +34111,7 @@
         <v>3536</v>
       </c>
       <c r="D1141" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1141" t="s">
         <v>3592</v>
@@ -34128,7 +34128,7 @@
         <v>2817</v>
       </c>
       <c r="D1142" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1142" t="s">
         <v>2818</v>
@@ -34196,7 +34196,7 @@
         <v>2364</v>
       </c>
       <c r="D1146" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1146" t="s">
         <v>2820</v>
@@ -34247,7 +34247,7 @@
         <v>3536</v>
       </c>
       <c r="D1149" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1149" t="s">
         <v>2820</v>
@@ -34298,7 +34298,7 @@
         <v>3595</v>
       </c>
       <c r="D1152" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1152" t="s">
         <v>2823</v>
@@ -34366,7 +34366,7 @@
         <v>2799</v>
       </c>
       <c r="D1156" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1156" t="s">
         <v>2791</v>
@@ -34383,7 +34383,7 @@
         <v>2791</v>
       </c>
       <c r="D1157" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1157" t="s">
         <v>2265</v>
@@ -34400,7 +34400,7 @@
         <v>2265</v>
       </c>
       <c r="D1158" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1158" t="s">
         <v>2802</v>
@@ -34417,7 +34417,7 @@
         <v>2802</v>
       </c>
       <c r="D1159" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1159" t="s">
         <v>2824</v>
@@ -34434,7 +34434,7 @@
         <v>2827</v>
       </c>
       <c r="D1160" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1160" t="s">
         <v>2262</v>
@@ -34451,7 +34451,7 @@
         <v>2262</v>
       </c>
       <c r="D1161" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1161" t="s">
         <v>2824</v>
@@ -34468,7 +34468,7 @@
         <v>3599</v>
       </c>
       <c r="D1162" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1162" t="s">
         <v>2368</v>
@@ -34502,7 +34502,7 @@
         <v>2262</v>
       </c>
       <c r="D1164" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1164" t="s">
         <v>2386</v>
@@ -34553,7 +34553,7 @@
         <v>2389</v>
       </c>
       <c r="D1167" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1167" t="s">
         <v>2826</v>
@@ -34604,7 +34604,7 @@
         <v>3614</v>
       </c>
       <c r="D1170" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1170" t="s">
         <v>2498</v>
@@ -34621,7 +34621,7 @@
         <v>2738</v>
       </c>
       <c r="D1171" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1171" t="s">
         <v>2782</v>
@@ -34638,7 +34638,7 @@
         <v>2833</v>
       </c>
       <c r="D1172" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1172" t="s">
         <v>2828</v>
@@ -34655,7 +34655,7 @@
         <v>3615</v>
       </c>
       <c r="D1173" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1173" t="s">
         <v>2829</v>
@@ -34774,7 +34774,7 @@
         <v>2274</v>
       </c>
       <c r="D1180" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1180" t="s">
         <v>2832</v>
@@ -34893,7 +34893,7 @@
         <v>2798</v>
       </c>
       <c r="D1187" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1187" t="s">
         <v>2738</v>
@@ -34927,7 +34927,7 @@
         <v>3619</v>
       </c>
       <c r="D1189" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1189" t="s">
         <v>2741</v>
@@ -34944,7 +34944,7 @@
         <v>2389</v>
       </c>
       <c r="D1190" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1190" t="s">
         <v>2835</v>
@@ -34995,7 +34995,7 @@
         <v>2837</v>
       </c>
       <c r="D1193" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1193" t="s">
         <v>2743</v>
@@ -35029,7 +35029,7 @@
         <v>2838</v>
       </c>
       <c r="D1195" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1195" t="s">
         <v>2264</v>
@@ -35046,7 +35046,7 @@
         <v>2393</v>
       </c>
       <c r="D1196" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1196" t="s">
         <v>2722</v>
@@ -35063,7 +35063,7 @@
         <v>2824</v>
       </c>
       <c r="D1197" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1197" t="s">
         <v>2840</v>
@@ -35114,7 +35114,7 @@
         <v>2841</v>
       </c>
       <c r="D1200" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1200" t="s">
         <v>2525</v>
@@ -35131,7 +35131,7 @@
         <v>2733</v>
       </c>
       <c r="D1201" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1201" t="s">
         <v>2684</v>
@@ -35148,7 +35148,7 @@
         <v>2220</v>
       </c>
       <c r="D1202" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1202" t="s">
         <v>2504</v>
@@ -35250,7 +35250,7 @@
         <v>2813</v>
       </c>
       <c r="D1208" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1208" t="s">
         <v>2822</v>
@@ -35267,7 +35267,7 @@
         <v>2731</v>
       </c>
       <c r="D1209" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1209" t="s">
         <v>2844</v>
@@ -35284,7 +35284,7 @@
         <v>2511</v>
       </c>
       <c r="D1210" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1210" t="s">
         <v>2845</v>
@@ -35335,7 +35335,7 @@
         <v>3470</v>
       </c>
       <c r="D1213" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1213" t="s">
         <v>2846</v>
@@ -35352,7 +35352,7 @@
         <v>3470</v>
       </c>
       <c r="D1214" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1214" t="s">
         <v>3470</v>
@@ -35369,7 +35369,7 @@
         <v>2504</v>
       </c>
       <c r="D1215" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1215" t="s">
         <v>2845</v>
@@ -35386,7 +35386,7 @@
         <v>2511</v>
       </c>
       <c r="D1216" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1216" t="s">
         <v>2259</v>
@@ -35437,7 +35437,7 @@
         <v>2524</v>
       </c>
       <c r="D1219" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1219" t="s">
         <v>2502</v>
@@ -35471,10 +35471,10 @@
         <v>2805</v>
       </c>
       <c r="D1221" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1221" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35488,7 +35488,7 @@
         <v>3536</v>
       </c>
       <c r="D1222" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1222" t="s">
         <v>2364</v>
@@ -35658,7 +35658,7 @@
         <v>2851</v>
       </c>
       <c r="D1232" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1232" t="s">
         <v>2757</v>
@@ -35675,7 +35675,7 @@
         <v>2439</v>
       </c>
       <c r="D1233" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1233" t="s">
         <v>2439</v>
@@ -35726,7 +35726,7 @@
         <v>2486</v>
       </c>
       <c r="D1236" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E1236" t="s">
         <v>2755</v>
@@ -35760,7 +35760,7 @@
         <v>2852</v>
       </c>
       <c r="D1238" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1238" t="s">
         <v>2448</v>
@@ -35777,7 +35777,7 @@
         <v>2448</v>
       </c>
       <c r="D1239" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1239" t="s">
         <v>2273</v>
@@ -35811,7 +35811,7 @@
         <v>3624</v>
       </c>
       <c r="D1241" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1241" t="s">
         <v>2761</v>
@@ -35879,7 +35879,7 @@
         <v>2293</v>
       </c>
       <c r="D1245" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1245" t="s">
         <v>2451</v>
@@ -35964,7 +35964,7 @@
         <v>2755</v>
       </c>
       <c r="D1250" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1250" t="s">
         <v>2463</v>
@@ -36015,7 +36015,7 @@
         <v>2428</v>
       </c>
       <c r="D1253" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1253" t="s">
         <v>2830</v>
@@ -36049,7 +36049,7 @@
         <v>2856</v>
       </c>
       <c r="D1255" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1255" t="s">
         <v>2857</v>
@@ -36066,7 +36066,7 @@
         <v>3471</v>
       </c>
       <c r="D1256" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1256" t="s">
         <v>2801</v>
@@ -36287,7 +36287,7 @@
         <v>3632</v>
       </c>
       <c r="D1269" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1269" t="s">
         <v>2862</v>
@@ -36304,7 +36304,7 @@
         <v>2862</v>
       </c>
       <c r="D1270" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1270" t="s">
         <v>2754</v>
@@ -36321,7 +36321,7 @@
         <v>3633</v>
       </c>
       <c r="D1271" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1271" t="s">
         <v>2493</v>
@@ -36406,7 +36406,7 @@
         <v>2274</v>
       </c>
       <c r="D1276" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1276" t="s">
         <v>2860</v>
@@ -36423,7 +36423,7 @@
         <v>2919</v>
       </c>
       <c r="D1277" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E1277" t="s">
         <v>2344</v>
@@ -36610,7 +36610,7 @@
         <v>2779</v>
       </c>
       <c r="D1288" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1288" t="s">
         <v>2864</v>
@@ -36831,7 +36831,7 @@
         <v>2866</v>
       </c>
       <c r="D1301" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1301" t="s">
         <v>2279</v>
@@ -36848,7 +36848,7 @@
         <v>3635</v>
       </c>
       <c r="D1302" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1302" t="s">
         <v>2281</v>
@@ -36950,7 +36950,7 @@
         <v>2922</v>
       </c>
       <c r="D1308" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1308" t="s">
         <v>2759</v>
@@ -37001,7 +37001,7 @@
         <v>3642</v>
       </c>
       <c r="D1311" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1311" t="s">
         <v>2867</v>
@@ -37018,7 +37018,7 @@
         <v>3642</v>
       </c>
       <c r="D1312" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1312" t="s">
         <v>2487</v>
@@ -37035,7 +37035,7 @@
         <v>2920</v>
       </c>
       <c r="D1313" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1313" t="s">
         <v>2447</v>
@@ -37069,7 +37069,7 @@
         <v>2341</v>
       </c>
       <c r="D1315" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1315" t="s">
         <v>2339</v>
@@ -37171,7 +37171,7 @@
         <v>3646</v>
       </c>
       <c r="D1321" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1321" t="s">
         <v>2870</v>
@@ -37188,7 +37188,7 @@
         <v>3647</v>
       </c>
       <c r="D1322" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1322" t="s">
         <v>2871</v>
@@ -37222,7 +37222,7 @@
         <v>3648</v>
       </c>
       <c r="D1324" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1324" t="s">
         <v>2378</v>
@@ -37239,7 +37239,7 @@
         <v>3649</v>
       </c>
       <c r="D1325" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1325" t="s">
         <v>2727</v>
@@ -37256,7 +37256,7 @@
         <v>3650</v>
       </c>
       <c r="D1326" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1326" t="s">
         <v>2384</v>
@@ -37273,7 +37273,7 @@
         <v>3651</v>
       </c>
       <c r="D1327" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1327" t="s">
         <v>2266</v>
@@ -37324,7 +37324,7 @@
         <v>3652</v>
       </c>
       <c r="D1330" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1330" t="s">
         <v>2394</v>
@@ -37358,7 +37358,7 @@
         <v>3653</v>
       </c>
       <c r="D1332" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1332" t="s">
         <v>2498</v>
@@ -37375,7 +37375,7 @@
         <v>3604</v>
       </c>
       <c r="D1333" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1333" t="s">
         <v>2800</v>
@@ -37477,7 +37477,7 @@
         <v>2791</v>
       </c>
       <c r="D1339" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1339" t="s">
         <v>2384</v>
@@ -37497,7 +37497,7 @@
         <v>2728</v>
       </c>
       <c r="E1340" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37511,7 +37511,7 @@
         <v>3656</v>
       </c>
       <c r="D1341" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1341" t="s">
         <v>2738</v>
@@ -37562,7 +37562,7 @@
         <v>2337</v>
       </c>
       <c r="D1344" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1344" t="s">
         <v>2369</v>
@@ -37579,7 +37579,7 @@
         <v>3657</v>
       </c>
       <c r="D1345" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1345" t="s">
         <v>2408</v>
@@ -37596,7 +37596,7 @@
         <v>3652</v>
       </c>
       <c r="D1346" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1346" t="s">
         <v>2793</v>
@@ -37630,7 +37630,7 @@
         <v>2801</v>
       </c>
       <c r="D1348" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1348" t="s">
         <v>2815</v>
@@ -37647,7 +37647,7 @@
         <v>2814</v>
       </c>
       <c r="D1349" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1349" t="s">
         <v>2873</v>
@@ -37664,7 +37664,7 @@
         <v>3651</v>
       </c>
       <c r="D1350" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1350" t="s">
         <v>2874</v>
@@ -37783,7 +37783,7 @@
         <v>2759</v>
       </c>
       <c r="D1357" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1357" t="s">
         <v>2875</v>
@@ -37817,7 +37817,7 @@
         <v>2287</v>
       </c>
       <c r="D1359" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1359" t="s">
         <v>2877</v>
@@ -38021,7 +38021,7 @@
         <v>3645</v>
       </c>
       <c r="D1371" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1371" t="s">
         <v>2482</v>
@@ -38089,7 +38089,7 @@
         <v>3662</v>
       </c>
       <c r="D1375" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1375" t="s">
         <v>2884</v>
@@ -38123,7 +38123,7 @@
         <v>3664</v>
       </c>
       <c r="D1377" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1377" t="s">
         <v>2886</v>
@@ -38140,10 +38140,10 @@
         <v>3665</v>
       </c>
       <c r="D1378" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1378" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -38157,10 +38157,10 @@
         <v>2938</v>
       </c>
       <c r="D1379" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1379" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -38174,7 +38174,7 @@
         <v>3666</v>
       </c>
       <c r="D1380" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1380" t="s">
         <v>3663</v>
@@ -38225,10 +38225,10 @@
         <v>3669</v>
       </c>
       <c r="D1383" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1383" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38242,10 +38242,10 @@
         <v>3670</v>
       </c>
       <c r="D1384" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1384" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38259,10 +38259,10 @@
         <v>3671</v>
       </c>
       <c r="D1385" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1385" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38276,7 +38276,7 @@
         <v>3672</v>
       </c>
       <c r="D1386" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1386" t="s">
         <v>2895</v>
@@ -38293,10 +38293,10 @@
         <v>3673</v>
       </c>
       <c r="D1387" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1387" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38313,7 +38313,7 @@
         <v>2327</v>
       </c>
       <c r="E1388" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38327,10 +38327,10 @@
         <v>3675</v>
       </c>
       <c r="D1389" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1389" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38344,10 +38344,10 @@
         <v>3043</v>
       </c>
       <c r="D1390" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1390" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38361,7 +38361,7 @@
         <v>3673</v>
       </c>
       <c r="D1391" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1391" t="s">
         <v>2900</v>
@@ -38381,7 +38381,7 @@
         <v>2321</v>
       </c>
       <c r="E1392" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38398,7 +38398,7 @@
         <v>3494</v>
       </c>
       <c r="E1393" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38412,10 +38412,10 @@
         <v>2973</v>
       </c>
       <c r="D1394" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1394" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38432,7 +38432,7 @@
         <v>2755</v>
       </c>
       <c r="E1395" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38446,7 +38446,7 @@
         <v>3678</v>
       </c>
       <c r="D1396" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1396" t="s">
         <v>2883</v>
@@ -38483,7 +38483,7 @@
         <v>2298</v>
       </c>
       <c r="E1398" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38497,10 +38497,10 @@
         <v>3680</v>
       </c>
       <c r="D1399" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1399" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38531,7 +38531,7 @@
         <v>3681</v>
       </c>
       <c r="D1401" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1401" t="s">
         <v>2909</v>
@@ -38565,7 +38565,7 @@
         <v>2910</v>
       </c>
       <c r="D1403" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1403" t="s">
         <v>3628</v>
@@ -38633,10 +38633,10 @@
         <v>3683</v>
       </c>
       <c r="D1407" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1407" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38667,10 +38667,10 @@
         <v>3685</v>
       </c>
       <c r="D1409" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1409" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38735,7 +38735,7 @@
         <v>3688</v>
       </c>
       <c r="D1413" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1413" t="s">
         <v>2918</v>
@@ -38755,7 +38755,7 @@
         <v>2859</v>
       </c>
       <c r="E1414" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38772,7 +38772,7 @@
         <v>2856</v>
       </c>
       <c r="E1415" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38786,7 +38786,7 @@
         <v>2437</v>
       </c>
       <c r="D1416" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1416" t="s">
         <v>2920</v>
@@ -38806,7 +38806,7 @@
         <v>2439</v>
       </c>
       <c r="E1417" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38820,10 +38820,10 @@
         <v>2485</v>
       </c>
       <c r="D1418" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1418" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38840,7 +38840,7 @@
         <v>2492</v>
       </c>
       <c r="E1419" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38891,7 +38891,7 @@
         <v>2924</v>
       </c>
       <c r="E1422" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38905,7 +38905,7 @@
         <v>3645</v>
       </c>
       <c r="D1423" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1423" t="s">
         <v>2353</v>
@@ -38925,7 +38925,7 @@
         <v>2482</v>
       </c>
       <c r="E1424" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -38976,7 +38976,7 @@
         <v>3521</v>
       </c>
       <c r="E1427" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39007,7 +39007,7 @@
         <v>3692</v>
       </c>
       <c r="D1429" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1429" t="s">
         <v>2931</v>
@@ -39024,10 +39024,10 @@
         <v>3693</v>
       </c>
       <c r="D1430" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1430" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -39058,7 +39058,7 @@
         <v>2933</v>
       </c>
       <c r="D1432" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1432" t="s">
         <v>2299</v>
@@ -39143,7 +39143,7 @@
         <v>3696</v>
       </c>
       <c r="D1437" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1437" t="s">
         <v>2937</v>
@@ -39160,7 +39160,7 @@
         <v>3697</v>
       </c>
       <c r="D1438" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1438" t="s">
         <v>2938</v>
@@ -39194,7 +39194,7 @@
         <v>3699</v>
       </c>
       <c r="D1440" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1440" t="s">
         <v>2940</v>
@@ -39228,7 +39228,7 @@
         <v>3700</v>
       </c>
       <c r="D1442" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1442" t="s">
         <v>2942</v>
@@ -39245,7 +39245,7 @@
         <v>2942</v>
       </c>
       <c r="D1443" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1443" t="s">
         <v>2943</v>
@@ -39262,7 +39262,7 @@
         <v>2454</v>
       </c>
       <c r="D1444" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1444" t="s">
         <v>2917</v>
@@ -39279,7 +39279,7 @@
         <v>3481</v>
       </c>
       <c r="D1445" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1445" t="s">
         <v>2944</v>
@@ -39313,10 +39313,10 @@
         <v>3702</v>
       </c>
       <c r="D1447" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1447" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39330,10 +39330,10 @@
         <v>3703</v>
       </c>
       <c r="D1448" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1448" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39347,7 +39347,7 @@
         <v>3704</v>
       </c>
       <c r="D1449" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1449" t="s">
         <v>2299</v>
@@ -39367,7 +39367,7 @@
         <v>2947</v>
       </c>
       <c r="E1450" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39415,10 +39415,10 @@
         <v>3708</v>
       </c>
       <c r="D1453" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1453" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39432,10 +39432,10 @@
         <v>3709</v>
       </c>
       <c r="D1454" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1454" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39449,7 +39449,7 @@
         <v>3710</v>
       </c>
       <c r="D1455" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1455" t="s">
         <v>3710</v>
@@ -39483,7 +39483,7 @@
         <v>3712</v>
       </c>
       <c r="D1457" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1457" t="s">
         <v>2953</v>
@@ -39500,7 +39500,7 @@
         <v>3713</v>
       </c>
       <c r="D1458" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1458" t="s">
         <v>2953</v>
@@ -39534,10 +39534,10 @@
         <v>2974</v>
       </c>
       <c r="D1460" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1460" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39551,10 +39551,10 @@
         <v>3715</v>
       </c>
       <c r="D1461" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1461" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39568,7 +39568,7 @@
         <v>2326</v>
       </c>
       <c r="D1462" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E1462" t="s">
         <v>2956</v>
@@ -39585,7 +39585,7 @@
         <v>3716</v>
       </c>
       <c r="D1463" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1463" t="s">
         <v>2976</v>
@@ -39602,10 +39602,10 @@
         <v>3717</v>
       </c>
       <c r="D1464" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1464" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39619,10 +39619,10 @@
         <v>2955</v>
       </c>
       <c r="D1465" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1465" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39653,10 +39653,10 @@
         <v>3719</v>
       </c>
       <c r="D1467" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1467" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39670,10 +39670,10 @@
         <v>3720</v>
       </c>
       <c r="D1468" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1468" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39690,7 +39690,7 @@
         <v>2962</v>
       </c>
       <c r="E1469" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39721,7 +39721,7 @@
         <v>3723</v>
       </c>
       <c r="D1471" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1471" t="s">
         <v>2953</v>
@@ -39738,10 +39738,10 @@
         <v>3494</v>
       </c>
       <c r="D1472" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1472" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39758,7 +39758,7 @@
         <v>2964</v>
       </c>
       <c r="E1473" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39772,10 +39772,10 @@
         <v>2953</v>
       </c>
       <c r="D1474" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1474" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39789,10 +39789,10 @@
         <v>2319</v>
       </c>
       <c r="D1475" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1475" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39806,7 +39806,7 @@
         <v>3724</v>
       </c>
       <c r="D1476" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1476" t="s">
         <v>2968</v>
@@ -39823,7 +39823,7 @@
         <v>3713</v>
       </c>
       <c r="D1477" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1477" t="s">
         <v>2969</v>
@@ -39874,7 +39874,7 @@
         <v>3725</v>
       </c>
       <c r="D1480" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1480" t="s">
         <v>2972</v>
@@ -39908,7 +39908,7 @@
         <v>3726</v>
       </c>
       <c r="D1482" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1482" t="s">
         <v>2974</v>
@@ -39925,7 +39925,7 @@
         <v>2974</v>
       </c>
       <c r="D1483" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1483" t="s">
         <v>2974</v>
@@ -39959,7 +39959,7 @@
         <v>2958</v>
       </c>
       <c r="D1485" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1485" t="s">
         <v>2325</v>
@@ -39976,7 +39976,7 @@
         <v>3728</v>
       </c>
       <c r="D1486" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1486" t="s">
         <v>2975</v>
@@ -39993,7 +39993,7 @@
         <v>3729</v>
       </c>
       <c r="D1487" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1487" t="s">
         <v>2957</v>
@@ -40010,10 +40010,10 @@
         <v>3719</v>
       </c>
       <c r="D1488" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1488" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -40027,10 +40027,10 @@
         <v>3730</v>
       </c>
       <c r="D1489" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1489" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -40047,7 +40047,7 @@
         <v>3745</v>
       </c>
       <c r="E1490" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -40095,7 +40095,7 @@
         <v>3732</v>
       </c>
       <c r="D1493" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1493" t="s">
         <v>3002</v>
@@ -40129,7 +40129,7 @@
         <v>3734</v>
       </c>
       <c r="D1495" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1495" t="s">
         <v>3042</v>
@@ -40146,7 +40146,7 @@
         <v>3735</v>
       </c>
       <c r="D1496" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1496" t="s">
         <v>2984</v>
@@ -40166,7 +40166,7 @@
         <v>2983</v>
       </c>
       <c r="E1497" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -40180,10 +40180,10 @@
         <v>3736</v>
       </c>
       <c r="D1498" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1498" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40214,10 +40214,10 @@
         <v>3738</v>
       </c>
       <c r="D1500" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1500" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40231,7 +40231,7 @@
         <v>3059</v>
       </c>
       <c r="D1501" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1501" t="s">
         <v>2989</v>
@@ -40251,7 +40251,7 @@
         <v>3737</v>
       </c>
       <c r="E1502" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40268,7 +40268,7 @@
         <v>3001</v>
       </c>
       <c r="E1503" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40282,7 +40282,7 @@
         <v>3741</v>
       </c>
       <c r="D1504" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1504" t="s">
         <v>3042</v>
@@ -40299,7 +40299,7 @@
         <v>3742</v>
       </c>
       <c r="D1505" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1505" t="s">
         <v>2992</v>
@@ -40336,7 +40336,7 @@
         <v>2993</v>
       </c>
       <c r="E1507" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40353,7 +40353,7 @@
         <v>2902</v>
       </c>
       <c r="E1508" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40367,10 +40367,10 @@
         <v>3745</v>
       </c>
       <c r="D1509" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1509" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40384,10 +40384,10 @@
         <v>2996</v>
       </c>
       <c r="D1510" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1510" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40401,7 +40401,7 @@
         <v>3746</v>
       </c>
       <c r="D1511" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1511" t="s">
         <v>2997</v>
@@ -40421,7 +40421,7 @@
         <v>2997</v>
       </c>
       <c r="E1512" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40435,10 +40435,10 @@
         <v>2980</v>
       </c>
       <c r="D1513" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1513" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40452,10 +40452,10 @@
         <v>3747</v>
       </c>
       <c r="D1514" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1514" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40469,7 +40469,7 @@
         <v>3748</v>
       </c>
       <c r="D1515" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1515" t="s">
         <v>2978</v>
@@ -40503,10 +40503,10 @@
         <v>3001</v>
       </c>
       <c r="D1517" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1517" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40520,10 +40520,10 @@
         <v>3002</v>
       </c>
       <c r="D1518" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1518" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40537,7 +40537,7 @@
         <v>3750</v>
       </c>
       <c r="D1519" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1519" t="s">
         <v>2997</v>
@@ -40554,10 +40554,10 @@
         <v>3718</v>
       </c>
       <c r="D1520" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1520" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40571,10 +40571,10 @@
         <v>3751</v>
       </c>
       <c r="D1521" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1521" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40588,10 +40588,10 @@
         <v>2980</v>
       </c>
       <c r="D1522" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1522" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40605,7 +40605,7 @@
         <v>3752</v>
       </c>
       <c r="D1523" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1523" t="s">
         <v>3008</v>
@@ -40659,7 +40659,7 @@
         <v>3008</v>
       </c>
       <c r="E1526" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40690,10 +40690,10 @@
         <v>3757</v>
       </c>
       <c r="D1528" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1528" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40724,7 +40724,7 @@
         <v>3759</v>
       </c>
       <c r="D1530" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1530" t="s">
         <v>3049</v>
@@ -40741,7 +40741,7 @@
         <v>3760</v>
       </c>
       <c r="D1531" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1531" t="s">
         <v>3014</v>
@@ -40775,10 +40775,10 @@
         <v>3014</v>
       </c>
       <c r="D1533" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1533" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40792,10 +40792,10 @@
         <v>3762</v>
       </c>
       <c r="D1534" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1534" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40809,10 +40809,10 @@
         <v>3763</v>
       </c>
       <c r="D1535" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1535" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40860,7 +40860,7 @@
         <v>3765</v>
       </c>
       <c r="D1538" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1538" t="s">
         <v>3019</v>
@@ -40877,7 +40877,7 @@
         <v>3766</v>
       </c>
       <c r="D1539" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1539" t="s">
         <v>3020</v>
@@ -40894,10 +40894,10 @@
         <v>3767</v>
       </c>
       <c r="D1540" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1540" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40911,7 +40911,7 @@
         <v>3768</v>
       </c>
       <c r="D1541" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1541" t="s">
         <v>3022</v>
@@ -40928,7 +40928,7 @@
         <v>3769</v>
       </c>
       <c r="D1542" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1542" t="s">
         <v>3023</v>
@@ -40962,7 +40962,7 @@
         <v>3771</v>
       </c>
       <c r="D1544" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1544" t="s">
         <v>3025</v>
@@ -40979,10 +40979,10 @@
         <v>3772</v>
       </c>
       <c r="D1545" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1545" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41013,7 +41013,7 @@
         <v>3774</v>
       </c>
       <c r="D1547" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1547" t="s">
         <v>3781</v>
@@ -41030,10 +41030,10 @@
         <v>3775</v>
       </c>
       <c r="D1548" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1548" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -41050,7 +41050,7 @@
         <v>3055</v>
       </c>
       <c r="E1549" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -41064,10 +41064,10 @@
         <v>3777</v>
       </c>
       <c r="D1550" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1550" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41081,7 +41081,7 @@
         <v>3778</v>
       </c>
       <c r="D1551" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1551" t="s">
         <v>3031</v>
@@ -41098,10 +41098,10 @@
         <v>3778</v>
       </c>
       <c r="D1552" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1552" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -41115,10 +41115,10 @@
         <v>3032</v>
       </c>
       <c r="D1553" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1553" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -41132,7 +41132,7 @@
         <v>3779</v>
       </c>
       <c r="D1554" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1554" t="s">
         <v>3063</v>
@@ -41152,7 +41152,7 @@
         <v>3734</v>
       </c>
       <c r="E1555" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41166,7 +41166,7 @@
         <v>3781</v>
       </c>
       <c r="D1556" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1556" t="s">
         <v>3036</v>
@@ -41183,7 +41183,7 @@
         <v>3036</v>
       </c>
       <c r="D1557" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1557" t="s">
         <v>3021</v>
@@ -41203,7 +41203,7 @@
         <v>3042</v>
       </c>
       <c r="E1558" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41217,7 +41217,7 @@
         <v>3783</v>
       </c>
       <c r="D1559" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1559" t="s">
         <v>3038</v>
@@ -41234,10 +41234,10 @@
         <v>3784</v>
       </c>
       <c r="D1560" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1560" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41251,10 +41251,10 @@
         <v>3073</v>
       </c>
       <c r="D1561" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1561" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41268,10 +41268,10 @@
         <v>3785</v>
       </c>
       <c r="D1562" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1562" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41285,7 +41285,7 @@
         <v>3041</v>
       </c>
       <c r="D1563" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1563" t="s">
         <v>3026</v>
@@ -41302,7 +41302,7 @@
         <v>3786</v>
       </c>
       <c r="D1564" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1564" t="s">
         <v>2983</v>
@@ -41319,10 +41319,10 @@
         <v>2985</v>
       </c>
       <c r="D1565" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1565" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41336,7 +41336,7 @@
         <v>3756</v>
       </c>
       <c r="D1566" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1566" t="s">
         <v>3044</v>
@@ -41353,7 +41353,7 @@
         <v>3787</v>
       </c>
       <c r="D1567" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1567" t="s">
         <v>3045</v>
@@ -41370,7 +41370,7 @@
         <v>3788</v>
       </c>
       <c r="D1568" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1568" t="s">
         <v>3046</v>
@@ -41387,7 +41387,7 @@
         <v>3789</v>
       </c>
       <c r="D1569" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1569" t="s">
         <v>3045</v>
@@ -41438,7 +41438,7 @@
         <v>3792</v>
       </c>
       <c r="D1572" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1572" t="s">
         <v>3013</v>
@@ -41455,7 +41455,7 @@
         <v>3050</v>
       </c>
       <c r="D1573" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1573" t="s">
         <v>3051</v>
@@ -41489,10 +41489,10 @@
         <v>3775</v>
       </c>
       <c r="D1575" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1575" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41506,7 +41506,7 @@
         <v>3793</v>
       </c>
       <c r="D1576" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1576" t="s">
         <v>3052</v>
@@ -41557,7 +41557,7 @@
         <v>3796</v>
       </c>
       <c r="D1579" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1579" t="s">
         <v>3055</v>
@@ -41574,10 +41574,10 @@
         <v>3797</v>
       </c>
       <c r="D1580" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1580" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41591,7 +41591,7 @@
         <v>3798</v>
       </c>
       <c r="D1581" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1581" t="s">
         <v>3057</v>
@@ -41608,7 +41608,7 @@
         <v>3057</v>
       </c>
       <c r="D1582" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1582" t="s">
         <v>3020</v>
@@ -41625,10 +41625,10 @@
         <v>3740</v>
       </c>
       <c r="D1583" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1583" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41645,7 +41645,7 @@
         <v>3738</v>
       </c>
       <c r="E1584" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41710,10 +41710,10 @@
         <v>3803</v>
       </c>
       <c r="D1588" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1588" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41727,7 +41727,7 @@
         <v>3804</v>
       </c>
       <c r="D1589" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1589" t="s">
         <v>3791</v>
@@ -41951,7 +41951,7 @@
         <v>3063</v>
       </c>
       <c r="E1602" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -42138,7 +42138,7 @@
         <v>3063</v>
       </c>
       <c r="E1613" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42308,7 +42308,7 @@
         <v>3063</v>
       </c>
       <c r="E1623" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42322,10 +42322,10 @@
         <v>3824</v>
       </c>
       <c r="D1624" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1624" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42339,10 +42339,10 @@
         <v>3825</v>
       </c>
       <c r="D1625" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1625" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42356,10 +42356,10 @@
         <v>3826</v>
       </c>
       <c r="D1626" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1626" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42373,7 +42373,7 @@
         <v>3827</v>
       </c>
       <c r="D1627" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1627" t="s">
         <v>3076</v>
@@ -42390,10 +42390,10 @@
         <v>3828</v>
       </c>
       <c r="D1628" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1628" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42407,10 +42407,10 @@
         <v>3829</v>
       </c>
       <c r="D1629" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1629" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42424,7 +42424,7 @@
         <v>3830</v>
       </c>
       <c r="D1630" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1630" t="s">
         <v>3072</v>
@@ -42441,7 +42441,7 @@
         <v>3831</v>
       </c>
       <c r="D1631" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1631" t="s">
         <v>3072</v>
@@ -42458,7 +42458,7 @@
         <v>3832</v>
       </c>
       <c r="D1632" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1632" t="s">
         <v>3071</v>
@@ -42475,7 +42475,7 @@
         <v>3833</v>
       </c>
       <c r="D1633" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1633" t="s">
         <v>3071</v>
@@ -42492,7 +42492,7 @@
         <v>3833</v>
       </c>
       <c r="D1634" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1634" t="s">
         <v>3070</v>
@@ -42509,7 +42509,7 @@
         <v>3834</v>
       </c>
       <c r="D1635" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1635" t="s">
         <v>3078</v>
@@ -42526,7 +42526,7 @@
         <v>3817</v>
       </c>
       <c r="D1636" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1636" t="s">
         <v>3078</v>
@@ -42648,7 +42648,7 @@
         <v>3078</v>
       </c>
       <c r="E1643" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42733,7 +42733,7 @@
         <v>3078</v>
       </c>
       <c r="E1648" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -43053,7 +43053,7 @@
         <v>3857</v>
       </c>
       <c r="D1667" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1667" t="s">
         <v>3078</v>
@@ -43070,7 +43070,7 @@
         <v>3078</v>
       </c>
       <c r="D1668" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1668" t="s">
         <v>3078</v>
@@ -43087,7 +43087,7 @@
         <v>3078</v>
       </c>
       <c r="D1669" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1669" t="s">
         <v>3078</v>
@@ -43107,7 +43107,7 @@
         <v>3811</v>
       </c>
       <c r="E1670" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -43138,10 +43138,10 @@
         <v>3859</v>
       </c>
       <c r="D1672" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1672" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -43155,10 +43155,10 @@
         <v>3860</v>
       </c>
       <c r="D1673" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1673" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -43172,10 +43172,10 @@
         <v>3330</v>
       </c>
       <c r="D1674" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1674" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -43189,7 +43189,7 @@
         <v>3861</v>
       </c>
       <c r="D1675" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1675" t="s">
         <v>4020</v>
@@ -43206,10 +43206,10 @@
         <v>3862</v>
       </c>
       <c r="D1676" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1676" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43223,10 +43223,10 @@
         <v>3863</v>
       </c>
       <c r="D1677" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1677" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43240,10 +43240,10 @@
         <v>3864</v>
       </c>
       <c r="D1678" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1678" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43257,10 +43257,10 @@
         <v>3865</v>
       </c>
       <c r="D1679" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1679" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43274,10 +43274,10 @@
         <v>3866</v>
       </c>
       <c r="D1680" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1680" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43291,7 +43291,7 @@
         <v>3867</v>
       </c>
       <c r="D1681" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1681" t="s">
         <v>3093</v>
@@ -43393,7 +43393,7 @@
         <v>3094</v>
       </c>
       <c r="D1687" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1687" t="s">
         <v>3094</v>
@@ -43410,10 +43410,10 @@
         <v>3094</v>
       </c>
       <c r="D1688" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1688" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43427,7 +43427,7 @@
         <v>3094</v>
       </c>
       <c r="D1689" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1689" t="s">
         <v>3094</v>
@@ -43444,7 +43444,7 @@
         <v>3094</v>
       </c>
       <c r="D1690" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1690" t="s">
         <v>3094</v>
@@ -43495,7 +43495,7 @@
         <v>3094</v>
       </c>
       <c r="D1693" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1693" t="s">
         <v>3094</v>
@@ -43512,10 +43512,10 @@
         <v>3094</v>
       </c>
       <c r="D1694" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1694" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43529,7 +43529,7 @@
         <v>3094</v>
       </c>
       <c r="D1695" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1695" t="s">
         <v>3094</v>
@@ -43546,7 +43546,7 @@
         <v>3094</v>
       </c>
       <c r="D1696" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1696" t="s">
         <v>3094</v>
@@ -43719,7 +43719,7 @@
         <v>3094</v>
       </c>
       <c r="E1706" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43770,7 +43770,7 @@
         <v>3094</v>
       </c>
       <c r="E1709" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43852,10 +43852,10 @@
         <v>3884</v>
       </c>
       <c r="D1714" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1714" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43869,10 +43869,10 @@
         <v>3885</v>
       </c>
       <c r="D1715" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1715" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43886,10 +43886,10 @@
         <v>3886</v>
       </c>
       <c r="D1716" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1716" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43906,7 +43906,7 @@
         <v>3113</v>
       </c>
       <c r="E1717" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -43920,7 +43920,7 @@
         <v>3888</v>
       </c>
       <c r="D1718" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1718" t="s">
         <v>3104</v>
@@ -43937,7 +43937,7 @@
         <v>3889</v>
       </c>
       <c r="D1719" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1719" t="s">
         <v>3103</v>
@@ -43954,10 +43954,10 @@
         <v>3890</v>
       </c>
       <c r="D1720" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1720" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43971,7 +43971,7 @@
         <v>3891</v>
       </c>
       <c r="D1721" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1721" t="s">
         <v>3106</v>
@@ -43991,7 +43991,7 @@
         <v>4089</v>
       </c>
       <c r="E1722" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -44005,7 +44005,7 @@
         <v>3893</v>
       </c>
       <c r="D1723" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1723" t="s">
         <v>3108</v>
@@ -44022,10 +44022,10 @@
         <v>3894</v>
       </c>
       <c r="D1724" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1724" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44039,7 +44039,7 @@
         <v>3895</v>
       </c>
       <c r="D1725" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1725" t="s">
         <v>3110</v>
@@ -44073,7 +44073,7 @@
         <v>3897</v>
       </c>
       <c r="D1727" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1727" t="s">
         <v>3112</v>
@@ -44175,7 +44175,7 @@
         <v>3901</v>
       </c>
       <c r="D1733" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1733" t="s">
         <v>3113</v>
@@ -44243,7 +44243,7 @@
         <v>3904</v>
       </c>
       <c r="D1737" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1737" t="s">
         <v>3114</v>
@@ -44260,7 +44260,7 @@
         <v>3905</v>
       </c>
       <c r="D1738" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1738" t="s">
         <v>3115</v>
@@ -44294,7 +44294,7 @@
         <v>3118</v>
       </c>
       <c r="D1740" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1740" t="s">
         <v>3896</v>
@@ -44314,7 +44314,7 @@
         <v>3117</v>
       </c>
       <c r="E1741" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44379,10 +44379,10 @@
         <v>3120</v>
       </c>
       <c r="D1745" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1745" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44396,10 +44396,10 @@
         <v>3908</v>
       </c>
       <c r="D1746" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1746" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44549,7 +44549,7 @@
         <v>3911</v>
       </c>
       <c r="D1755" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1755" t="s">
         <v>3131</v>
@@ -44600,7 +44600,7 @@
         <v>3914</v>
       </c>
       <c r="D1758" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1758" t="s">
         <v>3134</v>
@@ -44651,7 +44651,7 @@
         <v>3916</v>
       </c>
       <c r="D1761" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1761" t="s">
         <v>3137</v>
@@ -44685,7 +44685,7 @@
         <v>3918</v>
       </c>
       <c r="D1763" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1763" t="s">
         <v>3139</v>
@@ -44702,7 +44702,7 @@
         <v>3919</v>
       </c>
       <c r="D1764" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1764" t="s">
         <v>3140</v>
@@ -44770,7 +44770,7 @@
         <v>3923</v>
       </c>
       <c r="D1768" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1768" t="s">
         <v>3144</v>
@@ -44787,7 +44787,7 @@
         <v>3924</v>
       </c>
       <c r="D1769" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1769" t="s">
         <v>3145</v>
@@ -44807,7 +44807,7 @@
         <v>3145</v>
       </c>
       <c r="E1770" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44821,7 +44821,7 @@
         <v>3926</v>
       </c>
       <c r="D1771" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1771" t="s">
         <v>3147</v>
@@ -44838,7 +44838,7 @@
         <v>3927</v>
       </c>
       <c r="D1772" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1772" t="s">
         <v>3148</v>
@@ -44855,7 +44855,7 @@
         <v>3928</v>
       </c>
       <c r="D1773" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1773" t="s">
         <v>3149</v>
@@ -44872,7 +44872,7 @@
         <v>3929</v>
       </c>
       <c r="D1774" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1774" t="s">
         <v>3150</v>
@@ -44940,7 +44940,7 @@
         <v>3933</v>
       </c>
       <c r="D1778" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1778" t="s">
         <v>3154</v>
@@ -44957,10 +44957,10 @@
         <v>3934</v>
       </c>
       <c r="D1779" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1779" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -44974,7 +44974,7 @@
         <v>3935</v>
       </c>
       <c r="D1780" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1780" t="s">
         <v>3148</v>
@@ -44991,7 +44991,7 @@
         <v>3936</v>
       </c>
       <c r="D1781" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1781" t="s">
         <v>3155</v>
@@ -45025,7 +45025,7 @@
         <v>3938</v>
       </c>
       <c r="D1783" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1783" t="s">
         <v>3157</v>
@@ -45161,7 +45161,7 @@
         <v>3158</v>
       </c>
       <c r="D1791" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1791" t="s">
         <v>3158</v>
@@ -45229,10 +45229,10 @@
         <v>3158</v>
       </c>
       <c r="D1795" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1795" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45246,10 +45246,10 @@
         <v>3158</v>
       </c>
       <c r="D1796" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1796" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45263,10 +45263,10 @@
         <v>3158</v>
       </c>
       <c r="D1797" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1797" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45280,10 +45280,10 @@
         <v>3158</v>
       </c>
       <c r="D1798" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1798" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45297,7 +45297,7 @@
         <v>3942</v>
       </c>
       <c r="D1799" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1799" t="s">
         <v>3160</v>
@@ -45314,10 +45314,10 @@
         <v>3943</v>
       </c>
       <c r="D1800" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1800" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45331,7 +45331,7 @@
         <v>3158</v>
       </c>
       <c r="D1801" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1801" t="s">
         <v>3216</v>
@@ -45348,7 +45348,7 @@
         <v>3944</v>
       </c>
       <c r="D1802" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1802" t="s">
         <v>3163</v>
@@ -45365,7 +45365,7 @@
         <v>3206</v>
       </c>
       <c r="D1803" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1803" t="s">
         <v>3164</v>
@@ -45399,7 +45399,7 @@
         <v>3946</v>
       </c>
       <c r="D1805" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1805" t="s">
         <v>3166</v>
@@ -45433,7 +45433,7 @@
         <v>3948</v>
       </c>
       <c r="D1807" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1807" t="s">
         <v>3168</v>
@@ -45467,7 +45467,7 @@
         <v>3950</v>
       </c>
       <c r="D1809" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1809" t="s">
         <v>3170</v>
@@ -45484,7 +45484,7 @@
         <v>3950</v>
       </c>
       <c r="D1810" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1810" t="s">
         <v>3171</v>
@@ -45501,7 +45501,7 @@
         <v>3951</v>
       </c>
       <c r="D1811" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1811" t="s">
         <v>3172</v>
@@ -45518,7 +45518,7 @@
         <v>3952</v>
       </c>
       <c r="D1812" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1812" t="s">
         <v>3173</v>
@@ -45535,7 +45535,7 @@
         <v>3953</v>
       </c>
       <c r="D1813" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1813" t="s">
         <v>3174</v>
@@ -45552,7 +45552,7 @@
         <v>3954</v>
       </c>
       <c r="D1814" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1814" t="s">
         <v>3175</v>
@@ -45569,7 +45569,7 @@
         <v>3954</v>
       </c>
       <c r="D1815" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1815" t="s">
         <v>3176</v>
@@ -45586,7 +45586,7 @@
         <v>3955</v>
       </c>
       <c r="D1816" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1816" t="s">
         <v>3177</v>
@@ -45603,7 +45603,7 @@
         <v>3956</v>
       </c>
       <c r="D1817" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1817" t="s">
         <v>3178</v>
@@ -45654,7 +45654,7 @@
         <v>3958</v>
       </c>
       <c r="D1820" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1820" t="s">
         <v>3181</v>
@@ -45705,7 +45705,7 @@
         <v>3961</v>
       </c>
       <c r="D1823" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1823" t="s">
         <v>3184</v>
@@ -45725,7 +45725,7 @@
         <v>3184</v>
       </c>
       <c r="E1824" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45742,7 +45742,7 @@
         <v>3174</v>
       </c>
       <c r="E1825" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45756,10 +45756,10 @@
         <v>3964</v>
       </c>
       <c r="D1826" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1826" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45773,7 +45773,7 @@
         <v>3965</v>
       </c>
       <c r="D1827" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1827" t="s">
         <v>3188</v>
@@ -45790,7 +45790,7 @@
         <v>3966</v>
       </c>
       <c r="D1828" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1828" t="s">
         <v>3189</v>
@@ -45807,7 +45807,7 @@
         <v>3908</v>
       </c>
       <c r="D1829" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1829" t="s">
         <v>3190</v>
@@ -45841,7 +45841,7 @@
         <v>3968</v>
       </c>
       <c r="D1831" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1831" t="s">
         <v>3192</v>
@@ -45875,7 +45875,7 @@
         <v>3970</v>
       </c>
       <c r="D1833" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1833" t="s">
         <v>3968</v>
@@ -45909,7 +45909,7 @@
         <v>3972</v>
       </c>
       <c r="D1835" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1835" t="s">
         <v>3973</v>
@@ -45926,7 +45926,7 @@
         <v>3973</v>
       </c>
       <c r="D1836" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1836" t="s">
         <v>3197</v>
@@ -45943,7 +45943,7 @@
         <v>3974</v>
       </c>
       <c r="D1837" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1837" t="s">
         <v>3198</v>
@@ -45960,10 +45960,10 @@
         <v>3975</v>
       </c>
       <c r="D1838" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1838" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -45977,7 +45977,7 @@
         <v>3976</v>
       </c>
       <c r="D1839" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1839" t="s">
         <v>3200</v>
@@ -45994,7 +45994,7 @@
         <v>3977</v>
       </c>
       <c r="D1840" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1840" t="s">
         <v>3201</v>
@@ -46011,7 +46011,7 @@
         <v>3978</v>
       </c>
       <c r="D1841" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1841" t="s">
         <v>3202</v>
@@ -46045,7 +46045,7 @@
         <v>3976</v>
       </c>
       <c r="D1843" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1843" t="s">
         <v>3204</v>
@@ -46062,10 +46062,10 @@
         <v>3979</v>
       </c>
       <c r="D1844" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1844" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -46096,7 +46096,7 @@
         <v>3169</v>
       </c>
       <c r="D1846" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1846" t="s">
         <v>3169</v>
@@ -46113,7 +46113,7 @@
         <v>3207</v>
       </c>
       <c r="D1847" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1847" t="s">
         <v>3208</v>
@@ -46133,7 +46133,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -46147,7 +46147,7 @@
         <v>3982</v>
       </c>
       <c r="D1849" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1849" t="s">
         <v>3210</v>
@@ -46167,7 +46167,7 @@
         <v>3210</v>
       </c>
       <c r="E1850" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46181,7 +46181,7 @@
         <v>3984</v>
       </c>
       <c r="D1851" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1851" t="s">
         <v>3212</v>
@@ -46215,7 +46215,7 @@
         <v>3166</v>
       </c>
       <c r="D1853" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1853" t="s">
         <v>3214</v>
@@ -46235,7 +46235,7 @@
         <v>4086</v>
       </c>
       <c r="E1854" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46249,7 +46249,7 @@
         <v>3987</v>
       </c>
       <c r="D1855" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1855" t="s">
         <v>3216</v>
@@ -46283,7 +46283,7 @@
         <v>3988</v>
       </c>
       <c r="D1857" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1857" t="s">
         <v>3218</v>
@@ -46317,7 +46317,7 @@
         <v>3990</v>
       </c>
       <c r="D1859" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1859" t="s">
         <v>3220</v>
@@ -46334,7 +46334,7 @@
         <v>3991</v>
       </c>
       <c r="D1860" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1860" t="s">
         <v>3221</v>
@@ -46351,10 +46351,10 @@
         <v>3221</v>
       </c>
       <c r="D1861" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1861" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46388,7 +46388,7 @@
         <v>4041</v>
       </c>
       <c r="E1863" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46402,7 +46402,7 @@
         <v>3992</v>
       </c>
       <c r="D1864" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1864" t="s">
         <v>3224</v>
@@ -46419,7 +46419,7 @@
         <v>3993</v>
       </c>
       <c r="D1865" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1865" t="s">
         <v>3225</v>
@@ -46456,7 +46456,7 @@
         <v>4014</v>
       </c>
       <c r="E1867" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46470,10 +46470,10 @@
         <v>3227</v>
       </c>
       <c r="D1868" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1868" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46524,7 +46524,7 @@
         <v>3230</v>
       </c>
       <c r="E1871" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46538,7 +46538,7 @@
         <v>3999</v>
       </c>
       <c r="D1872" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1872" t="s">
         <v>3232</v>
@@ -46558,7 +46558,7 @@
         <v>3232</v>
       </c>
       <c r="E1873" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46572,7 +46572,7 @@
         <v>4001</v>
       </c>
       <c r="D1874" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1874" t="s">
         <v>3234</v>
@@ -46606,10 +46606,10 @@
         <v>4003</v>
       </c>
       <c r="D1876" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1876" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46623,10 +46623,10 @@
         <v>4004</v>
       </c>
       <c r="D1877" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1877" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46691,7 +46691,7 @@
         <v>3855</v>
       </c>
       <c r="D1881" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1881" t="s">
         <v>3855</v>
@@ -46776,7 +46776,7 @@
         <v>4010</v>
       </c>
       <c r="D1886" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1886" t="s">
         <v>3844</v>
@@ -46810,10 +46810,10 @@
         <v>4012</v>
       </c>
       <c r="D1888" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1888" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46827,7 +46827,7 @@
         <v>4013</v>
       </c>
       <c r="D1889" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1889" t="s">
         <v>3248</v>
@@ -46878,7 +46878,7 @@
         <v>3250</v>
       </c>
       <c r="D1892" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1892" t="s">
         <v>3251</v>
@@ -46895,7 +46895,7 @@
         <v>4016</v>
       </c>
       <c r="D1893" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1893" t="s">
         <v>3252</v>
@@ -46912,7 +46912,7 @@
         <v>4017</v>
       </c>
       <c r="D1894" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1894" t="s">
         <v>3253</v>
@@ -46929,7 +46929,7 @@
         <v>4018</v>
       </c>
       <c r="D1895" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1895" t="s">
         <v>3254</v>
@@ -46997,7 +46997,7 @@
         <v>4022</v>
       </c>
       <c r="D1899" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1899" t="s">
         <v>3258</v>
@@ -47031,7 +47031,7 @@
         <v>4023</v>
       </c>
       <c r="D1901" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1901" t="s">
         <v>3260</v>
@@ -47065,7 +47065,7 @@
         <v>4024</v>
       </c>
       <c r="D1903" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1903" t="s">
         <v>3262</v>
@@ -47099,7 +47099,7 @@
         <v>3264</v>
       </c>
       <c r="D1905" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1905" t="s">
         <v>3264</v>
@@ -47133,7 +47133,7 @@
         <v>4026</v>
       </c>
       <c r="D1907" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1907" t="s">
         <v>3266</v>
@@ -47150,7 +47150,7 @@
         <v>4017</v>
       </c>
       <c r="D1908" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1908" t="s">
         <v>3267</v>
@@ -47167,7 +47167,7 @@
         <v>3094</v>
       </c>
       <c r="D1909" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1909" t="s">
         <v>3268</v>
@@ -47184,7 +47184,7 @@
         <v>3268</v>
       </c>
       <c r="D1910" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1910" t="s">
         <v>3269</v>
@@ -47235,7 +47235,7 @@
         <v>4027</v>
       </c>
       <c r="D1913" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1913" t="s">
         <v>3272</v>
@@ -47252,10 +47252,10 @@
         <v>4028</v>
       </c>
       <c r="D1914" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1914" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47303,7 +47303,7 @@
         <v>3275</v>
       </c>
       <c r="D1917" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1917" t="s">
         <v>3276</v>
@@ -47337,10 +47337,10 @@
         <v>4031</v>
       </c>
       <c r="D1919" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1919" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47371,7 +47371,7 @@
         <v>4033</v>
       </c>
       <c r="D1921" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E1921" t="s">
         <v>3280</v>
@@ -47388,7 +47388,7 @@
         <v>4034</v>
       </c>
       <c r="D1922" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E1922" t="s">
         <v>3281</v>
@@ -47405,7 +47405,7 @@
         <v>3282</v>
       </c>
       <c r="D1923" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E1923" t="s">
         <v>3282</v>
@@ -47422,7 +47422,7 @@
         <v>4035</v>
       </c>
       <c r="D1924" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1924" t="s">
         <v>3283</v>
@@ -47490,7 +47490,7 @@
         <v>3257</v>
       </c>
       <c r="D1928" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E1928" t="s">
         <v>3287</v>
@@ -47541,7 +47541,7 @@
         <v>4037</v>
       </c>
       <c r="D1931" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E1931" t="s">
         <v>3290</v>
@@ -47558,7 +47558,7 @@
         <v>3301</v>
       </c>
       <c r="D1932" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E1932" t="s">
         <v>3291</v>
@@ -47575,7 +47575,7 @@
         <v>3292</v>
       </c>
       <c r="D1933" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E1933" t="s">
         <v>3292</v>
@@ -47592,7 +47592,7 @@
         <v>4038</v>
       </c>
       <c r="D1934" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E1934" t="s">
         <v>3293</v>
@@ -47609,7 +47609,7 @@
         <v>4039</v>
       </c>
       <c r="D1935" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E1935" t="s">
         <v>3294</v>
@@ -47643,7 +47643,7 @@
         <v>4040</v>
       </c>
       <c r="D1937" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1937" t="s">
         <v>3296</v>
@@ -47660,7 +47660,7 @@
         <v>4041</v>
       </c>
       <c r="D1938" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E1938" t="s">
         <v>3297</v>
@@ -47694,7 +47694,7 @@
         <v>4026</v>
       </c>
       <c r="D1940" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E1940" t="s">
         <v>3299</v>
@@ -47711,7 +47711,7 @@
         <v>4043</v>
       </c>
       <c r="D1941" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E1941" t="s">
         <v>3300</v>
@@ -47762,7 +47762,7 @@
         <v>4046</v>
       </c>
       <c r="D1944" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E1944" t="s">
         <v>3303</v>
@@ -47847,7 +47847,7 @@
         <v>4049</v>
       </c>
       <c r="D1949" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="E1949" t="s">
         <v>3308</v>
@@ -47898,7 +47898,7 @@
         <v>4051</v>
       </c>
       <c r="D1952" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="E1952" t="s">
         <v>3310</v>
@@ -47915,7 +47915,7 @@
         <v>4052</v>
       </c>
       <c r="D1953" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="E1953" t="s">
         <v>3311</v>
@@ -47932,7 +47932,7 @@
         <v>4053</v>
       </c>
       <c r="D1954" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="E1954" t="s">
         <v>3312</v>
@@ -47949,7 +47949,7 @@
         <v>4054</v>
       </c>
       <c r="D1955" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1955" t="s">
         <v>3313</v>
@@ -47966,7 +47966,7 @@
         <v>3314</v>
       </c>
       <c r="D1956" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="E1956" t="s">
         <v>3314</v>
@@ -47983,7 +47983,7 @@
         <v>3315</v>
       </c>
       <c r="D1957" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E1957" t="s">
         <v>3315</v>
@@ -48000,7 +48000,7 @@
         <v>3288</v>
       </c>
       <c r="D1958" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="E1958" t="s">
         <v>3316</v>
@@ -48017,7 +48017,7 @@
         <v>4055</v>
       </c>
       <c r="D1959" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="E1959" t="s">
         <v>3239</v>
@@ -48051,7 +48051,7 @@
         <v>3259</v>
       </c>
       <c r="D1961" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="E1961" t="s">
         <v>3318</v>
@@ -48085,7 +48085,7 @@
         <v>3304</v>
       </c>
       <c r="D1963" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="E1963" t="s">
         <v>3320</v>
@@ -48102,7 +48102,7 @@
         <v>4056</v>
       </c>
       <c r="D1964" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1964" t="s">
         <v>3321</v>
@@ -48119,7 +48119,7 @@
         <v>4057</v>
       </c>
       <c r="D1965" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E1965" t="s">
         <v>3322</v>
@@ -48136,7 +48136,7 @@
         <v>3303</v>
       </c>
       <c r="D1966" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E1966" t="s">
         <v>3323</v>
@@ -48153,7 +48153,7 @@
         <v>3866</v>
       </c>
       <c r="D1967" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1967" t="s">
         <v>3324</v>
@@ -48221,7 +48221,7 @@
         <v>4060</v>
       </c>
       <c r="D1971" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E1971" t="s">
         <v>3328</v>
@@ -48238,7 +48238,7 @@
         <v>4061</v>
       </c>
       <c r="D1972" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="E1972" t="s">
         <v>3329</v>
@@ -48255,7 +48255,7 @@
         <v>3272</v>
       </c>
       <c r="D1973" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E1973" t="s">
         <v>3330</v>
@@ -48289,7 +48289,7 @@
         <v>3304</v>
       </c>
       <c r="D1975" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1975" t="s">
         <v>3332</v>
@@ -48323,7 +48323,7 @@
         <v>4063</v>
       </c>
       <c r="D1977" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E1977" t="s">
         <v>3334</v>
@@ -48391,7 +48391,7 @@
         <v>4066</v>
       </c>
       <c r="D1981" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="E1981" t="s">
         <v>3337</v>
@@ -48408,7 +48408,7 @@
         <v>3337</v>
       </c>
       <c r="D1982" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1982" t="s">
         <v>3297</v>
@@ -48425,7 +48425,7 @@
         <v>4067</v>
       </c>
       <c r="D1983" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1983" t="s">
         <v>3338</v>
@@ -48445,7 +48445,7 @@
         <v>3338</v>
       </c>
       <c r="E1984" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48476,7 +48476,7 @@
         <v>4069</v>
       </c>
       <c r="D1986" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E1986" t="s">
         <v>3341</v>
@@ -48493,7 +48493,7 @@
         <v>4070</v>
       </c>
       <c r="D1987" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="E1987" t="s">
         <v>3342</v>
@@ -48527,7 +48527,7 @@
         <v>3342</v>
       </c>
       <c r="D1989" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="E1989" t="s">
         <v>3343</v>
@@ -48544,7 +48544,7 @@
         <v>4071</v>
       </c>
       <c r="D1990" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="E1990" t="s">
         <v>3344</v>
@@ -48561,7 +48561,7 @@
         <v>4072</v>
       </c>
       <c r="D1991" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E1991" t="s">
         <v>3345</v>
@@ -48578,7 +48578,7 @@
         <v>4073</v>
       </c>
       <c r="D1992" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="E1992" t="s">
         <v>3346</v>
@@ -48595,7 +48595,7 @@
         <v>3111</v>
       </c>
       <c r="D1993" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E1993" t="s">
         <v>3347</v>
@@ -48612,7 +48612,7 @@
         <v>4074</v>
       </c>
       <c r="D1994" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="E1994" t="s">
         <v>3348</v>
@@ -48629,7 +48629,7 @@
         <v>4075</v>
       </c>
       <c r="D1995" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E1995" t="s">
         <v>3349</v>
@@ -48646,7 +48646,7 @@
         <v>4076</v>
       </c>
       <c r="D1996" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E1996" t="s">
         <v>3350</v>
@@ -48680,7 +48680,7 @@
         <v>4078</v>
       </c>
       <c r="D1998" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E1998" t="s">
         <v>3352</v>
@@ -48799,7 +48799,7 @@
         <v>4083</v>
       </c>
       <c r="D2005" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="E2005" t="s">
         <v>3359</v>
@@ -48816,7 +48816,7 @@
         <v>4084</v>
       </c>
       <c r="D2006" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="E2006" t="s">
         <v>3360</v>
@@ -48833,7 +48833,7 @@
         <v>4085</v>
       </c>
       <c r="D2007" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E2007" t="s">
         <v>3361</v>
@@ -48850,10 +48850,10 @@
         <v>4086</v>
       </c>
       <c r="D2008" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E2008" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48901,7 +48901,7 @@
         <v>4088</v>
       </c>
       <c r="D2011" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E2011" t="s">
         <v>3365</v>
@@ -48918,10 +48918,10 @@
         <v>4089</v>
       </c>
       <c r="D2012" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="E2012" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48935,7 +48935,7 @@
         <v>4090</v>
       </c>
       <c r="D2013" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="E2013" t="s">
         <v>3230</v>
@@ -48952,10 +48952,10 @@
         <v>4091</v>
       </c>
       <c r="D2014" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E2014" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48969,7 +48969,7 @@
         <v>4092</v>
       </c>
       <c r="D2015" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E2015" t="s">
         <v>3368</v>
@@ -49037,7 +49037,7 @@
         <v>4094</v>
       </c>
       <c r="D2019" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E2019" t="s">
         <v>3372</v>
@@ -49054,10 +49054,10 @@
         <v>4095</v>
       </c>
       <c r="D2020" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="E2020" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49122,7 +49122,7 @@
         <v>4098</v>
       </c>
       <c r="D2024" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="E2024" t="s">
         <v>3376</v>
@@ -49139,7 +49139,7 @@
         <v>4093</v>
       </c>
       <c r="D2025" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="E2025" t="s">
         <v>3377</v>
@@ -49173,7 +49173,7 @@
         <v>4099</v>
       </c>
       <c r="D2027" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="E2027" t="s">
         <v>3378</v>
@@ -49207,7 +49207,7 @@
         <v>3111</v>
       </c>
       <c r="D2029" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E2029" t="s">
         <v>3380</v>
@@ -49224,7 +49224,7 @@
         <v>4101</v>
       </c>
       <c r="D2030" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="E2030" t="s">
         <v>3381</v>
@@ -49292,7 +49292,7 @@
         <v>4104</v>
       </c>
       <c r="D2034" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="E2034" t="s">
         <v>3384</v>
@@ -49309,10 +49309,10 @@
         <v>4105</v>
       </c>
       <c r="D2035" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="E2035" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="2036" spans="1:5">
@@ -49326,10 +49326,10 @@
         <v>4106</v>
       </c>
       <c r="D2036" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="E2036" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="2037" spans="1:5">
@@ -49360,10 +49360,10 @@
         <v>4108</v>
       </c>
       <c r="D2038" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="E2038" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="2039" spans="1:5">
@@ -49411,7 +49411,7 @@
         <v>4111</v>
       </c>
       <c r="D2041" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="E2041" t="s">
         <v>3390</v>
@@ -49428,7 +49428,7 @@
         <v>4112</v>
       </c>
       <c r="D2042" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="E2042" t="s">
         <v>3391</v>
@@ -49445,7 +49445,7 @@
         <v>3901</v>
       </c>
       <c r="D2043" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="E2043" t="s">
         <v>3392</v>
@@ -49462,7 +49462,7 @@
         <v>3213</v>
       </c>
       <c r="D2044" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="E2044" t="s">
         <v>3393</v>
@@ -49513,10 +49513,10 @@
         <v>4115</v>
       </c>
       <c r="D2047" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="E2047" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49530,7 +49530,7 @@
         <v>4116</v>
       </c>
       <c r="D2048" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E2048" t="s">
         <v>3397</v>
@@ -49578,13 +49578,13 @@
         <v>3399</v>
       </c>
       <c r="C2051" t="s">
-        <v>3986</v>
+        <v>4118</v>
       </c>
       <c r="D2051" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="E2051" t="s">
-        <v>4780</v>
+        <v>4485</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="4785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="4786">
   <si>
     <t>1. open</t>
   </si>
@@ -14369,6 +14369,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.96710</t>
   </si>
 </sst>
 </file>
@@ -49624,13 +49627,13 @@
         <v>3403</v>
       </c>
       <c r="C2053" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="D2053" t="s">
         <v>3403</v>
       </c>
       <c r="E2053" t="s">
-        <v>4074</v>
+        <v>4785</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="4790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="4791">
   <si>
     <t>1. open</t>
   </si>
@@ -12401,6 +12401,9 @@
   </si>
   <si>
     <t>3.98960</t>
+  </si>
+  <si>
+    <t>3.98670</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14809,7 +14812,7 @@
         <v>2061</v>
       </c>
       <c r="D4" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="E4" t="s">
         <v>2062</v>
@@ -15064,7 +15067,7 @@
         <v>2074</v>
       </c>
       <c r="D19" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E19" t="s">
         <v>2075</v>
@@ -15081,7 +15084,7 @@
         <v>2075</v>
       </c>
       <c r="D20" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="E20" t="s">
         <v>2076</v>
@@ -15183,7 +15186,7 @@
         <v>2080</v>
       </c>
       <c r="D26" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="E26" t="s">
         <v>2080</v>
@@ -15234,7 +15237,7 @@
         <v>2082</v>
       </c>
       <c r="D29" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="E29" t="s">
         <v>2082</v>
@@ -15285,7 +15288,7 @@
         <v>3413</v>
       </c>
       <c r="D32" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E32" t="s">
         <v>2083</v>
@@ -15387,7 +15390,7 @@
         <v>2088</v>
       </c>
       <c r="D38" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="E38" t="s">
         <v>2089</v>
@@ -15489,7 +15492,7 @@
         <v>2094</v>
       </c>
       <c r="D44" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E44" t="s">
         <v>2095</v>
@@ -15506,7 +15509,7 @@
         <v>2095</v>
       </c>
       <c r="D45" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E45" t="s">
         <v>2092</v>
@@ -15523,7 +15526,7 @@
         <v>3416</v>
       </c>
       <c r="D46" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="E46" t="s">
         <v>2096</v>
@@ -15574,7 +15577,7 @@
         <v>2097</v>
       </c>
       <c r="D49" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E49" t="s">
         <v>2098</v>
@@ -15591,7 +15594,7 @@
         <v>2099</v>
       </c>
       <c r="D50" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E50" t="s">
         <v>2099</v>
@@ -15625,7 +15628,7 @@
         <v>2101</v>
       </c>
       <c r="D52" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E52" t="s">
         <v>2101</v>
@@ -15642,7 +15645,7 @@
         <v>3417</v>
       </c>
       <c r="D53" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E53" t="s">
         <v>2102</v>
@@ -15659,7 +15662,7 @@
         <v>2101</v>
       </c>
       <c r="D54" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E54" t="s">
         <v>2103</v>
@@ -15812,7 +15815,7 @@
         <v>2112</v>
       </c>
       <c r="D63" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="E63" t="s">
         <v>2112</v>
@@ -15982,7 +15985,7 @@
         <v>2119</v>
       </c>
       <c r="D73" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="E73" t="s">
         <v>2120</v>
@@ -16084,7 +16087,7 @@
         <v>2124</v>
       </c>
       <c r="D79" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E79" t="s">
         <v>2122</v>
@@ -16101,7 +16104,7 @@
         <v>2122</v>
       </c>
       <c r="D80" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="E80" t="s">
         <v>2125</v>
@@ -16390,7 +16393,7 @@
         <v>3428</v>
       </c>
       <c r="D97" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="E97" t="s">
         <v>2126</v>
@@ -16883,10 +16886,10 @@
         <v>2162</v>
       </c>
       <c r="D126" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E126" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -16968,7 +16971,7 @@
         <v>3443</v>
       </c>
       <c r="D131" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E131" t="s">
         <v>2167</v>
@@ -17087,7 +17090,7 @@
         <v>3442</v>
       </c>
       <c r="D138" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="E138" t="s">
         <v>2173</v>
@@ -17121,7 +17124,7 @@
         <v>3443</v>
       </c>
       <c r="D140" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E140" t="s">
         <v>2155</v>
@@ -17138,7 +17141,7 @@
         <v>2174</v>
       </c>
       <c r="D141" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E141" t="s">
         <v>2174</v>
@@ -17155,7 +17158,7 @@
         <v>3448</v>
       </c>
       <c r="D142" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E142" t="s">
         <v>2161</v>
@@ -17240,7 +17243,7 @@
         <v>3434</v>
       </c>
       <c r="D147" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E147" t="s">
         <v>2178</v>
@@ -17546,7 +17549,7 @@
         <v>2192</v>
       </c>
       <c r="D165" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E165" t="s">
         <v>2193</v>
@@ -17784,10 +17787,10 @@
         <v>2203</v>
       </c>
       <c r="D179" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E179" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -17923,7 +17926,7 @@
         <v>2210</v>
       </c>
       <c r="E187" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -18345,7 +18348,7 @@
         <v>3466</v>
       </c>
       <c r="D212" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E212" t="s">
         <v>3466</v>
@@ -18379,7 +18382,7 @@
         <v>2233</v>
       </c>
       <c r="D214" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E214" t="s">
         <v>2233</v>
@@ -18668,10 +18671,10 @@
         <v>2249</v>
       </c>
       <c r="D231" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E231" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -20014,7 +20017,7 @@
         <v>2314</v>
       </c>
       <c r="E310" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -20113,7 +20116,7 @@
         <v>3501</v>
       </c>
       <c r="D316" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E316" t="s">
         <v>2321</v>
@@ -20351,7 +20354,7 @@
         <v>2330</v>
       </c>
       <c r="D330" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E330" t="s">
         <v>2331</v>
@@ -20368,7 +20371,7 @@
         <v>2331</v>
       </c>
       <c r="D331" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E331" t="s">
         <v>2332</v>
@@ -20453,7 +20456,7 @@
         <v>2335</v>
       </c>
       <c r="D336" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E336" t="s">
         <v>2336</v>
@@ -20708,7 +20711,7 @@
         <v>2497</v>
       </c>
       <c r="D351" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E351" t="s">
         <v>2282</v>
@@ -20725,7 +20728,7 @@
         <v>3481</v>
       </c>
       <c r="D352" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E352" t="s">
         <v>2348</v>
@@ -20929,10 +20932,10 @@
         <v>2358</v>
       </c>
       <c r="D364" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E364" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -20946,7 +20949,7 @@
         <v>2404</v>
       </c>
       <c r="D365" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E365" t="s">
         <v>2359</v>
@@ -21694,7 +21697,7 @@
         <v>2393</v>
       </c>
       <c r="D409" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E409" t="s">
         <v>2393</v>
@@ -22255,7 +22258,7 @@
         <v>2415</v>
       </c>
       <c r="D442" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E442" t="s">
         <v>2416</v>
@@ -22442,7 +22445,7 @@
         <v>3522</v>
       </c>
       <c r="D453" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E453" t="s">
         <v>2377</v>
@@ -22714,7 +22717,7 @@
         <v>2437</v>
       </c>
       <c r="D469" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E469" t="s">
         <v>2438</v>
@@ -22782,7 +22785,7 @@
         <v>3527</v>
       </c>
       <c r="D473" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E473" t="s">
         <v>3486</v>
@@ -22969,7 +22972,7 @@
         <v>3481</v>
       </c>
       <c r="D484" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E484" t="s">
         <v>2449</v>
@@ -23734,7 +23737,7 @@
         <v>2477</v>
       </c>
       <c r="D529" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E529" t="s">
         <v>2478</v>
@@ -23870,7 +23873,7 @@
         <v>2480</v>
       </c>
       <c r="D537" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E537" t="s">
         <v>2484</v>
@@ -23921,7 +23924,7 @@
         <v>3535</v>
       </c>
       <c r="D540" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E540" t="s">
         <v>2487</v>
@@ -23938,7 +23941,7 @@
         <v>2339</v>
       </c>
       <c r="D541" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E541" t="s">
         <v>2457</v>
@@ -23989,7 +23992,7 @@
         <v>3536</v>
       </c>
       <c r="D544" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E544" t="s">
         <v>2490</v>
@@ -24006,7 +24009,7 @@
         <v>3537</v>
       </c>
       <c r="D545" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E545" t="s">
         <v>2491</v>
@@ -24023,7 +24026,7 @@
         <v>2455</v>
       </c>
       <c r="D546" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E546" t="s">
         <v>2345</v>
@@ -24074,7 +24077,7 @@
         <v>2470</v>
       </c>
       <c r="D549" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E549" t="s">
         <v>2492</v>
@@ -24108,7 +24111,7 @@
         <v>2279</v>
       </c>
       <c r="D551" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E551" t="s">
         <v>2493</v>
@@ -24210,7 +24213,7 @@
         <v>2443</v>
       </c>
       <c r="D557" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E557" t="s">
         <v>2498</v>
@@ -24244,7 +24247,7 @@
         <v>2924</v>
       </c>
       <c r="D559" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E559" t="s">
         <v>2499</v>
@@ -24261,7 +24264,7 @@
         <v>2499</v>
       </c>
       <c r="D560" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E560" t="s">
         <v>2429</v>
@@ -24295,7 +24298,7 @@
         <v>3543</v>
       </c>
       <c r="D562" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E562" t="s">
         <v>2500</v>
@@ -24329,10 +24332,10 @@
         <v>2340</v>
       </c>
       <c r="D564" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E564" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -24380,7 +24383,7 @@
         <v>3544</v>
       </c>
       <c r="D567" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E567" t="s">
         <v>2504</v>
@@ -24448,7 +24451,7 @@
         <v>3545</v>
       </c>
       <c r="D571" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E571" t="s">
         <v>2508</v>
@@ -24499,7 +24502,7 @@
         <v>2402</v>
       </c>
       <c r="D574" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E574" t="s">
         <v>2260</v>
@@ -24533,7 +24536,7 @@
         <v>3546</v>
       </c>
       <c r="D576" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E576" t="s">
         <v>2512</v>
@@ -24550,7 +24553,7 @@
         <v>2812</v>
       </c>
       <c r="D577" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E577" t="s">
         <v>2513</v>
@@ -24567,7 +24570,7 @@
         <v>2809</v>
       </c>
       <c r="D578" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E578" t="s">
         <v>2514</v>
@@ -24601,7 +24604,7 @@
         <v>2515</v>
       </c>
       <c r="D580" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E580" t="s">
         <v>2516</v>
@@ -24669,7 +24672,7 @@
         <v>2359</v>
       </c>
       <c r="D584" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E584" t="s">
         <v>2520</v>
@@ -24754,7 +24757,7 @@
         <v>2257</v>
       </c>
       <c r="D589" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E589" t="s">
         <v>2523</v>
@@ -24805,7 +24808,7 @@
         <v>2605</v>
       </c>
       <c r="D592" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E592" t="s">
         <v>2525</v>
@@ -25026,10 +25029,10 @@
         <v>2562</v>
       </c>
       <c r="D605" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E605" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -25077,7 +25080,7 @@
         <v>2518</v>
       </c>
       <c r="D608" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E608" t="s">
         <v>2532</v>
@@ -25179,7 +25182,7 @@
         <v>3553</v>
       </c>
       <c r="D614" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E614" t="s">
         <v>2537</v>
@@ -25420,7 +25423,7 @@
         <v>2523</v>
       </c>
       <c r="E628" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -25485,7 +25488,7 @@
         <v>2256</v>
       </c>
       <c r="D632" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E632" t="s">
         <v>2545</v>
@@ -25760,7 +25763,7 @@
         <v>2531</v>
       </c>
       <c r="E648" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25893,7 +25896,7 @@
         <v>2530</v>
       </c>
       <c r="D656" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E656" t="s">
         <v>2404</v>
@@ -25944,7 +25947,7 @@
         <v>2551</v>
       </c>
       <c r="D659" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E659" t="s">
         <v>2564</v>
@@ -26080,7 +26083,7 @@
         <v>2551</v>
       </c>
       <c r="D667" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E667" t="s">
         <v>2560</v>
@@ -26165,7 +26168,7 @@
         <v>3549</v>
       </c>
       <c r="D672" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E672" t="s">
         <v>2516</v>
@@ -26185,7 +26188,7 @@
         <v>2359</v>
       </c>
       <c r="E673" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -26216,7 +26219,7 @@
         <v>2711</v>
       </c>
       <c r="D675" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E675" t="s">
         <v>2568</v>
@@ -26386,7 +26389,7 @@
         <v>2220</v>
       </c>
       <c r="D685" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E685" t="s">
         <v>2543</v>
@@ -26573,7 +26576,7 @@
         <v>3559</v>
       </c>
       <c r="D696" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E696" t="s">
         <v>2578</v>
@@ -26981,7 +26984,7 @@
         <v>2523</v>
       </c>
       <c r="D720" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E720" t="s">
         <v>2523</v>
@@ -26998,7 +27001,7 @@
         <v>2523</v>
       </c>
       <c r="D721" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E721" t="s">
         <v>2583</v>
@@ -27015,7 +27018,7 @@
         <v>2523</v>
       </c>
       <c r="D722" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E722" t="s">
         <v>2593</v>
@@ -27117,7 +27120,7 @@
         <v>2549</v>
       </c>
       <c r="D728" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E728" t="s">
         <v>2597</v>
@@ -27134,7 +27137,7 @@
         <v>2593</v>
       </c>
       <c r="D729" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E729" t="s">
         <v>2592</v>
@@ -27168,7 +27171,7 @@
         <v>2592</v>
       </c>
       <c r="D731" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E731" t="s">
         <v>2599</v>
@@ -27202,7 +27205,7 @@
         <v>2622</v>
       </c>
       <c r="D733" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E733" t="s">
         <v>2601</v>
@@ -27338,7 +27341,7 @@
         <v>2578</v>
       </c>
       <c r="D741" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E741" t="s">
         <v>2604</v>
@@ -27406,7 +27409,7 @@
         <v>2711</v>
       </c>
       <c r="D745" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E745" t="s">
         <v>2606</v>
@@ -27559,7 +27562,7 @@
         <v>2562</v>
       </c>
       <c r="D754" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E754" t="s">
         <v>2605</v>
@@ -27695,7 +27698,7 @@
         <v>2548</v>
       </c>
       <c r="D762" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E762" t="s">
         <v>2617</v>
@@ -27712,7 +27715,7 @@
         <v>2256</v>
       </c>
       <c r="D763" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E763" t="s">
         <v>2618</v>
@@ -27729,7 +27732,7 @@
         <v>2226</v>
       </c>
       <c r="D764" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E764" t="s">
         <v>2619</v>
@@ -27780,7 +27783,7 @@
         <v>2219</v>
       </c>
       <c r="D767" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E767" t="s">
         <v>2613</v>
@@ -27814,7 +27817,7 @@
         <v>2564</v>
       </c>
       <c r="D769" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E769" t="s">
         <v>2259</v>
@@ -27916,7 +27919,7 @@
         <v>2525</v>
       </c>
       <c r="D775" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E775" t="s">
         <v>2620</v>
@@ -27933,7 +27936,7 @@
         <v>2227</v>
       </c>
       <c r="D776" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E776" t="s">
         <v>2532</v>
@@ -28069,10 +28072,10 @@
         <v>2256</v>
       </c>
       <c r="D784" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E784" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -28086,7 +28089,7 @@
         <v>2540</v>
       </c>
       <c r="D785" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E785" t="s">
         <v>2593</v>
@@ -28137,10 +28140,10 @@
         <v>2540</v>
       </c>
       <c r="D788" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E788" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -28375,10 +28378,10 @@
         <v>2828</v>
       </c>
       <c r="D802" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E802" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -28494,7 +28497,7 @@
         <v>2256</v>
       </c>
       <c r="D809" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E809" t="s">
         <v>2523</v>
@@ -28596,7 +28599,7 @@
         <v>3574</v>
       </c>
       <c r="D815" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E815" t="s">
         <v>2640</v>
@@ -28613,7 +28616,7 @@
         <v>2667</v>
       </c>
       <c r="D816" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E816" t="s">
         <v>2247</v>
@@ -28817,7 +28820,7 @@
         <v>3575</v>
       </c>
       <c r="D828" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E828" t="s">
         <v>2650</v>
@@ -28851,7 +28854,7 @@
         <v>2667</v>
       </c>
       <c r="D830" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E830" t="s">
         <v>2248</v>
@@ -28885,7 +28888,7 @@
         <v>3575</v>
       </c>
       <c r="D832" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E832" t="s">
         <v>2652</v>
@@ -28936,7 +28939,7 @@
         <v>3466</v>
       </c>
       <c r="D835" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E835" t="s">
         <v>2654</v>
@@ -28970,7 +28973,7 @@
         <v>2583</v>
       </c>
       <c r="D837" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E837" t="s">
         <v>2583</v>
@@ -29021,7 +29024,7 @@
         <v>3578</v>
       </c>
       <c r="D840" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E840" t="s">
         <v>2526</v>
@@ -29041,7 +29044,7 @@
         <v>2573</v>
       </c>
       <c r="E841" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -29378,7 +29381,7 @@
         <v>2258</v>
       </c>
       <c r="D861" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E861" t="s">
         <v>2664</v>
@@ -29548,7 +29551,7 @@
         <v>2227</v>
       </c>
       <c r="D871" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E871" t="s">
         <v>2252</v>
@@ -29582,7 +29585,7 @@
         <v>3582</v>
       </c>
       <c r="D873" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E873" t="s">
         <v>2668</v>
@@ -29701,7 +29704,7 @@
         <v>3586</v>
       </c>
       <c r="D880" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E880" t="s">
         <v>2673</v>
@@ -29769,7 +29772,7 @@
         <v>2546</v>
       </c>
       <c r="D884" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E884" t="s">
         <v>2638</v>
@@ -29939,7 +29942,7 @@
         <v>2257</v>
       </c>
       <c r="D894" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E894" t="s">
         <v>2682</v>
@@ -30058,7 +30061,7 @@
         <v>3515</v>
       </c>
       <c r="D901" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E901" t="s">
         <v>2686</v>
@@ -30126,7 +30129,7 @@
         <v>2528</v>
       </c>
       <c r="D905" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E905" t="s">
         <v>2690</v>
@@ -30279,7 +30282,7 @@
         <v>2702</v>
       </c>
       <c r="D914" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E914" t="s">
         <v>2526</v>
@@ -30483,7 +30486,7 @@
         <v>2359</v>
       </c>
       <c r="D926" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E926" t="s">
         <v>2698</v>
@@ -30568,7 +30571,7 @@
         <v>2513</v>
       </c>
       <c r="D931" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E931" t="s">
         <v>2702</v>
@@ -30653,7 +30656,7 @@
         <v>3549</v>
       </c>
       <c r="D936" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E936" t="s">
         <v>2360</v>
@@ -30738,7 +30741,7 @@
         <v>2848</v>
       </c>
       <c r="D941" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E941" t="s">
         <v>2707</v>
@@ -30840,7 +30843,7 @@
         <v>2688</v>
       </c>
       <c r="D947" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E947" t="s">
         <v>2402</v>
@@ -30857,7 +30860,7 @@
         <v>3594</v>
       </c>
       <c r="D948" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E948" t="s">
         <v>2709</v>
@@ -30925,7 +30928,7 @@
         <v>2403</v>
       </c>
       <c r="D952" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E952" t="s">
         <v>2710</v>
@@ -31180,7 +31183,7 @@
         <v>2554</v>
       </c>
       <c r="D967" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E967" t="s">
         <v>2516</v>
@@ -31265,7 +31268,7 @@
         <v>2708</v>
       </c>
       <c r="D972" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E972" t="s">
         <v>2717</v>
@@ -31316,7 +31319,7 @@
         <v>2270</v>
       </c>
       <c r="D975" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E975" t="s">
         <v>2397</v>
@@ -31350,7 +31353,7 @@
         <v>2831</v>
       </c>
       <c r="D977" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E977" t="s">
         <v>2719</v>
@@ -31707,7 +31710,7 @@
         <v>2372</v>
       </c>
       <c r="D998" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E998" t="s">
         <v>2733</v>
@@ -31724,7 +31727,7 @@
         <v>3603</v>
       </c>
       <c r="D999" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E999" t="s">
         <v>2734</v>
@@ -31809,7 +31812,7 @@
         <v>2377</v>
       </c>
       <c r="D1004" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E1004" t="s">
         <v>2425</v>
@@ -31979,7 +31982,7 @@
         <v>2839</v>
       </c>
       <c r="D1014" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E1014" t="s">
         <v>2427</v>
@@ -31996,7 +31999,7 @@
         <v>2839</v>
       </c>
       <c r="D1015" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E1015" t="s">
         <v>2427</v>
@@ -32030,7 +32033,7 @@
         <v>2860</v>
       </c>
       <c r="D1017" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1017" t="s">
         <v>2731</v>
@@ -32098,7 +32101,7 @@
         <v>2393</v>
       </c>
       <c r="D1021" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E1021" t="s">
         <v>2745</v>
@@ -32115,7 +32118,7 @@
         <v>2393</v>
       </c>
       <c r="D1022" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E1022" t="s">
         <v>2746</v>
@@ -32183,7 +32186,7 @@
         <v>2862</v>
       </c>
       <c r="D1026" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E1026" t="s">
         <v>2749</v>
@@ -32285,7 +32288,7 @@
         <v>2348</v>
       </c>
       <c r="D1032" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1032" t="s">
         <v>2754</v>
@@ -32336,7 +32339,7 @@
         <v>3543</v>
       </c>
       <c r="D1035" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E1035" t="s">
         <v>2286</v>
@@ -32438,7 +32441,7 @@
         <v>2452</v>
       </c>
       <c r="D1041" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E1041" t="s">
         <v>2762</v>
@@ -32540,7 +32543,7 @@
         <v>2761</v>
       </c>
       <c r="D1047" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E1047" t="s">
         <v>2765</v>
@@ -32611,7 +32614,7 @@
         <v>2277</v>
       </c>
       <c r="E1051" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -32866,7 +32869,7 @@
         <v>2776</v>
       </c>
       <c r="E1066" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
@@ -32948,7 +32951,7 @@
         <v>3605</v>
       </c>
       <c r="D1071" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E1071" t="s">
         <v>2351</v>
@@ -33169,7 +33172,7 @@
         <v>2393</v>
       </c>
       <c r="D1084" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1084" t="s">
         <v>2787</v>
@@ -33203,7 +33206,7 @@
         <v>2412</v>
       </c>
       <c r="D1086" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E1086" t="s">
         <v>2270</v>
@@ -33237,7 +33240,7 @@
         <v>2860</v>
       </c>
       <c r="D1088" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E1088" t="s">
         <v>2789</v>
@@ -33254,7 +33257,7 @@
         <v>2838</v>
       </c>
       <c r="D1089" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E1089" t="s">
         <v>2790</v>
@@ -33322,7 +33325,7 @@
         <v>2752</v>
       </c>
       <c r="D1093" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1093" t="s">
         <v>2792</v>
@@ -33407,10 +33410,10 @@
         <v>2803</v>
       </c>
       <c r="D1098" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1098" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -33424,10 +33427,10 @@
         <v>2341</v>
       </c>
       <c r="D1099" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1099" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -33458,7 +33461,7 @@
         <v>2861</v>
       </c>
       <c r="D1101" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E1101" t="s">
         <v>2805</v>
@@ -33475,7 +33478,7 @@
         <v>2803</v>
       </c>
       <c r="D1102" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1102" t="s">
         <v>2800</v>
@@ -33628,7 +33631,7 @@
         <v>2805</v>
       </c>
       <c r="D1111" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1111" t="s">
         <v>2806</v>
@@ -33662,7 +33665,7 @@
         <v>3607</v>
       </c>
       <c r="D1113" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E1113" t="s">
         <v>2807</v>
@@ -33679,7 +33682,7 @@
         <v>3608</v>
       </c>
       <c r="D1114" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E1114" t="s">
         <v>2735</v>
@@ -33696,7 +33699,7 @@
         <v>3609</v>
       </c>
       <c r="D1115" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1115" t="s">
         <v>2807</v>
@@ -33713,7 +33716,7 @@
         <v>3610</v>
       </c>
       <c r="D1116" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1116" t="s">
         <v>2808</v>
@@ -33832,7 +33835,7 @@
         <v>2372</v>
       </c>
       <c r="D1123" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1123" t="s">
         <v>2811</v>
@@ -33866,7 +33869,7 @@
         <v>3613</v>
       </c>
       <c r="D1125" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E1125" t="s">
         <v>2812</v>
@@ -33900,7 +33903,7 @@
         <v>2725</v>
       </c>
       <c r="D1127" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E1127" t="s">
         <v>2528</v>
@@ -34036,7 +34039,7 @@
         <v>2797</v>
       </c>
       <c r="D1135" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E1135" t="s">
         <v>2818</v>
@@ -34070,7 +34073,7 @@
         <v>2878</v>
       </c>
       <c r="D1137" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E1137" t="s">
         <v>2719</v>
@@ -34121,7 +34124,7 @@
         <v>3618</v>
       </c>
       <c r="D1140" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1140" t="s">
         <v>2821</v>
@@ -34138,7 +34141,7 @@
         <v>3544</v>
       </c>
       <c r="D1141" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E1141" t="s">
         <v>3600</v>
@@ -34155,7 +34158,7 @@
         <v>2821</v>
       </c>
       <c r="D1142" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1142" t="s">
         <v>2822</v>
@@ -34223,7 +34226,7 @@
         <v>2368</v>
       </c>
       <c r="D1146" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E1146" t="s">
         <v>2824</v>
@@ -34274,7 +34277,7 @@
         <v>3544</v>
       </c>
       <c r="D1149" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E1149" t="s">
         <v>2824</v>
@@ -34325,7 +34328,7 @@
         <v>3603</v>
       </c>
       <c r="D1152" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E1152" t="s">
         <v>2827</v>
@@ -34393,7 +34396,7 @@
         <v>2803</v>
       </c>
       <c r="D1156" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E1156" t="s">
         <v>2795</v>
@@ -34410,7 +34413,7 @@
         <v>2795</v>
       </c>
       <c r="D1157" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1157" t="s">
         <v>2269</v>
@@ -34427,7 +34430,7 @@
         <v>2269</v>
       </c>
       <c r="D1158" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1158" t="s">
         <v>2806</v>
@@ -34444,7 +34447,7 @@
         <v>2806</v>
       </c>
       <c r="D1159" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1159" t="s">
         <v>2828</v>
@@ -34461,7 +34464,7 @@
         <v>2831</v>
       </c>
       <c r="D1160" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E1160" t="s">
         <v>2266</v>
@@ -34478,7 +34481,7 @@
         <v>2266</v>
       </c>
       <c r="D1161" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1161" t="s">
         <v>2828</v>
@@ -34495,7 +34498,7 @@
         <v>3607</v>
       </c>
       <c r="D1162" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1162" t="s">
         <v>2372</v>
@@ -34529,7 +34532,7 @@
         <v>2266</v>
       </c>
       <c r="D1164" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1164" t="s">
         <v>2390</v>
@@ -34580,7 +34583,7 @@
         <v>2393</v>
       </c>
       <c r="D1167" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1167" t="s">
         <v>2830</v>
@@ -34631,7 +34634,7 @@
         <v>3622</v>
       </c>
       <c r="D1170" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1170" t="s">
         <v>2502</v>
@@ -34648,7 +34651,7 @@
         <v>2742</v>
       </c>
       <c r="D1171" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1171" t="s">
         <v>2786</v>
@@ -34665,7 +34668,7 @@
         <v>2837</v>
       </c>
       <c r="D1172" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1172" t="s">
         <v>2832</v>
@@ -34682,7 +34685,7 @@
         <v>3623</v>
       </c>
       <c r="D1173" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1173" t="s">
         <v>2833</v>
@@ -34801,7 +34804,7 @@
         <v>2278</v>
       </c>
       <c r="D1180" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1180" t="s">
         <v>2836</v>
@@ -34920,7 +34923,7 @@
         <v>2802</v>
       </c>
       <c r="D1187" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1187" t="s">
         <v>2742</v>
@@ -34954,7 +34957,7 @@
         <v>3627</v>
       </c>
       <c r="D1189" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1189" t="s">
         <v>2745</v>
@@ -34971,7 +34974,7 @@
         <v>2393</v>
       </c>
       <c r="D1190" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1190" t="s">
         <v>2839</v>
@@ -35022,7 +35025,7 @@
         <v>2841</v>
       </c>
       <c r="D1193" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1193" t="s">
         <v>2747</v>
@@ -35056,7 +35059,7 @@
         <v>2842</v>
       </c>
       <c r="D1195" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1195" t="s">
         <v>2268</v>
@@ -35073,7 +35076,7 @@
         <v>2397</v>
       </c>
       <c r="D1196" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1196" t="s">
         <v>2726</v>
@@ -35090,7 +35093,7 @@
         <v>2828</v>
       </c>
       <c r="D1197" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1197" t="s">
         <v>2844</v>
@@ -35141,7 +35144,7 @@
         <v>2845</v>
       </c>
       <c r="D1200" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1200" t="s">
         <v>2529</v>
@@ -35158,7 +35161,7 @@
         <v>2737</v>
       </c>
       <c r="D1201" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1201" t="s">
         <v>2688</v>
@@ -35175,7 +35178,7 @@
         <v>2224</v>
       </c>
       <c r="D1202" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1202" t="s">
         <v>2508</v>
@@ -35277,7 +35280,7 @@
         <v>2817</v>
       </c>
       <c r="D1208" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1208" t="s">
         <v>2826</v>
@@ -35294,7 +35297,7 @@
         <v>2735</v>
       </c>
       <c r="D1209" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1209" t="s">
         <v>2848</v>
@@ -35311,7 +35314,7 @@
         <v>2515</v>
       </c>
       <c r="D1210" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1210" t="s">
         <v>2849</v>
@@ -35362,7 +35365,7 @@
         <v>3478</v>
       </c>
       <c r="D1213" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1213" t="s">
         <v>2850</v>
@@ -35379,7 +35382,7 @@
         <v>3478</v>
       </c>
       <c r="D1214" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1214" t="s">
         <v>3478</v>
@@ -35396,7 +35399,7 @@
         <v>2508</v>
       </c>
       <c r="D1215" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1215" t="s">
         <v>2849</v>
@@ -35413,7 +35416,7 @@
         <v>2515</v>
       </c>
       <c r="D1216" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1216" t="s">
         <v>2263</v>
@@ -35464,7 +35467,7 @@
         <v>2528</v>
       </c>
       <c r="D1219" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1219" t="s">
         <v>2506</v>
@@ -35498,10 +35501,10 @@
         <v>2809</v>
       </c>
       <c r="D1221" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1221" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1222" spans="1:5">
@@ -35515,7 +35518,7 @@
         <v>3544</v>
       </c>
       <c r="D1222" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1222" t="s">
         <v>2368</v>
@@ -35685,7 +35688,7 @@
         <v>2855</v>
       </c>
       <c r="D1232" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1232" t="s">
         <v>2761</v>
@@ -35702,7 +35705,7 @@
         <v>2443</v>
       </c>
       <c r="D1233" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1233" t="s">
         <v>2443</v>
@@ -35753,7 +35756,7 @@
         <v>2490</v>
       </c>
       <c r="D1236" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1236" t="s">
         <v>2759</v>
@@ -35787,7 +35790,7 @@
         <v>2856</v>
       </c>
       <c r="D1238" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1238" t="s">
         <v>2452</v>
@@ -35804,7 +35807,7 @@
         <v>2452</v>
       </c>
       <c r="D1239" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1239" t="s">
         <v>2277</v>
@@ -35838,7 +35841,7 @@
         <v>3632</v>
       </c>
       <c r="D1241" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1241" t="s">
         <v>2765</v>
@@ -35906,7 +35909,7 @@
         <v>2297</v>
       </c>
       <c r="D1245" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1245" t="s">
         <v>2455</v>
@@ -35991,7 +35994,7 @@
         <v>2759</v>
       </c>
       <c r="D1250" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1250" t="s">
         <v>2467</v>
@@ -36042,7 +36045,7 @@
         <v>2432</v>
       </c>
       <c r="D1253" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1253" t="s">
         <v>2834</v>
@@ -36076,7 +36079,7 @@
         <v>2860</v>
       </c>
       <c r="D1255" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E1255" t="s">
         <v>2861</v>
@@ -36093,7 +36096,7 @@
         <v>3479</v>
       </c>
       <c r="D1256" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1256" t="s">
         <v>2805</v>
@@ -36314,7 +36317,7 @@
         <v>3640</v>
       </c>
       <c r="D1269" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1269" t="s">
         <v>2866</v>
@@ -36331,7 +36334,7 @@
         <v>2866</v>
       </c>
       <c r="D1270" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1270" t="s">
         <v>2758</v>
@@ -36348,7 +36351,7 @@
         <v>3641</v>
       </c>
       <c r="D1271" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1271" t="s">
         <v>2497</v>
@@ -36433,7 +36436,7 @@
         <v>2278</v>
       </c>
       <c r="D1276" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1276" t="s">
         <v>2864</v>
@@ -36450,7 +36453,7 @@
         <v>2923</v>
       </c>
       <c r="D1277" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E1277" t="s">
         <v>2348</v>
@@ -36637,7 +36640,7 @@
         <v>2783</v>
       </c>
       <c r="D1288" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1288" t="s">
         <v>2868</v>
@@ -36858,7 +36861,7 @@
         <v>2870</v>
       </c>
       <c r="D1301" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1301" t="s">
         <v>2283</v>
@@ -36875,7 +36878,7 @@
         <v>3643</v>
       </c>
       <c r="D1302" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1302" t="s">
         <v>2285</v>
@@ -36977,7 +36980,7 @@
         <v>2926</v>
       </c>
       <c r="D1308" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1308" t="s">
         <v>2763</v>
@@ -37028,7 +37031,7 @@
         <v>3650</v>
       </c>
       <c r="D1311" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1311" t="s">
         <v>2871</v>
@@ -37045,7 +37048,7 @@
         <v>3650</v>
       </c>
       <c r="D1312" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1312" t="s">
         <v>2491</v>
@@ -37062,7 +37065,7 @@
         <v>2924</v>
       </c>
       <c r="D1313" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1313" t="s">
         <v>2451</v>
@@ -37096,7 +37099,7 @@
         <v>2345</v>
       </c>
       <c r="D1315" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1315" t="s">
         <v>2343</v>
@@ -37198,7 +37201,7 @@
         <v>3654</v>
       </c>
       <c r="D1321" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1321" t="s">
         <v>2874</v>
@@ -37215,7 +37218,7 @@
         <v>3655</v>
       </c>
       <c r="D1322" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1322" t="s">
         <v>2875</v>
@@ -37249,7 +37252,7 @@
         <v>3656</v>
       </c>
       <c r="D1324" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1324" t="s">
         <v>2382</v>
@@ -37266,7 +37269,7 @@
         <v>3657</v>
       </c>
       <c r="D1325" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1325" t="s">
         <v>2731</v>
@@ -37283,7 +37286,7 @@
         <v>3658</v>
       </c>
       <c r="D1326" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1326" t="s">
         <v>2388</v>
@@ -37300,7 +37303,7 @@
         <v>3659</v>
       </c>
       <c r="D1327" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1327" t="s">
         <v>2270</v>
@@ -37351,7 +37354,7 @@
         <v>3660</v>
       </c>
       <c r="D1330" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1330" t="s">
         <v>2398</v>
@@ -37385,7 +37388,7 @@
         <v>3661</v>
       </c>
       <c r="D1332" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1332" t="s">
         <v>2502</v>
@@ -37402,7 +37405,7 @@
         <v>3612</v>
       </c>
       <c r="D1333" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1333" t="s">
         <v>2804</v>
@@ -37504,7 +37507,7 @@
         <v>2795</v>
       </c>
       <c r="D1339" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1339" t="s">
         <v>2388</v>
@@ -37524,7 +37527,7 @@
         <v>2732</v>
       </c>
       <c r="E1340" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -37538,7 +37541,7 @@
         <v>3664</v>
       </c>
       <c r="D1341" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1341" t="s">
         <v>2742</v>
@@ -37589,7 +37592,7 @@
         <v>2341</v>
       </c>
       <c r="D1344" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1344" t="s">
         <v>2373</v>
@@ -37606,7 +37609,7 @@
         <v>3665</v>
       </c>
       <c r="D1345" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1345" t="s">
         <v>2412</v>
@@ -37623,7 +37626,7 @@
         <v>3660</v>
       </c>
       <c r="D1346" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1346" t="s">
         <v>2797</v>
@@ -37657,7 +37660,7 @@
         <v>2805</v>
       </c>
       <c r="D1348" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1348" t="s">
         <v>2819</v>
@@ -37674,7 +37677,7 @@
         <v>2818</v>
       </c>
       <c r="D1349" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1349" t="s">
         <v>2877</v>
@@ -37691,7 +37694,7 @@
         <v>3659</v>
       </c>
       <c r="D1350" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1350" t="s">
         <v>2878</v>
@@ -37810,7 +37813,7 @@
         <v>2763</v>
       </c>
       <c r="D1357" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1357" t="s">
         <v>2879</v>
@@ -37844,7 +37847,7 @@
         <v>2291</v>
       </c>
       <c r="D1359" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1359" t="s">
         <v>2881</v>
@@ -38048,7 +38051,7 @@
         <v>3653</v>
       </c>
       <c r="D1371" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1371" t="s">
         <v>2486</v>
@@ -38116,7 +38119,7 @@
         <v>3670</v>
       </c>
       <c r="D1375" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1375" t="s">
         <v>2888</v>
@@ -38150,7 +38153,7 @@
         <v>3672</v>
       </c>
       <c r="D1377" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1377" t="s">
         <v>2890</v>
@@ -38167,10 +38170,10 @@
         <v>3673</v>
       </c>
       <c r="D1378" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1378" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -38184,10 +38187,10 @@
         <v>2942</v>
       </c>
       <c r="D1379" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1379" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -38201,7 +38204,7 @@
         <v>3674</v>
       </c>
       <c r="D1380" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1380" t="s">
         <v>3671</v>
@@ -38252,10 +38255,10 @@
         <v>3677</v>
       </c>
       <c r="D1383" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1383" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -38269,10 +38272,10 @@
         <v>3678</v>
       </c>
       <c r="D1384" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1384" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -38286,10 +38289,10 @@
         <v>3679</v>
       </c>
       <c r="D1385" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1385" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -38303,7 +38306,7 @@
         <v>3680</v>
       </c>
       <c r="D1386" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1386" t="s">
         <v>2899</v>
@@ -38320,10 +38323,10 @@
         <v>3681</v>
       </c>
       <c r="D1387" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1387" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -38340,7 +38343,7 @@
         <v>2331</v>
       </c>
       <c r="E1388" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38354,10 +38357,10 @@
         <v>3683</v>
       </c>
       <c r="D1389" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1389" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38371,10 +38374,10 @@
         <v>3047</v>
       </c>
       <c r="D1390" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1390" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -38388,7 +38391,7 @@
         <v>3681</v>
       </c>
       <c r="D1391" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1391" t="s">
         <v>2904</v>
@@ -38408,7 +38411,7 @@
         <v>2325</v>
       </c>
       <c r="E1392" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -38425,7 +38428,7 @@
         <v>3502</v>
       </c>
       <c r="E1393" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38439,10 +38442,10 @@
         <v>2977</v>
       </c>
       <c r="D1394" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1394" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38459,7 +38462,7 @@
         <v>2759</v>
       </c>
       <c r="E1395" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38473,7 +38476,7 @@
         <v>3686</v>
       </c>
       <c r="D1396" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1396" t="s">
         <v>2887</v>
@@ -38510,7 +38513,7 @@
         <v>2302</v>
       </c>
       <c r="E1398" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38524,10 +38527,10 @@
         <v>3688</v>
       </c>
       <c r="D1399" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1399" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38558,7 +38561,7 @@
         <v>3689</v>
       </c>
       <c r="D1401" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1401" t="s">
         <v>2913</v>
@@ -38592,7 +38595,7 @@
         <v>2914</v>
       </c>
       <c r="D1403" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1403" t="s">
         <v>3636</v>
@@ -38660,10 +38663,10 @@
         <v>3691</v>
       </c>
       <c r="D1407" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1407" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38694,10 +38697,10 @@
         <v>3693</v>
       </c>
       <c r="D1409" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1409" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38762,7 +38765,7 @@
         <v>3696</v>
       </c>
       <c r="D1413" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1413" t="s">
         <v>2922</v>
@@ -38782,7 +38785,7 @@
         <v>2863</v>
       </c>
       <c r="E1414" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -38799,7 +38802,7 @@
         <v>2860</v>
       </c>
       <c r="E1415" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -38813,7 +38816,7 @@
         <v>2441</v>
       </c>
       <c r="D1416" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1416" t="s">
         <v>2924</v>
@@ -38833,7 +38836,7 @@
         <v>2443</v>
       </c>
       <c r="E1417" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38847,10 +38850,10 @@
         <v>2489</v>
       </c>
       <c r="D1418" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1418" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
@@ -38867,7 +38870,7 @@
         <v>2496</v>
       </c>
       <c r="E1419" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -38918,7 +38921,7 @@
         <v>2928</v>
       </c>
       <c r="E1422" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -38932,7 +38935,7 @@
         <v>3653</v>
       </c>
       <c r="D1423" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1423" t="s">
         <v>2357</v>
@@ -38952,7 +38955,7 @@
         <v>2486</v>
       </c>
       <c r="E1424" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -39003,7 +39006,7 @@
         <v>3529</v>
       </c>
       <c r="E1427" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39034,7 +39037,7 @@
         <v>3700</v>
       </c>
       <c r="D1429" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1429" t="s">
         <v>2935</v>
@@ -39051,10 +39054,10 @@
         <v>3701</v>
       </c>
       <c r="D1430" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1430" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -39085,7 +39088,7 @@
         <v>2937</v>
       </c>
       <c r="D1432" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1432" t="s">
         <v>2303</v>
@@ -39170,7 +39173,7 @@
         <v>3704</v>
       </c>
       <c r="D1437" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1437" t="s">
         <v>2941</v>
@@ -39187,7 +39190,7 @@
         <v>3705</v>
       </c>
       <c r="D1438" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1438" t="s">
         <v>2942</v>
@@ -39221,7 +39224,7 @@
         <v>3707</v>
       </c>
       <c r="D1440" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1440" t="s">
         <v>2944</v>
@@ -39255,7 +39258,7 @@
         <v>3708</v>
       </c>
       <c r="D1442" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1442" t="s">
         <v>2946</v>
@@ -39272,7 +39275,7 @@
         <v>2946</v>
       </c>
       <c r="D1443" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1443" t="s">
         <v>2947</v>
@@ -39289,7 +39292,7 @@
         <v>2458</v>
       </c>
       <c r="D1444" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1444" t="s">
         <v>2921</v>
@@ -39306,7 +39309,7 @@
         <v>3489</v>
       </c>
       <c r="D1445" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1445" t="s">
         <v>2948</v>
@@ -39340,10 +39343,10 @@
         <v>3710</v>
       </c>
       <c r="D1447" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1447" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="1448" spans="1:5">
@@ -39357,10 +39360,10 @@
         <v>3711</v>
       </c>
       <c r="D1448" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1448" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="1449" spans="1:5">
@@ -39374,7 +39377,7 @@
         <v>3712</v>
       </c>
       <c r="D1449" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1449" t="s">
         <v>2303</v>
@@ -39394,7 +39397,7 @@
         <v>2951</v>
       </c>
       <c r="E1450" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -39442,10 +39445,10 @@
         <v>3716</v>
       </c>
       <c r="D1453" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1453" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -39459,10 +39462,10 @@
         <v>3717</v>
       </c>
       <c r="D1454" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1454" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -39476,7 +39479,7 @@
         <v>3718</v>
       </c>
       <c r="D1455" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1455" t="s">
         <v>3718</v>
@@ -39510,7 +39513,7 @@
         <v>3720</v>
       </c>
       <c r="D1457" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1457" t="s">
         <v>2957</v>
@@ -39527,7 +39530,7 @@
         <v>3721</v>
       </c>
       <c r="D1458" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1458" t="s">
         <v>2957</v>
@@ -39561,10 +39564,10 @@
         <v>2978</v>
       </c>
       <c r="D1460" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1460" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39578,10 +39581,10 @@
         <v>3723</v>
       </c>
       <c r="D1461" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1461" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1462" spans="1:5">
@@ -39595,7 +39598,7 @@
         <v>2330</v>
       </c>
       <c r="D1462" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E1462" t="s">
         <v>2960</v>
@@ -39612,7 +39615,7 @@
         <v>3724</v>
       </c>
       <c r="D1463" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1463" t="s">
         <v>2980</v>
@@ -39629,10 +39632,10 @@
         <v>3725</v>
       </c>
       <c r="D1464" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1464" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39646,10 +39649,10 @@
         <v>2959</v>
       </c>
       <c r="D1465" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1465" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -39680,10 +39683,10 @@
         <v>3727</v>
       </c>
       <c r="D1467" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1467" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39697,10 +39700,10 @@
         <v>3728</v>
       </c>
       <c r="D1468" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1468" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -39717,7 +39720,7 @@
         <v>2966</v>
       </c>
       <c r="E1469" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1470" spans="1:5">
@@ -39748,7 +39751,7 @@
         <v>3731</v>
       </c>
       <c r="D1471" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1471" t="s">
         <v>2957</v>
@@ -39765,10 +39768,10 @@
         <v>3502</v>
       </c>
       <c r="D1472" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1472" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -39785,7 +39788,7 @@
         <v>2968</v>
       </c>
       <c r="E1473" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -39799,10 +39802,10 @@
         <v>2957</v>
       </c>
       <c r="D1474" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1474" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39816,10 +39819,10 @@
         <v>2323</v>
       </c>
       <c r="D1475" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1475" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39833,7 +39836,7 @@
         <v>3732</v>
       </c>
       <c r="D1476" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1476" t="s">
         <v>2972</v>
@@ -39850,7 +39853,7 @@
         <v>3721</v>
       </c>
       <c r="D1477" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1477" t="s">
         <v>2973</v>
@@ -39901,7 +39904,7 @@
         <v>3733</v>
       </c>
       <c r="D1480" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1480" t="s">
         <v>2976</v>
@@ -39935,7 +39938,7 @@
         <v>3734</v>
       </c>
       <c r="D1482" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1482" t="s">
         <v>2978</v>
@@ -39952,7 +39955,7 @@
         <v>2978</v>
       </c>
       <c r="D1483" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1483" t="s">
         <v>2978</v>
@@ -39986,7 +39989,7 @@
         <v>2962</v>
       </c>
       <c r="D1485" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1485" t="s">
         <v>2329</v>
@@ -40003,7 +40006,7 @@
         <v>3736</v>
       </c>
       <c r="D1486" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1486" t="s">
         <v>2979</v>
@@ -40020,7 +40023,7 @@
         <v>3737</v>
       </c>
       <c r="D1487" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1487" t="s">
         <v>2961</v>
@@ -40037,10 +40040,10 @@
         <v>3727</v>
       </c>
       <c r="D1488" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1488" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -40054,10 +40057,10 @@
         <v>3738</v>
       </c>
       <c r="D1489" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1489" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1490" spans="1:5">
@@ -40074,7 +40077,7 @@
         <v>3753</v>
       </c>
       <c r="E1490" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -40122,7 +40125,7 @@
         <v>3740</v>
       </c>
       <c r="D1493" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1493" t="s">
         <v>3006</v>
@@ -40156,7 +40159,7 @@
         <v>3742</v>
       </c>
       <c r="D1495" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1495" t="s">
         <v>3046</v>
@@ -40173,7 +40176,7 @@
         <v>3743</v>
       </c>
       <c r="D1496" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1496" t="s">
         <v>2988</v>
@@ -40193,7 +40196,7 @@
         <v>2987</v>
       </c>
       <c r="E1497" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1498" spans="1:5">
@@ -40207,10 +40210,10 @@
         <v>3744</v>
       </c>
       <c r="D1498" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1498" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40241,10 +40244,10 @@
         <v>3746</v>
       </c>
       <c r="D1500" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1500" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40258,7 +40261,7 @@
         <v>3063</v>
       </c>
       <c r="D1501" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1501" t="s">
         <v>2993</v>
@@ -40278,7 +40281,7 @@
         <v>3745</v>
       </c>
       <c r="E1502" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1503" spans="1:5">
@@ -40295,7 +40298,7 @@
         <v>3005</v>
       </c>
       <c r="E1503" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -40309,7 +40312,7 @@
         <v>3749</v>
       </c>
       <c r="D1504" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1504" t="s">
         <v>3046</v>
@@ -40326,7 +40329,7 @@
         <v>3750</v>
       </c>
       <c r="D1505" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1505" t="s">
         <v>2996</v>
@@ -40363,7 +40366,7 @@
         <v>2997</v>
       </c>
       <c r="E1507" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40380,7 +40383,7 @@
         <v>2906</v>
       </c>
       <c r="E1508" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40394,10 +40397,10 @@
         <v>3753</v>
       </c>
       <c r="D1509" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1509" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -40411,10 +40414,10 @@
         <v>3000</v>
       </c>
       <c r="D1510" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1510" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40428,7 +40431,7 @@
         <v>3754</v>
       </c>
       <c r="D1511" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1511" t="s">
         <v>3001</v>
@@ -40448,7 +40451,7 @@
         <v>3001</v>
       </c>
       <c r="E1512" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40462,10 +40465,10 @@
         <v>2984</v>
       </c>
       <c r="D1513" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1513" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40479,10 +40482,10 @@
         <v>3755</v>
       </c>
       <c r="D1514" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1514" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -40496,7 +40499,7 @@
         <v>3756</v>
       </c>
       <c r="D1515" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1515" t="s">
         <v>2982</v>
@@ -40530,10 +40533,10 @@
         <v>3005</v>
       </c>
       <c r="D1517" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1517" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40547,10 +40550,10 @@
         <v>3006</v>
       </c>
       <c r="D1518" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1518" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40564,7 +40567,7 @@
         <v>3758</v>
       </c>
       <c r="D1519" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1519" t="s">
         <v>3001</v>
@@ -40581,10 +40584,10 @@
         <v>3726</v>
       </c>
       <c r="D1520" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1520" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40598,10 +40601,10 @@
         <v>3759</v>
       </c>
       <c r="D1521" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1521" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -40615,10 +40618,10 @@
         <v>2984</v>
       </c>
       <c r="D1522" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1522" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40632,7 +40635,7 @@
         <v>3760</v>
       </c>
       <c r="D1523" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1523" t="s">
         <v>3012</v>
@@ -40686,7 +40689,7 @@
         <v>3012</v>
       </c>
       <c r="E1526" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40717,10 +40720,10 @@
         <v>3765</v>
       </c>
       <c r="D1528" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1528" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40751,7 +40754,7 @@
         <v>3767</v>
       </c>
       <c r="D1530" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1530" t="s">
         <v>3053</v>
@@ -40768,7 +40771,7 @@
         <v>3768</v>
       </c>
       <c r="D1531" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1531" t="s">
         <v>3018</v>
@@ -40802,10 +40805,10 @@
         <v>3018</v>
       </c>
       <c r="D1533" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1533" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40819,10 +40822,10 @@
         <v>3770</v>
       </c>
       <c r="D1534" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1534" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -40836,10 +40839,10 @@
         <v>3771</v>
       </c>
       <c r="D1535" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1535" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -40887,7 +40890,7 @@
         <v>3773</v>
       </c>
       <c r="D1538" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1538" t="s">
         <v>3023</v>
@@ -40904,7 +40907,7 @@
         <v>3774</v>
       </c>
       <c r="D1539" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1539" t="s">
         <v>3024</v>
@@ -40921,10 +40924,10 @@
         <v>3775</v>
       </c>
       <c r="D1540" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1540" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40938,7 +40941,7 @@
         <v>3776</v>
       </c>
       <c r="D1541" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1541" t="s">
         <v>3026</v>
@@ -40955,7 +40958,7 @@
         <v>3777</v>
       </c>
       <c r="D1542" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1542" t="s">
         <v>3027</v>
@@ -40989,7 +40992,7 @@
         <v>3779</v>
       </c>
       <c r="D1544" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1544" t="s">
         <v>3029</v>
@@ -41006,10 +41009,10 @@
         <v>3780</v>
       </c>
       <c r="D1545" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1545" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41040,7 +41043,7 @@
         <v>3782</v>
       </c>
       <c r="D1547" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1547" t="s">
         <v>3789</v>
@@ -41057,10 +41060,10 @@
         <v>3783</v>
       </c>
       <c r="D1548" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1548" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -41077,7 +41080,7 @@
         <v>3059</v>
       </c>
       <c r="E1549" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -41091,10 +41094,10 @@
         <v>3785</v>
       </c>
       <c r="D1550" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1550" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41108,7 +41111,7 @@
         <v>3786</v>
       </c>
       <c r="D1551" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1551" t="s">
         <v>3035</v>
@@ -41125,10 +41128,10 @@
         <v>3786</v>
       </c>
       <c r="D1552" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1552" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -41142,10 +41145,10 @@
         <v>3036</v>
       </c>
       <c r="D1553" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1553" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -41159,7 +41162,7 @@
         <v>3787</v>
       </c>
       <c r="D1554" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1554" t="s">
         <v>3067</v>
@@ -41179,7 +41182,7 @@
         <v>3742</v>
       </c>
       <c r="E1555" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41193,7 +41196,7 @@
         <v>3789</v>
       </c>
       <c r="D1556" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1556" t="s">
         <v>3040</v>
@@ -41210,7 +41213,7 @@
         <v>3040</v>
       </c>
       <c r="D1557" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1557" t="s">
         <v>3025</v>
@@ -41230,7 +41233,7 @@
         <v>3046</v>
       </c>
       <c r="E1558" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41244,7 +41247,7 @@
         <v>3791</v>
       </c>
       <c r="D1559" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1559" t="s">
         <v>3042</v>
@@ -41261,10 +41264,10 @@
         <v>3792</v>
       </c>
       <c r="D1560" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1560" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41278,10 +41281,10 @@
         <v>3077</v>
       </c>
       <c r="D1561" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1561" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1562" spans="1:5">
@@ -41295,10 +41298,10 @@
         <v>3793</v>
       </c>
       <c r="D1562" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1562" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41312,7 +41315,7 @@
         <v>3045</v>
       </c>
       <c r="D1563" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1563" t="s">
         <v>3030</v>
@@ -41329,7 +41332,7 @@
         <v>3794</v>
       </c>
       <c r="D1564" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1564" t="s">
         <v>2987</v>
@@ -41346,10 +41349,10 @@
         <v>2989</v>
       </c>
       <c r="D1565" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1565" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41363,7 +41366,7 @@
         <v>3764</v>
       </c>
       <c r="D1566" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1566" t="s">
         <v>3048</v>
@@ -41380,7 +41383,7 @@
         <v>3795</v>
       </c>
       <c r="D1567" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1567" t="s">
         <v>3049</v>
@@ -41397,7 +41400,7 @@
         <v>3796</v>
       </c>
       <c r="D1568" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1568" t="s">
         <v>3050</v>
@@ -41414,7 +41417,7 @@
         <v>3797</v>
       </c>
       <c r="D1569" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1569" t="s">
         <v>3049</v>
@@ -41465,7 +41468,7 @@
         <v>3800</v>
       </c>
       <c r="D1572" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1572" t="s">
         <v>3017</v>
@@ -41482,7 +41485,7 @@
         <v>3054</v>
       </c>
       <c r="D1573" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1573" t="s">
         <v>3055</v>
@@ -41516,10 +41519,10 @@
         <v>3783</v>
       </c>
       <c r="D1575" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1575" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41533,7 +41536,7 @@
         <v>3801</v>
       </c>
       <c r="D1576" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1576" t="s">
         <v>3056</v>
@@ -41584,7 +41587,7 @@
         <v>3804</v>
       </c>
       <c r="D1579" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1579" t="s">
         <v>3059</v>
@@ -41601,10 +41604,10 @@
         <v>3805</v>
       </c>
       <c r="D1580" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1580" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -41618,7 +41621,7 @@
         <v>3806</v>
       </c>
       <c r="D1581" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1581" t="s">
         <v>3061</v>
@@ -41635,7 +41638,7 @@
         <v>3061</v>
       </c>
       <c r="D1582" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1582" t="s">
         <v>3024</v>
@@ -41652,10 +41655,10 @@
         <v>3748</v>
       </c>
       <c r="D1583" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1583" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -41672,7 +41675,7 @@
         <v>3746</v>
       </c>
       <c r="E1584" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -41737,10 +41740,10 @@
         <v>3811</v>
       </c>
       <c r="D1588" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1588" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1589" spans="1:5">
@@ -41754,7 +41757,7 @@
         <v>3812</v>
       </c>
       <c r="D1589" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1589" t="s">
         <v>3799</v>
@@ -41978,7 +41981,7 @@
         <v>3067</v>
       </c>
       <c r="E1602" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1603" spans="1:5">
@@ -42165,7 +42168,7 @@
         <v>3067</v>
       </c>
       <c r="E1613" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1614" spans="1:5">
@@ -42335,7 +42338,7 @@
         <v>3067</v>
       </c>
       <c r="E1623" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42349,10 +42352,10 @@
         <v>3832</v>
       </c>
       <c r="D1624" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1624" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -42366,10 +42369,10 @@
         <v>3833</v>
       </c>
       <c r="D1625" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1625" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -42383,10 +42386,10 @@
         <v>3834</v>
       </c>
       <c r="D1626" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1626" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -42400,7 +42403,7 @@
         <v>3835</v>
       </c>
       <c r="D1627" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1627" t="s">
         <v>3080</v>
@@ -42417,10 +42420,10 @@
         <v>3836</v>
       </c>
       <c r="D1628" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1628" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1629" spans="1:5">
@@ -42434,10 +42437,10 @@
         <v>3837</v>
       </c>
       <c r="D1629" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1629" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -42451,7 +42454,7 @@
         <v>3838</v>
       </c>
       <c r="D1630" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1630" t="s">
         <v>3076</v>
@@ -42468,7 +42471,7 @@
         <v>3839</v>
       </c>
       <c r="D1631" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1631" t="s">
         <v>3076</v>
@@ -42485,7 +42488,7 @@
         <v>3840</v>
       </c>
       <c r="D1632" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1632" t="s">
         <v>3075</v>
@@ -42502,7 +42505,7 @@
         <v>3841</v>
       </c>
       <c r="D1633" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1633" t="s">
         <v>3075</v>
@@ -42519,7 +42522,7 @@
         <v>3841</v>
       </c>
       <c r="D1634" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1634" t="s">
         <v>3074</v>
@@ -42536,7 +42539,7 @@
         <v>3842</v>
       </c>
       <c r="D1635" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1635" t="s">
         <v>3082</v>
@@ -42553,7 +42556,7 @@
         <v>3825</v>
       </c>
       <c r="D1636" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1636" t="s">
         <v>3082</v>
@@ -42675,7 +42678,7 @@
         <v>3082</v>
       </c>
       <c r="E1643" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42760,7 +42763,7 @@
         <v>3082</v>
       </c>
       <c r="E1648" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -43080,7 +43083,7 @@
         <v>3865</v>
       </c>
       <c r="D1667" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1667" t="s">
         <v>3082</v>
@@ -43097,7 +43100,7 @@
         <v>3082</v>
       </c>
       <c r="D1668" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1668" t="s">
         <v>3082</v>
@@ -43114,7 +43117,7 @@
         <v>3082</v>
       </c>
       <c r="D1669" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1669" t="s">
         <v>3082</v>
@@ -43134,7 +43137,7 @@
         <v>3819</v>
       </c>
       <c r="E1670" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -43165,10 +43168,10 @@
         <v>3867</v>
       </c>
       <c r="D1672" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1672" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -43182,10 +43185,10 @@
         <v>3868</v>
       </c>
       <c r="D1673" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1673" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -43199,10 +43202,10 @@
         <v>3334</v>
       </c>
       <c r="D1674" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1674" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -43216,7 +43219,7 @@
         <v>3869</v>
       </c>
       <c r="D1675" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1675" t="s">
         <v>4028</v>
@@ -43233,10 +43236,10 @@
         <v>3870</v>
       </c>
       <c r="D1676" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1676" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -43250,10 +43253,10 @@
         <v>3871</v>
       </c>
       <c r="D1677" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1677" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -43267,10 +43270,10 @@
         <v>3872</v>
       </c>
       <c r="D1678" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1678" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -43284,10 +43287,10 @@
         <v>3873</v>
       </c>
       <c r="D1679" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1679" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -43301,10 +43304,10 @@
         <v>3874</v>
       </c>
       <c r="D1680" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1680" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43318,7 +43321,7 @@
         <v>3875</v>
       </c>
       <c r="D1681" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1681" t="s">
         <v>3097</v>
@@ -43420,7 +43423,7 @@
         <v>3098</v>
       </c>
       <c r="D1687" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1687" t="s">
         <v>3098</v>
@@ -43437,10 +43440,10 @@
         <v>3098</v>
       </c>
       <c r="D1688" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1688" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43454,7 +43457,7 @@
         <v>3098</v>
       </c>
       <c r="D1689" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1689" t="s">
         <v>3098</v>
@@ -43471,7 +43474,7 @@
         <v>3098</v>
       </c>
       <c r="D1690" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1690" t="s">
         <v>3098</v>
@@ -43522,7 +43525,7 @@
         <v>3098</v>
       </c>
       <c r="D1693" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1693" t="s">
         <v>3098</v>
@@ -43539,10 +43542,10 @@
         <v>3098</v>
       </c>
       <c r="D1694" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1694" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -43556,7 +43559,7 @@
         <v>3098</v>
       </c>
       <c r="D1695" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1695" t="s">
         <v>3098</v>
@@ -43573,7 +43576,7 @@
         <v>3098</v>
       </c>
       <c r="D1696" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1696" t="s">
         <v>3098</v>
@@ -43746,7 +43749,7 @@
         <v>3098</v>
       </c>
       <c r="E1706" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -43797,7 +43800,7 @@
         <v>3098</v>
       </c>
       <c r="E1709" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
@@ -43879,10 +43882,10 @@
         <v>3892</v>
       </c>
       <c r="D1714" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1714" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1715" spans="1:5">
@@ -43896,10 +43899,10 @@
         <v>3893</v>
       </c>
       <c r="D1715" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1715" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -43913,10 +43916,10 @@
         <v>3894</v>
       </c>
       <c r="D1716" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1716" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -43964,7 +43967,7 @@
         <v>3897</v>
       </c>
       <c r="D1719" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1719" t="s">
         <v>3107</v>
@@ -43981,10 +43984,10 @@
         <v>3898</v>
       </c>
       <c r="D1720" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1720" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -43998,7 +44001,7 @@
         <v>3899</v>
       </c>
       <c r="D1721" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1721" t="s">
         <v>3110</v>
@@ -44018,7 +44021,7 @@
         <v>4097</v>
       </c>
       <c r="E1722" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -44032,7 +44035,7 @@
         <v>3901</v>
       </c>
       <c r="D1723" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1723" t="s">
         <v>3112</v>
@@ -44049,10 +44052,10 @@
         <v>3902</v>
       </c>
       <c r="D1724" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1724" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44066,7 +44069,7 @@
         <v>3903</v>
       </c>
       <c r="D1725" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1725" t="s">
         <v>3114</v>
@@ -44100,7 +44103,7 @@
         <v>3905</v>
       </c>
       <c r="D1727" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1727" t="s">
         <v>3116</v>
@@ -44202,7 +44205,7 @@
         <v>3909</v>
       </c>
       <c r="D1733" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1733" t="s">
         <v>3117</v>
@@ -44270,7 +44273,7 @@
         <v>3912</v>
       </c>
       <c r="D1737" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1737" t="s">
         <v>3118</v>
@@ -44287,7 +44290,7 @@
         <v>3913</v>
       </c>
       <c r="D1738" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1738" t="s">
         <v>3119</v>
@@ -44321,7 +44324,7 @@
         <v>3122</v>
       </c>
       <c r="D1740" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1740" t="s">
         <v>3904</v>
@@ -44341,7 +44344,7 @@
         <v>3121</v>
       </c>
       <c r="E1741" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -44406,10 +44409,10 @@
         <v>3124</v>
       </c>
       <c r="D1745" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1745" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -44423,10 +44426,10 @@
         <v>3916</v>
       </c>
       <c r="D1746" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1746" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -44576,7 +44579,7 @@
         <v>3919</v>
       </c>
       <c r="D1755" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1755" t="s">
         <v>3135</v>
@@ -44627,7 +44630,7 @@
         <v>3922</v>
       </c>
       <c r="D1758" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1758" t="s">
         <v>3138</v>
@@ -44678,7 +44681,7 @@
         <v>3924</v>
       </c>
       <c r="D1761" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1761" t="s">
         <v>3141</v>
@@ -44712,7 +44715,7 @@
         <v>3926</v>
       </c>
       <c r="D1763" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1763" t="s">
         <v>3143</v>
@@ -44729,7 +44732,7 @@
         <v>3927</v>
       </c>
       <c r="D1764" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1764" t="s">
         <v>3144</v>
@@ -44797,7 +44800,7 @@
         <v>3931</v>
       </c>
       <c r="D1768" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1768" t="s">
         <v>3148</v>
@@ -44814,7 +44817,7 @@
         <v>3932</v>
       </c>
       <c r="D1769" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1769" t="s">
         <v>3149</v>
@@ -44834,7 +44837,7 @@
         <v>3149</v>
       </c>
       <c r="E1770" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44848,7 +44851,7 @@
         <v>3934</v>
       </c>
       <c r="D1771" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1771" t="s">
         <v>3151</v>
@@ -44865,7 +44868,7 @@
         <v>3935</v>
       </c>
       <c r="D1772" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1772" t="s">
         <v>3152</v>
@@ -44882,7 +44885,7 @@
         <v>3936</v>
       </c>
       <c r="D1773" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1773" t="s">
         <v>3153</v>
@@ -44899,7 +44902,7 @@
         <v>3937</v>
       </c>
       <c r="D1774" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1774" t="s">
         <v>3154</v>
@@ -44967,7 +44970,7 @@
         <v>3941</v>
       </c>
       <c r="D1778" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1778" t="s">
         <v>3158</v>
@@ -44984,10 +44987,10 @@
         <v>3942</v>
       </c>
       <c r="D1779" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1779" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -45001,7 +45004,7 @@
         <v>3943</v>
       </c>
       <c r="D1780" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1780" t="s">
         <v>3152</v>
@@ -45018,7 +45021,7 @@
         <v>3944</v>
       </c>
       <c r="D1781" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1781" t="s">
         <v>3159</v>
@@ -45052,7 +45055,7 @@
         <v>3946</v>
       </c>
       <c r="D1783" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1783" t="s">
         <v>3161</v>
@@ -45188,7 +45191,7 @@
         <v>3162</v>
       </c>
       <c r="D1791" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1791" t="s">
         <v>3162</v>
@@ -45256,10 +45259,10 @@
         <v>3162</v>
       </c>
       <c r="D1795" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1795" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -45273,10 +45276,10 @@
         <v>3162</v>
       </c>
       <c r="D1796" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1796" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -45290,10 +45293,10 @@
         <v>3162</v>
       </c>
       <c r="D1797" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1797" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -45307,10 +45310,10 @@
         <v>3162</v>
       </c>
       <c r="D1798" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1798" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -45324,7 +45327,7 @@
         <v>3950</v>
       </c>
       <c r="D1799" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1799" t="s">
         <v>3164</v>
@@ -45341,10 +45344,10 @@
         <v>3951</v>
       </c>
       <c r="D1800" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1800" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -45358,7 +45361,7 @@
         <v>3162</v>
       </c>
       <c r="D1801" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1801" t="s">
         <v>3220</v>
@@ -45375,7 +45378,7 @@
         <v>3952</v>
       </c>
       <c r="D1802" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1802" t="s">
         <v>3167</v>
@@ -45392,7 +45395,7 @@
         <v>3210</v>
       </c>
       <c r="D1803" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1803" t="s">
         <v>3168</v>
@@ -45426,7 +45429,7 @@
         <v>3954</v>
       </c>
       <c r="D1805" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1805" t="s">
         <v>3170</v>
@@ -45460,7 +45463,7 @@
         <v>3956</v>
       </c>
       <c r="D1807" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1807" t="s">
         <v>3172</v>
@@ -45494,7 +45497,7 @@
         <v>3958</v>
       </c>
       <c r="D1809" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1809" t="s">
         <v>3174</v>
@@ -45511,7 +45514,7 @@
         <v>3958</v>
       </c>
       <c r="D1810" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1810" t="s">
         <v>3175</v>
@@ -45528,7 +45531,7 @@
         <v>3959</v>
       </c>
       <c r="D1811" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1811" t="s">
         <v>3176</v>
@@ -45545,7 +45548,7 @@
         <v>3960</v>
       </c>
       <c r="D1812" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1812" t="s">
         <v>3177</v>
@@ -45562,7 +45565,7 @@
         <v>3961</v>
       </c>
       <c r="D1813" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1813" t="s">
         <v>3178</v>
@@ -45579,7 +45582,7 @@
         <v>3962</v>
       </c>
       <c r="D1814" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1814" t="s">
         <v>3179</v>
@@ -45596,7 +45599,7 @@
         <v>3962</v>
       </c>
       <c r="D1815" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1815" t="s">
         <v>3180</v>
@@ -45613,7 +45616,7 @@
         <v>3963</v>
       </c>
       <c r="D1816" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1816" t="s">
         <v>3181</v>
@@ -45630,7 +45633,7 @@
         <v>3964</v>
       </c>
       <c r="D1817" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1817" t="s">
         <v>3182</v>
@@ -45681,7 +45684,7 @@
         <v>3966</v>
       </c>
       <c r="D1820" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1820" t="s">
         <v>3185</v>
@@ -45732,7 +45735,7 @@
         <v>3969</v>
       </c>
       <c r="D1823" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1823" t="s">
         <v>3188</v>
@@ -45752,7 +45755,7 @@
         <v>3188</v>
       </c>
       <c r="E1824" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45769,7 +45772,7 @@
         <v>3178</v>
       </c>
       <c r="E1825" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45783,10 +45786,10 @@
         <v>3972</v>
       </c>
       <c r="D1826" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1826" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45800,7 +45803,7 @@
         <v>3973</v>
       </c>
       <c r="D1827" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1827" t="s">
         <v>3192</v>
@@ -45817,7 +45820,7 @@
         <v>3974</v>
       </c>
       <c r="D1828" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1828" t="s">
         <v>3193</v>
@@ -45834,7 +45837,7 @@
         <v>3916</v>
       </c>
       <c r="D1829" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1829" t="s">
         <v>3194</v>
@@ -45868,7 +45871,7 @@
         <v>3976</v>
       </c>
       <c r="D1831" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1831" t="s">
         <v>3196</v>
@@ -45902,7 +45905,7 @@
         <v>3978</v>
       </c>
       <c r="D1833" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1833" t="s">
         <v>3976</v>
@@ -45936,7 +45939,7 @@
         <v>3980</v>
       </c>
       <c r="D1835" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1835" t="s">
         <v>3981</v>
@@ -45953,7 +45956,7 @@
         <v>3981</v>
       </c>
       <c r="D1836" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1836" t="s">
         <v>3201</v>
@@ -45970,7 +45973,7 @@
         <v>3982</v>
       </c>
       <c r="D1837" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1837" t="s">
         <v>3202</v>
@@ -45987,10 +45990,10 @@
         <v>3983</v>
       </c>
       <c r="D1838" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1838" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -46004,7 +46007,7 @@
         <v>3984</v>
       </c>
       <c r="D1839" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1839" t="s">
         <v>3204</v>
@@ -46021,7 +46024,7 @@
         <v>3985</v>
       </c>
       <c r="D1840" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1840" t="s">
         <v>3205</v>
@@ -46038,7 +46041,7 @@
         <v>3986</v>
       </c>
       <c r="D1841" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1841" t="s">
         <v>3206</v>
@@ -46072,7 +46075,7 @@
         <v>3984</v>
       </c>
       <c r="D1843" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1843" t="s">
         <v>3208</v>
@@ -46089,10 +46092,10 @@
         <v>3987</v>
       </c>
       <c r="D1844" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1844" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1845" spans="1:5">
@@ -46123,7 +46126,7 @@
         <v>3173</v>
       </c>
       <c r="D1846" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1846" t="s">
         <v>3173</v>
@@ -46140,7 +46143,7 @@
         <v>3211</v>
       </c>
       <c r="D1847" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1847" t="s">
         <v>3212</v>
@@ -46160,7 +46163,7 @@
         <v>3213</v>
       </c>
       <c r="E1848" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -46174,7 +46177,7 @@
         <v>3990</v>
       </c>
       <c r="D1849" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1849" t="s">
         <v>3214</v>
@@ -46194,7 +46197,7 @@
         <v>3214</v>
       </c>
       <c r="E1850" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46208,7 +46211,7 @@
         <v>3992</v>
       </c>
       <c r="D1851" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1851" t="s">
         <v>3216</v>
@@ -46242,7 +46245,7 @@
         <v>3170</v>
       </c>
       <c r="D1853" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1853" t="s">
         <v>3218</v>
@@ -46262,7 +46265,7 @@
         <v>4094</v>
       </c>
       <c r="E1854" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -46276,7 +46279,7 @@
         <v>3995</v>
       </c>
       <c r="D1855" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1855" t="s">
         <v>3220</v>
@@ -46310,7 +46313,7 @@
         <v>3996</v>
       </c>
       <c r="D1857" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1857" t="s">
         <v>3222</v>
@@ -46344,7 +46347,7 @@
         <v>3998</v>
       </c>
       <c r="D1859" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1859" t="s">
         <v>3224</v>
@@ -46361,7 +46364,7 @@
         <v>3999</v>
       </c>
       <c r="D1860" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1860" t="s">
         <v>3225</v>
@@ -46378,10 +46381,10 @@
         <v>3225</v>
       </c>
       <c r="D1861" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1861" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -46415,7 +46418,7 @@
         <v>4049</v>
       </c>
       <c r="E1863" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1864" spans="1:5">
@@ -46429,7 +46432,7 @@
         <v>4000</v>
       </c>
       <c r="D1864" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1864" t="s">
         <v>3228</v>
@@ -46446,7 +46449,7 @@
         <v>4001</v>
       </c>
       <c r="D1865" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1865" t="s">
         <v>3229</v>
@@ -46483,7 +46486,7 @@
         <v>4022</v>
       </c>
       <c r="E1867" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1868" spans="1:5">
@@ -46497,10 +46500,10 @@
         <v>3231</v>
       </c>
       <c r="D1868" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1868" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1869" spans="1:5">
@@ -46551,7 +46554,7 @@
         <v>3234</v>
       </c>
       <c r="E1871" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1872" spans="1:5">
@@ -46565,7 +46568,7 @@
         <v>4007</v>
       </c>
       <c r="D1872" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1872" t="s">
         <v>3236</v>
@@ -46585,7 +46588,7 @@
         <v>3236</v>
       </c>
       <c r="E1873" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46599,7 +46602,7 @@
         <v>4009</v>
       </c>
       <c r="D1874" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1874" t="s">
         <v>3238</v>
@@ -46633,10 +46636,10 @@
         <v>4011</v>
       </c>
       <c r="D1876" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1876" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -46650,10 +46653,10 @@
         <v>4012</v>
       </c>
       <c r="D1877" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1877" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -46718,7 +46721,7 @@
         <v>3863</v>
       </c>
       <c r="D1881" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1881" t="s">
         <v>3863</v>
@@ -46803,7 +46806,7 @@
         <v>4018</v>
       </c>
       <c r="D1886" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1886" t="s">
         <v>3852</v>
@@ -46837,10 +46840,10 @@
         <v>4020</v>
       </c>
       <c r="D1888" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1888" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46854,7 +46857,7 @@
         <v>4021</v>
       </c>
       <c r="D1889" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1889" t="s">
         <v>3252</v>
@@ -46905,7 +46908,7 @@
         <v>3254</v>
       </c>
       <c r="D1892" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1892" t="s">
         <v>3255</v>
@@ -46922,7 +46925,7 @@
         <v>4024</v>
       </c>
       <c r="D1893" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1893" t="s">
         <v>3256</v>
@@ -46939,7 +46942,7 @@
         <v>4025</v>
       </c>
       <c r="D1894" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1894" t="s">
         <v>3257</v>
@@ -46956,7 +46959,7 @@
         <v>4026</v>
       </c>
       <c r="D1895" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1895" t="s">
         <v>3258</v>
@@ -47024,7 +47027,7 @@
         <v>4030</v>
       </c>
       <c r="D1899" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1899" t="s">
         <v>3262</v>
@@ -47058,7 +47061,7 @@
         <v>4031</v>
       </c>
       <c r="D1901" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E1901" t="s">
         <v>3264</v>
@@ -47092,7 +47095,7 @@
         <v>4032</v>
       </c>
       <c r="D1903" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E1903" t="s">
         <v>3266</v>
@@ -47126,7 +47129,7 @@
         <v>3268</v>
       </c>
       <c r="D1905" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E1905" t="s">
         <v>3268</v>
@@ -47160,7 +47163,7 @@
         <v>4034</v>
       </c>
       <c r="D1907" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1907" t="s">
         <v>3270</v>
@@ -47177,7 +47180,7 @@
         <v>4025</v>
       </c>
       <c r="D1908" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E1908" t="s">
         <v>3271</v>
@@ -47194,7 +47197,7 @@
         <v>3098</v>
       </c>
       <c r="D1909" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E1909" t="s">
         <v>3272</v>
@@ -47211,7 +47214,7 @@
         <v>3272</v>
       </c>
       <c r="D1910" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1910" t="s">
         <v>3273</v>
@@ -47262,7 +47265,7 @@
         <v>4035</v>
       </c>
       <c r="D1913" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E1913" t="s">
         <v>3276</v>
@@ -47279,10 +47282,10 @@
         <v>4036</v>
       </c>
       <c r="D1914" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E1914" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
@@ -47330,7 +47333,7 @@
         <v>3279</v>
       </c>
       <c r="D1917" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E1917" t="s">
         <v>3280</v>
@@ -47364,10 +47367,10 @@
         <v>4039</v>
       </c>
       <c r="D1919" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E1919" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
@@ -47398,7 +47401,7 @@
         <v>4041</v>
       </c>
       <c r="D1921" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1921" t="s">
         <v>3284</v>
@@ -47415,7 +47418,7 @@
         <v>4042</v>
       </c>
       <c r="D1922" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E1922" t="s">
         <v>3285</v>
@@ -47432,7 +47435,7 @@
         <v>3286</v>
       </c>
       <c r="D1923" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E1923" t="s">
         <v>3286</v>
@@ -47449,7 +47452,7 @@
         <v>4043</v>
       </c>
       <c r="D1924" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E1924" t="s">
         <v>3287</v>
@@ -47517,7 +47520,7 @@
         <v>3261</v>
       </c>
       <c r="D1928" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E1928" t="s">
         <v>3291</v>
@@ -47568,7 +47571,7 @@
         <v>4045</v>
       </c>
       <c r="D1931" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="E1931" t="s">
         <v>3294</v>
@@ -47585,7 +47588,7 @@
         <v>3305</v>
       </c>
       <c r="D1932" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="E1932" t="s">
         <v>3295</v>
@@ -47602,7 +47605,7 @@
         <v>3296</v>
       </c>
       <c r="D1933" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="E1933" t="s">
         <v>3296</v>
@@ -47619,7 +47622,7 @@
         <v>4046</v>
       </c>
       <c r="D1934" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="E1934" t="s">
         <v>3297</v>
@@ -47636,7 +47639,7 @@
         <v>4047</v>
       </c>
       <c r="D1935" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1935" t="s">
         <v>3298</v>
@@ -47670,7 +47673,7 @@
         <v>4048</v>
       </c>
       <c r="D1937" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="E1937" t="s">
         <v>3300</v>
@@ -47687,7 +47690,7 @@
         <v>4049</v>
       </c>
       <c r="D1938" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E1938" t="s">
         <v>3301</v>
@@ -47721,7 +47724,7 @@
         <v>4034</v>
       </c>
       <c r="D1940" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="E1940" t="s">
         <v>3303</v>
@@ -47738,7 +47741,7 @@
         <v>4051</v>
       </c>
       <c r="D1941" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="E1941" t="s">
         <v>3304</v>
@@ -47789,7 +47792,7 @@
         <v>4054</v>
       </c>
       <c r="D1944" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="E1944" t="s">
         <v>3307</v>
@@ -47874,7 +47877,7 @@
         <v>4057</v>
       </c>
       <c r="D1949" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="E1949" t="s">
         <v>3312</v>
@@ -47925,7 +47928,7 @@
         <v>4059</v>
       </c>
       <c r="D1952" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1952" t="s">
         <v>3314</v>
@@ -47942,7 +47945,7 @@
         <v>4060</v>
       </c>
       <c r="D1953" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E1953" t="s">
         <v>3315</v>
@@ -47959,7 +47962,7 @@
         <v>4061</v>
       </c>
       <c r="D1954" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E1954" t="s">
         <v>3316</v>
@@ -47976,7 +47979,7 @@
         <v>4062</v>
       </c>
       <c r="D1955" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1955" t="s">
         <v>3317</v>
@@ -47993,7 +47996,7 @@
         <v>3318</v>
       </c>
       <c r="D1956" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E1956" t="s">
         <v>3318</v>
@@ -48010,7 +48013,7 @@
         <v>3319</v>
       </c>
       <c r="D1957" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="E1957" t="s">
         <v>3319</v>
@@ -48027,7 +48030,7 @@
         <v>3292</v>
       </c>
       <c r="D1958" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E1958" t="s">
         <v>3320</v>
@@ -48044,7 +48047,7 @@
         <v>4063</v>
       </c>
       <c r="D1959" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1959" t="s">
         <v>3243</v>
@@ -48078,7 +48081,7 @@
         <v>3263</v>
       </c>
       <c r="D1961" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E1961" t="s">
         <v>3322</v>
@@ -48112,7 +48115,7 @@
         <v>3308</v>
       </c>
       <c r="D1963" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="E1963" t="s">
         <v>3324</v>
@@ -48129,7 +48132,7 @@
         <v>4064</v>
       </c>
       <c r="D1964" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1964" t="s">
         <v>3325</v>
@@ -48146,7 +48149,7 @@
         <v>4065</v>
       </c>
       <c r="D1965" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E1965" t="s">
         <v>3326</v>
@@ -48163,7 +48166,7 @@
         <v>3307</v>
       </c>
       <c r="D1966" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="E1966" t="s">
         <v>3327</v>
@@ -48180,7 +48183,7 @@
         <v>3874</v>
       </c>
       <c r="D1967" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="E1967" t="s">
         <v>3328</v>
@@ -48248,7 +48251,7 @@
         <v>4068</v>
       </c>
       <c r="D1971" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="E1971" t="s">
         <v>3332</v>
@@ -48265,7 +48268,7 @@
         <v>4069</v>
       </c>
       <c r="D1972" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E1972" t="s">
         <v>3333</v>
@@ -48282,7 +48285,7 @@
         <v>3276</v>
       </c>
       <c r="D1973" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="E1973" t="s">
         <v>3334</v>
@@ -48316,7 +48319,7 @@
         <v>3308</v>
       </c>
       <c r="D1975" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E1975" t="s">
         <v>3336</v>
@@ -48350,7 +48353,7 @@
         <v>4071</v>
       </c>
       <c r="D1977" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="E1977" t="s">
         <v>3338</v>
@@ -48418,7 +48421,7 @@
         <v>4074</v>
       </c>
       <c r="D1981" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E1981" t="s">
         <v>3341</v>
@@ -48435,7 +48438,7 @@
         <v>3341</v>
       </c>
       <c r="D1982" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E1982" t="s">
         <v>3301</v>
@@ -48452,7 +48455,7 @@
         <v>4075</v>
       </c>
       <c r="D1983" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E1983" t="s">
         <v>3342</v>
@@ -48472,7 +48475,7 @@
         <v>3342</v>
       </c>
       <c r="E1984" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -48503,7 +48506,7 @@
         <v>4077</v>
       </c>
       <c r="D1986" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E1986" t="s">
         <v>3345</v>
@@ -48520,7 +48523,7 @@
         <v>4078</v>
       </c>
       <c r="D1987" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="E1987" t="s">
         <v>3346</v>
@@ -48554,7 +48557,7 @@
         <v>3346</v>
       </c>
       <c r="D1989" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="E1989" t="s">
         <v>3347</v>
@@ -48571,7 +48574,7 @@
         <v>4079</v>
       </c>
       <c r="D1990" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E1990" t="s">
         <v>3348</v>
@@ -48588,7 +48591,7 @@
         <v>4080</v>
       </c>
       <c r="D1991" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E1991" t="s">
         <v>3349</v>
@@ -48605,7 +48608,7 @@
         <v>4081</v>
       </c>
       <c r="D1992" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="E1992" t="s">
         <v>3350</v>
@@ -48622,7 +48625,7 @@
         <v>3115</v>
       </c>
       <c r="D1993" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="E1993" t="s">
         <v>3351</v>
@@ -48639,7 +48642,7 @@
         <v>4082</v>
       </c>
       <c r="D1994" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E1994" t="s">
         <v>3352</v>
@@ -48656,7 +48659,7 @@
         <v>4083</v>
       </c>
       <c r="D1995" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E1995" t="s">
         <v>3353</v>
@@ -48673,7 +48676,7 @@
         <v>4084</v>
       </c>
       <c r="D1996" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E1996" t="s">
         <v>3354</v>
@@ -48707,7 +48710,7 @@
         <v>4086</v>
       </c>
       <c r="D1998" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="E1998" t="s">
         <v>3356</v>
@@ -48826,7 +48829,7 @@
         <v>4091</v>
       </c>
       <c r="D2005" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="E2005" t="s">
         <v>3363</v>
@@ -48843,7 +48846,7 @@
         <v>4092</v>
       </c>
       <c r="D2006" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="E2006" t="s">
         <v>3364</v>
@@ -48860,7 +48863,7 @@
         <v>4093</v>
       </c>
       <c r="D2007" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="E2007" t="s">
         <v>3365</v>
@@ -48877,10 +48880,10 @@
         <v>4094</v>
       </c>
       <c r="D2008" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E2008" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -48928,7 +48931,7 @@
         <v>4096</v>
       </c>
       <c r="D2011" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E2011" t="s">
         <v>3369</v>
@@ -48945,10 +48948,10 @@
         <v>4097</v>
       </c>
       <c r="D2012" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="E2012" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -48962,7 +48965,7 @@
         <v>4098</v>
       </c>
       <c r="D2013" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="E2013" t="s">
         <v>3234</v>
@@ -48979,10 +48982,10 @@
         <v>4099</v>
       </c>
       <c r="D2014" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="E2014" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -48996,7 +48999,7 @@
         <v>4100</v>
       </c>
       <c r="D2015" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="E2015" t="s">
         <v>3372</v>
@@ -49064,7 +49067,7 @@
         <v>4102</v>
       </c>
       <c r="D2019" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="E2019" t="s">
         <v>3376</v>
@@ -49081,10 +49084,10 @@
         <v>4103</v>
       </c>
       <c r="D2020" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="E2020" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49149,7 +49152,7 @@
         <v>4106</v>
       </c>
       <c r="D2024" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="E2024" t="s">
         <v>3380</v>
@@ -49166,7 +49169,7 @@
         <v>4101</v>
       </c>
       <c r="D2025" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="E2025" t="s">
         <v>3381</v>
@@ -49200,7 +49203,7 @@
         <v>4107</v>
       </c>
       <c r="D2027" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="E2027" t="s">
         <v>3382</v>
@@ -49234,7 +49237,7 @@
         <v>3115</v>
       </c>
       <c r="D2029" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="E2029" t="s">
         <v>3384</v>
@@ -49251,7 +49254,7 @@
         <v>4109</v>
       </c>
       <c r="D2030" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E2030" t="s">
         <v>3385</v>
@@ -49319,7 +49322,7 @@
         <v>4112</v>
       </c>
       <c r="D2034" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="E2034" t="s">
         <v>3388</v>
@@ -49336,10 +49339,10 @@
         <v>4113</v>
       </c>
       <c r="D2035" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="E2035" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="2036" spans="1:5">
@@ -49353,10 +49356,10 @@
         <v>4114</v>
       </c>
       <c r="D2036" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="E2036" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="2037" spans="1:5">
@@ -49387,10 +49390,10 @@
         <v>4116</v>
       </c>
       <c r="D2038" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="E2038" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="2039" spans="1:5">
@@ -49438,7 +49441,7 @@
         <v>4119</v>
       </c>
       <c r="D2041" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="E2041" t="s">
         <v>3394</v>
@@ -49455,7 +49458,7 @@
         <v>4120</v>
       </c>
       <c r="D2042" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="E2042" t="s">
         <v>3395</v>
@@ -49472,7 +49475,7 @@
         <v>3909</v>
       </c>
       <c r="D2043" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="E2043" t="s">
         <v>3396</v>
@@ -49489,7 +49492,7 @@
         <v>3217</v>
       </c>
       <c r="D2044" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="E2044" t="s">
         <v>3397</v>
@@ -49540,10 +49543,10 @@
         <v>4123</v>
       </c>
       <c r="D2047" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="E2047" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49557,7 +49560,7 @@
         <v>4124</v>
       </c>
       <c r="D2048" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="E2048" t="s">
         <v>3401</v>
@@ -49608,7 +49611,7 @@
         <v>4126</v>
       </c>
       <c r="D2051" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E2051" t="s">
         <v>3404</v>
@@ -49673,13 +49676,13 @@
         <v>3407</v>
       </c>
       <c r="C2055" t="s">
-        <v>3407</v>
+        <v>4129</v>
       </c>
       <c r="D2055" t="s">
-        <v>3407</v>
+        <v>3218</v>
       </c>
       <c r="E2055" t="s">
-        <v>3407</v>
+        <v>3216</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="4791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="4792">
   <si>
     <t>1. open</t>
   </si>
@@ -12403,7 +12403,7 @@
     <t>3.98960</t>
   </si>
   <si>
-    <t>3.98670</t>
+    <t>3.99170</t>
   </si>
   <si>
     <t>2.91000</t>
@@ -14387,6 +14387,9 @@
   </si>
   <si>
     <t>3.85900</t>
+  </si>
+  <si>
+    <t>3.97700</t>
   </si>
 </sst>
 </file>
@@ -49682,7 +49685,7 @@
         <v>3218</v>
       </c>
       <c r="E2055" t="s">
-        <v>3216</v>
+        <v>4791</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="4818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="4817">
   <si>
     <t>1. open</t>
   </si>
@@ -14465,9 +14465,6 @@
   </si>
   <si>
     <t>3.85900</t>
-  </si>
-  <si>
-    <t>3.96850</t>
   </si>
 </sst>
 </file>
@@ -49998,10 +49995,10 @@
         <v>4150</v>
       </c>
       <c r="D2069" t="s">
-        <v>3235</v>
+        <v>4556</v>
       </c>
       <c r="E2069" t="s">
-        <v>4817</v>
+        <v>4556</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12475,7 +12475,7 @@
     <t>3.97980</t>
   </si>
   <si>
-    <t>3.98280</t>
+    <t>3.98580</t>
   </si>
   <si>
     <t>2.93000</t>
@@ -14473,7 +14473,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.97840</t>
+    <t>3.97060</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14485,7 +14485,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.96760</t>
+    <t>3.97120</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10360" uniqueCount="4826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10360" uniqueCount="4827">
   <si>
     <t>1. open</t>
   </si>
@@ -14125,6 +14125,9 @@
     <t>3.96370</t>
   </si>
   <si>
+    <t>3.96940</t>
+  </si>
+  <si>
     <t>2.92100</t>
   </si>
   <si>
@@ -14491,7 +14494,7 @@
     <t>3.85900</t>
   </si>
   <si>
-    <t>3.97390</t>
+    <t>3.97290</t>
   </si>
 </sst>
 </file>
@@ -15056,7 +15059,7 @@
         <v>4161</v>
       </c>
       <c r="E12" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18201,7 +18204,7 @@
         <v>2233</v>
       </c>
       <c r="E197" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -20292,7 +20295,7 @@
         <v>2337</v>
       </c>
       <c r="E320" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -25307,7 +25310,7 @@
         <v>4228</v>
       </c>
       <c r="E615" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -25698,7 +25701,7 @@
         <v>2546</v>
       </c>
       <c r="E638" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -26463,7 +26466,7 @@
         <v>2382</v>
       </c>
       <c r="E683" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -29319,7 +29322,7 @@
         <v>2597</v>
       </c>
       <c r="E851" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -32889,7 +32892,7 @@
         <v>2300</v>
       </c>
       <c r="E1061" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -38448,7 +38451,7 @@
         <v>4383</v>
       </c>
       <c r="E1388" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38550,7 +38553,7 @@
         <v>4387</v>
       </c>
       <c r="E1394" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38567,7 +38570,7 @@
         <v>4388</v>
       </c>
       <c r="E1395" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38618,7 +38621,7 @@
         <v>2354</v>
       </c>
       <c r="E1398" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38635,7 +38638,7 @@
         <v>4391</v>
       </c>
       <c r="E1399" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38652,7 +38655,7 @@
         <v>4392</v>
       </c>
       <c r="E1400" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38686,7 +38689,7 @@
         <v>2348</v>
       </c>
       <c r="E1402" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -38703,7 +38706,7 @@
         <v>3528</v>
       </c>
       <c r="E1403" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -38720,7 +38723,7 @@
         <v>4394</v>
       </c>
       <c r="E1404" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -38805,7 +38808,7 @@
         <v>4396</v>
       </c>
       <c r="E1409" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38941,7 +38944,7 @@
         <v>4399</v>
       </c>
       <c r="E1417" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38975,7 +38978,7 @@
         <v>4400</v>
       </c>
       <c r="E1419" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -39077,7 +39080,7 @@
         <v>2884</v>
       </c>
       <c r="E1425" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1426" spans="1:5">
@@ -39111,7 +39114,7 @@
         <v>2466</v>
       </c>
       <c r="E1427" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39128,7 +39131,7 @@
         <v>4402</v>
       </c>
       <c r="E1428" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -39145,7 +39148,7 @@
         <v>2519</v>
       </c>
       <c r="E1429" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -39196,7 +39199,7 @@
         <v>2952</v>
       </c>
       <c r="E1432" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1433" spans="1:5">
@@ -39213,7 +39216,7 @@
         <v>2782</v>
       </c>
       <c r="E1433" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1434" spans="1:5">
@@ -39332,7 +39335,7 @@
         <v>4404</v>
       </c>
       <c r="E1440" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -39621,7 +39624,7 @@
         <v>4411</v>
       </c>
       <c r="E1457" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -39638,7 +39641,7 @@
         <v>4412</v>
       </c>
       <c r="E1458" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -39672,7 +39675,7 @@
         <v>2975</v>
       </c>
       <c r="E1460" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39723,7 +39726,7 @@
         <v>4414</v>
       </c>
       <c r="E1463" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39842,7 +39845,7 @@
         <v>4419</v>
       </c>
       <c r="E1470" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -39859,7 +39862,7 @@
         <v>4420</v>
       </c>
       <c r="E1471" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -39910,7 +39913,7 @@
         <v>4422</v>
       </c>
       <c r="E1474" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39927,7 +39930,7 @@
         <v>4423</v>
       </c>
       <c r="E1475" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39961,7 +39964,7 @@
         <v>4424</v>
       </c>
       <c r="E1477" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
@@ -39978,7 +39981,7 @@
         <v>4425</v>
       </c>
       <c r="E1478" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -40046,7 +40049,7 @@
         <v>4427</v>
       </c>
       <c r="E1482" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -40063,7 +40066,7 @@
         <v>2992</v>
       </c>
       <c r="E1483" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -40080,7 +40083,7 @@
         <v>4428</v>
       </c>
       <c r="E1484" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -40097,7 +40100,7 @@
         <v>4429</v>
       </c>
       <c r="E1485" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
@@ -40318,7 +40321,7 @@
         <v>4424</v>
       </c>
       <c r="E1498" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40335,7 +40338,7 @@
         <v>4437</v>
       </c>
       <c r="E1499" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1500" spans="1:5">
@@ -40352,7 +40355,7 @@
         <v>3780</v>
       </c>
       <c r="E1500" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40471,7 +40474,7 @@
         <v>3011</v>
       </c>
       <c r="E1507" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40488,7 +40491,7 @@
         <v>4440</v>
       </c>
       <c r="E1508" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40522,7 +40525,7 @@
         <v>4441</v>
       </c>
       <c r="E1510" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40556,7 +40559,7 @@
         <v>3772</v>
       </c>
       <c r="E1512" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40573,7 +40576,7 @@
         <v>3029</v>
       </c>
       <c r="E1513" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40641,7 +40644,7 @@
         <v>3021</v>
       </c>
       <c r="E1517" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40658,7 +40661,7 @@
         <v>2930</v>
       </c>
       <c r="E1518" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40675,7 +40678,7 @@
         <v>4445</v>
       </c>
       <c r="E1519" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -40692,7 +40695,7 @@
         <v>4446</v>
       </c>
       <c r="E1520" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40726,7 +40729,7 @@
         <v>3025</v>
       </c>
       <c r="E1522" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40743,7 +40746,7 @@
         <v>4447</v>
       </c>
       <c r="E1523" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1524" spans="1:5">
@@ -40760,7 +40763,7 @@
         <v>4448</v>
       </c>
       <c r="E1524" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -40828,7 +40831,7 @@
         <v>4450</v>
       </c>
       <c r="E1528" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40862,7 +40865,7 @@
         <v>4448</v>
       </c>
       <c r="E1530" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40879,7 +40882,7 @@
         <v>4452</v>
       </c>
       <c r="E1531" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40896,7 +40899,7 @@
         <v>4453</v>
       </c>
       <c r="E1532" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40964,7 +40967,7 @@
         <v>3036</v>
       </c>
       <c r="E1536" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1537" spans="1:5">
@@ -40998,7 +41001,7 @@
         <v>4455</v>
       </c>
       <c r="E1538" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1539" spans="1:5">
@@ -41100,7 +41103,7 @@
         <v>4459</v>
       </c>
       <c r="E1544" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -41338,7 +41341,7 @@
         <v>4467</v>
       </c>
       <c r="E1558" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41355,7 +41358,7 @@
         <v>3083</v>
       </c>
       <c r="E1559" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -41372,7 +41375,7 @@
         <v>4468</v>
       </c>
       <c r="E1560" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41406,7 +41409,7 @@
         <v>4470</v>
       </c>
       <c r="E1562" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41423,7 +41426,7 @@
         <v>4471</v>
       </c>
       <c r="E1563" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1564" spans="1:5">
@@ -41457,7 +41460,7 @@
         <v>3769</v>
       </c>
       <c r="E1565" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41542,7 +41545,7 @@
         <v>4476</v>
       </c>
       <c r="E1570" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -41559,7 +41562,7 @@
         <v>4477</v>
       </c>
       <c r="E1571" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1572" spans="1:5">
@@ -41576,7 +41579,7 @@
         <v>4478</v>
       </c>
       <c r="E1572" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -41627,7 +41630,7 @@
         <v>4441</v>
       </c>
       <c r="E1575" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41797,7 +41800,7 @@
         <v>4483</v>
       </c>
       <c r="E1585" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -41882,7 +41885,7 @@
         <v>4485</v>
       </c>
       <c r="E1590" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41933,7 +41936,7 @@
         <v>4488</v>
       </c>
       <c r="E1593" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -41950,7 +41953,7 @@
         <v>3773</v>
       </c>
       <c r="E1594" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1595" spans="1:5">
@@ -42018,7 +42021,7 @@
         <v>4489</v>
       </c>
       <c r="E1598" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -42256,7 +42259,7 @@
         <v>3091</v>
       </c>
       <c r="E1612" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1613" spans="1:5">
@@ -42443,7 +42446,7 @@
         <v>3091</v>
       </c>
       <c r="E1623" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42613,7 +42616,7 @@
         <v>3091</v>
       </c>
       <c r="E1633" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -42630,7 +42633,7 @@
         <v>4491</v>
       </c>
       <c r="E1634" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -42647,7 +42650,7 @@
         <v>4492</v>
       </c>
       <c r="E1635" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -42664,7 +42667,7 @@
         <v>4493</v>
       </c>
       <c r="E1636" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42698,7 +42701,7 @@
         <v>4495</v>
       </c>
       <c r="E1638" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -42715,7 +42718,7 @@
         <v>4496</v>
       </c>
       <c r="E1639" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1640" spans="1:5">
@@ -42953,7 +42956,7 @@
         <v>3106</v>
       </c>
       <c r="E1653" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -43038,7 +43041,7 @@
         <v>3106</v>
       </c>
       <c r="E1658" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -43412,7 +43415,7 @@
         <v>3844</v>
       </c>
       <c r="E1680" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43446,7 +43449,7 @@
         <v>4506</v>
       </c>
       <c r="E1682" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
@@ -43463,7 +43466,7 @@
         <v>4507</v>
       </c>
       <c r="E1683" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -43480,7 +43483,7 @@
         <v>4508</v>
       </c>
       <c r="E1684" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
@@ -43514,7 +43517,7 @@
         <v>4510</v>
       </c>
       <c r="E1686" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -43531,7 +43534,7 @@
         <v>4511</v>
       </c>
       <c r="E1687" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -43548,7 +43551,7 @@
         <v>4512</v>
       </c>
       <c r="E1688" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43565,7 +43568,7 @@
         <v>4513</v>
       </c>
       <c r="E1689" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -43582,7 +43585,7 @@
         <v>4514</v>
       </c>
       <c r="E1690" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -43718,7 +43721,7 @@
         <v>4517</v>
       </c>
       <c r="E1698" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -44024,7 +44027,7 @@
         <v>3122</v>
       </c>
       <c r="E1716" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -44075,7 +44078,7 @@
         <v>3122</v>
       </c>
       <c r="E1719" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -44160,7 +44163,7 @@
         <v>4523</v>
       </c>
       <c r="E1724" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44177,7 +44180,7 @@
         <v>4524</v>
       </c>
       <c r="E1725" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -44194,7 +44197,7 @@
         <v>4525</v>
       </c>
       <c r="E1726" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1727" spans="1:5">
@@ -44262,7 +44265,7 @@
         <v>4527</v>
       </c>
       <c r="E1730" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -44296,7 +44299,7 @@
         <v>4122</v>
       </c>
       <c r="E1732" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -44330,7 +44333,7 @@
         <v>4530</v>
       </c>
       <c r="E1734" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -44653,7 +44656,7 @@
         <v>3145</v>
       </c>
       <c r="E1753" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1754" spans="1:5">
@@ -45146,7 +45149,7 @@
         <v>3173</v>
       </c>
       <c r="E1782" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -45299,7 +45302,7 @@
         <v>4552</v>
       </c>
       <c r="E1791" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -45622,7 +45625,7 @@
         <v>4560</v>
       </c>
       <c r="E1810" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -45656,7 +45659,7 @@
         <v>4561</v>
       </c>
       <c r="E1812" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -46064,7 +46067,7 @@
         <v>3212</v>
       </c>
       <c r="E1836" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -46081,7 +46084,7 @@
         <v>3202</v>
       </c>
       <c r="E1837" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1838" spans="1:5">
@@ -46302,7 +46305,7 @@
         <v>4585</v>
       </c>
       <c r="E1850" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46404,7 +46407,7 @@
         <v>4590</v>
       </c>
       <c r="E1856" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1857" spans="1:5">
@@ -46574,7 +46577,7 @@
         <v>4119</v>
       </c>
       <c r="E1866" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1867" spans="1:5">
@@ -46727,7 +46730,7 @@
         <v>4074</v>
       </c>
       <c r="E1875" t="s">
-        <v>4816</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1876" spans="1:5">
@@ -46863,7 +46866,7 @@
         <v>3258</v>
       </c>
       <c r="E1883" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1884" spans="1:5">
@@ -46897,7 +46900,7 @@
         <v>3260</v>
       </c>
       <c r="E1885" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1886" spans="1:5">
@@ -46965,7 +46968,7 @@
         <v>4607</v>
       </c>
       <c r="E1889" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1890" spans="1:5">
@@ -48784,7 +48787,7 @@
         <v>3366</v>
       </c>
       <c r="E1996" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1997" spans="1:5">
@@ -49192,7 +49195,7 @@
         <v>4678</v>
       </c>
       <c r="E2020" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49294,7 +49297,7 @@
         <v>4681</v>
       </c>
       <c r="E2026" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -49651,7 +49654,7 @@
         <v>4691</v>
       </c>
       <c r="E2047" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49668,7 +49671,7 @@
         <v>4692</v>
       </c>
       <c r="E2048" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="2049" spans="1:5">
@@ -50070,13 +50073,13 @@
         <v>3435</v>
       </c>
       <c r="C2072" t="s">
-        <v>3979</v>
+        <v>4150</v>
       </c>
       <c r="D2072" t="s">
-        <v>4592</v>
+        <v>4703</v>
       </c>
       <c r="E2072" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="4831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="4834">
   <si>
     <t>1. open</t>
   </si>
@@ -12502,6 +12502,9 @@
     <t>4.00170</t>
   </si>
   <si>
+    <t>3.99660</t>
+  </si>
+  <si>
     <t>2.93000</t>
   </si>
   <si>
@@ -14140,6 +14143,9 @@
     <t>3.97680</t>
   </si>
   <si>
+    <t>3.97810</t>
+  </si>
+  <si>
     <t>2.92100</t>
   </si>
   <si>
@@ -14507,6 +14513,9 @@
   </si>
   <si>
     <t>3.97290</t>
+  </si>
+  <si>
+    <t>3.98670</t>
   </si>
 </sst>
 </file>
@@ -15000,7 +15009,7 @@
         <v>2081</v>
       </c>
       <c r="D8" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E8" t="s">
         <v>2083</v>
@@ -15051,7 +15060,7 @@
         <v>2084</v>
       </c>
       <c r="D11" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E11" t="s">
         <v>2085</v>
@@ -15068,10 +15077,10 @@
         <v>2085</v>
       </c>
       <c r="D12" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E12" t="s">
-        <v>4708</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15119,7 +15128,7 @@
         <v>2087</v>
       </c>
       <c r="D15" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E15" t="s">
         <v>2088</v>
@@ -15374,7 +15383,7 @@
         <v>2100</v>
       </c>
       <c r="D30" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E30" t="s">
         <v>2101</v>
@@ -15391,7 +15400,7 @@
         <v>2101</v>
       </c>
       <c r="D31" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E31" t="s">
         <v>2102</v>
@@ -15493,7 +15502,7 @@
         <v>2105</v>
       </c>
       <c r="D37" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E37" t="s">
         <v>2105</v>
@@ -15527,7 +15536,7 @@
         <v>2107</v>
       </c>
       <c r="D39" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E39" t="s">
         <v>2107</v>
@@ -15578,7 +15587,7 @@
         <v>3444</v>
       </c>
       <c r="D42" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E42" t="s">
         <v>2108</v>
@@ -15680,7 +15689,7 @@
         <v>2113</v>
       </c>
       <c r="D48" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E48" t="s">
         <v>2114</v>
@@ -15782,7 +15791,7 @@
         <v>2119</v>
       </c>
       <c r="D54" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E54" t="s">
         <v>2120</v>
@@ -15799,7 +15808,7 @@
         <v>2120</v>
       </c>
       <c r="D55" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E55" t="s">
         <v>2117</v>
@@ -15816,7 +15825,7 @@
         <v>3447</v>
       </c>
       <c r="D56" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E56" t="s">
         <v>2121</v>
@@ -15867,7 +15876,7 @@
         <v>2122</v>
       </c>
       <c r="D59" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E59" t="s">
         <v>2123</v>
@@ -15884,7 +15893,7 @@
         <v>2124</v>
       </c>
       <c r="D60" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E60" t="s">
         <v>2124</v>
@@ -15918,7 +15927,7 @@
         <v>2126</v>
       </c>
       <c r="D62" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E62" t="s">
         <v>2126</v>
@@ -15935,7 +15944,7 @@
         <v>3448</v>
       </c>
       <c r="D63" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E63" t="s">
         <v>2127</v>
@@ -15952,7 +15961,7 @@
         <v>2126</v>
       </c>
       <c r="D64" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E64" t="s">
         <v>2128</v>
@@ -16105,7 +16114,7 @@
         <v>2137</v>
       </c>
       <c r="D73" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E73" t="s">
         <v>2137</v>
@@ -16275,7 +16284,7 @@
         <v>2144</v>
       </c>
       <c r="D83" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E83" t="s">
         <v>2145</v>
@@ -16377,7 +16386,7 @@
         <v>2149</v>
       </c>
       <c r="D89" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E89" t="s">
         <v>2147</v>
@@ -16394,7 +16403,7 @@
         <v>2147</v>
       </c>
       <c r="D90" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E90" t="s">
         <v>2150</v>
@@ -16683,7 +16692,7 @@
         <v>3459</v>
       </c>
       <c r="D107" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E107" t="s">
         <v>2151</v>
@@ -17176,10 +17185,10 @@
         <v>2187</v>
       </c>
       <c r="D136" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E136" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -17261,7 +17270,7 @@
         <v>3474</v>
       </c>
       <c r="D141" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E141" t="s">
         <v>2192</v>
@@ -17380,7 +17389,7 @@
         <v>3473</v>
       </c>
       <c r="D148" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E148" t="s">
         <v>2198</v>
@@ -17414,7 +17423,7 @@
         <v>3474</v>
       </c>
       <c r="D150" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E150" t="s">
         <v>2180</v>
@@ -17431,7 +17440,7 @@
         <v>2199</v>
       </c>
       <c r="D151" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E151" t="s">
         <v>2199</v>
@@ -17448,7 +17457,7 @@
         <v>3479</v>
       </c>
       <c r="D152" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E152" t="s">
         <v>2186</v>
@@ -17533,7 +17542,7 @@
         <v>3465</v>
       </c>
       <c r="D157" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E157" t="s">
         <v>2203</v>
@@ -17839,7 +17848,7 @@
         <v>2217</v>
       </c>
       <c r="D175" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E175" t="s">
         <v>2218</v>
@@ -18077,10 +18086,10 @@
         <v>2228</v>
       </c>
       <c r="D189" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E189" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -18216,7 +18225,7 @@
         <v>2235</v>
       </c>
       <c r="E197" t="s">
-        <v>4709</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -18638,7 +18647,7 @@
         <v>3497</v>
       </c>
       <c r="D222" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E222" t="s">
         <v>3497</v>
@@ -18672,7 +18681,7 @@
         <v>2258</v>
       </c>
       <c r="D224" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E224" t="s">
         <v>2258</v>
@@ -18961,10 +18970,10 @@
         <v>2274</v>
       </c>
       <c r="D241" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E241" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -20307,7 +20316,7 @@
         <v>2339</v>
       </c>
       <c r="E320" t="s">
-        <v>4710</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -20406,7 +20415,7 @@
         <v>3531</v>
       </c>
       <c r="D326" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E326" t="s">
         <v>2346</v>
@@ -20644,7 +20653,7 @@
         <v>2355</v>
       </c>
       <c r="D340" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E340" t="s">
         <v>2356</v>
@@ -20661,7 +20670,7 @@
         <v>2356</v>
       </c>
       <c r="D341" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E341" t="s">
         <v>2357</v>
@@ -20746,7 +20755,7 @@
         <v>2360</v>
       </c>
       <c r="D346" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E346" t="s">
         <v>2361</v>
@@ -21001,7 +21010,7 @@
         <v>2522</v>
       </c>
       <c r="D361" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E361" t="s">
         <v>2307</v>
@@ -21018,7 +21027,7 @@
         <v>3511</v>
       </c>
       <c r="D362" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E362" t="s">
         <v>2373</v>
@@ -21222,10 +21231,10 @@
         <v>2383</v>
       </c>
       <c r="D374" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E374" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -21239,7 +21248,7 @@
         <v>2429</v>
       </c>
       <c r="D375" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E375" t="s">
         <v>2384</v>
@@ -21987,7 +21996,7 @@
         <v>2418</v>
       </c>
       <c r="D419" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E419" t="s">
         <v>2418</v>
@@ -22548,7 +22557,7 @@
         <v>2440</v>
       </c>
       <c r="D452" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E452" t="s">
         <v>2441</v>
@@ -22735,7 +22744,7 @@
         <v>3552</v>
       </c>
       <c r="D463" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E463" t="s">
         <v>2402</v>
@@ -23007,7 +23016,7 @@
         <v>2462</v>
       </c>
       <c r="D479" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E479" t="s">
         <v>2463</v>
@@ -23075,7 +23084,7 @@
         <v>3557</v>
       </c>
       <c r="D483" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E483" t="s">
         <v>3516</v>
@@ -23262,7 +23271,7 @@
         <v>3511</v>
       </c>
       <c r="D494" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E494" t="s">
         <v>2474</v>
@@ -24027,7 +24036,7 @@
         <v>2502</v>
       </c>
       <c r="D539" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E539" t="s">
         <v>2503</v>
@@ -24163,7 +24172,7 @@
         <v>2505</v>
       </c>
       <c r="D547" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E547" t="s">
         <v>2509</v>
@@ -24214,7 +24223,7 @@
         <v>3565</v>
       </c>
       <c r="D550" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E550" t="s">
         <v>2512</v>
@@ -24231,7 +24240,7 @@
         <v>2364</v>
       </c>
       <c r="D551" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E551" t="s">
         <v>2482</v>
@@ -24282,7 +24291,7 @@
         <v>3566</v>
       </c>
       <c r="D554" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E554" t="s">
         <v>2515</v>
@@ -24299,7 +24308,7 @@
         <v>3567</v>
       </c>
       <c r="D555" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E555" t="s">
         <v>2516</v>
@@ -24316,7 +24325,7 @@
         <v>2480</v>
       </c>
       <c r="D556" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E556" t="s">
         <v>2370</v>
@@ -24367,7 +24376,7 @@
         <v>2495</v>
       </c>
       <c r="D559" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E559" t="s">
         <v>2517</v>
@@ -24401,7 +24410,7 @@
         <v>2304</v>
       </c>
       <c r="D561" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E561" t="s">
         <v>2518</v>
@@ -24503,7 +24512,7 @@
         <v>2468</v>
       </c>
       <c r="D567" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E567" t="s">
         <v>2523</v>
@@ -24537,7 +24546,7 @@
         <v>2950</v>
       </c>
       <c r="D569" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E569" t="s">
         <v>2524</v>
@@ -24554,7 +24563,7 @@
         <v>2524</v>
       </c>
       <c r="D570" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E570" t="s">
         <v>2454</v>
@@ -24588,7 +24597,7 @@
         <v>3573</v>
       </c>
       <c r="D572" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E572" t="s">
         <v>2525</v>
@@ -24622,10 +24631,10 @@
         <v>2365</v>
       </c>
       <c r="D574" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E574" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -24673,7 +24682,7 @@
         <v>3574</v>
       </c>
       <c r="D577" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E577" t="s">
         <v>2529</v>
@@ -24741,7 +24750,7 @@
         <v>3575</v>
       </c>
       <c r="D581" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E581" t="s">
         <v>2533</v>
@@ -24792,7 +24801,7 @@
         <v>2427</v>
       </c>
       <c r="D584" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E584" t="s">
         <v>2285</v>
@@ -24826,7 +24835,7 @@
         <v>3576</v>
       </c>
       <c r="D586" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E586" t="s">
         <v>2537</v>
@@ -24843,7 +24852,7 @@
         <v>2838</v>
       </c>
       <c r="D587" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E587" t="s">
         <v>2538</v>
@@ -24860,7 +24869,7 @@
         <v>2835</v>
       </c>
       <c r="D588" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E588" t="s">
         <v>2539</v>
@@ -24894,7 +24903,7 @@
         <v>2540</v>
       </c>
       <c r="D590" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E590" t="s">
         <v>2541</v>
@@ -24962,7 +24971,7 @@
         <v>2384</v>
       </c>
       <c r="D594" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E594" t="s">
         <v>2545</v>
@@ -25047,7 +25056,7 @@
         <v>2282</v>
       </c>
       <c r="D599" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E599" t="s">
         <v>2548</v>
@@ -25098,7 +25107,7 @@
         <v>2631</v>
       </c>
       <c r="D602" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E602" t="s">
         <v>2550</v>
@@ -25319,10 +25328,10 @@
         <v>2588</v>
       </c>
       <c r="D615" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E615" t="s">
-        <v>4711</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -25370,7 +25379,7 @@
         <v>2543</v>
       </c>
       <c r="D618" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E618" t="s">
         <v>2558</v>
@@ -25472,7 +25481,7 @@
         <v>3584</v>
       </c>
       <c r="D624" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E624" t="s">
         <v>2563</v>
@@ -25713,7 +25722,7 @@
         <v>2548</v>
       </c>
       <c r="E638" t="s">
-        <v>4712</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -25778,7 +25787,7 @@
         <v>2281</v>
       </c>
       <c r="D642" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E642" t="s">
         <v>2571</v>
@@ -26053,7 +26062,7 @@
         <v>2556</v>
       </c>
       <c r="E658" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -26186,7 +26195,7 @@
         <v>2555</v>
       </c>
       <c r="D666" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E666" t="s">
         <v>2429</v>
@@ -26237,7 +26246,7 @@
         <v>2577</v>
       </c>
       <c r="D669" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E669" t="s">
         <v>2590</v>
@@ -26373,7 +26382,7 @@
         <v>2577</v>
       </c>
       <c r="D677" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E677" t="s">
         <v>2586</v>
@@ -26458,7 +26467,7 @@
         <v>3579</v>
       </c>
       <c r="D682" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E682" t="s">
         <v>2541</v>
@@ -26478,7 +26487,7 @@
         <v>2384</v>
       </c>
       <c r="E683" t="s">
-        <v>4713</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -26509,7 +26518,7 @@
         <v>2737</v>
       </c>
       <c r="D685" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E685" t="s">
         <v>2594</v>
@@ -26679,7 +26688,7 @@
         <v>2245</v>
       </c>
       <c r="D695" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E695" t="s">
         <v>2569</v>
@@ -26866,7 +26875,7 @@
         <v>3590</v>
       </c>
       <c r="D706" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E706" t="s">
         <v>2604</v>
@@ -27274,7 +27283,7 @@
         <v>2548</v>
       </c>
       <c r="D730" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E730" t="s">
         <v>2548</v>
@@ -27291,7 +27300,7 @@
         <v>2548</v>
       </c>
       <c r="D731" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E731" t="s">
         <v>2609</v>
@@ -27308,7 +27317,7 @@
         <v>2548</v>
       </c>
       <c r="D732" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E732" t="s">
         <v>2619</v>
@@ -27410,7 +27419,7 @@
         <v>2575</v>
       </c>
       <c r="D738" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E738" t="s">
         <v>2623</v>
@@ -27427,7 +27436,7 @@
         <v>2619</v>
       </c>
       <c r="D739" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E739" t="s">
         <v>2618</v>
@@ -27461,7 +27470,7 @@
         <v>2618</v>
       </c>
       <c r="D741" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E741" t="s">
         <v>2625</v>
@@ -27495,7 +27504,7 @@
         <v>2648</v>
       </c>
       <c r="D743" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E743" t="s">
         <v>2627</v>
@@ -27631,7 +27640,7 @@
         <v>2604</v>
       </c>
       <c r="D751" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E751" t="s">
         <v>2630</v>
@@ -27699,7 +27708,7 @@
         <v>2737</v>
       </c>
       <c r="D755" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E755" t="s">
         <v>2632</v>
@@ -27852,7 +27861,7 @@
         <v>2588</v>
       </c>
       <c r="D764" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E764" t="s">
         <v>2631</v>
@@ -27988,7 +27997,7 @@
         <v>2574</v>
       </c>
       <c r="D772" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E772" t="s">
         <v>2643</v>
@@ -28005,7 +28014,7 @@
         <v>2281</v>
       </c>
       <c r="D773" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E773" t="s">
         <v>2644</v>
@@ -28022,7 +28031,7 @@
         <v>2251</v>
       </c>
       <c r="D774" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E774" t="s">
         <v>2645</v>
@@ -28073,7 +28082,7 @@
         <v>2244</v>
       </c>
       <c r="D777" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E777" t="s">
         <v>2639</v>
@@ -28107,7 +28116,7 @@
         <v>2590</v>
       </c>
       <c r="D779" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E779" t="s">
         <v>2284</v>
@@ -28209,7 +28218,7 @@
         <v>2550</v>
       </c>
       <c r="D785" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E785" t="s">
         <v>2646</v>
@@ -28226,7 +28235,7 @@
         <v>2252</v>
       </c>
       <c r="D786" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E786" t="s">
         <v>2558</v>
@@ -28362,10 +28371,10 @@
         <v>2281</v>
       </c>
       <c r="D794" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E794" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -28379,7 +28388,7 @@
         <v>2566</v>
       </c>
       <c r="D795" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E795" t="s">
         <v>2619</v>
@@ -28430,10 +28439,10 @@
         <v>2566</v>
       </c>
       <c r="D798" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E798" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -28668,10 +28677,10 @@
         <v>2854</v>
       </c>
       <c r="D812" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E812" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -28787,7 +28796,7 @@
         <v>2281</v>
       </c>
       <c r="D819" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E819" t="s">
         <v>2548</v>
@@ -28889,7 +28898,7 @@
         <v>3605</v>
       </c>
       <c r="D825" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E825" t="s">
         <v>2666</v>
@@ -28906,7 +28915,7 @@
         <v>2693</v>
       </c>
       <c r="D826" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E826" t="s">
         <v>2272</v>
@@ -29110,7 +29119,7 @@
         <v>3606</v>
       </c>
       <c r="D838" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E838" t="s">
         <v>2676</v>
@@ -29144,7 +29153,7 @@
         <v>2693</v>
       </c>
       <c r="D840" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E840" t="s">
         <v>2273</v>
@@ -29178,7 +29187,7 @@
         <v>3606</v>
       </c>
       <c r="D842" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E842" t="s">
         <v>2678</v>
@@ -29229,7 +29238,7 @@
         <v>3497</v>
       </c>
       <c r="D845" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E845" t="s">
         <v>2680</v>
@@ -29263,7 +29272,7 @@
         <v>2609</v>
       </c>
       <c r="D847" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E847" t="s">
         <v>2609</v>
@@ -29314,7 +29323,7 @@
         <v>3609</v>
       </c>
       <c r="D850" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E850" t="s">
         <v>2551</v>
@@ -29334,7 +29343,7 @@
         <v>2599</v>
       </c>
       <c r="E851" t="s">
-        <v>4714</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -29671,7 +29680,7 @@
         <v>2283</v>
       </c>
       <c r="D871" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E871" t="s">
         <v>2690</v>
@@ -29841,7 +29850,7 @@
         <v>2252</v>
       </c>
       <c r="D881" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E881" t="s">
         <v>2277</v>
@@ -29875,7 +29884,7 @@
         <v>3613</v>
       </c>
       <c r="D883" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E883" t="s">
         <v>2694</v>
@@ -29994,7 +30003,7 @@
         <v>3617</v>
       </c>
       <c r="D890" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E890" t="s">
         <v>2699</v>
@@ -30062,7 +30071,7 @@
         <v>2572</v>
       </c>
       <c r="D894" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E894" t="s">
         <v>2664</v>
@@ -30232,7 +30241,7 @@
         <v>2282</v>
       </c>
       <c r="D904" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E904" t="s">
         <v>2708</v>
@@ -30351,7 +30360,7 @@
         <v>3545</v>
       </c>
       <c r="D911" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E911" t="s">
         <v>2712</v>
@@ -30419,7 +30428,7 @@
         <v>2553</v>
       </c>
       <c r="D915" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E915" t="s">
         <v>2716</v>
@@ -30572,7 +30581,7 @@
         <v>2728</v>
       </c>
       <c r="D924" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E924" t="s">
         <v>2551</v>
@@ -30776,7 +30785,7 @@
         <v>2384</v>
       </c>
       <c r="D936" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E936" t="s">
         <v>2724</v>
@@ -30861,7 +30870,7 @@
         <v>2538</v>
       </c>
       <c r="D941" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E941" t="s">
         <v>2728</v>
@@ -30946,7 +30955,7 @@
         <v>3579</v>
       </c>
       <c r="D946" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E946" t="s">
         <v>2385</v>
@@ -31031,7 +31040,7 @@
         <v>2874</v>
       </c>
       <c r="D951" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E951" t="s">
         <v>2733</v>
@@ -31133,7 +31142,7 @@
         <v>2714</v>
       </c>
       <c r="D957" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E957" t="s">
         <v>2427</v>
@@ -31150,7 +31159,7 @@
         <v>3625</v>
       </c>
       <c r="D958" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E958" t="s">
         <v>2735</v>
@@ -31218,7 +31227,7 @@
         <v>2428</v>
       </c>
       <c r="D962" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E962" t="s">
         <v>2736</v>
@@ -31473,7 +31482,7 @@
         <v>2580</v>
       </c>
       <c r="D977" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E977" t="s">
         <v>2541</v>
@@ -31558,7 +31567,7 @@
         <v>2734</v>
       </c>
       <c r="D982" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E982" t="s">
         <v>2743</v>
@@ -31609,7 +31618,7 @@
         <v>2295</v>
       </c>
       <c r="D985" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E985" t="s">
         <v>2422</v>
@@ -31643,7 +31652,7 @@
         <v>2857</v>
       </c>
       <c r="D987" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E987" t="s">
         <v>2745</v>
@@ -32000,7 +32009,7 @@
         <v>2397</v>
       </c>
       <c r="D1008" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E1008" t="s">
         <v>2759</v>
@@ -32017,7 +32026,7 @@
         <v>3634</v>
       </c>
       <c r="D1009" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1009" t="s">
         <v>2760</v>
@@ -32102,7 +32111,7 @@
         <v>2402</v>
       </c>
       <c r="D1014" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1014" t="s">
         <v>2450</v>
@@ -32272,7 +32281,7 @@
         <v>2865</v>
       </c>
       <c r="D1024" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E1024" t="s">
         <v>2452</v>
@@ -32289,7 +32298,7 @@
         <v>2865</v>
       </c>
       <c r="D1025" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E1025" t="s">
         <v>2452</v>
@@ -32323,7 +32332,7 @@
         <v>2886</v>
       </c>
       <c r="D1027" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E1027" t="s">
         <v>2757</v>
@@ -32391,7 +32400,7 @@
         <v>2418</v>
       </c>
       <c r="D1031" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1031" t="s">
         <v>2771</v>
@@ -32408,7 +32417,7 @@
         <v>2418</v>
       </c>
       <c r="D1032" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1032" t="s">
         <v>2772</v>
@@ -32476,7 +32485,7 @@
         <v>2888</v>
       </c>
       <c r="D1036" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1036" t="s">
         <v>2775</v>
@@ -32578,7 +32587,7 @@
         <v>2373</v>
       </c>
       <c r="D1042" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1042" t="s">
         <v>2780</v>
@@ -32629,7 +32638,7 @@
         <v>3573</v>
       </c>
       <c r="D1045" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1045" t="s">
         <v>2311</v>
@@ -32731,7 +32740,7 @@
         <v>2477</v>
       </c>
       <c r="D1051" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1051" t="s">
         <v>2788</v>
@@ -32833,7 +32842,7 @@
         <v>2787</v>
       </c>
       <c r="D1057" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1057" t="s">
         <v>2791</v>
@@ -32904,7 +32913,7 @@
         <v>2302</v>
       </c>
       <c r="E1061" t="s">
-        <v>4715</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -33159,7 +33168,7 @@
         <v>2802</v>
       </c>
       <c r="E1076" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1077" spans="1:5">
@@ -33241,7 +33250,7 @@
         <v>3636</v>
       </c>
       <c r="D1081" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1081" t="s">
         <v>2376</v>
@@ -33462,7 +33471,7 @@
         <v>2418</v>
       </c>
       <c r="D1094" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1094" t="s">
         <v>2813</v>
@@ -33496,7 +33505,7 @@
         <v>2437</v>
       </c>
       <c r="D1096" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1096" t="s">
         <v>2295</v>
@@ -33530,7 +33539,7 @@
         <v>2886</v>
       </c>
       <c r="D1098" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1098" t="s">
         <v>2815</v>
@@ -33547,7 +33556,7 @@
         <v>2864</v>
       </c>
       <c r="D1099" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1099" t="s">
         <v>2816</v>
@@ -33615,7 +33624,7 @@
         <v>2778</v>
       </c>
       <c r="D1103" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1103" t="s">
         <v>2818</v>
@@ -33700,10 +33709,10 @@
         <v>2829</v>
       </c>
       <c r="D1108" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1108" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
@@ -33717,10 +33726,10 @@
         <v>2366</v>
       </c>
       <c r="D1109" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1109" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
@@ -33751,7 +33760,7 @@
         <v>2887</v>
       </c>
       <c r="D1111" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1111" t="s">
         <v>2831</v>
@@ -33768,7 +33777,7 @@
         <v>2829</v>
       </c>
       <c r="D1112" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1112" t="s">
         <v>2826</v>
@@ -33921,7 +33930,7 @@
         <v>2831</v>
       </c>
       <c r="D1121" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1121" t="s">
         <v>2832</v>
@@ -33955,7 +33964,7 @@
         <v>3638</v>
       </c>
       <c r="D1123" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1123" t="s">
         <v>2833</v>
@@ -33972,7 +33981,7 @@
         <v>3639</v>
       </c>
       <c r="D1124" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1124" t="s">
         <v>2761</v>
@@ -33989,7 +33998,7 @@
         <v>3640</v>
       </c>
       <c r="D1125" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1125" t="s">
         <v>2833</v>
@@ -34006,7 +34015,7 @@
         <v>3641</v>
       </c>
       <c r="D1126" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1126" t="s">
         <v>2834</v>
@@ -34125,7 +34134,7 @@
         <v>2397</v>
       </c>
       <c r="D1133" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1133" t="s">
         <v>2837</v>
@@ -34159,7 +34168,7 @@
         <v>3644</v>
       </c>
       <c r="D1135" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1135" t="s">
         <v>2838</v>
@@ -34193,7 +34202,7 @@
         <v>2751</v>
       </c>
       <c r="D1137" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E1137" t="s">
         <v>2553</v>
@@ -34329,7 +34338,7 @@
         <v>2823</v>
       </c>
       <c r="D1145" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1145" t="s">
         <v>2844</v>
@@ -34363,7 +34372,7 @@
         <v>2904</v>
       </c>
       <c r="D1147" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1147" t="s">
         <v>2745</v>
@@ -34414,7 +34423,7 @@
         <v>3649</v>
       </c>
       <c r="D1150" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1150" t="s">
         <v>2847</v>
@@ -34431,7 +34440,7 @@
         <v>3574</v>
       </c>
       <c r="D1151" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1151" t="s">
         <v>3631</v>
@@ -34448,7 +34457,7 @@
         <v>2847</v>
       </c>
       <c r="D1152" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1152" t="s">
         <v>2848</v>
@@ -34516,7 +34525,7 @@
         <v>2393</v>
       </c>
       <c r="D1156" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1156" t="s">
         <v>2850</v>
@@ -34567,7 +34576,7 @@
         <v>3574</v>
       </c>
       <c r="D1159" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1159" t="s">
         <v>2850</v>
@@ -34618,7 +34627,7 @@
         <v>3634</v>
       </c>
       <c r="D1162" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1162" t="s">
         <v>2853</v>
@@ -34686,7 +34695,7 @@
         <v>2829</v>
       </c>
       <c r="D1166" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1166" t="s">
         <v>2821</v>
@@ -34703,7 +34712,7 @@
         <v>2821</v>
       </c>
       <c r="D1167" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1167" t="s">
         <v>2294</v>
@@ -34720,7 +34729,7 @@
         <v>2294</v>
       </c>
       <c r="D1168" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1168" t="s">
         <v>2832</v>
@@ -34737,7 +34746,7 @@
         <v>2832</v>
       </c>
       <c r="D1169" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1169" t="s">
         <v>2854</v>
@@ -34754,7 +34763,7 @@
         <v>2857</v>
       </c>
       <c r="D1170" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1170" t="s">
         <v>2291</v>
@@ -34771,7 +34780,7 @@
         <v>2291</v>
       </c>
       <c r="D1171" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1171" t="s">
         <v>2854</v>
@@ -34788,7 +34797,7 @@
         <v>3638</v>
       </c>
       <c r="D1172" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1172" t="s">
         <v>2397</v>
@@ -34822,7 +34831,7 @@
         <v>2291</v>
       </c>
       <c r="D1174" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1174" t="s">
         <v>2415</v>
@@ -34873,7 +34882,7 @@
         <v>2418</v>
       </c>
       <c r="D1177" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1177" t="s">
         <v>2856</v>
@@ -34924,7 +34933,7 @@
         <v>3653</v>
       </c>
       <c r="D1180" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1180" t="s">
         <v>2527</v>
@@ -34941,7 +34950,7 @@
         <v>2768</v>
       </c>
       <c r="D1181" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1181" t="s">
         <v>2812</v>
@@ -34958,7 +34967,7 @@
         <v>2863</v>
       </c>
       <c r="D1182" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1182" t="s">
         <v>2858</v>
@@ -34975,7 +34984,7 @@
         <v>3654</v>
       </c>
       <c r="D1183" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1183" t="s">
         <v>2859</v>
@@ -35094,7 +35103,7 @@
         <v>2303</v>
       </c>
       <c r="D1190" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1190" t="s">
         <v>2862</v>
@@ -35213,7 +35222,7 @@
         <v>2828</v>
       </c>
       <c r="D1197" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1197" t="s">
         <v>2768</v>
@@ -35247,7 +35256,7 @@
         <v>3658</v>
       </c>
       <c r="D1199" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1199" t="s">
         <v>2771</v>
@@ -35264,7 +35273,7 @@
         <v>2418</v>
       </c>
       <c r="D1200" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1200" t="s">
         <v>2865</v>
@@ -35315,7 +35324,7 @@
         <v>2867</v>
       </c>
       <c r="D1203" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1203" t="s">
         <v>2773</v>
@@ -35349,7 +35358,7 @@
         <v>2868</v>
       </c>
       <c r="D1205" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1205" t="s">
         <v>2293</v>
@@ -35366,7 +35375,7 @@
         <v>2422</v>
       </c>
       <c r="D1206" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1206" t="s">
         <v>2752</v>
@@ -35383,7 +35392,7 @@
         <v>2854</v>
       </c>
       <c r="D1207" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1207" t="s">
         <v>2870</v>
@@ -35434,7 +35443,7 @@
         <v>2871</v>
       </c>
       <c r="D1210" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1210" t="s">
         <v>2554</v>
@@ -35451,7 +35460,7 @@
         <v>2763</v>
       </c>
       <c r="D1211" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1211" t="s">
         <v>2714</v>
@@ -35468,7 +35477,7 @@
         <v>2249</v>
       </c>
       <c r="D1212" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1212" t="s">
         <v>2533</v>
@@ -35570,7 +35579,7 @@
         <v>2843</v>
       </c>
       <c r="D1218" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1218" t="s">
         <v>2852</v>
@@ -35587,7 +35596,7 @@
         <v>2761</v>
       </c>
       <c r="D1219" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1219" t="s">
         <v>2874</v>
@@ -35604,7 +35613,7 @@
         <v>2540</v>
       </c>
       <c r="D1220" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1220" t="s">
         <v>2875</v>
@@ -35655,7 +35664,7 @@
         <v>3508</v>
       </c>
       <c r="D1223" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1223" t="s">
         <v>2876</v>
@@ -35672,7 +35681,7 @@
         <v>3508</v>
       </c>
       <c r="D1224" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1224" t="s">
         <v>3508</v>
@@ -35689,7 +35698,7 @@
         <v>2533</v>
       </c>
       <c r="D1225" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1225" t="s">
         <v>2875</v>
@@ -35706,7 +35715,7 @@
         <v>2540</v>
       </c>
       <c r="D1226" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1226" t="s">
         <v>2288</v>
@@ -35757,7 +35766,7 @@
         <v>2553</v>
       </c>
       <c r="D1229" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1229" t="s">
         <v>2531</v>
@@ -35791,10 +35800,10 @@
         <v>2835</v>
       </c>
       <c r="D1231" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1231" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35808,7 +35817,7 @@
         <v>3574</v>
       </c>
       <c r="D1232" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1232" t="s">
         <v>2393</v>
@@ -35978,7 +35987,7 @@
         <v>2881</v>
       </c>
       <c r="D1242" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1242" t="s">
         <v>2787</v>
@@ -35995,7 +36004,7 @@
         <v>2468</v>
       </c>
       <c r="D1243" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1243" t="s">
         <v>2468</v>
@@ -36046,7 +36055,7 @@
         <v>2515</v>
       </c>
       <c r="D1246" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1246" t="s">
         <v>2785</v>
@@ -36080,7 +36089,7 @@
         <v>2882</v>
       </c>
       <c r="D1248" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1248" t="s">
         <v>2477</v>
@@ -36097,7 +36106,7 @@
         <v>2477</v>
       </c>
       <c r="D1249" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1249" t="s">
         <v>2302</v>
@@ -36131,7 +36140,7 @@
         <v>3663</v>
       </c>
       <c r="D1251" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1251" t="s">
         <v>2791</v>
@@ -36199,7 +36208,7 @@
         <v>2322</v>
       </c>
       <c r="D1255" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1255" t="s">
         <v>2480</v>
@@ -36284,7 +36293,7 @@
         <v>2785</v>
       </c>
       <c r="D1260" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1260" t="s">
         <v>2492</v>
@@ -36335,7 +36344,7 @@
         <v>2457</v>
       </c>
       <c r="D1263" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1263" t="s">
         <v>2860</v>
@@ -36369,7 +36378,7 @@
         <v>2886</v>
       </c>
       <c r="D1265" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1265" t="s">
         <v>2887</v>
@@ -36386,7 +36395,7 @@
         <v>3509</v>
       </c>
       <c r="D1266" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1266" t="s">
         <v>2831</v>
@@ -36607,7 +36616,7 @@
         <v>3671</v>
       </c>
       <c r="D1279" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1279" t="s">
         <v>2892</v>
@@ -36624,7 +36633,7 @@
         <v>2892</v>
       </c>
       <c r="D1280" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1280" t="s">
         <v>2784</v>
@@ -36641,7 +36650,7 @@
         <v>3672</v>
       </c>
       <c r="D1281" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1281" t="s">
         <v>2522</v>
@@ -36726,7 +36735,7 @@
         <v>2303</v>
       </c>
       <c r="D1286" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1286" t="s">
         <v>2890</v>
@@ -36743,7 +36752,7 @@
         <v>2949</v>
       </c>
       <c r="D1287" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1287" t="s">
         <v>2373</v>
@@ -36930,7 +36939,7 @@
         <v>2809</v>
       </c>
       <c r="D1298" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1298" t="s">
         <v>2894</v>
@@ -37151,7 +37160,7 @@
         <v>2896</v>
       </c>
       <c r="D1311" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1311" t="s">
         <v>2308</v>
@@ -37168,7 +37177,7 @@
         <v>3674</v>
       </c>
       <c r="D1312" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1312" t="s">
         <v>2310</v>
@@ -37270,7 +37279,7 @@
         <v>2952</v>
       </c>
       <c r="D1318" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1318" t="s">
         <v>2789</v>
@@ -37321,7 +37330,7 @@
         <v>3681</v>
       </c>
       <c r="D1321" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1321" t="s">
         <v>2897</v>
@@ -37338,7 +37347,7 @@
         <v>3681</v>
       </c>
       <c r="D1322" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1322" t="s">
         <v>2516</v>
@@ -37355,7 +37364,7 @@
         <v>2950</v>
       </c>
       <c r="D1323" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1323" t="s">
         <v>2476</v>
@@ -37389,7 +37398,7 @@
         <v>2370</v>
       </c>
       <c r="D1325" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1325" t="s">
         <v>2368</v>
@@ -37491,7 +37500,7 @@
         <v>3685</v>
       </c>
       <c r="D1331" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1331" t="s">
         <v>2900</v>
@@ -37508,7 +37517,7 @@
         <v>3686</v>
       </c>
       <c r="D1332" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1332" t="s">
         <v>2901</v>
@@ -37542,7 +37551,7 @@
         <v>3687</v>
       </c>
       <c r="D1334" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1334" t="s">
         <v>2407</v>
@@ -37559,7 +37568,7 @@
         <v>3688</v>
       </c>
       <c r="D1335" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1335" t="s">
         <v>2757</v>
@@ -37576,7 +37585,7 @@
         <v>3689</v>
       </c>
       <c r="D1336" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1336" t="s">
         <v>2413</v>
@@ -37593,7 +37602,7 @@
         <v>3690</v>
       </c>
       <c r="D1337" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1337" t="s">
         <v>2295</v>
@@ -37644,7 +37653,7 @@
         <v>3691</v>
       </c>
       <c r="D1340" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1340" t="s">
         <v>2423</v>
@@ -37678,7 +37687,7 @@
         <v>3692</v>
       </c>
       <c r="D1342" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1342" t="s">
         <v>2527</v>
@@ -37695,7 +37704,7 @@
         <v>3643</v>
       </c>
       <c r="D1343" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1343" t="s">
         <v>2830</v>
@@ -37797,7 +37806,7 @@
         <v>2821</v>
       </c>
       <c r="D1349" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1349" t="s">
         <v>2413</v>
@@ -37817,7 +37826,7 @@
         <v>2758</v>
       </c>
       <c r="E1350" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -37831,7 +37840,7 @@
         <v>3695</v>
       </c>
       <c r="D1351" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1351" t="s">
         <v>2768</v>
@@ -37882,7 +37891,7 @@
         <v>2366</v>
       </c>
       <c r="D1354" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1354" t="s">
         <v>2398</v>
@@ -37899,7 +37908,7 @@
         <v>3696</v>
       </c>
       <c r="D1355" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1355" t="s">
         <v>2437</v>
@@ -37916,7 +37925,7 @@
         <v>3691</v>
       </c>
       <c r="D1356" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1356" t="s">
         <v>2823</v>
@@ -37950,7 +37959,7 @@
         <v>2831</v>
       </c>
       <c r="D1358" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1358" t="s">
         <v>2845</v>
@@ -37967,7 +37976,7 @@
         <v>2844</v>
       </c>
       <c r="D1359" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1359" t="s">
         <v>2903</v>
@@ -37984,7 +37993,7 @@
         <v>3690</v>
       </c>
       <c r="D1360" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1360" t="s">
         <v>2904</v>
@@ -38103,7 +38112,7 @@
         <v>2789</v>
       </c>
       <c r="D1367" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1367" t="s">
         <v>2905</v>
@@ -38137,7 +38146,7 @@
         <v>2316</v>
       </c>
       <c r="D1369" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1369" t="s">
         <v>2907</v>
@@ -38341,7 +38350,7 @@
         <v>3684</v>
       </c>
       <c r="D1381" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1381" t="s">
         <v>2511</v>
@@ -38409,7 +38418,7 @@
         <v>3701</v>
       </c>
       <c r="D1385" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1385" t="s">
         <v>2914</v>
@@ -38443,7 +38452,7 @@
         <v>3703</v>
       </c>
       <c r="D1387" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1387" t="s">
         <v>2916</v>
@@ -38460,10 +38469,10 @@
         <v>3704</v>
       </c>
       <c r="D1388" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1388" t="s">
-        <v>4716</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38477,10 +38486,10 @@
         <v>2968</v>
       </c>
       <c r="D1389" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1389" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38494,7 +38503,7 @@
         <v>3705</v>
       </c>
       <c r="D1390" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1390" t="s">
         <v>3702</v>
@@ -38545,10 +38554,10 @@
         <v>3708</v>
       </c>
       <c r="D1393" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1393" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38562,10 +38571,10 @@
         <v>3709</v>
       </c>
       <c r="D1394" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1394" t="s">
-        <v>4717</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38579,10 +38588,10 @@
         <v>3710</v>
       </c>
       <c r="D1395" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1395" t="s">
-        <v>4718</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38596,7 +38605,7 @@
         <v>3711</v>
       </c>
       <c r="D1396" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1396" t="s">
         <v>2925</v>
@@ -38613,10 +38622,10 @@
         <v>3712</v>
       </c>
       <c r="D1397" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1397" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -38633,7 +38642,7 @@
         <v>2356</v>
       </c>
       <c r="E1398" t="s">
-        <v>4719</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38647,10 +38656,10 @@
         <v>3714</v>
       </c>
       <c r="D1399" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1399" t="s">
-        <v>4720</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38664,10 +38673,10 @@
         <v>3073</v>
       </c>
       <c r="D1400" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1400" t="s">
-        <v>4721</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38681,7 +38690,7 @@
         <v>3712</v>
       </c>
       <c r="D1401" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1401" t="s">
         <v>2930</v>
@@ -38701,7 +38710,7 @@
         <v>2350</v>
       </c>
       <c r="E1402" t="s">
-        <v>4722</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -38718,7 +38727,7 @@
         <v>3532</v>
       </c>
       <c r="E1403" t="s">
-        <v>4723</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -38732,10 +38741,10 @@
         <v>3003</v>
       </c>
       <c r="D1404" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1404" t="s">
-        <v>4724</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -38752,7 +38761,7 @@
         <v>2785</v>
       </c>
       <c r="E1405" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38766,7 +38775,7 @@
         <v>3717</v>
       </c>
       <c r="D1406" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1406" t="s">
         <v>2913</v>
@@ -38803,7 +38812,7 @@
         <v>2327</v>
       </c>
       <c r="E1408" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1409" spans="1:5">
@@ -38817,10 +38826,10 @@
         <v>3719</v>
       </c>
       <c r="D1409" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1409" t="s">
-        <v>4725</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38851,7 +38860,7 @@
         <v>3720</v>
       </c>
       <c r="D1411" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1411" t="s">
         <v>2939</v>
@@ -38885,7 +38894,7 @@
         <v>2940</v>
       </c>
       <c r="D1413" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1413" t="s">
         <v>3667</v>
@@ -38953,10 +38962,10 @@
         <v>3722</v>
       </c>
       <c r="D1417" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1417" t="s">
-        <v>4726</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -38987,10 +38996,10 @@
         <v>3724</v>
       </c>
       <c r="D1419" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1419" t="s">
-        <v>4727</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -39055,7 +39064,7 @@
         <v>3727</v>
       </c>
       <c r="D1423" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1423" t="s">
         <v>2948</v>
@@ -39075,7 +39084,7 @@
         <v>2889</v>
       </c>
       <c r="E1424" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -39092,7 +39101,7 @@
         <v>2886</v>
       </c>
       <c r="E1425" t="s">
-        <v>4728</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1426" spans="1:5">
@@ -39106,7 +39115,7 @@
         <v>2466</v>
       </c>
       <c r="D1426" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1426" t="s">
         <v>2950</v>
@@ -39126,7 +39135,7 @@
         <v>2468</v>
       </c>
       <c r="E1427" t="s">
-        <v>4729</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39140,10 +39149,10 @@
         <v>2514</v>
       </c>
       <c r="D1428" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1428" t="s">
-        <v>4730</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -39160,7 +39169,7 @@
         <v>2521</v>
       </c>
       <c r="E1429" t="s">
-        <v>4731</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -39211,7 +39220,7 @@
         <v>2954</v>
       </c>
       <c r="E1432" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1433" spans="1:5">
@@ -39228,7 +39237,7 @@
         <v>2784</v>
       </c>
       <c r="E1433" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1434" spans="1:5">
@@ -39245,7 +39254,7 @@
         <v>2482</v>
       </c>
       <c r="E1434" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -39296,7 +39305,7 @@
         <v>3559</v>
       </c>
       <c r="E1437" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -39327,7 +39336,7 @@
         <v>3731</v>
       </c>
       <c r="D1439" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1439" t="s">
         <v>2961</v>
@@ -39344,10 +39353,10 @@
         <v>3732</v>
       </c>
       <c r="D1440" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1440" t="s">
-        <v>4734</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -39378,7 +39387,7 @@
         <v>2963</v>
       </c>
       <c r="D1442" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1442" t="s">
         <v>2328</v>
@@ -39463,7 +39472,7 @@
         <v>3735</v>
       </c>
       <c r="D1447" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1447" t="s">
         <v>2967</v>
@@ -39480,7 +39489,7 @@
         <v>3736</v>
       </c>
       <c r="D1448" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1448" t="s">
         <v>2968</v>
@@ -39514,7 +39523,7 @@
         <v>3738</v>
       </c>
       <c r="D1450" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1450" t="s">
         <v>2970</v>
@@ -39548,7 +39557,7 @@
         <v>3739</v>
       </c>
       <c r="D1452" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1452" t="s">
         <v>2972</v>
@@ -39565,7 +39574,7 @@
         <v>2972</v>
       </c>
       <c r="D1453" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1453" t="s">
         <v>2973</v>
@@ -39582,7 +39591,7 @@
         <v>2483</v>
       </c>
       <c r="D1454" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1454" t="s">
         <v>2947</v>
@@ -39599,7 +39608,7 @@
         <v>2328</v>
       </c>
       <c r="D1455" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1455" t="s">
         <v>2328</v>
@@ -39633,10 +39642,10 @@
         <v>3741</v>
       </c>
       <c r="D1457" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1457" t="s">
-        <v>4735</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -39650,10 +39659,10 @@
         <v>3742</v>
       </c>
       <c r="D1458" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1458" t="s">
-        <v>4736</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -39667,7 +39676,7 @@
         <v>3743</v>
       </c>
       <c r="D1459" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1459" t="s">
         <v>2328</v>
@@ -39687,7 +39696,7 @@
         <v>2977</v>
       </c>
       <c r="E1460" t="s">
-        <v>4737</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39735,10 +39744,10 @@
         <v>3747</v>
       </c>
       <c r="D1463" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1463" t="s">
-        <v>4738</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39752,10 +39761,10 @@
         <v>3748</v>
       </c>
       <c r="D1464" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1464" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39769,7 +39778,7 @@
         <v>3749</v>
       </c>
       <c r="D1465" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1465" t="s">
         <v>3749</v>
@@ -39803,7 +39812,7 @@
         <v>3751</v>
       </c>
       <c r="D1467" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1467" t="s">
         <v>2983</v>
@@ -39820,7 +39829,7 @@
         <v>3752</v>
       </c>
       <c r="D1468" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1468" t="s">
         <v>2983</v>
@@ -39854,10 +39863,10 @@
         <v>3004</v>
       </c>
       <c r="D1470" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1470" t="s">
-        <v>4739</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -39871,10 +39880,10 @@
         <v>3754</v>
       </c>
       <c r="D1471" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1471" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -39888,7 +39897,7 @@
         <v>2355</v>
       </c>
       <c r="D1472" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E1472" t="s">
         <v>2986</v>
@@ -39905,7 +39914,7 @@
         <v>3755</v>
       </c>
       <c r="D1473" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1473" t="s">
         <v>3006</v>
@@ -39922,10 +39931,10 @@
         <v>3756</v>
       </c>
       <c r="D1474" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1474" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39939,10 +39948,10 @@
         <v>2985</v>
       </c>
       <c r="D1475" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1475" t="s">
-        <v>4741</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39973,10 +39982,10 @@
         <v>3758</v>
       </c>
       <c r="D1477" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1477" t="s">
-        <v>4742</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
@@ -39990,10 +39999,10 @@
         <v>3759</v>
       </c>
       <c r="D1478" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1478" t="s">
-        <v>4743</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -40010,7 +40019,7 @@
         <v>2992</v>
       </c>
       <c r="E1479" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1480" spans="1:5">
@@ -40041,7 +40050,7 @@
         <v>3762</v>
       </c>
       <c r="D1481" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1481" t="s">
         <v>2983</v>
@@ -40058,10 +40067,10 @@
         <v>3532</v>
       </c>
       <c r="D1482" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1482" t="s">
-        <v>4744</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -40078,7 +40087,7 @@
         <v>2994</v>
       </c>
       <c r="E1483" t="s">
-        <v>4745</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -40092,10 +40101,10 @@
         <v>2983</v>
       </c>
       <c r="D1484" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1484" t="s">
-        <v>4746</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -40109,10 +40118,10 @@
         <v>2348</v>
       </c>
       <c r="D1485" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1485" t="s">
-        <v>4747</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
@@ -40126,7 +40135,7 @@
         <v>3763</v>
       </c>
       <c r="D1486" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1486" t="s">
         <v>2998</v>
@@ -40143,7 +40152,7 @@
         <v>3752</v>
       </c>
       <c r="D1487" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1487" t="s">
         <v>2999</v>
@@ -40194,7 +40203,7 @@
         <v>3764</v>
       </c>
       <c r="D1490" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1490" t="s">
         <v>3002</v>
@@ -40228,7 +40237,7 @@
         <v>3765</v>
       </c>
       <c r="D1492" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1492" t="s">
         <v>3004</v>
@@ -40245,7 +40254,7 @@
         <v>3004</v>
       </c>
       <c r="D1493" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1493" t="s">
         <v>3004</v>
@@ -40279,7 +40288,7 @@
         <v>2988</v>
       </c>
       <c r="D1495" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1495" t="s">
         <v>2354</v>
@@ -40296,7 +40305,7 @@
         <v>3767</v>
       </c>
       <c r="D1496" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1496" t="s">
         <v>3005</v>
@@ -40313,7 +40322,7 @@
         <v>3768</v>
       </c>
       <c r="D1497" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1497" t="s">
         <v>2987</v>
@@ -40330,10 +40339,10 @@
         <v>3758</v>
       </c>
       <c r="D1498" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1498" t="s">
-        <v>4748</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40347,10 +40356,10 @@
         <v>3769</v>
       </c>
       <c r="D1499" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1499" t="s">
-        <v>4749</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1500" spans="1:5">
@@ -40367,7 +40376,7 @@
         <v>3784</v>
       </c>
       <c r="E1500" t="s">
-        <v>4750</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40415,7 +40424,7 @@
         <v>3771</v>
       </c>
       <c r="D1503" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1503" t="s">
         <v>3032</v>
@@ -40449,7 +40458,7 @@
         <v>3773</v>
       </c>
       <c r="D1505" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1505" t="s">
         <v>3072</v>
@@ -40466,7 +40475,7 @@
         <v>3774</v>
       </c>
       <c r="D1506" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1506" t="s">
         <v>3014</v>
@@ -40486,7 +40495,7 @@
         <v>3013</v>
       </c>
       <c r="E1507" t="s">
-        <v>4751</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40500,10 +40509,10 @@
         <v>3775</v>
       </c>
       <c r="D1508" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1508" t="s">
-        <v>4752</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40534,10 +40543,10 @@
         <v>3777</v>
       </c>
       <c r="D1510" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1510" t="s">
-        <v>4753</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40551,7 +40560,7 @@
         <v>3089</v>
       </c>
       <c r="D1511" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1511" t="s">
         <v>3019</v>
@@ -40571,7 +40580,7 @@
         <v>3776</v>
       </c>
       <c r="E1512" t="s">
-        <v>4754</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40588,7 +40597,7 @@
         <v>3031</v>
       </c>
       <c r="E1513" t="s">
-        <v>4755</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40602,7 +40611,7 @@
         <v>3780</v>
       </c>
       <c r="D1514" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1514" t="s">
         <v>3072</v>
@@ -40619,7 +40628,7 @@
         <v>3781</v>
       </c>
       <c r="D1515" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1515" t="s">
         <v>3022</v>
@@ -40656,7 +40665,7 @@
         <v>3023</v>
       </c>
       <c r="E1517" t="s">
-        <v>4756</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40673,7 +40682,7 @@
         <v>2932</v>
       </c>
       <c r="E1518" t="s">
-        <v>4718</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40687,10 +40696,10 @@
         <v>3784</v>
       </c>
       <c r="D1519" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1519" t="s">
-        <v>4757</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -40704,10 +40713,10 @@
         <v>3026</v>
       </c>
       <c r="D1520" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1520" t="s">
-        <v>4758</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40721,7 +40730,7 @@
         <v>3785</v>
       </c>
       <c r="D1521" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1521" t="s">
         <v>3027</v>
@@ -40741,7 +40750,7 @@
         <v>3027</v>
       </c>
       <c r="E1522" t="s">
-        <v>4759</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40755,10 +40764,10 @@
         <v>3010</v>
       </c>
       <c r="D1523" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1523" t="s">
-        <v>4760</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1524" spans="1:5">
@@ -40772,10 +40781,10 @@
         <v>3786</v>
       </c>
       <c r="D1524" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1524" t="s">
-        <v>4761</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -40789,7 +40798,7 @@
         <v>3787</v>
       </c>
       <c r="D1525" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1525" t="s">
         <v>3008</v>
@@ -40823,10 +40832,10 @@
         <v>3031</v>
       </c>
       <c r="D1527" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1527" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1528" spans="1:5">
@@ -40840,10 +40849,10 @@
         <v>3032</v>
       </c>
       <c r="D1528" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1528" t="s">
-        <v>4762</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40857,7 +40866,7 @@
         <v>3789</v>
       </c>
       <c r="D1529" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1529" t="s">
         <v>3027</v>
@@ -40874,10 +40883,10 @@
         <v>3757</v>
       </c>
       <c r="D1530" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1530" t="s">
-        <v>4763</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40891,10 +40900,10 @@
         <v>3790</v>
       </c>
       <c r="D1531" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1531" t="s">
-        <v>4764</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40908,10 +40917,10 @@
         <v>3010</v>
       </c>
       <c r="D1532" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1532" t="s">
-        <v>4765</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40925,7 +40934,7 @@
         <v>3791</v>
       </c>
       <c r="D1533" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1533" t="s">
         <v>3038</v>
@@ -40979,7 +40988,7 @@
         <v>3038</v>
       </c>
       <c r="E1536" t="s">
-        <v>4766</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1537" spans="1:5">
@@ -41010,10 +41019,10 @@
         <v>3796</v>
       </c>
       <c r="D1538" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1538" t="s">
-        <v>4767</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1539" spans="1:5">
@@ -41044,7 +41053,7 @@
         <v>3798</v>
       </c>
       <c r="D1540" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1540" t="s">
         <v>3079</v>
@@ -41061,7 +41070,7 @@
         <v>3799</v>
       </c>
       <c r="D1541" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1541" t="s">
         <v>3044</v>
@@ -41095,10 +41104,10 @@
         <v>3044</v>
       </c>
       <c r="D1543" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1543" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -41112,10 +41121,10 @@
         <v>3801</v>
       </c>
       <c r="D1544" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1544" t="s">
-        <v>4768</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -41129,10 +41138,10 @@
         <v>3802</v>
       </c>
       <c r="D1545" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1545" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41180,7 +41189,7 @@
         <v>3804</v>
       </c>
       <c r="D1548" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1548" t="s">
         <v>3049</v>
@@ -41197,7 +41206,7 @@
         <v>3805</v>
       </c>
       <c r="D1549" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1549" t="s">
         <v>3050</v>
@@ -41214,10 +41223,10 @@
         <v>3806</v>
       </c>
       <c r="D1550" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1550" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41231,7 +41240,7 @@
         <v>3807</v>
       </c>
       <c r="D1551" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1551" t="s">
         <v>3052</v>
@@ -41248,7 +41257,7 @@
         <v>3808</v>
       </c>
       <c r="D1552" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1552" t="s">
         <v>3053</v>
@@ -41282,7 +41291,7 @@
         <v>3810</v>
       </c>
       <c r="D1554" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1554" t="s">
         <v>3055</v>
@@ -41299,10 +41308,10 @@
         <v>3811</v>
       </c>
       <c r="D1555" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1555" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41333,7 +41342,7 @@
         <v>3813</v>
       </c>
       <c r="D1557" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1557" t="s">
         <v>3820</v>
@@ -41350,10 +41359,10 @@
         <v>3814</v>
       </c>
       <c r="D1558" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1558" t="s">
-        <v>4769</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41370,7 +41379,7 @@
         <v>3085</v>
       </c>
       <c r="E1559" t="s">
-        <v>4770</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -41384,10 +41393,10 @@
         <v>3816</v>
       </c>
       <c r="D1560" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1560" t="s">
-        <v>4771</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41401,7 +41410,7 @@
         <v>3817</v>
       </c>
       <c r="D1561" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1561" t="s">
         <v>3061</v>
@@ -41418,10 +41427,10 @@
         <v>3817</v>
       </c>
       <c r="D1562" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1562" t="s">
-        <v>4772</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41435,10 +41444,10 @@
         <v>3062</v>
       </c>
       <c r="D1563" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1563" t="s">
-        <v>4773</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1564" spans="1:5">
@@ -41452,7 +41461,7 @@
         <v>3818</v>
       </c>
       <c r="D1564" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1564" t="s">
         <v>3093</v>
@@ -41472,7 +41481,7 @@
         <v>3773</v>
       </c>
       <c r="E1565" t="s">
-        <v>4774</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41486,7 +41495,7 @@
         <v>3820</v>
       </c>
       <c r="D1566" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1566" t="s">
         <v>3066</v>
@@ -41503,7 +41512,7 @@
         <v>3066</v>
       </c>
       <c r="D1567" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1567" t="s">
         <v>3051</v>
@@ -41523,7 +41532,7 @@
         <v>3072</v>
       </c>
       <c r="E1568" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1569" spans="1:5">
@@ -41537,7 +41546,7 @@
         <v>3067</v>
       </c>
       <c r="D1569" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1569" t="s">
         <v>3067</v>
@@ -41554,10 +41563,10 @@
         <v>3822</v>
       </c>
       <c r="D1570" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1570" t="s">
-        <v>4775</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -41571,10 +41580,10 @@
         <v>3103</v>
       </c>
       <c r="D1571" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1571" t="s">
-        <v>4776</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1572" spans="1:5">
@@ -41588,10 +41597,10 @@
         <v>3823</v>
       </c>
       <c r="D1572" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1572" t="s">
-        <v>4777</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -41605,7 +41614,7 @@
         <v>3071</v>
       </c>
       <c r="D1573" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1573" t="s">
         <v>3056</v>
@@ -41622,7 +41631,7 @@
         <v>3824</v>
       </c>
       <c r="D1574" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1574" t="s">
         <v>3013</v>
@@ -41639,10 +41648,10 @@
         <v>3015</v>
       </c>
       <c r="D1575" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1575" t="s">
-        <v>4778</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41656,7 +41665,7 @@
         <v>3795</v>
       </c>
       <c r="D1576" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1576" t="s">
         <v>3074</v>
@@ -41673,7 +41682,7 @@
         <v>3825</v>
       </c>
       <c r="D1577" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1577" t="s">
         <v>3075</v>
@@ -41690,7 +41699,7 @@
         <v>3826</v>
       </c>
       <c r="D1578" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1578" t="s">
         <v>3076</v>
@@ -41707,7 +41716,7 @@
         <v>3827</v>
       </c>
       <c r="D1579" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1579" t="s">
         <v>3075</v>
@@ -41758,7 +41767,7 @@
         <v>3830</v>
       </c>
       <c r="D1582" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1582" t="s">
         <v>3043</v>
@@ -41775,7 +41784,7 @@
         <v>3080</v>
       </c>
       <c r="D1583" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1583" t="s">
         <v>3081</v>
@@ -41809,10 +41818,10 @@
         <v>3814</v>
       </c>
       <c r="D1585" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1585" t="s">
-        <v>4779</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -41826,7 +41835,7 @@
         <v>3831</v>
       </c>
       <c r="D1586" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1586" t="s">
         <v>3082</v>
@@ -41894,10 +41903,10 @@
         <v>3834</v>
       </c>
       <c r="D1590" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1590" t="s">
-        <v>4780</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41911,7 +41920,7 @@
         <v>3835</v>
       </c>
       <c r="D1591" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1591" t="s">
         <v>3087</v>
@@ -41928,7 +41937,7 @@
         <v>3087</v>
       </c>
       <c r="D1592" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1592" t="s">
         <v>3050</v>
@@ -41945,10 +41954,10 @@
         <v>3779</v>
       </c>
       <c r="D1593" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1593" t="s">
-        <v>4754</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -41965,7 +41974,7 @@
         <v>3777</v>
       </c>
       <c r="E1594" t="s">
-        <v>4781</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1595" spans="1:5">
@@ -42030,10 +42039,10 @@
         <v>3840</v>
       </c>
       <c r="D1598" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1598" t="s">
-        <v>4782</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -42047,7 +42056,7 @@
         <v>3841</v>
       </c>
       <c r="D1599" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1599" t="s">
         <v>3829</v>
@@ -42271,7 +42280,7 @@
         <v>3093</v>
       </c>
       <c r="E1612" t="s">
-        <v>4783</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1613" spans="1:5">
@@ -42458,7 +42467,7 @@
         <v>3093</v>
       </c>
       <c r="E1623" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42628,7 +42637,7 @@
         <v>3093</v>
       </c>
       <c r="E1633" t="s">
-        <v>4785</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -42642,10 +42651,10 @@
         <v>3861</v>
       </c>
       <c r="D1634" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1634" t="s">
-        <v>4786</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -42659,10 +42668,10 @@
         <v>3862</v>
       </c>
       <c r="D1635" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1635" t="s">
-        <v>4787</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -42676,10 +42685,10 @@
         <v>3863</v>
       </c>
       <c r="D1636" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1636" t="s">
-        <v>4788</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42693,7 +42702,7 @@
         <v>3864</v>
       </c>
       <c r="D1637" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1637" t="s">
         <v>3106</v>
@@ -42710,10 +42719,10 @@
         <v>3865</v>
       </c>
       <c r="D1638" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1638" t="s">
-        <v>4789</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -42727,10 +42736,10 @@
         <v>3866</v>
       </c>
       <c r="D1639" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1639" t="s">
-        <v>4790</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1640" spans="1:5">
@@ -42744,7 +42753,7 @@
         <v>3867</v>
       </c>
       <c r="D1640" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1640" t="s">
         <v>3102</v>
@@ -42761,7 +42770,7 @@
         <v>3868</v>
       </c>
       <c r="D1641" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1641" t="s">
         <v>3102</v>
@@ -42778,7 +42787,7 @@
         <v>3869</v>
       </c>
       <c r="D1642" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1642" t="s">
         <v>3101</v>
@@ -42795,7 +42804,7 @@
         <v>3870</v>
       </c>
       <c r="D1643" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1643" t="s">
         <v>3101</v>
@@ -42812,7 +42821,7 @@
         <v>3870</v>
       </c>
       <c r="D1644" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1644" t="s">
         <v>3100</v>
@@ -42829,7 +42838,7 @@
         <v>3871</v>
       </c>
       <c r="D1645" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1645" t="s">
         <v>3108</v>
@@ -42846,7 +42855,7 @@
         <v>3854</v>
       </c>
       <c r="D1646" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1646" t="s">
         <v>3108</v>
@@ -42968,7 +42977,7 @@
         <v>3108</v>
       </c>
       <c r="E1653" t="s">
-        <v>4791</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -43053,7 +43062,7 @@
         <v>3108</v>
       </c>
       <c r="E1658" t="s">
-        <v>4792</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -43373,7 +43382,7 @@
         <v>3893</v>
       </c>
       <c r="D1677" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1677" t="s">
         <v>3108</v>
@@ -43390,7 +43399,7 @@
         <v>3108</v>
       </c>
       <c r="D1678" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1678" t="s">
         <v>3108</v>
@@ -43407,7 +43416,7 @@
         <v>3108</v>
       </c>
       <c r="D1679" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1679" t="s">
         <v>3108</v>
@@ -43427,7 +43436,7 @@
         <v>3848</v>
       </c>
       <c r="E1680" t="s">
-        <v>4793</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43458,10 +43467,10 @@
         <v>3895</v>
       </c>
       <c r="D1682" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1682" t="s">
-        <v>4794</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
@@ -43475,10 +43484,10 @@
         <v>3896</v>
       </c>
       <c r="D1683" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1683" t="s">
-        <v>4795</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -43492,10 +43501,10 @@
         <v>3360</v>
       </c>
       <c r="D1684" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1684" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
@@ -43509,7 +43518,7 @@
         <v>3897</v>
       </c>
       <c r="D1685" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1685" t="s">
         <v>4057</v>
@@ -43526,10 +43535,10 @@
         <v>3898</v>
       </c>
       <c r="D1686" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1686" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -43543,10 +43552,10 @@
         <v>3899</v>
       </c>
       <c r="D1687" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1687" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -43560,10 +43569,10 @@
         <v>3900</v>
       </c>
       <c r="D1688" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1688" t="s">
-        <v>4799</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43577,10 +43586,10 @@
         <v>3901</v>
       </c>
       <c r="D1689" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1689" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -43594,10 +43603,10 @@
         <v>3902</v>
       </c>
       <c r="D1690" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1690" t="s">
-        <v>4801</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -43611,7 +43620,7 @@
         <v>3903</v>
       </c>
       <c r="D1691" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1691" t="s">
         <v>3123</v>
@@ -43713,7 +43722,7 @@
         <v>3124</v>
       </c>
       <c r="D1697" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1697" t="s">
         <v>3124</v>
@@ -43730,10 +43739,10 @@
         <v>3124</v>
       </c>
       <c r="D1698" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1698" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -43747,7 +43756,7 @@
         <v>3124</v>
       </c>
       <c r="D1699" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1699" t="s">
         <v>3124</v>
@@ -43764,7 +43773,7 @@
         <v>3124</v>
       </c>
       <c r="D1700" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1700" t="s">
         <v>3124</v>
@@ -43815,7 +43824,7 @@
         <v>3124</v>
       </c>
       <c r="D1703" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1703" t="s">
         <v>3124</v>
@@ -43832,10 +43841,10 @@
         <v>3124</v>
       </c>
       <c r="D1704" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1704" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43849,7 +43858,7 @@
         <v>3124</v>
       </c>
       <c r="D1705" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1705" t="s">
         <v>3124</v>
@@ -43866,7 +43875,7 @@
         <v>3124</v>
       </c>
       <c r="D1706" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1706" t="s">
         <v>3124</v>
@@ -44039,7 +44048,7 @@
         <v>3124</v>
       </c>
       <c r="E1716" t="s">
-        <v>4803</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -44090,7 +44099,7 @@
         <v>3124</v>
       </c>
       <c r="E1719" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -44172,10 +44181,10 @@
         <v>3920</v>
       </c>
       <c r="D1724" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1724" t="s">
-        <v>4805</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44189,10 +44198,10 @@
         <v>3921</v>
       </c>
       <c r="D1725" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1725" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -44206,10 +44215,10 @@
         <v>3922</v>
       </c>
       <c r="D1726" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1726" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1727" spans="1:5">
@@ -44257,7 +44266,7 @@
         <v>3925</v>
       </c>
       <c r="D1729" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1729" t="s">
         <v>3133</v>
@@ -44274,10 +44283,10 @@
         <v>3926</v>
       </c>
       <c r="D1730" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1730" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -44291,7 +44300,7 @@
         <v>3927</v>
       </c>
       <c r="D1731" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1731" t="s">
         <v>3136</v>
@@ -44311,7 +44320,7 @@
         <v>4125</v>
       </c>
       <c r="E1732" t="s">
-        <v>4809</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -44325,7 +44334,7 @@
         <v>3929</v>
       </c>
       <c r="D1733" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1733" t="s">
         <v>3138</v>
@@ -44342,10 +44351,10 @@
         <v>3930</v>
       </c>
       <c r="D1734" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1734" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -44359,7 +44368,7 @@
         <v>3931</v>
       </c>
       <c r="D1735" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1735" t="s">
         <v>3140</v>
@@ -44393,7 +44402,7 @@
         <v>3933</v>
       </c>
       <c r="D1737" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1737" t="s">
         <v>3142</v>
@@ -44461,7 +44470,7 @@
         <v>3935</v>
       </c>
       <c r="D1741" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1741" t="s">
         <v>3143</v>
@@ -44529,7 +44538,7 @@
         <v>3935</v>
       </c>
       <c r="D1745" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1745" t="s">
         <v>3143</v>
@@ -44597,7 +44606,7 @@
         <v>3941</v>
       </c>
       <c r="D1749" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1749" t="s">
         <v>3144</v>
@@ -44614,7 +44623,7 @@
         <v>3942</v>
       </c>
       <c r="D1750" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1750" t="s">
         <v>3145</v>
@@ -44648,7 +44657,7 @@
         <v>3148</v>
       </c>
       <c r="D1752" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1752" t="s">
         <v>3932</v>
@@ -44668,7 +44677,7 @@
         <v>3147</v>
       </c>
       <c r="E1753" t="s">
-        <v>4811</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1754" spans="1:5">
@@ -44733,10 +44742,10 @@
         <v>3150</v>
       </c>
       <c r="D1757" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1757" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1758" spans="1:5">
@@ -44750,10 +44759,10 @@
         <v>3945</v>
       </c>
       <c r="D1758" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1758" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1759" spans="1:5">
@@ -44903,7 +44912,7 @@
         <v>3948</v>
       </c>
       <c r="D1767" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1767" t="s">
         <v>3161</v>
@@ -44954,7 +44963,7 @@
         <v>3951</v>
       </c>
       <c r="D1770" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1770" t="s">
         <v>3164</v>
@@ -45005,7 +45014,7 @@
         <v>3953</v>
       </c>
       <c r="D1773" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1773" t="s">
         <v>3167</v>
@@ -45039,7 +45048,7 @@
         <v>3955</v>
       </c>
       <c r="D1775" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1775" t="s">
         <v>3169</v>
@@ -45056,7 +45065,7 @@
         <v>3956</v>
       </c>
       <c r="D1776" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1776" t="s">
         <v>3170</v>
@@ -45124,7 +45133,7 @@
         <v>3960</v>
       </c>
       <c r="D1780" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1780" t="s">
         <v>3174</v>
@@ -45141,7 +45150,7 @@
         <v>3961</v>
       </c>
       <c r="D1781" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1781" t="s">
         <v>3175</v>
@@ -45161,7 +45170,7 @@
         <v>3175</v>
       </c>
       <c r="E1782" t="s">
-        <v>4812</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -45175,7 +45184,7 @@
         <v>3963</v>
       </c>
       <c r="D1783" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1783" t="s">
         <v>3177</v>
@@ -45192,7 +45201,7 @@
         <v>3964</v>
       </c>
       <c r="D1784" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1784" t="s">
         <v>3178</v>
@@ -45209,7 +45218,7 @@
         <v>3965</v>
       </c>
       <c r="D1785" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1785" t="s">
         <v>3179</v>
@@ -45226,7 +45235,7 @@
         <v>3966</v>
       </c>
       <c r="D1786" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1786" t="s">
         <v>3180</v>
@@ -45294,7 +45303,7 @@
         <v>3970</v>
       </c>
       <c r="D1790" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1790" t="s">
         <v>3184</v>
@@ -45311,10 +45320,10 @@
         <v>3971</v>
       </c>
       <c r="D1791" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1791" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -45328,7 +45337,7 @@
         <v>3972</v>
       </c>
       <c r="D1792" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1792" t="s">
         <v>3178</v>
@@ -45345,7 +45354,7 @@
         <v>3973</v>
       </c>
       <c r="D1793" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1793" t="s">
         <v>3185</v>
@@ -45379,7 +45388,7 @@
         <v>3975</v>
       </c>
       <c r="D1795" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1795" t="s">
         <v>3187</v>
@@ -45515,7 +45524,7 @@
         <v>3188</v>
       </c>
       <c r="D1803" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1803" t="s">
         <v>3188</v>
@@ -45583,10 +45592,10 @@
         <v>3188</v>
       </c>
       <c r="D1807" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1807" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1808" spans="1:5">
@@ -45600,10 +45609,10 @@
         <v>3188</v>
       </c>
       <c r="D1808" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1808" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1809" spans="1:5">
@@ -45617,10 +45626,10 @@
         <v>3188</v>
       </c>
       <c r="D1809" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1809" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="1810" spans="1:5">
@@ -45634,10 +45643,10 @@
         <v>3188</v>
       </c>
       <c r="D1810" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1810" t="s">
-        <v>4814</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -45651,7 +45660,7 @@
         <v>3979</v>
       </c>
       <c r="D1811" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1811" t="s">
         <v>3190</v>
@@ -45668,10 +45677,10 @@
         <v>3980</v>
       </c>
       <c r="D1812" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1812" t="s">
-        <v>4815</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -45685,7 +45694,7 @@
         <v>3188</v>
       </c>
       <c r="D1813" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1813" t="s">
         <v>3246</v>
@@ -45702,7 +45711,7 @@
         <v>3981</v>
       </c>
       <c r="D1814" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1814" t="s">
         <v>3193</v>
@@ -45753,7 +45762,7 @@
         <v>3983</v>
       </c>
       <c r="D1817" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1817" t="s">
         <v>3196</v>
@@ -45787,7 +45796,7 @@
         <v>3985</v>
       </c>
       <c r="D1819" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1819" t="s">
         <v>3198</v>
@@ -45821,7 +45830,7 @@
         <v>3987</v>
       </c>
       <c r="D1821" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1821" t="s">
         <v>3200</v>
@@ -45838,7 +45847,7 @@
         <v>3987</v>
       </c>
       <c r="D1822" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1822" t="s">
         <v>3201</v>
@@ -45855,7 +45864,7 @@
         <v>3988</v>
       </c>
       <c r="D1823" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1823" t="s">
         <v>3202</v>
@@ -45872,7 +45881,7 @@
         <v>3989</v>
       </c>
       <c r="D1824" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1824" t="s">
         <v>3203</v>
@@ -45889,7 +45898,7 @@
         <v>3990</v>
       </c>
       <c r="D1825" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1825" t="s">
         <v>3204</v>
@@ -45906,7 +45915,7 @@
         <v>3991</v>
       </c>
       <c r="D1826" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1826" t="s">
         <v>3205</v>
@@ -45923,7 +45932,7 @@
         <v>3991</v>
       </c>
       <c r="D1827" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1827" t="s">
         <v>3206</v>
@@ -45940,7 +45949,7 @@
         <v>3992</v>
       </c>
       <c r="D1828" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1828" t="s">
         <v>3207</v>
@@ -45957,7 +45966,7 @@
         <v>3993</v>
       </c>
       <c r="D1829" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1829" t="s">
         <v>3208</v>
@@ -46008,7 +46017,7 @@
         <v>3995</v>
       </c>
       <c r="D1832" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1832" t="s">
         <v>3211</v>
@@ -46059,7 +46068,7 @@
         <v>3998</v>
       </c>
       <c r="D1835" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1835" t="s">
         <v>3214</v>
@@ -46079,7 +46088,7 @@
         <v>3214</v>
       </c>
       <c r="E1836" t="s">
-        <v>4816</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -46096,7 +46105,7 @@
         <v>3204</v>
       </c>
       <c r="E1837" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1838" spans="1:5">
@@ -46110,10 +46119,10 @@
         <v>4001</v>
       </c>
       <c r="D1838" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1838" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -46127,7 +46136,7 @@
         <v>4002</v>
       </c>
       <c r="D1839" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1839" t="s">
         <v>3218</v>
@@ -46144,7 +46153,7 @@
         <v>4003</v>
       </c>
       <c r="D1840" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1840" t="s">
         <v>3219</v>
@@ -46161,7 +46170,7 @@
         <v>3945</v>
       </c>
       <c r="D1841" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1841" t="s">
         <v>3220</v>
@@ -46195,7 +46204,7 @@
         <v>4005</v>
       </c>
       <c r="D1843" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1843" t="s">
         <v>3222</v>
@@ -46229,7 +46238,7 @@
         <v>4007</v>
       </c>
       <c r="D1845" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1845" t="s">
         <v>4005</v>
@@ -46263,7 +46272,7 @@
         <v>4009</v>
       </c>
       <c r="D1847" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E1847" t="s">
         <v>4010</v>
@@ -46280,7 +46289,7 @@
         <v>4010</v>
       </c>
       <c r="D1848" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E1848" t="s">
         <v>3227</v>
@@ -46297,7 +46306,7 @@
         <v>4011</v>
       </c>
       <c r="D1849" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E1849" t="s">
         <v>3228</v>
@@ -46314,10 +46323,10 @@
         <v>4012</v>
       </c>
       <c r="D1850" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1850" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46331,7 +46340,7 @@
         <v>4013</v>
       </c>
       <c r="D1851" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E1851" t="s">
         <v>3230</v>
@@ -46348,7 +46357,7 @@
         <v>4014</v>
       </c>
       <c r="D1852" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E1852" t="s">
         <v>3231</v>
@@ -46365,7 +46374,7 @@
         <v>4015</v>
       </c>
       <c r="D1853" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E1853" t="s">
         <v>3232</v>
@@ -46399,7 +46408,7 @@
         <v>4013</v>
       </c>
       <c r="D1855" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E1855" t="s">
         <v>3234</v>
@@ -46416,10 +46425,10 @@
         <v>4016</v>
       </c>
       <c r="D1856" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E1856" t="s">
-        <v>4819</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1857" spans="1:5">
@@ -46450,7 +46459,7 @@
         <v>3199</v>
       </c>
       <c r="D1858" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E1858" t="s">
         <v>3199</v>
@@ -46467,7 +46476,7 @@
         <v>3237</v>
       </c>
       <c r="D1859" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1859" t="s">
         <v>3238</v>
@@ -46487,7 +46496,7 @@
         <v>3239</v>
       </c>
       <c r="E1860" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="1861" spans="1:5">
@@ -46501,7 +46510,7 @@
         <v>4019</v>
       </c>
       <c r="D1861" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E1861" t="s">
         <v>3240</v>
@@ -46535,7 +46544,7 @@
         <v>4021</v>
       </c>
       <c r="D1863" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E1863" t="s">
         <v>3242</v>
@@ -46569,7 +46578,7 @@
         <v>3196</v>
       </c>
       <c r="D1865" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E1865" t="s">
         <v>3244</v>
@@ -46589,7 +46598,7 @@
         <v>4122</v>
       </c>
       <c r="E1866" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1867" spans="1:5">
@@ -46603,7 +46612,7 @@
         <v>4024</v>
       </c>
       <c r="D1867" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E1867" t="s">
         <v>3246</v>
@@ -46637,7 +46646,7 @@
         <v>4025</v>
       </c>
       <c r="D1869" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="E1869" t="s">
         <v>3248</v>
@@ -46671,7 +46680,7 @@
         <v>4027</v>
       </c>
       <c r="D1871" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="E1871" t="s">
         <v>3250</v>
@@ -46688,7 +46697,7 @@
         <v>4028</v>
       </c>
       <c r="D1872" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="E1872" t="s">
         <v>3251</v>
@@ -46705,10 +46714,10 @@
         <v>3251</v>
       </c>
       <c r="D1873" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="E1873" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46742,7 +46751,7 @@
         <v>4078</v>
       </c>
       <c r="E1875" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1876" spans="1:5">
@@ -46756,7 +46765,7 @@
         <v>4029</v>
       </c>
       <c r="D1876" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1876" t="s">
         <v>3254</v>
@@ -46773,7 +46782,7 @@
         <v>4030</v>
       </c>
       <c r="D1877" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="E1877" t="s">
         <v>3255</v>
@@ -46810,7 +46819,7 @@
         <v>4051</v>
       </c>
       <c r="E1879" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="1880" spans="1:5">
@@ -46824,10 +46833,10 @@
         <v>3257</v>
       </c>
       <c r="D1880" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E1880" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1881" spans="1:5">
@@ -46878,7 +46887,7 @@
         <v>3260</v>
       </c>
       <c r="E1883" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="1884" spans="1:5">
@@ -46892,7 +46901,7 @@
         <v>4036</v>
       </c>
       <c r="D1884" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="E1884" t="s">
         <v>3262</v>
@@ -46912,7 +46921,7 @@
         <v>3262</v>
       </c>
       <c r="E1885" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1886" spans="1:5">
@@ -46926,7 +46935,7 @@
         <v>4038</v>
       </c>
       <c r="D1886" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="E1886" t="s">
         <v>3264</v>
@@ -46960,10 +46969,10 @@
         <v>4040</v>
       </c>
       <c r="D1888" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="E1888" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -46977,10 +46986,10 @@
         <v>4041</v>
       </c>
       <c r="D1889" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="E1889" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1890" spans="1:5">
@@ -47045,7 +47054,7 @@
         <v>3891</v>
       </c>
       <c r="D1893" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1893" t="s">
         <v>3891</v>
@@ -47130,10 +47139,10 @@
         <v>4047</v>
       </c>
       <c r="D1898" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E1898" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1899" spans="1:5">
@@ -47164,10 +47173,10 @@
         <v>4049</v>
       </c>
       <c r="D1900" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1900" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1901" spans="1:5">
@@ -47181,7 +47190,7 @@
         <v>4050</v>
       </c>
       <c r="D1901" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E1901" t="s">
         <v>3278</v>
@@ -47232,7 +47241,7 @@
         <v>3280</v>
       </c>
       <c r="D1904" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1904" t="s">
         <v>3281</v>
@@ -47249,7 +47258,7 @@
         <v>4053</v>
       </c>
       <c r="D1905" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E1905" t="s">
         <v>3282</v>
@@ -47266,7 +47275,7 @@
         <v>4054</v>
       </c>
       <c r="D1906" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="E1906" t="s">
         <v>3283</v>
@@ -47283,7 +47292,7 @@
         <v>4055</v>
       </c>
       <c r="D1907" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E1907" t="s">
         <v>3284</v>
@@ -47351,7 +47360,7 @@
         <v>4059</v>
       </c>
       <c r="D1911" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1911" t="s">
         <v>3288</v>
@@ -47385,7 +47394,7 @@
         <v>4060</v>
       </c>
       <c r="D1913" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E1913" t="s">
         <v>3290</v>
@@ -47419,7 +47428,7 @@
         <v>4061</v>
       </c>
       <c r="D1915" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="E1915" t="s">
         <v>3292</v>
@@ -47453,7 +47462,7 @@
         <v>3294</v>
       </c>
       <c r="D1917" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1917" t="s">
         <v>3294</v>
@@ -47487,7 +47496,7 @@
         <v>4063</v>
       </c>
       <c r="D1919" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E1919" t="s">
         <v>3296</v>
@@ -47504,7 +47513,7 @@
         <v>4054</v>
       </c>
       <c r="D1920" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="E1920" t="s">
         <v>3297</v>
@@ -47521,7 +47530,7 @@
         <v>3124</v>
       </c>
       <c r="D1921" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="E1921" t="s">
         <v>3298</v>
@@ -47538,7 +47547,7 @@
         <v>3298</v>
       </c>
       <c r="D1922" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1922" t="s">
         <v>3299</v>
@@ -47555,7 +47564,7 @@
         <v>3299</v>
       </c>
       <c r="D1923" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="E1923" t="s">
         <v>3300</v>
@@ -47589,7 +47598,7 @@
         <v>4064</v>
       </c>
       <c r="D1925" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E1925" t="s">
         <v>3302</v>
@@ -47606,10 +47615,10 @@
         <v>4065</v>
       </c>
       <c r="D1926" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="E1926" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="1927" spans="1:5">
@@ -47657,7 +47666,7 @@
         <v>3305</v>
       </c>
       <c r="D1929" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E1929" t="s">
         <v>3306</v>
@@ -47691,10 +47700,10 @@
         <v>4068</v>
       </c>
       <c r="D1931" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="E1931" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1932" spans="1:5">
@@ -47725,7 +47734,7 @@
         <v>4070</v>
       </c>
       <c r="D1933" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E1933" t="s">
         <v>3310</v>
@@ -47742,7 +47751,7 @@
         <v>4071</v>
       </c>
       <c r="D1934" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E1934" t="s">
         <v>3311</v>
@@ -47759,7 +47768,7 @@
         <v>3312</v>
       </c>
       <c r="D1935" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E1935" t="s">
         <v>3312</v>
@@ -47776,7 +47785,7 @@
         <v>4072</v>
       </c>
       <c r="D1936" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="E1936" t="s">
         <v>3313</v>
@@ -47844,7 +47853,7 @@
         <v>3287</v>
       </c>
       <c r="D1940" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="E1940" t="s">
         <v>3317</v>
@@ -47895,7 +47904,7 @@
         <v>4074</v>
       </c>
       <c r="D1943" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E1943" t="s">
         <v>3320</v>
@@ -47912,7 +47921,7 @@
         <v>3331</v>
       </c>
       <c r="D1944" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E1944" t="s">
         <v>3321</v>
@@ -47929,7 +47938,7 @@
         <v>3322</v>
       </c>
       <c r="D1945" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="E1945" t="s">
         <v>3322</v>
@@ -47946,7 +47955,7 @@
         <v>4075</v>
       </c>
       <c r="D1946" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="E1946" t="s">
         <v>3323</v>
@@ -47963,7 +47972,7 @@
         <v>4076</v>
       </c>
       <c r="D1947" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E1947" t="s">
         <v>3324</v>
@@ -47997,7 +48006,7 @@
         <v>4077</v>
       </c>
       <c r="D1949" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E1949" t="s">
         <v>3326</v>
@@ -48014,7 +48023,7 @@
         <v>4078</v>
       </c>
       <c r="D1950" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E1950" t="s">
         <v>3327</v>
@@ -48048,7 +48057,7 @@
         <v>4063</v>
       </c>
       <c r="D1952" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="E1952" t="s">
         <v>3329</v>
@@ -48065,7 +48074,7 @@
         <v>4080</v>
       </c>
       <c r="D1953" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="E1953" t="s">
         <v>3330</v>
@@ -48116,7 +48125,7 @@
         <v>4083</v>
       </c>
       <c r="D1956" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="E1956" t="s">
         <v>3333</v>
@@ -48201,7 +48210,7 @@
         <v>4086</v>
       </c>
       <c r="D1961" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="E1961" t="s">
         <v>3338</v>
@@ -48252,7 +48261,7 @@
         <v>4088</v>
       </c>
       <c r="D1964" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E1964" t="s">
         <v>3340</v>
@@ -48269,7 +48278,7 @@
         <v>4089</v>
       </c>
       <c r="D1965" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="E1965" t="s">
         <v>3341</v>
@@ -48286,7 +48295,7 @@
         <v>4090</v>
       </c>
       <c r="D1966" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="E1966" t="s">
         <v>3342</v>
@@ -48303,7 +48312,7 @@
         <v>4091</v>
       </c>
       <c r="D1967" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="E1967" t="s">
         <v>3343</v>
@@ -48320,7 +48329,7 @@
         <v>3344</v>
       </c>
       <c r="D1968" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="E1968" t="s">
         <v>3344</v>
@@ -48337,7 +48346,7 @@
         <v>3345</v>
       </c>
       <c r="D1969" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="E1969" t="s">
         <v>3345</v>
@@ -48354,7 +48363,7 @@
         <v>3318</v>
       </c>
       <c r="D1970" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="E1970" t="s">
         <v>3346</v>
@@ -48371,7 +48380,7 @@
         <v>4092</v>
       </c>
       <c r="D1971" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="E1971" t="s">
         <v>3269</v>
@@ -48405,7 +48414,7 @@
         <v>3289</v>
       </c>
       <c r="D1973" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="E1973" t="s">
         <v>3348</v>
@@ -48439,7 +48448,7 @@
         <v>3334</v>
       </c>
       <c r="D1975" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="E1975" t="s">
         <v>3350</v>
@@ -48456,7 +48465,7 @@
         <v>4093</v>
       </c>
       <c r="D1976" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="E1976" t="s">
         <v>3351</v>
@@ -48473,7 +48482,7 @@
         <v>4094</v>
       </c>
       <c r="D1977" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E1977" t="s">
         <v>3352</v>
@@ -48490,7 +48499,7 @@
         <v>3333</v>
       </c>
       <c r="D1978" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="E1978" t="s">
         <v>3353</v>
@@ -48507,7 +48516,7 @@
         <v>3902</v>
       </c>
       <c r="D1979" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="E1979" t="s">
         <v>3354</v>
@@ -48575,7 +48584,7 @@
         <v>4097</v>
       </c>
       <c r="D1983" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="E1983" t="s">
         <v>3358</v>
@@ -48592,7 +48601,7 @@
         <v>4098</v>
       </c>
       <c r="D1984" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="E1984" t="s">
         <v>3359</v>
@@ -48609,7 +48618,7 @@
         <v>3302</v>
       </c>
       <c r="D1985" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="E1985" t="s">
         <v>3360</v>
@@ -48643,7 +48652,7 @@
         <v>3334</v>
       </c>
       <c r="D1987" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="E1987" t="s">
         <v>3362</v>
@@ -48677,7 +48686,7 @@
         <v>4100</v>
       </c>
       <c r="D1989" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="E1989" t="s">
         <v>3364</v>
@@ -48745,7 +48754,7 @@
         <v>4103</v>
       </c>
       <c r="D1993" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="E1993" t="s">
         <v>3367</v>
@@ -48762,7 +48771,7 @@
         <v>3367</v>
       </c>
       <c r="D1994" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="E1994" t="s">
         <v>3327</v>
@@ -48779,7 +48788,7 @@
         <v>4104</v>
       </c>
       <c r="D1995" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="E1995" t="s">
         <v>3368</v>
@@ -48799,7 +48808,7 @@
         <v>3368</v>
       </c>
       <c r="E1996" t="s">
-        <v>4825</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="1997" spans="1:5">
@@ -48830,7 +48839,7 @@
         <v>4106</v>
       </c>
       <c r="D1998" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="E1998" t="s">
         <v>3371</v>
@@ -48847,7 +48856,7 @@
         <v>3438</v>
       </c>
       <c r="D1999" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E1999" t="s">
         <v>3372</v>
@@ -48881,7 +48890,7 @@
         <v>3372</v>
       </c>
       <c r="D2001" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="E2001" t="s">
         <v>3373</v>
@@ -48898,7 +48907,7 @@
         <v>4107</v>
       </c>
       <c r="D2002" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="E2002" t="s">
         <v>3374</v>
@@ -48915,7 +48924,7 @@
         <v>4108</v>
       </c>
       <c r="D2003" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="E2003" t="s">
         <v>3375</v>
@@ -48932,7 +48941,7 @@
         <v>4109</v>
       </c>
       <c r="D2004" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="E2004" t="s">
         <v>3376</v>
@@ -48949,7 +48958,7 @@
         <v>3141</v>
       </c>
       <c r="D2005" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="E2005" t="s">
         <v>3377</v>
@@ -48966,7 +48975,7 @@
         <v>4110</v>
       </c>
       <c r="D2006" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="E2006" t="s">
         <v>3378</v>
@@ -48983,7 +48992,7 @@
         <v>4111</v>
       </c>
       <c r="D2007" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="E2007" t="s">
         <v>3379</v>
@@ -49000,7 +49009,7 @@
         <v>4112</v>
       </c>
       <c r="D2008" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="E2008" t="s">
         <v>3380</v>
@@ -49034,7 +49043,7 @@
         <v>4114</v>
       </c>
       <c r="D2010" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="E2010" t="s">
         <v>3382</v>
@@ -49153,7 +49162,7 @@
         <v>4119</v>
       </c>
       <c r="D2017" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="E2017" t="s">
         <v>3389</v>
@@ -49170,7 +49179,7 @@
         <v>4120</v>
       </c>
       <c r="D2018" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="E2018" t="s">
         <v>3390</v>
@@ -49187,7 +49196,7 @@
         <v>4121</v>
       </c>
       <c r="D2019" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="E2019" t="s">
         <v>3391</v>
@@ -49204,10 +49213,10 @@
         <v>4122</v>
       </c>
       <c r="D2020" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="E2020" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49255,7 +49264,7 @@
         <v>4124</v>
       </c>
       <c r="D2023" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E2023" t="s">
         <v>3395</v>
@@ -49272,10 +49281,10 @@
         <v>4125</v>
       </c>
       <c r="D2024" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="E2024" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="2025" spans="1:5">
@@ -49289,7 +49298,7 @@
         <v>4126</v>
       </c>
       <c r="D2025" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="E2025" t="s">
         <v>3260</v>
@@ -49306,10 +49315,10 @@
         <v>4127</v>
       </c>
       <c r="D2026" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="E2026" t="s">
-        <v>4827</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -49323,7 +49332,7 @@
         <v>4128</v>
       </c>
       <c r="D2027" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="E2027" t="s">
         <v>3398</v>
@@ -49391,7 +49400,7 @@
         <v>4130</v>
       </c>
       <c r="D2031" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="E2031" t="s">
         <v>3402</v>
@@ -49408,10 +49417,10 @@
         <v>4131</v>
       </c>
       <c r="D2032" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="E2032" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="2033" spans="1:5">
@@ -49476,7 +49485,7 @@
         <v>4134</v>
       </c>
       <c r="D2036" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="E2036" t="s">
         <v>3406</v>
@@ -49493,7 +49502,7 @@
         <v>4129</v>
       </c>
       <c r="D2037" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="E2037" t="s">
         <v>3407</v>
@@ -49527,7 +49536,7 @@
         <v>4135</v>
       </c>
       <c r="D2039" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="E2039" t="s">
         <v>3408</v>
@@ -49561,7 +49570,7 @@
         <v>3141</v>
       </c>
       <c r="D2041" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="E2041" t="s">
         <v>3410</v>
@@ -49578,7 +49587,7 @@
         <v>4137</v>
       </c>
       <c r="D2042" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="E2042" t="s">
         <v>3411</v>
@@ -49646,7 +49655,7 @@
         <v>4140</v>
       </c>
       <c r="D2046" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="E2046" t="s">
         <v>3414</v>
@@ -49663,10 +49672,10 @@
         <v>4141</v>
       </c>
       <c r="D2047" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="E2047" t="s">
-        <v>4828</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49680,10 +49689,10 @@
         <v>4142</v>
       </c>
       <c r="D2048" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="E2048" t="s">
-        <v>4829</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="2049" spans="1:5">
@@ -49714,10 +49723,10 @@
         <v>4144</v>
       </c>
       <c r="D2050" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="E2050" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="2051" spans="1:5">
@@ -49765,7 +49774,7 @@
         <v>4147</v>
       </c>
       <c r="D2053" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="E2053" t="s">
         <v>3420</v>
@@ -49782,7 +49791,7 @@
         <v>4148</v>
       </c>
       <c r="D2054" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="E2054" t="s">
         <v>3421</v>
@@ -49799,7 +49808,7 @@
         <v>3935</v>
       </c>
       <c r="D2055" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="E2055" t="s">
         <v>3422</v>
@@ -49816,7 +49825,7 @@
         <v>3243</v>
       </c>
       <c r="D2056" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="E2056" t="s">
         <v>3423</v>
@@ -49867,10 +49876,10 @@
         <v>4150</v>
       </c>
       <c r="D2059" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="E2059" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="2060" spans="1:5">
@@ -49884,7 +49893,7 @@
         <v>4151</v>
       </c>
       <c r="D2060" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="E2060" t="s">
         <v>3427</v>
@@ -49935,7 +49944,7 @@
         <v>4153</v>
       </c>
       <c r="D2063" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="E2063" t="s">
         <v>3430</v>
@@ -50020,7 +50029,7 @@
         <v>4157</v>
       </c>
       <c r="D2068" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="E2068" t="s">
         <v>3240</v>
@@ -50071,7 +50080,7 @@
         <v>4160</v>
       </c>
       <c r="D2071" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="E2071" t="s">
         <v>3437</v>
@@ -50088,10 +50097,10 @@
         <v>4152</v>
       </c>
       <c r="D2072" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="E2072" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -50105,7 +50114,7 @@
         <v>4161</v>
       </c>
       <c r="D2073" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="E2073" t="s">
         <v>3439</v>
@@ -50119,13 +50128,13 @@
         <v>3439</v>
       </c>
       <c r="C2074" t="s">
-        <v>3439</v>
+        <v>4162</v>
       </c>
       <c r="D2074" t="s">
-        <v>3439</v>
+        <v>4709</v>
       </c>
       <c r="E2074" t="s">
-        <v>3439</v>
+        <v>4833</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10375" uniqueCount="4836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10375" uniqueCount="4837">
   <si>
     <t>1. open</t>
   </si>
@@ -14522,6 +14522,9 @@
   </si>
   <si>
     <t>3.98650</t>
+  </si>
+  <si>
+    <t>3.97540</t>
   </si>
 </sst>
 </file>
@@ -50151,13 +50154,13 @@
         <v>3441</v>
       </c>
       <c r="C2075" t="s">
-        <v>3441</v>
+        <v>4158</v>
       </c>
       <c r="D2075" t="s">
         <v>3441</v>
       </c>
       <c r="E2075" t="s">
-        <v>3441</v>
+        <v>4836</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14152,6 +14152,9 @@
     <t>3.97810</t>
   </si>
   <si>
+    <t>3.96460</t>
+  </si>
+  <si>
     <t>2.92100</t>
   </si>
   <si>
@@ -14522,9 +14525,6 @@
   </si>
   <si>
     <t>3.98650</t>
-  </si>
-  <si>
-    <t>3.97540</t>
   </si>
 </sst>
 </file>
@@ -15089,7 +15089,7 @@
         <v>4167</v>
       </c>
       <c r="E12" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18234,7 +18234,7 @@
         <v>2236</v>
       </c>
       <c r="E197" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -20325,7 +20325,7 @@
         <v>2340</v>
       </c>
       <c r="E320" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -25340,7 +25340,7 @@
         <v>4234</v>
       </c>
       <c r="E615" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -25731,7 +25731,7 @@
         <v>2549</v>
       </c>
       <c r="E638" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -26496,7 +26496,7 @@
         <v>2385</v>
       </c>
       <c r="E683" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -29352,7 +29352,7 @@
         <v>2600</v>
       </c>
       <c r="E851" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -32922,7 +32922,7 @@
         <v>2303</v>
       </c>
       <c r="E1061" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -38481,7 +38481,7 @@
         <v>4389</v>
       </c>
       <c r="E1388" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38583,7 +38583,7 @@
         <v>4393</v>
       </c>
       <c r="E1394" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38600,7 +38600,7 @@
         <v>4394</v>
       </c>
       <c r="E1395" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38651,7 +38651,7 @@
         <v>2357</v>
       </c>
       <c r="E1398" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38668,7 +38668,7 @@
         <v>4397</v>
       </c>
       <c r="E1399" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38685,7 +38685,7 @@
         <v>4398</v>
       </c>
       <c r="E1400" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38719,7 +38719,7 @@
         <v>2351</v>
       </c>
       <c r="E1402" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -38736,7 +38736,7 @@
         <v>3534</v>
       </c>
       <c r="E1403" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -38753,7 +38753,7 @@
         <v>4400</v>
       </c>
       <c r="E1404" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -38838,7 +38838,7 @@
         <v>4402</v>
       </c>
       <c r="E1409" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38974,7 +38974,7 @@
         <v>4405</v>
       </c>
       <c r="E1417" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -39008,7 +39008,7 @@
         <v>4406</v>
       </c>
       <c r="E1419" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -39110,7 +39110,7 @@
         <v>2887</v>
       </c>
       <c r="E1425" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1426" spans="1:5">
@@ -39144,7 +39144,7 @@
         <v>2469</v>
       </c>
       <c r="E1427" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39161,7 +39161,7 @@
         <v>4408</v>
       </c>
       <c r="E1428" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -39178,7 +39178,7 @@
         <v>2522</v>
       </c>
       <c r="E1429" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -39229,7 +39229,7 @@
         <v>2955</v>
       </c>
       <c r="E1432" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1433" spans="1:5">
@@ -39246,7 +39246,7 @@
         <v>2785</v>
       </c>
       <c r="E1433" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1434" spans="1:5">
@@ -39365,7 +39365,7 @@
         <v>4410</v>
       </c>
       <c r="E1440" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -39654,7 +39654,7 @@
         <v>4417</v>
       </c>
       <c r="E1457" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -39671,7 +39671,7 @@
         <v>4418</v>
       </c>
       <c r="E1458" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -39705,7 +39705,7 @@
         <v>2978</v>
       </c>
       <c r="E1460" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39756,7 +39756,7 @@
         <v>4420</v>
       </c>
       <c r="E1463" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39875,7 +39875,7 @@
         <v>4425</v>
       </c>
       <c r="E1470" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -39892,7 +39892,7 @@
         <v>4426</v>
       </c>
       <c r="E1471" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -39943,7 +39943,7 @@
         <v>4428</v>
       </c>
       <c r="E1474" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39960,7 +39960,7 @@
         <v>4429</v>
       </c>
       <c r="E1475" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -39994,7 +39994,7 @@
         <v>4430</v>
       </c>
       <c r="E1477" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
@@ -40011,7 +40011,7 @@
         <v>4431</v>
       </c>
       <c r="E1478" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -40079,7 +40079,7 @@
         <v>4433</v>
       </c>
       <c r="E1482" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -40096,7 +40096,7 @@
         <v>2995</v>
       </c>
       <c r="E1483" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -40113,7 +40113,7 @@
         <v>4434</v>
       </c>
       <c r="E1484" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -40130,7 +40130,7 @@
         <v>4435</v>
       </c>
       <c r="E1485" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
@@ -40351,7 +40351,7 @@
         <v>4430</v>
       </c>
       <c r="E1498" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40368,7 +40368,7 @@
         <v>4443</v>
       </c>
       <c r="E1499" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1500" spans="1:5">
@@ -40385,7 +40385,7 @@
         <v>3786</v>
       </c>
       <c r="E1500" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40504,7 +40504,7 @@
         <v>3014</v>
       </c>
       <c r="E1507" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40521,7 +40521,7 @@
         <v>4446</v>
       </c>
       <c r="E1508" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40555,7 +40555,7 @@
         <v>4447</v>
       </c>
       <c r="E1510" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40589,7 +40589,7 @@
         <v>3778</v>
       </c>
       <c r="E1512" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40606,7 +40606,7 @@
         <v>3032</v>
       </c>
       <c r="E1513" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40674,7 +40674,7 @@
         <v>3024</v>
       </c>
       <c r="E1517" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40691,7 +40691,7 @@
         <v>2933</v>
       </c>
       <c r="E1518" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40708,7 +40708,7 @@
         <v>4451</v>
       </c>
       <c r="E1519" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -40725,7 +40725,7 @@
         <v>4452</v>
       </c>
       <c r="E1520" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40759,7 +40759,7 @@
         <v>3028</v>
       </c>
       <c r="E1522" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40776,7 +40776,7 @@
         <v>4453</v>
       </c>
       <c r="E1523" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1524" spans="1:5">
@@ -40793,7 +40793,7 @@
         <v>4454</v>
       </c>
       <c r="E1524" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -40861,7 +40861,7 @@
         <v>4456</v>
       </c>
       <c r="E1528" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40895,7 +40895,7 @@
         <v>4454</v>
       </c>
       <c r="E1530" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40912,7 +40912,7 @@
         <v>4458</v>
       </c>
       <c r="E1531" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40929,7 +40929,7 @@
         <v>4459</v>
       </c>
       <c r="E1532" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40997,7 +40997,7 @@
         <v>3039</v>
       </c>
       <c r="E1536" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1537" spans="1:5">
@@ -41031,7 +41031,7 @@
         <v>4461</v>
       </c>
       <c r="E1538" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1539" spans="1:5">
@@ -41133,7 +41133,7 @@
         <v>4465</v>
       </c>
       <c r="E1544" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -41371,7 +41371,7 @@
         <v>4473</v>
       </c>
       <c r="E1558" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41388,7 +41388,7 @@
         <v>3086</v>
       </c>
       <c r="E1559" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -41405,7 +41405,7 @@
         <v>4474</v>
       </c>
       <c r="E1560" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41439,7 +41439,7 @@
         <v>4476</v>
       </c>
       <c r="E1562" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41456,7 +41456,7 @@
         <v>4477</v>
       </c>
       <c r="E1563" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1564" spans="1:5">
@@ -41490,7 +41490,7 @@
         <v>3775</v>
       </c>
       <c r="E1565" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41575,7 +41575,7 @@
         <v>4482</v>
       </c>
       <c r="E1570" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -41592,7 +41592,7 @@
         <v>4483</v>
       </c>
       <c r="E1571" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1572" spans="1:5">
@@ -41609,7 +41609,7 @@
         <v>4484</v>
       </c>
       <c r="E1572" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -41660,7 +41660,7 @@
         <v>4447</v>
       </c>
       <c r="E1575" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41830,7 +41830,7 @@
         <v>4489</v>
       </c>
       <c r="E1585" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -41915,7 +41915,7 @@
         <v>4491</v>
       </c>
       <c r="E1590" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41966,7 +41966,7 @@
         <v>4494</v>
       </c>
       <c r="E1593" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -41983,7 +41983,7 @@
         <v>3779</v>
       </c>
       <c r="E1594" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1595" spans="1:5">
@@ -42051,7 +42051,7 @@
         <v>4495</v>
       </c>
       <c r="E1598" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -42289,7 +42289,7 @@
         <v>3094</v>
       </c>
       <c r="E1612" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1613" spans="1:5">
@@ -42476,7 +42476,7 @@
         <v>3094</v>
       </c>
       <c r="E1623" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42646,7 +42646,7 @@
         <v>3094</v>
       </c>
       <c r="E1633" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -42663,7 +42663,7 @@
         <v>4497</v>
       </c>
       <c r="E1634" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -42680,7 +42680,7 @@
         <v>4498</v>
       </c>
       <c r="E1635" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -42697,7 +42697,7 @@
         <v>4499</v>
       </c>
       <c r="E1636" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42731,7 +42731,7 @@
         <v>4501</v>
       </c>
       <c r="E1638" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -42748,7 +42748,7 @@
         <v>4502</v>
       </c>
       <c r="E1639" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1640" spans="1:5">
@@ -42986,7 +42986,7 @@
         <v>3109</v>
       </c>
       <c r="E1653" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -43071,7 +43071,7 @@
         <v>3109</v>
       </c>
       <c r="E1658" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -43445,7 +43445,7 @@
         <v>3850</v>
       </c>
       <c r="E1680" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43479,7 +43479,7 @@
         <v>4512</v>
       </c>
       <c r="E1682" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
@@ -43496,7 +43496,7 @@
         <v>4513</v>
       </c>
       <c r="E1683" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -43513,7 +43513,7 @@
         <v>4514</v>
       </c>
       <c r="E1684" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
@@ -43547,7 +43547,7 @@
         <v>4516</v>
       </c>
       <c r="E1686" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -43564,7 +43564,7 @@
         <v>4517</v>
       </c>
       <c r="E1687" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -43581,7 +43581,7 @@
         <v>4518</v>
       </c>
       <c r="E1688" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43598,7 +43598,7 @@
         <v>4519</v>
       </c>
       <c r="E1689" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -43615,7 +43615,7 @@
         <v>4520</v>
       </c>
       <c r="E1690" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -43751,7 +43751,7 @@
         <v>4523</v>
       </c>
       <c r="E1698" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -44057,7 +44057,7 @@
         <v>3125</v>
       </c>
       <c r="E1716" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -44108,7 +44108,7 @@
         <v>3125</v>
       </c>
       <c r="E1719" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -44193,7 +44193,7 @@
         <v>4529</v>
       </c>
       <c r="E1724" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44210,7 +44210,7 @@
         <v>4530</v>
       </c>
       <c r="E1725" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -44227,7 +44227,7 @@
         <v>4531</v>
       </c>
       <c r="E1726" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1727" spans="1:5">
@@ -44295,7 +44295,7 @@
         <v>4533</v>
       </c>
       <c r="E1730" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -44329,7 +44329,7 @@
         <v>4127</v>
       </c>
       <c r="E1732" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -44363,7 +44363,7 @@
         <v>4536</v>
       </c>
       <c r="E1734" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -44686,7 +44686,7 @@
         <v>3148</v>
       </c>
       <c r="E1753" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1754" spans="1:5">
@@ -45179,7 +45179,7 @@
         <v>3176</v>
       </c>
       <c r="E1782" t="s">
-        <v>4816</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -45332,7 +45332,7 @@
         <v>4558</v>
       </c>
       <c r="E1791" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -45655,7 +45655,7 @@
         <v>4566</v>
       </c>
       <c r="E1810" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -45689,7 +45689,7 @@
         <v>4567</v>
       </c>
       <c r="E1812" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -46097,7 +46097,7 @@
         <v>3215</v>
       </c>
       <c r="E1836" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -46114,7 +46114,7 @@
         <v>3205</v>
       </c>
       <c r="E1837" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1838" spans="1:5">
@@ -46335,7 +46335,7 @@
         <v>4591</v>
       </c>
       <c r="E1850" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46437,7 +46437,7 @@
         <v>4596</v>
       </c>
       <c r="E1856" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="1857" spans="1:5">
@@ -46607,7 +46607,7 @@
         <v>4124</v>
       </c>
       <c r="E1866" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1867" spans="1:5">
@@ -46760,7 +46760,7 @@
         <v>4080</v>
       </c>
       <c r="E1875" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1876" spans="1:5">
@@ -46896,7 +46896,7 @@
         <v>3261</v>
       </c>
       <c r="E1883" t="s">
-        <v>4826</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="1884" spans="1:5">
@@ -46930,7 +46930,7 @@
         <v>3263</v>
       </c>
       <c r="E1885" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1886" spans="1:5">
@@ -46998,7 +46998,7 @@
         <v>4613</v>
       </c>
       <c r="E1889" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="1890" spans="1:5">
@@ -48817,7 +48817,7 @@
         <v>3369</v>
       </c>
       <c r="E1996" t="s">
-        <v>4829</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="1997" spans="1:5">
@@ -49225,7 +49225,7 @@
         <v>4684</v>
       </c>
       <c r="E2020" t="s">
-        <v>4830</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49327,7 +49327,7 @@
         <v>4687</v>
       </c>
       <c r="E2026" t="s">
-        <v>4831</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -49684,7 +49684,7 @@
         <v>4697</v>
       </c>
       <c r="E2047" t="s">
-        <v>4832</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49701,7 +49701,7 @@
         <v>4698</v>
       </c>
       <c r="E2048" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="2049" spans="1:5">
@@ -50109,7 +50109,7 @@
         <v>4709</v>
       </c>
       <c r="E2072" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -50143,7 +50143,7 @@
         <v>4711</v>
       </c>
       <c r="E2074" t="s">
-        <v>4835</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="2075" spans="1:5">
@@ -50157,10 +50157,10 @@
         <v>4158</v>
       </c>
       <c r="D2075" t="s">
-        <v>3441</v>
+        <v>4712</v>
       </c>
       <c r="E2075" t="s">
-        <v>4836</v>
+        <v>4712</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10385" uniqueCount="4840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10385" uniqueCount="4843">
   <si>
     <t>1. open</t>
   </si>
@@ -12523,6 +12523,9 @@
     <t>3.98750</t>
   </si>
   <si>
+    <t>3.97570</t>
+  </si>
+  <si>
     <t>2.93000</t>
   </si>
   <si>
@@ -14164,6 +14167,9 @@
     <t>3.97810</t>
   </si>
   <si>
+    <t>3.95730</t>
+  </si>
+  <si>
     <t>2.92100</t>
   </si>
   <si>
@@ -14534,6 +14540,9 @@
   </si>
   <si>
     <t>3.98650</t>
+  </si>
+  <si>
+    <t>3.96950</t>
   </si>
 </sst>
 </file>
@@ -15027,7 +15036,7 @@
         <v>2084</v>
       </c>
       <c r="D8" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E8" t="s">
         <v>2086</v>
@@ -15078,7 +15087,7 @@
         <v>2087</v>
       </c>
       <c r="D11" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E11" t="s">
         <v>2088</v>
@@ -15095,10 +15104,10 @@
         <v>2088</v>
       </c>
       <c r="D12" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E12" t="s">
-        <v>4716</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15146,7 +15155,7 @@
         <v>2090</v>
       </c>
       <c r="D15" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E15" t="s">
         <v>2091</v>
@@ -15401,7 +15410,7 @@
         <v>2103</v>
       </c>
       <c r="D30" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E30" t="s">
         <v>2104</v>
@@ -15418,7 +15427,7 @@
         <v>2104</v>
       </c>
       <c r="D31" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E31" t="s">
         <v>2105</v>
@@ -15520,7 +15529,7 @@
         <v>2108</v>
       </c>
       <c r="D37" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E37" t="s">
         <v>2108</v>
@@ -15554,7 +15563,7 @@
         <v>2110</v>
       </c>
       <c r="D39" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E39" t="s">
         <v>2110</v>
@@ -15605,7 +15614,7 @@
         <v>3449</v>
       </c>
       <c r="D42" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E42" t="s">
         <v>2111</v>
@@ -15707,7 +15716,7 @@
         <v>2116</v>
       </c>
       <c r="D48" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E48" t="s">
         <v>2117</v>
@@ -15809,7 +15818,7 @@
         <v>2122</v>
       </c>
       <c r="D54" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E54" t="s">
         <v>2123</v>
@@ -15826,7 +15835,7 @@
         <v>2123</v>
       </c>
       <c r="D55" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E55" t="s">
         <v>2120</v>
@@ -15843,7 +15852,7 @@
         <v>3452</v>
       </c>
       <c r="D56" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E56" t="s">
         <v>2124</v>
@@ -15894,7 +15903,7 @@
         <v>2125</v>
       </c>
       <c r="D59" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E59" t="s">
         <v>2126</v>
@@ -15911,7 +15920,7 @@
         <v>2127</v>
       </c>
       <c r="D60" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E60" t="s">
         <v>2127</v>
@@ -15945,7 +15954,7 @@
         <v>2129</v>
       </c>
       <c r="D62" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E62" t="s">
         <v>2129</v>
@@ -15962,7 +15971,7 @@
         <v>3453</v>
       </c>
       <c r="D63" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E63" t="s">
         <v>2130</v>
@@ -15979,7 +15988,7 @@
         <v>2129</v>
       </c>
       <c r="D64" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E64" t="s">
         <v>2131</v>
@@ -16132,7 +16141,7 @@
         <v>2140</v>
       </c>
       <c r="D73" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E73" t="s">
         <v>2140</v>
@@ -16302,7 +16311,7 @@
         <v>2147</v>
       </c>
       <c r="D83" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E83" t="s">
         <v>2148</v>
@@ -16404,7 +16413,7 @@
         <v>2152</v>
       </c>
       <c r="D89" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E89" t="s">
         <v>2150</v>
@@ -16421,7 +16430,7 @@
         <v>2150</v>
       </c>
       <c r="D90" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E90" t="s">
         <v>2153</v>
@@ -16710,7 +16719,7 @@
         <v>3464</v>
       </c>
       <c r="D107" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E107" t="s">
         <v>2154</v>
@@ -17203,10 +17212,10 @@
         <v>2190</v>
       </c>
       <c r="D136" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E136" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -17288,7 +17297,7 @@
         <v>3479</v>
       </c>
       <c r="D141" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E141" t="s">
         <v>2195</v>
@@ -17407,7 +17416,7 @@
         <v>3478</v>
       </c>
       <c r="D148" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E148" t="s">
         <v>2201</v>
@@ -17441,7 +17450,7 @@
         <v>3479</v>
       </c>
       <c r="D150" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E150" t="s">
         <v>2183</v>
@@ -17458,7 +17467,7 @@
         <v>2202</v>
       </c>
       <c r="D151" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E151" t="s">
         <v>2202</v>
@@ -17475,7 +17484,7 @@
         <v>3484</v>
       </c>
       <c r="D152" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E152" t="s">
         <v>2189</v>
@@ -17560,7 +17569,7 @@
         <v>3470</v>
       </c>
       <c r="D157" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E157" t="s">
         <v>2206</v>
@@ -17866,7 +17875,7 @@
         <v>2220</v>
       </c>
       <c r="D175" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E175" t="s">
         <v>2221</v>
@@ -18104,10 +18113,10 @@
         <v>2231</v>
       </c>
       <c r="D189" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E189" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -18243,7 +18252,7 @@
         <v>2238</v>
       </c>
       <c r="E197" t="s">
-        <v>4717</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -18665,7 +18674,7 @@
         <v>3502</v>
       </c>
       <c r="D222" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E222" t="s">
         <v>3502</v>
@@ -18699,7 +18708,7 @@
         <v>2261</v>
       </c>
       <c r="D224" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E224" t="s">
         <v>2261</v>
@@ -18988,10 +18997,10 @@
         <v>2277</v>
       </c>
       <c r="D241" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E241" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -20334,7 +20343,7 @@
         <v>2342</v>
       </c>
       <c r="E320" t="s">
-        <v>4718</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -20433,7 +20442,7 @@
         <v>3536</v>
       </c>
       <c r="D326" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E326" t="s">
         <v>2349</v>
@@ -20671,7 +20680,7 @@
         <v>2358</v>
       </c>
       <c r="D340" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E340" t="s">
         <v>2359</v>
@@ -20688,7 +20697,7 @@
         <v>2359</v>
       </c>
       <c r="D341" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E341" t="s">
         <v>2360</v>
@@ -20773,7 +20782,7 @@
         <v>2363</v>
       </c>
       <c r="D346" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E346" t="s">
         <v>2364</v>
@@ -21028,7 +21037,7 @@
         <v>2525</v>
       </c>
       <c r="D361" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E361" t="s">
         <v>2310</v>
@@ -21045,7 +21054,7 @@
         <v>3516</v>
       </c>
       <c r="D362" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E362" t="s">
         <v>2376</v>
@@ -21249,10 +21258,10 @@
         <v>2386</v>
       </c>
       <c r="D374" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E374" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -21266,7 +21275,7 @@
         <v>2432</v>
       </c>
       <c r="D375" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E375" t="s">
         <v>2387</v>
@@ -22014,7 +22023,7 @@
         <v>2421</v>
       </c>
       <c r="D419" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E419" t="s">
         <v>2421</v>
@@ -22575,7 +22584,7 @@
         <v>2443</v>
       </c>
       <c r="D452" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E452" t="s">
         <v>2444</v>
@@ -22762,7 +22771,7 @@
         <v>3557</v>
       </c>
       <c r="D463" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E463" t="s">
         <v>2405</v>
@@ -23034,7 +23043,7 @@
         <v>2465</v>
       </c>
       <c r="D479" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E479" t="s">
         <v>2466</v>
@@ -23102,7 +23111,7 @@
         <v>3562</v>
       </c>
       <c r="D483" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E483" t="s">
         <v>3521</v>
@@ -23289,7 +23298,7 @@
         <v>3516</v>
       </c>
       <c r="D494" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E494" t="s">
         <v>2477</v>
@@ -24054,7 +24063,7 @@
         <v>2505</v>
       </c>
       <c r="D539" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E539" t="s">
         <v>2506</v>
@@ -24190,7 +24199,7 @@
         <v>2508</v>
       </c>
       <c r="D547" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E547" t="s">
         <v>2512</v>
@@ -24241,7 +24250,7 @@
         <v>3570</v>
       </c>
       <c r="D550" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E550" t="s">
         <v>2515</v>
@@ -24258,7 +24267,7 @@
         <v>2367</v>
       </c>
       <c r="D551" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E551" t="s">
         <v>2485</v>
@@ -24309,7 +24318,7 @@
         <v>3571</v>
       </c>
       <c r="D554" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E554" t="s">
         <v>2518</v>
@@ -24326,7 +24335,7 @@
         <v>3572</v>
       </c>
       <c r="D555" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E555" t="s">
         <v>2519</v>
@@ -24343,7 +24352,7 @@
         <v>2483</v>
       </c>
       <c r="D556" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E556" t="s">
         <v>2373</v>
@@ -24394,7 +24403,7 @@
         <v>2498</v>
       </c>
       <c r="D559" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E559" t="s">
         <v>2520</v>
@@ -24428,7 +24437,7 @@
         <v>2307</v>
       </c>
       <c r="D561" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E561" t="s">
         <v>2521</v>
@@ -24530,7 +24539,7 @@
         <v>2471</v>
       </c>
       <c r="D567" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E567" t="s">
         <v>2526</v>
@@ -24564,7 +24573,7 @@
         <v>2953</v>
       </c>
       <c r="D569" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E569" t="s">
         <v>2527</v>
@@ -24581,7 +24590,7 @@
         <v>2527</v>
       </c>
       <c r="D570" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E570" t="s">
         <v>2457</v>
@@ -24615,7 +24624,7 @@
         <v>3578</v>
       </c>
       <c r="D572" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E572" t="s">
         <v>2528</v>
@@ -24649,10 +24658,10 @@
         <v>2368</v>
       </c>
       <c r="D574" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E574" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -24700,7 +24709,7 @@
         <v>3579</v>
       </c>
       <c r="D577" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E577" t="s">
         <v>2532</v>
@@ -24768,7 +24777,7 @@
         <v>3580</v>
       </c>
       <c r="D581" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E581" t="s">
         <v>2536</v>
@@ -24819,7 +24828,7 @@
         <v>2430</v>
       </c>
       <c r="D584" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E584" t="s">
         <v>2288</v>
@@ -24853,7 +24862,7 @@
         <v>3581</v>
       </c>
       <c r="D586" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E586" t="s">
         <v>2540</v>
@@ -24870,7 +24879,7 @@
         <v>2841</v>
       </c>
       <c r="D587" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E587" t="s">
         <v>2541</v>
@@ -24887,7 +24896,7 @@
         <v>2838</v>
       </c>
       <c r="D588" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E588" t="s">
         <v>2542</v>
@@ -24921,7 +24930,7 @@
         <v>2543</v>
       </c>
       <c r="D590" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E590" t="s">
         <v>2544</v>
@@ -24989,7 +24998,7 @@
         <v>2387</v>
       </c>
       <c r="D594" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E594" t="s">
         <v>2548</v>
@@ -25074,7 +25083,7 @@
         <v>2285</v>
       </c>
       <c r="D599" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E599" t="s">
         <v>2551</v>
@@ -25125,7 +25134,7 @@
         <v>2634</v>
       </c>
       <c r="D602" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E602" t="s">
         <v>2553</v>
@@ -25346,10 +25355,10 @@
         <v>2591</v>
       </c>
       <c r="D615" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E615" t="s">
-        <v>4719</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -25397,7 +25406,7 @@
         <v>2546</v>
       </c>
       <c r="D618" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E618" t="s">
         <v>2561</v>
@@ -25499,7 +25508,7 @@
         <v>3589</v>
       </c>
       <c r="D624" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E624" t="s">
         <v>2566</v>
@@ -25740,7 +25749,7 @@
         <v>2551</v>
       </c>
       <c r="E638" t="s">
-        <v>4720</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -25805,7 +25814,7 @@
         <v>2284</v>
       </c>
       <c r="D642" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E642" t="s">
         <v>2574</v>
@@ -26080,7 +26089,7 @@
         <v>2559</v>
       </c>
       <c r="E658" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -26213,7 +26222,7 @@
         <v>2558</v>
       </c>
       <c r="D666" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E666" t="s">
         <v>2432</v>
@@ -26264,7 +26273,7 @@
         <v>2580</v>
       </c>
       <c r="D669" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E669" t="s">
         <v>2593</v>
@@ -26400,7 +26409,7 @@
         <v>2580</v>
       </c>
       <c r="D677" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E677" t="s">
         <v>2589</v>
@@ -26485,7 +26494,7 @@
         <v>3584</v>
       </c>
       <c r="D682" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E682" t="s">
         <v>2544</v>
@@ -26505,7 +26514,7 @@
         <v>2387</v>
       </c>
       <c r="E683" t="s">
-        <v>4721</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -26536,7 +26545,7 @@
         <v>2740</v>
       </c>
       <c r="D685" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E685" t="s">
         <v>2597</v>
@@ -26706,7 +26715,7 @@
         <v>2248</v>
       </c>
       <c r="D695" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E695" t="s">
         <v>2572</v>
@@ -26893,7 +26902,7 @@
         <v>3595</v>
       </c>
       <c r="D706" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E706" t="s">
         <v>2607</v>
@@ -27301,7 +27310,7 @@
         <v>2551</v>
       </c>
       <c r="D730" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E730" t="s">
         <v>2551</v>
@@ -27318,7 +27327,7 @@
         <v>2551</v>
       </c>
       <c r="D731" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E731" t="s">
         <v>2612</v>
@@ -27335,7 +27344,7 @@
         <v>2551</v>
       </c>
       <c r="D732" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E732" t="s">
         <v>2622</v>
@@ -27437,7 +27446,7 @@
         <v>2578</v>
       </c>
       <c r="D738" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E738" t="s">
         <v>2626</v>
@@ -27454,7 +27463,7 @@
         <v>2622</v>
       </c>
       <c r="D739" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E739" t="s">
         <v>2621</v>
@@ -27488,7 +27497,7 @@
         <v>2621</v>
       </c>
       <c r="D741" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E741" t="s">
         <v>2628</v>
@@ -27522,7 +27531,7 @@
         <v>2651</v>
       </c>
       <c r="D743" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E743" t="s">
         <v>2630</v>
@@ -27658,7 +27667,7 @@
         <v>2607</v>
       </c>
       <c r="D751" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E751" t="s">
         <v>2633</v>
@@ -27726,7 +27735,7 @@
         <v>2740</v>
       </c>
       <c r="D755" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E755" t="s">
         <v>2635</v>
@@ -27879,7 +27888,7 @@
         <v>2591</v>
       </c>
       <c r="D764" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E764" t="s">
         <v>2634</v>
@@ -28015,7 +28024,7 @@
         <v>2577</v>
       </c>
       <c r="D772" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E772" t="s">
         <v>2646</v>
@@ -28032,7 +28041,7 @@
         <v>2284</v>
       </c>
       <c r="D773" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E773" t="s">
         <v>2647</v>
@@ -28049,7 +28058,7 @@
         <v>2254</v>
       </c>
       <c r="D774" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E774" t="s">
         <v>2648</v>
@@ -28100,7 +28109,7 @@
         <v>2247</v>
       </c>
       <c r="D777" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E777" t="s">
         <v>2642</v>
@@ -28134,7 +28143,7 @@
         <v>2593</v>
       </c>
       <c r="D779" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E779" t="s">
         <v>2287</v>
@@ -28236,7 +28245,7 @@
         <v>2553</v>
       </c>
       <c r="D785" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E785" t="s">
         <v>2649</v>
@@ -28253,7 +28262,7 @@
         <v>2255</v>
       </c>
       <c r="D786" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E786" t="s">
         <v>2561</v>
@@ -28389,10 +28398,10 @@
         <v>2284</v>
       </c>
       <c r="D794" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E794" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -28406,7 +28415,7 @@
         <v>2569</v>
       </c>
       <c r="D795" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E795" t="s">
         <v>2622</v>
@@ -28457,10 +28466,10 @@
         <v>2569</v>
       </c>
       <c r="D798" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E798" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -28695,10 +28704,10 @@
         <v>2857</v>
       </c>
       <c r="D812" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E812" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -28814,7 +28823,7 @@
         <v>2284</v>
       </c>
       <c r="D819" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E819" t="s">
         <v>2551</v>
@@ -28916,7 +28925,7 @@
         <v>3610</v>
       </c>
       <c r="D825" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E825" t="s">
         <v>2669</v>
@@ -28933,7 +28942,7 @@
         <v>2696</v>
       </c>
       <c r="D826" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E826" t="s">
         <v>2275</v>
@@ -29137,7 +29146,7 @@
         <v>3611</v>
       </c>
       <c r="D838" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E838" t="s">
         <v>2679</v>
@@ -29171,7 +29180,7 @@
         <v>2696</v>
       </c>
       <c r="D840" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E840" t="s">
         <v>2276</v>
@@ -29205,7 +29214,7 @@
         <v>3611</v>
       </c>
       <c r="D842" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E842" t="s">
         <v>2681</v>
@@ -29256,7 +29265,7 @@
         <v>3502</v>
       </c>
       <c r="D845" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E845" t="s">
         <v>2683</v>
@@ -29290,7 +29299,7 @@
         <v>2612</v>
       </c>
       <c r="D847" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E847" t="s">
         <v>2612</v>
@@ -29341,7 +29350,7 @@
         <v>3614</v>
       </c>
       <c r="D850" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E850" t="s">
         <v>2554</v>
@@ -29361,7 +29370,7 @@
         <v>2602</v>
       </c>
       <c r="E851" t="s">
-        <v>4722</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -29698,7 +29707,7 @@
         <v>2286</v>
       </c>
       <c r="D871" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E871" t="s">
         <v>2693</v>
@@ -29868,7 +29877,7 @@
         <v>2255</v>
       </c>
       <c r="D881" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E881" t="s">
         <v>2280</v>
@@ -29902,7 +29911,7 @@
         <v>3618</v>
       </c>
       <c r="D883" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E883" t="s">
         <v>2697</v>
@@ -30021,7 +30030,7 @@
         <v>3622</v>
       </c>
       <c r="D890" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E890" t="s">
         <v>2702</v>
@@ -30089,7 +30098,7 @@
         <v>2575</v>
       </c>
       <c r="D894" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E894" t="s">
         <v>2667</v>
@@ -30259,7 +30268,7 @@
         <v>2285</v>
       </c>
       <c r="D904" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E904" t="s">
         <v>2711</v>
@@ -30378,7 +30387,7 @@
         <v>3550</v>
       </c>
       <c r="D911" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E911" t="s">
         <v>2715</v>
@@ -30446,7 +30455,7 @@
         <v>2556</v>
       </c>
       <c r="D915" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E915" t="s">
         <v>2719</v>
@@ -30599,7 +30608,7 @@
         <v>2731</v>
       </c>
       <c r="D924" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E924" t="s">
         <v>2554</v>
@@ -30803,7 +30812,7 @@
         <v>2387</v>
       </c>
       <c r="D936" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E936" t="s">
         <v>2727</v>
@@ -30888,7 +30897,7 @@
         <v>2541</v>
       </c>
       <c r="D941" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E941" t="s">
         <v>2731</v>
@@ -30973,7 +30982,7 @@
         <v>3584</v>
       </c>
       <c r="D946" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E946" t="s">
         <v>2388</v>
@@ -31058,7 +31067,7 @@
         <v>2877</v>
       </c>
       <c r="D951" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E951" t="s">
         <v>2736</v>
@@ -31160,7 +31169,7 @@
         <v>2717</v>
       </c>
       <c r="D957" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E957" t="s">
         <v>2430</v>
@@ -31177,7 +31186,7 @@
         <v>3630</v>
       </c>
       <c r="D958" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E958" t="s">
         <v>2738</v>
@@ -31245,7 +31254,7 @@
         <v>2431</v>
       </c>
       <c r="D962" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E962" t="s">
         <v>2739</v>
@@ -31500,7 +31509,7 @@
         <v>2583</v>
       </c>
       <c r="D977" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E977" t="s">
         <v>2544</v>
@@ -31585,7 +31594,7 @@
         <v>2737</v>
       </c>
       <c r="D982" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E982" t="s">
         <v>2746</v>
@@ -31636,7 +31645,7 @@
         <v>2298</v>
       </c>
       <c r="D985" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E985" t="s">
         <v>2425</v>
@@ -31670,7 +31679,7 @@
         <v>2860</v>
       </c>
       <c r="D987" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E987" t="s">
         <v>2748</v>
@@ -32027,7 +32036,7 @@
         <v>2400</v>
       </c>
       <c r="D1008" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E1008" t="s">
         <v>2762</v>
@@ -32044,7 +32053,7 @@
         <v>3639</v>
       </c>
       <c r="D1009" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1009" t="s">
         <v>2763</v>
@@ -32129,7 +32138,7 @@
         <v>2405</v>
       </c>
       <c r="D1014" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E1014" t="s">
         <v>2453</v>
@@ -32299,7 +32308,7 @@
         <v>2868</v>
       </c>
       <c r="D1024" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E1024" t="s">
         <v>2455</v>
@@ -32316,7 +32325,7 @@
         <v>2868</v>
       </c>
       <c r="D1025" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1025" t="s">
         <v>2455</v>
@@ -32350,7 +32359,7 @@
         <v>2889</v>
       </c>
       <c r="D1027" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1027" t="s">
         <v>2760</v>
@@ -32418,7 +32427,7 @@
         <v>2421</v>
       </c>
       <c r="D1031" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1031" t="s">
         <v>2774</v>
@@ -32435,7 +32444,7 @@
         <v>2421</v>
       </c>
       <c r="D1032" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1032" t="s">
         <v>2775</v>
@@ -32503,7 +32512,7 @@
         <v>2891</v>
       </c>
       <c r="D1036" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1036" t="s">
         <v>2778</v>
@@ -32605,7 +32614,7 @@
         <v>2376</v>
       </c>
       <c r="D1042" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1042" t="s">
         <v>2783</v>
@@ -32656,7 +32665,7 @@
         <v>3578</v>
       </c>
       <c r="D1045" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E1045" t="s">
         <v>2314</v>
@@ -32758,7 +32767,7 @@
         <v>2480</v>
       </c>
       <c r="D1051" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1051" t="s">
         <v>2791</v>
@@ -32860,7 +32869,7 @@
         <v>2790</v>
       </c>
       <c r="D1057" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1057" t="s">
         <v>2794</v>
@@ -32931,7 +32940,7 @@
         <v>2305</v>
       </c>
       <c r="E1061" t="s">
-        <v>4723</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -33186,7 +33195,7 @@
         <v>2805</v>
       </c>
       <c r="E1076" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1077" spans="1:5">
@@ -33268,7 +33277,7 @@
         <v>3641</v>
       </c>
       <c r="D1081" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1081" t="s">
         <v>2379</v>
@@ -33489,7 +33498,7 @@
         <v>2421</v>
       </c>
       <c r="D1094" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1094" t="s">
         <v>2816</v>
@@ -33523,7 +33532,7 @@
         <v>2440</v>
       </c>
       <c r="D1096" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1096" t="s">
         <v>2298</v>
@@ -33557,7 +33566,7 @@
         <v>2889</v>
       </c>
       <c r="D1098" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1098" t="s">
         <v>2818</v>
@@ -33574,7 +33583,7 @@
         <v>2867</v>
       </c>
       <c r="D1099" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1099" t="s">
         <v>2819</v>
@@ -33642,7 +33651,7 @@
         <v>2781</v>
       </c>
       <c r="D1103" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1103" t="s">
         <v>2821</v>
@@ -33727,10 +33736,10 @@
         <v>2832</v>
       </c>
       <c r="D1108" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1108" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
@@ -33744,10 +33753,10 @@
         <v>2369</v>
       </c>
       <c r="D1109" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1109" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
@@ -33778,7 +33787,7 @@
         <v>2890</v>
       </c>
       <c r="D1111" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1111" t="s">
         <v>2834</v>
@@ -33795,7 +33804,7 @@
         <v>2832</v>
       </c>
       <c r="D1112" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1112" t="s">
         <v>2829</v>
@@ -33948,7 +33957,7 @@
         <v>2834</v>
       </c>
       <c r="D1121" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1121" t="s">
         <v>2835</v>
@@ -33982,7 +33991,7 @@
         <v>3643</v>
       </c>
       <c r="D1123" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1123" t="s">
         <v>2836</v>
@@ -33999,7 +34008,7 @@
         <v>3644</v>
       </c>
       <c r="D1124" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1124" t="s">
         <v>2764</v>
@@ -34016,7 +34025,7 @@
         <v>3645</v>
       </c>
       <c r="D1125" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1125" t="s">
         <v>2836</v>
@@ -34033,7 +34042,7 @@
         <v>3646</v>
       </c>
       <c r="D1126" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1126" t="s">
         <v>2837</v>
@@ -34152,7 +34161,7 @@
         <v>2400</v>
       </c>
       <c r="D1133" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E1133" t="s">
         <v>2840</v>
@@ -34186,7 +34195,7 @@
         <v>3649</v>
       </c>
       <c r="D1135" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1135" t="s">
         <v>2841</v>
@@ -34220,7 +34229,7 @@
         <v>2754</v>
       </c>
       <c r="D1137" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E1137" t="s">
         <v>2556</v>
@@ -34356,7 +34365,7 @@
         <v>2826</v>
       </c>
       <c r="D1145" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1145" t="s">
         <v>2847</v>
@@ -34390,7 +34399,7 @@
         <v>2907</v>
       </c>
       <c r="D1147" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1147" t="s">
         <v>2748</v>
@@ -34441,7 +34450,7 @@
         <v>3654</v>
       </c>
       <c r="D1150" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1150" t="s">
         <v>2850</v>
@@ -34458,7 +34467,7 @@
         <v>3579</v>
       </c>
       <c r="D1151" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1151" t="s">
         <v>3636</v>
@@ -34475,7 +34484,7 @@
         <v>2850</v>
       </c>
       <c r="D1152" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1152" t="s">
         <v>2851</v>
@@ -34543,7 +34552,7 @@
         <v>2396</v>
       </c>
       <c r="D1156" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1156" t="s">
         <v>2853</v>
@@ -34594,7 +34603,7 @@
         <v>3579</v>
       </c>
       <c r="D1159" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1159" t="s">
         <v>2853</v>
@@ -34645,7 +34654,7 @@
         <v>3639</v>
       </c>
       <c r="D1162" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1162" t="s">
         <v>2856</v>
@@ -34713,7 +34722,7 @@
         <v>2832</v>
       </c>
       <c r="D1166" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1166" t="s">
         <v>2824</v>
@@ -34730,7 +34739,7 @@
         <v>2824</v>
       </c>
       <c r="D1167" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1167" t="s">
         <v>2297</v>
@@ -34747,7 +34756,7 @@
         <v>2297</v>
       </c>
       <c r="D1168" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1168" t="s">
         <v>2835</v>
@@ -34764,7 +34773,7 @@
         <v>2835</v>
       </c>
       <c r="D1169" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1169" t="s">
         <v>2857</v>
@@ -34781,7 +34790,7 @@
         <v>2860</v>
       </c>
       <c r="D1170" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1170" t="s">
         <v>2294</v>
@@ -34798,7 +34807,7 @@
         <v>2294</v>
       </c>
       <c r="D1171" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1171" t="s">
         <v>2857</v>
@@ -34815,7 +34824,7 @@
         <v>3643</v>
       </c>
       <c r="D1172" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1172" t="s">
         <v>2400</v>
@@ -34849,7 +34858,7 @@
         <v>2294</v>
       </c>
       <c r="D1174" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1174" t="s">
         <v>2418</v>
@@ -34900,7 +34909,7 @@
         <v>2421</v>
       </c>
       <c r="D1177" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1177" t="s">
         <v>2859</v>
@@ -34951,7 +34960,7 @@
         <v>3658</v>
       </c>
       <c r="D1180" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1180" t="s">
         <v>2530</v>
@@ -34968,7 +34977,7 @@
         <v>2771</v>
       </c>
       <c r="D1181" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1181" t="s">
         <v>2815</v>
@@ -34985,7 +34994,7 @@
         <v>2866</v>
       </c>
       <c r="D1182" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1182" t="s">
         <v>2861</v>
@@ -35002,7 +35011,7 @@
         <v>3659</v>
       </c>
       <c r="D1183" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1183" t="s">
         <v>2862</v>
@@ -35121,7 +35130,7 @@
         <v>2306</v>
       </c>
       <c r="D1190" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1190" t="s">
         <v>2865</v>
@@ -35240,7 +35249,7 @@
         <v>2831</v>
       </c>
       <c r="D1197" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1197" t="s">
         <v>2771</v>
@@ -35274,7 +35283,7 @@
         <v>3663</v>
       </c>
       <c r="D1199" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1199" t="s">
         <v>2774</v>
@@ -35291,7 +35300,7 @@
         <v>2421</v>
       </c>
       <c r="D1200" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1200" t="s">
         <v>2868</v>
@@ -35342,7 +35351,7 @@
         <v>2870</v>
       </c>
       <c r="D1203" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1203" t="s">
         <v>2776</v>
@@ -35376,7 +35385,7 @@
         <v>2871</v>
       </c>
       <c r="D1205" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1205" t="s">
         <v>2296</v>
@@ -35393,7 +35402,7 @@
         <v>2425</v>
       </c>
       <c r="D1206" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1206" t="s">
         <v>2755</v>
@@ -35410,7 +35419,7 @@
         <v>2857</v>
       </c>
       <c r="D1207" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1207" t="s">
         <v>2873</v>
@@ -35461,7 +35470,7 @@
         <v>2874</v>
       </c>
       <c r="D1210" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1210" t="s">
         <v>2557</v>
@@ -35478,7 +35487,7 @@
         <v>2766</v>
       </c>
       <c r="D1211" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1211" t="s">
         <v>2717</v>
@@ -35495,7 +35504,7 @@
         <v>2252</v>
       </c>
       <c r="D1212" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1212" t="s">
         <v>2536</v>
@@ -35597,7 +35606,7 @@
         <v>2846</v>
       </c>
       <c r="D1218" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1218" t="s">
         <v>2855</v>
@@ -35614,7 +35623,7 @@
         <v>2764</v>
       </c>
       <c r="D1219" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1219" t="s">
         <v>2877</v>
@@ -35631,7 +35640,7 @@
         <v>2543</v>
       </c>
       <c r="D1220" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1220" t="s">
         <v>2878</v>
@@ -35682,7 +35691,7 @@
         <v>3513</v>
       </c>
       <c r="D1223" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1223" t="s">
         <v>2879</v>
@@ -35699,7 +35708,7 @@
         <v>3513</v>
       </c>
       <c r="D1224" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1224" t="s">
         <v>3513</v>
@@ -35716,7 +35725,7 @@
         <v>2536</v>
       </c>
       <c r="D1225" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1225" t="s">
         <v>2878</v>
@@ -35733,7 +35742,7 @@
         <v>2543</v>
       </c>
       <c r="D1226" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1226" t="s">
         <v>2291</v>
@@ -35784,7 +35793,7 @@
         <v>2556</v>
       </c>
       <c r="D1229" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1229" t="s">
         <v>2534</v>
@@ -35818,10 +35827,10 @@
         <v>2838</v>
       </c>
       <c r="D1231" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1231" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35835,7 +35844,7 @@
         <v>3579</v>
       </c>
       <c r="D1232" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1232" t="s">
         <v>2396</v>
@@ -36005,7 +36014,7 @@
         <v>2884</v>
       </c>
       <c r="D1242" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1242" t="s">
         <v>2790</v>
@@ -36022,7 +36031,7 @@
         <v>2471</v>
       </c>
       <c r="D1243" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1243" t="s">
         <v>2471</v>
@@ -36073,7 +36082,7 @@
         <v>2518</v>
       </c>
       <c r="D1246" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E1246" t="s">
         <v>2788</v>
@@ -36107,7 +36116,7 @@
         <v>2885</v>
       </c>
       <c r="D1248" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1248" t="s">
         <v>2480</v>
@@ -36124,7 +36133,7 @@
         <v>2480</v>
       </c>
       <c r="D1249" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1249" t="s">
         <v>2305</v>
@@ -36158,7 +36167,7 @@
         <v>3668</v>
       </c>
       <c r="D1251" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1251" t="s">
         <v>2794</v>
@@ -36226,7 +36235,7 @@
         <v>2325</v>
       </c>
       <c r="D1255" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1255" t="s">
         <v>2483</v>
@@ -36311,7 +36320,7 @@
         <v>2788</v>
       </c>
       <c r="D1260" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1260" t="s">
         <v>2495</v>
@@ -36362,7 +36371,7 @@
         <v>2460</v>
       </c>
       <c r="D1263" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1263" t="s">
         <v>2863</v>
@@ -36396,7 +36405,7 @@
         <v>2889</v>
       </c>
       <c r="D1265" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1265" t="s">
         <v>2890</v>
@@ -36413,7 +36422,7 @@
         <v>3514</v>
       </c>
       <c r="D1266" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1266" t="s">
         <v>2834</v>
@@ -36634,7 +36643,7 @@
         <v>3676</v>
       </c>
       <c r="D1279" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1279" t="s">
         <v>2895</v>
@@ -36651,7 +36660,7 @@
         <v>2895</v>
       </c>
       <c r="D1280" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1280" t="s">
         <v>2787</v>
@@ -36668,7 +36677,7 @@
         <v>3677</v>
       </c>
       <c r="D1281" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1281" t="s">
         <v>2525</v>
@@ -36753,7 +36762,7 @@
         <v>2306</v>
       </c>
       <c r="D1286" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1286" t="s">
         <v>2893</v>
@@ -36770,7 +36779,7 @@
         <v>2952</v>
       </c>
       <c r="D1287" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1287" t="s">
         <v>2376</v>
@@ -36957,7 +36966,7 @@
         <v>2812</v>
       </c>
       <c r="D1298" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1298" t="s">
         <v>2897</v>
@@ -37178,7 +37187,7 @@
         <v>2899</v>
       </c>
       <c r="D1311" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1311" t="s">
         <v>2311</v>
@@ -37195,7 +37204,7 @@
         <v>3679</v>
       </c>
       <c r="D1312" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1312" t="s">
         <v>2313</v>
@@ -37297,7 +37306,7 @@
         <v>2955</v>
       </c>
       <c r="D1318" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1318" t="s">
         <v>2792</v>
@@ -37348,7 +37357,7 @@
         <v>3686</v>
       </c>
       <c r="D1321" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1321" t="s">
         <v>2900</v>
@@ -37365,7 +37374,7 @@
         <v>3686</v>
       </c>
       <c r="D1322" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1322" t="s">
         <v>2519</v>
@@ -37382,7 +37391,7 @@
         <v>2953</v>
       </c>
       <c r="D1323" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1323" t="s">
         <v>2479</v>
@@ -37416,7 +37425,7 @@
         <v>2373</v>
       </c>
       <c r="D1325" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1325" t="s">
         <v>2371</v>
@@ -37518,7 +37527,7 @@
         <v>3690</v>
       </c>
       <c r="D1331" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1331" t="s">
         <v>2903</v>
@@ -37535,7 +37544,7 @@
         <v>3691</v>
       </c>
       <c r="D1332" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1332" t="s">
         <v>2904</v>
@@ -37569,7 +37578,7 @@
         <v>3692</v>
       </c>
       <c r="D1334" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1334" t="s">
         <v>2410</v>
@@ -37586,7 +37595,7 @@
         <v>3693</v>
       </c>
       <c r="D1335" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1335" t="s">
         <v>2760</v>
@@ -37603,7 +37612,7 @@
         <v>3694</v>
       </c>
       <c r="D1336" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1336" t="s">
         <v>2416</v>
@@ -37620,7 +37629,7 @@
         <v>3695</v>
       </c>
       <c r="D1337" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1337" t="s">
         <v>2298</v>
@@ -37671,7 +37680,7 @@
         <v>3696</v>
       </c>
       <c r="D1340" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1340" t="s">
         <v>2426</v>
@@ -37705,7 +37714,7 @@
         <v>3697</v>
       </c>
       <c r="D1342" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1342" t="s">
         <v>2530</v>
@@ -37722,7 +37731,7 @@
         <v>3648</v>
       </c>
       <c r="D1343" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1343" t="s">
         <v>2833</v>
@@ -37824,7 +37833,7 @@
         <v>2824</v>
       </c>
       <c r="D1349" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1349" t="s">
         <v>2416</v>
@@ -37844,7 +37853,7 @@
         <v>2761</v>
       </c>
       <c r="E1350" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -37858,7 +37867,7 @@
         <v>3700</v>
       </c>
       <c r="D1351" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1351" t="s">
         <v>2771</v>
@@ -37909,7 +37918,7 @@
         <v>2369</v>
       </c>
       <c r="D1354" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1354" t="s">
         <v>2401</v>
@@ -37926,7 +37935,7 @@
         <v>3701</v>
       </c>
       <c r="D1355" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1355" t="s">
         <v>2440</v>
@@ -37943,7 +37952,7 @@
         <v>3696</v>
       </c>
       <c r="D1356" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1356" t="s">
         <v>2826</v>
@@ -37977,7 +37986,7 @@
         <v>2834</v>
       </c>
       <c r="D1358" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1358" t="s">
         <v>2848</v>
@@ -37994,7 +38003,7 @@
         <v>2847</v>
       </c>
       <c r="D1359" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1359" t="s">
         <v>2906</v>
@@ -38011,7 +38020,7 @@
         <v>3695</v>
       </c>
       <c r="D1360" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1360" t="s">
         <v>2907</v>
@@ -38130,7 +38139,7 @@
         <v>2792</v>
       </c>
       <c r="D1367" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1367" t="s">
         <v>2908</v>
@@ -38164,7 +38173,7 @@
         <v>2319</v>
       </c>
       <c r="D1369" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1369" t="s">
         <v>2910</v>
@@ -38368,7 +38377,7 @@
         <v>3689</v>
       </c>
       <c r="D1381" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1381" t="s">
         <v>2514</v>
@@ -38436,7 +38445,7 @@
         <v>3706</v>
       </c>
       <c r="D1385" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1385" t="s">
         <v>2917</v>
@@ -38470,7 +38479,7 @@
         <v>3708</v>
       </c>
       <c r="D1387" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1387" t="s">
         <v>2919</v>
@@ -38487,10 +38496,10 @@
         <v>3709</v>
       </c>
       <c r="D1388" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1388" t="s">
-        <v>4724</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38504,10 +38513,10 @@
         <v>2971</v>
       </c>
       <c r="D1389" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1389" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38521,7 +38530,7 @@
         <v>3710</v>
       </c>
       <c r="D1390" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1390" t="s">
         <v>3707</v>
@@ -38572,10 +38581,10 @@
         <v>3713</v>
       </c>
       <c r="D1393" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1393" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38589,10 +38598,10 @@
         <v>3714</v>
       </c>
       <c r="D1394" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1394" t="s">
-        <v>4725</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38606,10 +38615,10 @@
         <v>3715</v>
       </c>
       <c r="D1395" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1395" t="s">
-        <v>4726</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38623,7 +38632,7 @@
         <v>3716</v>
       </c>
       <c r="D1396" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1396" t="s">
         <v>2928</v>
@@ -38640,10 +38649,10 @@
         <v>3717</v>
       </c>
       <c r="D1397" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1397" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -38660,7 +38669,7 @@
         <v>2359</v>
       </c>
       <c r="E1398" t="s">
-        <v>4727</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38674,10 +38683,10 @@
         <v>3719</v>
       </c>
       <c r="D1399" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1399" t="s">
-        <v>4728</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38691,10 +38700,10 @@
         <v>3076</v>
       </c>
       <c r="D1400" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1400" t="s">
-        <v>4729</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38708,7 +38717,7 @@
         <v>3717</v>
       </c>
       <c r="D1401" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1401" t="s">
         <v>2933</v>
@@ -38728,7 +38737,7 @@
         <v>2353</v>
       </c>
       <c r="E1402" t="s">
-        <v>4730</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -38745,7 +38754,7 @@
         <v>3537</v>
       </c>
       <c r="E1403" t="s">
-        <v>4731</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -38759,10 +38768,10 @@
         <v>3006</v>
       </c>
       <c r="D1404" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1404" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -38779,7 +38788,7 @@
         <v>2788</v>
       </c>
       <c r="E1405" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38793,7 +38802,7 @@
         <v>3722</v>
       </c>
       <c r="D1406" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1406" t="s">
         <v>2916</v>
@@ -38830,7 +38839,7 @@
         <v>2330</v>
       </c>
       <c r="E1408" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1409" spans="1:5">
@@ -38844,10 +38853,10 @@
         <v>3724</v>
       </c>
       <c r="D1409" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1409" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38878,7 +38887,7 @@
         <v>3725</v>
       </c>
       <c r="D1411" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1411" t="s">
         <v>2942</v>
@@ -38912,7 +38921,7 @@
         <v>2943</v>
       </c>
       <c r="D1413" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1413" t="s">
         <v>3672</v>
@@ -38980,10 +38989,10 @@
         <v>3727</v>
       </c>
       <c r="D1417" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1417" t="s">
-        <v>4734</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -39014,10 +39023,10 @@
         <v>3729</v>
       </c>
       <c r="D1419" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1419" t="s">
-        <v>4735</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -39082,7 +39091,7 @@
         <v>3732</v>
       </c>
       <c r="D1423" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1423" t="s">
         <v>2951</v>
@@ -39102,7 +39111,7 @@
         <v>2892</v>
       </c>
       <c r="E1424" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -39119,7 +39128,7 @@
         <v>2889</v>
       </c>
       <c r="E1425" t="s">
-        <v>4736</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1426" spans="1:5">
@@ -39133,7 +39142,7 @@
         <v>2469</v>
       </c>
       <c r="D1426" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1426" t="s">
         <v>2953</v>
@@ -39153,7 +39162,7 @@
         <v>2471</v>
       </c>
       <c r="E1427" t="s">
-        <v>4737</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39167,10 +39176,10 @@
         <v>2517</v>
       </c>
       <c r="D1428" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1428" t="s">
-        <v>4738</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -39187,7 +39196,7 @@
         <v>2524</v>
       </c>
       <c r="E1429" t="s">
-        <v>4739</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -39238,7 +39247,7 @@
         <v>2957</v>
       </c>
       <c r="E1432" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1433" spans="1:5">
@@ -39255,7 +39264,7 @@
         <v>2787</v>
       </c>
       <c r="E1433" t="s">
-        <v>4741</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1434" spans="1:5">
@@ -39272,7 +39281,7 @@
         <v>2485</v>
       </c>
       <c r="E1434" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -39323,7 +39332,7 @@
         <v>3564</v>
       </c>
       <c r="E1437" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -39354,7 +39363,7 @@
         <v>3736</v>
       </c>
       <c r="D1439" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1439" t="s">
         <v>2964</v>
@@ -39371,10 +39380,10 @@
         <v>3737</v>
       </c>
       <c r="D1440" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1440" t="s">
-        <v>4742</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -39405,7 +39414,7 @@
         <v>2966</v>
       </c>
       <c r="D1442" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1442" t="s">
         <v>2331</v>
@@ -39490,7 +39499,7 @@
         <v>3740</v>
       </c>
       <c r="D1447" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1447" t="s">
         <v>2970</v>
@@ -39507,7 +39516,7 @@
         <v>3741</v>
       </c>
       <c r="D1448" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1448" t="s">
         <v>2971</v>
@@ -39541,7 +39550,7 @@
         <v>3743</v>
       </c>
       <c r="D1450" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1450" t="s">
         <v>2973</v>
@@ -39575,7 +39584,7 @@
         <v>3744</v>
       </c>
       <c r="D1452" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1452" t="s">
         <v>2975</v>
@@ -39592,7 +39601,7 @@
         <v>2975</v>
       </c>
       <c r="D1453" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1453" t="s">
         <v>2976</v>
@@ -39609,7 +39618,7 @@
         <v>2486</v>
       </c>
       <c r="D1454" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1454" t="s">
         <v>2950</v>
@@ -39626,7 +39635,7 @@
         <v>2331</v>
       </c>
       <c r="D1455" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1455" t="s">
         <v>2331</v>
@@ -39660,10 +39669,10 @@
         <v>3746</v>
       </c>
       <c r="D1457" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1457" t="s">
-        <v>4743</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -39677,10 +39686,10 @@
         <v>3747</v>
       </c>
       <c r="D1458" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1458" t="s">
-        <v>4744</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -39694,7 +39703,7 @@
         <v>3748</v>
       </c>
       <c r="D1459" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1459" t="s">
         <v>2331</v>
@@ -39714,7 +39723,7 @@
         <v>2980</v>
       </c>
       <c r="E1460" t="s">
-        <v>4745</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39762,10 +39771,10 @@
         <v>3752</v>
       </c>
       <c r="D1463" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1463" t="s">
-        <v>4746</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39779,10 +39788,10 @@
         <v>3753</v>
       </c>
       <c r="D1464" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1464" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39796,7 +39805,7 @@
         <v>3754</v>
       </c>
       <c r="D1465" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1465" t="s">
         <v>3754</v>
@@ -39830,7 +39839,7 @@
         <v>3756</v>
       </c>
       <c r="D1467" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1467" t="s">
         <v>2986</v>
@@ -39847,7 +39856,7 @@
         <v>3757</v>
       </c>
       <c r="D1468" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1468" t="s">
         <v>2986</v>
@@ -39881,10 +39890,10 @@
         <v>3007</v>
       </c>
       <c r="D1470" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1470" t="s">
-        <v>4747</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -39898,10 +39907,10 @@
         <v>3759</v>
       </c>
       <c r="D1471" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1471" t="s">
-        <v>4748</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -39915,7 +39924,7 @@
         <v>2358</v>
       </c>
       <c r="D1472" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E1472" t="s">
         <v>2989</v>
@@ -39932,7 +39941,7 @@
         <v>3760</v>
       </c>
       <c r="D1473" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1473" t="s">
         <v>3009</v>
@@ -39949,10 +39958,10 @@
         <v>3761</v>
       </c>
       <c r="D1474" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1474" t="s">
-        <v>4748</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39966,10 +39975,10 @@
         <v>2988</v>
       </c>
       <c r="D1475" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1475" t="s">
-        <v>4749</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -40000,10 +40009,10 @@
         <v>3763</v>
       </c>
       <c r="D1477" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1477" t="s">
-        <v>4750</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
@@ -40017,10 +40026,10 @@
         <v>3764</v>
       </c>
       <c r="D1478" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1478" t="s">
-        <v>4751</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -40037,7 +40046,7 @@
         <v>2995</v>
       </c>
       <c r="E1479" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1480" spans="1:5">
@@ -40068,7 +40077,7 @@
         <v>3767</v>
       </c>
       <c r="D1481" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1481" t="s">
         <v>2986</v>
@@ -40085,10 +40094,10 @@
         <v>3537</v>
       </c>
       <c r="D1482" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1482" t="s">
-        <v>4752</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -40105,7 +40114,7 @@
         <v>2997</v>
       </c>
       <c r="E1483" t="s">
-        <v>4753</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -40119,10 +40128,10 @@
         <v>2986</v>
       </c>
       <c r="D1484" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1484" t="s">
-        <v>4754</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -40136,10 +40145,10 @@
         <v>2351</v>
       </c>
       <c r="D1485" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1485" t="s">
-        <v>4755</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
@@ -40153,7 +40162,7 @@
         <v>3768</v>
       </c>
       <c r="D1486" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1486" t="s">
         <v>3001</v>
@@ -40170,7 +40179,7 @@
         <v>3757</v>
       </c>
       <c r="D1487" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1487" t="s">
         <v>3002</v>
@@ -40221,7 +40230,7 @@
         <v>3769</v>
       </c>
       <c r="D1490" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1490" t="s">
         <v>3005</v>
@@ -40255,7 +40264,7 @@
         <v>3770</v>
       </c>
       <c r="D1492" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1492" t="s">
         <v>3007</v>
@@ -40272,7 +40281,7 @@
         <v>3007</v>
       </c>
       <c r="D1493" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1493" t="s">
         <v>3007</v>
@@ -40306,7 +40315,7 @@
         <v>2991</v>
       </c>
       <c r="D1495" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1495" t="s">
         <v>2357</v>
@@ -40323,7 +40332,7 @@
         <v>3772</v>
       </c>
       <c r="D1496" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1496" t="s">
         <v>3008</v>
@@ -40340,7 +40349,7 @@
         <v>3773</v>
       </c>
       <c r="D1497" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1497" t="s">
         <v>2990</v>
@@ -40357,10 +40366,10 @@
         <v>3763</v>
       </c>
       <c r="D1498" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1498" t="s">
-        <v>4756</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40374,10 +40383,10 @@
         <v>3774</v>
       </c>
       <c r="D1499" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1499" t="s">
-        <v>4757</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1500" spans="1:5">
@@ -40394,7 +40403,7 @@
         <v>3789</v>
       </c>
       <c r="E1500" t="s">
-        <v>4758</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40442,7 +40451,7 @@
         <v>3776</v>
       </c>
       <c r="D1503" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1503" t="s">
         <v>3035</v>
@@ -40476,7 +40485,7 @@
         <v>3778</v>
       </c>
       <c r="D1505" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1505" t="s">
         <v>3075</v>
@@ -40493,7 +40502,7 @@
         <v>3779</v>
       </c>
       <c r="D1506" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1506" t="s">
         <v>3017</v>
@@ -40513,7 +40522,7 @@
         <v>3016</v>
       </c>
       <c r="E1507" t="s">
-        <v>4759</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40527,10 +40536,10 @@
         <v>3780</v>
       </c>
       <c r="D1508" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1508" t="s">
-        <v>4760</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40561,10 +40570,10 @@
         <v>3782</v>
       </c>
       <c r="D1510" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1510" t="s">
-        <v>4761</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40578,7 +40587,7 @@
         <v>3092</v>
       </c>
       <c r="D1511" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1511" t="s">
         <v>3022</v>
@@ -40598,7 +40607,7 @@
         <v>3781</v>
       </c>
       <c r="E1512" t="s">
-        <v>4762</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40615,7 +40624,7 @@
         <v>3034</v>
       </c>
       <c r="E1513" t="s">
-        <v>4763</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40629,7 +40638,7 @@
         <v>3785</v>
       </c>
       <c r="D1514" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1514" t="s">
         <v>3075</v>
@@ -40646,7 +40655,7 @@
         <v>3786</v>
       </c>
       <c r="D1515" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1515" t="s">
         <v>3025</v>
@@ -40683,7 +40692,7 @@
         <v>3026</v>
       </c>
       <c r="E1517" t="s">
-        <v>4764</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40700,7 +40709,7 @@
         <v>2935</v>
       </c>
       <c r="E1518" t="s">
-        <v>4726</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40714,10 +40723,10 @@
         <v>3789</v>
       </c>
       <c r="D1519" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1519" t="s">
-        <v>4765</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -40731,10 +40740,10 @@
         <v>3029</v>
       </c>
       <c r="D1520" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1520" t="s">
-        <v>4766</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40748,7 +40757,7 @@
         <v>3790</v>
       </c>
       <c r="D1521" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1521" t="s">
         <v>3030</v>
@@ -40768,7 +40777,7 @@
         <v>3030</v>
       </c>
       <c r="E1522" t="s">
-        <v>4767</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40782,10 +40791,10 @@
         <v>3013</v>
       </c>
       <c r="D1523" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1523" t="s">
-        <v>4768</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1524" spans="1:5">
@@ -40799,10 +40808,10 @@
         <v>3791</v>
       </c>
       <c r="D1524" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1524" t="s">
-        <v>4769</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -40816,7 +40825,7 @@
         <v>3792</v>
       </c>
       <c r="D1525" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1525" t="s">
         <v>3011</v>
@@ -40850,10 +40859,10 @@
         <v>3034</v>
       </c>
       <c r="D1527" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1527" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1528" spans="1:5">
@@ -40867,10 +40876,10 @@
         <v>3035</v>
       </c>
       <c r="D1528" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1528" t="s">
-        <v>4770</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40884,7 +40893,7 @@
         <v>3794</v>
       </c>
       <c r="D1529" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1529" t="s">
         <v>3030</v>
@@ -40901,10 +40910,10 @@
         <v>3762</v>
       </c>
       <c r="D1530" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1530" t="s">
-        <v>4771</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40918,10 +40927,10 @@
         <v>3795</v>
       </c>
       <c r="D1531" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1531" t="s">
-        <v>4772</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40935,10 +40944,10 @@
         <v>3013</v>
       </c>
       <c r="D1532" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1532" t="s">
-        <v>4773</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40952,7 +40961,7 @@
         <v>3796</v>
       </c>
       <c r="D1533" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1533" t="s">
         <v>3041</v>
@@ -41006,7 +41015,7 @@
         <v>3041</v>
       </c>
       <c r="E1536" t="s">
-        <v>4774</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1537" spans="1:5">
@@ -41037,10 +41046,10 @@
         <v>3801</v>
       </c>
       <c r="D1538" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1538" t="s">
-        <v>4775</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1539" spans="1:5">
@@ -41071,7 +41080,7 @@
         <v>3803</v>
       </c>
       <c r="D1540" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1540" t="s">
         <v>3082</v>
@@ -41088,7 +41097,7 @@
         <v>3804</v>
       </c>
       <c r="D1541" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1541" t="s">
         <v>3047</v>
@@ -41122,10 +41131,10 @@
         <v>3047</v>
       </c>
       <c r="D1543" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1543" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -41139,10 +41148,10 @@
         <v>3806</v>
       </c>
       <c r="D1544" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1544" t="s">
-        <v>4776</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -41156,10 +41165,10 @@
         <v>3807</v>
       </c>
       <c r="D1545" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1545" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41207,7 +41216,7 @@
         <v>3809</v>
       </c>
       <c r="D1548" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1548" t="s">
         <v>3052</v>
@@ -41224,7 +41233,7 @@
         <v>3810</v>
       </c>
       <c r="D1549" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1549" t="s">
         <v>3053</v>
@@ -41241,10 +41250,10 @@
         <v>3811</v>
       </c>
       <c r="D1550" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1550" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41258,7 +41267,7 @@
         <v>3812</v>
       </c>
       <c r="D1551" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1551" t="s">
         <v>3055</v>
@@ -41275,7 +41284,7 @@
         <v>3813</v>
       </c>
       <c r="D1552" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1552" t="s">
         <v>3056</v>
@@ -41309,7 +41318,7 @@
         <v>3815</v>
       </c>
       <c r="D1554" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1554" t="s">
         <v>3058</v>
@@ -41326,10 +41335,10 @@
         <v>3816</v>
       </c>
       <c r="D1555" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1555" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41360,7 +41369,7 @@
         <v>3818</v>
       </c>
       <c r="D1557" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1557" t="s">
         <v>3825</v>
@@ -41377,10 +41386,10 @@
         <v>3819</v>
       </c>
       <c r="D1558" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1558" t="s">
-        <v>4777</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41397,7 +41406,7 @@
         <v>3088</v>
       </c>
       <c r="E1559" t="s">
-        <v>4778</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -41411,10 +41420,10 @@
         <v>3821</v>
       </c>
       <c r="D1560" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1560" t="s">
-        <v>4779</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41428,7 +41437,7 @@
         <v>3822</v>
       </c>
       <c r="D1561" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1561" t="s">
         <v>3064</v>
@@ -41445,10 +41454,10 @@
         <v>3822</v>
       </c>
       <c r="D1562" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1562" t="s">
-        <v>4780</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41462,10 +41471,10 @@
         <v>3065</v>
       </c>
       <c r="D1563" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1563" t="s">
-        <v>4781</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1564" spans="1:5">
@@ -41479,7 +41488,7 @@
         <v>3823</v>
       </c>
       <c r="D1564" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1564" t="s">
         <v>3096</v>
@@ -41499,7 +41508,7 @@
         <v>3778</v>
       </c>
       <c r="E1565" t="s">
-        <v>4782</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41513,7 +41522,7 @@
         <v>3825</v>
       </c>
       <c r="D1566" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1566" t="s">
         <v>3069</v>
@@ -41530,7 +41539,7 @@
         <v>3069</v>
       </c>
       <c r="D1567" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1567" t="s">
         <v>3054</v>
@@ -41550,7 +41559,7 @@
         <v>3075</v>
       </c>
       <c r="E1568" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1569" spans="1:5">
@@ -41564,7 +41573,7 @@
         <v>3070</v>
       </c>
       <c r="D1569" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1569" t="s">
         <v>3070</v>
@@ -41581,10 +41590,10 @@
         <v>3827</v>
       </c>
       <c r="D1570" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1570" t="s">
-        <v>4783</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -41598,10 +41607,10 @@
         <v>3106</v>
       </c>
       <c r="D1571" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1571" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1572" spans="1:5">
@@ -41615,10 +41624,10 @@
         <v>3828</v>
       </c>
       <c r="D1572" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1572" t="s">
-        <v>4785</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -41632,7 +41641,7 @@
         <v>3074</v>
       </c>
       <c r="D1573" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1573" t="s">
         <v>3059</v>
@@ -41649,7 +41658,7 @@
         <v>3829</v>
       </c>
       <c r="D1574" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1574" t="s">
         <v>3016</v>
@@ -41666,10 +41675,10 @@
         <v>3018</v>
       </c>
       <c r="D1575" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1575" t="s">
-        <v>4786</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41683,7 +41692,7 @@
         <v>3800</v>
       </c>
       <c r="D1576" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1576" t="s">
         <v>3077</v>
@@ -41700,7 +41709,7 @@
         <v>3830</v>
       </c>
       <c r="D1577" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1577" t="s">
         <v>3078</v>
@@ -41717,7 +41726,7 @@
         <v>3831</v>
       </c>
       <c r="D1578" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1578" t="s">
         <v>3079</v>
@@ -41734,7 +41743,7 @@
         <v>3832</v>
       </c>
       <c r="D1579" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1579" t="s">
         <v>3078</v>
@@ -41785,7 +41794,7 @@
         <v>3835</v>
       </c>
       <c r="D1582" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1582" t="s">
         <v>3046</v>
@@ -41802,7 +41811,7 @@
         <v>3083</v>
       </c>
       <c r="D1583" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1583" t="s">
         <v>3084</v>
@@ -41836,10 +41845,10 @@
         <v>3819</v>
       </c>
       <c r="D1585" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1585" t="s">
-        <v>4787</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -41853,7 +41862,7 @@
         <v>3836</v>
       </c>
       <c r="D1586" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1586" t="s">
         <v>3085</v>
@@ -41921,10 +41930,10 @@
         <v>3839</v>
       </c>
       <c r="D1590" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1590" t="s">
-        <v>4788</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41938,7 +41947,7 @@
         <v>3840</v>
       </c>
       <c r="D1591" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1591" t="s">
         <v>3090</v>
@@ -41955,7 +41964,7 @@
         <v>3090</v>
       </c>
       <c r="D1592" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1592" t="s">
         <v>3053</v>
@@ -41972,10 +41981,10 @@
         <v>3784</v>
       </c>
       <c r="D1593" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1593" t="s">
-        <v>4762</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -41992,7 +42001,7 @@
         <v>3782</v>
       </c>
       <c r="E1594" t="s">
-        <v>4789</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1595" spans="1:5">
@@ -42057,10 +42066,10 @@
         <v>3845</v>
       </c>
       <c r="D1598" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1598" t="s">
-        <v>4790</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -42074,7 +42083,7 @@
         <v>3846</v>
       </c>
       <c r="D1599" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1599" t="s">
         <v>3834</v>
@@ -42298,7 +42307,7 @@
         <v>3096</v>
       </c>
       <c r="E1612" t="s">
-        <v>4791</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1613" spans="1:5">
@@ -42485,7 +42494,7 @@
         <v>3096</v>
       </c>
       <c r="E1623" t="s">
-        <v>4792</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42655,7 +42664,7 @@
         <v>3096</v>
       </c>
       <c r="E1633" t="s">
-        <v>4793</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -42669,10 +42678,10 @@
         <v>3866</v>
       </c>
       <c r="D1634" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1634" t="s">
-        <v>4794</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -42686,10 +42695,10 @@
         <v>3867</v>
       </c>
       <c r="D1635" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1635" t="s">
-        <v>4795</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -42703,10 +42712,10 @@
         <v>3868</v>
       </c>
       <c r="D1636" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1636" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42720,7 +42729,7 @@
         <v>3869</v>
       </c>
       <c r="D1637" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1637" t="s">
         <v>3109</v>
@@ -42737,10 +42746,10 @@
         <v>3870</v>
       </c>
       <c r="D1638" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1638" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -42754,10 +42763,10 @@
         <v>3871</v>
       </c>
       <c r="D1639" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1639" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1640" spans="1:5">
@@ -42771,7 +42780,7 @@
         <v>3872</v>
       </c>
       <c r="D1640" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1640" t="s">
         <v>3105</v>
@@ -42788,7 +42797,7 @@
         <v>3873</v>
       </c>
       <c r="D1641" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1641" t="s">
         <v>3105</v>
@@ -42805,7 +42814,7 @@
         <v>3874</v>
       </c>
       <c r="D1642" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1642" t="s">
         <v>3104</v>
@@ -42822,7 +42831,7 @@
         <v>3875</v>
       </c>
       <c r="D1643" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1643" t="s">
         <v>3104</v>
@@ -42839,7 +42848,7 @@
         <v>3875</v>
       </c>
       <c r="D1644" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1644" t="s">
         <v>3103</v>
@@ -42856,7 +42865,7 @@
         <v>3876</v>
       </c>
       <c r="D1645" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1645" t="s">
         <v>3111</v>
@@ -42873,7 +42882,7 @@
         <v>3859</v>
       </c>
       <c r="D1646" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1646" t="s">
         <v>3111</v>
@@ -42995,7 +43004,7 @@
         <v>3111</v>
       </c>
       <c r="E1653" t="s">
-        <v>4799</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -43080,7 +43089,7 @@
         <v>3111</v>
       </c>
       <c r="E1658" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -43400,7 +43409,7 @@
         <v>3898</v>
       </c>
       <c r="D1677" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1677" t="s">
         <v>3111</v>
@@ -43417,7 +43426,7 @@
         <v>3111</v>
       </c>
       <c r="D1678" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1678" t="s">
         <v>3111</v>
@@ -43434,7 +43443,7 @@
         <v>3111</v>
       </c>
       <c r="D1679" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1679" t="s">
         <v>3111</v>
@@ -43454,7 +43463,7 @@
         <v>3853</v>
       </c>
       <c r="E1680" t="s">
-        <v>4801</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43485,10 +43494,10 @@
         <v>3900</v>
       </c>
       <c r="D1682" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1682" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
@@ -43502,10 +43511,10 @@
         <v>3901</v>
       </c>
       <c r="D1683" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1683" t="s">
-        <v>4803</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -43519,10 +43528,10 @@
         <v>3363</v>
       </c>
       <c r="D1684" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1684" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
@@ -43536,7 +43545,7 @@
         <v>3902</v>
       </c>
       <c r="D1685" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1685" t="s">
         <v>4062</v>
@@ -43553,10 +43562,10 @@
         <v>3903</v>
       </c>
       <c r="D1686" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1686" t="s">
-        <v>4805</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -43570,10 +43579,10 @@
         <v>3904</v>
       </c>
       <c r="D1687" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1687" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -43587,10 +43596,10 @@
         <v>3905</v>
       </c>
       <c r="D1688" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1688" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43604,10 +43613,10 @@
         <v>3906</v>
       </c>
       <c r="D1689" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1689" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -43621,10 +43630,10 @@
         <v>3907</v>
       </c>
       <c r="D1690" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1690" t="s">
-        <v>4809</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -43638,7 +43647,7 @@
         <v>3908</v>
       </c>
       <c r="D1691" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1691" t="s">
         <v>3126</v>
@@ -43740,7 +43749,7 @@
         <v>3127</v>
       </c>
       <c r="D1697" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1697" t="s">
         <v>3127</v>
@@ -43757,10 +43766,10 @@
         <v>3127</v>
       </c>
       <c r="D1698" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1698" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -43774,7 +43783,7 @@
         <v>3127</v>
       </c>
       <c r="D1699" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1699" t="s">
         <v>3127</v>
@@ -43791,7 +43800,7 @@
         <v>3127</v>
       </c>
       <c r="D1700" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1700" t="s">
         <v>3127</v>
@@ -43842,7 +43851,7 @@
         <v>3127</v>
       </c>
       <c r="D1703" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1703" t="s">
         <v>3127</v>
@@ -43859,10 +43868,10 @@
         <v>3127</v>
       </c>
       <c r="D1704" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1704" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43876,7 +43885,7 @@
         <v>3127</v>
       </c>
       <c r="D1705" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1705" t="s">
         <v>3127</v>
@@ -43893,7 +43902,7 @@
         <v>3127</v>
       </c>
       <c r="D1706" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1706" t="s">
         <v>3127</v>
@@ -44066,7 +44075,7 @@
         <v>3127</v>
       </c>
       <c r="E1716" t="s">
-        <v>4811</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -44117,7 +44126,7 @@
         <v>3127</v>
       </c>
       <c r="E1719" t="s">
-        <v>4812</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -44199,10 +44208,10 @@
         <v>3925</v>
       </c>
       <c r="D1724" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E1724" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -44216,10 +44225,10 @@
         <v>3926</v>
       </c>
       <c r="D1725" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="E1725" t="s">
-        <v>4814</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -44233,10 +44242,10 @@
         <v>3927</v>
       </c>
       <c r="D1726" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="E1726" t="s">
-        <v>4815</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1727" spans="1:5">
@@ -44284,7 +44293,7 @@
         <v>3930</v>
       </c>
       <c r="D1729" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1729" t="s">
         <v>3136</v>
@@ -44301,10 +44310,10 @@
         <v>3931</v>
       </c>
       <c r="D1730" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E1730" t="s">
-        <v>4816</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -44318,7 +44327,7 @@
         <v>3932</v>
       </c>
       <c r="D1731" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="E1731" t="s">
         <v>3139</v>
@@ -44338,7 +44347,7 @@
         <v>4130</v>
       </c>
       <c r="E1732" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -44352,7 +44361,7 @@
         <v>3934</v>
       </c>
       <c r="D1733" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="E1733" t="s">
         <v>3141</v>
@@ -44369,10 +44378,10 @@
         <v>3935</v>
       </c>
       <c r="D1734" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E1734" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -44386,7 +44395,7 @@
         <v>3936</v>
       </c>
       <c r="D1735" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="E1735" t="s">
         <v>3143</v>
@@ -44420,7 +44429,7 @@
         <v>3938</v>
       </c>
       <c r="D1737" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="E1737" t="s">
         <v>3145</v>
@@ -44488,7 +44497,7 @@
         <v>3940</v>
       </c>
       <c r="D1741" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1741" t="s">
         <v>3146</v>
@@ -44556,7 +44565,7 @@
         <v>3940</v>
       </c>
       <c r="D1745" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="E1745" t="s">
         <v>3146</v>
@@ -44624,7 +44633,7 @@
         <v>3946</v>
       </c>
       <c r="D1749" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="E1749" t="s">
         <v>3147</v>
@@ -44641,7 +44650,7 @@
         <v>3947</v>
       </c>
       <c r="D1750" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E1750" t="s">
         <v>3148</v>
@@ -44675,7 +44684,7 @@
         <v>3151</v>
       </c>
       <c r="D1752" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1752" t="s">
         <v>3937</v>
@@ -44695,7 +44704,7 @@
         <v>3150</v>
       </c>
       <c r="E1753" t="s">
-        <v>4819</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1754" spans="1:5">
@@ -44760,10 +44769,10 @@
         <v>3153</v>
       </c>
       <c r="D1757" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="E1757" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1758" spans="1:5">
@@ -44777,10 +44786,10 @@
         <v>3950</v>
       </c>
       <c r="D1758" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="E1758" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1759" spans="1:5">
@@ -44930,7 +44939,7 @@
         <v>3953</v>
       </c>
       <c r="D1767" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E1767" t="s">
         <v>3164</v>
@@ -44981,7 +44990,7 @@
         <v>3956</v>
       </c>
       <c r="D1770" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1770" t="s">
         <v>3167</v>
@@ -45032,7 +45041,7 @@
         <v>3958</v>
       </c>
       <c r="D1773" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="E1773" t="s">
         <v>3170</v>
@@ -45066,7 +45075,7 @@
         <v>3960</v>
       </c>
       <c r="D1775" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="E1775" t="s">
         <v>3172</v>
@@ -45083,7 +45092,7 @@
         <v>3961</v>
       </c>
       <c r="D1776" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="E1776" t="s">
         <v>3173</v>
@@ -45151,7 +45160,7 @@
         <v>3965</v>
       </c>
       <c r="D1780" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1780" t="s">
         <v>3177</v>
@@ -45168,7 +45177,7 @@
         <v>3966</v>
       </c>
       <c r="D1781" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="E1781" t="s">
         <v>3178</v>
@@ -45188,7 +45197,7 @@
         <v>3178</v>
       </c>
       <c r="E1782" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -45202,7 +45211,7 @@
         <v>3968</v>
       </c>
       <c r="D1783" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E1783" t="s">
         <v>3180</v>
@@ -45219,7 +45228,7 @@
         <v>3969</v>
       </c>
       <c r="D1784" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E1784" t="s">
         <v>3181</v>
@@ -45236,7 +45245,7 @@
         <v>3970</v>
       </c>
       <c r="D1785" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="E1785" t="s">
         <v>3182</v>
@@ -45253,7 +45262,7 @@
         <v>3971</v>
       </c>
       <c r="D1786" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="E1786" t="s">
         <v>3183</v>
@@ -45321,7 +45330,7 @@
         <v>3975</v>
       </c>
       <c r="D1790" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="E1790" t="s">
         <v>3187</v>
@@ -45338,10 +45347,10 @@
         <v>3976</v>
       </c>
       <c r="D1791" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1791" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -45355,7 +45364,7 @@
         <v>3977</v>
       </c>
       <c r="D1792" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="E1792" t="s">
         <v>3181</v>
@@ -45372,7 +45381,7 @@
         <v>3978</v>
       </c>
       <c r="D1793" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="E1793" t="s">
         <v>3188</v>
@@ -45406,7 +45415,7 @@
         <v>3980</v>
       </c>
       <c r="D1795" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E1795" t="s">
         <v>3190</v>
@@ -45542,7 +45551,7 @@
         <v>3191</v>
       </c>
       <c r="D1803" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1803" t="s">
         <v>3191</v>
@@ -45610,10 +45619,10 @@
         <v>3191</v>
       </c>
       <c r="D1807" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="E1807" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1808" spans="1:5">
@@ -45627,10 +45636,10 @@
         <v>3191</v>
       </c>
       <c r="D1808" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1808" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="1809" spans="1:5">
@@ -45644,10 +45653,10 @@
         <v>3191</v>
       </c>
       <c r="D1809" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1809" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1810" spans="1:5">
@@ -45661,10 +45670,10 @@
         <v>3191</v>
       </c>
       <c r="D1810" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="E1810" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -45678,7 +45687,7 @@
         <v>3984</v>
       </c>
       <c r="D1811" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E1811" t="s">
         <v>3193</v>
@@ -45695,10 +45704,10 @@
         <v>3985</v>
       </c>
       <c r="D1812" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="E1812" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -45712,7 +45721,7 @@
         <v>3191</v>
       </c>
       <c r="D1813" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="E1813" t="s">
         <v>3249</v>
@@ -45729,7 +45738,7 @@
         <v>3986</v>
       </c>
       <c r="D1814" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1814" t="s">
         <v>3196</v>
@@ -45780,7 +45789,7 @@
         <v>3988</v>
       </c>
       <c r="D1817" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="E1817" t="s">
         <v>3199</v>
@@ -45814,7 +45823,7 @@
         <v>3990</v>
       </c>
       <c r="D1819" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="E1819" t="s">
         <v>3201</v>
@@ -45848,7 +45857,7 @@
         <v>3992</v>
       </c>
       <c r="D1821" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="E1821" t="s">
         <v>3203</v>
@@ -45865,7 +45874,7 @@
         <v>3992</v>
       </c>
       <c r="D1822" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E1822" t="s">
         <v>3204</v>
@@ -45882,7 +45891,7 @@
         <v>3993</v>
       </c>
       <c r="D1823" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="E1823" t="s">
         <v>3205</v>
@@ -45899,7 +45908,7 @@
         <v>3994</v>
       </c>
       <c r="D1824" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="E1824" t="s">
         <v>3206</v>
@@ -45916,7 +45925,7 @@
         <v>3995</v>
       </c>
       <c r="D1825" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1825" t="s">
         <v>3207</v>
@@ -45933,7 +45942,7 @@
         <v>3996</v>
       </c>
       <c r="D1826" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="E1826" t="s">
         <v>3208</v>
@@ -45950,7 +45959,7 @@
         <v>3996</v>
       </c>
       <c r="D1827" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="E1827" t="s">
         <v>3209</v>
@@ -45967,7 +45976,7 @@
         <v>3997</v>
       </c>
       <c r="D1828" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="E1828" t="s">
         <v>3210</v>
@@ -45984,7 +45993,7 @@
         <v>3998</v>
       </c>
       <c r="D1829" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1829" t="s">
         <v>3211</v>
@@ -46035,7 +46044,7 @@
         <v>4000</v>
       </c>
       <c r="D1832" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1832" t="s">
         <v>3214</v>
@@ -46086,7 +46095,7 @@
         <v>4003</v>
       </c>
       <c r="D1835" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="E1835" t="s">
         <v>3217</v>
@@ -46106,7 +46115,7 @@
         <v>3217</v>
       </c>
       <c r="E1836" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -46123,7 +46132,7 @@
         <v>3207</v>
       </c>
       <c r="E1837" t="s">
-        <v>4825</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="1838" spans="1:5">
@@ -46137,10 +46146,10 @@
         <v>4006</v>
       </c>
       <c r="D1838" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="E1838" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -46154,7 +46163,7 @@
         <v>4007</v>
       </c>
       <c r="D1839" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="E1839" t="s">
         <v>3221</v>
@@ -46171,7 +46180,7 @@
         <v>4008</v>
       </c>
       <c r="D1840" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1840" t="s">
         <v>3222</v>
@@ -46188,7 +46197,7 @@
         <v>3950</v>
       </c>
       <c r="D1841" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="E1841" t="s">
         <v>3223</v>
@@ -46222,7 +46231,7 @@
         <v>4010</v>
       </c>
       <c r="D1843" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E1843" t="s">
         <v>3225</v>
@@ -46256,7 +46265,7 @@
         <v>4012</v>
       </c>
       <c r="D1845" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="E1845" t="s">
         <v>4010</v>
@@ -46290,7 +46299,7 @@
         <v>4014</v>
       </c>
       <c r="D1847" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="E1847" t="s">
         <v>4015</v>
@@ -46307,7 +46316,7 @@
         <v>4015</v>
       </c>
       <c r="D1848" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E1848" t="s">
         <v>3230</v>
@@ -46324,7 +46333,7 @@
         <v>4016</v>
       </c>
       <c r="D1849" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="E1849" t="s">
         <v>3231</v>
@@ -46341,10 +46350,10 @@
         <v>4017</v>
       </c>
       <c r="D1850" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1850" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1851" spans="1:5">
@@ -46358,7 +46367,7 @@
         <v>4018</v>
       </c>
       <c r="D1851" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="E1851" t="s">
         <v>3233</v>
@@ -46375,7 +46384,7 @@
         <v>4019</v>
       </c>
       <c r="D1852" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="E1852" t="s">
         <v>3234</v>
@@ -46392,7 +46401,7 @@
         <v>4020</v>
       </c>
       <c r="D1853" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="E1853" t="s">
         <v>3235</v>
@@ -46426,7 +46435,7 @@
         <v>4018</v>
       </c>
       <c r="D1855" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E1855" t="s">
         <v>3237</v>
@@ -46443,10 +46452,10 @@
         <v>4021</v>
       </c>
       <c r="D1856" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="E1856" t="s">
-        <v>4827</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="1857" spans="1:5">
@@ -46477,7 +46486,7 @@
         <v>3202</v>
       </c>
       <c r="D1858" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="E1858" t="s">
         <v>3202</v>
@@ -46494,7 +46503,7 @@
         <v>3240</v>
       </c>
       <c r="D1859" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="E1859" t="s">
         <v>3241</v>
@@ -46514,7 +46523,7 @@
         <v>3242</v>
       </c>
       <c r="E1860" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1861" spans="1:5">
@@ -46528,7 +46537,7 @@
         <v>4024</v>
       </c>
       <c r="D1861" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="E1861" t="s">
         <v>3243</v>
@@ -46562,7 +46571,7 @@
         <v>4026</v>
       </c>
       <c r="D1863" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1863" t="s">
         <v>3245</v>
@@ -46596,7 +46605,7 @@
         <v>3199</v>
       </c>
       <c r="D1865" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="E1865" t="s">
         <v>3247</v>
@@ -46616,7 +46625,7 @@
         <v>4127</v>
       </c>
       <c r="E1866" t="s">
-        <v>4828</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="1867" spans="1:5">
@@ -46630,7 +46639,7 @@
         <v>4029</v>
       </c>
       <c r="D1867" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E1867" t="s">
         <v>3249</v>
@@ -46664,7 +46673,7 @@
         <v>4030</v>
       </c>
       <c r="D1869" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="E1869" t="s">
         <v>3251</v>
@@ -46698,7 +46707,7 @@
         <v>4032</v>
       </c>
       <c r="D1871" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="E1871" t="s">
         <v>3253</v>
@@ -46715,7 +46724,7 @@
         <v>4033</v>
       </c>
       <c r="D1872" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="E1872" t="s">
         <v>3254</v>
@@ -46732,10 +46741,10 @@
         <v>3254</v>
       </c>
       <c r="D1873" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="E1873" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -46769,7 +46778,7 @@
         <v>4083</v>
       </c>
       <c r="E1875" t="s">
-        <v>4829</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="1876" spans="1:5">
@@ -46783,7 +46792,7 @@
         <v>4034</v>
       </c>
       <c r="D1876" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="E1876" t="s">
         <v>3257</v>
@@ -46800,7 +46809,7 @@
         <v>4035</v>
       </c>
       <c r="D1877" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E1877" t="s">
         <v>3258</v>
@@ -46837,7 +46846,7 @@
         <v>4056</v>
       </c>
       <c r="E1879" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="1880" spans="1:5">
@@ -46851,10 +46860,10 @@
         <v>3260</v>
       </c>
       <c r="D1880" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E1880" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="1881" spans="1:5">
@@ -46905,7 +46914,7 @@
         <v>3263</v>
       </c>
       <c r="E1883" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="1884" spans="1:5">
@@ -46919,7 +46928,7 @@
         <v>4041</v>
       </c>
       <c r="D1884" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1884" t="s">
         <v>3265</v>
@@ -46939,7 +46948,7 @@
         <v>3265</v>
       </c>
       <c r="E1885" t="s">
-        <v>4831</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="1886" spans="1:5">
@@ -46953,7 +46962,7 @@
         <v>4043</v>
       </c>
       <c r="D1886" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E1886" t="s">
         <v>3267</v>
@@ -46987,10 +46996,10 @@
         <v>4045</v>
       </c>
       <c r="D1888" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="E1888" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1889" spans="1:5">
@@ -47004,10 +47013,10 @@
         <v>4046</v>
       </c>
       <c r="D1889" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E1889" t="s">
-        <v>4832</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1890" spans="1:5">
@@ -47072,7 +47081,7 @@
         <v>3896</v>
       </c>
       <c r="D1893" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1893" t="s">
         <v>3896</v>
@@ -47157,10 +47166,10 @@
         <v>4052</v>
       </c>
       <c r="D1898" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E1898" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="1899" spans="1:5">
@@ -47191,10 +47200,10 @@
         <v>4054</v>
       </c>
       <c r="D1900" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1900" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1901" spans="1:5">
@@ -47208,7 +47217,7 @@
         <v>4055</v>
       </c>
       <c r="D1901" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="E1901" t="s">
         <v>3281</v>
@@ -47259,7 +47268,7 @@
         <v>3283</v>
       </c>
       <c r="D1904" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="E1904" t="s">
         <v>3284</v>
@@ -47276,7 +47285,7 @@
         <v>4058</v>
       </c>
       <c r="D1905" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E1905" t="s">
         <v>3285</v>
@@ -47293,7 +47302,7 @@
         <v>4059</v>
       </c>
       <c r="D1906" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="E1906" t="s">
         <v>3286</v>
@@ -47310,7 +47319,7 @@
         <v>4060</v>
       </c>
       <c r="D1907" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="E1907" t="s">
         <v>3287</v>
@@ -47378,7 +47387,7 @@
         <v>4064</v>
       </c>
       <c r="D1911" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="E1911" t="s">
         <v>3291</v>
@@ -47412,7 +47421,7 @@
         <v>4065</v>
       </c>
       <c r="D1913" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E1913" t="s">
         <v>3293</v>
@@ -47446,7 +47455,7 @@
         <v>4066</v>
       </c>
       <c r="D1915" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="E1915" t="s">
         <v>3295</v>
@@ -47480,7 +47489,7 @@
         <v>3297</v>
       </c>
       <c r="D1917" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E1917" t="s">
         <v>3297</v>
@@ -47514,7 +47523,7 @@
         <v>4068</v>
       </c>
       <c r="D1919" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="E1919" t="s">
         <v>3299</v>
@@ -47531,7 +47540,7 @@
         <v>4059</v>
       </c>
       <c r="D1920" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E1920" t="s">
         <v>3300</v>
@@ -47548,7 +47557,7 @@
         <v>3127</v>
       </c>
       <c r="D1921" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E1921" t="s">
         <v>3301</v>
@@ -47565,7 +47574,7 @@
         <v>3301</v>
       </c>
       <c r="D1922" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1922" t="s">
         <v>3302</v>
@@ -47582,7 +47591,7 @@
         <v>3302</v>
       </c>
       <c r="D1923" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E1923" t="s">
         <v>3303</v>
@@ -47616,7 +47625,7 @@
         <v>4069</v>
       </c>
       <c r="D1925" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="E1925" t="s">
         <v>3305</v>
@@ -47633,10 +47642,10 @@
         <v>4070</v>
       </c>
       <c r="D1926" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="E1926" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="1927" spans="1:5">
@@ -47684,7 +47693,7 @@
         <v>3308</v>
       </c>
       <c r="D1929" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="E1929" t="s">
         <v>3309</v>
@@ -47718,10 +47727,10 @@
         <v>4073</v>
       </c>
       <c r="D1931" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E1931" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1932" spans="1:5">
@@ -47752,7 +47761,7 @@
         <v>4075</v>
       </c>
       <c r="D1933" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="E1933" t="s">
         <v>3313</v>
@@ -47769,7 +47778,7 @@
         <v>4076</v>
       </c>
       <c r="D1934" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="E1934" t="s">
         <v>3314</v>
@@ -47786,7 +47795,7 @@
         <v>3315</v>
       </c>
       <c r="D1935" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E1935" t="s">
         <v>3315</v>
@@ -47803,7 +47812,7 @@
         <v>4077</v>
       </c>
       <c r="D1936" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E1936" t="s">
         <v>3316</v>
@@ -47871,7 +47880,7 @@
         <v>3290</v>
       </c>
       <c r="D1940" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E1940" t="s">
         <v>3320</v>
@@ -47922,7 +47931,7 @@
         <v>4079</v>
       </c>
       <c r="D1943" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="E1943" t="s">
         <v>3323</v>
@@ -47939,7 +47948,7 @@
         <v>3334</v>
       </c>
       <c r="D1944" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="E1944" t="s">
         <v>3324</v>
@@ -47956,7 +47965,7 @@
         <v>3325</v>
       </c>
       <c r="D1945" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="E1945" t="s">
         <v>3325</v>
@@ -47973,7 +47982,7 @@
         <v>4080</v>
       </c>
       <c r="D1946" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="E1946" t="s">
         <v>3326</v>
@@ -47990,7 +47999,7 @@
         <v>4081</v>
       </c>
       <c r="D1947" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E1947" t="s">
         <v>3327</v>
@@ -48024,7 +48033,7 @@
         <v>4082</v>
       </c>
       <c r="D1949" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="E1949" t="s">
         <v>3329</v>
@@ -48041,7 +48050,7 @@
         <v>4083</v>
       </c>
       <c r="D1950" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="E1950" t="s">
         <v>3330</v>
@@ -48075,7 +48084,7 @@
         <v>4068</v>
       </c>
       <c r="D1952" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="E1952" t="s">
         <v>3332</v>
@@ -48092,7 +48101,7 @@
         <v>4085</v>
       </c>
       <c r="D1953" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="E1953" t="s">
         <v>3333</v>
@@ -48143,7 +48152,7 @@
         <v>4088</v>
       </c>
       <c r="D1956" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="E1956" t="s">
         <v>3336</v>
@@ -48228,7 +48237,7 @@
         <v>4091</v>
       </c>
       <c r="D1961" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="E1961" t="s">
         <v>3341</v>
@@ -48279,7 +48288,7 @@
         <v>4093</v>
       </c>
       <c r="D1964" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="E1964" t="s">
         <v>3343</v>
@@ -48296,7 +48305,7 @@
         <v>4094</v>
       </c>
       <c r="D1965" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="E1965" t="s">
         <v>3344</v>
@@ -48313,7 +48322,7 @@
         <v>4095</v>
       </c>
       <c r="D1966" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="E1966" t="s">
         <v>3345</v>
@@ -48330,7 +48339,7 @@
         <v>4096</v>
       </c>
       <c r="D1967" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="E1967" t="s">
         <v>3346</v>
@@ -48347,7 +48356,7 @@
         <v>3347</v>
       </c>
       <c r="D1968" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E1968" t="s">
         <v>3347</v>
@@ -48364,7 +48373,7 @@
         <v>3348</v>
       </c>
       <c r="D1969" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="E1969" t="s">
         <v>3348</v>
@@ -48381,7 +48390,7 @@
         <v>3321</v>
       </c>
       <c r="D1970" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="E1970" t="s">
         <v>3349</v>
@@ -48398,7 +48407,7 @@
         <v>4097</v>
       </c>
       <c r="D1971" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="E1971" t="s">
         <v>3272</v>
@@ -48432,7 +48441,7 @@
         <v>3292</v>
       </c>
       <c r="D1973" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="E1973" t="s">
         <v>3351</v>
@@ -48466,7 +48475,7 @@
         <v>3337</v>
       </c>
       <c r="D1975" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="E1975" t="s">
         <v>3353</v>
@@ -48483,7 +48492,7 @@
         <v>4098</v>
       </c>
       <c r="D1976" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="E1976" t="s">
         <v>3354</v>
@@ -48500,7 +48509,7 @@
         <v>4099</v>
       </c>
       <c r="D1977" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="E1977" t="s">
         <v>3355</v>
@@ -48517,7 +48526,7 @@
         <v>3336</v>
       </c>
       <c r="D1978" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="E1978" t="s">
         <v>3356</v>
@@ -48534,7 +48543,7 @@
         <v>3907</v>
       </c>
       <c r="D1979" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="E1979" t="s">
         <v>3357</v>
@@ -48602,7 +48611,7 @@
         <v>4102</v>
       </c>
       <c r="D1983" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="E1983" t="s">
         <v>3361</v>
@@ -48619,7 +48628,7 @@
         <v>4103</v>
       </c>
       <c r="D1984" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E1984" t="s">
         <v>3362</v>
@@ -48636,7 +48645,7 @@
         <v>3305</v>
       </c>
       <c r="D1985" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="E1985" t="s">
         <v>3363</v>
@@ -48670,7 +48679,7 @@
         <v>3337</v>
       </c>
       <c r="D1987" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="E1987" t="s">
         <v>3365</v>
@@ -48704,7 +48713,7 @@
         <v>4105</v>
       </c>
       <c r="D1989" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="E1989" t="s">
         <v>3367</v>
@@ -48772,7 +48781,7 @@
         <v>4108</v>
       </c>
       <c r="D1993" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="E1993" t="s">
         <v>3370</v>
@@ -48789,7 +48798,7 @@
         <v>3370</v>
       </c>
       <c r="D1994" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="E1994" t="s">
         <v>3330</v>
@@ -48806,7 +48815,7 @@
         <v>4109</v>
       </c>
       <c r="D1995" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="E1995" t="s">
         <v>3371</v>
@@ -48826,7 +48835,7 @@
         <v>3371</v>
       </c>
       <c r="E1996" t="s">
-        <v>4833</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="1997" spans="1:5">
@@ -48857,7 +48866,7 @@
         <v>4111</v>
       </c>
       <c r="D1998" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="E1998" t="s">
         <v>3374</v>
@@ -48874,7 +48883,7 @@
         <v>3441</v>
       </c>
       <c r="D1999" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="E1999" t="s">
         <v>3375</v>
@@ -48908,7 +48917,7 @@
         <v>3375</v>
       </c>
       <c r="D2001" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="E2001" t="s">
         <v>3376</v>
@@ -48925,7 +48934,7 @@
         <v>4112</v>
       </c>
       <c r="D2002" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="E2002" t="s">
         <v>3377</v>
@@ -48942,7 +48951,7 @@
         <v>4113</v>
       </c>
       <c r="D2003" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="E2003" t="s">
         <v>3378</v>
@@ -48959,7 +48968,7 @@
         <v>4114</v>
       </c>
       <c r="D2004" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="E2004" t="s">
         <v>3379</v>
@@ -48976,7 +48985,7 @@
         <v>3144</v>
       </c>
       <c r="D2005" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="E2005" t="s">
         <v>3380</v>
@@ -48993,7 +49002,7 @@
         <v>4115</v>
       </c>
       <c r="D2006" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="E2006" t="s">
         <v>3381</v>
@@ -49010,7 +49019,7 @@
         <v>4116</v>
       </c>
       <c r="D2007" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="E2007" t="s">
         <v>3382</v>
@@ -49027,7 +49036,7 @@
         <v>4117</v>
       </c>
       <c r="D2008" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="E2008" t="s">
         <v>3383</v>
@@ -49061,7 +49070,7 @@
         <v>4119</v>
       </c>
       <c r="D2010" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="E2010" t="s">
         <v>3385</v>
@@ -49180,7 +49189,7 @@
         <v>4124</v>
       </c>
       <c r="D2017" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="E2017" t="s">
         <v>3392</v>
@@ -49197,7 +49206,7 @@
         <v>4125</v>
       </c>
       <c r="D2018" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="E2018" t="s">
         <v>3393</v>
@@ -49214,7 +49223,7 @@
         <v>4126</v>
       </c>
       <c r="D2019" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="E2019" t="s">
         <v>3394</v>
@@ -49231,10 +49240,10 @@
         <v>4127</v>
       </c>
       <c r="D2020" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="E2020" t="s">
-        <v>4834</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -49282,7 +49291,7 @@
         <v>4129</v>
       </c>
       <c r="D2023" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E2023" t="s">
         <v>3398</v>
@@ -49299,10 +49308,10 @@
         <v>4130</v>
       </c>
       <c r="D2024" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="E2024" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="2025" spans="1:5">
@@ -49316,7 +49325,7 @@
         <v>4131</v>
       </c>
       <c r="D2025" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="E2025" t="s">
         <v>3263</v>
@@ -49333,10 +49342,10 @@
         <v>4132</v>
       </c>
       <c r="D2026" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="E2026" t="s">
-        <v>4835</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -49350,7 +49359,7 @@
         <v>4133</v>
       </c>
       <c r="D2027" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="E2027" t="s">
         <v>3401</v>
@@ -49418,7 +49427,7 @@
         <v>4135</v>
       </c>
       <c r="D2031" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="E2031" t="s">
         <v>3405</v>
@@ -49435,10 +49444,10 @@
         <v>4136</v>
       </c>
       <c r="D2032" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="E2032" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="2033" spans="1:5">
@@ -49503,7 +49512,7 @@
         <v>4139</v>
       </c>
       <c r="D2036" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="E2036" t="s">
         <v>3409</v>
@@ -49520,7 +49529,7 @@
         <v>4134</v>
       </c>
       <c r="D2037" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="E2037" t="s">
         <v>3410</v>
@@ -49554,7 +49563,7 @@
         <v>4140</v>
       </c>
       <c r="D2039" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="E2039" t="s">
         <v>3411</v>
@@ -49588,7 +49597,7 @@
         <v>3144</v>
       </c>
       <c r="D2041" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="E2041" t="s">
         <v>3413</v>
@@ -49605,7 +49614,7 @@
         <v>4142</v>
       </c>
       <c r="D2042" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="E2042" t="s">
         <v>3414</v>
@@ -49673,7 +49682,7 @@
         <v>4145</v>
       </c>
       <c r="D2046" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="E2046" t="s">
         <v>3417</v>
@@ -49690,10 +49699,10 @@
         <v>4146</v>
       </c>
       <c r="D2047" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="E2047" t="s">
-        <v>4836</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="2048" spans="1:5">
@@ -49707,10 +49716,10 @@
         <v>4147</v>
       </c>
       <c r="D2048" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="E2048" t="s">
-        <v>4837</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="2049" spans="1:5">
@@ -49741,10 +49750,10 @@
         <v>4149</v>
       </c>
       <c r="D2050" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="E2050" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="2051" spans="1:5">
@@ -49792,7 +49801,7 @@
         <v>4152</v>
       </c>
       <c r="D2053" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="E2053" t="s">
         <v>3423</v>
@@ -49809,7 +49818,7 @@
         <v>4153</v>
       </c>
       <c r="D2054" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="E2054" t="s">
         <v>3424</v>
@@ -49826,7 +49835,7 @@
         <v>3940</v>
       </c>
       <c r="D2055" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="E2055" t="s">
         <v>3425</v>
@@ -49843,7 +49852,7 @@
         <v>3246</v>
       </c>
       <c r="D2056" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="E2056" t="s">
         <v>3426</v>
@@ -49894,10 +49903,10 @@
         <v>4155</v>
       </c>
       <c r="D2059" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="E2059" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="2060" spans="1:5">
@@ -49911,7 +49920,7 @@
         <v>4156</v>
       </c>
       <c r="D2060" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="E2060" t="s">
         <v>3430</v>
@@ -49962,7 +49971,7 @@
         <v>4158</v>
       </c>
       <c r="D2063" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="E2063" t="s">
         <v>3433</v>
@@ -50047,7 +50056,7 @@
         <v>4162</v>
       </c>
       <c r="D2068" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="E2068" t="s">
         <v>3243</v>
@@ -50098,7 +50107,7 @@
         <v>4165</v>
       </c>
       <c r="D2071" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="E2071" t="s">
         <v>3440</v>
@@ -50115,10 +50124,10 @@
         <v>4157</v>
       </c>
       <c r="D2072" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="E2072" t="s">
-        <v>4838</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -50132,7 +50141,7 @@
         <v>4166</v>
       </c>
       <c r="D2073" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
       <c r="E2073" t="s">
         <v>3442</v>
@@ -50149,10 +50158,10 @@
         <v>4167</v>
       </c>
       <c r="D2074" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
       <c r="E2074" t="s">
-        <v>4839</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="2075" spans="1:5">
@@ -50197,13 +50206,13 @@
         <v>3444</v>
       </c>
       <c r="C2077" t="s">
-        <v>3444</v>
+        <v>4169</v>
       </c>
       <c r="D2077" t="s">
-        <v>3444</v>
+        <v>4717</v>
       </c>
       <c r="E2077" t="s">
-        <v>3444</v>
+        <v>4842</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -12523,7 +12523,7 @@
     <t>3.98750</t>
   </si>
   <si>
-    <t>3.97570</t>
+    <t>3.97770</t>
   </si>
   <si>
     <t>2.93000</t>
@@ -14542,7 +14542,7 @@
     <t>3.98650</t>
   </si>
   <si>
-    <t>3.96950</t>
+    <t>3.96120</t>
   </si>
 </sst>
 </file>

--- a/mercados/usd_pen.xlsx
+++ b/mercados/usd_pen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10395" uniqueCount="4845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10395" uniqueCount="4847">
   <si>
     <t>1. open</t>
   </si>
@@ -12535,6 +12535,9 @@
     <t>3.97770</t>
   </si>
   <si>
+    <t>3.98600</t>
+  </si>
+  <si>
     <t>2.93000</t>
   </si>
   <si>
@@ -14549,6 +14552,9 @@
   </si>
   <si>
     <t>3.98650</t>
+  </si>
+  <si>
+    <t>3.97140</t>
   </si>
 </sst>
 </file>
@@ -15042,7 +15048,7 @@
         <v>2086</v>
       </c>
       <c r="D8" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E8" t="s">
         <v>2088</v>
@@ -15093,7 +15099,7 @@
         <v>2089</v>
       </c>
       <c r="D11" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E11" t="s">
         <v>2090</v>
@@ -15110,10 +15116,10 @@
         <v>2090</v>
       </c>
       <c r="D12" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E12" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15161,7 +15167,7 @@
         <v>2092</v>
       </c>
       <c r="D15" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E15" t="s">
         <v>2093</v>
@@ -15416,7 +15422,7 @@
         <v>2105</v>
       </c>
       <c r="D30" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E30" t="s">
         <v>2106</v>
@@ -15433,7 +15439,7 @@
         <v>2106</v>
       </c>
       <c r="D31" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E31" t="s">
         <v>2107</v>
@@ -15535,7 +15541,7 @@
         <v>2110</v>
       </c>
       <c r="D37" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E37" t="s">
         <v>2110</v>
@@ -15569,7 +15575,7 @@
         <v>2112</v>
       </c>
       <c r="D39" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E39" t="s">
         <v>2112</v>
@@ -15620,7 +15626,7 @@
         <v>3453</v>
       </c>
       <c r="D42" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E42" t="s">
         <v>2113</v>
@@ -15722,7 +15728,7 @@
         <v>2118</v>
       </c>
       <c r="D48" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E48" t="s">
         <v>2119</v>
@@ -15824,7 +15830,7 @@
         <v>2124</v>
       </c>
       <c r="D54" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E54" t="s">
         <v>2125</v>
@@ -15841,7 +15847,7 @@
         <v>2125</v>
       </c>
       <c r="D55" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E55" t="s">
         <v>2122</v>
@@ -15858,7 +15864,7 @@
         <v>3456</v>
       </c>
       <c r="D56" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E56" t="s">
         <v>2126</v>
@@ -15909,7 +15915,7 @@
         <v>2127</v>
       </c>
       <c r="D59" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E59" t="s">
         <v>2128</v>
@@ -15926,7 +15932,7 @@
         <v>2129</v>
       </c>
       <c r="D60" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E60" t="s">
         <v>2129</v>
@@ -15960,7 +15966,7 @@
         <v>2131</v>
       </c>
       <c r="D62" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E62" t="s">
         <v>2131</v>
@@ -15977,7 +15983,7 @@
         <v>3457</v>
       </c>
       <c r="D63" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E63" t="s">
         <v>2132</v>
@@ -15994,7 +16000,7 @@
         <v>2131</v>
       </c>
       <c r="D64" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E64" t="s">
         <v>2133</v>
@@ -16147,7 +16153,7 @@
         <v>2142</v>
       </c>
       <c r="D73" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E73" t="s">
         <v>2142</v>
@@ -16317,7 +16323,7 @@
         <v>2149</v>
       </c>
       <c r="D83" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E83" t="s">
         <v>2150</v>
@@ -16419,7 +16425,7 @@
         <v>2154</v>
       </c>
       <c r="D89" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E89" t="s">
         <v>2152</v>
@@ -16436,7 +16442,7 @@
         <v>2152</v>
       </c>
       <c r="D90" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E90" t="s">
         <v>2155</v>
@@ -16725,7 +16731,7 @@
         <v>3468</v>
       </c>
       <c r="D107" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="E107" t="s">
         <v>2156</v>
@@ -17218,10 +17224,10 @@
         <v>2192</v>
       </c>
       <c r="D136" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E136" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -17303,7 +17309,7 @@
         <v>3483</v>
       </c>
       <c r="D141" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="E141" t="s">
         <v>2197</v>
@@ -17422,7 +17428,7 @@
         <v>3482</v>
       </c>
       <c r="D148" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="E148" t="s">
         <v>2203</v>
@@ -17456,7 +17462,7 @@
         <v>3483</v>
       </c>
       <c r="D150" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="E150" t="s">
         <v>2185</v>
@@ -17473,7 +17479,7 @@
         <v>2204</v>
       </c>
       <c r="D151" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E151" t="s">
         <v>2204</v>
@@ -17490,7 +17496,7 @@
         <v>3488</v>
       </c>
       <c r="D152" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="E152" t="s">
         <v>2191</v>
@@ -17575,7 +17581,7 @@
         <v>3474</v>
       </c>
       <c r="D157" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="E157" t="s">
         <v>2208</v>
@@ -17881,7 +17887,7 @@
         <v>2222</v>
       </c>
       <c r="D175" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E175" t="s">
         <v>2223</v>
@@ -18119,10 +18125,10 @@
         <v>2233</v>
       </c>
       <c r="D189" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E189" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -18258,7 +18264,7 @@
         <v>2240</v>
       </c>
       <c r="E197" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -18680,7 +18686,7 @@
         <v>3506</v>
       </c>
       <c r="D222" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="E222" t="s">
         <v>3506</v>
@@ -18714,7 +18720,7 @@
         <v>2263</v>
       </c>
       <c r="D224" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E224" t="s">
         <v>2263</v>
@@ -19003,10 +19009,10 @@
         <v>2279</v>
       </c>
       <c r="D241" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="E241" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -20349,7 +20355,7 @@
         <v>2344</v>
       </c>
       <c r="E320" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -20448,7 +20454,7 @@
         <v>3540</v>
       </c>
       <c r="D326" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E326" t="s">
         <v>2351</v>
@@ -20686,7 +20692,7 @@
         <v>2360</v>
       </c>
       <c r="D340" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E340" t="s">
         <v>2361</v>
@@ -20703,7 +20709,7 @@
         <v>2361</v>
       </c>
       <c r="D341" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="E341" t="s">
         <v>2362</v>
@@ -20788,7 +20794,7 @@
         <v>2365</v>
       </c>
       <c r="D346" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="E346" t="s">
         <v>2366</v>
@@ -21043,7 +21049,7 @@
         <v>2527</v>
       </c>
       <c r="D361" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E361" t="s">
         <v>2312</v>
@@ -21060,7 +21066,7 @@
         <v>3520</v>
       </c>
       <c r="D362" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="E362" t="s">
         <v>2378</v>
@@ -21264,10 +21270,10 @@
         <v>2388</v>
       </c>
       <c r="D374" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E374" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -21281,7 +21287,7 @@
         <v>2434</v>
       </c>
       <c r="D375" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="E375" t="s">
         <v>2389</v>
@@ -22029,7 +22035,7 @@
         <v>2423</v>
       </c>
       <c r="D419" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E419" t="s">
         <v>2423</v>
@@ -22590,7 +22596,7 @@
         <v>2445</v>
       </c>
       <c r="D452" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E452" t="s">
         <v>2446</v>
@@ -22777,7 +22783,7 @@
         <v>3561</v>
       </c>
       <c r="D463" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="E463" t="s">
         <v>2407</v>
@@ -23049,7 +23055,7 @@
         <v>2467</v>
       </c>
       <c r="D479" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E479" t="s">
         <v>2468</v>
@@ -23117,7 +23123,7 @@
         <v>3566</v>
       </c>
       <c r="D483" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="E483" t="s">
         <v>3525</v>
@@ -23304,7 +23310,7 @@
         <v>3520</v>
       </c>
       <c r="D494" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E494" t="s">
         <v>2479</v>
@@ -24069,7 +24075,7 @@
         <v>2507</v>
       </c>
       <c r="D539" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E539" t="s">
         <v>2508</v>
@@ -24205,7 +24211,7 @@
         <v>2510</v>
       </c>
       <c r="D547" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="E547" t="s">
         <v>2514</v>
@@ -24256,7 +24262,7 @@
         <v>3574</v>
       </c>
       <c r="D550" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="E550" t="s">
         <v>2517</v>
@@ -24273,7 +24279,7 @@
         <v>2369</v>
       </c>
       <c r="D551" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="E551" t="s">
         <v>2487</v>
@@ -24324,7 +24330,7 @@
         <v>3575</v>
       </c>
       <c r="D554" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E554" t="s">
         <v>2520</v>
@@ -24341,7 +24347,7 @@
         <v>3576</v>
       </c>
       <c r="D555" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="E555" t="s">
         <v>2521</v>
@@ -24358,7 +24364,7 @@
         <v>2485</v>
       </c>
       <c r="D556" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E556" t="s">
         <v>2375</v>
@@ -24409,7 +24415,7 @@
         <v>2500</v>
       </c>
       <c r="D559" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E559" t="s">
         <v>2522</v>
@@ -24443,7 +24449,7 @@
         <v>2309</v>
       </c>
       <c r="D561" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E561" t="s">
         <v>2523</v>
@@ -24545,7 +24551,7 @@
         <v>2473</v>
       </c>
       <c r="D567" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="E567" t="s">
         <v>2528</v>
@@ -24579,7 +24585,7 @@
         <v>2955</v>
       </c>
       <c r="D569" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E569" t="s">
         <v>2529</v>
@@ -24596,7 +24602,7 @@
         <v>2529</v>
       </c>
       <c r="D570" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E570" t="s">
         <v>2459</v>
@@ -24630,7 +24636,7 @@
         <v>3582</v>
       </c>
       <c r="D572" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E572" t="s">
         <v>2530</v>
@@ -24664,10 +24670,10 @@
         <v>2370</v>
       </c>
       <c r="D574" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="E574" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -24715,7 +24721,7 @@
         <v>3583</v>
       </c>
       <c r="D577" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="E577" t="s">
         <v>2534</v>
@@ -24783,7 +24789,7 @@
         <v>3584</v>
       </c>
       <c r="D581" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="E581" t="s">
         <v>2538</v>
@@ -24834,7 +24840,7 @@
         <v>2432</v>
       </c>
       <c r="D584" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E584" t="s">
         <v>2290</v>
@@ -24868,7 +24874,7 @@
         <v>3585</v>
       </c>
       <c r="D586" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E586" t="s">
         <v>2542</v>
@@ -24885,7 +24891,7 @@
         <v>2843</v>
       </c>
       <c r="D587" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E587" t="s">
         <v>2543</v>
@@ -24902,7 +24908,7 @@
         <v>2840</v>
       </c>
       <c r="D588" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E588" t="s">
         <v>2544</v>
@@ -24936,7 +24942,7 @@
         <v>2545</v>
       </c>
       <c r="D590" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E590" t="s">
         <v>2546</v>
@@ -25004,7 +25010,7 @@
         <v>2389</v>
       </c>
       <c r="D594" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E594" t="s">
         <v>2550</v>
@@ -25089,7 +25095,7 @@
         <v>2287</v>
       </c>
       <c r="D599" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E599" t="s">
         <v>2553</v>
@@ -25140,7 +25146,7 @@
         <v>2636</v>
       </c>
       <c r="D602" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="E602" t="s">
         <v>2555</v>
@@ -25361,10 +25367,10 @@
         <v>2593</v>
       </c>
       <c r="D615" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E615" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -25412,7 +25418,7 @@
         <v>2548</v>
       </c>
       <c r="D618" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E618" t="s">
         <v>2563</v>
@@ -25514,7 +25520,7 @@
         <v>3593</v>
       </c>
       <c r="D624" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E624" t="s">
         <v>2568</v>
@@ -25755,7 +25761,7 @@
         <v>2553</v>
       </c>
       <c r="E638" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -25820,7 +25826,7 @@
         <v>2286</v>
       </c>
       <c r="D642" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="E642" t="s">
         <v>2576</v>
@@ -26095,7 +26101,7 @@
         <v>2561</v>
       </c>
       <c r="E658" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -26228,7 +26234,7 @@
         <v>2560</v>
       </c>
       <c r="D666" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E666" t="s">
         <v>2434</v>
@@ -26279,7 +26285,7 @@
         <v>2582</v>
       </c>
       <c r="D669" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E669" t="s">
         <v>2595</v>
@@ -26415,7 +26421,7 @@
         <v>2582</v>
       </c>
       <c r="D677" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E677" t="s">
         <v>2591</v>
@@ -26500,7 +26506,7 @@
         <v>3588</v>
       </c>
       <c r="D682" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="E682" t="s">
         <v>2546</v>
@@ -26520,7 +26526,7 @@
         <v>2389</v>
       </c>
       <c r="E683" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -26551,7 +26557,7 @@
         <v>2742</v>
       </c>
       <c r="D685" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E685" t="s">
         <v>2599</v>
@@ -26721,7 +26727,7 @@
         <v>2250</v>
       </c>
       <c r="D695" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E695" t="s">
         <v>2574</v>
@@ -26908,7 +26914,7 @@
         <v>3599</v>
       </c>
       <c r="D706" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E706" t="s">
         <v>2609</v>
@@ -27316,7 +27322,7 @@
         <v>2553</v>
       </c>
       <c r="D730" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E730" t="s">
         <v>2553</v>
@@ -27333,7 +27339,7 @@
         <v>2553</v>
       </c>
       <c r="D731" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E731" t="s">
         <v>2614</v>
@@ -27350,7 +27356,7 @@
         <v>2553</v>
       </c>
       <c r="D732" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="E732" t="s">
         <v>2624</v>
@@ -27452,7 +27458,7 @@
         <v>2580</v>
       </c>
       <c r="D738" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E738" t="s">
         <v>2628</v>
@@ -27469,7 +27475,7 @@
         <v>2624</v>
       </c>
       <c r="D739" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E739" t="s">
         <v>2623</v>
@@ -27503,7 +27509,7 @@
         <v>2623</v>
       </c>
       <c r="D741" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="E741" t="s">
         <v>2630</v>
@@ -27537,7 +27543,7 @@
         <v>2653</v>
       </c>
       <c r="D743" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E743" t="s">
         <v>2632</v>
@@ -27673,7 +27679,7 @@
         <v>2609</v>
       </c>
       <c r="D751" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E751" t="s">
         <v>2635</v>
@@ -27741,7 +27747,7 @@
         <v>2742</v>
       </c>
       <c r="D755" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E755" t="s">
         <v>2637</v>
@@ -27894,7 +27900,7 @@
         <v>2593</v>
       </c>
       <c r="D764" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="E764" t="s">
         <v>2636</v>
@@ -28030,7 +28036,7 @@
         <v>2579</v>
       </c>
       <c r="D772" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E772" t="s">
         <v>2648</v>
@@ -28047,7 +28053,7 @@
         <v>2286</v>
       </c>
       <c r="D773" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="E773" t="s">
         <v>2649</v>
@@ -28064,7 +28070,7 @@
         <v>2256</v>
       </c>
       <c r="D774" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="E774" t="s">
         <v>2650</v>
@@ -28115,7 +28121,7 @@
         <v>2249</v>
       </c>
       <c r="D777" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="E777" t="s">
         <v>2644</v>
@@ -28149,7 +28155,7 @@
         <v>2595</v>
       </c>
       <c r="D779" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E779" t="s">
         <v>2289</v>
@@ -28251,7 +28257,7 @@
         <v>2555</v>
       </c>
       <c r="D785" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E785" t="s">
         <v>2651</v>
@@ -28268,7 +28274,7 @@
         <v>2257</v>
       </c>
       <c r="D786" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E786" t="s">
         <v>2563</v>
@@ -28404,10 +28410,10 @@
         <v>2286</v>
       </c>
       <c r="D794" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E794" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -28421,7 +28427,7 @@
         <v>2571</v>
       </c>
       <c r="D795" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="E795" t="s">
         <v>2624</v>
@@ -28472,10 +28478,10 @@
         <v>2571</v>
       </c>
       <c r="D798" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="E798" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -28710,10 +28716,10 @@
         <v>2859</v>
       </c>
       <c r="D812" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="E812" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -28829,7 +28835,7 @@
         <v>2286</v>
       </c>
       <c r="D819" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="E819" t="s">
         <v>2553</v>
@@ -28931,7 +28937,7 @@
         <v>3614</v>
       </c>
       <c r="D825" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E825" t="s">
         <v>2671</v>
@@ -28948,7 +28954,7 @@
         <v>2698</v>
       </c>
       <c r="D826" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E826" t="s">
         <v>2277</v>
@@ -29152,7 +29158,7 @@
         <v>3615</v>
       </c>
       <c r="D838" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E838" t="s">
         <v>2681</v>
@@ -29186,7 +29192,7 @@
         <v>2698</v>
       </c>
       <c r="D840" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="E840" t="s">
         <v>2278</v>
@@ -29220,7 +29226,7 @@
         <v>3615</v>
       </c>
       <c r="D842" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E842" t="s">
         <v>2683</v>
@@ -29271,7 +29277,7 @@
         <v>3506</v>
       </c>
       <c r="D845" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="E845" t="s">
         <v>2685</v>
@@ -29305,7 +29311,7 @@
         <v>2614</v>
       </c>
       <c r="D847" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="E847" t="s">
         <v>2614</v>
@@ -29356,7 +29362,7 @@
         <v>3618</v>
       </c>
       <c r="D850" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="E850" t="s">
         <v>2556</v>
@@ -29376,7 +29382,7 @@
         <v>2604</v>
       </c>
       <c r="E851" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -29713,7 +29719,7 @@
         <v>2288</v>
       </c>
       <c r="D871" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E871" t="s">
         <v>2695</v>
@@ -29883,7 +29889,7 @@
         <v>2257</v>
       </c>
       <c r="D881" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E881" t="s">
         <v>2282</v>
@@ -29917,7 +29923,7 @@
         <v>3622</v>
       </c>
       <c r="D883" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="E883" t="s">
         <v>2699</v>
@@ -30036,7 +30042,7 @@
         <v>3626</v>
       </c>
       <c r="D890" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="E890" t="s">
         <v>2704</v>
@@ -30104,7 +30110,7 @@
         <v>2577</v>
       </c>
       <c r="D894" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="E894" t="s">
         <v>2669</v>
@@ -30274,7 +30280,7 @@
         <v>2287</v>
       </c>
       <c r="D904" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="E904" t="s">
         <v>2713</v>
@@ -30393,7 +30399,7 @@
         <v>3554</v>
       </c>
       <c r="D911" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E911" t="s">
         <v>2717</v>
@@ -30461,7 +30467,7 @@
         <v>2558</v>
       </c>
       <c r="D915" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="E915" t="s">
         <v>2721</v>
@@ -30614,7 +30620,7 @@
         <v>2733</v>
       </c>
       <c r="D924" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E924" t="s">
         <v>2556</v>
@@ -30818,7 +30824,7 @@
         <v>2389</v>
       </c>
       <c r="D936" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E936" t="s">
         <v>2729</v>
@@ -30903,7 +30909,7 @@
         <v>2543</v>
       </c>
       <c r="D941" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="E941" t="s">
         <v>2733</v>
@@ -30988,7 +30994,7 @@
         <v>3588</v>
       </c>
       <c r="D946" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E946" t="s">
         <v>2390</v>
@@ -31073,7 +31079,7 @@
         <v>2879</v>
       </c>
       <c r="D951" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="E951" t="s">
         <v>2738</v>
@@ -31175,7 +31181,7 @@
         <v>2719</v>
       </c>
       <c r="D957" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E957" t="s">
         <v>2432</v>
@@ -31192,7 +31198,7 @@
         <v>3634</v>
       </c>
       <c r="D958" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E958" t="s">
         <v>2740</v>
@@ -31260,7 +31266,7 @@
         <v>2433</v>
       </c>
       <c r="D962" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="E962" t="s">
         <v>2741</v>
@@ -31515,7 +31521,7 @@
         <v>2585</v>
       </c>
       <c r="D977" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E977" t="s">
         <v>2546</v>
@@ -31600,7 +31606,7 @@
         <v>2739</v>
       </c>
       <c r="D982" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E982" t="s">
         <v>2748</v>
@@ -31651,7 +31657,7 @@
         <v>2300</v>
       </c>
       <c r="D985" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E985" t="s">
         <v>2427</v>
@@ -31685,7 +31691,7 @@
         <v>2862</v>
       </c>
       <c r="D987" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E987" t="s">
         <v>2750</v>
@@ -32042,7 +32048,7 @@
         <v>2402</v>
       </c>
       <c r="D1008" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="E1008" t="s">
         <v>2764</v>
@@ -32059,7 +32065,7 @@
         <v>3643</v>
       </c>
       <c r="D1009" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1009" t="s">
         <v>2765</v>
@@ -32144,7 +32150,7 @@
         <v>2407</v>
       </c>
       <c r="D1014" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="E1014" t="s">
         <v>2455</v>
@@ -32314,7 +32320,7 @@
         <v>2870</v>
       </c>
       <c r="D1024" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="E1024" t="s">
         <v>2457</v>
@@ -32331,7 +32337,7 @@
         <v>2870</v>
       </c>
       <c r="D1025" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="E1025" t="s">
         <v>2457</v>
@@ -32365,7 +32371,7 @@
         <v>2891</v>
       </c>
       <c r="D1027" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="E1027" t="s">
         <v>2762</v>
@@ -32433,7 +32439,7 @@
         <v>2423</v>
       </c>
       <c r="D1031" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="E1031" t="s">
         <v>2776</v>
@@ -32450,7 +32456,7 @@
         <v>2423</v>
       </c>
       <c r="D1032" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="E1032" t="s">
         <v>2777</v>
@@ -32518,7 +32524,7 @@
         <v>2893</v>
       </c>
       <c r="D1036" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="E1036" t="s">
         <v>2780</v>
@@ -32620,7 +32626,7 @@
         <v>2378</v>
       </c>
       <c r="D1042" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="E1042" t="s">
         <v>2785</v>
@@ -32671,7 +32677,7 @@
         <v>3582</v>
       </c>
       <c r="D1045" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E1045" t="s">
         <v>2316</v>
@@ -32773,7 +32779,7 @@
         <v>2482</v>
       </c>
       <c r="D1051" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="E1051" t="s">
         <v>2793</v>
@@ -32875,7 +32881,7 @@
         <v>2792</v>
       </c>
       <c r="D1057" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="E1057" t="s">
         <v>2796</v>
@@ -32946,7 +32952,7 @@
         <v>2307</v>
       </c>
       <c r="E1061" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -33201,7 +33207,7 @@
         <v>2807</v>
       </c>
       <c r="E1076" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1077" spans="1:5">
@@ -33283,7 +33289,7 @@
         <v>3645</v>
       </c>
       <c r="D1081" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="E1081" t="s">
         <v>2381</v>
@@ -33504,7 +33510,7 @@
         <v>2423</v>
       </c>
       <c r="D1094" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="E1094" t="s">
         <v>2818</v>
@@ -33538,7 +33544,7 @@
         <v>2442</v>
       </c>
       <c r="D1096" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="E1096" t="s">
         <v>2300</v>
@@ -33572,7 +33578,7 @@
         <v>2891</v>
       </c>
       <c r="D1098" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="E1098" t="s">
         <v>2820</v>
@@ -33589,7 +33595,7 @@
         <v>2869</v>
       </c>
       <c r="D1099" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1099" t="s">
         <v>2821</v>
@@ -33657,7 +33663,7 @@
         <v>2783</v>
       </c>
       <c r="D1103" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="E1103" t="s">
         <v>2823</v>
@@ -33742,10 +33748,10 @@
         <v>2834</v>
       </c>
       <c r="D1108" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E1108" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
@@ -33759,10 +33765,10 @@
         <v>2371</v>
       </c>
       <c r="D1109" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1109" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
@@ -33793,7 +33799,7 @@
         <v>2892</v>
       </c>
       <c r="D1111" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E1111" t="s">
         <v>2836</v>
@@ -33810,7 +33816,7 @@
         <v>2834</v>
       </c>
       <c r="D1112" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1112" t="s">
         <v>2831</v>
@@ -33963,7 +33969,7 @@
         <v>2836</v>
       </c>
       <c r="D1121" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1121" t="s">
         <v>2837</v>
@@ -33997,7 +34003,7 @@
         <v>3647</v>
       </c>
       <c r="D1123" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="E1123" t="s">
         <v>2838</v>
@@ -34014,7 +34020,7 @@
         <v>3648</v>
       </c>
       <c r="D1124" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1124" t="s">
         <v>2766</v>
@@ -34031,7 +34037,7 @@
         <v>3649</v>
       </c>
       <c r="D1125" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="E1125" t="s">
         <v>2838</v>
@@ -34048,7 +34054,7 @@
         <v>3650</v>
       </c>
       <c r="D1126" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1126" t="s">
         <v>2839</v>
@@ -34167,7 +34173,7 @@
         <v>2402</v>
       </c>
       <c r="D1133" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="E1133" t="s">
         <v>2842</v>
@@ -34201,7 +34207,7 @@
         <v>3653</v>
       </c>
       <c r="D1135" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E1135" t="s">
         <v>2843</v>
@@ -34235,7 +34241,7 @@
         <v>2756</v>
       </c>
       <c r="D1137" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="E1137" t="s">
         <v>2558</v>
@@ -34371,7 +34377,7 @@
         <v>2828</v>
       </c>
       <c r="D1145" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="E1145" t="s">
         <v>2849</v>
@@ -34405,7 +34411,7 @@
         <v>2909</v>
       </c>
       <c r="D1147" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E1147" t="s">
         <v>2750</v>
@@ -34456,7 +34462,7 @@
         <v>3658</v>
       </c>
       <c r="D1150" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="E1150" t="s">
         <v>2852</v>
@@ -34473,7 +34479,7 @@
         <v>3583</v>
       </c>
       <c r="D1151" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E1151" t="s">
         <v>3640</v>
@@ -34490,7 +34496,7 @@
         <v>2852</v>
       </c>
       <c r="D1152" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E1152" t="s">
         <v>2853</v>
@@ -34558,7 +34564,7 @@
         <v>2398</v>
       </c>
       <c r="D1156" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E1156" t="s">
         <v>2855</v>
@@ -34609,7 +34615,7 @@
         <v>3583</v>
       </c>
       <c r="D1159" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E1159" t="s">
         <v>2855</v>
@@ -34660,7 +34666,7 @@
         <v>3643</v>
       </c>
       <c r="D1162" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E1162" t="s">
         <v>2858</v>
@@ -34728,7 +34734,7 @@
         <v>2834</v>
       </c>
       <c r="D1166" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="E1166" t="s">
         <v>2826</v>
@@ -34745,7 +34751,7 @@
         <v>2826</v>
       </c>
       <c r="D1167" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="E1167" t="s">
         <v>2299</v>
@@ -34762,7 +34768,7 @@
         <v>2299</v>
       </c>
       <c r="D1168" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E1168" t="s">
         <v>2837</v>
@@ -34779,7 +34785,7 @@
         <v>2837</v>
       </c>
       <c r="D1169" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1169" t="s">
         <v>2859</v>
@@ -34796,7 +34802,7 @@
         <v>2862</v>
       </c>
       <c r="D1170" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="E1170" t="s">
         <v>2296</v>
@@ -34813,7 +34819,7 @@
         <v>2296</v>
       </c>
       <c r="D1171" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1171" t="s">
         <v>2859</v>
@@ -34830,7 +34836,7 @@
         <v>3647</v>
       </c>
       <c r="D1172" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="E1172" t="s">
         <v>2402</v>
@@ -34864,7 +34870,7 @@
         <v>2296</v>
       </c>
       <c r="D1174" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1174" t="s">
         <v>2420</v>
@@ -34915,7 +34921,7 @@
         <v>2423</v>
       </c>
       <c r="D1177" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E1177" t="s">
         <v>2861</v>
@@ -34966,7 +34972,7 @@
         <v>3662</v>
       </c>
       <c r="D1180" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E1180" t="s">
         <v>2532</v>
@@ -34983,7 +34989,7 @@
         <v>2773</v>
       </c>
       <c r="D1181" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="E1181" t="s">
         <v>2817</v>
@@ -35000,7 +35006,7 @@
         <v>2868</v>
       </c>
       <c r="D1182" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1182" t="s">
         <v>2863</v>
@@ -35017,7 +35023,7 @@
         <v>3663</v>
       </c>
       <c r="D1183" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E1183" t="s">
         <v>2864</v>
@@ -35136,7 +35142,7 @@
         <v>2308</v>
       </c>
       <c r="D1190" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E1190" t="s">
         <v>2867</v>
@@ -35255,7 +35261,7 @@
         <v>2833</v>
       </c>
       <c r="D1197" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="E1197" t="s">
         <v>2773</v>
@@ -35289,7 +35295,7 @@
         <v>3667</v>
       </c>
       <c r="D1199" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1199" t="s">
         <v>2776</v>
@@ -35306,7 +35312,7 @@
         <v>2423</v>
       </c>
       <c r="D1200" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E1200" t="s">
         <v>2870</v>
@@ -35357,7 +35363,7 @@
         <v>2872</v>
       </c>
       <c r="D1203" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E1203" t="s">
         <v>2778</v>
@@ -35391,7 +35397,7 @@
         <v>2873</v>
       </c>
       <c r="D1205" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E1205" t="s">
         <v>2298</v>
@@ -35408,7 +35414,7 @@
         <v>2427</v>
       </c>
       <c r="D1206" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1206" t="s">
         <v>2757</v>
@@ -35425,7 +35431,7 @@
         <v>2859</v>
       </c>
       <c r="D1207" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E1207" t="s">
         <v>2875</v>
@@ -35476,7 +35482,7 @@
         <v>2876</v>
       </c>
       <c r="D1210" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E1210" t="s">
         <v>2559</v>
@@ -35493,7 +35499,7 @@
         <v>2768</v>
       </c>
       <c r="D1211" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E1211" t="s">
         <v>2719</v>
@@ -35510,7 +35516,7 @@
         <v>2254</v>
       </c>
       <c r="D1212" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="E1212" t="s">
         <v>2538</v>
@@ -35612,7 +35618,7 @@
         <v>2848</v>
       </c>
       <c r="D1218" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1218" t="s">
         <v>2857</v>
@@ -35629,7 +35635,7 @@
         <v>2766</v>
       </c>
       <c r="D1219" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E1219" t="s">
         <v>2879</v>
@@ -35646,7 +35652,7 @@
         <v>2545</v>
       </c>
       <c r="D1220" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E1220" t="s">
         <v>2880</v>
@@ -35697,7 +35703,7 @@
         <v>3517</v>
       </c>
       <c r="D1223" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="E1223" t="s">
         <v>2881</v>
@@ -35714,7 +35720,7 @@
         <v>3517</v>
       </c>
       <c r="D1224" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="E1224" t="s">
         <v>3517</v>
@@ -35731,7 +35737,7 @@
         <v>2538</v>
       </c>
       <c r="D1225" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E1225" t="s">
         <v>2880</v>
@@ -35748,7 +35754,7 @@
         <v>2545</v>
       </c>
       <c r="D1226" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E1226" t="s">
         <v>2293</v>
@@ -35799,7 +35805,7 @@
         <v>2558</v>
       </c>
       <c r="D1229" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="E1229" t="s">
         <v>2536</v>
@@ -35833,10 +35839,10 @@
         <v>2840</v>
       </c>
       <c r="D1231" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="E1231" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35850,7 +35856,7 @@
         <v>3583</v>
       </c>
       <c r="D1232" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E1232" t="s">
         <v>2398</v>
@@ -36020,7 +36026,7 @@
         <v>2886</v>
       </c>
       <c r="D1242" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E1242" t="s">
         <v>2792</v>
@@ -36037,7 +36043,7 @@
         <v>2473</v>
       </c>
       <c r="D1243" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="E1243" t="s">
         <v>2473</v>
@@ -36088,7 +36094,7 @@
         <v>2520</v>
       </c>
       <c r="D1246" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="E1246" t="s">
         <v>2790</v>
@@ -36122,7 +36128,7 @@
         <v>2887</v>
       </c>
       <c r="D1248" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E1248" t="s">
         <v>2482</v>
@@ -36139,7 +36145,7 @@
         <v>2482</v>
       </c>
       <c r="D1249" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1249" t="s">
         <v>2307</v>
@@ -36173,7 +36179,7 @@
         <v>3672</v>
       </c>
       <c r="D1251" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="E1251" t="s">
         <v>2796</v>
@@ -36241,7 +36247,7 @@
         <v>2327</v>
       </c>
       <c r="D1255" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1255" t="s">
         <v>2485</v>
@@ -36326,7 +36332,7 @@
         <v>2790</v>
       </c>
       <c r="D1260" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1260" t="s">
         <v>2497</v>
@@ -36377,7 +36383,7 @@
         <v>2462</v>
       </c>
       <c r="D1263" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1263" t="s">
         <v>2865</v>
@@ -36411,7 +36417,7 @@
         <v>2891</v>
       </c>
       <c r="D1265" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="E1265" t="s">
         <v>2892</v>
@@ -36428,7 +36434,7 @@
         <v>3518</v>
       </c>
       <c r="D1266" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="E1266" t="s">
         <v>2836</v>
@@ -36649,7 +36655,7 @@
         <v>3680</v>
       </c>
       <c r="D1279" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="E1279" t="s">
         <v>2897</v>
@@ -36666,7 +36672,7 @@
         <v>2897</v>
       </c>
       <c r="D1280" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E1280" t="s">
         <v>2789</v>
@@ -36683,7 +36689,7 @@
         <v>3681</v>
       </c>
       <c r="D1281" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1281" t="s">
         <v>2527</v>
@@ -36768,7 +36774,7 @@
         <v>2308</v>
       </c>
       <c r="D1286" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1286" t="s">
         <v>2895</v>
@@ -36785,7 +36791,7 @@
         <v>2954</v>
       </c>
       <c r="D1287" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="E1287" t="s">
         <v>2378</v>
@@ -36972,7 +36978,7 @@
         <v>2814</v>
       </c>
       <c r="D1298" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E1298" t="s">
         <v>2899</v>
@@ -37193,7 +37199,7 @@
         <v>2901</v>
       </c>
       <c r="D1311" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1311" t="s">
         <v>2313</v>
@@ -37210,7 +37216,7 @@
         <v>3683</v>
       </c>
       <c r="D1312" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="E1312" t="s">
         <v>2315</v>
@@ -37312,7 +37318,7 @@
         <v>2957</v>
       </c>
       <c r="D1318" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1318" t="s">
         <v>2794</v>
@@ -37363,7 +37369,7 @@
         <v>3690</v>
       </c>
       <c r="D1321" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E1321" t="s">
         <v>2902</v>
@@ -37380,7 +37386,7 @@
         <v>3690</v>
       </c>
       <c r="D1322" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="E1322" t="s">
         <v>2521</v>
@@ -37397,7 +37403,7 @@
         <v>2955</v>
       </c>
       <c r="D1323" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="E1323" t="s">
         <v>2481</v>
@@ -37431,7 +37437,7 @@
         <v>2375</v>
       </c>
       <c r="D1325" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E1325" t="s">
         <v>2373</v>
@@ -37533,7 +37539,7 @@
         <v>3694</v>
       </c>
       <c r="D1331" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="E1331" t="s">
         <v>2905</v>
@@ -37550,7 +37556,7 @@
         <v>3695</v>
       </c>
       <c r="D1332" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E1332" t="s">
         <v>2906</v>
@@ -37584,7 +37590,7 @@
         <v>3696</v>
       </c>
       <c r="D1334" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="E1334" t="s">
         <v>2412</v>
@@ -37601,7 +37607,7 @@
         <v>3697</v>
       </c>
       <c r="D1335" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="E1335" t="s">
         <v>2762</v>
@@ -37618,7 +37624,7 @@
         <v>3698</v>
       </c>
       <c r="D1336" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="E1336" t="s">
         <v>2418</v>
@@ -37635,7 +37641,7 @@
         <v>3699</v>
       </c>
       <c r="D1337" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1337" t="s">
         <v>2300</v>
@@ -37686,7 +37692,7 @@
         <v>3700</v>
       </c>
       <c r="D1340" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E1340" t="s">
         <v>2428</v>
@@ -37720,7 +37726,7 @@
         <v>3701</v>
       </c>
       <c r="D1342" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1342" t="s">
         <v>2532</v>
@@ -37737,7 +37743,7 @@
         <v>3652</v>
       </c>
       <c r="D1343" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="E1343" t="s">
         <v>2835</v>
@@ -37839,7 +37845,7 @@
         <v>2826</v>
       </c>
       <c r="D1349" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="E1349" t="s">
         <v>2418</v>
@@ -37859,7 +37865,7 @@
         <v>2763</v>
       </c>
       <c r="E1350" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -37873,7 +37879,7 @@
         <v>3704</v>
       </c>
       <c r="D1351" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E1351" t="s">
         <v>2773</v>
@@ -37924,7 +37930,7 @@
         <v>2371</v>
       </c>
       <c r="D1354" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E1354" t="s">
         <v>2403</v>
@@ -37941,7 +37947,7 @@
         <v>3705</v>
       </c>
       <c r="D1355" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1355" t="s">
         <v>2442</v>
@@ -37958,7 +37964,7 @@
         <v>3700</v>
       </c>
       <c r="D1356" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E1356" t="s">
         <v>2828</v>
@@ -37992,7 +37998,7 @@
         <v>2836</v>
       </c>
       <c r="D1358" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="E1358" t="s">
         <v>2850</v>
@@ -38009,7 +38015,7 @@
         <v>2849</v>
       </c>
       <c r="D1359" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1359" t="s">
         <v>2908</v>
@@ -38026,7 +38032,7 @@
         <v>3699</v>
       </c>
       <c r="D1360" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1360" t="s">
         <v>2909</v>
@@ -38145,7 +38151,7 @@
         <v>2794</v>
       </c>
       <c r="D1367" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="E1367" t="s">
         <v>2910</v>
@@ -38179,7 +38185,7 @@
         <v>2321</v>
       </c>
       <c r="D1369" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E1369" t="s">
         <v>2912</v>
@@ -38383,7 +38389,7 @@
         <v>3693</v>
       </c>
       <c r="D1381" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E1381" t="s">
         <v>2516</v>
@@ -38451,7 +38457,7 @@
         <v>3710</v>
       </c>
       <c r="D1385" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="E1385" t="s">
         <v>2919</v>
@@ -38485,7 +38491,7 @@
         <v>3712</v>
       </c>
       <c r="D1387" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1387" t="s">
         <v>2921</v>
@@ -38502,10 +38508,10 @@
         <v>3713</v>
       </c>
       <c r="D1388" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="E1388" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -38519,10 +38525,10 @@
         <v>2973</v>
       </c>
       <c r="D1389" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1389" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -38536,7 +38542,7 @@
         <v>3714</v>
       </c>
       <c r="D1390" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E1390" t="s">
         <v>3711</v>
@@ -38587,10 +38593,10 @@
         <v>3717</v>
       </c>
       <c r="D1393" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="E1393" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -38604,10 +38610,10 @@
         <v>3718</v>
       </c>
       <c r="D1394" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E1394" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -38621,10 +38627,10 @@
         <v>3719</v>
       </c>
       <c r="D1395" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="E1395" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -38638,7 +38644,7 @@
         <v>3720</v>
       </c>
       <c r="D1396" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1396" t="s">
         <v>2930</v>
@@ -38655,10 +38661,10 @@
         <v>3721</v>
       </c>
       <c r="D1397" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="E1397" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -38675,7 +38681,7 @@
         <v>2361</v>
       </c>
       <c r="E1398" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -38689,10 +38695,10 @@
         <v>3723</v>
       </c>
       <c r="D1399" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="E1399" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -38706,10 +38712,10 @@
         <v>3078</v>
       </c>
       <c r="D1400" t="s">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="E1400" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38723,7 +38729,7 @@
         <v>3721</v>
       </c>
       <c r="D1401" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="E1401" t="s">
         <v>2935</v>
@@ -38743,7 +38749,7 @@
         <v>2355</v>
       </c>
       <c r="E1402" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -38760,7 +38766,7 @@
         <v>3541</v>
       </c>
       <c r="E1403" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -38774,10 +38780,10 @@
         <v>3008</v>
       </c>
       <c r="D1404" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="E1404" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -38794,7 +38800,7 @@
         <v>2790</v>
       </c>
       <c r="E1405" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38808,7 +38814,7 @@
         <v>3726</v>
       </c>
       <c r="D1406" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="E1406" t="s">
         <v>2918</v>
@@ -38845,7 +38851,7 @@
         <v>2332</v>
       </c>
       <c r="E1408" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1409" spans="1:5">
@@ -38859,10 +38865,10 @@
         <v>3728</v>
       </c>
       <c r="D1409" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="E1409" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -38893,7 +38899,7 @@
         <v>3729</v>
       </c>
       <c r="D1411" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="E1411" t="s">
         <v>2944</v>
@@ -38927,7 +38933,7 @@
         <v>2945</v>
       </c>
       <c r="D1413" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1413" t="s">
         <v>3676</v>
@@ -38995,10 +39001,10 @@
         <v>3731</v>
       </c>
       <c r="D1417" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E1417" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
@@ -39029,10 +39035,10 @@
         <v>3733</v>
       </c>
       <c r="D1419" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="E1419" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -39097,7 +39103,7 @@
         <v>3736</v>
       </c>
       <c r="D1423" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="E1423" t="s">
         <v>2953</v>
@@ -39117,7 +39123,7 @@
         <v>2894</v>
       </c>
       <c r="E1424" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -39134,7 +39140,7 @@
         <v>2891</v>
       </c>
       <c r="E1425" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1426" spans="1:5">
@@ -39148,7 +39154,7 @@
         <v>2471</v>
       </c>
       <c r="D1426" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="E1426" t="s">
         <v>2955</v>
@@ -39168,7 +39174,7 @@
         <v>2473</v>
       </c>
       <c r="E1427" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1428" spans="1:5">
@@ -39182,10 +39188,10 @@
         <v>2519</v>
       </c>
       <c r="D1428" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1428" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -39202,7 +39208,7 @@
         <v>2526</v>
       </c>
       <c r="E1429" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -39253,7 +39259,7 @@
         <v>2959</v>
       </c>
       <c r="E1432" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1433" spans="1:5">
@@ -39270,7 +39276,7 @@
         <v>2789</v>
       </c>
       <c r="E1433" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1434" spans="1:5">
@@ -39287,7 +39293,7 @@
         <v>2487</v>
       </c>
       <c r="E1434" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -39338,7 +39344,7 @@
         <v>3568</v>
       </c>
       <c r="E1437" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -39369,7 +39375,7 @@
         <v>3740</v>
       </c>
       <c r="D1439" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="E1439" t="s">
         <v>2966</v>
@@ -39386,10 +39392,10 @@
         <v>3741</v>
       </c>
       <c r="D1440" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E1440" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -39420,7 +39426,7 @@
         <v>2968</v>
       </c>
       <c r="D1442" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="E1442" t="s">
         <v>2333</v>
@@ -39505,7 +39511,7 @@
         <v>3744</v>
       </c>
       <c r="D1447" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1447" t="s">
         <v>2972</v>
@@ -39522,7 +39528,7 @@
         <v>3745</v>
       </c>
       <c r="D1448" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="E1448" t="s">
         <v>2973</v>
@@ -39556,7 +39562,7 @@
         <v>3747</v>
       </c>
       <c r="D1450" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="E1450" t="s">
         <v>2975</v>
@@ -39590,7 +39596,7 @@
         <v>3748</v>
       </c>
       <c r="D1452" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E1452" t="s">
         <v>2977</v>
@@ -39607,7 +39613,7 @@
         <v>2977</v>
       </c>
       <c r="D1453" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="E1453" t="s">
         <v>2978</v>
@@ -39624,7 +39630,7 @@
         <v>2488</v>
       </c>
       <c r="D1454" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1454" t="s">
         <v>2952</v>
@@ -39641,7 +39647,7 @@
         <v>2333</v>
       </c>
       <c r="D1455" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="E1455" t="s">
         <v>2333</v>
@@ -39675,10 +39681,10 @@
         <v>3750</v>
       </c>
       <c r="D1457" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E1457" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -39692,10 +39698,10 @@
         <v>3751</v>
       </c>
       <c r="D1458" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="E1458" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -39709,7 +39715,7 @@
         <v>3752</v>
       </c>
       <c r="D1459" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="E1459" t="s">
         <v>2333</v>
@@ -39729,7 +39735,7 @@
         <v>2982</v>
       </c>
       <c r="E1460" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -39777,10 +39783,10 @@
         <v>3756</v>
       </c>
       <c r="D1463" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="E1463" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39794,10 +39800,10 @@
         <v>3757</v>
       </c>
       <c r="D1464" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E1464" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -39811,7 +39817,7 @@
         <v>3758</v>
       </c>
       <c r="D1465" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1465" t="s">
         <v>3758</v>
@@ -39845,7 +39851,7 @@
         <v>3760</v>
       </c>
       <c r="D1467" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="E1467" t="s">
         <v>2988</v>
@@ -39862,7 +39868,7 @@
         <v>3761</v>
       </c>
       <c r="D1468" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="E1468" t="s">
         <v>2988</v>
@@ -39896,10 +39902,10 @@
         <v>3009</v>
       </c>
       <c r="D1470" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="E1470" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -39913,10 +39919,10 @@
         <v>3763</v>
       </c>
       <c r="D1471" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1471" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -39930,7 +39936,7 @@
         <v>2360</v>
       </c>
       <c r="D1472" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="E1472" t="s">
         <v>2991</v>
@@ -39947,7 +39953,7 @@
         <v>3764</v>
       </c>
       <c r="D1473" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E1473" t="s">
         <v>3011</v>
@@ -39964,10 +39970,10 @@
         <v>3765</v>
       </c>
       <c r="D1474" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="E1474" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -39981,10 +39987,10 @@
         <v>2990</v>
       </c>
       <c r="D1475" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1475" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
@@ -40015,10 +40021,10 @@
         <v>3767</v>
       </c>
       <c r="D1477" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1477" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
@@ -40032,10 +40038,10 @@
         <v>3768</v>
       </c>
       <c r="D1478" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="E1478" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -40052,7 +40058,7 @@
         <v>2997</v>
       </c>
       <c r="E1479" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1480" spans="1:5">
@@ -40083,7 +40089,7 @@
         <v>3771</v>
       </c>
       <c r="D1481" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1481" t="s">
         <v>2988</v>
@@ -40100,10 +40106,10 @@
         <v>3541</v>
       </c>
       <c r="D1482" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1482" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -40120,7 +40126,7 @@
         <v>2999</v>
       </c>
       <c r="E1483" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -40134,10 +40140,10 @@
         <v>2988</v>
       </c>
       <c r="D1484" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="E1484" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -40151,10 +40157,10 @@
         <v>2353</v>
       </c>
       <c r="D1485" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="E1485" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
@@ -40168,7 +40174,7 @@
         <v>3772</v>
       </c>
       <c r="D1486" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="E1486" t="s">
         <v>3003</v>
@@ -40185,7 +40191,7 @@
         <v>3761</v>
       </c>
       <c r="D1487" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1487" t="s">
         <v>3004</v>
@@ -40236,7 +40242,7 @@
         <v>3773</v>
       </c>
       <c r="D1490" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="E1490" t="s">
         <v>3007</v>
@@ -40270,7 +40276,7 @@
         <v>3774</v>
       </c>
       <c r="D1492" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="E1492" t="s">
         <v>3009</v>
@@ -40287,7 +40293,7 @@
         <v>3009</v>
       </c>
       <c r="D1493" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="E1493" t="s">
         <v>3009</v>
@@ -40321,7 +40327,7 @@
         <v>2993</v>
       </c>
       <c r="D1495" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="E1495" t="s">
         <v>2359</v>
@@ -40338,7 +40344,7 @@
         <v>3776</v>
       </c>
       <c r="D1496" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="E1496" t="s">
         <v>3010</v>
@@ -40355,7 +40361,7 @@
         <v>3777</v>
       </c>
       <c r="D1497" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="E1497" t="s">
         <v>2992</v>
@@ -40372,10 +40378,10 @@
         <v>3767</v>
       </c>
       <c r="D1498" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E1498" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1499" spans="1:5">
@@ -40389,10 +40395,10 @@
         <v>3778</v>
       </c>
       <c r="D1499" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E1499" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1500" spans="1:5">
@@ -40409,7 +40415,7 @@
         <v>3793</v>
       </c>
       <c r="E1500" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1501" spans="1:5">
@@ -40457,7 +40463,7 @@
         <v>3780</v>
       </c>
       <c r="D1503" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="E1503" t="s">
         <v>3037</v>
@@ -40491,7 +40497,7 @@
         <v>3782</v>
       </c>
       <c r="D1505" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1505" t="s">
         <v>3077</v>
@@ -40508,7 +40514,7 @@
         <v>3783</v>
       </c>
       <c r="D1506" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1506" t="s">
         <v>3019</v>
@@ -40528,7 +40534,7 @@
         <v>3018</v>
       </c>
       <c r="E1507" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -40542,10 +40548,10 @@
         <v>3784</v>
       </c>
       <c r="D1508" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1508" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
@@ -40576,10 +40582,10 @@
         <v>3786</v>
       </c>
       <c r="D1510" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1510" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -40593,7 +40599,7 @@
         <v>3094</v>
       </c>
       <c r="D1511" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E1511" t="s">
         <v>3024</v>
@@ -40613,7 +40619,7 @@
         <v>3785</v>
       </c>
       <c r="E1512" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
@@ -40630,7 +40636,7 @@
         <v>3036</v>
       </c>
       <c r="E1513" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -40644,7 +40650,7 @@
         <v>3789</v>
       </c>
       <c r="D1514" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="E1514" t="s">
         <v>3077</v>
@@ -40661,7 +40667,7 @@
         <v>3790</v>
       </c>
       <c r="D1515" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="E1515" t="s">
         <v>3027</v>
@@ -40698,7 +40704,7 @@
         <v>3028</v>
       </c>
       <c r="E1517" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -40715,7 +40721,7 @@
         <v>2937</v>
       </c>
       <c r="E1518" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
@@ -40729,10 +40735,10 @@
         <v>3793</v>
       </c>
       <c r="D1519" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="E1519" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -40746,10 +40752,10 @@
         <v>3031</v>
       </c>
       <c r="D1520" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1520" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -40763,7 +40769,7 @@
         <v>3794</v>
       </c>
       <c r="D1521" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1521" t="s">
         <v>3032</v>
@@ -40783,7 +40789,7 @@
         <v>3032</v>
       </c>
       <c r="E1522" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40797,10 +40803,10 @@
         <v>3015</v>
       </c>
       <c r="D1523" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E1523" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1524" spans="1:5">
@@ -40814,10 +40820,10 @@
         <v>3795</v>
       </c>
       <c r="D1524" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1524" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -40831,7 +40837,7 @@
         <v>3796</v>
       </c>
       <c r="D1525" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="E1525" t="s">
         <v>3013</v>
@@ -40865,10 +40871,10 @@
         <v>3036</v>
       </c>
       <c r="D1527" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="E1527" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1528" spans="1:5">
@@ -40882,10 +40888,10 @@
         <v>3037</v>
       </c>
       <c r="D1528" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="E1528" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40899,7 +40905,7 @@
         <v>3798</v>
       </c>
       <c r="D1529" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1529" t="s">
         <v>3032</v>
@@ -40916,10 +40922,10 @@
         <v>3766</v>
       </c>
       <c r="D1530" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="E1530" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40933,10 +40939,10 @@
         <v>3799</v>
       </c>
       <c r="D1531" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E1531" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40950,10 +40956,10 @@
         <v>3015</v>
       </c>
       <c r="D1532" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="E1532" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40967,7 +40973,7 @@
         <v>3800</v>
       </c>
       <c r="D1533" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="E1533" t="s">
         <v>3043</v>
@@ -41021,7 +41027,7 @@
         <v>3043</v>
       </c>
       <c r="E1536" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1537" spans="1:5">
@@ -41052,10 +41058,10 @@
         <v>3805</v>
       </c>
       <c r="D1538" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1538" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1539" spans="1:5">
@@ -41086,7 +41092,7 @@
         <v>3807</v>
       </c>
       <c r="D1540" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E1540" t="s">
         <v>3084</v>
@@ -41103,7 +41109,7 @@
         <v>3808</v>
       </c>
       <c r="D1541" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="E1541" t="s">
         <v>3049</v>
@@ -41137,10 +41143,10 @@
         <v>3049</v>
       </c>
       <c r="D1543" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="E1543" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -41154,10 +41160,10 @@
         <v>3810</v>
       </c>
       <c r="D1544" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1544" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -41171,10 +41177,10 @@
         <v>3811</v>
       </c>
       <c r="D1545" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="E1545" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41222,7 +41228,7 @@
         <v>3813</v>
       </c>
       <c r="D1548" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="E1548" t="s">
         <v>3054</v>
@@ -41239,7 +41245,7 @@
         <v>3814</v>
       </c>
       <c r="D1549" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="E1549" t="s">
         <v>3055</v>
@@ -41256,10 +41262,10 @@
         <v>3815</v>
       </c>
       <c r="D1550" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="E1550" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41273,7 +41279,7 @@
         <v>3816</v>
       </c>
       <c r="D1551" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1551" t="s">
         <v>3057</v>
@@ -41290,7 +41296,7 @@
         <v>3817</v>
       </c>
       <c r="D1552" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="E1552" t="s">
         <v>3058</v>
@@ -41324,7 +41330,7 @@
         <v>3819</v>
       </c>
       <c r="D1554" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1554" t="s">
         <v>3060</v>
@@ -41341,10 +41347,10 @@
         <v>3820</v>
       </c>
       <c r="D1555" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1555" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -41375,7 +41381,7 @@
         <v>3822</v>
       </c>
       <c r="D1557" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="E1557" t="s">
         <v>3829</v>
@@ -41392,10 +41398,10 @@
         <v>3823</v>
       </c>
       <c r="D1558" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E1558" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1559" spans="1:5">
@@ -41412,7 +41418,7 @@
         <v>3090</v>
       </c>
       <c r="E1559" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -41426,10 +41432,10 @@
         <v>3825</v>
       </c>
       <c r="D1560" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E1560" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -41443,7 +41449,7 @@
         <v>3826</v>
       </c>
       <c r="D1561" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1561" t="s">
         <v>3066</v>
@@ -41460,10 +41466,10 @@
         <v>3826</v>
       </c>
       <c r="D1562" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E1562" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -41477,10 +41483,10 @@
         <v>3067</v>
       </c>
       <c r="D1563" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="E1563" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1564" spans="1:5">
@@ -41494,7 +41500,7 @@
         <v>3827</v>
       </c>
       <c r="D1564" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1564" t="s">
         <v>3098</v>
@@ -41514,7 +41520,7 @@
         <v>3782</v>
       </c>
       <c r="E1565" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -41528,7 +41534,7 @@
         <v>3829</v>
       </c>
       <c r="D1566" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E1566" t="s">
         <v>3071</v>
@@ -41545,7 +41551,7 @@
         <v>3071</v>
       </c>
       <c r="D1567" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E1567" t="s">
         <v>3056</v>
@@ -41565,7 +41571,7 @@
         <v>3077</v>
       </c>
       <c r="E1568" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1569" spans="1:5">
@@ -41579,7 +41585,7 @@
         <v>3072</v>
       </c>
       <c r="D1569" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="E1569" t="s">
         <v>3072</v>
@@ -41596,10 +41602,10 @@
         <v>3831</v>
       </c>
       <c r="D1570" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="E1570" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -41613,10 +41619,10 @@
         <v>3108</v>
       </c>
       <c r="D1571" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E1571" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1572" spans="1:5">
@@ -41630,10 +41636,10 @@
         <v>3832</v>
       </c>
       <c r="D1572" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E1572" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -41647,7 +41653,7 @@
         <v>3076</v>
       </c>
       <c r="D1573" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E1573" t="s">
         <v>3061</v>
@@ -41664,7 +41670,7 @@
         <v>3833</v>
       </c>
       <c r="D1574" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="E1574" t="s">
         <v>3018</v>
@@ -41681,10 +41687,10 @@
         <v>3020</v>
       </c>
       <c r="D1575" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1575" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -41698,7 +41704,7 @@
         <v>3804</v>
       </c>
       <c r="D1576" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="E1576" t="s">
         <v>3079</v>
@@ -41715,7 +41721,7 @@
         <v>3834</v>
       </c>
       <c r="D1577" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1577" t="s">
         <v>3080</v>
@@ -41732,7 +41738,7 @@
         <v>3835</v>
       </c>
       <c r="D1578" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1578" t="s">
         <v>3081</v>
@@ -41749,7 +41755,7 @@
         <v>3836</v>
       </c>
       <c r="D1579" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E1579" t="s">
         <v>3080</v>
@@ -41800,7 +41806,7 @@
         <v>3839</v>
       </c>
       <c r="D1582" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E1582" t="s">
         <v>3048</v>
@@ -41817,7 +41823,7 @@
         <v>3085</v>
       </c>
       <c r="D1583" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="E1583" t="s">
         <v>3086</v>
@@ -41851,10 +41857,10 @@
         <v>3823</v>
       </c>
       <c r="D1585" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1585" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -41868,7 +41874,7 @@
         <v>3840</v>
       </c>
       <c r="D1586" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1586" t="s">
         <v>3087</v>
@@ -41936,10 +41942,10 @@
         <v>3843</v>
       </c>
       <c r="D1590" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="E1590" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41953,7 +41959,7 @@
         <v>3844</v>
       </c>
       <c r="D1591" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="E1591" t="s">
         <v>3092</v>
@@ -41970,7 +41976,7 @@
         <v>3092</v>
       </c>
       <c r="D1592" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1592" t="s">
         <v>3055</v>
@@ -41987,10 +41993,10 @@
         <v>3788</v>
       </c>
       <c r="D1593" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="E1593" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -42007,7 +42013,7 @@
         <v>3786</v>
       </c>
       <c r="E1594" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1595" spans="1:5">
@@ -42072,10 +42078,10 @@
         <v>3849</v>
       </c>
       <c r="D1598" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="E1598" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -42089,7 +42095,7 @@
         <v>3850</v>
       </c>
       <c r="D1599" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="E1599" t="s">
         <v>3838</v>
@@ -42313,7 +42319,7 @@
         <v>3098</v>
       </c>
       <c r="E1612" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1613" spans="1:5">
@@ -42500,7 +42506,7 @@
         <v>3098</v>
       </c>
       <c r="E1623" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -42670,7 +42676,7 @@
         <v>3098</v>
       </c>
       <c r="E1633" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -42684,10 +42690,10 @@
         <v>3870</v>
       </c>
       <c r="D1634" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1634" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -42701,10 +42707,10 @@
         <v>3871</v>
       </c>
       <c r="D1635" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="E1635" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -42718,10 +42724,10 @@
         <v>3872</v>
       </c>
       <c r="D1636" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="E1636" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42735,7 +42741,7 @@
         <v>3873</v>
       </c>
       <c r="D1637" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="E1637" t="s">
         <v>3111</v>
@@ -42752,10 +42758,10 @@
         <v>3874</v>
       </c>
       <c r="D1638" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1638" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -42769,10 +42775,10 @@
         <v>3875</v>
       </c>
       <c r="D1639" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="E1639" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1640" spans="1:5">
@@ -42786,7 +42792,7 @@
         <v>3876</v>
       </c>
       <c r="D1640" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1640" t="s">
         <v>3107</v>
@@ -42803,7 +42809,7 @@
         <v>3877</v>
       </c>
       <c r="D1641" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1641" t="s">
         <v>3107</v>
@@ -42820,7 +42826,7 @@
         <v>3878</v>
       </c>
       <c r="D1642" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1642" t="s">
         <v>3106</v>
@@ -42837,7 +42843,7 @@
         <v>3879</v>
       </c>
       <c r="D1643" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="E1643" t="s">
         <v>3106</v>
@@ -42854,7 +42860,7 @@
         <v>3879</v>
       </c>
       <c r="D1644" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="E1644" t="s">
         <v>3105</v>
@@ -42871,7 +42877,7 @@
         <v>3880</v>
       </c>
       <c r="D1645" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="E1645" t="s">
         <v>3113</v>
@@ -42888,7 +42894,7 @@
         <v>3863</v>
       </c>
       <c r="D1646" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="E1646" t="s">
         <v>3113</v>
@@ -43010,7 +43016,7 @@
         <v>3113</v>
       </c>
       <c r="E1653" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -43095,7 +43101,7 @@
         <v>3113</v>
       </c>
       <c r="E1658" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -43415,7 +43421,7 @@
         <v>3902</v>
       </c>
       <c r="D1677" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="E1677" t="s">
         <v>3113</v>
@@ -43432,7 +43438,7 @@
         <v>3113</v>
       </c>
       <c r="D1678" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="E1678" t="s">
         <v>3113</v>
@@ -43449,7 +43455,7 @@
         <v>3113</v>
       </c>
       <c r="D1679" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E1679" t="s">
         <v>3113</v>
@@ -43469,7 +43475,7 @@
         <v>3857</v>
       </c>
       <c r="E1680" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -43500,10 +43506,10 @@
         <v>3904</v>
       </c>
       <c r="D1682" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="E1682" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
@@ -43517,10 +43523,10 @@
         <v>3905</v>
       </c>
       <c r="D1683" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="E1683" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -43534,10 +43540,10 @@
         <v>3365</v>
       </c>
       <c r="D1684" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E1684" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
@@ -43551,7 +43557,7 @@
         <v>3906</v>
       </c>
       <c r="D1685" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="E1685" t="s">
         <v>4066</v>
@@ -43568,10 +43574,10 @@
         <v>3907</v>
       </c>
       <c r="D1686" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1686" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -43585,10 +43591,10 @@
         <v>3908</v>
       </c>
       <c r="D1687" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1687" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -43602,10 +43608,10 @@
         <v>3909</v>
       </c>
       <c r="D1688" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="E1688" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -43619,10 +43625,10 @@
         <v>3910</v>
       </c>
       <c r="D1689" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E1689" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -43636,10 +43642,10 @@
         <v>3911</v>
       </c>
       <c r="D1690" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="E1690" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -43653,7 +43659,7 @@
         <v>3912</v>
       </c>
       <c r="D1691" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="E1691" t="s">
         <v>3128</v>
@@ -43755,7 +43761,7 @@
         <v>3129</v>
       </c>
       <c r="D1697" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="E1697" t="s">
         <v>3129</v>
@@ -43772,10 +43778,10 @@
         <v>3129</v>
       </c>
       <c r="D1698" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="E1698" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1699" spans="1:5